--- a/etp-backend/src/main/resources/energiatodistus-2013-sv.xlsx
+++ b/etp-backend/src/main/resources/energiatodistus-2013-sv.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="1) etusivu" sheetId="1" state="visible" r:id="rId2"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="653">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="655">
   <si>
     <t xml:space="preserve">[:id]</t>
   </si>
@@ -2889,6 +2889,12 @@
   </si>
   <si>
     <t xml:space="preserve">[:huomiot :suositukset-sv]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:huomiot :lisatietoja-fi]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:huomiot :lisatietoja-sv]</t>
   </si>
   <si>
     <t xml:space="preserve">Ytterligare uppgifter om energiprestanda</t>
@@ -3552,7 +3558,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="347">
+  <cellXfs count="348">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3625,14 +3631,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3665,7 +3671,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -3957,7 +3963,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4077,7 +4083,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4173,7 +4179,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -4253,7 +4259,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4517,7 +4523,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4601,7 +4607,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="166" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -4729,7 +4735,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -4885,7 +4891,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -4935,6 +4941,10 @@
     </xf>
     <xf numFmtId="170" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="23" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -8346,9 +8356,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>248760</xdr:colOff>
+      <xdr:colOff>248400</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>262440</xdr:rowOff>
+      <xdr:rowOff>262080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8362,7 +8372,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="4199040"/>
-          <a:ext cx="758520" cy="214920"/>
+          <a:ext cx="758160" cy="214560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8383,9 +8393,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>148680</xdr:colOff>
+      <xdr:colOff>148320</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>262440</xdr:rowOff>
+      <xdr:rowOff>262080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8399,7 +8409,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="4513320"/>
-          <a:ext cx="1101600" cy="214920"/>
+          <a:ext cx="1101240" cy="214560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8420,9 +8430,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>21960</xdr:colOff>
+      <xdr:colOff>21600</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>263520</xdr:rowOff>
+      <xdr:rowOff>263160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8436,7 +8446,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="4828680"/>
-          <a:ext cx="1408680" cy="214920"/>
+          <a:ext cx="1408320" cy="214560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8457,9 +8467,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>345960</xdr:colOff>
+      <xdr:colOff>345600</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>263520</xdr:rowOff>
+      <xdr:rowOff>263160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8473,7 +8483,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="5142960"/>
-          <a:ext cx="1732680" cy="214920"/>
+          <a:ext cx="1732320" cy="214560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8494,9 +8504,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>219240</xdr:colOff>
+      <xdr:colOff>218880</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>276480</xdr:rowOff>
+      <xdr:rowOff>276120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8510,7 +8520,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="5457240"/>
-          <a:ext cx="2039760" cy="227880"/>
+          <a:ext cx="2039400" cy="227520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8531,9 +8541,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>162360</xdr:colOff>
+      <xdr:colOff>162000</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>263520</xdr:rowOff>
+      <xdr:rowOff>263160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8547,7 +8557,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="5771520"/>
-          <a:ext cx="2384640" cy="214920"/>
+          <a:ext cx="2384280" cy="214560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8568,9 +8578,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>102600</xdr:colOff>
+      <xdr:colOff>102240</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>262440</xdr:rowOff>
+      <xdr:rowOff>262080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8584,7 +8594,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="6085080"/>
-          <a:ext cx="2697840" cy="214920"/>
+          <a:ext cx="2697480" cy="214560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8984,9 +8994,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>318960</xdr:colOff>
+      <xdr:colOff>318600</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>79920</xdr:rowOff>
+      <xdr:rowOff>79560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8996,7 +9006,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1994400" y="149040"/>
-          <a:ext cx="7000920" cy="10064160"/>
+          <a:ext cx="7000560" cy="10063800"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -9082,9 +9092,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>6840</xdr:colOff>
+      <xdr:colOff>6480</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>81000</xdr:rowOff>
+      <xdr:rowOff>80640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9094,7 +9104,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1987560" y="10344960"/>
-          <a:ext cx="7018200" cy="267840"/>
+          <a:ext cx="7017840" cy="267480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9148,9 +9158,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>435240</xdr:colOff>
+      <xdr:colOff>434880</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>58320</xdr:rowOff>
+      <xdr:rowOff>57960</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9160,7 +9170,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5525280" y="4883760"/>
-          <a:ext cx="797040" cy="268920"/>
+          <a:ext cx="796680" cy="268560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9212,9 +9222,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>434160</xdr:colOff>
+      <xdr:colOff>433800</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>198000</xdr:rowOff>
+      <xdr:rowOff>197640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9224,7 +9234,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5524200" y="5023440"/>
-          <a:ext cx="797040" cy="268920"/>
+          <a:ext cx="796680" cy="268560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -28785,7 +28795,7 @@
   </sheetPr>
   <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="J61" activeCellId="0" sqref="J61"/>
     </sheetView>
   </sheetViews>
@@ -29837,8 +29847,8 @@
   </sheetPr>
   <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D37" activeCellId="0" sqref="D37"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A41" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G58" activeCellId="0" sqref="G58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -30443,7 +30453,9 @@
       <c r="G43" s="333"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="151"/>
+      <c r="A44" s="151" t="s">
+        <v>648</v>
+      </c>
       <c r="C44" s="333"/>
       <c r="D44" s="333"/>
       <c r="E44" s="333"/>
@@ -30451,7 +30463,9 @@
       <c r="G44" s="333"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="151"/>
+      <c r="A45" s="151" t="s">
+        <v>649</v>
+      </c>
       <c r="C45" s="333"/>
       <c r="D45" s="333"/>
       <c r="E45" s="333"/>
@@ -30556,7 +30570,7 @@
     </row>
     <row r="58" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C58" s="332" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="D58" s="95"/>
       <c r="E58" s="168"/>
@@ -30574,7 +30588,7 @@
     <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="151"/>
       <c r="C60" s="308" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="D60" s="308"/>
       <c r="E60" s="308"/>
@@ -30583,35 +30597,38 @@
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="151"/>
-      <c r="C61" s="316"/>
-      <c r="D61" s="316"/>
-      <c r="E61" s="316"/>
-      <c r="F61" s="316"/>
-      <c r="G61" s="316"/>
+      <c r="C61" s="346" t="str">
+        <f aca="false">A45</f>
+        <v>[:huomiot :lisatietoja-sv]</v>
+      </c>
+      <c r="D61" s="346"/>
+      <c r="E61" s="346"/>
+      <c r="F61" s="346"/>
+      <c r="G61" s="346"/>
     </row>
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="151"/>
-      <c r="C62" s="316"/>
-      <c r="D62" s="316"/>
-      <c r="E62" s="316"/>
-      <c r="F62" s="316"/>
-      <c r="G62" s="316"/>
+      <c r="C62" s="346"/>
+      <c r="D62" s="346"/>
+      <c r="E62" s="346"/>
+      <c r="F62" s="346"/>
+      <c r="G62" s="346"/>
     </row>
     <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="151"/>
-      <c r="C63" s="316"/>
-      <c r="D63" s="316"/>
-      <c r="E63" s="316"/>
-      <c r="F63" s="316"/>
-      <c r="G63" s="316"/>
+      <c r="C63" s="346"/>
+      <c r="D63" s="346"/>
+      <c r="E63" s="346"/>
+      <c r="F63" s="346"/>
+      <c r="G63" s="346"/>
     </row>
     <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="151"/>
-      <c r="C64" s="316"/>
-      <c r="D64" s="316"/>
-      <c r="E64" s="316"/>
-      <c r="F64" s="316"/>
-      <c r="G64" s="316"/>
+      <c r="C64" s="346"/>
+      <c r="D64" s="346"/>
+      <c r="E64" s="346"/>
+      <c r="F64" s="346"/>
+      <c r="G64" s="346"/>
     </row>
     <row r="65" customFormat="false" ht="5.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C65" s="144"/>
@@ -30622,7 +30639,7 @@
     </row>
     <row r="66" customFormat="false" ht="4.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="15">
     <mergeCell ref="C3:G12"/>
     <mergeCell ref="C13:G13"/>
     <mergeCell ref="D14:G14"/>
@@ -30637,10 +30654,7 @@
     <mergeCell ref="C37:C38"/>
     <mergeCell ref="C43:G57"/>
     <mergeCell ref="C60:G60"/>
-    <mergeCell ref="C61:G61"/>
-    <mergeCell ref="C62:G62"/>
-    <mergeCell ref="C63:G63"/>
-    <mergeCell ref="C64:G64"/>
+    <mergeCell ref="C61:G64"/>
   </mergeCells>
   <conditionalFormatting sqref="B15:D16 B14:C16 H13:AMJ17 B13:B17 C45:C49 A65:AMJ1048576 A1:AMJ12 C42:G44 C57:G57 E59:AMJ59 B59:B63 H60:AMJ64 C61:C63 B39:B57 H39:AMJ57 B19:B37 H19:AMJ37 C22:G22 C19:F21 D14 A58:AMJ58">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="451">
@@ -30766,21 +30780,21 @@
     </row>
     <row r="2" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="151" t="s">
-        <v>650</v>
-      </c>
-      <c r="C2" s="346" t="s">
-        <v>651</v>
-      </c>
-      <c r="D2" s="346"/>
-      <c r="E2" s="346"/>
-      <c r="F2" s="346"/>
-      <c r="G2" s="346"/>
-      <c r="H2" s="346"/>
-      <c r="I2" s="346"/>
+        <v>652</v>
+      </c>
+      <c r="C2" s="347" t="s">
+        <v>653</v>
+      </c>
+      <c r="D2" s="347"/>
+      <c r="E2" s="347"/>
+      <c r="F2" s="347"/>
+      <c r="G2" s="347"/>
+      <c r="H2" s="347"/>
+      <c r="I2" s="347"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="327" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="C3" s="333" t="str">
         <f aca="false">A3</f>

--- a/etp-backend/src/main/resources/energiatodistus-2013-sv.xlsx
+++ b/etp-backend/src/main/resources/energiatodistus-2013-sv.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="1) etusivu" sheetId="1" state="visible" r:id="rId2"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="655">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="654">
   <si>
     <t xml:space="preserve">[:id]</t>
   </si>
@@ -1644,9 +1644,6 @@
     <t xml:space="preserve">med energiformsfaktor</t>
   </si>
   <si>
-    <t xml:space="preserve">kWh/vuosi</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -1676,7 +1673,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">/vuosi</t>
+      <t xml:space="preserve">/år</t>
     </r>
   </si>
   <si>
@@ -6672,13 +6669,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FFFF0000"/>
       </font>
@@ -6919,6 +6909,13 @@
       <font>
         <color rgb="FFFF0000"/>
       </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF99"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -9287,7 +9284,7 @@
   </sheetPr>
   <dimension ref="A1:AK262"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="L49" activeCellId="0" sqref="L49"/>
     </sheetView>
   </sheetViews>
@@ -19096,7 +19093,7 @@
   </sheetPr>
   <dimension ref="A1:AC82"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="N15" activeCellId="0" sqref="N15"/>
     </sheetView>
   </sheetViews>
@@ -21935,8 +21932,8 @@
   </sheetPr>
   <dimension ref="A1:N94"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A68" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F81" activeCellId="0" sqref="F81"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -24333,8 +24330,8 @@
   </sheetPr>
   <dimension ref="A1:T113"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D80" activeCellId="0" sqref="D80"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G22" activeCellId="0" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -24656,16 +24653,16 @@
       <c r="C16" s="249"/>
       <c r="D16" s="250"/>
       <c r="E16" s="251" t="s">
-        <v>337</v>
+        <v>106</v>
       </c>
       <c r="F16" s="251" t="s">
         <v>108</v>
       </c>
       <c r="G16" s="251" t="s">
+        <v>337</v>
+      </c>
+      <c r="H16" s="252" t="s">
         <v>338</v>
-      </c>
-      <c r="H16" s="252" t="s">
-        <v>339</v>
       </c>
       <c r="I16" s="181"/>
       <c r="J16" s="239"/>
@@ -24681,7 +24678,7 @@
     </row>
     <row r="17" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="159" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C17" s="173"/>
       <c r="D17" s="171"/>
@@ -24811,7 +24808,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="159" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C21" s="173"/>
       <c r="D21" s="253" t="s">
@@ -24957,7 +24954,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="159" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C25" s="173"/>
       <c r="D25" s="258" t="str">
@@ -24998,7 +24995,7 @@
       </c>
       <c r="C26" s="173"/>
       <c r="D26" s="259" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E26" s="260" t="str">
         <f aca="false">A42</f>
@@ -25053,7 +25050,7 @@
       </c>
       <c r="C28" s="167"/>
       <c r="D28" s="95" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E28" s="168"/>
       <c r="F28" s="168"/>
@@ -25096,7 +25093,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="159" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C30" s="173"/>
       <c r="D30" s="171"/>
@@ -25245,7 +25242,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="159" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C35" s="173"/>
       <c r="D35" s="262" t="str">
@@ -25333,7 +25330,7 @@
       </c>
       <c r="C38" s="167"/>
       <c r="D38" s="95" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E38" s="168"/>
       <c r="F38" s="168"/>
@@ -25375,19 +25372,19 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="159" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C40" s="173"/>
       <c r="D40" s="171"/>
       <c r="E40" s="171"/>
       <c r="F40" s="205" t="s">
+        <v>348</v>
+      </c>
+      <c r="G40" s="181" t="s">
         <v>349</v>
       </c>
-      <c r="G40" s="181" t="s">
+      <c r="H40" s="181" t="s">
         <v>350</v>
-      </c>
-      <c r="H40" s="181" t="s">
-        <v>351</v>
       </c>
       <c r="I40" s="181"/>
       <c r="J40" s="239"/>
@@ -25431,7 +25428,7 @@
     </row>
     <row r="42" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="159" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C42" s="173"/>
       <c r="D42" s="171"/>
@@ -25453,7 +25450,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="159" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C43" s="173"/>
       <c r="D43" s="174" t="s">
@@ -25477,11 +25474,11 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="159" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C44" s="173"/>
       <c r="D44" s="174" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E44" s="174"/>
       <c r="F44" s="254" t="str">
@@ -25509,11 +25506,11 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="159" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C45" s="173"/>
       <c r="D45" s="174" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E45" s="174"/>
       <c r="F45" s="188" t="str">
@@ -25541,11 +25538,11 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="159" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C46" s="173"/>
       <c r="D46" s="174" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E46" s="174"/>
       <c r="F46" s="188" t="str">
@@ -25573,11 +25570,11 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="159" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C47" s="173"/>
       <c r="D47" s="174" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E47" s="174"/>
       <c r="F47" s="188" t="str">
@@ -25604,7 +25601,7 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="159" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C48" s="173"/>
       <c r="D48" s="174" t="s">
@@ -25637,11 +25634,11 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="159" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C49" s="173"/>
       <c r="D49" s="174" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E49" s="174"/>
       <c r="F49" s="188" t="str">
@@ -25668,11 +25665,11 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="159" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C50" s="173"/>
       <c r="D50" s="259" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E50" s="259"/>
       <c r="F50" s="267" t="str">
@@ -25701,11 +25698,11 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="159" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C51" s="173"/>
       <c r="D51" s="268" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E51" s="259"/>
       <c r="F51" s="225"/>
@@ -25725,7 +25722,7 @@
     </row>
     <row r="52" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="159" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C52" s="173"/>
       <c r="D52" s="178"/>
@@ -25747,11 +25744,11 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="159" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C53" s="167"/>
       <c r="D53" s="95" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E53" s="168"/>
       <c r="F53" s="168"/>
@@ -25762,7 +25759,7 @@
     </row>
     <row r="54" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="159" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C54" s="173"/>
       <c r="D54" s="178"/>
@@ -25775,7 +25772,7 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="159" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C55" s="173"/>
       <c r="D55" s="171"/>
@@ -25791,7 +25788,7 @@
     </row>
     <row r="56" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="159" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C56" s="173"/>
       <c r="D56" s="171"/>
@@ -25803,11 +25800,11 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="159" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C57" s="173"/>
       <c r="D57" s="174" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E57" s="174"/>
       <c r="F57" s="223" t="str">
@@ -25824,11 +25821,11 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="159" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C58" s="173"/>
       <c r="D58" s="174" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E58" s="174"/>
       <c r="F58" s="223" t="str">
@@ -25845,7 +25842,7 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="159" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C59" s="173"/>
       <c r="D59" s="174" t="s">
@@ -25866,11 +25863,11 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="159" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C60" s="173"/>
       <c r="D60" s="174" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E60" s="174"/>
       <c r="F60" s="223" t="str">
@@ -25887,7 +25884,7 @@
     </row>
     <row r="61" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="159" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C61" s="173"/>
       <c r="D61" s="174"/>
@@ -25900,11 +25897,11 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="159" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C62" s="173"/>
       <c r="D62" s="222" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E62" s="222"/>
       <c r="F62" s="222"/>
@@ -25915,11 +25912,11 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="159" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C63" s="173"/>
       <c r="D63" s="222" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E63" s="222"/>
       <c r="F63" s="222"/>
@@ -25930,7 +25927,7 @@
     </row>
     <row r="64" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="159" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C64" s="173"/>
       <c r="D64" s="174"/>
@@ -25943,11 +25940,11 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="159" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C65" s="167"/>
       <c r="D65" s="95" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E65" s="168"/>
       <c r="F65" s="168"/>
@@ -25958,7 +25955,7 @@
     </row>
     <row r="66" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="159" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C66" s="173"/>
       <c r="D66" s="178"/>
@@ -25971,7 +25968,7 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="159" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C67" s="173"/>
       <c r="D67" s="171"/>
@@ -25987,7 +25984,7 @@
     </row>
     <row r="68" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="159" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C68" s="173"/>
       <c r="D68" s="171"/>
@@ -25999,11 +25996,11 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="159" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C69" s="173"/>
       <c r="D69" s="196" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E69" s="196"/>
       <c r="F69" s="223" t="str">
@@ -26020,7 +26017,7 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="159" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C70" s="173"/>
       <c r="D70" s="196" t="s">
@@ -26041,11 +26038,11 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="159" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C71" s="173"/>
       <c r="D71" s="174" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E71" s="174"/>
       <c r="F71" s="223" t="str">
@@ -26062,7 +26059,7 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="159" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C72" s="173"/>
       <c r="D72" s="174" t="s">
@@ -26083,11 +26080,11 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="159" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C73" s="173"/>
       <c r="D73" s="174" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E73" s="174"/>
       <c r="F73" s="223" t="str">
@@ -26104,7 +26101,7 @@
     </row>
     <row r="74" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="159" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C74" s="173"/>
       <c r="D74" s="174"/>
@@ -26117,11 +26114,11 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="159" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C75" s="167"/>
       <c r="D75" s="95" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E75" s="168"/>
       <c r="F75" s="168"/>
@@ -26132,7 +26129,7 @@
     </row>
     <row r="76" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="159" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C76" s="173"/>
       <c r="D76" s="178"/>
@@ -26145,11 +26142,11 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="159" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C77" s="173"/>
       <c r="D77" s="174" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E77" s="174"/>
       <c r="F77" s="269" t="str">
@@ -26163,7 +26160,7 @@
     </row>
     <row r="78" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="159" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C78" s="229"/>
       <c r="D78" s="230"/>
@@ -26176,177 +26173,177 @@
     </row>
     <row r="79" customFormat="false" ht="5.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="159" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="159" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="159" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="159" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="159" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="159" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="159" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="159" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="159" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="159" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="159" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="159" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="159" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="159" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="159" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="159" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="159" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="159" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="159" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="159" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="159" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="159" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="159" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="159" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="159" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="159" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="159" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="159" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="159" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="159" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="159" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="159" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="159" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="159" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="159" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
   </sheetData>
@@ -26406,87 +26403,87 @@
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E16">
+  <conditionalFormatting sqref="F40:H40 F42:H42">
     <cfRule type="cellIs" priority="6" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="214">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F40:H40 F42:H42">
+  <conditionalFormatting sqref="F50:H51">
     <cfRule type="cellIs" priority="7" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="215">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F50:H51">
+  <conditionalFormatting sqref="H50:H51">
     <cfRule type="cellIs" priority="8" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="216">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="F50:F51 F50:H50">
+    <cfRule type="cellIs" priority="9" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="217">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G50:G51">
+    <cfRule type="cellIs" priority="10" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="218">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D64">
+    <cfRule type="cellIs" priority="11" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="219">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F31:G31 F30">
+    <cfRule type="cellIs" priority="12" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="220">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H63">
+    <cfRule type="cellIs" priority="13" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="221">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9:F10">
+    <cfRule type="cellIs" priority="14" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="222">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E10">
+    <cfRule type="cellIs" priority="15" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="223">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25">
+    <cfRule type="expression" priority="16" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="224">
+      <formula>LEFT(D25,1)="*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D26">
+    <cfRule type="cellIs" priority="17" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="225">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G30 F41:H41 G55 G67">
+    <cfRule type="cellIs" priority="18" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="226">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D50:D51">
+    <cfRule type="cellIs" priority="19" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="227">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D43:D49">
+    <cfRule type="cellIs" priority="20" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="228">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G50:G51">
+    <cfRule type="cellIs" priority="21" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="229">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="H50:H51">
-    <cfRule type="cellIs" priority="9" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="217">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F50:F51 F50:H50">
-    <cfRule type="cellIs" priority="10" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="218">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G50:G51">
-    <cfRule type="cellIs" priority="11" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="219">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D64">
-    <cfRule type="cellIs" priority="12" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="220">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F31:G31 F30">
-    <cfRule type="cellIs" priority="13" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="221">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H63">
-    <cfRule type="cellIs" priority="14" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="222">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F9:F10">
-    <cfRule type="cellIs" priority="15" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="223">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" priority="16" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="224">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D25">
-    <cfRule type="expression" priority="17" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="225">
-      <formula>LEFT(D25,1)="*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D26">
-    <cfRule type="cellIs" priority="18" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="226">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G30 F41:H41 G55 G67">
-    <cfRule type="cellIs" priority="19" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="227">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D50:D51">
-    <cfRule type="cellIs" priority="20" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="228">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D43:D49">
-    <cfRule type="cellIs" priority="21" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="229">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G50:G51">
     <cfRule type="cellIs" priority="22" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="230">
       <formula>"*"</formula>
     </cfRule>
@@ -26496,77 +26493,77 @@
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H50:H51">
+  <conditionalFormatting sqref="G43">
     <cfRule type="cellIs" priority="24" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="232">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G43">
+  <conditionalFormatting sqref="H43">
     <cfRule type="cellIs" priority="25" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="233">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H43">
+  <conditionalFormatting sqref="H61:H62">
     <cfRule type="cellIs" priority="26" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="234">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H61:H62">
+      <formula>"Täytä lähtötietoihin!"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F56 G61">
     <cfRule type="cellIs" priority="27" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="235">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F61">
+    <cfRule type="cellIs" priority="28" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="236">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G56 F55">
+    <cfRule type="cellIs" priority="29" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="237">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F61">
+    <cfRule type="cellIs" priority="30" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="238">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G68">
+    <cfRule type="cellIs" priority="31" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="239">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D57:D61">
+    <cfRule type="cellIs" priority="32" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="240">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D62:D63">
+    <cfRule type="cellIs" priority="33" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="241">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C65:H66 E74:H74">
+    <cfRule type="cellIs" priority="34" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="242">
       <formula>"Täytä lähtötietoihin!"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F56 G61">
-    <cfRule type="cellIs" priority="28" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="236">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F61">
-    <cfRule type="cellIs" priority="29" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="237">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G56 F55">
-    <cfRule type="cellIs" priority="30" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="238">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F61">
-    <cfRule type="cellIs" priority="31" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="239">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G68">
-    <cfRule type="cellIs" priority="32" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="240">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D57:D61">
-    <cfRule type="cellIs" priority="33" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="241">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D62:D63">
-    <cfRule type="cellIs" priority="34" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="242">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C65:H66 E74:H74">
+  <conditionalFormatting sqref="D74">
     <cfRule type="cellIs" priority="35" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="243">
-      <formula>"Täytä lähtötietoihin!"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D74">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F68">
     <cfRule type="cellIs" priority="36" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="244">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F68">
+  <conditionalFormatting sqref="D70:D71 D73">
     <cfRule type="cellIs" priority="37" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="245">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D70:D71 D73">
+  <conditionalFormatting sqref="F77">
     <cfRule type="cellIs" priority="38" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="246">
       <formula>"*"</formula>
     </cfRule>
@@ -26576,57 +26573,57 @@
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F77">
+  <conditionalFormatting sqref="D77">
     <cfRule type="cellIs" priority="40" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="248">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D77">
+  <conditionalFormatting sqref="F17">
     <cfRule type="cellIs" priority="41" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="249">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F17">
+  <conditionalFormatting sqref="E17">
     <cfRule type="cellIs" priority="42" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="250">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E17">
+  <conditionalFormatting sqref="E26">
     <cfRule type="cellIs" priority="43" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="251">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E26">
+  <conditionalFormatting sqref="F26">
     <cfRule type="cellIs" priority="44" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="252">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F26">
+  <conditionalFormatting sqref="J3 J8 J11 J13 J15 J17 J19 J21 J25 J27 J29 J31 J33 J35 J37 J39 J41 J43 J45 J47 J49 J51 J53 J55 J57 J59 J61 J63 J65 J67 J69 J71:J72 J74 J76 J78">
     <cfRule type="cellIs" priority="45" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="253">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J3 J8 J11 J13 J15 J17 J19 J21 J25 J27 J29 J31 J33 J35 J37 J39 J41 J43 J45 J47 J49 J51 J53 J55 J57 J59 J61 J63 J65 J67 J69 J71:J72 J74 J76 J78">
+  <conditionalFormatting sqref="J4:J7 J9:J10 J12 J14 J16 J18 J20 J22:J24 J26 J28 J30 J32 J34 J36 J38 J40 J42 J44 J46 J48 J50 J52 J54 J56 J58 J60 J62 J64 J66 J68 J70 J73 J75 J77">
     <cfRule type="cellIs" priority="46" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="254">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J4:J7 J9:J10 J12 J14 J16 J18 J20 J22:J24 J26 J28 J30 J32 J34 J36 J38 J40 J42 J44 J46 J48 J50 J52 J54 J56 J58 J60 J62 J64 J66 J68 J70 J73 J75 J77">
+  <conditionalFormatting sqref="I12:I14 I16:I18 I20:I24 I26:I28 I30:I32 I34:I36 I38:I40 I42:I44 I46:I48 I50:I52 I54:I56 I58:I60 I62:I64 I66:I68 I70:I73 I75:I77">
     <cfRule type="cellIs" priority="47" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="255">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I12:I14 I16:I18 I20:I24 I26:I28 I30:I32 I34:I36 I38:I40 I42:I44 I46:I48 I50:I52 I54:I56 I58:I60 I62:I64 I66:I68 I70:I73 I75:I77">
+  <conditionalFormatting sqref="I3 I8 I11 I15 I19 I25 I29 I33 I37 I41 I45 I49 I53 I57 I61 I65 I69 I74 I78">
     <cfRule type="cellIs" priority="48" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="256">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I3 I8 I11 I15 I19 I25 I29 I33 I37 I41 I45 I49 I53 I57 I61 I65 I69 I74 I78">
+  <conditionalFormatting sqref="I2">
     <cfRule type="cellIs" priority="49" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="257">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I2">
+  <conditionalFormatting sqref="H32:H36">
     <cfRule type="cellIs" priority="50" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="258">
       <formula>"*"</formula>
     </cfRule>
@@ -26636,57 +26633,57 @@
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H32:H36">
+  <conditionalFormatting sqref="H67:H68">
     <cfRule type="cellIs" priority="52" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="260">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H67:H68">
+  <conditionalFormatting sqref="H69:H73">
     <cfRule type="cellIs" priority="53" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="261">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H69:H73">
+  <conditionalFormatting sqref="H56 H58 H60">
     <cfRule type="cellIs" priority="54" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="262">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H56 H58 H60">
+  <conditionalFormatting sqref="H55 H57 H59">
     <cfRule type="cellIs" priority="55" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="263">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H55 H57 H59">
+  <conditionalFormatting sqref="F18:F25 H20">
     <cfRule type="cellIs" priority="56" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="264">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F18:F25 H20">
+  <conditionalFormatting sqref="G32:G36">
     <cfRule type="cellIs" priority="57" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="265">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G32:G36">
+  <conditionalFormatting sqref="E8">
     <cfRule type="cellIs" priority="58" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="266">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E8">
+  <conditionalFormatting sqref="E5 E8">
     <cfRule type="cellIs" priority="59" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="267">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E5 E8">
+      <formula>"Täytä etusivulle!"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D72">
     <cfRule type="cellIs" priority="60" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="268">
-      <formula>"Täytä etusivulle!"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D72">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G26">
     <cfRule type="cellIs" priority="61" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="269">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G26">
+  <conditionalFormatting sqref="H26">
     <cfRule type="cellIs" priority="62" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="270">
       <formula>"*"</formula>
     </cfRule>
@@ -26696,176 +26693,176 @@
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H26">
+  <conditionalFormatting sqref="G21:G25 G18:G19">
     <cfRule type="cellIs" priority="64" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="272">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G21:G25 G18:G19">
+  <conditionalFormatting sqref="H21:H25 H18:H19">
     <cfRule type="cellIs" priority="65" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="273">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H21:H25 H18:H19">
+  <conditionalFormatting sqref="G50:H50">
     <cfRule type="cellIs" priority="66" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="274">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G50:H50">
+  <conditionalFormatting sqref="G57:G60">
     <cfRule type="cellIs" priority="67" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="275">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G57:G60">
+  <conditionalFormatting sqref="G69:G73">
     <cfRule type="cellIs" priority="68" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="276">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G69:G73">
+  <conditionalFormatting sqref="E18">
     <cfRule type="cellIs" priority="69" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="277">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E18">
+  <conditionalFormatting sqref="E19:E25 G20">
     <cfRule type="cellIs" priority="70" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="278">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E19:E25 G20">
+  <conditionalFormatting sqref="D9">
     <cfRule type="cellIs" priority="71" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="279">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D9">
+  <conditionalFormatting sqref="N22:O24">
     <cfRule type="cellIs" priority="72" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="280">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N22:O24">
+  <conditionalFormatting sqref="F67">
     <cfRule type="cellIs" priority="73" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="281">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F67">
+  <conditionalFormatting sqref="F69">
     <cfRule type="cellIs" priority="74" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="282">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F69">
+  <conditionalFormatting sqref="F70:F73">
     <cfRule type="cellIs" priority="75" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="283">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F70:F73">
+  <conditionalFormatting sqref="F57">
     <cfRule type="cellIs" priority="76" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="284">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F57">
+  <conditionalFormatting sqref="F58:F60">
     <cfRule type="cellIs" priority="77" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="285">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F58:F60">
+  <conditionalFormatting sqref="F45:F49">
     <cfRule type="cellIs" priority="78" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="286">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F45:F49">
+  <conditionalFormatting sqref="G44:G46">
     <cfRule type="cellIs" priority="79" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="287">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G44:G46">
+  <conditionalFormatting sqref="G48">
     <cfRule type="cellIs" priority="80" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="288">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G48">
+  <conditionalFormatting sqref="H48">
     <cfRule type="cellIs" priority="81" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="289">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H48">
+  <conditionalFormatting sqref="F36">
     <cfRule type="cellIs" priority="82" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="290">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F36">
+  <conditionalFormatting sqref="F35">
     <cfRule type="cellIs" priority="83" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="291">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F35">
+  <conditionalFormatting sqref="F34">
     <cfRule type="cellIs" priority="84" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="292">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F34">
+  <conditionalFormatting sqref="F33">
     <cfRule type="cellIs" priority="85" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="293">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F33">
+  <conditionalFormatting sqref="F32">
     <cfRule type="cellIs" priority="86" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="294">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F32">
-    <cfRule type="cellIs" priority="87" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="295">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D22:D24">
-    <cfRule type="expression" priority="88" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="148">
+    <cfRule type="expression" priority="87" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="148">
       <formula>LEFT(D22,1)="*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20:D21">
-    <cfRule type="expression" priority="89" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="182">
+    <cfRule type="expression" priority="88" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="182">
       <formula>LEFT(D20,1)="*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44">
-    <cfRule type="cellIs" priority="90" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="296">
+    <cfRule type="cellIs" priority="89" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="295">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H44">
-    <cfRule type="cellIs" priority="91" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="159">
+    <cfRule type="cellIs" priority="90" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="159">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G47:H47 G49:H49">
-    <cfRule type="cellIs" priority="92" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="160">
+    <cfRule type="cellIs" priority="91" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="160">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H45:H46">
-    <cfRule type="cellIs" priority="93" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="164">
+    <cfRule type="cellIs" priority="92" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="164">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:D36">
-    <cfRule type="cellIs" priority="94" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="185">
+    <cfRule type="cellIs" priority="93" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="185">
       <formula>"tyhjä"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="95" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="186">
+    <cfRule type="cellIs" priority="94" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="186">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:D36">
-    <cfRule type="cellIs" priority="96" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="187">
+    <cfRule type="cellIs" priority="95" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="187">
       <formula>"- Valitse -"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18:D19">
-    <cfRule type="expression" priority="97" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="185">
+    <cfRule type="expression" priority="96" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="185">
       <formula>LEFT(D18,1)="*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D69:D70">
-    <cfRule type="cellIs" priority="98" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="181">
+    <cfRule type="cellIs" priority="97" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="181">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16">
+    <cfRule type="cellIs" priority="98" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="296">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26916,11 +26913,11 @@
     </row>
     <row r="2" s="271" customFormat="true" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="270" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C2" s="272"/>
       <c r="D2" s="273" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E2" s="273"/>
       <c r="F2" s="274"/>
@@ -26932,11 +26929,11 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="91" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C3" s="98"/>
       <c r="D3" s="24" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E3" s="276"/>
       <c r="F3" s="14"/>
@@ -26948,7 +26945,7 @@
     </row>
     <row r="4" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="91" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C4" s="98"/>
       <c r="D4" s="14"/>
@@ -26962,11 +26959,11 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="91" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C5" s="94"/>
       <c r="D5" s="95" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E5" s="95"/>
       <c r="F5" s="96"/>
@@ -26978,7 +26975,7 @@
     </row>
     <row r="6" customFormat="false" ht="3.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="91" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C6" s="98"/>
       <c r="D6" s="14"/>
@@ -26992,7 +26989,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="91" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C7" s="98"/>
       <c r="D7" s="62" t="str">
@@ -27007,7 +27004,7 @@
     </row>
     <row r="8" customFormat="false" ht="3.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="91" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C8" s="98"/>
       <c r="D8" s="14"/>
@@ -27020,7 +27017,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="91" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C9" s="98"/>
       <c r="D9" s="14"/>
@@ -27034,11 +27031,11 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="91" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C10" s="98"/>
       <c r="D10" s="62" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E10" s="14"/>
       <c r="F10" s="278"/>
@@ -27054,7 +27051,7 @@
     </row>
     <row r="11" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="91" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C11" s="98"/>
       <c r="D11" s="14"/>
@@ -27068,11 +27065,11 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="91" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C12" s="98"/>
       <c r="D12" s="287" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E12" s="287"/>
       <c r="F12" s="288"/>
@@ -27091,11 +27088,11 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="91" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C13" s="98"/>
       <c r="D13" s="287" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E13" s="287"/>
       <c r="F13" s="288"/>
@@ -27114,11 +27111,11 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="91" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C14" s="98"/>
       <c r="D14" s="279" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E14" s="287"/>
       <c r="F14" s="288"/>
@@ -27137,11 +27134,11 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="91" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C15" s="98"/>
       <c r="D15" s="279" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E15" s="287"/>
       <c r="F15" s="288"/>
@@ -27160,11 +27157,11 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="91" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C16" s="98"/>
       <c r="D16" s="287" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E16" s="287"/>
       <c r="F16" s="287"/>
@@ -27183,7 +27180,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="91" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C17" s="98"/>
       <c r="D17" s="294" t="str">
@@ -27207,7 +27204,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="91" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C18" s="98"/>
       <c r="D18" s="294" t="str">
@@ -27231,7 +27228,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="91" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C19" s="98"/>
       <c r="D19" s="294" t="str">
@@ -27255,7 +27252,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="91" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C20" s="98"/>
       <c r="D20" s="294" t="str">
@@ -27279,7 +27276,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="91" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C21" s="98"/>
       <c r="D21" s="294" t="str">
@@ -27303,7 +27300,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="91" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C22" s="98"/>
       <c r="D22" s="295"/>
@@ -27321,7 +27318,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="91" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C23" s="98"/>
       <c r="D23" s="299"/>
@@ -27336,21 +27333,21 @@
     </row>
     <row r="24" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="91" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C24" s="98"/>
       <c r="D24" s="302" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E24" s="302"/>
       <c r="F24" s="303" t="s">
+        <v>472</v>
+      </c>
+      <c r="G24" s="304" t="s">
         <v>473</v>
       </c>
-      <c r="G24" s="304" t="s">
+      <c r="H24" s="303" t="s">
         <v>474</v>
-      </c>
-      <c r="H24" s="303" t="s">
-        <v>475</v>
       </c>
       <c r="I24" s="304" t="s">
         <v>106</v>
@@ -27363,7 +27360,7 @@
     </row>
     <row r="25" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="91" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C25" s="98"/>
       <c r="D25" s="62"/>
@@ -27378,11 +27375,11 @@
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="91" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C26" s="98"/>
       <c r="D26" s="287" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E26" s="287"/>
       <c r="F26" s="291" t="str">
@@ -27390,7 +27387,7 @@
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :kevyt-polttooljy]</v>
       </c>
       <c r="G26" s="308" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H26" s="281" t="n">
         <v>10</v>
@@ -27408,11 +27405,11 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="91" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C27" s="98"/>
       <c r="D27" s="287" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E27" s="287"/>
       <c r="F27" s="291" t="str">
@@ -27420,7 +27417,7 @@
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :pilkkeet-havu-sekapuu]</v>
       </c>
       <c r="G27" s="308" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H27" s="281" t="n">
         <v>1300</v>
@@ -27438,11 +27435,11 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="91" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C28" s="98"/>
       <c r="D28" s="287" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E28" s="287"/>
       <c r="F28" s="291" t="str">
@@ -27450,7 +27447,7 @@
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :pilkkeet-koivu]</v>
       </c>
       <c r="G28" s="308" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H28" s="281" t="n">
         <v>1700</v>
@@ -27468,11 +27465,11 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="91" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C29" s="98"/>
       <c r="D29" s="287" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E29" s="287"/>
       <c r="F29" s="291" t="str">
@@ -27480,7 +27477,7 @@
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :puupelletit]</v>
       </c>
       <c r="G29" s="308" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="H29" s="281" t="n">
         <v>4.7</v>
@@ -27498,7 +27495,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="91" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C30" s="98"/>
       <c r="D30" s="312" t="str">
@@ -27531,7 +27528,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="91" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C31" s="98"/>
       <c r="D31" s="312" t="str">
@@ -27564,7 +27561,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="91" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C32" s="98"/>
       <c r="D32" s="315"/>
@@ -27585,7 +27582,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="91" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C33" s="98"/>
       <c r="D33" s="315"/>
@@ -27606,7 +27603,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="91" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C34" s="98"/>
       <c r="D34" s="315"/>
@@ -27627,7 +27624,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="91" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C35" s="98"/>
       <c r="D35" s="315"/>
@@ -27648,7 +27645,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="91" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C36" s="98"/>
       <c r="D36" s="315"/>
@@ -27669,7 +27666,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="91" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C37" s="98"/>
       <c r="D37" s="315"/>
@@ -27690,7 +27687,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="91" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C38" s="98"/>
       <c r="D38" s="315"/>
@@ -27711,7 +27708,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="91" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C39" s="98"/>
       <c r="D39" s="315"/>
@@ -27732,7 +27729,7 @@
     </row>
     <row r="40" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="91" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C40" s="98"/>
       <c r="D40" s="299"/>
@@ -27747,11 +27744,11 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="91" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C41" s="98"/>
       <c r="D41" s="317" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E41" s="299"/>
       <c r="F41" s="288"/>
@@ -27764,7 +27761,7 @@
     </row>
     <row r="42" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="91" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C42" s="98"/>
       <c r="D42" s="318"/>
@@ -27779,7 +27776,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="91" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C43" s="98"/>
       <c r="D43" s="299"/>
@@ -27794,11 +27791,11 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="91" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C44" s="98"/>
       <c r="D44" s="62" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E44" s="299"/>
       <c r="F44" s="288"/>
@@ -27811,7 +27808,7 @@
     </row>
     <row r="45" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="91" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C45" s="98"/>
       <c r="D45" s="62"/>
@@ -27826,7 +27823,7 @@
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="91" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C46" s="98"/>
       <c r="D46" s="62"/>
@@ -27845,11 +27842,11 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="91" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C47" s="98"/>
       <c r="D47" s="24" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E47" s="24"/>
       <c r="F47" s="323"/>
@@ -27868,11 +27865,11 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="91" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C48" s="98"/>
       <c r="D48" s="24" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E48" s="24"/>
       <c r="F48" s="323"/>
@@ -27891,11 +27888,11 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="91" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C49" s="98"/>
       <c r="D49" s="24" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E49" s="24"/>
       <c r="F49" s="323"/>
@@ -27914,11 +27911,11 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="91" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C50" s="98"/>
       <c r="D50" s="24" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E50" s="24"/>
       <c r="F50" s="323"/>
@@ -27937,11 +27934,11 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="91" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C51" s="98"/>
       <c r="D51" s="62" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E51" s="62"/>
       <c r="F51" s="14"/>
@@ -27959,7 +27956,7 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="91" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C52" s="98"/>
       <c r="D52" s="62"/>
@@ -27973,11 +27970,11 @@
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="91" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C53" s="98"/>
       <c r="D53" s="143" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E53" s="143"/>
       <c r="F53" s="143"/>
@@ -27989,7 +27986,7 @@
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="91" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C54" s="98"/>
       <c r="D54" s="143"/>
@@ -28003,7 +28000,7 @@
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="91" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C55" s="98"/>
       <c r="D55" s="143"/>
@@ -28017,7 +28014,7 @@
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="91" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C56" s="98"/>
       <c r="D56" s="143"/>
@@ -28031,7 +28028,7 @@
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="91" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C57" s="98"/>
       <c r="D57" s="143"/>
@@ -28045,7 +28042,7 @@
     </row>
     <row r="58" customFormat="false" ht="3.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="91" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C58" s="144"/>
       <c r="D58" s="145"/>
@@ -28060,47 +28057,47 @@
     </row>
     <row r="59" customFormat="false" ht="4.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="91" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="91" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="91" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="91" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="91" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="91" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="91" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="91" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="91" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
   </sheetData>
@@ -28817,10 +28814,10 @@
     </row>
     <row r="2" s="329" customFormat="true" ht="55.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="328" t="s">
+        <v>531</v>
+      </c>
+      <c r="C2" s="330" t="s">
         <v>532</v>
-      </c>
-      <c r="C2" s="330" t="s">
-        <v>533</v>
       </c>
       <c r="D2" s="330"/>
       <c r="E2" s="330"/>
@@ -28829,7 +28826,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="151" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C3" s="331" t="s">
         <v>152</v>
@@ -28841,7 +28838,7 @@
     </row>
     <row r="4" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="327" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C4" s="144"/>
       <c r="D4" s="5"/>
@@ -28851,13 +28848,13 @@
     </row>
     <row r="5" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="327" t="s">
+        <v>535</v>
+      </c>
+      <c r="C5" s="332" t="s">
         <v>536</v>
       </c>
-      <c r="C5" s="332" t="s">
+      <c r="D5" s="95" t="s">
         <v>537</v>
-      </c>
-      <c r="D5" s="95" t="s">
-        <v>538</v>
       </c>
       <c r="E5" s="168"/>
       <c r="F5" s="168"/>
@@ -28865,7 +28862,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="327" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C6" s="333" t="str">
         <f aca="false">A3</f>
@@ -28878,7 +28875,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="327" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C7" s="333"/>
       <c r="D7" s="333"/>
@@ -28888,7 +28885,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="327" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C8" s="333"/>
       <c r="D8" s="333"/>
@@ -28898,7 +28895,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="327" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C9" s="333"/>
       <c r="D9" s="333"/>
@@ -28908,7 +28905,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="327" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C10" s="333"/>
       <c r="D10" s="333"/>
@@ -28918,7 +28915,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="327" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C11" s="333"/>
       <c r="D11" s="333"/>
@@ -28928,7 +28925,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="327" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C12" s="333"/>
       <c r="D12" s="333"/>
@@ -28938,7 +28935,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="327" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C13" s="333"/>
       <c r="D13" s="333"/>
@@ -28948,7 +28945,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="327" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C14" s="333"/>
       <c r="D14" s="333"/>
@@ -28958,7 +28955,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="327" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C15" s="333"/>
       <c r="D15" s="333"/>
@@ -28968,10 +28965,10 @@
     </row>
     <row r="16" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="151" t="s">
+        <v>548</v>
+      </c>
+      <c r="C16" s="334" t="s">
         <v>549</v>
-      </c>
-      <c r="C16" s="334" t="s">
-        <v>550</v>
       </c>
       <c r="D16" s="334"/>
       <c r="E16" s="334"/>
@@ -28980,7 +28977,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="151" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C17" s="335" t="n">
         <v>1</v>
@@ -28995,7 +28992,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="151" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C18" s="335" t="n">
         <v>2</v>
@@ -29010,7 +29007,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="151" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C19" s="335" t="n">
         <v>3</v>
@@ -29025,25 +29022,25 @@
     </row>
     <row r="20" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="151" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C20" s="337"/>
       <c r="D20" s="338" t="s">
+        <v>554</v>
+      </c>
+      <c r="E20" s="338" t="s">
         <v>555</v>
       </c>
-      <c r="E20" s="338" t="s">
+      <c r="F20" s="338" t="s">
         <v>556</v>
       </c>
-      <c r="F20" s="338" t="s">
+      <c r="G20" s="339" t="s">
         <v>557</v>
-      </c>
-      <c r="G20" s="339" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="151" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C21" s="337"/>
       <c r="D21" s="109" t="s">
@@ -29056,12 +29053,12 @@
         <v>106</v>
       </c>
       <c r="G21" s="109" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="151" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C22" s="335" t="n">
         <v>1</v>
@@ -29085,7 +29082,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="151" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C23" s="335" t="n">
         <v>2</v>
@@ -29109,7 +29106,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="151" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C24" s="335" t="n">
         <v>3</v>
@@ -29133,10 +29130,10 @@
     </row>
     <row r="25" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="151" t="s">
+        <v>563</v>
+      </c>
+      <c r="C25" s="341" t="s">
         <v>564</v>
-      </c>
-      <c r="C25" s="341" t="s">
-        <v>565</v>
       </c>
       <c r="D25" s="95"/>
       <c r="E25" s="168"/>
@@ -29145,7 +29142,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="151" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C26" s="333" t="str">
         <f aca="false">A23</f>
@@ -29158,7 +29155,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="151" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C27" s="333"/>
       <c r="D27" s="333"/>
@@ -29168,7 +29165,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="151" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C28" s="333"/>
       <c r="D28" s="333"/>
@@ -29178,7 +29175,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="151" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C29" s="333"/>
       <c r="D29" s="333"/>
@@ -29188,7 +29185,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="151" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C30" s="333"/>
       <c r="D30" s="333"/>
@@ -29198,7 +29195,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="151" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C31" s="333"/>
       <c r="D31" s="333"/>
@@ -29208,7 +29205,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="151" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C32" s="333"/>
       <c r="D32" s="333"/>
@@ -29218,7 +29215,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="151" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C33" s="333"/>
       <c r="D33" s="333"/>
@@ -29228,7 +29225,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="151" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C34" s="333"/>
       <c r="D34" s="333"/>
@@ -29238,7 +29235,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="151" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C35" s="333"/>
       <c r="D35" s="333"/>
@@ -29248,10 +29245,10 @@
     </row>
     <row r="36" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="151" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C36" s="334" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D36" s="334"/>
       <c r="E36" s="334"/>
@@ -29260,7 +29257,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="151" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C37" s="335" t="n">
         <v>1</v>
@@ -29275,7 +29272,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="151" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C38" s="335" t="n">
         <v>2</v>
@@ -29290,7 +29287,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="151" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C39" s="335" t="n">
         <v>3</v>
@@ -29305,25 +29302,25 @@
     </row>
     <row r="40" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="151" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C40" s="337"/>
       <c r="D40" s="338" t="s">
+        <v>554</v>
+      </c>
+      <c r="E40" s="338" t="s">
         <v>555</v>
       </c>
-      <c r="E40" s="338" t="s">
+      <c r="F40" s="338" t="s">
         <v>556</v>
       </c>
-      <c r="F40" s="338" t="s">
+      <c r="G40" s="339" t="s">
         <v>557</v>
-      </c>
-      <c r="G40" s="339" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="151" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C41" s="337"/>
       <c r="D41" s="109" t="s">
@@ -29336,12 +29333,12 @@
         <v>106</v>
       </c>
       <c r="G41" s="109" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="151" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C42" s="335" t="n">
         <v>1</v>
@@ -29365,7 +29362,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="151" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C43" s="335" t="n">
         <v>2</v>
@@ -29389,7 +29386,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="151" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C44" s="335" t="n">
         <v>3</v>
@@ -29413,10 +29410,10 @@
     </row>
     <row r="45" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="151" t="s">
+        <v>584</v>
+      </c>
+      <c r="C45" s="341" t="s">
         <v>585</v>
-      </c>
-      <c r="C45" s="341" t="s">
-        <v>586</v>
       </c>
       <c r="D45" s="343"/>
       <c r="E45" s="31"/>
@@ -29425,7 +29422,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="151" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C46" s="333" t="str">
         <f aca="false">A43</f>
@@ -29438,7 +29435,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="151" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C47" s="333"/>
       <c r="D47" s="333"/>
@@ -29448,7 +29445,7 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="151" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C48" s="333"/>
       <c r="D48" s="333"/>
@@ -29458,7 +29455,7 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="151" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C49" s="333"/>
       <c r="D49" s="333"/>
@@ -29468,7 +29465,7 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="151" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C50" s="333"/>
       <c r="D50" s="333"/>
@@ -29478,7 +29475,7 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="151" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C51" s="333"/>
       <c r="D51" s="333"/>
@@ -29488,7 +29485,7 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="151" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C52" s="333"/>
       <c r="D52" s="333"/>
@@ -29498,7 +29495,7 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="151" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C53" s="333"/>
       <c r="D53" s="333"/>
@@ -29508,7 +29505,7 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="151" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C54" s="333"/>
       <c r="D54" s="333"/>
@@ -29518,7 +29515,7 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="151" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C55" s="333"/>
       <c r="D55" s="333"/>
@@ -29528,10 +29525,10 @@
     </row>
     <row r="56" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="151" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C56" s="334" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D56" s="334"/>
       <c r="E56" s="334"/>
@@ -29540,7 +29537,7 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="151" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C57" s="335" t="n">
         <v>1</v>
@@ -29555,7 +29552,7 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="151" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C58" s="335" t="n">
         <v>2</v>
@@ -29570,7 +29567,7 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="151" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C59" s="335" t="n">
         <v>3</v>
@@ -29585,25 +29582,25 @@
     </row>
     <row r="60" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="151" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C60" s="337"/>
       <c r="D60" s="338" t="s">
+        <v>554</v>
+      </c>
+      <c r="E60" s="338" t="s">
         <v>555</v>
       </c>
-      <c r="E60" s="338" t="s">
+      <c r="F60" s="338" t="s">
         <v>556</v>
       </c>
-      <c r="F60" s="338" t="s">
+      <c r="G60" s="339" t="s">
         <v>557</v>
-      </c>
-      <c r="G60" s="339" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="151" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C61" s="337"/>
       <c r="D61" s="109" t="s">
@@ -29616,7 +29613,7 @@
         <v>106</v>
       </c>
       <c r="G61" s="109" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29847,8 +29844,8 @@
   </sheetPr>
   <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A41" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G58" activeCellId="0" sqref="G58"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A41" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J58" activeCellId="0" sqref="J58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -29869,10 +29866,10 @@
     </row>
     <row r="2" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="327" t="s">
+        <v>602</v>
+      </c>
+      <c r="C2" s="332" t="s">
         <v>603</v>
-      </c>
-      <c r="C2" s="332" t="s">
-        <v>604</v>
       </c>
       <c r="D2" s="95"/>
       <c r="E2" s="168"/>
@@ -29881,7 +29878,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="327" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C3" s="333" t="str">
         <f aca="false">A3</f>
@@ -29894,7 +29891,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="327" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C4" s="333"/>
       <c r="D4" s="333"/>
@@ -29904,7 +29901,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="327" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C5" s="333"/>
       <c r="D5" s="333"/>
@@ -29914,7 +29911,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="327" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C6" s="333"/>
       <c r="D6" s="333"/>
@@ -29924,7 +29921,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="327" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C7" s="333"/>
       <c r="D7" s="333"/>
@@ -29934,7 +29931,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="327" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C8" s="333"/>
       <c r="D8" s="333"/>
@@ -29944,7 +29941,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="327" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C9" s="333"/>
       <c r="D9" s="333"/>
@@ -29954,7 +29951,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="327" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C10" s="333"/>
       <c r="D10" s="333"/>
@@ -29964,7 +29961,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="327" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C11" s="333"/>
       <c r="D11" s="333"/>
@@ -29974,7 +29971,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="327" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C12" s="333"/>
       <c r="D12" s="333"/>
@@ -29984,10 +29981,10 @@
     </row>
     <row r="13" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="151" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C13" s="334" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D13" s="334"/>
       <c r="E13" s="334"/>
@@ -29996,7 +29993,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="151" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C14" s="335" t="n">
         <v>1</v>
@@ -30011,7 +30008,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="151" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C15" s="335" t="n">
         <v>2</v>
@@ -30026,7 +30023,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="151" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C16" s="335" t="n">
         <v>3</v>
@@ -30041,25 +30038,25 @@
     </row>
     <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="151" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C17" s="337"/>
       <c r="D17" s="338" t="s">
+        <v>554</v>
+      </c>
+      <c r="E17" s="338" t="s">
         <v>555</v>
       </c>
-      <c r="E17" s="338" t="s">
+      <c r="F17" s="338" t="s">
         <v>556</v>
       </c>
-      <c r="F17" s="338" t="s">
+      <c r="G17" s="339" t="s">
         <v>557</v>
-      </c>
-      <c r="G17" s="339" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="151" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C18" s="337"/>
       <c r="D18" s="109" t="s">
@@ -30072,12 +30069,12 @@
         <v>106</v>
       </c>
       <c r="G18" s="109" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="151" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C19" s="335" t="n">
         <v>1</v>
@@ -30101,7 +30098,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="151" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C20" s="335" t="n">
         <v>2</v>
@@ -30125,7 +30122,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="151" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C21" s="335" t="n">
         <v>3</v>
@@ -30149,10 +30146,10 @@
     </row>
     <row r="22" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="151" t="s">
+        <v>623</v>
+      </c>
+      <c r="C22" s="341" t="s">
         <v>624</v>
-      </c>
-      <c r="C22" s="341" t="s">
-        <v>625</v>
       </c>
       <c r="D22" s="343"/>
       <c r="E22" s="31"/>
@@ -30161,7 +30158,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="151" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C23" s="333" t="str">
         <f aca="false">A23</f>
@@ -30174,7 +30171,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="151" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C24" s="333"/>
       <c r="D24" s="333"/>
@@ -30184,7 +30181,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="151" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C25" s="333"/>
       <c r="D25" s="333"/>
@@ -30194,7 +30191,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="151" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C26" s="333"/>
       <c r="D26" s="333"/>
@@ -30204,7 +30201,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="151" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C27" s="333"/>
       <c r="D27" s="333"/>
@@ -30214,7 +30211,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="151" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C28" s="333"/>
       <c r="D28" s="333"/>
@@ -30224,7 +30221,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="151" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C29" s="333"/>
       <c r="D29" s="333"/>
@@ -30234,7 +30231,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="151" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C30" s="333"/>
       <c r="D30" s="333"/>
@@ -30244,7 +30241,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="151" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C31" s="333"/>
       <c r="D31" s="333"/>
@@ -30254,7 +30251,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="151" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C32" s="333"/>
       <c r="D32" s="333"/>
@@ -30264,10 +30261,10 @@
     </row>
     <row r="33" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="151" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C33" s="334" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D33" s="334"/>
       <c r="E33" s="334"/>
@@ -30276,7 +30273,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="151" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C34" s="335" t="n">
         <v>1</v>
@@ -30291,7 +30288,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="151" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C35" s="335" t="n">
         <v>2</v>
@@ -30306,7 +30303,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="151" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C36" s="335" t="n">
         <v>3</v>
@@ -30321,25 +30318,25 @@
     </row>
     <row r="37" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="151" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C37" s="337"/>
       <c r="D37" s="338" t="s">
+        <v>554</v>
+      </c>
+      <c r="E37" s="338" t="s">
         <v>555</v>
       </c>
-      <c r="E37" s="338" t="s">
+      <c r="F37" s="338" t="s">
         <v>556</v>
       </c>
-      <c r="F37" s="338" t="s">
+      <c r="G37" s="339" t="s">
         <v>557</v>
-      </c>
-      <c r="G37" s="339" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="151" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C38" s="337"/>
       <c r="D38" s="109" t="s">
@@ -30352,12 +30349,12 @@
         <v>106</v>
       </c>
       <c r="G38" s="109" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="151" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C39" s="335" t="n">
         <v>1</v>
@@ -30381,7 +30378,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="151" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C40" s="335" t="n">
         <v>2</v>
@@ -30405,7 +30402,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="151" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C41" s="335" t="n">
         <v>3</v>
@@ -30429,10 +30426,10 @@
     </row>
     <row r="42" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="151" t="s">
+        <v>644</v>
+      </c>
+      <c r="C42" s="341" t="s">
         <v>645</v>
-      </c>
-      <c r="C42" s="341" t="s">
-        <v>646</v>
       </c>
       <c r="D42" s="343"/>
       <c r="E42" s="31"/>
@@ -30441,7 +30438,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="151" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C43" s="333" t="str">
         <f aca="false">A43</f>
@@ -30454,7 +30451,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="151" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C44" s="333"/>
       <c r="D44" s="333"/>
@@ -30464,7 +30461,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="151" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C45" s="333"/>
       <c r="D45" s="333"/>
@@ -30570,7 +30567,7 @@
     </row>
     <row r="58" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C58" s="332" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D58" s="95"/>
       <c r="E58" s="168"/>
@@ -30588,7 +30585,7 @@
     <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="151"/>
       <c r="C60" s="308" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D60" s="308"/>
       <c r="E60" s="308"/>
@@ -30780,10 +30777,10 @@
     </row>
     <row r="2" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="151" t="s">
+        <v>651</v>
+      </c>
+      <c r="C2" s="347" t="s">
         <v>652</v>
-      </c>
-      <c r="C2" s="347" t="s">
-        <v>653</v>
       </c>
       <c r="D2" s="347"/>
       <c r="E2" s="347"/>
@@ -30794,7 +30791,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="327" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C3" s="333" t="str">
         <f aca="false">A3</f>

--- a/etp-backend/src/main/resources/energiatodistus-2013-sv.xlsx
+++ b/etp-backend/src/main/resources/energiatodistus-2013-sv.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="1) etusivu" sheetId="1" state="visible" r:id="rId2"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="654">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="791">
   <si>
     <t xml:space="preserve">[:id]</t>
   </si>
@@ -62,7 +62,7 @@
     <t xml:space="preserve">[:perustiedot :katuosoite-sv]</t>
   </si>
   <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--29169]</t>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--61210]</t>
   </si>
   <si>
     <t xml:space="preserve">[:perustiedot :rakennustunnus]</t>
@@ -80,31 +80,31 @@
     <t xml:space="preserve">[:perustiedot :alakayttotarkoitus-sv]</t>
   </si>
   <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--29171]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--29173]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--29175]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--29177]</t>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--61212]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--61214]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--61216]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--61218]</t>
   </si>
   <si>
     <t xml:space="preserve">Byggnadsbeteckning:</t>
   </si>
   <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--29179]</t>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--61220]</t>
   </si>
   <si>
     <t xml:space="preserve">Byggnaden färdigställd år:</t>
   </si>
   <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--29181]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--29183]</t>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--61222]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--61224]</t>
   </si>
   <si>
     <t xml:space="preserve">Byggnadens användningskategori:</t>
@@ -125,13 +125,13 @@
     <t xml:space="preserve">[:perustiedot :yritys :nimi]</t>
   </si>
   <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--29186]</t>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--61227]</t>
   </si>
   <si>
     <t xml:space="preserve">               Energiprestandaklass</t>
   </si>
   <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--29188]</t>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--61230]</t>
   </si>
   <si>
     <t xml:space="preserve">Byggnadens beräknade totala energiförbrukning (E-tal)</t>
@@ -356,28 +356,28 @@
     <t xml:space="preserve">Muut sairaalat</t>
   </si>
   <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--29190]</t>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--61234]</t>
   </si>
   <si>
     <t xml:space="preserve">SAMMANDRAG ÖVER BYGGNADENS ENERGIPRESTANDA</t>
   </si>
   <si>
-    <t xml:space="preserve">[:lahtotiedot :lammitys :kuvaus-fi]</t>
+    <t xml:space="preserve">[:lahtotiedot :lammitys :label-fi]</t>
   </si>
   <si>
     <t xml:space="preserve">Beräknad total energiförbrukning och förbrukning av köpt energi</t>
   </si>
   <si>
-    <t xml:space="preserve">[:lahtotiedot :lammitys :kuvaus-sv]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[:lahtotiedot :ilmanvaihto :kuvaus-fi]</t>
+    <t xml:space="preserve">[:lahtotiedot :lammitys :label-sv]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:lahtotiedot :ilmanvaihto :label-fi]</t>
   </si>
   <si>
     <t xml:space="preserve">Uppvärmd nettoarea</t>
   </si>
   <si>
-    <t xml:space="preserve">[:lahtotiedot :ilmanvaihto :kuvaus-sv]</t>
+    <t xml:space="preserve">[:lahtotiedot :ilmanvaihto :label-sv]</t>
   </si>
   <si>
     <t xml:space="preserve">Uppvärmningssystemet</t>
@@ -590,25 +590,25 @@
     <t xml:space="preserve">[:tulokset :e-luokka-info :luokittelu :label-sv]</t>
   </si>
   <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--29192]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--29195]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--29198]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--29201]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--29204]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--29207]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--29210]</t>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--61236]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--61239]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--61242]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--61245]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--61248]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--61251]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--61254]</t>
   </si>
   <si>
     <t xml:space="preserve">[:tulokset :e-luokka-info :e-luokka]</t>
@@ -1380,10 +1380,10 @@
     <t xml:space="preserve">[:lahtotiedot :lammitys :takka :tuotto]</t>
   </si>
   <si>
-    <t xml:space="preserve">[:lahtotiedot :lammitys :ilmanlampopumppu :maara]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[:lahtotiedot :lammitys :ilmanlampopumppu :tuotto]</t>
+    <t xml:space="preserve">[:lahtotiedot :lammitys :ilmalampopumppu :maara]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:lahtotiedot :lammitys :ilmalampopumppu :tuotto]</t>
   </si>
   <si>
     <t xml:space="preserve">[:lahtotiedot :jaahdytysjarjestelma :jaahdytyskauden-painotettu-kylmakerroin]</t>
@@ -1404,7 +1404,7 @@
     <t xml:space="preserve">Nettobehov av uppvärmningsenergi</t>
   </si>
   <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--29213]</t>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--61257]</t>
   </si>
   <si>
     <r>
@@ -1461,25 +1461,25 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--29215]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--29217]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--29219]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--29221]</t>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--61259]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--61261]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--61263]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--61265]</t>
   </si>
   <si>
     <t xml:space="preserve">Interna värmelaster enligt användningsgrad</t>
   </si>
   <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--29223]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--29225]</t>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--61267]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--61269]</t>
   </si>
   <si>
     <t xml:space="preserve">Användningsgrad</t>
@@ -1494,7 +1494,7 @@
     <t xml:space="preserve">Belysning</t>
   </si>
   <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--29227]</t>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--61271]</t>
   </si>
   <si>
     <r>
@@ -1520,16 +1520,16 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--29229]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--29231]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--29233]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--29235]</t>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--61273]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--61275]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--61277]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--61279]</t>
   </si>
   <si>
     <t xml:space="preserve">BERÄKNING AV E-TAL, RESULTAT</t>
@@ -2154,13 +2154,13 @@
     <t xml:space="preserve">[:tulokset :laskentatyokalu]</t>
   </si>
   <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--29237]</t>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--61281]</t>
   </si>
   <si>
     <t xml:space="preserve">FAKTISK ENERGIFÖRBRUKNING</t>
   </si>
   <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--29239]</t>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--61283]</t>
   </si>
   <si>
     <t xml:space="preserve">De mängder köpt energi som står till förfogande anges i oförändrad form utan korrigering med hjälp av graddagstalet</t>
@@ -2907,6 +2907,417 @@
   </si>
   <si>
     <t xml:space="preserve">[:lisamerkintoja-sv]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:lahtotiedot :rakennusvaippa :lampokapasiteetti]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:lahtotiedot :rakennusvaippa :ilmatilavuus]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:lahtotiedot :ilmanvaihto :tuloilma-lampotila]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:lahtotiedot :lammitys :tilat-ja-iv :lampopumppu-tuotto-osuus]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:lahtotiedot :lammitys :lammin-kayttovesi :lampopumppu-tuotto-osuus]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:lahtotiedot :lammitys :tilat-ja-iv :lampohavio-lammittamaton-tila]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:lahtotiedot :lammitys :lammin-kayttovesi :lampohavio-lammittamaton-tila]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 0 :tuotto :aurinkosahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 0 :tuotto :tuulisahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 0 :tuotto :muusahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 0 :tuotto :aurinkolampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 0 :tuotto :muulampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 0 :tuotto :lampopumppu]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 0 :kulutus :sahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 0 :kulutus :lampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 0 :hyoty :sahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 0 :hyoty :lampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 1 :tuotto :aurinkosahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 1 :tuotto :tuulisahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 1 :tuotto :muusahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 1 :tuotto :aurinkolampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 1 :tuotto :muulampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 1 :tuotto :lampopumppu]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 1 :kulutus :sahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 1 :kulutus :lampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 1 :hyoty :sahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 1 :hyoty :lampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 2 :tuotto :aurinkosahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 2 :tuotto :tuulisahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 2 :tuotto :muusahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 2 :tuotto :aurinkolampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 2 :tuotto :muulampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 2 :tuotto :lampopumppu]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 2 :kulutus :sahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 2 :kulutus :lampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 2 :hyoty :sahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 2 :hyoty :lampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 3 :tuotto :aurinkosahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 3 :tuotto :tuulisahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 3 :tuotto :muusahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 3 :tuotto :aurinkolampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 3 :tuotto :muulampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 3 :tuotto :lampopumppu]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 3 :kulutus :sahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 3 :kulutus :lampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 3 :hyoty :sahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 3 :hyoty :lampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 4 :tuotto :aurinkosahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 4 :tuotto :tuulisahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 4 :tuotto :muusahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 4 :tuotto :aurinkolampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 4 :tuotto :muulampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 4 :tuotto :lampopumppu]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 4 :kulutus :sahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 4 :kulutus :lampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 4 :hyoty :sahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 4 :hyoty :lampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 5 :tuotto :aurinkosahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 5 :tuotto :tuulisahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 5 :tuotto :muusahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 5 :tuotto :aurinkolampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 5 :tuotto :muulampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 5 :tuotto :lampopumppu]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 5 :kulutus :sahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 5 :kulutus :lampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 5 :hyoty :sahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 5 :hyoty :lampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 6 :tuotto :aurinkosahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 6 :tuotto :tuulisahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 6 :tuotto :muusahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 6 :tuotto :aurinkolampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 6 :tuotto :muulampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 6 :tuotto :lampopumppu]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 6 :kulutus :sahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 6 :kulutus :lampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 6 :hyoty :sahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 6 :hyoty :lampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 7 :tuotto :aurinkosahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 7 :tuotto :tuulisahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 7 :tuotto :muusahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 7 :tuotto :aurinkolampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 7 :tuotto :muulampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 7 :tuotto :lampopumppu]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 7 :kulutus :sahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 7 :kulutus :lampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 7 :hyoty :sahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 7 :hyoty :lampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 8 :tuotto :aurinkosahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 8 :tuotto :tuulisahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 8 :tuotto :muusahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 8 :tuotto :aurinkolampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 8 :tuotto :muulampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 8 :tuotto :lampopumppu]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 8 :kulutus :sahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 8 :kulutus :lampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 8 :hyoty :sahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 8 :hyoty :lampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 9 :tuotto :aurinkosahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 9 :tuotto :tuulisahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 9 :tuotto :muusahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 9 :tuotto :aurinkolampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 9 :tuotto :muulampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 9 :tuotto :lampopumppu]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 9 :kulutus :sahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 9 :kulutus :lampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 9 :hyoty :sahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 9 :hyoty :lampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 10 :tuotto :aurinkosahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 10 :tuotto :tuulisahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 10 :tuotto :muusahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 10 :tuotto :aurinkolampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 10 :tuotto :muulampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 10 :tuotto :lampopumppu]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 10 :kulutus :sahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 10 :kulutus :lampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 10 :hyoty :sahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 10 :hyoty :lampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 11 :tuotto :aurinkosahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 11 :tuotto :tuulisahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 11 :tuotto :muusahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 11 :tuotto :aurinkolampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 11 :tuotto :muulampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 11 :tuotto :lampopumppu]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 11 :kulutus :sahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 11 :kulutus :lampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 11 :hyoty :sahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 11 :hyoty :lampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 12 :tuotto :aurinkosahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 12 :tuotto :tuulisahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 12 :tuotto :muusahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 12 :tuotto :aurinkolampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 12 :tuotto :muulampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 12 :tuotto :lampopumppu]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 12 :kulutus :sahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 12 :kulutus :lampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 12 :hyoty :sahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 12 :hyoty :lampo]</t>
   </si>
 </sst>
 </file>
@@ -3555,7 +3966,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="348">
+  <cellXfs count="347">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4939,10 +5350,6 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="23" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
@@ -8353,9 +8760,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>248040</xdr:colOff>
+      <xdr:colOff>247320</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>261720</xdr:rowOff>
+      <xdr:rowOff>261000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8369,7 +8776,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="4199040"/>
-          <a:ext cx="757800" cy="214200"/>
+          <a:ext cx="757080" cy="213480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8390,9 +8797,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>147960</xdr:colOff>
+      <xdr:colOff>147240</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>261720</xdr:rowOff>
+      <xdr:rowOff>261000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8406,7 +8813,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="4513320"/>
-          <a:ext cx="1100880" cy="214200"/>
+          <a:ext cx="1100160" cy="213480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8427,9 +8834,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>21240</xdr:colOff>
+      <xdr:colOff>20520</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>262800</xdr:rowOff>
+      <xdr:rowOff>262080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8443,7 +8850,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="4828680"/>
-          <a:ext cx="1407960" cy="214200"/>
+          <a:ext cx="1407240" cy="213480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8464,9 +8871,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>345240</xdr:colOff>
+      <xdr:colOff>344520</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>262800</xdr:rowOff>
+      <xdr:rowOff>262080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8480,7 +8887,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="5142960"/>
-          <a:ext cx="1731960" cy="214200"/>
+          <a:ext cx="1731240" cy="213480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8501,9 +8908,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>218520</xdr:colOff>
+      <xdr:colOff>217800</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>275760</xdr:rowOff>
+      <xdr:rowOff>275040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8517,7 +8924,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="5457240"/>
-          <a:ext cx="2039040" cy="227160"/>
+          <a:ext cx="2038320" cy="226440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8538,9 +8945,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>161640</xdr:colOff>
+      <xdr:colOff>160920</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>262800</xdr:rowOff>
+      <xdr:rowOff>262080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8554,7 +8961,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="5771520"/>
-          <a:ext cx="2383920" cy="214200"/>
+          <a:ext cx="2383200" cy="213480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8575,9 +8982,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>101880</xdr:colOff>
+      <xdr:colOff>101160</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>261720</xdr:rowOff>
+      <xdr:rowOff>261000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8591,7 +8998,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="6085080"/>
-          <a:ext cx="2697120" cy="214200"/>
+          <a:ext cx="2696400" cy="213480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8991,9 +9398,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>318240</xdr:colOff>
+      <xdr:colOff>317520</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>79200</xdr:rowOff>
+      <xdr:rowOff>78480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9003,7 +9410,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1994400" y="149040"/>
-          <a:ext cx="7000200" cy="10063440"/>
+          <a:ext cx="6999480" cy="10062720"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -9089,9 +9496,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>6120</xdr:colOff>
+      <xdr:colOff>5400</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>80280</xdr:rowOff>
+      <xdr:rowOff>79560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9101,7 +9508,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1987560" y="10344960"/>
-          <a:ext cx="7017480" cy="267120"/>
+          <a:ext cx="7016760" cy="266400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9155,9 +9562,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>434520</xdr:colOff>
+      <xdr:colOff>433800</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>57600</xdr:rowOff>
+      <xdr:rowOff>56880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9167,7 +9574,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5525280" y="4883760"/>
-          <a:ext cx="796320" cy="268200"/>
+          <a:ext cx="795600" cy="267480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9219,9 +9626,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>433440</xdr:colOff>
+      <xdr:colOff>432720</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>197280</xdr:rowOff>
+      <xdr:rowOff>196560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9231,7 +9638,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5524200" y="5023440"/>
-          <a:ext cx="796320" cy="268200"/>
+          <a:ext cx="795600" cy="267480"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9278,7 +9685,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
@@ -9682,7 +10089,7 @@
       <c r="H10" s="14"/>
       <c r="I10" s="16" t="str">
         <f aca="false">A5</f>
-        <v>#function[solita.etp.service.energiatodistus-pdf/fn--29169]</v>
+        <v>#function[solita.etp.service.energiatodistus-pdf/fn--61210]</v>
       </c>
       <c r="J10" s="16"/>
       <c r="K10" s="16"/>
@@ -11128,7 +11535,7 @@
     <row r="48" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C48" s="79" t="str">
         <f aca="false">A21</f>
-        <v>#function[solita.etp.service.energiatodistus-pdf/fn--29186]</v>
+        <v>#function[solita.etp.service.energiatodistus-pdf/fn--61227]</v>
       </c>
       <c r="D48" s="79"/>
       <c r="E48" s="79"/>
@@ -11140,7 +11547,7 @@
       <c r="K48" s="74"/>
       <c r="L48" s="80" t="str">
         <f aca="false">A22</f>
-        <v>#function[solita.etp.service.energiatodistus-pdf/fn--29188]</v>
+        <v>#function[solita.etp.service.energiatodistus-pdf/fn--61230]</v>
       </c>
       <c r="M48" s="80"/>
       <c r="N48" s="80"/>
@@ -19087,7 +19494,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
@@ -19231,7 +19638,7 @@
       <c r="F5" s="14"/>
       <c r="G5" s="99" t="str">
         <f aca="false">A2</f>
-        <v>#function[solita.etp.service.energiatodistus-pdf/fn--29190]</v>
+        <v>#function[solita.etp.service.energiatodistus-pdf/fn--61234]</v>
       </c>
       <c r="H5" s="29"/>
       <c r="I5" s="14"/>
@@ -19267,7 +19674,7 @@
       <c r="F6" s="14"/>
       <c r="G6" s="100" t="str">
         <f aca="false">A4</f>
-        <v>[:lahtotiedot :lammitys :kuvaus-sv]</v>
+        <v>[:lahtotiedot :lammitys :label-sv]</v>
       </c>
       <c r="H6" s="100"/>
       <c r="I6" s="100"/>
@@ -19303,7 +19710,7 @@
       <c r="F7" s="14"/>
       <c r="G7" s="101" t="str">
         <f aca="false">A6</f>
-        <v>[:lahtotiedot :ilmanvaihto :kuvaus-sv]</v>
+        <v>[:lahtotiedot :ilmanvaihto :label-sv]</v>
       </c>
       <c r="H7" s="101"/>
       <c r="I7" s="101"/>
@@ -20138,15 +20545,15 @@
       <c r="F29" s="14"/>
       <c r="H29" s="131" t="str">
         <f aca="false">A45</f>
-        <v>#function[solita.etp.service.energiatodistus-pdf/fn--29192]</v>
+        <v>#function[solita.etp.service.energiatodistus-pdf/fn--61236]</v>
       </c>
       <c r="I29" s="132" t="str">
         <f aca="false">A46</f>
-        <v>#function[solita.etp.service.energiatodistus-pdf/fn--29195]</v>
+        <v>#function[solita.etp.service.energiatodistus-pdf/fn--61239]</v>
       </c>
       <c r="J29" s="133" t="str">
         <f aca="false">A47</f>
-        <v>#function[solita.etp.service.energiatodistus-pdf/fn--29198]</v>
+        <v>#function[solita.etp.service.energiatodistus-pdf/fn--61242]</v>
       </c>
       <c r="K29" s="129"/>
       <c r="M29" s="0"/>
@@ -20177,15 +20584,15 @@
       <c r="F30" s="14"/>
       <c r="H30" s="134" t="str">
         <f aca="false">A48</f>
-        <v>#function[solita.etp.service.energiatodistus-pdf/fn--29201]</v>
+        <v>#function[solita.etp.service.energiatodistus-pdf/fn--61245]</v>
       </c>
       <c r="I30" s="135" t="str">
         <f aca="false">A49</f>
-        <v>#function[solita.etp.service.energiatodistus-pdf/fn--29204]</v>
+        <v>#function[solita.etp.service.energiatodistus-pdf/fn--61248]</v>
       </c>
       <c r="J30" s="136" t="str">
         <f aca="false">A50</f>
-        <v>#function[solita.etp.service.energiatodistus-pdf/fn--29207]</v>
+        <v>#function[solita.etp.service.energiatodistus-pdf/fn--61251]</v>
       </c>
       <c r="K30" s="129"/>
       <c r="M30" s="0"/>
@@ -20216,7 +20623,7 @@
       <c r="F31" s="14"/>
       <c r="H31" s="137" t="str">
         <f aca="false">A51</f>
-        <v>#function[solita.etp.service.energiatodistus-pdf/fn--29210]</v>
+        <v>#function[solita.etp.service.energiatodistus-pdf/fn--61254]</v>
       </c>
       <c r="I31" s="138"/>
       <c r="J31" s="138"/>
@@ -21926,14 +22333,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
   <dimension ref="A1:N94"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -22097,7 +22504,10 @@
       <c r="D11" s="173" t="s">
         <v>179</v>
       </c>
-      <c r="E11" s="179"/>
+      <c r="E11" s="179" t="str">
+        <f aca="false">A6</f>
+        <v>[:lahtotiedot :rakennusvaippa :ilmanvuotoluku]</v>
+      </c>
       <c r="F11" s="173"/>
       <c r="G11" s="170"/>
       <c r="H11" s="177"/>
@@ -22645,7 +23055,7 @@
       </c>
       <c r="E39" s="199" t="str">
         <f aca="false">A54</f>
-        <v>[:lahtotiedot :ilmanvaihto :kuvaus-sv]</v>
+        <v>[:lahtotiedot :ilmanvaihto :label-sv]</v>
       </c>
       <c r="F39" s="199"/>
       <c r="G39" s="199"/>
@@ -22887,7 +23297,7 @@
       </c>
       <c r="E53" s="199" t="str">
         <f aca="false">A64</f>
-        <v>[:lahtotiedot :lammitys :kuvaus-fi]</v>
+        <v>[:lahtotiedot :lammitys :label-fi]</v>
       </c>
       <c r="F53" s="199"/>
       <c r="G53" s="199"/>
@@ -23155,11 +23565,11 @@
       </c>
       <c r="E69" s="222" t="str">
         <f aca="false">A76</f>
-        <v>[:lahtotiedot :lammitys :ilmanlampopumppu :maara]</v>
+        <v>[:lahtotiedot :lammitys :ilmalampopumppu :maara]</v>
       </c>
       <c r="F69" s="222" t="str">
         <f aca="false">A77</f>
-        <v>[:lahtotiedot :lammitys :ilmanlampopumppu :tuotto]</v>
+        <v>[:lahtotiedot :lammitys :ilmalampopumppu :tuotto]</v>
       </c>
       <c r="G69" s="180"/>
       <c r="H69" s="177"/>
@@ -23465,19 +23875,19 @@
       <c r="D90" s="227"/>
       <c r="E90" s="206" t="str">
         <f aca="false">A81</f>
-        <v>#function[solita.etp.service.energiatodistus-pdf/fn--29213]</v>
+        <v>#function[solita.etp.service.energiatodistus-pdf/fn--61257]</v>
       </c>
       <c r="F90" s="187" t="str">
         <f aca="false">A82</f>
-        <v>#function[solita.etp.service.energiatodistus-pdf/fn--29215]</v>
+        <v>#function[solita.etp.service.energiatodistus-pdf/fn--61259]</v>
       </c>
       <c r="G90" s="187" t="str">
         <f aca="false">A83</f>
-        <v>#function[solita.etp.service.energiatodistus-pdf/fn--29217]</v>
+        <v>#function[solita.etp.service.energiatodistus-pdf/fn--61261]</v>
       </c>
       <c r="H90" s="187" t="str">
         <f aca="false">A84</f>
-        <v>#function[solita.etp.service.energiatodistus-pdf/fn--29219]</v>
+        <v>#function[solita.etp.service.energiatodistus-pdf/fn--61263]</v>
       </c>
       <c r="I90" s="175"/>
     </row>
@@ -23489,19 +23899,19 @@
       <c r="D91" s="227"/>
       <c r="E91" s="206" t="str">
         <f aca="false">A85</f>
-        <v>#function[solita.etp.service.energiatodistus-pdf/fn--29221]</v>
+        <v>#function[solita.etp.service.energiatodistus-pdf/fn--61265]</v>
       </c>
       <c r="F91" s="187" t="str">
         <f aca="false">A86</f>
-        <v>#function[solita.etp.service.energiatodistus-pdf/fn--29223]</v>
+        <v>#function[solita.etp.service.energiatodistus-pdf/fn--61267]</v>
       </c>
       <c r="G91" s="187" t="str">
         <f aca="false">A87</f>
-        <v>#function[solita.etp.service.energiatodistus-pdf/fn--29225]</v>
+        <v>#function[solita.etp.service.energiatodistus-pdf/fn--61269]</v>
       </c>
       <c r="H91" s="187" t="str">
         <f aca="false">A88</f>
-        <v>#function[solita.etp.service.energiatodistus-pdf/fn--29227]</v>
+        <v>#function[solita.etp.service.energiatodistus-pdf/fn--61271]</v>
       </c>
       <c r="I91" s="175"/>
     </row>
@@ -23513,19 +23923,19 @@
       <c r="D92" s="227"/>
       <c r="E92" s="206" t="str">
         <f aca="false">A89</f>
-        <v>#function[solita.etp.service.energiatodistus-pdf/fn--29229]</v>
+        <v>#function[solita.etp.service.energiatodistus-pdf/fn--61273]</v>
       </c>
       <c r="F92" s="187" t="str">
         <f aca="false">A90</f>
-        <v>#function[solita.etp.service.energiatodistus-pdf/fn--29231]</v>
+        <v>#function[solita.etp.service.energiatodistus-pdf/fn--61275]</v>
       </c>
       <c r="G92" s="187" t="str">
         <f aca="false">A91</f>
-        <v>#function[solita.etp.service.energiatodistus-pdf/fn--29233]</v>
+        <v>#function[solita.etp.service.energiatodistus-pdf/fn--61277]</v>
       </c>
       <c r="H92" s="187" t="str">
         <f aca="false">A92</f>
-        <v>#function[solita.etp.service.energiatodistus-pdf/fn--29235]</v>
+        <v>#function[solita.etp.service.energiatodistus-pdf/fn--61279]</v>
       </c>
       <c r="I92" s="175"/>
     </row>
@@ -24324,7 +24734,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
@@ -26883,7 +27293,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
@@ -26994,7 +27404,7 @@
       <c r="C7" s="97"/>
       <c r="D7" s="61" t="str">
         <f aca="false">A3</f>
-        <v>#function[solita.etp.service.energiatodistus-pdf/fn--29239]</v>
+        <v>#function[solita.etp.service.energiatodistus-pdf/fn--61283]</v>
       </c>
       <c r="E7" s="14"/>
       <c r="G7" s="276"/>
@@ -28786,7 +29196,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
@@ -29838,13 +30248,13 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
   <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A41" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="J59" activeCellId="0" sqref="J59"/>
     </sheetView>
   </sheetViews>
@@ -30594,38 +31004,38 @@
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="150"/>
-      <c r="C61" s="346" t="str">
+      <c r="C61" s="332" t="str">
         <f aca="false">A45</f>
         <v>[:huomiot :lisatietoja-sv]</v>
       </c>
-      <c r="D61" s="346"/>
-      <c r="E61" s="346"/>
-      <c r="F61" s="346"/>
-      <c r="G61" s="346"/>
+      <c r="D61" s="332"/>
+      <c r="E61" s="332"/>
+      <c r="F61" s="332"/>
+      <c r="G61" s="332"/>
     </row>
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="150"/>
-      <c r="C62" s="346"/>
-      <c r="D62" s="346"/>
-      <c r="E62" s="346"/>
-      <c r="F62" s="346"/>
-      <c r="G62" s="346"/>
+      <c r="C62" s="332"/>
+      <c r="D62" s="332"/>
+      <c r="E62" s="332"/>
+      <c r="F62" s="332"/>
+      <c r="G62" s="332"/>
     </row>
     <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="150"/>
-      <c r="C63" s="346"/>
-      <c r="D63" s="346"/>
-      <c r="E63" s="346"/>
-      <c r="F63" s="346"/>
-      <c r="G63" s="346"/>
+      <c r="C63" s="332"/>
+      <c r="D63" s="332"/>
+      <c r="E63" s="332"/>
+      <c r="F63" s="332"/>
+      <c r="G63" s="332"/>
     </row>
     <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="150"/>
-      <c r="C64" s="346"/>
-      <c r="D64" s="346"/>
-      <c r="E64" s="346"/>
-      <c r="F64" s="346"/>
-      <c r="G64" s="346"/>
+      <c r="C64" s="332"/>
+      <c r="D64" s="332"/>
+      <c r="E64" s="332"/>
+      <c r="F64" s="332"/>
+      <c r="G64" s="332"/>
     </row>
     <row r="65" customFormat="false" ht="5.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C65" s="143"/>
@@ -30749,11 +31159,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:I67"/>
+  <dimension ref="A1:I140"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
@@ -30779,15 +31189,15 @@
       <c r="A2" s="150" t="s">
         <v>651</v>
       </c>
-      <c r="C2" s="347" t="s">
+      <c r="C2" s="346" t="s">
         <v>652</v>
       </c>
-      <c r="D2" s="347"/>
-      <c r="E2" s="347"/>
-      <c r="F2" s="347"/>
-      <c r="G2" s="347"/>
-      <c r="H2" s="347"/>
-      <c r="I2" s="347"/>
+      <c r="D2" s="346"/>
+      <c r="E2" s="346"/>
+      <c r="F2" s="346"/>
+      <c r="G2" s="346"/>
+      <c r="H2" s="346"/>
+      <c r="I2" s="346"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="326" t="s">
@@ -30805,6 +31215,9 @@
       <c r="I3" s="332"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="326" t="s">
+        <v>654</v>
+      </c>
       <c r="C4" s="332"/>
       <c r="D4" s="332"/>
       <c r="E4" s="332"/>
@@ -30814,6 +31227,9 @@
       <c r="I4" s="332"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="326" t="s">
+        <v>655</v>
+      </c>
       <c r="C5" s="332"/>
       <c r="D5" s="332"/>
       <c r="E5" s="332"/>
@@ -30823,6 +31239,9 @@
       <c r="I5" s="332"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="326" t="s">
+        <v>656</v>
+      </c>
       <c r="C6" s="332"/>
       <c r="D6" s="332"/>
       <c r="E6" s="332"/>
@@ -30832,6 +31251,9 @@
       <c r="I6" s="332"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="326" t="s">
+        <v>657</v>
+      </c>
       <c r="C7" s="332"/>
       <c r="D7" s="332"/>
       <c r="E7" s="332"/>
@@ -30841,6 +31263,9 @@
       <c r="I7" s="332"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="326" t="s">
+        <v>658</v>
+      </c>
       <c r="C8" s="332"/>
       <c r="D8" s="332"/>
       <c r="E8" s="332"/>
@@ -30850,6 +31275,9 @@
       <c r="I8" s="332"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="326" t="s">
+        <v>659</v>
+      </c>
       <c r="C9" s="332"/>
       <c r="D9" s="332"/>
       <c r="E9" s="332"/>
@@ -30859,6 +31287,9 @@
       <c r="I9" s="332"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="326" t="s">
+        <v>660</v>
+      </c>
       <c r="C10" s="332"/>
       <c r="D10" s="332"/>
       <c r="E10" s="332"/>
@@ -30868,6 +31299,9 @@
       <c r="I10" s="332"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="326" t="s">
+        <v>661</v>
+      </c>
       <c r="C11" s="332"/>
       <c r="D11" s="332"/>
       <c r="E11" s="332"/>
@@ -30877,6 +31311,9 @@
       <c r="I11" s="332"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="326" t="s">
+        <v>662</v>
+      </c>
       <c r="C12" s="332"/>
       <c r="D12" s="332"/>
       <c r="E12" s="332"/>
@@ -30886,6 +31323,9 @@
       <c r="I12" s="332"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="326" t="s">
+        <v>663</v>
+      </c>
       <c r="C13" s="332"/>
       <c r="D13" s="332"/>
       <c r="E13" s="332"/>
@@ -30895,6 +31335,9 @@
       <c r="I13" s="332"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="326" t="s">
+        <v>664</v>
+      </c>
       <c r="C14" s="332"/>
       <c r="D14" s="332"/>
       <c r="E14" s="332"/>
@@ -30904,6 +31347,9 @@
       <c r="I14" s="332"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="326" t="s">
+        <v>665</v>
+      </c>
       <c r="C15" s="332"/>
       <c r="D15" s="332"/>
       <c r="E15" s="332"/>
@@ -30913,6 +31359,9 @@
       <c r="I15" s="332"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="326" t="s">
+        <v>666</v>
+      </c>
       <c r="C16" s="332"/>
       <c r="D16" s="332"/>
       <c r="E16" s="332"/>
@@ -30922,6 +31371,9 @@
       <c r="I16" s="332"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="326" t="s">
+        <v>667</v>
+      </c>
       <c r="C17" s="332"/>
       <c r="D17" s="332"/>
       <c r="E17" s="332"/>
@@ -30931,6 +31383,9 @@
       <c r="I17" s="332"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="326" t="s">
+        <v>668</v>
+      </c>
       <c r="C18" s="332"/>
       <c r="D18" s="332"/>
       <c r="E18" s="332"/>
@@ -30940,6 +31395,9 @@
       <c r="I18" s="332"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="326" t="s">
+        <v>669</v>
+      </c>
       <c r="C19" s="332"/>
       <c r="D19" s="332"/>
       <c r="E19" s="332"/>
@@ -30949,6 +31407,9 @@
       <c r="I19" s="332"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="326" t="s">
+        <v>670</v>
+      </c>
       <c r="C20" s="332"/>
       <c r="D20" s="332"/>
       <c r="E20" s="332"/>
@@ -30958,6 +31419,9 @@
       <c r="I20" s="332"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="326" t="s">
+        <v>671</v>
+      </c>
       <c r="C21" s="332"/>
       <c r="D21" s="332"/>
       <c r="E21" s="332"/>
@@ -30967,6 +31431,9 @@
       <c r="I21" s="332"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="326" t="s">
+        <v>672</v>
+      </c>
       <c r="C22" s="332"/>
       <c r="D22" s="332"/>
       <c r="E22" s="332"/>
@@ -30976,6 +31443,9 @@
       <c r="I22" s="332"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="326" t="s">
+        <v>673</v>
+      </c>
       <c r="C23" s="332"/>
       <c r="D23" s="332"/>
       <c r="E23" s="332"/>
@@ -30985,6 +31455,9 @@
       <c r="I23" s="332"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="326" t="s">
+        <v>674</v>
+      </c>
       <c r="C24" s="332"/>
       <c r="D24" s="332"/>
       <c r="E24" s="332"/>
@@ -30994,6 +31467,9 @@
       <c r="I24" s="332"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="326" t="s">
+        <v>675</v>
+      </c>
       <c r="C25" s="332"/>
       <c r="D25" s="332"/>
       <c r="E25" s="332"/>
@@ -31003,6 +31479,9 @@
       <c r="I25" s="332"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="326" t="s">
+        <v>676</v>
+      </c>
       <c r="C26" s="332"/>
       <c r="D26" s="332"/>
       <c r="E26" s="332"/>
@@ -31012,6 +31491,9 @@
       <c r="I26" s="332"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="326" t="s">
+        <v>677</v>
+      </c>
       <c r="C27" s="332"/>
       <c r="D27" s="332"/>
       <c r="E27" s="332"/>
@@ -31021,6 +31503,9 @@
       <c r="I27" s="332"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="326" t="s">
+        <v>678</v>
+      </c>
       <c r="C28" s="332"/>
       <c r="D28" s="332"/>
       <c r="E28" s="332"/>
@@ -31030,6 +31515,9 @@
       <c r="I28" s="332"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="326" t="s">
+        <v>679</v>
+      </c>
       <c r="C29" s="332"/>
       <c r="D29" s="332"/>
       <c r="E29" s="332"/>
@@ -31039,6 +31527,9 @@
       <c r="I29" s="332"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="326" t="s">
+        <v>680</v>
+      </c>
       <c r="C30" s="332"/>
       <c r="D30" s="332"/>
       <c r="E30" s="332"/>
@@ -31048,6 +31539,9 @@
       <c r="I30" s="332"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="326" t="s">
+        <v>681</v>
+      </c>
       <c r="C31" s="332"/>
       <c r="D31" s="332"/>
       <c r="E31" s="332"/>
@@ -31057,6 +31551,9 @@
       <c r="I31" s="332"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="326" t="s">
+        <v>682</v>
+      </c>
       <c r="C32" s="332"/>
       <c r="D32" s="332"/>
       <c r="E32" s="332"/>
@@ -31066,6 +31563,9 @@
       <c r="I32" s="332"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="326" t="s">
+        <v>683</v>
+      </c>
       <c r="C33" s="332"/>
       <c r="D33" s="332"/>
       <c r="E33" s="332"/>
@@ -31075,6 +31575,9 @@
       <c r="I33" s="332"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="326" t="s">
+        <v>684</v>
+      </c>
       <c r="C34" s="332"/>
       <c r="D34" s="332"/>
       <c r="E34" s="332"/>
@@ -31084,6 +31587,9 @@
       <c r="I34" s="332"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="326" t="s">
+        <v>685</v>
+      </c>
       <c r="C35" s="332"/>
       <c r="D35" s="332"/>
       <c r="E35" s="332"/>
@@ -31093,6 +31599,9 @@
       <c r="I35" s="332"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="326" t="s">
+        <v>686</v>
+      </c>
       <c r="C36" s="332"/>
       <c r="D36" s="332"/>
       <c r="E36" s="332"/>
@@ -31102,6 +31611,9 @@
       <c r="I36" s="332"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="326" t="s">
+        <v>687</v>
+      </c>
       <c r="C37" s="332"/>
       <c r="D37" s="332"/>
       <c r="E37" s="332"/>
@@ -31111,6 +31623,9 @@
       <c r="I37" s="332"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="326" t="s">
+        <v>688</v>
+      </c>
       <c r="C38" s="332"/>
       <c r="D38" s="332"/>
       <c r="E38" s="332"/>
@@ -31120,6 +31635,9 @@
       <c r="I38" s="332"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="326" t="s">
+        <v>689</v>
+      </c>
       <c r="C39" s="332"/>
       <c r="D39" s="332"/>
       <c r="E39" s="332"/>
@@ -31129,6 +31647,9 @@
       <c r="I39" s="332"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="326" t="s">
+        <v>690</v>
+      </c>
       <c r="C40" s="332"/>
       <c r="D40" s="332"/>
       <c r="E40" s="332"/>
@@ -31138,6 +31659,9 @@
       <c r="I40" s="332"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="326" t="s">
+        <v>691</v>
+      </c>
       <c r="C41" s="332"/>
       <c r="D41" s="332"/>
       <c r="E41" s="332"/>
@@ -31147,6 +31671,9 @@
       <c r="I41" s="332"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="326" t="s">
+        <v>692</v>
+      </c>
       <c r="C42" s="332"/>
       <c r="D42" s="332"/>
       <c r="E42" s="332"/>
@@ -31156,6 +31683,9 @@
       <c r="I42" s="332"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="326" t="s">
+        <v>693</v>
+      </c>
       <c r="C43" s="332"/>
       <c r="D43" s="332"/>
       <c r="E43" s="332"/>
@@ -31165,6 +31695,9 @@
       <c r="I43" s="332"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="326" t="s">
+        <v>694</v>
+      </c>
       <c r="C44" s="332"/>
       <c r="D44" s="332"/>
       <c r="E44" s="332"/>
@@ -31174,6 +31707,9 @@
       <c r="I44" s="332"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="326" t="s">
+        <v>695</v>
+      </c>
       <c r="C45" s="332"/>
       <c r="D45" s="332"/>
       <c r="E45" s="332"/>
@@ -31183,6 +31719,9 @@
       <c r="I45" s="332"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="326" t="s">
+        <v>696</v>
+      </c>
       <c r="C46" s="332"/>
       <c r="D46" s="332"/>
       <c r="E46" s="332"/>
@@ -31192,6 +31731,9 @@
       <c r="I46" s="332"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="326" t="s">
+        <v>697</v>
+      </c>
       <c r="C47" s="332"/>
       <c r="D47" s="332"/>
       <c r="E47" s="332"/>
@@ -31201,6 +31743,9 @@
       <c r="I47" s="332"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="326" t="s">
+        <v>698</v>
+      </c>
       <c r="C48" s="332"/>
       <c r="D48" s="332"/>
       <c r="E48" s="332"/>
@@ -31210,6 +31755,9 @@
       <c r="I48" s="332"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="326" t="s">
+        <v>699</v>
+      </c>
       <c r="C49" s="332"/>
       <c r="D49" s="332"/>
       <c r="E49" s="332"/>
@@ -31219,6 +31767,9 @@
       <c r="I49" s="332"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="326" t="s">
+        <v>700</v>
+      </c>
       <c r="C50" s="332"/>
       <c r="D50" s="332"/>
       <c r="E50" s="332"/>
@@ -31228,6 +31779,9 @@
       <c r="I50" s="332"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="326" t="s">
+        <v>701</v>
+      </c>
       <c r="C51" s="332"/>
       <c r="D51" s="332"/>
       <c r="E51" s="332"/>
@@ -31237,6 +31791,9 @@
       <c r="I51" s="332"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="326" t="s">
+        <v>702</v>
+      </c>
       <c r="C52" s="332"/>
       <c r="D52" s="332"/>
       <c r="E52" s="332"/>
@@ -31246,6 +31803,9 @@
       <c r="I52" s="332"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="326" t="s">
+        <v>703</v>
+      </c>
       <c r="C53" s="332"/>
       <c r="D53" s="332"/>
       <c r="E53" s="332"/>
@@ -31255,6 +31815,9 @@
       <c r="I53" s="332"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="326" t="s">
+        <v>704</v>
+      </c>
       <c r="C54" s="332"/>
       <c r="D54" s="332"/>
       <c r="E54" s="332"/>
@@ -31264,6 +31827,9 @@
       <c r="I54" s="332"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="326" t="s">
+        <v>705</v>
+      </c>
       <c r="C55" s="332"/>
       <c r="D55" s="332"/>
       <c r="E55" s="332"/>
@@ -31273,6 +31839,9 @@
       <c r="I55" s="332"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="326" t="s">
+        <v>706</v>
+      </c>
       <c r="C56" s="332"/>
       <c r="D56" s="332"/>
       <c r="E56" s="332"/>
@@ -31282,6 +31851,9 @@
       <c r="I56" s="332"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="326" t="s">
+        <v>707</v>
+      </c>
       <c r="C57" s="332"/>
       <c r="D57" s="332"/>
       <c r="E57" s="332"/>
@@ -31291,6 +31863,9 @@
       <c r="I57" s="332"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="326" t="s">
+        <v>708</v>
+      </c>
       <c r="C58" s="332"/>
       <c r="D58" s="332"/>
       <c r="E58" s="332"/>
@@ -31300,6 +31875,9 @@
       <c r="I58" s="332"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="326" t="s">
+        <v>709</v>
+      </c>
       <c r="C59" s="332"/>
       <c r="D59" s="332"/>
       <c r="E59" s="332"/>
@@ -31309,6 +31887,9 @@
       <c r="I59" s="332"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="326" t="s">
+        <v>710</v>
+      </c>
       <c r="C60" s="332"/>
       <c r="D60" s="332"/>
       <c r="E60" s="332"/>
@@ -31318,6 +31899,9 @@
       <c r="I60" s="332"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="326" t="s">
+        <v>711</v>
+      </c>
       <c r="C61" s="332"/>
       <c r="D61" s="332"/>
       <c r="E61" s="332"/>
@@ -31327,6 +31911,9 @@
       <c r="I61" s="332"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="326" t="s">
+        <v>712</v>
+      </c>
       <c r="C62" s="332"/>
       <c r="D62" s="332"/>
       <c r="E62" s="332"/>
@@ -31336,6 +31923,9 @@
       <c r="I62" s="332"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="326" t="s">
+        <v>713</v>
+      </c>
       <c r="C63" s="332"/>
       <c r="D63" s="332"/>
       <c r="E63" s="332"/>
@@ -31345,6 +31935,9 @@
       <c r="I63" s="332"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="326" t="s">
+        <v>714</v>
+      </c>
       <c r="C64" s="332"/>
       <c r="D64" s="332"/>
       <c r="E64" s="332"/>
@@ -31354,6 +31947,9 @@
       <c r="I64" s="332"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="326" t="s">
+        <v>715</v>
+      </c>
       <c r="C65" s="332"/>
       <c r="D65" s="332"/>
       <c r="E65" s="332"/>
@@ -31363,6 +31959,9 @@
       <c r="I65" s="332"/>
     </row>
     <row r="66" customFormat="false" ht="5.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A66" s="326" t="s">
+        <v>716</v>
+      </c>
       <c r="C66" s="143"/>
       <c r="D66" s="144"/>
       <c r="E66" s="144"/>
@@ -31371,7 +31970,376 @@
       <c r="H66" s="144"/>
       <c r="I66" s="157"/>
     </row>
-    <row r="67" customFormat="false" ht="4.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="67" customFormat="false" ht="4.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A67" s="326" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="326" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="326" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="326" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="326" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="326" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="326" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="326" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="326" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="326" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="326" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="326" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="326" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="326" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="326" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="326" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="326" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="326" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="326" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="326" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="326" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="326" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="326" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="326" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="326" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="326" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="326" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="326" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="326" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="326" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="326" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="326" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="326" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="326" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="326" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="326" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="326" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="326" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="326" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="326" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="326" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="326" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="326" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="326" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="326" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="326" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="326" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="326" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="326" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="326" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="326" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="326" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="326" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="326" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="326" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="326" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="326" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="326" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="326" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="326" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="326" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="326" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="326" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="326" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="326" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="326" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="326" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="326" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="326" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="326" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="326" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="326" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="326" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="326" t="s">
+        <v>790</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="C2:I2"/>

--- a/etp-backend/src/main/resources/energiatodistus-2013-sv.xlsx
+++ b/etp-backend/src/main/resources/energiatodistus-2013-sv.xlsx
@@ -8760,9 +8760,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>247320</xdr:colOff>
+      <xdr:colOff>246960</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>261000</xdr:rowOff>
+      <xdr:rowOff>260640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8776,7 +8776,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="4199040"/>
-          <a:ext cx="757080" cy="213480"/>
+          <a:ext cx="756720" cy="213120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8797,9 +8797,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>147240</xdr:colOff>
+      <xdr:colOff>146880</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>261000</xdr:rowOff>
+      <xdr:rowOff>260640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8813,7 +8813,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="4513320"/>
-          <a:ext cx="1100160" cy="213480"/>
+          <a:ext cx="1099800" cy="213120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8834,9 +8834,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>20520</xdr:colOff>
+      <xdr:colOff>20160</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>262080</xdr:rowOff>
+      <xdr:rowOff>261720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8850,7 +8850,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="4828680"/>
-          <a:ext cx="1407240" cy="213480"/>
+          <a:ext cx="1406880" cy="213120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8871,9 +8871,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>344520</xdr:colOff>
+      <xdr:colOff>344160</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>262080</xdr:rowOff>
+      <xdr:rowOff>261720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8887,7 +8887,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="5142960"/>
-          <a:ext cx="1731240" cy="213480"/>
+          <a:ext cx="1730880" cy="213120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8908,9 +8908,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>217800</xdr:colOff>
+      <xdr:colOff>217440</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>275040</xdr:rowOff>
+      <xdr:rowOff>274680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8924,7 +8924,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="5457240"/>
-          <a:ext cx="2038320" cy="226440"/>
+          <a:ext cx="2037960" cy="226080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8945,9 +8945,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>160920</xdr:colOff>
+      <xdr:colOff>160560</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>262080</xdr:rowOff>
+      <xdr:rowOff>261720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8961,7 +8961,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="5771520"/>
-          <a:ext cx="2383200" cy="213480"/>
+          <a:ext cx="2382840" cy="213120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8982,9 +8982,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>101160</xdr:colOff>
+      <xdr:colOff>100800</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>261000</xdr:rowOff>
+      <xdr:rowOff>260640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8998,7 +8998,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="6085080"/>
-          <a:ext cx="2696400" cy="213480"/>
+          <a:ext cx="2696040" cy="213120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9398,9 +9398,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>317520</xdr:colOff>
+      <xdr:colOff>317160</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>78480</xdr:rowOff>
+      <xdr:rowOff>78120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9410,7 +9410,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1994400" y="149040"/>
-          <a:ext cx="6999480" cy="10062720"/>
+          <a:ext cx="6999120" cy="10062360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -9496,9 +9496,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>5400</xdr:colOff>
+      <xdr:colOff>5040</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>79560</xdr:rowOff>
+      <xdr:rowOff>79200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9508,7 +9508,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1987560" y="10344960"/>
-          <a:ext cx="7016760" cy="266400"/>
+          <a:ext cx="7016400" cy="266040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9562,9 +9562,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>433800</xdr:colOff>
+      <xdr:colOff>433440</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>56880</xdr:rowOff>
+      <xdr:rowOff>56520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9574,7 +9574,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5525280" y="4883760"/>
-          <a:ext cx="795600" cy="267480"/>
+          <a:ext cx="795240" cy="267120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9626,9 +9626,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>432720</xdr:colOff>
+      <xdr:colOff>432360</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>196560</xdr:rowOff>
+      <xdr:rowOff>196200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9638,7 +9638,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5524200" y="5023440"/>
-          <a:ext cx="795600" cy="267480"/>
+          <a:ext cx="795240" cy="267120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -22340,7 +22340,7 @@
   <dimension ref="A1:N94"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D18" activeCellId="0" sqref="D18"/>
+      <selection pane="topLeft" activeCell="M59" activeCellId="0" sqref="M59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -23296,8 +23296,8 @@
         <v>260</v>
       </c>
       <c r="E53" s="199" t="str">
-        <f aca="false">A64</f>
-        <v>[:lahtotiedot :lammitys :label-fi]</v>
+        <f aca="false">A65</f>
+        <v>[:lahtotiedot :lammitys :label-sv]</v>
       </c>
       <c r="F53" s="199"/>
       <c r="G53" s="199"/>

--- a/etp-backend/src/main/resources/energiatodistus-2013-sv.xlsx
+++ b/etp-backend/src/main/resources/energiatodistus-2013-sv.xlsx
@@ -3904,6 +3904,17 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
+      <left/>
+      <right style="thin">
+        <color rgb="FF339966"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF339966"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
       <left style="thin">
         <color rgb="FF009EE0"/>
       </left>
@@ -3914,17 +3925,6 @@
         <color rgb="FF009EE0"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="thin">
-        <color rgb="FF339966"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF339966"/>
-      </bottom>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -3966,7 +3966,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="347">
+  <cellXfs count="345">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4767,15 +4767,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -5267,7 +5259,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="38" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="38" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5283,7 +5275,7 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5299,7 +5291,7 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5351,7 +5343,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -8760,9 +8752,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>246960</xdr:colOff>
+      <xdr:colOff>246600</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>260640</xdr:rowOff>
+      <xdr:rowOff>260280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8776,7 +8768,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="4199040"/>
-          <a:ext cx="756720" cy="213120"/>
+          <a:ext cx="756360" cy="212760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8797,9 +8789,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>146880</xdr:colOff>
+      <xdr:colOff>146520</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>260640</xdr:rowOff>
+      <xdr:rowOff>260280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8813,7 +8805,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="4513320"/>
-          <a:ext cx="1099800" cy="213120"/>
+          <a:ext cx="1099440" cy="212760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8834,9 +8826,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>20160</xdr:colOff>
+      <xdr:colOff>19800</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>261720</xdr:rowOff>
+      <xdr:rowOff>261360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8850,7 +8842,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="4828680"/>
-          <a:ext cx="1406880" cy="213120"/>
+          <a:ext cx="1406520" cy="212760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8871,9 +8863,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>344160</xdr:colOff>
+      <xdr:colOff>343800</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>261720</xdr:rowOff>
+      <xdr:rowOff>261360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8887,7 +8879,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="5142960"/>
-          <a:ext cx="1730880" cy="213120"/>
+          <a:ext cx="1730520" cy="212760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8908,9 +8900,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>217440</xdr:colOff>
+      <xdr:colOff>217080</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>274680</xdr:rowOff>
+      <xdr:rowOff>274320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8924,7 +8916,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="5457240"/>
-          <a:ext cx="2037960" cy="226080"/>
+          <a:ext cx="2037600" cy="225720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8945,9 +8937,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>160560</xdr:colOff>
+      <xdr:colOff>160200</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>261720</xdr:rowOff>
+      <xdr:rowOff>261360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8961,7 +8953,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="5771520"/>
-          <a:ext cx="2382840" cy="213120"/>
+          <a:ext cx="2382480" cy="212760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8982,9 +8974,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>100800</xdr:colOff>
+      <xdr:colOff>100440</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>260640</xdr:rowOff>
+      <xdr:rowOff>260280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8998,7 +8990,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="6085080"/>
-          <a:ext cx="2696040" cy="213120"/>
+          <a:ext cx="2695680" cy="212760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9398,9 +9390,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>317160</xdr:colOff>
+      <xdr:colOff>316800</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>78120</xdr:rowOff>
+      <xdr:rowOff>77760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9410,7 +9402,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1994400" y="149040"/>
-          <a:ext cx="6999120" cy="10062360"/>
+          <a:ext cx="6998760" cy="10062000"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -9496,9 +9488,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>5040</xdr:colOff>
+      <xdr:colOff>4680</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>79200</xdr:rowOff>
+      <xdr:rowOff>78840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9508,7 +9500,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1987560" y="10344960"/>
-          <a:ext cx="7016400" cy="266040"/>
+          <a:ext cx="7016040" cy="265680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9562,9 +9554,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>433440</xdr:colOff>
+      <xdr:colOff>433080</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>56520</xdr:rowOff>
+      <xdr:rowOff>56160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9574,7 +9566,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5525280" y="4883760"/>
-          <a:ext cx="795240" cy="267120"/>
+          <a:ext cx="794880" cy="266760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9626,9 +9618,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>432360</xdr:colOff>
+      <xdr:colOff>432000</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>196200</xdr:rowOff>
+      <xdr:rowOff>195840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9638,7 +9630,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5524200" y="5023440"/>
-          <a:ext cx="795240" cy="267120"/>
+          <a:ext cx="794880" cy="266760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -22339,8 +22331,8 @@
   </sheetPr>
   <dimension ref="A1:N94"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M59" activeCellId="0" sqref="M59"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D57" activeCellId="0" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -23050,7 +23042,7 @@
         <v>231</v>
       </c>
       <c r="C39" s="172"/>
-      <c r="D39" s="186" t="s">
+      <c r="D39" s="195" t="s">
         <v>232</v>
       </c>
       <c r="E39" s="199" t="str">
@@ -23102,16 +23094,16 @@
       </c>
       <c r="C42" s="172"/>
       <c r="D42" s="170"/>
-      <c r="E42" s="202" t="s">
+      <c r="E42" s="200" t="s">
         <v>240</v>
       </c>
-      <c r="F42" s="203" t="s">
+      <c r="F42" s="201" t="s">
         <v>241</v>
       </c>
-      <c r="G42" s="203" t="s">
+      <c r="G42" s="201" t="s">
         <v>242</v>
       </c>
-      <c r="H42" s="204"/>
+      <c r="H42" s="202"/>
       <c r="I42" s="175"/>
       <c r="K42" s="26"/>
     </row>
@@ -23130,7 +23122,7 @@
       <c r="G43" s="182" t="s">
         <v>108</v>
       </c>
-      <c r="H43" s="205" t="s">
+      <c r="H43" s="203" t="s">
         <v>246</v>
       </c>
       <c r="I43" s="175"/>
@@ -23144,7 +23136,7 @@
       <c r="E44" s="180"/>
       <c r="F44" s="180"/>
       <c r="G44" s="180"/>
-      <c r="H44" s="204"/>
+      <c r="H44" s="202"/>
       <c r="I44" s="175"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23163,7 +23155,7 @@
         <f aca="false">A56</f>
         <v>[:lahtotiedot :ilmanvaihto :paaiv :sfp]</v>
       </c>
-      <c r="G45" s="206" t="str">
+      <c r="G45" s="204" t="str">
         <f aca="false">A57</f>
         <v>[:lahtotiedot :ilmanvaihto :paaiv :lampotilasuhde]</v>
       </c>
@@ -23192,7 +23184,7 @@
       <c r="G46" s="191" t="s">
         <v>108</v>
       </c>
-      <c r="H46" s="207" t="s">
+      <c r="H46" s="205" t="s">
         <v>108</v>
       </c>
       <c r="I46" s="175"/>
@@ -23202,7 +23194,7 @@
         <v>252</v>
       </c>
       <c r="C47" s="172"/>
-      <c r="D47" s="208" t="s">
+      <c r="D47" s="206" t="s">
         <v>229</v>
       </c>
       <c r="E47" s="188" t="str">
@@ -23216,7 +23208,7 @@
       <c r="G47" s="191" t="s">
         <v>108</v>
       </c>
-      <c r="H47" s="209" t="s">
+      <c r="H47" s="207" t="s">
         <v>108</v>
       </c>
       <c r="I47" s="175"/>
@@ -23226,15 +23218,15 @@
         <v>253</v>
       </c>
       <c r="C48" s="172"/>
-      <c r="D48" s="210"/>
-      <c r="E48" s="211"/>
-      <c r="F48" s="211"/>
-      <c r="G48" s="211"/>
-      <c r="H48" s="212"/>
+      <c r="D48" s="208"/>
+      <c r="E48" s="209"/>
+      <c r="F48" s="209"/>
+      <c r="G48" s="209"/>
+      <c r="H48" s="210"/>
       <c r="I48" s="175"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="213" t="s">
+      <c r="A49" s="211" t="s">
         <v>254</v>
       </c>
       <c r="C49" s="172"/>
@@ -23242,7 +23234,7 @@
         <v>255</v>
       </c>
       <c r="F49" s="0"/>
-      <c r="G49" s="214" t="str">
+      <c r="G49" s="212" t="str">
         <f aca="false">A63</f>
         <v>[:lahtotiedot :ilmanvaihto :lto-vuosihyotysuhde]</v>
       </c>
@@ -23254,10 +23246,10 @@
       </c>
       <c r="C50" s="172"/>
       <c r="D50" s="173"/>
-      <c r="E50" s="215"/>
-      <c r="F50" s="215"/>
-      <c r="G50" s="215"/>
-      <c r="H50" s="216"/>
+      <c r="E50" s="213"/>
+      <c r="F50" s="213"/>
+      <c r="G50" s="213"/>
+      <c r="H50" s="214"/>
       <c r="I50" s="175"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23321,17 +23313,17 @@
         <v>261</v>
       </c>
       <c r="C55" s="172"/>
-      <c r="D55" s="217"/>
+      <c r="D55" s="215"/>
       <c r="E55" s="180" t="s">
         <v>262</v>
       </c>
-      <c r="F55" s="218" t="s">
+      <c r="F55" s="216" t="s">
         <v>262</v>
       </c>
       <c r="G55" s="180" t="s">
         <v>263</v>
       </c>
-      <c r="H55" s="204" t="s">
+      <c r="H55" s="202" t="s">
         <v>264</v>
       </c>
       <c r="I55" s="175"/>
@@ -23345,11 +23337,11 @@
       <c r="E56" s="180" t="s">
         <v>266</v>
       </c>
-      <c r="F56" s="218" t="s">
+      <c r="F56" s="216" t="s">
         <v>267</v>
       </c>
       <c r="G56" s="180"/>
-      <c r="H56" s="204" t="s">
+      <c r="H56" s="202" t="s">
         <v>268</v>
       </c>
       <c r="I56" s="175"/>
@@ -23394,11 +23386,11 @@
       <c r="D59" s="173" t="s">
         <v>272</v>
       </c>
-      <c r="E59" s="206" t="str">
+      <c r="E59" s="204" t="str">
         <f aca="false">A66</f>
         <v>[:lahtotiedot :lammitys :tilat-ja-iv :tuoton-hyotysuhde]</v>
       </c>
-      <c r="F59" s="206" t="str">
+      <c r="F59" s="204" t="str">
         <f aca="false">A67</f>
         <v>[:lahtotiedot :lammitys :tilat-ja-iv :jaon-hyotysuhde]</v>
       </c>
@@ -23421,11 +23413,11 @@
       <c r="D60" s="173" t="s">
         <v>274</v>
       </c>
-      <c r="E60" s="206" t="str">
+      <c r="E60" s="204" t="str">
         <f aca="false">A70</f>
         <v>[:lahtotiedot :lammitys :lammin-kayttovesi :tuoton-hyotysuhde]</v>
       </c>
-      <c r="F60" s="219" t="str">
+      <c r="F60" s="217" t="str">
         <f aca="false">A71</f>
         <v>[:lahtotiedot :lammitys :lammin-kayttovesi :jaon-hyotysuhde]</v>
       </c>
@@ -23445,10 +23437,10 @@
       </c>
       <c r="C61" s="172"/>
       <c r="D61" s="173"/>
-      <c r="E61" s="220"/>
-      <c r="F61" s="220"/>
-      <c r="G61" s="220"/>
-      <c r="H61" s="220"/>
+      <c r="E61" s="218"/>
+      <c r="F61" s="218"/>
+      <c r="G61" s="218"/>
+      <c r="H61" s="218"/>
       <c r="I61" s="175"/>
     </row>
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -23456,7 +23448,7 @@
         <v>276</v>
       </c>
       <c r="C62" s="172"/>
-      <c r="D62" s="221" t="s">
+      <c r="D62" s="219" t="s">
         <v>277</v>
       </c>
       <c r="E62" s="173"/>
@@ -23470,7 +23462,7 @@
         <v>278</v>
       </c>
       <c r="C63" s="172"/>
-      <c r="D63" s="221" t="s">
+      <c r="D63" s="219" t="s">
         <v>279</v>
       </c>
       <c r="E63" s="173"/>
@@ -23497,7 +23489,7 @@
       </c>
       <c r="C65" s="172"/>
       <c r="D65" s="170"/>
-      <c r="E65" s="204" t="s">
+      <c r="E65" s="202" t="s">
         <v>280</v>
       </c>
       <c r="F65" s="180" t="s">
@@ -23529,7 +23521,7 @@
       </c>
       <c r="C67" s="172"/>
       <c r="D67" s="170"/>
-      <c r="E67" s="204"/>
+      <c r="E67" s="202"/>
       <c r="F67" s="180"/>
       <c r="G67" s="180"/>
       <c r="H67" s="177"/>
@@ -23543,11 +23535,11 @@
       <c r="D68" s="173" t="s">
         <v>287</v>
       </c>
-      <c r="E68" s="222" t="str">
+      <c r="E68" s="220" t="str">
         <f aca="false">A74</f>
         <v>[:lahtotiedot :lammitys :takka :maara]</v>
       </c>
-      <c r="F68" s="222" t="str">
+      <c r="F68" s="220" t="str">
         <f aca="false">A75</f>
         <v>[:lahtotiedot :lammitys :takka :tuotto]</v>
       </c>
@@ -23563,11 +23555,11 @@
       <c r="D69" s="173" t="s">
         <v>289</v>
       </c>
-      <c r="E69" s="222" t="str">
+      <c r="E69" s="220" t="str">
         <f aca="false">A76</f>
         <v>[:lahtotiedot :lammitys :ilmalampopumppu :maara]</v>
       </c>
-      <c r="F69" s="222" t="str">
+      <c r="F69" s="220" t="str">
         <f aca="false">A77</f>
         <v>[:lahtotiedot :lammitys :ilmalampopumppu :tuotto]</v>
       </c>
@@ -23620,7 +23612,7 @@
       </c>
       <c r="C73" s="172"/>
       <c r="D73" s="170"/>
-      <c r="E73" s="223" t="s">
+      <c r="E73" s="221" t="s">
         <v>295</v>
       </c>
       <c r="F73" s="180"/>
@@ -23637,8 +23629,8 @@
       <c r="E74" s="183" t="s">
         <v>108</v>
       </c>
-      <c r="F74" s="224"/>
-      <c r="G74" s="225"/>
+      <c r="F74" s="222"/>
+      <c r="G74" s="223"/>
       <c r="H74" s="177"/>
       <c r="I74" s="175"/>
     </row>
@@ -23648,9 +23640,9 @@
       </c>
       <c r="C75" s="172"/>
       <c r="D75" s="170"/>
-      <c r="E75" s="204"/>
-      <c r="F75" s="225"/>
-      <c r="G75" s="225"/>
+      <c r="E75" s="202"/>
+      <c r="F75" s="223"/>
+      <c r="G75" s="223"/>
       <c r="H75" s="177"/>
       <c r="I75" s="175"/>
     </row>
@@ -23666,8 +23658,8 @@
         <f aca="false">A78</f>
         <v>[:lahtotiedot :jaahdytysjarjestelma :jaahdytyskauden-painotettu-kylmakerroin]</v>
       </c>
-      <c r="F76" s="220"/>
-      <c r="G76" s="225"/>
+      <c r="F76" s="218"/>
+      <c r="G76" s="223"/>
       <c r="H76" s="177"/>
       <c r="I76" s="175"/>
       <c r="L76" s="198"/>
@@ -23720,7 +23712,7 @@
       <c r="E80" s="180" t="s">
         <v>304</v>
       </c>
-      <c r="F80" s="226" t="s">
+      <c r="F80" s="224" t="s">
         <v>305</v>
       </c>
       <c r="G80" s="177"/>
@@ -23751,7 +23743,7 @@
       <c r="C82" s="172"/>
       <c r="D82" s="170"/>
       <c r="E82" s="180"/>
-      <c r="F82" s="204"/>
+      <c r="F82" s="202"/>
       <c r="G82" s="177"/>
       <c r="H82" s="177"/>
       <c r="I82" s="175"/>
@@ -23764,11 +23756,11 @@
       <c r="D83" s="173" t="s">
         <v>301</v>
       </c>
-      <c r="E83" s="222" t="str">
+      <c r="E83" s="220" t="str">
         <f aca="false">A79</f>
         <v>[:lahtotiedot :lkvn-kaytto :ominaiskulutus]</v>
       </c>
-      <c r="F83" s="222" t="str">
+      <c r="F83" s="220" t="str">
         <f aca="false">A80</f>
         <v>[:lahtotiedot :lkvn-kaytto :lammitysenergian-nettotarve]</v>
       </c>
@@ -23821,7 +23813,7 @@
       </c>
       <c r="C87" s="172"/>
       <c r="D87" s="170"/>
-      <c r="E87" s="204" t="s">
+      <c r="E87" s="202" t="s">
         <v>315</v>
       </c>
       <c r="F87" s="180" t="s">
@@ -23830,7 +23822,7 @@
       <c r="G87" s="180" t="s">
         <v>317</v>
       </c>
-      <c r="H87" s="204" t="s">
+      <c r="H87" s="202" t="s">
         <v>318</v>
       </c>
       <c r="I87" s="175"/>
@@ -23861,10 +23853,10 @@
       </c>
       <c r="C89" s="172"/>
       <c r="D89" s="170"/>
-      <c r="E89" s="204"/>
+      <c r="E89" s="202"/>
       <c r="F89" s="180"/>
       <c r="G89" s="180"/>
-      <c r="H89" s="204"/>
+      <c r="H89" s="202"/>
       <c r="I89" s="175"/>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -23872,8 +23864,8 @@
         <v>322</v>
       </c>
       <c r="C90" s="172"/>
-      <c r="D90" s="227"/>
-      <c r="E90" s="206" t="str">
+      <c r="D90" s="225"/>
+      <c r="E90" s="204" t="str">
         <f aca="false">A81</f>
         <v>#function[solita.etp.service.energiatodistus-pdf/fn--61257]</v>
       </c>
@@ -23896,8 +23888,8 @@
         <v>323</v>
       </c>
       <c r="C91" s="172"/>
-      <c r="D91" s="227"/>
-      <c r="E91" s="206" t="str">
+      <c r="D91" s="225"/>
+      <c r="E91" s="204" t="str">
         <f aca="false">A85</f>
         <v>#function[solita.etp.service.energiatodistus-pdf/fn--61265]</v>
       </c>
@@ -23920,8 +23912,8 @@
         <v>324</v>
       </c>
       <c r="C92" s="172"/>
-      <c r="D92" s="227"/>
-      <c r="E92" s="206" t="str">
+      <c r="D92" s="225"/>
+      <c r="E92" s="204" t="str">
         <f aca="false">A89</f>
         <v>#function[solita.etp.service.energiatodistus-pdf/fn--61273]</v>
       </c>
@@ -23940,13 +23932,13 @@
       <c r="I92" s="175"/>
     </row>
     <row r="93" customFormat="false" ht="5.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C93" s="228"/>
-      <c r="D93" s="229"/>
-      <c r="E93" s="229"/>
-      <c r="F93" s="229"/>
-      <c r="G93" s="229"/>
-      <c r="H93" s="229"/>
-      <c r="I93" s="230"/>
+      <c r="C93" s="226"/>
+      <c r="D93" s="227"/>
+      <c r="E93" s="227"/>
+      <c r="F93" s="227"/>
+      <c r="G93" s="227"/>
+      <c r="H93" s="227"/>
+      <c r="I93" s="228"/>
     </row>
     <row r="94" customFormat="false" ht="5.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -24762,20 +24754,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" s="232" customFormat="true" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="231" t="s">
+    <row r="2" s="230" customFormat="true" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="229" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="233"/>
+      <c r="C2" s="231"/>
       <c r="D2" s="163" t="s">
         <v>325</v>
       </c>
-      <c r="E2" s="234"/>
+      <c r="E2" s="232"/>
       <c r="F2" s="163"/>
-      <c r="G2" s="234"/>
-      <c r="H2" s="234"/>
-      <c r="I2" s="235"/>
-      <c r="J2" s="236"/>
+      <c r="G2" s="232"/>
+      <c r="H2" s="232"/>
+      <c r="I2" s="233"/>
+      <c r="J2" s="234"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="158" t="s">
@@ -24790,7 +24782,7 @@
       <c r="G3" s="167"/>
       <c r="H3" s="167"/>
       <c r="I3" s="182"/>
-      <c r="J3" s="237"/>
+      <c r="J3" s="235"/>
     </row>
     <row r="4" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="158" t="s">
@@ -24803,132 +24795,132 @@
       <c r="G4" s="170"/>
       <c r="H4" s="170"/>
       <c r="I4" s="180"/>
-      <c r="J4" s="238"/>
+      <c r="J4" s="236"/>
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="158" t="s">
         <v>167</v>
       </c>
       <c r="C5" s="172"/>
-      <c r="D5" s="239" t="s">
+      <c r="D5" s="237" t="s">
         <v>168</v>
       </c>
-      <c r="E5" s="240" t="str">
+      <c r="E5" s="238" t="str">
         <f aca="false">A3</f>
         <v>[:perustiedot :alakayttotarkoitus-sv]</v>
       </c>
-      <c r="F5" s="240"/>
-      <c r="G5" s="240"/>
-      <c r="H5" s="240"/>
+      <c r="F5" s="238"/>
+      <c r="G5" s="238"/>
+      <c r="H5" s="238"/>
       <c r="I5" s="180"/>
-      <c r="J5" s="238"/>
+      <c r="J5" s="236"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="158" t="s">
         <v>21</v>
       </c>
       <c r="C6" s="172"/>
-      <c r="D6" s="239"/>
-      <c r="E6" s="240"/>
-      <c r="F6" s="240"/>
-      <c r="G6" s="240"/>
-      <c r="H6" s="240"/>
+      <c r="D6" s="237"/>
+      <c r="E6" s="238"/>
+      <c r="F6" s="238"/>
+      <c r="G6" s="238"/>
+      <c r="H6" s="238"/>
       <c r="I6" s="180"/>
-      <c r="J6" s="238"/>
+      <c r="J6" s="236"/>
     </row>
     <row r="7" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="158" t="s">
         <v>95</v>
       </c>
       <c r="C7" s="172"/>
-      <c r="D7" s="239"/>
+      <c r="D7" s="237"/>
       <c r="E7" s="113"/>
       <c r="F7" s="113"/>
       <c r="G7" s="113"/>
       <c r="H7" s="113"/>
       <c r="I7" s="180"/>
-      <c r="J7" s="238"/>
+      <c r="J7" s="236"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="158" t="s">
         <v>98</v>
       </c>
       <c r="C8" s="172"/>
-      <c r="D8" s="241" t="s">
+      <c r="D8" s="239" t="s">
         <v>171</v>
       </c>
       <c r="E8" s="28" t="str">
         <f aca="false">A4</f>
         <v>[:perustiedot :valmistumisvuosi]</v>
       </c>
-      <c r="F8" s="242"/>
+      <c r="F8" s="240"/>
       <c r="G8" s="165"/>
-      <c r="H8" s="217"/>
+      <c r="H8" s="215"/>
       <c r="I8" s="182"/>
-      <c r="J8" s="237"/>
-      <c r="L8" s="243"/>
-      <c r="M8" s="243"/>
-      <c r="N8" s="243"/>
-      <c r="O8" s="243"/>
-      <c r="P8" s="243"/>
-      <c r="Q8" s="243"/>
-      <c r="R8" s="243"/>
-      <c r="S8" s="243"/>
-      <c r="T8" s="243"/>
+      <c r="J8" s="235"/>
+      <c r="L8" s="241"/>
+      <c r="M8" s="241"/>
+      <c r="N8" s="241"/>
+      <c r="O8" s="241"/>
+      <c r="P8" s="241"/>
+      <c r="Q8" s="241"/>
+      <c r="R8" s="241"/>
+      <c r="S8" s="241"/>
+      <c r="T8" s="241"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="158" t="s">
         <v>326</v>
       </c>
       <c r="C9" s="172"/>
-      <c r="D9" s="241" t="s">
+      <c r="D9" s="239" t="s">
         <v>327</v>
       </c>
       <c r="E9" s="28" t="str">
         <f aca="false">A5</f>
         <v>[:lahtotiedot :lammitetty-nettoala]</v>
       </c>
-      <c r="F9" s="244"/>
+      <c r="F9" s="242"/>
       <c r="G9" s="28"/>
       <c r="H9" s="165"/>
       <c r="I9" s="180"/>
-      <c r="J9" s="238"/>
-      <c r="L9" s="243"/>
-      <c r="M9" s="243"/>
-      <c r="N9" s="243"/>
-      <c r="O9" s="243"/>
-      <c r="P9" s="243"/>
-      <c r="Q9" s="243"/>
-      <c r="R9" s="243"/>
-      <c r="S9" s="243"/>
-      <c r="T9" s="243"/>
+      <c r="J9" s="236"/>
+      <c r="L9" s="241"/>
+      <c r="M9" s="241"/>
+      <c r="N9" s="241"/>
+      <c r="O9" s="241"/>
+      <c r="P9" s="241"/>
+      <c r="Q9" s="241"/>
+      <c r="R9" s="241"/>
+      <c r="S9" s="241"/>
+      <c r="T9" s="241"/>
     </row>
     <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="158" t="s">
         <v>103</v>
       </c>
       <c r="C10" s="172"/>
-      <c r="D10" s="245" t="s">
+      <c r="D10" s="243" t="s">
         <v>328</v>
       </c>
-      <c r="E10" s="246" t="str">
+      <c r="E10" s="244" t="str">
         <f aca="false">A6</f>
         <v>[:tulokset :e-luku]</v>
       </c>
-      <c r="F10" s="244"/>
+      <c r="F10" s="242"/>
       <c r="G10" s="28"/>
       <c r="H10" s="165"/>
       <c r="I10" s="180"/>
-      <c r="J10" s="238"/>
-      <c r="L10" s="243"/>
-      <c r="M10" s="243"/>
-      <c r="N10" s="243"/>
-      <c r="O10" s="243"/>
-      <c r="P10" s="243"/>
-      <c r="Q10" s="243"/>
-      <c r="R10" s="243"/>
-      <c r="S10" s="243"/>
-      <c r="T10" s="243"/>
+      <c r="J10" s="236"/>
+      <c r="L10" s="241"/>
+      <c r="M10" s="241"/>
+      <c r="N10" s="241"/>
+      <c r="O10" s="241"/>
+      <c r="P10" s="241"/>
+      <c r="Q10" s="241"/>
+      <c r="R10" s="241"/>
+      <c r="S10" s="241"/>
+      <c r="T10" s="241"/>
     </row>
     <row r="11" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="158" t="s">
@@ -24941,16 +24933,16 @@
       <c r="G11" s="177"/>
       <c r="H11" s="177"/>
       <c r="I11" s="182"/>
-      <c r="J11" s="237"/>
-      <c r="L11" s="243"/>
-      <c r="M11" s="243"/>
-      <c r="N11" s="243"/>
-      <c r="O11" s="243"/>
-      <c r="P11" s="243"/>
-      <c r="Q11" s="243"/>
-      <c r="R11" s="243"/>
-      <c r="S11" s="243"/>
-      <c r="T11" s="243"/>
+      <c r="J11" s="235"/>
+      <c r="L11" s="241"/>
+      <c r="M11" s="241"/>
+      <c r="N11" s="241"/>
+      <c r="O11" s="241"/>
+      <c r="P11" s="241"/>
+      <c r="Q11" s="241"/>
+      <c r="R11" s="241"/>
+      <c r="S11" s="241"/>
+      <c r="T11" s="241"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="158" t="s">
@@ -24965,16 +24957,16 @@
       <c r="G12" s="167"/>
       <c r="H12" s="167"/>
       <c r="I12" s="180"/>
-      <c r="J12" s="238"/>
-      <c r="L12" s="243"/>
-      <c r="M12" s="243"/>
-      <c r="N12" s="243"/>
-      <c r="O12" s="243"/>
-      <c r="P12" s="243"/>
-      <c r="Q12" s="243"/>
-      <c r="R12" s="243"/>
-      <c r="S12" s="243"/>
-      <c r="T12" s="243"/>
+      <c r="J12" s="236"/>
+      <c r="L12" s="241"/>
+      <c r="M12" s="241"/>
+      <c r="N12" s="241"/>
+      <c r="O12" s="241"/>
+      <c r="P12" s="241"/>
+      <c r="Q12" s="241"/>
+      <c r="R12" s="241"/>
+      <c r="S12" s="241"/>
+      <c r="T12" s="241"/>
     </row>
     <row r="13" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="158" t="s">
@@ -24987,23 +24979,23 @@
       <c r="G13" s="177"/>
       <c r="H13" s="177"/>
       <c r="I13" s="180"/>
-      <c r="J13" s="237"/>
-      <c r="L13" s="243"/>
-      <c r="M13" s="243"/>
+      <c r="J13" s="235"/>
+      <c r="L13" s="241"/>
+      <c r="M13" s="241"/>
       <c r="N13" s="159"/>
       <c r="O13" s="159"/>
       <c r="P13" s="159"/>
       <c r="Q13" s="159"/>
       <c r="R13" s="159"/>
-      <c r="S13" s="243"/>
-      <c r="T13" s="243"/>
+      <c r="S13" s="241"/>
+      <c r="T13" s="241"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="158" t="s">
         <v>110</v>
       </c>
       <c r="C14" s="172"/>
-      <c r="D14" s="247" t="s">
+      <c r="D14" s="245" t="s">
         <v>99</v>
       </c>
       <c r="E14" s="180" t="s">
@@ -25012,21 +25004,21 @@
       <c r="F14" s="180" t="s">
         <v>332</v>
       </c>
-      <c r="G14" s="204" t="s">
+      <c r="G14" s="202" t="s">
         <v>333</v>
       </c>
-      <c r="H14" s="204"/>
+      <c r="H14" s="202"/>
       <c r="I14" s="180"/>
-      <c r="J14" s="238"/>
-      <c r="L14" s="243"/>
-      <c r="M14" s="243"/>
+      <c r="J14" s="236"/>
+      <c r="L14" s="241"/>
+      <c r="M14" s="241"/>
       <c r="N14" s="159"/>
       <c r="O14" s="159"/>
       <c r="P14" s="159"/>
       <c r="Q14" s="159"/>
       <c r="R14" s="159"/>
-      <c r="S14" s="243"/>
-      <c r="T14" s="243"/>
+      <c r="S14" s="241"/>
+      <c r="T14" s="241"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="158" t="s">
@@ -25040,51 +25032,51 @@
       <c r="F15" s="180" t="s">
         <v>335</v>
       </c>
-      <c r="G15" s="204" t="s">
+      <c r="G15" s="202" t="s">
         <v>336</v>
       </c>
-      <c r="H15" s="204"/>
+      <c r="H15" s="202"/>
       <c r="I15" s="182"/>
-      <c r="J15" s="237"/>
-      <c r="L15" s="243"/>
-      <c r="M15" s="243"/>
+      <c r="J15" s="235"/>
+      <c r="L15" s="241"/>
+      <c r="M15" s="241"/>
       <c r="N15" s="159"/>
       <c r="O15" s="159"/>
       <c r="P15" s="159"/>
       <c r="Q15" s="159"/>
       <c r="R15" s="159"/>
-      <c r="S15" s="243"/>
-      <c r="T15" s="243"/>
+      <c r="S15" s="241"/>
+      <c r="T15" s="241"/>
     </row>
     <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="158" t="s">
         <v>122</v>
       </c>
-      <c r="C16" s="248"/>
-      <c r="D16" s="249"/>
-      <c r="E16" s="250" t="s">
+      <c r="C16" s="246"/>
+      <c r="D16" s="247"/>
+      <c r="E16" s="248" t="s">
         <v>106</v>
       </c>
-      <c r="F16" s="250" t="s">
+      <c r="F16" s="248" t="s">
         <v>108</v>
       </c>
-      <c r="G16" s="250" t="s">
+      <c r="G16" s="248" t="s">
         <v>337</v>
       </c>
-      <c r="H16" s="251" t="s">
+      <c r="H16" s="249" t="s">
         <v>338</v>
       </c>
       <c r="I16" s="180"/>
-      <c r="J16" s="238"/>
-      <c r="L16" s="243"/>
-      <c r="M16" s="243"/>
+      <c r="J16" s="236"/>
+      <c r="L16" s="241"/>
+      <c r="M16" s="241"/>
       <c r="N16" s="159"/>
       <c r="O16" s="159"/>
       <c r="P16" s="159"/>
       <c r="Q16" s="159"/>
       <c r="R16" s="159"/>
-      <c r="S16" s="243"/>
-      <c r="T16" s="243"/>
+      <c r="S16" s="241"/>
+      <c r="T16" s="241"/>
     </row>
     <row r="17" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="158" t="s">
@@ -25097,340 +25089,340 @@
       <c r="G17" s="180"/>
       <c r="H17" s="180"/>
       <c r="I17" s="180"/>
-      <c r="J17" s="237"/>
-      <c r="L17" s="243"/>
-      <c r="M17" s="243"/>
+      <c r="J17" s="235"/>
+      <c r="L17" s="241"/>
+      <c r="M17" s="241"/>
       <c r="N17" s="159"/>
       <c r="O17" s="159"/>
       <c r="P17" s="159"/>
       <c r="Q17" s="159"/>
       <c r="R17" s="159"/>
-      <c r="S17" s="243"/>
-      <c r="T17" s="243"/>
+      <c r="S17" s="241"/>
+      <c r="T17" s="241"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="158" t="s">
         <v>123</v>
       </c>
       <c r="C18" s="172"/>
-      <c r="D18" s="252" t="s">
+      <c r="D18" s="250" t="s">
         <v>112</v>
       </c>
-      <c r="E18" s="222" t="str">
+      <c r="E18" s="220" t="str">
         <f aca="false">A7</f>
         <v>[:tulokset :kaytettavat-energiamuodot :kaukolampo]</v>
       </c>
-      <c r="F18" s="253" t="str">
+      <c r="F18" s="251" t="str">
         <f aca="false">A8</f>
         <v>[:tulokset :kaytettavat-energiamuodot :kaukolampo-kerroin]</v>
       </c>
-      <c r="G18" s="254" t="str">
+      <c r="G18" s="252" t="str">
         <f aca="false">A9</f>
         <v>[:tulokset :kaytettavat-energiamuodot :kaukolampo-kertoimella]</v>
       </c>
-      <c r="H18" s="254" t="str">
+      <c r="H18" s="252" t="str">
         <f aca="false">A10</f>
         <v>[:tulokset :kaytettavat-energiamuodot :kaukolampo-nettoala-kertoimella]</v>
       </c>
       <c r="I18" s="180"/>
-      <c r="J18" s="238"/>
-      <c r="L18" s="243"/>
-      <c r="M18" s="243"/>
+      <c r="J18" s="236"/>
+      <c r="L18" s="241"/>
+      <c r="M18" s="241"/>
       <c r="N18" s="159"/>
       <c r="O18" s="159"/>
       <c r="P18" s="159"/>
       <c r="Q18" s="159"/>
       <c r="R18" s="159"/>
-      <c r="S18" s="243"/>
-      <c r="T18" s="243"/>
+      <c r="S18" s="241"/>
+      <c r="T18" s="241"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="158" t="s">
         <v>124</v>
       </c>
       <c r="C19" s="172"/>
-      <c r="D19" s="252" t="s">
+      <c r="D19" s="250" t="s">
         <v>114</v>
       </c>
-      <c r="E19" s="222" t="str">
+      <c r="E19" s="220" t="str">
         <f aca="false">A11</f>
         <v>[:tulokset :kaytettavat-energiamuodot :sahko]</v>
       </c>
-      <c r="F19" s="253" t="str">
+      <c r="F19" s="251" t="str">
         <f aca="false">A12</f>
         <v>[:tulokset :kaytettavat-energiamuodot :sahko-kerroin]</v>
       </c>
-      <c r="G19" s="254" t="str">
+      <c r="G19" s="252" t="str">
         <f aca="false">A13</f>
         <v>[:tulokset :kaytettavat-energiamuodot :sahko-kertoimella]</v>
       </c>
-      <c r="H19" s="254" t="str">
+      <c r="H19" s="252" t="str">
         <f aca="false">A14</f>
         <v>[:tulokset :kaytettavat-energiamuodot :sahko-nettoala-kertoimella]</v>
       </c>
       <c r="I19" s="182"/>
-      <c r="J19" s="237"/>
-      <c r="L19" s="243"/>
-      <c r="M19" s="243"/>
+      <c r="J19" s="235"/>
+      <c r="L19" s="241"/>
+      <c r="M19" s="241"/>
       <c r="N19" s="159"/>
       <c r="O19" s="159"/>
       <c r="P19" s="159"/>
       <c r="Q19" s="159"/>
       <c r="R19" s="159"/>
-      <c r="S19" s="243"/>
-      <c r="T19" s="243"/>
+      <c r="S19" s="241"/>
+      <c r="T19" s="241"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="158" t="s">
         <v>127</v>
       </c>
       <c r="C20" s="172"/>
-      <c r="D20" s="252" t="s">
+      <c r="D20" s="250" t="s">
         <v>118</v>
       </c>
-      <c r="E20" s="222" t="str">
+      <c r="E20" s="220" t="str">
         <f aca="false">A15</f>
         <v>[:tulokset :kaytettavat-energiamuodot :fossiilinen-polttoaine]</v>
       </c>
-      <c r="F20" s="253" t="str">
+      <c r="F20" s="251" t="str">
         <f aca="false">A16</f>
         <v>[:tulokset :kaytettavat-energiamuodot :fossiilinen-polttoaine-kerroin]</v>
       </c>
-      <c r="G20" s="222" t="str">
+      <c r="G20" s="220" t="str">
         <f aca="false">A17</f>
         <v>[:tulokset :kaytettavat-energiamuodot :fossiilinen-polttoaine-kertoimella]</v>
       </c>
-      <c r="H20" s="253" t="str">
+      <c r="H20" s="251" t="str">
         <f aca="false">A18</f>
         <v>[:tulokset :kaytettavat-energiamuodot :fossiilinen-polttoaine-nettoala-kertoimella]</v>
       </c>
       <c r="I20" s="180"/>
-      <c r="J20" s="238"/>
-      <c r="L20" s="243"/>
-      <c r="M20" s="243"/>
+      <c r="J20" s="236"/>
+      <c r="L20" s="241"/>
+      <c r="M20" s="241"/>
       <c r="N20" s="159"/>
       <c r="O20" s="159"/>
       <c r="P20" s="159"/>
       <c r="Q20" s="159"/>
       <c r="R20" s="159"/>
-      <c r="S20" s="243"/>
-      <c r="T20" s="243"/>
+      <c r="S20" s="241"/>
+      <c r="T20" s="241"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="158" t="s">
         <v>340</v>
       </c>
       <c r="C21" s="172"/>
-      <c r="D21" s="252" t="s">
+      <c r="D21" s="250" t="s">
         <v>120</v>
       </c>
-      <c r="E21" s="222" t="str">
+      <c r="E21" s="220" t="str">
         <f aca="false">A19</f>
         <v>[:tulokset :kaytettavat-energiamuodot :kaukojaahdytys]</v>
       </c>
-      <c r="F21" s="255" t="str">
+      <c r="F21" s="253" t="str">
         <f aca="false">A20</f>
         <v>[:tulokset :kaytettavat-energiamuodot :kaukojaahdytys-kerroin]</v>
       </c>
-      <c r="G21" s="254" t="str">
+      <c r="G21" s="252" t="str">
         <f aca="false">A21</f>
         <v>[:tulokset :kaytettavat-energiamuodot :kaukojaahdytys-kertoimella]</v>
       </c>
-      <c r="H21" s="254" t="str">
+      <c r="H21" s="252" t="str">
         <f aca="false">A22</f>
         <v>[:tulokset :kaytettavat-energiamuodot :kaukojaahdytys-nettoala-kertoimella]</v>
       </c>
       <c r="I21" s="180"/>
-      <c r="J21" s="237"/>
-      <c r="L21" s="243"/>
-      <c r="M21" s="243"/>
+      <c r="J21" s="235"/>
+      <c r="L21" s="241"/>
+      <c r="M21" s="241"/>
       <c r="N21" s="159"/>
       <c r="O21" s="159"/>
       <c r="P21" s="159"/>
       <c r="Q21" s="159"/>
       <c r="R21" s="159"/>
-      <c r="S21" s="243"/>
-      <c r="T21" s="243"/>
+      <c r="S21" s="241"/>
+      <c r="T21" s="241"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="158" t="s">
         <v>129</v>
       </c>
       <c r="C22" s="172"/>
-      <c r="D22" s="256" t="s">
+      <c r="D22" s="254" t="s">
         <v>116</v>
       </c>
-      <c r="E22" s="222" t="str">
+      <c r="E22" s="220" t="str">
         <f aca="false">A23</f>
         <v>[:tulokset :kaytettavat-energiamuodot :uusiutuva-polttoaine]</v>
       </c>
-      <c r="F22" s="255" t="str">
+      <c r="F22" s="253" t="str">
         <f aca="false">A24</f>
         <v>[:tulokset :kaytettavat-energiamuodot :uusiutuva-polttoaine-kerroin]</v>
       </c>
-      <c r="G22" s="254" t="str">
+      <c r="G22" s="252" t="str">
         <f aca="false">A25</f>
         <v>[:tulokset :kaytettavat-energiamuodot :uusiutuva-polttoaine-kertoimella]</v>
       </c>
-      <c r="H22" s="254" t="str">
+      <c r="H22" s="252" t="str">
         <f aca="false">A26</f>
         <v>[:tulokset :kaytettavat-energiamuodot :uusiutuva-polttoaine-nettoala-kertoimella]</v>
       </c>
       <c r="I22" s="180"/>
-      <c r="J22" s="238"/>
-      <c r="L22" s="243"/>
-      <c r="M22" s="243"/>
+      <c r="J22" s="236"/>
+      <c r="L22" s="241"/>
+      <c r="M22" s="241"/>
       <c r="N22" s="159"/>
       <c r="O22" s="159"/>
       <c r="P22" s="159"/>
       <c r="Q22" s="159"/>
       <c r="R22" s="159"/>
-      <c r="S22" s="243"/>
-      <c r="T22" s="243"/>
+      <c r="S22" s="241"/>
+      <c r="T22" s="241"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="158" t="s">
         <v>111</v>
       </c>
       <c r="C23" s="172"/>
-      <c r="D23" s="256" t="str">
+      <c r="D23" s="254" t="str">
         <f aca="false">A27</f>
         <v>[:tulokset :kaytettavat-energiamuodot :muu 0 :nimi]</v>
       </c>
-      <c r="E23" s="222" t="str">
+      <c r="E23" s="220" t="str">
         <f aca="false">A28</f>
         <v>[:tulokset :kaytettavat-energiamuodot :muu 0 :ostoenergia]</v>
       </c>
-      <c r="F23" s="255" t="str">
+      <c r="F23" s="253" t="str">
         <f aca="false">A29</f>
         <v>[:tulokset :kaytettavat-energiamuodot :muu 0 :muotokerroin]</v>
       </c>
-      <c r="G23" s="254" t="str">
+      <c r="G23" s="252" t="str">
         <f aca="false">A30</f>
         <v>[:tulokset :kaytettavat-energiamuodot :muu 0 :ostoenergia-kertoimella]</v>
       </c>
-      <c r="H23" s="254" t="str">
+      <c r="H23" s="252" t="str">
         <f aca="false">A31</f>
         <v>[:tulokset :kaytettavat-energiamuodot :muu 0 :ostoenergia-nettoala-kertoimella]</v>
       </c>
       <c r="I23" s="180"/>
-      <c r="J23" s="238"/>
-      <c r="L23" s="243"/>
-      <c r="M23" s="243"/>
+      <c r="J23" s="236"/>
+      <c r="L23" s="241"/>
+      <c r="M23" s="241"/>
       <c r="N23" s="159"/>
       <c r="O23" s="159"/>
       <c r="P23" s="159"/>
       <c r="Q23" s="159"/>
       <c r="R23" s="159"/>
-      <c r="S23" s="243"/>
-      <c r="T23" s="243"/>
+      <c r="S23" s="241"/>
+      <c r="T23" s="241"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="158" t="s">
         <v>115</v>
       </c>
       <c r="C24" s="172"/>
-      <c r="D24" s="256" t="str">
+      <c r="D24" s="254" t="str">
         <f aca="false">A32</f>
         <v>[:tulokset :kaytettavat-energiamuodot :muu 1 :nimi]</v>
       </c>
-      <c r="E24" s="222" t="str">
+      <c r="E24" s="220" t="str">
         <f aca="false">A33</f>
         <v>[:tulokset :kaytettavat-energiamuodot :muu 1 :ostoenergia]</v>
       </c>
-      <c r="F24" s="255" t="str">
+      <c r="F24" s="253" t="str">
         <f aca="false">A34</f>
         <v>[:tulokset :kaytettavat-energiamuodot :muu 1 :muotokerroin]</v>
       </c>
-      <c r="G24" s="254" t="str">
+      <c r="G24" s="252" t="str">
         <f aca="false">A35</f>
         <v>[:tulokset :kaytettavat-energiamuodot :muu 1 :ostoenergia-kertoimella]</v>
       </c>
-      <c r="H24" s="254" t="str">
+      <c r="H24" s="252" t="str">
         <f aca="false">A36</f>
         <v>[:tulokset :kaytettavat-energiamuodot :muu 1 :ostoenergia-nettoala-kertoimella]</v>
       </c>
       <c r="I24" s="180"/>
-      <c r="J24" s="238"/>
-      <c r="L24" s="243"/>
-      <c r="M24" s="243"/>
+      <c r="J24" s="236"/>
+      <c r="L24" s="241"/>
+      <c r="M24" s="241"/>
       <c r="N24" s="159"/>
       <c r="O24" s="159"/>
       <c r="P24" s="159"/>
       <c r="Q24" s="159"/>
       <c r="R24" s="159"/>
-      <c r="S24" s="243"/>
-      <c r="T24" s="243"/>
+      <c r="S24" s="241"/>
+      <c r="T24" s="241"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="158" t="s">
         <v>341</v>
       </c>
       <c r="C25" s="172"/>
-      <c r="D25" s="257" t="str">
+      <c r="D25" s="255" t="str">
         <f aca="false">A37</f>
         <v>[:tulokset :kaytettavat-energiamuodot :muu 2 :nimi]</v>
       </c>
-      <c r="E25" s="222" t="str">
+      <c r="E25" s="220" t="str">
         <f aca="false">A38</f>
         <v>[:tulokset :kaytettavat-energiamuodot :muu 2 :ostoenergia]</v>
       </c>
-      <c r="F25" s="255" t="str">
+      <c r="F25" s="253" t="str">
         <f aca="false">A39</f>
         <v>[:tulokset :kaytettavat-energiamuodot :muu 2 :muotokerroin]</v>
       </c>
-      <c r="G25" s="254" t="str">
+      <c r="G25" s="252" t="str">
         <f aca="false">A40</f>
         <v>[:tulokset :kaytettavat-energiamuodot :muu 2 :ostoenergia-kertoimella]</v>
       </c>
-      <c r="H25" s="254" t="str">
+      <c r="H25" s="252" t="str">
         <f aca="false">A41</f>
         <v>[:tulokset :kaytettavat-energiamuodot :muu 2 :ostoenergia-nettoala-kertoimella]</v>
       </c>
       <c r="I25" s="182"/>
-      <c r="J25" s="237"/>
-      <c r="L25" s="243"/>
-      <c r="M25" s="243"/>
+      <c r="J25" s="235"/>
+      <c r="L25" s="241"/>
+      <c r="M25" s="241"/>
       <c r="N25" s="159"/>
       <c r="O25" s="159"/>
       <c r="P25" s="159"/>
       <c r="Q25" s="159"/>
       <c r="R25" s="159"/>
-      <c r="S25" s="243"/>
-      <c r="T25" s="243"/>
+      <c r="S25" s="241"/>
+      <c r="T25" s="241"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="158" t="s">
         <v>117</v>
       </c>
       <c r="C26" s="172"/>
-      <c r="D26" s="258" t="s">
+      <c r="D26" s="256" t="s">
         <v>342</v>
       </c>
-      <c r="E26" s="259" t="str">
+      <c r="E26" s="257" t="str">
         <f aca="false">A42</f>
         <v>[:tulokset :kaytettavat-energiamuodot :summa]</v>
       </c>
-      <c r="F26" s="259"/>
-      <c r="G26" s="259" t="str">
+      <c r="F26" s="257"/>
+      <c r="G26" s="257" t="str">
         <f aca="false">A43</f>
         <v>[:tulokset :kaytettavat-energiamuodot :kertoimella-summa]</v>
       </c>
-      <c r="H26" s="260" t="str">
+      <c r="H26" s="258" t="str">
         <f aca="false">A44</f>
         <v>[:tulokset :kaytettavat-energiamuodot :nettoala-kertoimella-summa]</v>
       </c>
       <c r="I26" s="180"/>
-      <c r="J26" s="238"/>
-      <c r="L26" s="243"/>
-      <c r="M26" s="243"/>
+      <c r="J26" s="236"/>
+      <c r="L26" s="241"/>
+      <c r="M26" s="241"/>
       <c r="N26" s="159"/>
       <c r="O26" s="159"/>
       <c r="P26" s="159"/>
       <c r="Q26" s="159"/>
       <c r="R26" s="159"/>
-      <c r="S26" s="243"/>
-      <c r="T26" s="243"/>
+      <c r="S26" s="241"/>
+      <c r="T26" s="241"/>
     </row>
     <row r="27" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="158" t="s">
@@ -25443,16 +25435,16 @@
       <c r="G27" s="177"/>
       <c r="H27" s="177"/>
       <c r="I27" s="180"/>
-      <c r="J27" s="237"/>
-      <c r="L27" s="243"/>
-      <c r="M27" s="243"/>
+      <c r="J27" s="235"/>
+      <c r="L27" s="241"/>
+      <c r="M27" s="241"/>
       <c r="N27" s="159"/>
       <c r="O27" s="159"/>
       <c r="P27" s="159"/>
       <c r="Q27" s="159"/>
       <c r="R27" s="159"/>
-      <c r="S27" s="243"/>
-      <c r="T27" s="243"/>
+      <c r="S27" s="241"/>
+      <c r="T27" s="241"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="158" t="s">
@@ -25467,17 +25459,17 @@
       <c r="G28" s="167"/>
       <c r="H28" s="167"/>
       <c r="I28" s="180"/>
-      <c r="J28" s="238"/>
+      <c r="J28" s="236"/>
       <c r="K28" s="198"/>
-      <c r="L28" s="243"/>
-      <c r="M28" s="243"/>
+      <c r="L28" s="241"/>
+      <c r="M28" s="241"/>
       <c r="N28" s="159"/>
       <c r="O28" s="159"/>
       <c r="P28" s="159"/>
       <c r="Q28" s="159"/>
       <c r="R28" s="159"/>
-      <c r="S28" s="243"/>
-      <c r="T28" s="243"/>
+      <c r="S28" s="241"/>
+      <c r="T28" s="241"/>
     </row>
     <row r="29" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="158" t="s">
@@ -25490,16 +25482,16 @@
       <c r="G29" s="177"/>
       <c r="H29" s="177"/>
       <c r="I29" s="182"/>
-      <c r="J29" s="237"/>
-      <c r="L29" s="243"/>
-      <c r="M29" s="243"/>
+      <c r="J29" s="235"/>
+      <c r="L29" s="241"/>
+      <c r="M29" s="241"/>
       <c r="N29" s="159"/>
       <c r="O29" s="159"/>
       <c r="P29" s="159"/>
       <c r="Q29" s="159"/>
       <c r="R29" s="159"/>
-      <c r="S29" s="243"/>
-      <c r="T29" s="243"/>
+      <c r="S29" s="241"/>
+      <c r="T29" s="241"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="158" t="s">
@@ -25515,202 +25507,202 @@
       </c>
       <c r="H30" s="177"/>
       <c r="I30" s="180"/>
-      <c r="J30" s="238"/>
-      <c r="L30" s="243"/>
-      <c r="M30" s="243"/>
+      <c r="J30" s="236"/>
+      <c r="L30" s="241"/>
+      <c r="M30" s="241"/>
       <c r="N30" s="159"/>
       <c r="O30" s="159"/>
       <c r="P30" s="159"/>
       <c r="Q30" s="159"/>
       <c r="R30" s="159"/>
-      <c r="S30" s="243"/>
-      <c r="T30" s="243"/>
+      <c r="S30" s="241"/>
+      <c r="T30" s="241"/>
     </row>
     <row r="31" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="158" t="s">
         <v>136</v>
       </c>
       <c r="C31" s="172"/>
-      <c r="D31" s="261" t="str">
+      <c r="D31" s="259" t="str">
         <f aca="false">A58</f>
         <v>[:tulokset :uusiutuvat-omavaraisenergiat 0 :nimi-sv]</v>
       </c>
-      <c r="E31" s="261"/>
-      <c r="F31" s="262" t="str">
+      <c r="E31" s="259"/>
+      <c r="F31" s="260" t="str">
         <f aca="false">A59</f>
         <v>[:tulokset :uusiutuvat-omavaraisenergiat 0 :vuosikulutus]</v>
       </c>
-      <c r="G31" s="262" t="str">
+      <c r="G31" s="260" t="str">
         <f aca="false">A60</f>
         <v>[:tulokset :uusiutuvat-omavaraisenergiat 0 :vuosikulutus-nettoala]</v>
       </c>
       <c r="H31" s="177"/>
       <c r="I31" s="180"/>
-      <c r="J31" s="237"/>
-      <c r="L31" s="243"/>
-      <c r="M31" s="243"/>
+      <c r="J31" s="235"/>
+      <c r="L31" s="241"/>
+      <c r="M31" s="241"/>
       <c r="N31" s="159"/>
       <c r="O31" s="159"/>
       <c r="P31" s="159"/>
       <c r="Q31" s="159"/>
       <c r="R31" s="159"/>
-      <c r="S31" s="243"/>
-      <c r="T31" s="243"/>
+      <c r="S31" s="241"/>
+      <c r="T31" s="241"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="158" t="s">
         <v>137</v>
       </c>
       <c r="C32" s="172"/>
-      <c r="D32" s="261" t="str">
+      <c r="D32" s="259" t="str">
         <f aca="false">A62</f>
         <v>[:tulokset :uusiutuvat-omavaraisenergiat 1 :nimi-sv]</v>
       </c>
-      <c r="E32" s="261"/>
-      <c r="F32" s="263" t="str">
+      <c r="E32" s="259"/>
+      <c r="F32" s="261" t="str">
         <f aca="false">A63</f>
         <v>[:tulokset :uusiutuvat-omavaraisenergiat 1 :vuosikulutus]</v>
       </c>
-      <c r="G32" s="253" t="str">
+      <c r="G32" s="251" t="str">
         <f aca="false">A64</f>
         <v>[:tulokset :uusiutuvat-omavaraisenergiat 1 :vuosikulutus-nettoala]</v>
       </c>
-      <c r="H32" s="264"/>
+      <c r="H32" s="262"/>
       <c r="I32" s="180"/>
-      <c r="J32" s="238"/>
-      <c r="L32" s="243"/>
-      <c r="M32" s="243"/>
+      <c r="J32" s="236"/>
+      <c r="L32" s="241"/>
+      <c r="M32" s="241"/>
       <c r="N32" s="159"/>
       <c r="O32" s="159"/>
       <c r="P32" s="159"/>
       <c r="Q32" s="159"/>
       <c r="R32" s="159"/>
-      <c r="S32" s="243"/>
-      <c r="T32" s="243"/>
+      <c r="S32" s="241"/>
+      <c r="T32" s="241"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="158" t="s">
         <v>138</v>
       </c>
       <c r="C33" s="172"/>
-      <c r="D33" s="261" t="str">
+      <c r="D33" s="259" t="str">
         <f aca="false">A66</f>
         <v>[:tulokset :uusiutuvat-omavaraisenergiat 2 :nimi-sv]</v>
       </c>
-      <c r="E33" s="261"/>
-      <c r="F33" s="263" t="str">
+      <c r="E33" s="259"/>
+      <c r="F33" s="261" t="str">
         <f aca="false">A67</f>
         <v>[:tulokset :uusiutuvat-omavaraisenergiat 2 :vuosikulutus]</v>
       </c>
-      <c r="G33" s="253" t="str">
+      <c r="G33" s="251" t="str">
         <f aca="false">A68</f>
         <v>[:tulokset :uusiutuvat-omavaraisenergiat 2 :vuosikulutus-nettoala]</v>
       </c>
-      <c r="H33" s="264"/>
+      <c r="H33" s="262"/>
       <c r="I33" s="182"/>
-      <c r="J33" s="237"/>
-      <c r="L33" s="243"/>
-      <c r="M33" s="243"/>
+      <c r="J33" s="235"/>
+      <c r="L33" s="241"/>
+      <c r="M33" s="241"/>
       <c r="N33" s="159"/>
       <c r="O33" s="159"/>
       <c r="P33" s="159"/>
       <c r="Q33" s="159"/>
       <c r="R33" s="159"/>
-      <c r="S33" s="243"/>
-      <c r="T33" s="243"/>
+      <c r="S33" s="241"/>
+      <c r="T33" s="241"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="158" t="s">
         <v>141</v>
       </c>
       <c r="C34" s="172"/>
-      <c r="D34" s="261" t="str">
+      <c r="D34" s="259" t="str">
         <f aca="false">A70</f>
         <v>[:tulokset :uusiutuvat-omavaraisenergiat 3 :nimi-sv]</v>
       </c>
-      <c r="E34" s="261"/>
-      <c r="F34" s="263" t="str">
+      <c r="E34" s="259"/>
+      <c r="F34" s="261" t="str">
         <f aca="false">A71</f>
         <v>[:tulokset :uusiutuvat-omavaraisenergiat 3 :vuosikulutus]</v>
       </c>
-      <c r="G34" s="253" t="str">
+      <c r="G34" s="251" t="str">
         <f aca="false">A72</f>
         <v>[:tulokset :uusiutuvat-omavaraisenergiat 3 :vuosikulutus-nettoala]</v>
       </c>
-      <c r="H34" s="264"/>
+      <c r="H34" s="262"/>
       <c r="I34" s="180"/>
-      <c r="J34" s="238"/>
-      <c r="L34" s="243"/>
-      <c r="M34" s="243"/>
+      <c r="J34" s="236"/>
+      <c r="L34" s="241"/>
+      <c r="M34" s="241"/>
       <c r="N34" s="159"/>
       <c r="O34" s="159"/>
       <c r="P34" s="159"/>
       <c r="Q34" s="159"/>
       <c r="R34" s="159"/>
-      <c r="S34" s="243"/>
-      <c r="T34" s="243"/>
+      <c r="S34" s="241"/>
+      <c r="T34" s="241"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="158" t="s">
         <v>345</v>
       </c>
       <c r="C35" s="172"/>
-      <c r="D35" s="261" t="str">
+      <c r="D35" s="259" t="str">
         <f aca="false">A74</f>
         <v>[:tulokset :uusiutuvat-omavaraisenergiat 4 :nimi-sv]</v>
       </c>
-      <c r="E35" s="261"/>
-      <c r="F35" s="263" t="str">
+      <c r="E35" s="259"/>
+      <c r="F35" s="261" t="str">
         <f aca="false">A75</f>
         <v>[:tulokset :uusiutuvat-omavaraisenergiat 4 :vuosikulutus]</v>
       </c>
-      <c r="G35" s="253" t="str">
+      <c r="G35" s="251" t="str">
         <f aca="false">A76</f>
         <v>[:tulokset :uusiutuvat-omavaraisenergiat 4 :vuosikulutus-nettoala]</v>
       </c>
-      <c r="H35" s="264"/>
+      <c r="H35" s="262"/>
       <c r="I35" s="180"/>
-      <c r="J35" s="237"/>
-      <c r="L35" s="243"/>
-      <c r="M35" s="243"/>
+      <c r="J35" s="235"/>
+      <c r="L35" s="241"/>
+      <c r="M35" s="241"/>
       <c r="N35" s="159"/>
       <c r="O35" s="159"/>
       <c r="P35" s="159"/>
       <c r="Q35" s="159"/>
       <c r="R35" s="159"/>
-      <c r="S35" s="243"/>
-      <c r="T35" s="243"/>
+      <c r="S35" s="241"/>
+      <c r="T35" s="241"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="158" t="s">
         <v>143</v>
       </c>
       <c r="C36" s="172"/>
-      <c r="D36" s="261" t="str">
+      <c r="D36" s="259" t="str">
         <f aca="false">A78</f>
         <v>[:tulokset :uusiutuvat-omavaraisenergiat 5 :nimi-sv]</v>
       </c>
-      <c r="E36" s="261"/>
-      <c r="F36" s="263" t="str">
+      <c r="E36" s="259"/>
+      <c r="F36" s="261" t="str">
         <f aca="false">A79</f>
         <v>[:tulokset :uusiutuvat-omavaraisenergiat 5 :vuosikulutus]</v>
       </c>
-      <c r="G36" s="253" t="str">
+      <c r="G36" s="251" t="str">
         <f aca="false">A80</f>
         <v>[:tulokset :uusiutuvat-omavaraisenergiat 5 :vuosikulutus-nettoala]</v>
       </c>
-      <c r="H36" s="264"/>
+      <c r="H36" s="262"/>
       <c r="I36" s="180"/>
-      <c r="J36" s="238"/>
-      <c r="L36" s="243"/>
-      <c r="M36" s="243"/>
+      <c r="J36" s="236"/>
+      <c r="L36" s="241"/>
+      <c r="M36" s="241"/>
       <c r="N36" s="159"/>
       <c r="O36" s="159"/>
       <c r="P36" s="159"/>
       <c r="Q36" s="159"/>
       <c r="R36" s="159"/>
-      <c r="S36" s="243"/>
-      <c r="T36" s="243"/>
+      <c r="S36" s="241"/>
+      <c r="T36" s="241"/>
     </row>
     <row r="37" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="158" t="s">
@@ -25723,16 +25715,16 @@
       <c r="G37" s="177"/>
       <c r="H37" s="177"/>
       <c r="I37" s="182"/>
-      <c r="J37" s="237"/>
-      <c r="L37" s="243"/>
-      <c r="M37" s="243"/>
+      <c r="J37" s="235"/>
+      <c r="L37" s="241"/>
+      <c r="M37" s="241"/>
       <c r="N37" s="159"/>
       <c r="O37" s="159"/>
       <c r="P37" s="159"/>
       <c r="Q37" s="159"/>
       <c r="R37" s="159"/>
-      <c r="S37" s="243"/>
-      <c r="T37" s="243"/>
+      <c r="S37" s="241"/>
+      <c r="T37" s="241"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="158" t="s">
@@ -25747,16 +25739,16 @@
       <c r="G38" s="167"/>
       <c r="H38" s="167"/>
       <c r="I38" s="180"/>
-      <c r="J38" s="238"/>
-      <c r="L38" s="243"/>
-      <c r="M38" s="243"/>
+      <c r="J38" s="236"/>
+      <c r="L38" s="241"/>
+      <c r="M38" s="241"/>
       <c r="N38" s="159"/>
       <c r="O38" s="159"/>
       <c r="P38" s="159"/>
       <c r="Q38" s="159"/>
       <c r="R38" s="159"/>
-      <c r="S38" s="243"/>
-      <c r="T38" s="243"/>
+      <c r="S38" s="241"/>
+      <c r="T38" s="241"/>
     </row>
     <row r="39" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="158" t="s">
@@ -25769,16 +25761,16 @@
       <c r="G39" s="177"/>
       <c r="H39" s="177"/>
       <c r="I39" s="180"/>
-      <c r="J39" s="237"/>
-      <c r="L39" s="243"/>
-      <c r="M39" s="243"/>
+      <c r="J39" s="235"/>
+      <c r="L39" s="241"/>
+      <c r="M39" s="241"/>
       <c r="N39" s="159"/>
       <c r="O39" s="159"/>
       <c r="P39" s="159"/>
       <c r="Q39" s="159"/>
       <c r="R39" s="159"/>
-      <c r="S39" s="243"/>
-      <c r="T39" s="243"/>
+      <c r="S39" s="241"/>
+      <c r="T39" s="241"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="158" t="s">
@@ -25787,7 +25779,7 @@
       <c r="C40" s="172"/>
       <c r="D40" s="170"/>
       <c r="E40" s="170"/>
-      <c r="F40" s="204" t="s">
+      <c r="F40" s="202" t="s">
         <v>348</v>
       </c>
       <c r="G40" s="180" t="s">
@@ -25797,16 +25789,16 @@
         <v>350</v>
       </c>
       <c r="I40" s="180"/>
-      <c r="J40" s="238"/>
-      <c r="L40" s="243"/>
-      <c r="M40" s="243"/>
+      <c r="J40" s="236"/>
+      <c r="L40" s="241"/>
+      <c r="M40" s="241"/>
       <c r="N40" s="159"/>
       <c r="O40" s="159"/>
       <c r="P40" s="159"/>
       <c r="Q40" s="159"/>
       <c r="R40" s="159"/>
-      <c r="S40" s="243"/>
-      <c r="T40" s="243"/>
+      <c r="S40" s="241"/>
+      <c r="T40" s="241"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="158" t="s">
@@ -25825,16 +25817,16 @@
         <v>107</v>
       </c>
       <c r="I41" s="182"/>
-      <c r="J41" s="237"/>
-      <c r="L41" s="243"/>
-      <c r="M41" s="243"/>
-      <c r="N41" s="243"/>
-      <c r="O41" s="243"/>
-      <c r="P41" s="243"/>
-      <c r="Q41" s="243"/>
-      <c r="R41" s="243"/>
-      <c r="S41" s="243"/>
-      <c r="T41" s="243"/>
+      <c r="J41" s="235"/>
+      <c r="L41" s="241"/>
+      <c r="M41" s="241"/>
+      <c r="N41" s="241"/>
+      <c r="O41" s="241"/>
+      <c r="P41" s="241"/>
+      <c r="Q41" s="241"/>
+      <c r="R41" s="241"/>
+      <c r="S41" s="241"/>
+      <c r="T41" s="241"/>
     </row>
     <row r="42" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="158" t="s">
@@ -25843,20 +25835,20 @@
       <c r="C42" s="172"/>
       <c r="D42" s="170"/>
       <c r="E42" s="170"/>
-      <c r="F42" s="204"/>
+      <c r="F42" s="202"/>
       <c r="G42" s="180"/>
       <c r="H42" s="180"/>
       <c r="I42" s="180"/>
-      <c r="J42" s="238"/>
-      <c r="L42" s="243"/>
-      <c r="M42" s="243"/>
-      <c r="N42" s="243"/>
-      <c r="O42" s="243"/>
-      <c r="P42" s="243"/>
-      <c r="Q42" s="243"/>
-      <c r="R42" s="243"/>
-      <c r="S42" s="243"/>
-      <c r="T42" s="243"/>
+      <c r="J42" s="236"/>
+      <c r="L42" s="241"/>
+      <c r="M42" s="241"/>
+      <c r="N42" s="241"/>
+      <c r="O42" s="241"/>
+      <c r="P42" s="241"/>
+      <c r="Q42" s="241"/>
+      <c r="R42" s="241"/>
+      <c r="S42" s="241"/>
+      <c r="T42" s="241"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="158" t="s">
@@ -25868,19 +25860,19 @@
       </c>
       <c r="E43" s="173"/>
       <c r="F43" s="0"/>
-      <c r="G43" s="265"/>
-      <c r="H43" s="265"/>
+      <c r="G43" s="263"/>
+      <c r="H43" s="263"/>
       <c r="I43" s="180"/>
-      <c r="J43" s="237"/>
-      <c r="L43" s="243"/>
-      <c r="M43" s="243"/>
-      <c r="N43" s="243"/>
-      <c r="O43" s="243"/>
-      <c r="P43" s="243"/>
-      <c r="Q43" s="243"/>
-      <c r="R43" s="243"/>
-      <c r="S43" s="243"/>
-      <c r="T43" s="243"/>
+      <c r="J43" s="235"/>
+      <c r="L43" s="241"/>
+      <c r="M43" s="241"/>
+      <c r="N43" s="241"/>
+      <c r="O43" s="241"/>
+      <c r="P43" s="241"/>
+      <c r="Q43" s="241"/>
+      <c r="R43" s="241"/>
+      <c r="S43" s="241"/>
+      <c r="T43" s="241"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="158" t="s">
@@ -25891,7 +25883,7 @@
         <v>354</v>
       </c>
       <c r="E44" s="173"/>
-      <c r="F44" s="253" t="str">
+      <c r="F44" s="251" t="str">
         <f aca="false">A81</f>
         <v>[:tulokset :tekniset-jarjestelmat :tilojen-lammitys :sahko]</v>
       </c>
@@ -25899,20 +25891,20 @@
         <f aca="false">A82</f>
         <v>[:tulokset :tekniset-jarjestelmat :tilojen-lammitys :lampo]</v>
       </c>
-      <c r="H44" s="203" t="s">
+      <c r="H44" s="201" t="s">
         <v>108</v>
       </c>
       <c r="I44" s="180"/>
-      <c r="J44" s="238"/>
-      <c r="L44" s="243"/>
-      <c r="M44" s="243"/>
-      <c r="N44" s="243"/>
-      <c r="O44" s="243"/>
-      <c r="P44" s="243"/>
-      <c r="Q44" s="243"/>
-      <c r="R44" s="243"/>
-      <c r="S44" s="243"/>
-      <c r="T44" s="243"/>
+      <c r="J44" s="236"/>
+      <c r="L44" s="241"/>
+      <c r="M44" s="241"/>
+      <c r="N44" s="241"/>
+      <c r="O44" s="241"/>
+      <c r="P44" s="241"/>
+      <c r="Q44" s="241"/>
+      <c r="R44" s="241"/>
+      <c r="S44" s="241"/>
+      <c r="T44" s="241"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="158" t="s">
@@ -25931,20 +25923,20 @@
         <f aca="false">A84</f>
         <v>[:tulokset :tekniset-jarjestelmat :tuloilman-lammitys :lampo]</v>
       </c>
-      <c r="H45" s="203" t="s">
+      <c r="H45" s="201" t="s">
         <v>108</v>
       </c>
       <c r="I45" s="182"/>
-      <c r="J45" s="237"/>
-      <c r="L45" s="243"/>
-      <c r="M45" s="243"/>
-      <c r="N45" s="243"/>
-      <c r="O45" s="243"/>
-      <c r="P45" s="243"/>
-      <c r="Q45" s="243"/>
-      <c r="R45" s="243"/>
-      <c r="S45" s="243"/>
-      <c r="T45" s="243"/>
+      <c r="J45" s="235"/>
+      <c r="L45" s="241"/>
+      <c r="M45" s="241"/>
+      <c r="N45" s="241"/>
+      <c r="O45" s="241"/>
+      <c r="P45" s="241"/>
+      <c r="Q45" s="241"/>
+      <c r="R45" s="241"/>
+      <c r="S45" s="241"/>
+      <c r="T45" s="241"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="158" t="s">
@@ -25963,20 +25955,20 @@
         <f aca="false">A86</f>
         <v>[:tulokset :tekniset-jarjestelmat :kayttoveden-valmistus :lampo]</v>
       </c>
-      <c r="H46" s="203" t="s">
+      <c r="H46" s="201" t="s">
         <v>108</v>
       </c>
       <c r="I46" s="180"/>
-      <c r="J46" s="238"/>
-      <c r="L46" s="243"/>
-      <c r="M46" s="243"/>
-      <c r="N46" s="243"/>
-      <c r="O46" s="243"/>
-      <c r="P46" s="243"/>
-      <c r="Q46" s="243"/>
-      <c r="R46" s="243"/>
-      <c r="S46" s="243"/>
-      <c r="T46" s="243"/>
+      <c r="J46" s="236"/>
+      <c r="L46" s="241"/>
+      <c r="M46" s="241"/>
+      <c r="N46" s="241"/>
+      <c r="O46" s="241"/>
+      <c r="P46" s="241"/>
+      <c r="Q46" s="241"/>
+      <c r="R46" s="241"/>
+      <c r="S46" s="241"/>
+      <c r="T46" s="241"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="158" t="s">
@@ -25991,23 +25983,23 @@
         <f aca="false">A87</f>
         <v>[:tulokset :tekniset-jarjestelmat :iv-sahko]</v>
       </c>
-      <c r="G47" s="203" t="s">
+      <c r="G47" s="201" t="s">
         <v>108</v>
       </c>
-      <c r="H47" s="203" t="s">
+      <c r="H47" s="201" t="s">
         <v>108</v>
       </c>
       <c r="I47" s="180"/>
-      <c r="J47" s="237"/>
-      <c r="L47" s="243"/>
-      <c r="M47" s="243"/>
-      <c r="N47" s="243"/>
-      <c r="O47" s="243"/>
-      <c r="P47" s="243"/>
-      <c r="Q47" s="243"/>
-      <c r="R47" s="243"/>
-      <c r="S47" s="243"/>
-      <c r="T47" s="243"/>
+      <c r="J47" s="235"/>
+      <c r="L47" s="241"/>
+      <c r="M47" s="241"/>
+      <c r="N47" s="241"/>
+      <c r="O47" s="241"/>
+      <c r="P47" s="241"/>
+      <c r="Q47" s="241"/>
+      <c r="R47" s="241"/>
+      <c r="S47" s="241"/>
+      <c r="T47" s="241"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="158" t="s">
@@ -26031,16 +26023,16 @@
         <v>[:tulokset :tekniset-jarjestelmat :jaahdytys :kaukojaahdytys]</v>
       </c>
       <c r="I48" s="180"/>
-      <c r="J48" s="238"/>
-      <c r="L48" s="243"/>
-      <c r="M48" s="243"/>
-      <c r="N48" s="243"/>
-      <c r="O48" s="243"/>
-      <c r="P48" s="243"/>
-      <c r="Q48" s="243"/>
-      <c r="R48" s="243"/>
-      <c r="S48" s="243"/>
-      <c r="T48" s="243"/>
+      <c r="J48" s="236"/>
+      <c r="L48" s="241"/>
+      <c r="M48" s="241"/>
+      <c r="N48" s="241"/>
+      <c r="O48" s="241"/>
+      <c r="P48" s="241"/>
+      <c r="Q48" s="241"/>
+      <c r="R48" s="241"/>
+      <c r="S48" s="241"/>
+      <c r="T48" s="241"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="158" t="s">
@@ -26055,80 +26047,80 @@
         <f aca="false">A91</f>
         <v>[:tulokset :tekniset-jarjestelmat :kuluttajalaitteet-ja-valaistus-sahko]</v>
       </c>
-      <c r="G49" s="203" t="s">
+      <c r="G49" s="201" t="s">
         <v>108</v>
       </c>
-      <c r="H49" s="203" t="s">
+      <c r="H49" s="201" t="s">
         <v>108</v>
       </c>
       <c r="I49" s="182"/>
-      <c r="J49" s="237"/>
-      <c r="L49" s="243"/>
-      <c r="M49" s="243"/>
-      <c r="N49" s="243"/>
-      <c r="O49" s="243"/>
-      <c r="P49" s="243"/>
-      <c r="Q49" s="243"/>
-      <c r="R49" s="243"/>
-      <c r="S49" s="243"/>
-      <c r="T49" s="243"/>
+      <c r="J49" s="235"/>
+      <c r="L49" s="241"/>
+      <c r="M49" s="241"/>
+      <c r="N49" s="241"/>
+      <c r="O49" s="241"/>
+      <c r="P49" s="241"/>
+      <c r="Q49" s="241"/>
+      <c r="R49" s="241"/>
+      <c r="S49" s="241"/>
+      <c r="T49" s="241"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="158" t="s">
         <v>364</v>
       </c>
       <c r="C50" s="172"/>
-      <c r="D50" s="258" t="s">
+      <c r="D50" s="256" t="s">
         <v>342</v>
       </c>
-      <c r="E50" s="258"/>
-      <c r="F50" s="266" t="str">
+      <c r="E50" s="256"/>
+      <c r="F50" s="264" t="str">
         <f aca="false">A92</f>
         <v>[:tulokset :tekniset-jarjestelmat :sahko-summa]</v>
       </c>
-      <c r="G50" s="266" t="str">
+      <c r="G50" s="264" t="str">
         <f aca="false">A93</f>
         <v>[:tulokset :tekniset-jarjestelmat :lampo-summa]</v>
       </c>
-      <c r="H50" s="266" t="str">
+      <c r="H50" s="264" t="str">
         <f aca="false">A94</f>
         <v>[:tulokset :tekniset-jarjestelmat :kaukojaahdytys-summa]</v>
       </c>
       <c r="I50" s="180"/>
-      <c r="J50" s="238"/>
-      <c r="L50" s="243"/>
-      <c r="M50" s="243"/>
-      <c r="N50" s="243"/>
-      <c r="O50" s="243"/>
-      <c r="P50" s="243"/>
-      <c r="Q50" s="243"/>
-      <c r="R50" s="243"/>
-      <c r="S50" s="243"/>
-      <c r="T50" s="243"/>
+      <c r="J50" s="236"/>
+      <c r="L50" s="241"/>
+      <c r="M50" s="241"/>
+      <c r="N50" s="241"/>
+      <c r="O50" s="241"/>
+      <c r="P50" s="241"/>
+      <c r="Q50" s="241"/>
+      <c r="R50" s="241"/>
+      <c r="S50" s="241"/>
+      <c r="T50" s="241"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="158" t="s">
         <v>365</v>
       </c>
       <c r="C51" s="172"/>
-      <c r="D51" s="267" t="s">
+      <c r="D51" s="265" t="s">
         <v>366</v>
       </c>
-      <c r="E51" s="258"/>
-      <c r="F51" s="224"/>
-      <c r="G51" s="224"/>
-      <c r="H51" s="224"/>
+      <c r="E51" s="256"/>
+      <c r="F51" s="222"/>
+      <c r="G51" s="222"/>
+      <c r="H51" s="222"/>
       <c r="I51" s="180"/>
-      <c r="J51" s="237"/>
-      <c r="L51" s="243"/>
-      <c r="M51" s="243"/>
-      <c r="N51" s="243"/>
-      <c r="O51" s="243"/>
-      <c r="P51" s="243"/>
-      <c r="Q51" s="243"/>
-      <c r="R51" s="243"/>
-      <c r="S51" s="243"/>
-      <c r="T51" s="243"/>
+      <c r="J51" s="235"/>
+      <c r="L51" s="241"/>
+      <c r="M51" s="241"/>
+      <c r="N51" s="241"/>
+      <c r="O51" s="241"/>
+      <c r="P51" s="241"/>
+      <c r="Q51" s="241"/>
+      <c r="R51" s="241"/>
+      <c r="S51" s="241"/>
+      <c r="T51" s="241"/>
     </row>
     <row r="52" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="158" t="s">
@@ -26141,16 +26133,16 @@
       <c r="G52" s="177"/>
       <c r="H52" s="177"/>
       <c r="I52" s="180"/>
-      <c r="J52" s="238"/>
-      <c r="L52" s="243"/>
-      <c r="M52" s="243"/>
-      <c r="N52" s="243"/>
-      <c r="O52" s="243"/>
-      <c r="P52" s="243"/>
-      <c r="Q52" s="243"/>
-      <c r="R52" s="243"/>
-      <c r="S52" s="243"/>
-      <c r="T52" s="243"/>
+      <c r="J52" s="236"/>
+      <c r="L52" s="241"/>
+      <c r="M52" s="241"/>
+      <c r="N52" s="241"/>
+      <c r="O52" s="241"/>
+      <c r="P52" s="241"/>
+      <c r="Q52" s="241"/>
+      <c r="R52" s="241"/>
+      <c r="S52" s="241"/>
+      <c r="T52" s="241"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="158" t="s">
@@ -26165,7 +26157,7 @@
       <c r="G53" s="167"/>
       <c r="H53" s="167"/>
       <c r="I53" s="182"/>
-      <c r="J53" s="237"/>
+      <c r="J53" s="235"/>
     </row>
     <row r="54" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="158" t="s">
@@ -26178,7 +26170,7 @@
       <c r="G54" s="177"/>
       <c r="H54" s="177"/>
       <c r="I54" s="180"/>
-      <c r="J54" s="238"/>
+      <c r="J54" s="236"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="158" t="s">
@@ -26194,7 +26186,7 @@
       </c>
       <c r="H55" s="182"/>
       <c r="I55" s="180"/>
-      <c r="J55" s="237"/>
+      <c r="J55" s="235"/>
     </row>
     <row r="56" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="158" t="s">
@@ -26206,7 +26198,7 @@
       <c r="G56" s="184"/>
       <c r="H56" s="180"/>
       <c r="I56" s="180"/>
-      <c r="J56" s="238"/>
+      <c r="J56" s="236"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="158" t="s">
@@ -26217,17 +26209,17 @@
         <v>374</v>
       </c>
       <c r="E57" s="173"/>
-      <c r="F57" s="222" t="str">
+      <c r="F57" s="220" t="str">
         <f aca="false">A95</f>
         <v>[:tulokset :nettotarve :tilojen-lammitys-vuosikulutus]</v>
       </c>
-      <c r="G57" s="253" t="str">
+      <c r="G57" s="251" t="str">
         <f aca="false">A96</f>
         <v>[:tulokset :nettotarve :tilojen-lammitys-vuosikulutus-nettoala]</v>
       </c>
-      <c r="H57" s="224"/>
+      <c r="H57" s="222"/>
       <c r="I57" s="182"/>
-      <c r="J57" s="237"/>
+      <c r="J57" s="235"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="158" t="s">
@@ -26238,17 +26230,17 @@
         <v>376</v>
       </c>
       <c r="E58" s="173"/>
-      <c r="F58" s="222" t="str">
+      <c r="F58" s="220" t="str">
         <f aca="false">A97</f>
         <v>[:tulokset :nettotarve :ilmanvaihdon-lammitys-vuosikulutus]</v>
       </c>
-      <c r="G58" s="253" t="str">
+      <c r="G58" s="251" t="str">
         <f aca="false">A98</f>
         <v>[:tulokset :nettotarve :ilmanvaihdon-lammitys-vuosikulutus-nettoala]</v>
       </c>
-      <c r="H58" s="225"/>
+      <c r="H58" s="223"/>
       <c r="I58" s="180"/>
-      <c r="J58" s="238"/>
+      <c r="J58" s="236"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="158" t="s">
@@ -26259,17 +26251,17 @@
         <v>274</v>
       </c>
       <c r="E59" s="173"/>
-      <c r="F59" s="222" t="str">
+      <c r="F59" s="220" t="str">
         <f aca="false">A99</f>
         <v>[:tulokset :nettotarve :kayttoveden-valmistus-vuosikulutus]</v>
       </c>
-      <c r="G59" s="253" t="str">
+      <c r="G59" s="251" t="str">
         <f aca="false">A100</f>
         <v>[:tulokset :nettotarve :kayttoveden-valmistus-vuosikulutus-nettoala]</v>
       </c>
-      <c r="H59" s="224"/>
+      <c r="H59" s="222"/>
       <c r="I59" s="180"/>
-      <c r="J59" s="237"/>
+      <c r="J59" s="235"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="158" t="s">
@@ -26280,17 +26272,17 @@
         <v>379</v>
       </c>
       <c r="E60" s="173"/>
-      <c r="F60" s="222" t="str">
+      <c r="F60" s="220" t="str">
         <f aca="false">A101</f>
         <v>[:tulokset :nettotarve :jaahdytys-vuosikulutus]</v>
       </c>
-      <c r="G60" s="253" t="str">
+      <c r="G60" s="251" t="str">
         <f aca="false">A102</f>
         <v>[:tulokset :nettotarve :jaahdytys-vuosikulutus-nettoala]</v>
       </c>
-      <c r="H60" s="225"/>
+      <c r="H60" s="223"/>
       <c r="I60" s="180"/>
-      <c r="J60" s="238"/>
+      <c r="J60" s="236"/>
     </row>
     <row r="61" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="158" t="s">
@@ -26299,41 +26291,41 @@
       <c r="C61" s="172"/>
       <c r="D61" s="173"/>
       <c r="E61" s="173"/>
-      <c r="F61" s="220"/>
-      <c r="G61" s="220"/>
+      <c r="F61" s="218"/>
+      <c r="G61" s="218"/>
       <c r="H61" s="177"/>
       <c r="I61" s="182"/>
-      <c r="J61" s="237"/>
+      <c r="J61" s="235"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="158" t="s">
         <v>381</v>
       </c>
       <c r="C62" s="172"/>
-      <c r="D62" s="221" t="s">
+      <c r="D62" s="219" t="s">
         <v>382</v>
       </c>
-      <c r="E62" s="221"/>
-      <c r="F62" s="221"/>
-      <c r="G62" s="221"/>
+      <c r="E62" s="219"/>
+      <c r="F62" s="219"/>
+      <c r="G62" s="219"/>
       <c r="H62" s="177"/>
       <c r="I62" s="180"/>
-      <c r="J62" s="238"/>
+      <c r="J62" s="236"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="158" t="s">
         <v>383</v>
       </c>
       <c r="C63" s="172"/>
-      <c r="D63" s="221" t="s">
+      <c r="D63" s="219" t="s">
         <v>384</v>
       </c>
-      <c r="E63" s="221"/>
-      <c r="F63" s="221"/>
-      <c r="G63" s="221"/>
+      <c r="E63" s="219"/>
+      <c r="F63" s="219"/>
+      <c r="G63" s="219"/>
       <c r="H63" s="173"/>
       <c r="I63" s="180"/>
-      <c r="J63" s="237"/>
+      <c r="J63" s="235"/>
     </row>
     <row r="64" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="158" t="s">
@@ -26346,7 +26338,7 @@
       <c r="G64" s="177"/>
       <c r="H64" s="177"/>
       <c r="I64" s="180"/>
-      <c r="J64" s="238"/>
+      <c r="J64" s="236"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="158" t="s">
@@ -26361,7 +26353,7 @@
       <c r="G65" s="167"/>
       <c r="H65" s="167"/>
       <c r="I65" s="182"/>
-      <c r="J65" s="237"/>
+      <c r="J65" s="235"/>
     </row>
     <row r="66" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="158" t="s">
@@ -26374,7 +26366,7 @@
       <c r="G66" s="177"/>
       <c r="H66" s="177"/>
       <c r="I66" s="180"/>
-      <c r="J66" s="238"/>
+      <c r="J66" s="236"/>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="158" t="s">
@@ -26390,7 +26382,7 @@
       </c>
       <c r="H67" s="180"/>
       <c r="I67" s="180"/>
-      <c r="J67" s="237"/>
+      <c r="J67" s="235"/>
     </row>
     <row r="68" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="158" t="s">
@@ -26402,7 +26394,7 @@
       <c r="G68" s="184"/>
       <c r="H68" s="180"/>
       <c r="I68" s="180"/>
-      <c r="J68" s="238"/>
+      <c r="J68" s="236"/>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="158" t="s">
@@ -26413,17 +26405,17 @@
         <v>392</v>
       </c>
       <c r="E69" s="195"/>
-      <c r="F69" s="222" t="str">
+      <c r="F69" s="220" t="str">
         <f aca="false">A103</f>
         <v>[:tulokset :lampokuormat :aurinko]</v>
       </c>
-      <c r="G69" s="253" t="str">
+      <c r="G69" s="251" t="str">
         <f aca="false">A104</f>
         <v>[:tulokset :lampokuormat :aurinko-nettoala]</v>
       </c>
-      <c r="H69" s="225"/>
+      <c r="H69" s="223"/>
       <c r="I69" s="182"/>
-      <c r="J69" s="237"/>
+      <c r="J69" s="235"/>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="158" t="s">
@@ -26434,17 +26426,17 @@
         <v>316</v>
       </c>
       <c r="E70" s="195"/>
-      <c r="F70" s="222" t="str">
+      <c r="F70" s="220" t="str">
         <f aca="false">A105</f>
         <v>[:tulokset :lampokuormat :ihmiset]</v>
       </c>
-      <c r="G70" s="253" t="str">
+      <c r="G70" s="251" t="str">
         <f aca="false">A106</f>
         <v>[:tulokset :lampokuormat :ihmiset-nettoala]</v>
       </c>
-      <c r="H70" s="225"/>
+      <c r="H70" s="223"/>
       <c r="I70" s="180"/>
-      <c r="J70" s="238"/>
+      <c r="J70" s="236"/>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="158" t="s">
@@ -26455,17 +26447,17 @@
         <v>395</v>
       </c>
       <c r="E71" s="173"/>
-      <c r="F71" s="222" t="str">
+      <c r="F71" s="220" t="str">
         <f aca="false">A107</f>
         <v>[:tulokset :lampokuormat :kuluttajalaitteet]</v>
       </c>
-      <c r="G71" s="253" t="str">
+      <c r="G71" s="251" t="str">
         <f aca="false">A108</f>
         <v>[:tulokset :lampokuormat :kuluttajalaitteet-nettoala]</v>
       </c>
-      <c r="H71" s="225"/>
+      <c r="H71" s="223"/>
       <c r="I71" s="180"/>
-      <c r="J71" s="237"/>
+      <c r="J71" s="235"/>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="158" t="s">
@@ -26476,17 +26468,17 @@
         <v>318</v>
       </c>
       <c r="E72" s="173"/>
-      <c r="F72" s="222" t="str">
+      <c r="F72" s="220" t="str">
         <f aca="false">A109</f>
         <v>[:tulokset :lampokuormat :valaistus]</v>
       </c>
-      <c r="G72" s="253" t="str">
+      <c r="G72" s="251" t="str">
         <f aca="false">A110</f>
         <v>[:tulokset :lampokuormat :valaistus-nettoala]</v>
       </c>
-      <c r="H72" s="225"/>
+      <c r="H72" s="223"/>
       <c r="I72" s="180"/>
-      <c r="J72" s="237"/>
+      <c r="J72" s="235"/>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="158" t="s">
@@ -26497,17 +26489,17 @@
         <v>398</v>
       </c>
       <c r="E73" s="173"/>
-      <c r="F73" s="222" t="str">
+      <c r="F73" s="220" t="str">
         <f aca="false">A111</f>
         <v>[:tulokset :lampokuormat :kvesi]</v>
       </c>
-      <c r="G73" s="253" t="str">
+      <c r="G73" s="251" t="str">
         <f aca="false">A112</f>
         <v>[:tulokset :lampokuormat :kvesi-nettoala]</v>
       </c>
-      <c r="H73" s="225"/>
+      <c r="H73" s="223"/>
       <c r="I73" s="180"/>
-      <c r="J73" s="238"/>
+      <c r="J73" s="236"/>
     </row>
     <row r="74" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="158" t="s">
@@ -26520,7 +26512,7 @@
       <c r="G74" s="177"/>
       <c r="H74" s="177"/>
       <c r="I74" s="182"/>
-      <c r="J74" s="237"/>
+      <c r="J74" s="235"/>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="158" t="s">
@@ -26535,7 +26527,7 @@
       <c r="G75" s="167"/>
       <c r="H75" s="167"/>
       <c r="I75" s="180"/>
-      <c r="J75" s="238"/>
+      <c r="J75" s="236"/>
     </row>
     <row r="76" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="158" t="s">
@@ -26548,7 +26540,7 @@
       <c r="G76" s="177"/>
       <c r="H76" s="177"/>
       <c r="I76" s="180"/>
-      <c r="J76" s="237"/>
+      <c r="J76" s="235"/>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="158" t="s">
@@ -26559,27 +26551,27 @@
         <v>401</v>
       </c>
       <c r="E77" s="173"/>
-      <c r="F77" s="268" t="str">
+      <c r="F77" s="266" t="str">
         <f aca="false">A113</f>
         <v>[:tulokset :laskentatyokalu]</v>
       </c>
-      <c r="G77" s="268"/>
-      <c r="H77" s="268"/>
+      <c r="G77" s="266"/>
+      <c r="H77" s="266"/>
       <c r="I77" s="180"/>
-      <c r="J77" s="238"/>
+      <c r="J77" s="236"/>
     </row>
     <row r="78" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="158" t="s">
         <v>404</v>
       </c>
-      <c r="C78" s="228"/>
-      <c r="D78" s="229"/>
-      <c r="E78" s="229"/>
-      <c r="F78" s="229"/>
-      <c r="G78" s="229"/>
-      <c r="H78" s="229"/>
+      <c r="C78" s="226"/>
+      <c r="D78" s="227"/>
+      <c r="E78" s="227"/>
+      <c r="F78" s="227"/>
+      <c r="G78" s="227"/>
+      <c r="H78" s="227"/>
       <c r="I78" s="182"/>
-      <c r="J78" s="237"/>
+      <c r="J78" s="235"/>
     </row>
     <row r="79" customFormat="false" ht="5.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="158" t="s">
@@ -27321,21 +27313,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" s="270" customFormat="true" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="269" t="s">
+    <row r="2" s="268" customFormat="true" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="267" t="s">
         <v>440</v>
       </c>
-      <c r="C2" s="271"/>
-      <c r="D2" s="272" t="s">
+      <c r="C2" s="269"/>
+      <c r="D2" s="270" t="s">
         <v>441</v>
       </c>
-      <c r="E2" s="272"/>
-      <c r="F2" s="273"/>
-      <c r="G2" s="273"/>
-      <c r="H2" s="273"/>
-      <c r="I2" s="273"/>
-      <c r="J2" s="273"/>
-      <c r="K2" s="274"/>
+      <c r="E2" s="270"/>
+      <c r="F2" s="271"/>
+      <c r="G2" s="271"/>
+      <c r="H2" s="271"/>
+      <c r="I2" s="271"/>
+      <c r="J2" s="271"/>
+      <c r="K2" s="272"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="90" t="s">
@@ -27345,7 +27337,7 @@
       <c r="D3" s="23" t="s">
         <v>443</v>
       </c>
-      <c r="E3" s="275"/>
+      <c r="E3" s="273"/>
       <c r="F3" s="14"/>
       <c r="G3" s="14"/>
       <c r="H3" s="14"/>
@@ -27407,7 +27399,7 @@
         <v>#function[solita.etp.service.energiatodistus-pdf/fn--61283]</v>
       </c>
       <c r="E7" s="14"/>
-      <c r="G7" s="276"/>
+      <c r="G7" s="274"/>
       <c r="J7" s="14"/>
       <c r="K7" s="98"/>
       <c r="O7" s="29"/>
@@ -27448,16 +27440,16 @@
         <v>452</v>
       </c>
       <c r="E10" s="14"/>
-      <c r="F10" s="277"/>
-      <c r="G10" s="278"/>
-      <c r="H10" s="279"/>
-      <c r="I10" s="280" t="s">
+      <c r="F10" s="275"/>
+      <c r="G10" s="276"/>
+      <c r="H10" s="277"/>
+      <c r="I10" s="278" t="s">
         <v>106</v>
       </c>
-      <c r="J10" s="281" t="s">
+      <c r="J10" s="279" t="s">
         <v>107</v>
       </c>
-      <c r="K10" s="282"/>
+      <c r="K10" s="280"/>
     </row>
     <row r="11" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="90" t="s">
@@ -27466,11 +27458,11 @@
       <c r="C11" s="97"/>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
-      <c r="F11" s="283"/>
+      <c r="F11" s="281"/>
       <c r="G11" s="38"/>
       <c r="H11" s="112"/>
-      <c r="I11" s="284"/>
-      <c r="J11" s="285"/>
+      <c r="I11" s="282"/>
+      <c r="J11" s="283"/>
       <c r="K11" s="112"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27478,22 +27470,22 @@
         <v>454</v>
       </c>
       <c r="C12" s="97"/>
-      <c r="D12" s="286" t="s">
+      <c r="D12" s="284" t="s">
         <v>455</v>
       </c>
-      <c r="E12" s="286"/>
-      <c r="F12" s="287"/>
-      <c r="G12" s="288"/>
-      <c r="H12" s="289"/>
-      <c r="I12" s="290" t="str">
+      <c r="E12" s="284"/>
+      <c r="F12" s="285"/>
+      <c r="G12" s="286"/>
+      <c r="H12" s="287"/>
+      <c r="I12" s="288" t="str">
         <f aca="false">A4</f>
         <v>[:toteutunut-ostoenergiankulutus :ostettu-energia :kaukolampo-vuosikulutus]</v>
       </c>
-      <c r="J12" s="291" t="str">
+      <c r="J12" s="289" t="str">
         <f aca="false">A5</f>
         <v>[:toteutunut-ostoenergiankulutus :ostettu-energia :kaukolampo-vuosikulutus-nettoala]</v>
       </c>
-      <c r="K12" s="292"/>
+      <c r="K12" s="290"/>
       <c r="Y12" s="23"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27501,22 +27493,22 @@
         <v>456</v>
       </c>
       <c r="C13" s="97"/>
-      <c r="D13" s="286" t="s">
+      <c r="D13" s="284" t="s">
         <v>457</v>
       </c>
-      <c r="E13" s="286"/>
-      <c r="F13" s="287"/>
-      <c r="G13" s="288"/>
-      <c r="H13" s="289"/>
-      <c r="I13" s="290" t="str">
+      <c r="E13" s="284"/>
+      <c r="F13" s="285"/>
+      <c r="G13" s="286"/>
+      <c r="H13" s="287"/>
+      <c r="I13" s="288" t="str">
         <f aca="false">A6</f>
         <v>[:toteutunut-ostoenergiankulutus :ostettu-energia :kokonaissahko-vuosikulutus]</v>
       </c>
-      <c r="J13" s="291" t="str">
+      <c r="J13" s="289" t="str">
         <f aca="false">A7</f>
         <v>[:toteutunut-ostoenergiankulutus :ostettu-energia :kokonaissahko-vuosikulutus-nettoala]</v>
       </c>
-      <c r="K13" s="292"/>
+      <c r="K13" s="290"/>
       <c r="Y13" s="23"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27524,22 +27516,22 @@
         <v>458</v>
       </c>
       <c r="C14" s="97"/>
-      <c r="D14" s="278" t="s">
+      <c r="D14" s="276" t="s">
         <v>459</v>
       </c>
-      <c r="E14" s="286"/>
-      <c r="F14" s="287"/>
-      <c r="G14" s="288"/>
-      <c r="H14" s="289"/>
-      <c r="I14" s="290" t="str">
+      <c r="E14" s="284"/>
+      <c r="F14" s="285"/>
+      <c r="G14" s="286"/>
+      <c r="H14" s="287"/>
+      <c r="I14" s="288" t="str">
         <f aca="false">A8</f>
         <v>[:toteutunut-ostoenergiankulutus :ostettu-energia :kiinteistosahko-vuosikulutus]</v>
       </c>
-      <c r="J14" s="291" t="str">
+      <c r="J14" s="289" t="str">
         <f aca="false">A9</f>
         <v>[:toteutunut-ostoenergiankulutus :ostettu-energia :kiinteistosahko-vuosikulutus-nettoala]</v>
       </c>
-      <c r="K14" s="292"/>
+      <c r="K14" s="290"/>
       <c r="Y14" s="23"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27547,22 +27539,22 @@
         <v>460</v>
       </c>
       <c r="C15" s="97"/>
-      <c r="D15" s="278" t="s">
+      <c r="D15" s="276" t="s">
         <v>461</v>
       </c>
-      <c r="E15" s="286"/>
-      <c r="F15" s="287"/>
-      <c r="G15" s="288"/>
-      <c r="H15" s="289"/>
-      <c r="I15" s="290" t="str">
+      <c r="E15" s="284"/>
+      <c r="F15" s="285"/>
+      <c r="G15" s="286"/>
+      <c r="H15" s="287"/>
+      <c r="I15" s="288" t="str">
         <f aca="false">A10</f>
         <v>[:toteutunut-ostoenergiankulutus :ostettu-energia :kayttajasahko-vuosikulutus]</v>
       </c>
-      <c r="J15" s="291" t="str">
+      <c r="J15" s="289" t="str">
         <f aca="false">A11</f>
         <v>[:toteutunut-ostoenergiankulutus :ostettu-energia :kayttajasahko-vuosikulutus-nettoala]</v>
       </c>
-      <c r="K15" s="292"/>
+      <c r="K15" s="290"/>
       <c r="Y15" s="23"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27570,22 +27562,22 @@
         <v>462</v>
       </c>
       <c r="C16" s="97"/>
-      <c r="D16" s="286" t="s">
+      <c r="D16" s="284" t="s">
         <v>350</v>
       </c>
-      <c r="E16" s="286"/>
-      <c r="F16" s="286"/>
-      <c r="G16" s="286"/>
-      <c r="H16" s="286"/>
-      <c r="I16" s="290" t="str">
+      <c r="E16" s="284"/>
+      <c r="F16" s="284"/>
+      <c r="G16" s="284"/>
+      <c r="H16" s="284"/>
+      <c r="I16" s="288" t="str">
         <f aca="false">A12</f>
         <v>[:toteutunut-ostoenergiankulutus :ostettu-energia :kaukojaahdytys-vuosikulutus]</v>
       </c>
-      <c r="J16" s="291" t="str">
+      <c r="J16" s="289" t="str">
         <f aca="false">A13</f>
         <v>[:toteutunut-ostoenergiankulutus :ostettu-energia :kaukojaahdytys-vuosikulutus-nettoala]</v>
       </c>
-      <c r="K16" s="292"/>
+      <c r="K16" s="290"/>
       <c r="Y16" s="23"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27593,23 +27585,23 @@
         <v>463</v>
       </c>
       <c r="C17" s="97"/>
-      <c r="D17" s="293" t="str">
+      <c r="D17" s="291" t="str">
         <f aca="false">A15</f>
         <v>[:toteutunut-ostoenergiankulutus :ostettu-energia :muu 0 :nimi-sv]</v>
       </c>
-      <c r="E17" s="293"/>
-      <c r="F17" s="293"/>
-      <c r="G17" s="293"/>
-      <c r="H17" s="293"/>
-      <c r="I17" s="290" t="str">
+      <c r="E17" s="291"/>
+      <c r="F17" s="291"/>
+      <c r="G17" s="291"/>
+      <c r="H17" s="291"/>
+      <c r="I17" s="288" t="str">
         <f aca="false">A16</f>
         <v>[:toteutunut-ostoenergiankulutus :ostettu-energia :muu 0 :vuosikulutus]</v>
       </c>
-      <c r="J17" s="291" t="str">
+      <c r="J17" s="289" t="str">
         <f aca="false">A17</f>
         <v>[:toteutunut-ostoenergiankulutus :ostettu-energia :muu 0 :vuosikulutus-nettoala]</v>
       </c>
-      <c r="K17" s="292"/>
+      <c r="K17" s="290"/>
       <c r="Y17" s="23"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27617,23 +27609,23 @@
         <v>464</v>
       </c>
       <c r="C18" s="97"/>
-      <c r="D18" s="293" t="str">
+      <c r="D18" s="291" t="str">
         <f aca="false">A19</f>
         <v>[:toteutunut-ostoenergiankulutus :ostettu-energia :muu 1 :nimi-sv]</v>
       </c>
-      <c r="E18" s="293"/>
-      <c r="F18" s="293"/>
-      <c r="G18" s="293"/>
-      <c r="H18" s="293"/>
-      <c r="I18" s="290" t="str">
+      <c r="E18" s="291"/>
+      <c r="F18" s="291"/>
+      <c r="G18" s="291"/>
+      <c r="H18" s="291"/>
+      <c r="I18" s="288" t="str">
         <f aca="false">A20</f>
         <v>[:toteutunut-ostoenergiankulutus :ostettu-energia :muu 1 :vuosikulutus]</v>
       </c>
-      <c r="J18" s="291" t="str">
+      <c r="J18" s="289" t="str">
         <f aca="false">A21</f>
         <v>[:toteutunut-ostoenergiankulutus :ostettu-energia :muu 1 :vuosikulutus-nettoala]</v>
       </c>
-      <c r="K18" s="292"/>
+      <c r="K18" s="290"/>
       <c r="Y18" s="23"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27641,23 +27633,23 @@
         <v>465</v>
       </c>
       <c r="C19" s="97"/>
-      <c r="D19" s="293" t="str">
+      <c r="D19" s="291" t="str">
         <f aca="false">A23</f>
         <v>[:toteutunut-ostoenergiankulutus :ostettu-energia :muu 2 :nimi-sv]</v>
       </c>
-      <c r="E19" s="293"/>
-      <c r="F19" s="293"/>
-      <c r="G19" s="293"/>
-      <c r="H19" s="293"/>
-      <c r="I19" s="290" t="str">
+      <c r="E19" s="291"/>
+      <c r="F19" s="291"/>
+      <c r="G19" s="291"/>
+      <c r="H19" s="291"/>
+      <c r="I19" s="288" t="str">
         <f aca="false">A24</f>
         <v>[:toteutunut-ostoenergiankulutus :ostettu-energia :muu 2 :vuosikulutus]</v>
       </c>
-      <c r="J19" s="291" t="str">
+      <c r="J19" s="289" t="str">
         <f aca="false">A25</f>
         <v>[:toteutunut-ostoenergiankulutus :ostettu-energia :muu 2 :vuosikulutus-nettoala]</v>
       </c>
-      <c r="K19" s="292"/>
+      <c r="K19" s="290"/>
       <c r="Y19" s="23"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27665,23 +27657,23 @@
         <v>466</v>
       </c>
       <c r="C20" s="97"/>
-      <c r="D20" s="293" t="str">
+      <c r="D20" s="291" t="str">
         <f aca="false">A27</f>
         <v>[:toteutunut-ostoenergiankulutus :ostettu-energia :muu 3 :nimi-sv]</v>
       </c>
-      <c r="E20" s="293"/>
-      <c r="F20" s="293"/>
-      <c r="G20" s="293"/>
-      <c r="H20" s="293"/>
-      <c r="I20" s="290" t="str">
+      <c r="E20" s="291"/>
+      <c r="F20" s="291"/>
+      <c r="G20" s="291"/>
+      <c r="H20" s="291"/>
+      <c r="I20" s="288" t="str">
         <f aca="false">A28</f>
         <v>[:toteutunut-ostoenergiankulutus :ostettu-energia :muu 3 :vuosikulutus]</v>
       </c>
-      <c r="J20" s="291" t="str">
+      <c r="J20" s="289" t="str">
         <f aca="false">A29</f>
         <v>[:toteutunut-ostoenergiankulutus :ostettu-energia :muu 3 :vuosikulutus-nettoala]</v>
       </c>
-      <c r="K20" s="292"/>
+      <c r="K20" s="290"/>
       <c r="Y20" s="23"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27689,23 +27681,23 @@
         <v>467</v>
       </c>
       <c r="C21" s="97"/>
-      <c r="D21" s="293" t="str">
+      <c r="D21" s="291" t="str">
         <f aca="false">A31</f>
         <v>[:toteutunut-ostoenergiankulutus :ostettu-energia :muu 4 :nimi-sv]</v>
       </c>
-      <c r="E21" s="293"/>
-      <c r="F21" s="293"/>
-      <c r="G21" s="293"/>
-      <c r="H21" s="293"/>
-      <c r="I21" s="290" t="str">
+      <c r="E21" s="291"/>
+      <c r="F21" s="291"/>
+      <c r="G21" s="291"/>
+      <c r="H21" s="291"/>
+      <c r="I21" s="288" t="str">
         <f aca="false">A32</f>
         <v>[:toteutunut-ostoenergiankulutus :ostettu-energia :muu 4 :vuosikulutus]</v>
       </c>
-      <c r="J21" s="291" t="str">
+      <c r="J21" s="289" t="str">
         <f aca="false">A33</f>
         <v>[:toteutunut-ostoenergiankulutus :ostettu-energia :muu 4 :vuosikulutus-nettoala]</v>
       </c>
-      <c r="K21" s="292"/>
+      <c r="K21" s="290"/>
       <c r="Y21" s="23"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27713,17 +27705,17 @@
         <v>468</v>
       </c>
       <c r="C22" s="97"/>
-      <c r="D22" s="294"/>
-      <c r="E22" s="294"/>
-      <c r="F22" s="294"/>
-      <c r="G22" s="294"/>
-      <c r="H22" s="294"/>
-      <c r="I22" s="295"/>
-      <c r="J22" s="296" t="str">
+      <c r="D22" s="292"/>
+      <c r="E22" s="292"/>
+      <c r="F22" s="292"/>
+      <c r="G22" s="292"/>
+      <c r="H22" s="292"/>
+      <c r="I22" s="293"/>
+      <c r="J22" s="294" t="str">
         <f aca="false">IF(AND(I22&lt;&gt;0,ISNUMBER(I22/'4) E-luvun laskennan tulokset '!$E$9)),CEILING(I22/'4) E-luvun laskennan tulokset '!$E$9,1),"")</f>
         <v/>
       </c>
-      <c r="K22" s="297"/>
+      <c r="K22" s="295"/>
       <c r="Y22" s="23"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27731,14 +27723,14 @@
         <v>469</v>
       </c>
       <c r="C23" s="97"/>
-      <c r="D23" s="298"/>
-      <c r="E23" s="298"/>
-      <c r="F23" s="287"/>
-      <c r="G23" s="288"/>
-      <c r="H23" s="287"/>
-      <c r="I23" s="299"/>
-      <c r="J23" s="300"/>
-      <c r="K23" s="292"/>
+      <c r="D23" s="296"/>
+      <c r="E23" s="296"/>
+      <c r="F23" s="285"/>
+      <c r="G23" s="286"/>
+      <c r="H23" s="285"/>
+      <c r="I23" s="297"/>
+      <c r="J23" s="298"/>
+      <c r="K23" s="290"/>
       <c r="Y23" s="23"/>
     </row>
     <row r="24" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27746,26 +27738,26 @@
         <v>470</v>
       </c>
       <c r="C24" s="97"/>
-      <c r="D24" s="301" t="s">
+      <c r="D24" s="299" t="s">
         <v>471</v>
       </c>
-      <c r="E24" s="301"/>
-      <c r="F24" s="302" t="s">
+      <c r="E24" s="299"/>
+      <c r="F24" s="300" t="s">
         <v>472</v>
       </c>
-      <c r="G24" s="303" t="s">
+      <c r="G24" s="301" t="s">
         <v>473</v>
       </c>
-      <c r="H24" s="302" t="s">
+      <c r="H24" s="300" t="s">
         <v>474</v>
       </c>
-      <c r="I24" s="303" t="s">
+      <c r="I24" s="301" t="s">
         <v>106</v>
       </c>
-      <c r="J24" s="304" t="s">
+      <c r="J24" s="302" t="s">
         <v>107</v>
       </c>
-      <c r="K24" s="305"/>
+      <c r="K24" s="303"/>
       <c r="Y24" s="23"/>
     </row>
     <row r="25" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -27775,12 +27767,12 @@
       <c r="C25" s="97"/>
       <c r="D25" s="61"/>
       <c r="E25" s="61"/>
-      <c r="F25" s="306"/>
-      <c r="G25" s="307"/>
-      <c r="H25" s="280"/>
-      <c r="I25" s="280"/>
-      <c r="J25" s="308"/>
-      <c r="K25" s="282"/>
+      <c r="F25" s="304"/>
+      <c r="G25" s="305"/>
+      <c r="H25" s="278"/>
+      <c r="I25" s="278"/>
+      <c r="J25" s="306"/>
+      <c r="K25" s="280"/>
       <c r="Y25" s="23"/>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -27788,29 +27780,29 @@
         <v>476</v>
       </c>
       <c r="C26" s="97"/>
-      <c r="D26" s="286" t="s">
+      <c r="D26" s="284" t="s">
         <v>477</v>
       </c>
-      <c r="E26" s="286"/>
-      <c r="F26" s="290" t="str">
+      <c r="E26" s="284"/>
+      <c r="F26" s="288" t="str">
         <f aca="false">A34</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :kevyt-polttooljy]</v>
       </c>
-      <c r="G26" s="307" t="s">
+      <c r="G26" s="305" t="s">
         <v>478</v>
       </c>
-      <c r="H26" s="280" t="n">
+      <c r="H26" s="278" t="n">
         <v>10</v>
       </c>
-      <c r="I26" s="309" t="str">
+      <c r="I26" s="307" t="str">
         <f aca="false">A35</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :kevyt-polttooljy-kwh]</v>
       </c>
-      <c r="J26" s="291" t="str">
+      <c r="J26" s="289" t="str">
         <f aca="false">A36</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :kevyt-polttooljy-kwh-nettoala]</v>
       </c>
-      <c r="K26" s="310"/>
+      <c r="K26" s="308"/>
       <c r="Y26" s="23"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27818,29 +27810,29 @@
         <v>479</v>
       </c>
       <c r="C27" s="97"/>
-      <c r="D27" s="286" t="s">
+      <c r="D27" s="284" t="s">
         <v>480</v>
       </c>
-      <c r="E27" s="286"/>
-      <c r="F27" s="290" t="str">
+      <c r="E27" s="284"/>
+      <c r="F27" s="288" t="str">
         <f aca="false">A37</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :pilkkeet-havu-sekapuu]</v>
       </c>
-      <c r="G27" s="307" t="s">
+      <c r="G27" s="305" t="s">
         <v>481</v>
       </c>
-      <c r="H27" s="280" t="n">
+      <c r="H27" s="278" t="n">
         <v>1300</v>
       </c>
-      <c r="I27" s="309" t="str">
+      <c r="I27" s="307" t="str">
         <f aca="false">A38</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :pilkkeet-havu-sekapuu-kwh]</v>
       </c>
-      <c r="J27" s="291" t="str">
+      <c r="J27" s="289" t="str">
         <f aca="false">A39</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :pilkkeet-havu-sekapuu-kwh-nettoala]</v>
       </c>
-      <c r="K27" s="310"/>
+      <c r="K27" s="308"/>
       <c r="Y27" s="23"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27848,29 +27840,29 @@
         <v>482</v>
       </c>
       <c r="C28" s="97"/>
-      <c r="D28" s="286" t="s">
+      <c r="D28" s="284" t="s">
         <v>483</v>
       </c>
-      <c r="E28" s="286"/>
-      <c r="F28" s="290" t="str">
+      <c r="E28" s="284"/>
+      <c r="F28" s="288" t="str">
         <f aca="false">A40</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :pilkkeet-koivu]</v>
       </c>
-      <c r="G28" s="307" t="s">
+      <c r="G28" s="305" t="s">
         <v>481</v>
       </c>
-      <c r="H28" s="280" t="n">
+      <c r="H28" s="278" t="n">
         <v>1700</v>
       </c>
-      <c r="I28" s="309" t="str">
+      <c r="I28" s="307" t="str">
         <f aca="false">A41</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :pilkkeet-koivu-kwh]</v>
       </c>
-      <c r="J28" s="291" t="str">
+      <c r="J28" s="289" t="str">
         <f aca="false">A42</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :pilkkeet-koivu-kwh-nettoala]</v>
       </c>
-      <c r="K28" s="310"/>
+      <c r="K28" s="308"/>
       <c r="Y28" s="23"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27878,29 +27870,29 @@
         <v>484</v>
       </c>
       <c r="C29" s="97"/>
-      <c r="D29" s="286" t="s">
+      <c r="D29" s="284" t="s">
         <v>485</v>
       </c>
-      <c r="E29" s="286"/>
-      <c r="F29" s="290" t="str">
+      <c r="E29" s="284"/>
+      <c r="F29" s="288" t="str">
         <f aca="false">A43</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :puupelletit]</v>
       </c>
-      <c r="G29" s="307" t="s">
+      <c r="G29" s="305" t="s">
         <v>486</v>
       </c>
-      <c r="H29" s="280" t="n">
+      <c r="H29" s="278" t="n">
         <v>4.7</v>
       </c>
-      <c r="I29" s="309" t="str">
+      <c r="I29" s="307" t="str">
         <f aca="false">A44</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :puupelletit-kwh]</v>
       </c>
-      <c r="J29" s="291" t="str">
+      <c r="J29" s="289" t="str">
         <f aca="false">A45</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :puupelletit-kwh-nettoala]</v>
       </c>
-      <c r="K29" s="310"/>
+      <c r="K29" s="308"/>
       <c r="Y29" s="23"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27908,32 +27900,32 @@
         <v>487</v>
       </c>
       <c r="C30" s="97"/>
-      <c r="D30" s="311" t="str">
+      <c r="D30" s="309" t="str">
         <f aca="false">A46</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :muu 0 :nimi]</v>
       </c>
-      <c r="E30" s="311"/>
-      <c r="F30" s="290" t="str">
+      <c r="E30" s="309"/>
+      <c r="F30" s="288" t="str">
         <f aca="false">A47</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :muu 0 :maara-vuodessa]</v>
       </c>
-      <c r="G30" s="312" t="str">
+      <c r="G30" s="310" t="str">
         <f aca="false">A48</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :muu 0 :yksikko]</v>
       </c>
-      <c r="H30" s="313" t="str">
+      <c r="H30" s="311" t="str">
         <f aca="false">A49</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :muu 0 :muunnoskerroin]</v>
       </c>
-      <c r="I30" s="309" t="str">
+      <c r="I30" s="307" t="str">
         <f aca="false">A50</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :muu 0 :kwh]</v>
       </c>
-      <c r="J30" s="291" t="str">
+      <c r="J30" s="289" t="str">
         <f aca="false">A51</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :muu 0 :kwh-nettoala]</v>
       </c>
-      <c r="K30" s="310"/>
+      <c r="K30" s="308"/>
       <c r="Y30" s="23"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27941,32 +27933,32 @@
         <v>488</v>
       </c>
       <c r="C31" s="97"/>
-      <c r="D31" s="311" t="str">
+      <c r="D31" s="309" t="str">
         <f aca="false">A52</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :muu 1 :nimi]</v>
       </c>
-      <c r="E31" s="311"/>
-      <c r="F31" s="290" t="str">
+      <c r="E31" s="309"/>
+      <c r="F31" s="288" t="str">
         <f aca="false">A53</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :muu 1 :maara-vuodessa]</v>
       </c>
-      <c r="G31" s="312" t="str">
+      <c r="G31" s="310" t="str">
         <f aca="false">A54</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :muu 1 :yksikko]</v>
       </c>
-      <c r="H31" s="313" t="str">
+      <c r="H31" s="311" t="str">
         <f aca="false">A55</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :muu 1 :muunnoskerroin]</v>
       </c>
-      <c r="I31" s="309" t="str">
+      <c r="I31" s="307" t="str">
         <f aca="false">A56</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :muu 1 :kwh]</v>
       </c>
-      <c r="J31" s="291" t="str">
+      <c r="J31" s="289" t="str">
         <f aca="false">A57</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :muu 1 :kwh-nettoala]</v>
       </c>
-      <c r="K31" s="310"/>
+      <c r="K31" s="308"/>
       <c r="Y31" s="23"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27974,20 +27966,20 @@
         <v>489</v>
       </c>
       <c r="C32" s="97"/>
-      <c r="D32" s="314"/>
-      <c r="E32" s="314"/>
-      <c r="F32" s="290"/>
-      <c r="G32" s="315"/>
-      <c r="H32" s="313"/>
-      <c r="I32" s="309" t="str">
+      <c r="D32" s="312"/>
+      <c r="E32" s="312"/>
+      <c r="F32" s="288"/>
+      <c r="G32" s="313"/>
+      <c r="H32" s="311"/>
+      <c r="I32" s="307" t="str">
         <f aca="false">IF(ISNUMBER(H32*F32),IF(H32*F32&lt;&gt;0,CEILING(H32*F32,1),""),"")</f>
         <v/>
       </c>
-      <c r="J32" s="291" t="str">
+      <c r="J32" s="289" t="str">
         <f aca="false">IF(AND(I32&lt;&gt;0,ISNUMBER(I32/'4) E-luvun laskennan tulokset '!$E$9)),CEILING(I32/'4) E-luvun laskennan tulokset '!$E$9,1),"")</f>
         <v/>
       </c>
-      <c r="K32" s="310"/>
+      <c r="K32" s="308"/>
       <c r="Y32" s="23"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -27995,20 +27987,20 @@
         <v>490</v>
       </c>
       <c r="C33" s="97"/>
-      <c r="D33" s="314"/>
-      <c r="E33" s="314"/>
-      <c r="F33" s="290"/>
-      <c r="G33" s="315"/>
-      <c r="H33" s="313"/>
-      <c r="I33" s="309" t="str">
+      <c r="D33" s="312"/>
+      <c r="E33" s="312"/>
+      <c r="F33" s="288"/>
+      <c r="G33" s="313"/>
+      <c r="H33" s="311"/>
+      <c r="I33" s="307" t="str">
         <f aca="false">IF(ISNUMBER(H33*F33),IF(H33*F33&lt;&gt;0,CEILING(H33*F33,1),""),"")</f>
         <v/>
       </c>
-      <c r="J33" s="291" t="str">
+      <c r="J33" s="289" t="str">
         <f aca="false">IF(AND(I33&lt;&gt;0,ISNUMBER(I33/'4) E-luvun laskennan tulokset '!$E$9)),CEILING(I33/'4) E-luvun laskennan tulokset '!$E$9,1),"")</f>
         <v/>
       </c>
-      <c r="K33" s="310"/>
+      <c r="K33" s="308"/>
       <c r="Y33" s="23"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28016,20 +28008,20 @@
         <v>491</v>
       </c>
       <c r="C34" s="97"/>
-      <c r="D34" s="314"/>
-      <c r="E34" s="314"/>
-      <c r="F34" s="290"/>
-      <c r="G34" s="315"/>
-      <c r="H34" s="313"/>
-      <c r="I34" s="309" t="str">
+      <c r="D34" s="312"/>
+      <c r="E34" s="312"/>
+      <c r="F34" s="288"/>
+      <c r="G34" s="313"/>
+      <c r="H34" s="311"/>
+      <c r="I34" s="307" t="str">
         <f aca="false">IF(ISNUMBER(H34*F34),IF(H34*F34&lt;&gt;0,CEILING(H34*F34,1),""),"")</f>
         <v/>
       </c>
-      <c r="J34" s="291" t="str">
+      <c r="J34" s="289" t="str">
         <f aca="false">IF(AND(I34&lt;&gt;0,ISNUMBER(I34/'4) E-luvun laskennan tulokset '!$E$9)),CEILING(I34/'4) E-luvun laskennan tulokset '!$E$9,1),"")</f>
         <v/>
       </c>
-      <c r="K34" s="310"/>
+      <c r="K34" s="308"/>
       <c r="Y34" s="23"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28037,20 +28029,20 @@
         <v>492</v>
       </c>
       <c r="C35" s="97"/>
-      <c r="D35" s="314"/>
-      <c r="E35" s="314"/>
-      <c r="F35" s="290"/>
-      <c r="G35" s="315"/>
-      <c r="H35" s="313"/>
-      <c r="I35" s="309" t="str">
+      <c r="D35" s="312"/>
+      <c r="E35" s="312"/>
+      <c r="F35" s="288"/>
+      <c r="G35" s="313"/>
+      <c r="H35" s="311"/>
+      <c r="I35" s="307" t="str">
         <f aca="false">IF(ISNUMBER(H35*F35),IF(H35*F35&lt;&gt;0,CEILING(H35*F35,1),""),"")</f>
         <v/>
       </c>
-      <c r="J35" s="291" t="str">
+      <c r="J35" s="289" t="str">
         <f aca="false">IF(AND(I35&lt;&gt;0,ISNUMBER(I35/'4) E-luvun laskennan tulokset '!$E$9)),CEILING(I35/'4) E-luvun laskennan tulokset '!$E$9,1),"")</f>
         <v/>
       </c>
-      <c r="K35" s="310"/>
+      <c r="K35" s="308"/>
       <c r="Y35" s="23"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28058,20 +28050,20 @@
         <v>493</v>
       </c>
       <c r="C36" s="97"/>
-      <c r="D36" s="314"/>
-      <c r="E36" s="314"/>
-      <c r="F36" s="290"/>
-      <c r="G36" s="315"/>
-      <c r="H36" s="313"/>
-      <c r="I36" s="309" t="str">
+      <c r="D36" s="312"/>
+      <c r="E36" s="312"/>
+      <c r="F36" s="288"/>
+      <c r="G36" s="313"/>
+      <c r="H36" s="311"/>
+      <c r="I36" s="307" t="str">
         <f aca="false">IF(ISNUMBER(H36*F36),IF(H36*F36&lt;&gt;0,CEILING(H36*F36,1),""),"")</f>
         <v/>
       </c>
-      <c r="J36" s="291" t="str">
+      <c r="J36" s="289" t="str">
         <f aca="false">IF(AND(I36&lt;&gt;0,ISNUMBER(I36/'4) E-luvun laskennan tulokset '!$E$9)),CEILING(I36/'4) E-luvun laskennan tulokset '!$E$9,1),"")</f>
         <v/>
       </c>
-      <c r="K36" s="310"/>
+      <c r="K36" s="308"/>
       <c r="Y36" s="23"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28079,20 +28071,20 @@
         <v>494</v>
       </c>
       <c r="C37" s="97"/>
-      <c r="D37" s="314"/>
-      <c r="E37" s="314"/>
-      <c r="F37" s="290"/>
-      <c r="G37" s="315"/>
-      <c r="H37" s="313"/>
-      <c r="I37" s="309" t="str">
+      <c r="D37" s="312"/>
+      <c r="E37" s="312"/>
+      <c r="F37" s="288"/>
+      <c r="G37" s="313"/>
+      <c r="H37" s="311"/>
+      <c r="I37" s="307" t="str">
         <f aca="false">IF(ISNUMBER(H37*F37),IF(H37*F37&lt;&gt;0,CEILING(H37*F37,1),""),"")</f>
         <v/>
       </c>
-      <c r="J37" s="291" t="str">
+      <c r="J37" s="289" t="str">
         <f aca="false">IF(AND(I37&lt;&gt;0,ISNUMBER(I37/'4) E-luvun laskennan tulokset '!$E$9)),CEILING(I37/'4) E-luvun laskennan tulokset '!$E$9,1),"")</f>
         <v/>
       </c>
-      <c r="K37" s="310"/>
+      <c r="K37" s="308"/>
       <c r="Y37" s="23"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28100,20 +28092,20 @@
         <v>495</v>
       </c>
       <c r="C38" s="97"/>
-      <c r="D38" s="314"/>
-      <c r="E38" s="314"/>
-      <c r="F38" s="290"/>
-      <c r="G38" s="315"/>
-      <c r="H38" s="313"/>
-      <c r="I38" s="309" t="str">
+      <c r="D38" s="312"/>
+      <c r="E38" s="312"/>
+      <c r="F38" s="288"/>
+      <c r="G38" s="313"/>
+      <c r="H38" s="311"/>
+      <c r="I38" s="307" t="str">
         <f aca="false">IF(ISNUMBER(H38*F38),IF(H38*F38&lt;&gt;0,CEILING(H38*F38,1),""),"")</f>
         <v/>
       </c>
-      <c r="J38" s="291" t="str">
+      <c r="J38" s="289" t="str">
         <f aca="false">IF(AND(I38&lt;&gt;0,ISNUMBER(I38/'4) E-luvun laskennan tulokset '!$E$9)),CEILING(I38/'4) E-luvun laskennan tulokset '!$E$9,1),"")</f>
         <v/>
       </c>
-      <c r="K38" s="310"/>
+      <c r="K38" s="308"/>
       <c r="Y38" s="23"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28121,20 +28113,20 @@
         <v>496</v>
       </c>
       <c r="C39" s="97"/>
-      <c r="D39" s="314"/>
-      <c r="E39" s="314"/>
-      <c r="F39" s="290"/>
-      <c r="G39" s="315"/>
-      <c r="H39" s="313"/>
-      <c r="I39" s="309" t="str">
+      <c r="D39" s="312"/>
+      <c r="E39" s="312"/>
+      <c r="F39" s="288"/>
+      <c r="G39" s="313"/>
+      <c r="H39" s="311"/>
+      <c r="I39" s="307" t="str">
         <f aca="false">IF(ISNUMBER(H39*F39),IF(H39*F39&lt;&gt;0,CEILING(H39*F39,1),""),"")</f>
         <v/>
       </c>
-      <c r="J39" s="291" t="str">
+      <c r="J39" s="289" t="str">
         <f aca="false">IF(AND(I39&lt;&gt;0,ISNUMBER(I39/'4) E-luvun laskennan tulokset '!$E$9)),CEILING(I39/'4) E-luvun laskennan tulokset '!$E$9,1),"")</f>
         <v/>
       </c>
-      <c r="K39" s="310"/>
+      <c r="K39" s="308"/>
       <c r="Y39" s="23"/>
     </row>
     <row r="40" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -28142,14 +28134,14 @@
         <v>497</v>
       </c>
       <c r="C40" s="97"/>
-      <c r="D40" s="298"/>
-      <c r="E40" s="298"/>
-      <c r="F40" s="287"/>
-      <c r="G40" s="288"/>
-      <c r="H40" s="287"/>
-      <c r="I40" s="299"/>
-      <c r="J40" s="300"/>
-      <c r="K40" s="292"/>
+      <c r="D40" s="296"/>
+      <c r="E40" s="296"/>
+      <c r="F40" s="285"/>
+      <c r="G40" s="286"/>
+      <c r="H40" s="285"/>
+      <c r="I40" s="297"/>
+      <c r="J40" s="298"/>
+      <c r="K40" s="290"/>
       <c r="Y40" s="23"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28157,16 +28149,16 @@
         <v>498</v>
       </c>
       <c r="C41" s="97"/>
-      <c r="D41" s="316" t="s">
+      <c r="D41" s="314" t="s">
         <v>499</v>
       </c>
-      <c r="E41" s="298"/>
-      <c r="F41" s="287"/>
-      <c r="G41" s="288"/>
-      <c r="H41" s="287"/>
-      <c r="I41" s="299"/>
-      <c r="J41" s="300"/>
-      <c r="K41" s="292"/>
+      <c r="E41" s="296"/>
+      <c r="F41" s="285"/>
+      <c r="G41" s="286"/>
+      <c r="H41" s="285"/>
+      <c r="I41" s="297"/>
+      <c r="J41" s="298"/>
+      <c r="K41" s="290"/>
       <c r="Y41" s="23"/>
     </row>
     <row r="42" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -28174,14 +28166,14 @@
         <v>500</v>
       </c>
       <c r="C42" s="97"/>
-      <c r="D42" s="317"/>
-      <c r="E42" s="317"/>
-      <c r="F42" s="318"/>
-      <c r="G42" s="319"/>
-      <c r="H42" s="318"/>
-      <c r="I42" s="320"/>
-      <c r="J42" s="321"/>
-      <c r="K42" s="297"/>
+      <c r="D42" s="315"/>
+      <c r="E42" s="315"/>
+      <c r="F42" s="316"/>
+      <c r="G42" s="317"/>
+      <c r="H42" s="316"/>
+      <c r="I42" s="318"/>
+      <c r="J42" s="319"/>
+      <c r="K42" s="295"/>
       <c r="Y42" s="23"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28189,14 +28181,14 @@
         <v>501</v>
       </c>
       <c r="C43" s="97"/>
-      <c r="D43" s="298"/>
-      <c r="E43" s="298"/>
-      <c r="F43" s="287"/>
-      <c r="G43" s="288"/>
-      <c r="H43" s="287"/>
-      <c r="I43" s="299"/>
-      <c r="J43" s="300"/>
-      <c r="K43" s="292"/>
+      <c r="D43" s="296"/>
+      <c r="E43" s="296"/>
+      <c r="F43" s="285"/>
+      <c r="G43" s="286"/>
+      <c r="H43" s="285"/>
+      <c r="I43" s="297"/>
+      <c r="J43" s="298"/>
+      <c r="K43" s="290"/>
       <c r="Y43" s="23"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28207,13 +28199,13 @@
       <c r="D44" s="61" t="s">
         <v>503</v>
       </c>
-      <c r="E44" s="298"/>
-      <c r="F44" s="287"/>
-      <c r="G44" s="288"/>
-      <c r="H44" s="287"/>
-      <c r="I44" s="299"/>
-      <c r="J44" s="300"/>
-      <c r="K44" s="292"/>
+      <c r="E44" s="296"/>
+      <c r="F44" s="285"/>
+      <c r="G44" s="286"/>
+      <c r="H44" s="285"/>
+      <c r="I44" s="297"/>
+      <c r="J44" s="298"/>
+      <c r="K44" s="290"/>
       <c r="Y44" s="23"/>
     </row>
     <row r="45" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -28222,13 +28214,13 @@
       </c>
       <c r="C45" s="97"/>
       <c r="D45" s="61"/>
-      <c r="E45" s="298"/>
-      <c r="F45" s="287"/>
-      <c r="G45" s="288"/>
-      <c r="H45" s="287"/>
-      <c r="I45" s="299"/>
-      <c r="J45" s="300"/>
-      <c r="K45" s="292"/>
+      <c r="E45" s="296"/>
+      <c r="F45" s="285"/>
+      <c r="G45" s="286"/>
+      <c r="H45" s="285"/>
+      <c r="I45" s="297"/>
+      <c r="J45" s="298"/>
+      <c r="K45" s="290"/>
       <c r="Y45" s="23"/>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -28237,17 +28229,17 @@
       </c>
       <c r="C46" s="97"/>
       <c r="D46" s="61"/>
-      <c r="E46" s="298"/>
-      <c r="F46" s="287"/>
-      <c r="G46" s="288"/>
-      <c r="H46" s="287"/>
-      <c r="I46" s="280" t="s">
+      <c r="E46" s="296"/>
+      <c r="F46" s="285"/>
+      <c r="G46" s="286"/>
+      <c r="H46" s="285"/>
+      <c r="I46" s="278" t="s">
         <v>106</v>
       </c>
-      <c r="J46" s="281" t="s">
+      <c r="J46" s="279" t="s">
         <v>107</v>
       </c>
-      <c r="K46" s="282"/>
+      <c r="K46" s="280"/>
       <c r="Y46" s="23"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28259,18 +28251,18 @@
         <v>507</v>
       </c>
       <c r="E47" s="23"/>
-      <c r="F47" s="322"/>
-      <c r="G47" s="323"/>
-      <c r="H47" s="323"/>
-      <c r="I47" s="290" t="str">
+      <c r="F47" s="320"/>
+      <c r="G47" s="321"/>
+      <c r="H47" s="321"/>
+      <c r="I47" s="288" t="str">
         <f aca="false">A58</f>
         <v>[:toteutunut-ostoenergiankulutus :sahko-vuosikulutus-yhteensa]</v>
       </c>
-      <c r="J47" s="291" t="str">
+      <c r="J47" s="289" t="str">
         <f aca="false">A59</f>
         <v>[:toteutunut-ostoenergiankulutus :sahko-vuosikulutus-yhteensa-nettoala]</v>
       </c>
-      <c r="K47" s="292"/>
+      <c r="K47" s="290"/>
       <c r="Y47" s="23"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28282,18 +28274,18 @@
         <v>509</v>
       </c>
       <c r="E48" s="23"/>
-      <c r="F48" s="322"/>
-      <c r="G48" s="323"/>
-      <c r="H48" s="323"/>
-      <c r="I48" s="290" t="str">
+      <c r="F48" s="320"/>
+      <c r="G48" s="321"/>
+      <c r="H48" s="321"/>
+      <c r="I48" s="288" t="str">
         <f aca="false">A60</f>
         <v>[:toteutunut-ostoenergiankulutus :kaukolampo-vuosikulutus-yhteensa]</v>
       </c>
-      <c r="J48" s="291" t="str">
+      <c r="J48" s="289" t="str">
         <f aca="false">A61</f>
         <v>[:toteutunut-ostoenergiankulutus :kaukolampo-vuosikulutus-yhteensa-nettoala]</v>
       </c>
-      <c r="K48" s="292"/>
+      <c r="K48" s="290"/>
       <c r="Y48" s="23"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28305,18 +28297,18 @@
         <v>511</v>
       </c>
       <c r="E49" s="23"/>
-      <c r="F49" s="322"/>
-      <c r="G49" s="323"/>
-      <c r="H49" s="323"/>
-      <c r="I49" s="290" t="str">
+      <c r="F49" s="320"/>
+      <c r="G49" s="321"/>
+      <c r="H49" s="321"/>
+      <c r="I49" s="288" t="str">
         <f aca="false">A62</f>
         <v>[:toteutunut-ostoenergiankulutus :polttoaineet-vuosikulutus-yhteensa]</v>
       </c>
-      <c r="J49" s="291" t="str">
+      <c r="J49" s="289" t="str">
         <f aca="false">A63</f>
         <v>[:toteutunut-ostoenergiankulutus :polttoaineet-vuosikulutus-yhteensa-nettoala]</v>
       </c>
-      <c r="K49" s="292"/>
+      <c r="K49" s="290"/>
       <c r="Y49" s="23"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28328,18 +28320,18 @@
         <v>350</v>
       </c>
       <c r="E50" s="23"/>
-      <c r="F50" s="322"/>
-      <c r="G50" s="323"/>
-      <c r="H50" s="323"/>
-      <c r="I50" s="290" t="str">
+      <c r="F50" s="320"/>
+      <c r="G50" s="321"/>
+      <c r="H50" s="321"/>
+      <c r="I50" s="288" t="str">
         <f aca="false">A64</f>
         <v>[:toteutunut-ostoenergiankulutus :kaukojaahdytys-vuosikulutus-yhteensa]</v>
       </c>
-      <c r="J50" s="291" t="str">
+      <c r="J50" s="289" t="str">
         <f aca="false">A65</f>
         <v>[:toteutunut-ostoenergiankulutus :kaukojaahdytys-vuosikulutus-yhteensa-nettoala]</v>
       </c>
-      <c r="K50" s="292"/>
+      <c r="K50" s="290"/>
       <c r="Y50" s="23"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28354,15 +28346,15 @@
       <c r="F51" s="14"/>
       <c r="G51" s="38"/>
       <c r="H51" s="38"/>
-      <c r="I51" s="309" t="str">
+      <c r="I51" s="307" t="str">
         <f aca="false">A66</f>
         <v>[:toteutunut-ostoenergiankulutus :summa]</v>
       </c>
-      <c r="J51" s="291" t="str">
+      <c r="J51" s="289" t="str">
         <f aca="false">A67</f>
         <v>[:toteutunut-ostoenergiankulutus :summa-nettoala]</v>
       </c>
-      <c r="K51" s="324"/>
+      <c r="K51" s="322"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="90" t="s">
@@ -28462,7 +28454,7 @@
       <c r="H58" s="144"/>
       <c r="I58" s="144"/>
       <c r="J58" s="144"/>
-      <c r="K58" s="325"/>
+      <c r="K58" s="323"/>
       <c r="L58" s="146"/>
     </row>
     <row r="59" customFormat="false" ht="4.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -29208,7 +29200,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="326" width="25.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="324" width="25.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="0.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="4" width="5.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="4" style="4" width="23.28"/>
@@ -29217,37 +29209,37 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="326" t="s">
+      <c r="A1" s="324" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" s="328" customFormat="true" ht="55.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="327" t="s">
+    <row r="2" s="326" customFormat="true" ht="55.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="325" t="s">
         <v>531</v>
       </c>
-      <c r="C2" s="329" t="s">
+      <c r="C2" s="327" t="s">
         <v>532</v>
       </c>
-      <c r="D2" s="329"/>
-      <c r="E2" s="329"/>
-      <c r="F2" s="329"/>
-      <c r="G2" s="329"/>
+      <c r="D2" s="327"/>
+      <c r="E2" s="327"/>
+      <c r="F2" s="327"/>
+      <c r="G2" s="327"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="150" t="s">
         <v>533</v>
       </c>
-      <c r="C3" s="330" t="s">
+      <c r="C3" s="328" t="s">
         <v>152</v>
       </c>
-      <c r="D3" s="330"/>
-      <c r="E3" s="330"/>
-      <c r="F3" s="330"/>
-      <c r="G3" s="330"/>
+      <c r="D3" s="328"/>
+      <c r="E3" s="328"/>
+      <c r="F3" s="328"/>
+      <c r="G3" s="328"/>
     </row>
     <row r="4" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="326" t="s">
+      <c r="A4" s="324" t="s">
         <v>534</v>
       </c>
       <c r="C4" s="143"/>
@@ -29257,10 +29249,10 @@
       <c r="G4" s="152"/>
     </row>
     <row r="5" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="326" t="s">
+      <c r="A5" s="324" t="s">
         <v>535</v>
       </c>
-      <c r="C5" s="331" t="s">
+      <c r="C5" s="329" t="s">
         <v>536</v>
       </c>
       <c r="D5" s="94" t="s">
@@ -29271,180 +29263,180 @@
       <c r="G5" s="168"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="326" t="s">
+      <c r="A6" s="324" t="s">
         <v>538</v>
       </c>
-      <c r="C6" s="332" t="str">
+      <c r="C6" s="330" t="str">
         <f aca="false">A3</f>
         <v>[:huomiot :ymparys :teksti-sv]</v>
       </c>
-      <c r="D6" s="332"/>
-      <c r="E6" s="332"/>
-      <c r="F6" s="332"/>
-      <c r="G6" s="332"/>
+      <c r="D6" s="330"/>
+      <c r="E6" s="330"/>
+      <c r="F6" s="330"/>
+      <c r="G6" s="330"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="326" t="s">
+      <c r="A7" s="324" t="s">
         <v>539</v>
       </c>
-      <c r="C7" s="332"/>
-      <c r="D7" s="332"/>
-      <c r="E7" s="332"/>
-      <c r="F7" s="332"/>
-      <c r="G7" s="332"/>
+      <c r="C7" s="330"/>
+      <c r="D7" s="330"/>
+      <c r="E7" s="330"/>
+      <c r="F7" s="330"/>
+      <c r="G7" s="330"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="326" t="s">
+      <c r="A8" s="324" t="s">
         <v>540</v>
       </c>
-      <c r="C8" s="332"/>
-      <c r="D8" s="332"/>
-      <c r="E8" s="332"/>
-      <c r="F8" s="332"/>
-      <c r="G8" s="332"/>
+      <c r="C8" s="330"/>
+      <c r="D8" s="330"/>
+      <c r="E8" s="330"/>
+      <c r="F8" s="330"/>
+      <c r="G8" s="330"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="326" t="s">
+      <c r="A9" s="324" t="s">
         <v>541</v>
       </c>
-      <c r="C9" s="332"/>
-      <c r="D9" s="332"/>
-      <c r="E9" s="332"/>
-      <c r="F9" s="332"/>
-      <c r="G9" s="332"/>
+      <c r="C9" s="330"/>
+      <c r="D9" s="330"/>
+      <c r="E9" s="330"/>
+      <c r="F9" s="330"/>
+      <c r="G9" s="330"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="326" t="s">
+      <c r="A10" s="324" t="s">
         <v>542</v>
       </c>
-      <c r="C10" s="332"/>
-      <c r="D10" s="332"/>
-      <c r="E10" s="332"/>
-      <c r="F10" s="332"/>
-      <c r="G10" s="332"/>
+      <c r="C10" s="330"/>
+      <c r="D10" s="330"/>
+      <c r="E10" s="330"/>
+      <c r="F10" s="330"/>
+      <c r="G10" s="330"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="326" t="s">
+      <c r="A11" s="324" t="s">
         <v>543</v>
       </c>
-      <c r="C11" s="332"/>
-      <c r="D11" s="332"/>
-      <c r="E11" s="332"/>
-      <c r="F11" s="332"/>
-      <c r="G11" s="332"/>
+      <c r="C11" s="330"/>
+      <c r="D11" s="330"/>
+      <c r="E11" s="330"/>
+      <c r="F11" s="330"/>
+      <c r="G11" s="330"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="326" t="s">
+      <c r="A12" s="324" t="s">
         <v>544</v>
       </c>
-      <c r="C12" s="332"/>
-      <c r="D12" s="332"/>
-      <c r="E12" s="332"/>
-      <c r="F12" s="332"/>
-      <c r="G12" s="332"/>
+      <c r="C12" s="330"/>
+      <c r="D12" s="330"/>
+      <c r="E12" s="330"/>
+      <c r="F12" s="330"/>
+      <c r="G12" s="330"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="326" t="s">
+      <c r="A13" s="324" t="s">
         <v>545</v>
       </c>
-      <c r="C13" s="332"/>
-      <c r="D13" s="332"/>
-      <c r="E13" s="332"/>
-      <c r="F13" s="332"/>
-      <c r="G13" s="332"/>
+      <c r="C13" s="330"/>
+      <c r="D13" s="330"/>
+      <c r="E13" s="330"/>
+      <c r="F13" s="330"/>
+      <c r="G13" s="330"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="326" t="s">
+      <c r="A14" s="324" t="s">
         <v>546</v>
       </c>
-      <c r="C14" s="332"/>
-      <c r="D14" s="332"/>
-      <c r="E14" s="332"/>
-      <c r="F14" s="332"/>
-      <c r="G14" s="332"/>
+      <c r="C14" s="330"/>
+      <c r="D14" s="330"/>
+      <c r="E14" s="330"/>
+      <c r="F14" s="330"/>
+      <c r="G14" s="330"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="326" t="s">
+      <c r="A15" s="324" t="s">
         <v>547</v>
       </c>
-      <c r="C15" s="332"/>
-      <c r="D15" s="332"/>
-      <c r="E15" s="332"/>
-      <c r="F15" s="332"/>
-      <c r="G15" s="332"/>
+      <c r="C15" s="330"/>
+      <c r="D15" s="330"/>
+      <c r="E15" s="330"/>
+      <c r="F15" s="330"/>
+      <c r="G15" s="330"/>
     </row>
     <row r="16" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="150" t="s">
         <v>548</v>
       </c>
-      <c r="C16" s="333" t="s">
+      <c r="C16" s="331" t="s">
         <v>549</v>
       </c>
-      <c r="D16" s="333"/>
-      <c r="E16" s="333"/>
-      <c r="F16" s="333"/>
-      <c r="G16" s="333"/>
+      <c r="D16" s="331"/>
+      <c r="E16" s="331"/>
+      <c r="F16" s="331"/>
+      <c r="G16" s="331"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="150" t="s">
         <v>550</v>
       </c>
-      <c r="C17" s="334" t="n">
+      <c r="C17" s="332" t="n">
         <v>1</v>
       </c>
-      <c r="D17" s="335" t="str">
+      <c r="D17" s="333" t="str">
         <f aca="false">A5</f>
         <v>[:huomiot :ymparys :toimenpide 0 :nimi-sv]</v>
       </c>
-      <c r="E17" s="335"/>
-      <c r="F17" s="335"/>
-      <c r="G17" s="335"/>
+      <c r="E17" s="333"/>
+      <c r="F17" s="333"/>
+      <c r="G17" s="333"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="150" t="s">
         <v>551</v>
       </c>
-      <c r="C18" s="334" t="n">
+      <c r="C18" s="332" t="n">
         <v>2</v>
       </c>
-      <c r="D18" s="335" t="str">
+      <c r="D18" s="333" t="str">
         <f aca="false">A7</f>
         <v>[:huomiot :ymparys :toimenpide 1 :nimi-sv]</v>
       </c>
-      <c r="E18" s="335"/>
-      <c r="F18" s="335"/>
-      <c r="G18" s="335"/>
+      <c r="E18" s="333"/>
+      <c r="F18" s="333"/>
+      <c r="G18" s="333"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="150" t="s">
         <v>552</v>
       </c>
-      <c r="C19" s="334" t="n">
+      <c r="C19" s="332" t="n">
         <v>3</v>
       </c>
-      <c r="D19" s="335" t="str">
+      <c r="D19" s="333" t="str">
         <f aca="false">A9</f>
         <v>[:huomiot :ymparys :toimenpide 2 :nimi-sv]</v>
       </c>
-      <c r="E19" s="335"/>
-      <c r="F19" s="335"/>
-      <c r="G19" s="335"/>
+      <c r="E19" s="333"/>
+      <c r="F19" s="333"/>
+      <c r="G19" s="333"/>
     </row>
     <row r="20" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="150" t="s">
         <v>553</v>
       </c>
-      <c r="C20" s="336"/>
-      <c r="D20" s="337" t="s">
+      <c r="C20" s="334"/>
+      <c r="D20" s="335" t="s">
         <v>554</v>
       </c>
-      <c r="E20" s="337" t="s">
+      <c r="E20" s="335" t="s">
         <v>555</v>
       </c>
-      <c r="F20" s="337" t="s">
+      <c r="F20" s="335" t="s">
         <v>556</v>
       </c>
-      <c r="G20" s="338" t="s">
+      <c r="G20" s="336" t="s">
         <v>557</v>
       </c>
     </row>
@@ -29452,7 +29444,7 @@
       <c r="A21" s="150" t="s">
         <v>558</v>
       </c>
-      <c r="C21" s="336"/>
+      <c r="C21" s="334"/>
       <c r="D21" s="108" t="s">
         <v>106</v>
       </c>
@@ -29470,22 +29462,22 @@
       <c r="A22" s="150" t="s">
         <v>560</v>
       </c>
-      <c r="C22" s="334" t="n">
+      <c r="C22" s="332" t="n">
         <v>1</v>
       </c>
-      <c r="D22" s="339" t="str">
+      <c r="D22" s="337" t="str">
         <f aca="false">A10</f>
         <v>[:huomiot :ymparys :toimenpide 0 :lampo]</v>
       </c>
-      <c r="E22" s="339" t="str">
+      <c r="E22" s="337" t="str">
         <f aca="false">A11</f>
         <v>[:huomiot :ymparys :toimenpide 0 :sahko]</v>
       </c>
-      <c r="F22" s="339" t="str">
+      <c r="F22" s="337" t="str">
         <f aca="false">A12</f>
         <v>[:huomiot :ymparys :toimenpide 0 :jaahdytys]</v>
       </c>
-      <c r="G22" s="339" t="str">
+      <c r="G22" s="337" t="str">
         <f aca="false">A13</f>
         <v>[:huomiot :ymparys :toimenpide 0 :eluvun-muutos]</v>
       </c>
@@ -29494,22 +29486,22 @@
       <c r="A23" s="150" t="s">
         <v>561</v>
       </c>
-      <c r="C23" s="334" t="n">
+      <c r="C23" s="332" t="n">
         <v>2</v>
       </c>
-      <c r="D23" s="339" t="str">
+      <c r="D23" s="337" t="str">
         <f aca="false">A14</f>
         <v>[:huomiot :ymparys :toimenpide 1 :lampo]</v>
       </c>
-      <c r="E23" s="339" t="str">
+      <c r="E23" s="337" t="str">
         <f aca="false">A15</f>
         <v>[:huomiot :ymparys :toimenpide 1 :sahko]</v>
       </c>
-      <c r="F23" s="339" t="str">
+      <c r="F23" s="337" t="str">
         <f aca="false">A16</f>
         <v>[:huomiot :ymparys :toimenpide 1 :jaahdytys]</v>
       </c>
-      <c r="G23" s="339" t="str">
+      <c r="G23" s="337" t="str">
         <f aca="false">A17</f>
         <v>[:huomiot :ymparys :toimenpide 1 :eluvun-muutos]</v>
       </c>
@@ -29518,22 +29510,22 @@
       <c r="A24" s="150" t="s">
         <v>562</v>
       </c>
-      <c r="C24" s="334" t="n">
+      <c r="C24" s="332" t="n">
         <v>3</v>
       </c>
-      <c r="D24" s="339" t="str">
+      <c r="D24" s="337" t="str">
         <f aca="false">A18</f>
         <v>[:huomiot :ymparys :toimenpide 2 :lampo]</v>
       </c>
-      <c r="E24" s="339" t="str">
+      <c r="E24" s="337" t="str">
         <f aca="false">A19</f>
         <v>[:huomiot :ymparys :toimenpide 2 :sahko]</v>
       </c>
-      <c r="F24" s="339" t="str">
+      <c r="F24" s="337" t="str">
         <f aca="false">A20</f>
         <v>[:huomiot :ymparys :toimenpide 2 :jaahdytys]</v>
       </c>
-      <c r="G24" s="339" t="str">
+      <c r="G24" s="337" t="str">
         <f aca="false">A21</f>
         <v>[:huomiot :ymparys :toimenpide 2 :eluvun-muutos]</v>
       </c>
@@ -29542,189 +29534,189 @@
       <c r="A25" s="150" t="s">
         <v>563</v>
       </c>
-      <c r="C25" s="340" t="s">
+      <c r="C25" s="338" t="s">
         <v>564</v>
       </c>
       <c r="D25" s="94"/>
       <c r="E25" s="167"/>
       <c r="F25" s="167"/>
-      <c r="G25" s="341"/>
+      <c r="G25" s="339"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="150" t="s">
         <v>565</v>
       </c>
-      <c r="C26" s="332" t="str">
+      <c r="C26" s="330" t="str">
         <f aca="false">A23</f>
         <v>[:huomiot :alapohja-ylapohja :teksti-sv]</v>
       </c>
-      <c r="D26" s="332"/>
-      <c r="E26" s="332"/>
-      <c r="F26" s="332"/>
-      <c r="G26" s="332"/>
+      <c r="D26" s="330"/>
+      <c r="E26" s="330"/>
+      <c r="F26" s="330"/>
+      <c r="G26" s="330"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="150" t="s">
         <v>566</v>
       </c>
-      <c r="C27" s="332"/>
-      <c r="D27" s="332"/>
-      <c r="E27" s="332"/>
-      <c r="F27" s="332"/>
-      <c r="G27" s="332"/>
+      <c r="C27" s="330"/>
+      <c r="D27" s="330"/>
+      <c r="E27" s="330"/>
+      <c r="F27" s="330"/>
+      <c r="G27" s="330"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="150" t="s">
         <v>567</v>
       </c>
-      <c r="C28" s="332"/>
-      <c r="D28" s="332"/>
-      <c r="E28" s="332"/>
-      <c r="F28" s="332"/>
-      <c r="G28" s="332"/>
+      <c r="C28" s="330"/>
+      <c r="D28" s="330"/>
+      <c r="E28" s="330"/>
+      <c r="F28" s="330"/>
+      <c r="G28" s="330"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="150" t="s">
         <v>568</v>
       </c>
-      <c r="C29" s="332"/>
-      <c r="D29" s="332"/>
-      <c r="E29" s="332"/>
-      <c r="F29" s="332"/>
-      <c r="G29" s="332"/>
+      <c r="C29" s="330"/>
+      <c r="D29" s="330"/>
+      <c r="E29" s="330"/>
+      <c r="F29" s="330"/>
+      <c r="G29" s="330"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="150" t="s">
         <v>569</v>
       </c>
-      <c r="C30" s="332"/>
-      <c r="D30" s="332"/>
-      <c r="E30" s="332"/>
-      <c r="F30" s="332"/>
-      <c r="G30" s="332"/>
+      <c r="C30" s="330"/>
+      <c r="D30" s="330"/>
+      <c r="E30" s="330"/>
+      <c r="F30" s="330"/>
+      <c r="G30" s="330"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="150" t="s">
         <v>570</v>
       </c>
-      <c r="C31" s="332"/>
-      <c r="D31" s="332"/>
-      <c r="E31" s="332"/>
-      <c r="F31" s="332"/>
-      <c r="G31" s="332"/>
+      <c r="C31" s="330"/>
+      <c r="D31" s="330"/>
+      <c r="E31" s="330"/>
+      <c r="F31" s="330"/>
+      <c r="G31" s="330"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="150" t="s">
         <v>571</v>
       </c>
-      <c r="C32" s="332"/>
-      <c r="D32" s="332"/>
-      <c r="E32" s="332"/>
-      <c r="F32" s="332"/>
-      <c r="G32" s="332"/>
+      <c r="C32" s="330"/>
+      <c r="D32" s="330"/>
+      <c r="E32" s="330"/>
+      <c r="F32" s="330"/>
+      <c r="G32" s="330"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="150" t="s">
         <v>572</v>
       </c>
-      <c r="C33" s="332"/>
-      <c r="D33" s="332"/>
-      <c r="E33" s="332"/>
-      <c r="F33" s="332"/>
-      <c r="G33" s="332"/>
+      <c r="C33" s="330"/>
+      <c r="D33" s="330"/>
+      <c r="E33" s="330"/>
+      <c r="F33" s="330"/>
+      <c r="G33" s="330"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="150" t="s">
         <v>573</v>
       </c>
-      <c r="C34" s="332"/>
-      <c r="D34" s="332"/>
-      <c r="E34" s="332"/>
-      <c r="F34" s="332"/>
-      <c r="G34" s="332"/>
+      <c r="C34" s="330"/>
+      <c r="D34" s="330"/>
+      <c r="E34" s="330"/>
+      <c r="F34" s="330"/>
+      <c r="G34" s="330"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="150" t="s">
         <v>574</v>
       </c>
-      <c r="C35" s="332"/>
-      <c r="D35" s="332"/>
-      <c r="E35" s="332"/>
-      <c r="F35" s="332"/>
-      <c r="G35" s="332"/>
+      <c r="C35" s="330"/>
+      <c r="D35" s="330"/>
+      <c r="E35" s="330"/>
+      <c r="F35" s="330"/>
+      <c r="G35" s="330"/>
     </row>
     <row r="36" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="150" t="s">
         <v>575</v>
       </c>
-      <c r="C36" s="333" t="s">
+      <c r="C36" s="331" t="s">
         <v>549</v>
       </c>
-      <c r="D36" s="333"/>
-      <c r="E36" s="333"/>
-      <c r="F36" s="333"/>
-      <c r="G36" s="333"/>
+      <c r="D36" s="331"/>
+      <c r="E36" s="331"/>
+      <c r="F36" s="331"/>
+      <c r="G36" s="331"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="150" t="s">
         <v>576</v>
       </c>
-      <c r="C37" s="334" t="n">
+      <c r="C37" s="332" t="n">
         <v>1</v>
       </c>
-      <c r="D37" s="335" t="str">
+      <c r="D37" s="333" t="str">
         <f aca="false">A25</f>
         <v>[:huomiot :alapohja-ylapohja :toimenpide 0 :nimi-sv]</v>
       </c>
-      <c r="E37" s="335"/>
-      <c r="F37" s="335"/>
-      <c r="G37" s="335"/>
+      <c r="E37" s="333"/>
+      <c r="F37" s="333"/>
+      <c r="G37" s="333"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="150" t="s">
         <v>577</v>
       </c>
-      <c r="C38" s="334" t="n">
+      <c r="C38" s="332" t="n">
         <v>2</v>
       </c>
-      <c r="D38" s="335" t="str">
+      <c r="D38" s="333" t="str">
         <f aca="false">A27</f>
         <v>[:huomiot :alapohja-ylapohja :toimenpide 1 :nimi-sv]</v>
       </c>
-      <c r="E38" s="335"/>
-      <c r="F38" s="335"/>
-      <c r="G38" s="335"/>
+      <c r="E38" s="333"/>
+      <c r="F38" s="333"/>
+      <c r="G38" s="333"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="150" t="s">
         <v>578</v>
       </c>
-      <c r="C39" s="334" t="n">
+      <c r="C39" s="332" t="n">
         <v>3</v>
       </c>
-      <c r="D39" s="335" t="str">
+      <c r="D39" s="333" t="str">
         <f aca="false">A29</f>
         <v>[:huomiot :alapohja-ylapohja :toimenpide 2 :nimi-sv]</v>
       </c>
-      <c r="E39" s="335"/>
-      <c r="F39" s="335"/>
-      <c r="G39" s="335"/>
+      <c r="E39" s="333"/>
+      <c r="F39" s="333"/>
+      <c r="G39" s="333"/>
     </row>
     <row r="40" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="150" t="s">
         <v>579</v>
       </c>
-      <c r="C40" s="336"/>
-      <c r="D40" s="337" t="s">
+      <c r="C40" s="334"/>
+      <c r="D40" s="335" t="s">
         <v>554</v>
       </c>
-      <c r="E40" s="337" t="s">
+      <c r="E40" s="335" t="s">
         <v>555</v>
       </c>
-      <c r="F40" s="337" t="s">
+      <c r="F40" s="335" t="s">
         <v>556</v>
       </c>
-      <c r="G40" s="338" t="s">
+      <c r="G40" s="336" t="s">
         <v>557</v>
       </c>
     </row>
@@ -29732,7 +29724,7 @@
       <c r="A41" s="150" t="s">
         <v>580</v>
       </c>
-      <c r="C41" s="336"/>
+      <c r="C41" s="334"/>
       <c r="D41" s="108" t="s">
         <v>106</v>
       </c>
@@ -29750,22 +29742,22 @@
       <c r="A42" s="150" t="s">
         <v>581</v>
       </c>
-      <c r="C42" s="334" t="n">
+      <c r="C42" s="332" t="n">
         <v>1</v>
       </c>
-      <c r="D42" s="339" t="str">
+      <c r="D42" s="337" t="str">
         <f aca="false">A30</f>
         <v>[:huomiot :alapohja-ylapohja :toimenpide 0 :lampo]</v>
       </c>
-      <c r="E42" s="339" t="str">
+      <c r="E42" s="337" t="str">
         <f aca="false">A31</f>
         <v>[:huomiot :alapohja-ylapohja :toimenpide 0 :sahko]</v>
       </c>
-      <c r="F42" s="339" t="str">
+      <c r="F42" s="337" t="str">
         <f aca="false">A32</f>
         <v>[:huomiot :alapohja-ylapohja :toimenpide 0 :jaahdytys]</v>
       </c>
-      <c r="G42" s="339" t="str">
+      <c r="G42" s="337" t="str">
         <f aca="false">A33</f>
         <v>[:huomiot :alapohja-ylapohja :toimenpide 0 :eluvun-muutos]</v>
       </c>
@@ -29774,22 +29766,22 @@
       <c r="A43" s="150" t="s">
         <v>582</v>
       </c>
-      <c r="C43" s="334" t="n">
+      <c r="C43" s="332" t="n">
         <v>2</v>
       </c>
-      <c r="D43" s="339" t="str">
+      <c r="D43" s="337" t="str">
         <f aca="false">A34</f>
         <v>[:huomiot :alapohja-ylapohja :toimenpide 1 :lampo]</v>
       </c>
-      <c r="E43" s="339" t="str">
+      <c r="E43" s="337" t="str">
         <f aca="false">A35</f>
         <v>[:huomiot :alapohja-ylapohja :toimenpide 1 :sahko]</v>
       </c>
-      <c r="F43" s="339" t="str">
+      <c r="F43" s="337" t="str">
         <f aca="false">A36</f>
         <v>[:huomiot :alapohja-ylapohja :toimenpide 1 :jaahdytys]</v>
       </c>
-      <c r="G43" s="339" t="str">
+      <c r="G43" s="337" t="str">
         <f aca="false">A37</f>
         <v>[:huomiot :alapohja-ylapohja :toimenpide 1 :eluvun-muutos]</v>
       </c>
@@ -29798,22 +29790,22 @@
       <c r="A44" s="150" t="s">
         <v>583</v>
       </c>
-      <c r="C44" s="334" t="n">
+      <c r="C44" s="332" t="n">
         <v>3</v>
       </c>
-      <c r="D44" s="339" t="str">
+      <c r="D44" s="337" t="str">
         <f aca="false">A38</f>
         <v>[:huomiot :alapohja-ylapohja :toimenpide 2 :lampo]</v>
       </c>
-      <c r="E44" s="339" t="str">
+      <c r="E44" s="337" t="str">
         <f aca="false">A39</f>
         <v>[:huomiot :alapohja-ylapohja :toimenpide 2 :sahko]</v>
       </c>
-      <c r="F44" s="339" t="str">
+      <c r="F44" s="337" t="str">
         <f aca="false">A40</f>
         <v>[:huomiot :alapohja-ylapohja :toimenpide 2 :jaahdytys]</v>
       </c>
-      <c r="G44" s="339" t="str">
+      <c r="G44" s="337" t="str">
         <f aca="false">A41</f>
         <v>[:huomiot :alapohja-ylapohja :toimenpide 2 :eluvun-muutos]</v>
       </c>
@@ -29822,189 +29814,189 @@
       <c r="A45" s="150" t="s">
         <v>584</v>
       </c>
-      <c r="C45" s="340" t="s">
+      <c r="C45" s="338" t="s">
         <v>585</v>
       </c>
-      <c r="D45" s="342"/>
+      <c r="D45" s="340"/>
       <c r="E45" s="30"/>
       <c r="F45" s="30"/>
-      <c r="G45" s="341"/>
+      <c r="G45" s="339"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="150" t="s">
         <v>586</v>
       </c>
-      <c r="C46" s="332" t="str">
+      <c r="C46" s="330" t="str">
         <f aca="false">A43</f>
         <v>[:huomiot :lammitys :teksti-sv]</v>
       </c>
-      <c r="D46" s="332"/>
-      <c r="E46" s="332"/>
-      <c r="F46" s="332"/>
-      <c r="G46" s="332"/>
+      <c r="D46" s="330"/>
+      <c r="E46" s="330"/>
+      <c r="F46" s="330"/>
+      <c r="G46" s="330"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="150" t="s">
         <v>587</v>
       </c>
-      <c r="C47" s="332"/>
-      <c r="D47" s="332"/>
-      <c r="E47" s="332"/>
-      <c r="F47" s="332"/>
-      <c r="G47" s="332"/>
+      <c r="C47" s="330"/>
+      <c r="D47" s="330"/>
+      <c r="E47" s="330"/>
+      <c r="F47" s="330"/>
+      <c r="G47" s="330"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="150" t="s">
         <v>588</v>
       </c>
-      <c r="C48" s="332"/>
-      <c r="D48" s="332"/>
-      <c r="E48" s="332"/>
-      <c r="F48" s="332"/>
-      <c r="G48" s="332"/>
+      <c r="C48" s="330"/>
+      <c r="D48" s="330"/>
+      <c r="E48" s="330"/>
+      <c r="F48" s="330"/>
+      <c r="G48" s="330"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="150" t="s">
         <v>589</v>
       </c>
-      <c r="C49" s="332"/>
-      <c r="D49" s="332"/>
-      <c r="E49" s="332"/>
-      <c r="F49" s="332"/>
-      <c r="G49" s="332"/>
+      <c r="C49" s="330"/>
+      <c r="D49" s="330"/>
+      <c r="E49" s="330"/>
+      <c r="F49" s="330"/>
+      <c r="G49" s="330"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="150" t="s">
         <v>590</v>
       </c>
-      <c r="C50" s="332"/>
-      <c r="D50" s="332"/>
-      <c r="E50" s="332"/>
-      <c r="F50" s="332"/>
-      <c r="G50" s="332"/>
+      <c r="C50" s="330"/>
+      <c r="D50" s="330"/>
+      <c r="E50" s="330"/>
+      <c r="F50" s="330"/>
+      <c r="G50" s="330"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="150" t="s">
         <v>591</v>
       </c>
-      <c r="C51" s="332"/>
-      <c r="D51" s="332"/>
-      <c r="E51" s="332"/>
-      <c r="F51" s="332"/>
-      <c r="G51" s="332"/>
+      <c r="C51" s="330"/>
+      <c r="D51" s="330"/>
+      <c r="E51" s="330"/>
+      <c r="F51" s="330"/>
+      <c r="G51" s="330"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="150" t="s">
         <v>592</v>
       </c>
-      <c r="C52" s="332"/>
-      <c r="D52" s="332"/>
-      <c r="E52" s="332"/>
-      <c r="F52" s="332"/>
-      <c r="G52" s="332"/>
+      <c r="C52" s="330"/>
+      <c r="D52" s="330"/>
+      <c r="E52" s="330"/>
+      <c r="F52" s="330"/>
+      <c r="G52" s="330"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="150" t="s">
         <v>593</v>
       </c>
-      <c r="C53" s="332"/>
-      <c r="D53" s="332"/>
-      <c r="E53" s="332"/>
-      <c r="F53" s="332"/>
-      <c r="G53" s="332"/>
+      <c r="C53" s="330"/>
+      <c r="D53" s="330"/>
+      <c r="E53" s="330"/>
+      <c r="F53" s="330"/>
+      <c r="G53" s="330"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="150" t="s">
         <v>594</v>
       </c>
-      <c r="C54" s="332"/>
-      <c r="D54" s="332"/>
-      <c r="E54" s="332"/>
-      <c r="F54" s="332"/>
-      <c r="G54" s="332"/>
+      <c r="C54" s="330"/>
+      <c r="D54" s="330"/>
+      <c r="E54" s="330"/>
+      <c r="F54" s="330"/>
+      <c r="G54" s="330"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="150" t="s">
         <v>595</v>
       </c>
-      <c r="C55" s="332"/>
-      <c r="D55" s="332"/>
-      <c r="E55" s="332"/>
-      <c r="F55" s="332"/>
-      <c r="G55" s="332"/>
+      <c r="C55" s="330"/>
+      <c r="D55" s="330"/>
+      <c r="E55" s="330"/>
+      <c r="F55" s="330"/>
+      <c r="G55" s="330"/>
     </row>
     <row r="56" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="150" t="s">
         <v>596</v>
       </c>
-      <c r="C56" s="333" t="s">
+      <c r="C56" s="331" t="s">
         <v>549</v>
       </c>
-      <c r="D56" s="333"/>
-      <c r="E56" s="333"/>
-      <c r="F56" s="333"/>
-      <c r="G56" s="333"/>
+      <c r="D56" s="331"/>
+      <c r="E56" s="331"/>
+      <c r="F56" s="331"/>
+      <c r="G56" s="331"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="150" t="s">
         <v>597</v>
       </c>
-      <c r="C57" s="334" t="n">
+      <c r="C57" s="332" t="n">
         <v>1</v>
       </c>
-      <c r="D57" s="335" t="str">
+      <c r="D57" s="333" t="str">
         <f aca="false">A45</f>
         <v>[:huomiot :lammitys :toimenpide 0 :nimi-sv]</v>
       </c>
-      <c r="E57" s="335"/>
-      <c r="F57" s="335"/>
-      <c r="G57" s="335"/>
+      <c r="E57" s="333"/>
+      <c r="F57" s="333"/>
+      <c r="G57" s="333"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="150" t="s">
         <v>598</v>
       </c>
-      <c r="C58" s="334" t="n">
+      <c r="C58" s="332" t="n">
         <v>2</v>
       </c>
-      <c r="D58" s="335" t="str">
+      <c r="D58" s="333" t="str">
         <f aca="false">A47</f>
         <v>[:huomiot :lammitys :toimenpide 1 :nimi-sv]</v>
       </c>
-      <c r="E58" s="335"/>
-      <c r="F58" s="335"/>
-      <c r="G58" s="335"/>
+      <c r="E58" s="333"/>
+      <c r="F58" s="333"/>
+      <c r="G58" s="333"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="150" t="s">
         <v>599</v>
       </c>
-      <c r="C59" s="334" t="n">
+      <c r="C59" s="332" t="n">
         <v>3</v>
       </c>
-      <c r="D59" s="335" t="str">
+      <c r="D59" s="333" t="str">
         <f aca="false">A49</f>
         <v>[:huomiot :lammitys :toimenpide 2 :nimi-sv]</v>
       </c>
-      <c r="E59" s="335"/>
-      <c r="F59" s="335"/>
-      <c r="G59" s="335"/>
+      <c r="E59" s="333"/>
+      <c r="F59" s="333"/>
+      <c r="G59" s="333"/>
     </row>
     <row r="60" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="150" t="s">
         <v>600</v>
       </c>
-      <c r="C60" s="336"/>
-      <c r="D60" s="337" t="s">
+      <c r="C60" s="334"/>
+      <c r="D60" s="335" t="s">
         <v>554</v>
       </c>
-      <c r="E60" s="337" t="s">
+      <c r="E60" s="335" t="s">
         <v>555</v>
       </c>
-      <c r="F60" s="337" t="s">
+      <c r="F60" s="335" t="s">
         <v>556</v>
       </c>
-      <c r="G60" s="338" t="s">
+      <c r="G60" s="336" t="s">
         <v>557</v>
       </c>
     </row>
@@ -30012,7 +30004,7 @@
       <c r="A61" s="150" t="s">
         <v>601</v>
       </c>
-      <c r="C61" s="336"/>
+      <c r="C61" s="334"/>
       <c r="D61" s="108" t="s">
         <v>106</v>
       </c>
@@ -30028,66 +30020,66 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="150"/>
-      <c r="C62" s="334" t="n">
+      <c r="C62" s="332" t="n">
         <v>1</v>
       </c>
-      <c r="D62" s="339" t="str">
+      <c r="D62" s="337" t="str">
         <f aca="false">A50</f>
         <v>[:huomiot :lammitys :toimenpide 0 :lampo]</v>
       </c>
-      <c r="E62" s="339" t="str">
+      <c r="E62" s="337" t="str">
         <f aca="false">A51</f>
         <v>[:huomiot :lammitys :toimenpide 0 :sahko]</v>
       </c>
-      <c r="F62" s="339" t="str">
+      <c r="F62" s="337" t="str">
         <f aca="false">A52</f>
         <v>[:huomiot :lammitys :toimenpide 0 :jaahdytys]</v>
       </c>
-      <c r="G62" s="339" t="str">
+      <c r="G62" s="337" t="str">
         <f aca="false">A53</f>
         <v>[:huomiot :lammitys :toimenpide 0 :eluvun-muutos]</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="150"/>
-      <c r="C63" s="334" t="n">
+      <c r="C63" s="332" t="n">
         <v>2</v>
       </c>
-      <c r="D63" s="339" t="str">
+      <c r="D63" s="337" t="str">
         <f aca="false">A54</f>
         <v>[:huomiot :lammitys :toimenpide 1 :lampo]</v>
       </c>
-      <c r="E63" s="339" t="str">
+      <c r="E63" s="337" t="str">
         <f aca="false">A55</f>
         <v>[:huomiot :lammitys :toimenpide 1 :sahko]</v>
       </c>
-      <c r="F63" s="339" t="str">
+      <c r="F63" s="337" t="str">
         <f aca="false">A56</f>
         <v>[:huomiot :lammitys :toimenpide 1 :jaahdytys]</v>
       </c>
-      <c r="G63" s="343" t="str">
+      <c r="G63" s="341" t="str">
         <f aca="false">A57</f>
         <v>[:huomiot :lammitys :toimenpide 1 :eluvun-muutos]</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="150"/>
-      <c r="C64" s="334" t="n">
+      <c r="C64" s="332" t="n">
         <v>3</v>
       </c>
-      <c r="D64" s="339" t="str">
+      <c r="D64" s="337" t="str">
         <f aca="false">A58</f>
         <v>[:huomiot :lammitys :toimenpide 2 :lampo]</v>
       </c>
-      <c r="E64" s="339" t="str">
+      <c r="E64" s="337" t="str">
         <f aca="false">A59</f>
         <v>[:huomiot :lammitys :toimenpide 2 :sahko]</v>
       </c>
-      <c r="F64" s="339" t="str">
+      <c r="F64" s="337" t="str">
         <f aca="false">A60</f>
         <v>[:huomiot :lammitys :toimenpide 2 :jaahdytys]</v>
       </c>
-      <c r="G64" s="339" t="str">
+      <c r="G64" s="337" t="str">
         <f aca="false">A61</f>
         <v>[:huomiot :lammitys :toimenpide 2 :eluvun-muutos]</v>
       </c>
@@ -30260,7 +30252,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="326" width="25.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="324" width="25.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="0.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="4" width="5.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="4" style="4" width="23.28"/>
@@ -30269,16 +30261,16 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="326" t="s">
+      <c r="A1" s="324" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="5"/>
     </row>
     <row r="2" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="326" t="s">
+      <c r="A2" s="324" t="s">
         <v>602</v>
       </c>
-      <c r="C2" s="331" t="s">
+      <c r="C2" s="329" t="s">
         <v>603</v>
       </c>
       <c r="D2" s="94"/>
@@ -30287,180 +30279,180 @@
       <c r="G2" s="168"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="326" t="s">
+      <c r="A3" s="324" t="s">
         <v>604</v>
       </c>
-      <c r="C3" s="332" t="str">
+      <c r="C3" s="330" t="str">
         <f aca="false">A3</f>
         <v>[:huomiot :iv-ilmastointi :teksti-sv]</v>
       </c>
-      <c r="D3" s="332"/>
-      <c r="E3" s="332"/>
-      <c r="F3" s="332"/>
-      <c r="G3" s="332"/>
+      <c r="D3" s="330"/>
+      <c r="E3" s="330"/>
+      <c r="F3" s="330"/>
+      <c r="G3" s="330"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="326" t="s">
+      <c r="A4" s="324" t="s">
         <v>605</v>
       </c>
-      <c r="C4" s="332"/>
-      <c r="D4" s="332"/>
-      <c r="E4" s="332"/>
-      <c r="F4" s="332"/>
-      <c r="G4" s="332"/>
+      <c r="C4" s="330"/>
+      <c r="D4" s="330"/>
+      <c r="E4" s="330"/>
+      <c r="F4" s="330"/>
+      <c r="G4" s="330"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="326" t="s">
+      <c r="A5" s="324" t="s">
         <v>606</v>
       </c>
-      <c r="C5" s="332"/>
-      <c r="D5" s="332"/>
-      <c r="E5" s="332"/>
-      <c r="F5" s="332"/>
-      <c r="G5" s="332"/>
+      <c r="C5" s="330"/>
+      <c r="D5" s="330"/>
+      <c r="E5" s="330"/>
+      <c r="F5" s="330"/>
+      <c r="G5" s="330"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="326" t="s">
+      <c r="A6" s="324" t="s">
         <v>607</v>
       </c>
-      <c r="C6" s="332"/>
-      <c r="D6" s="332"/>
-      <c r="E6" s="332"/>
-      <c r="F6" s="332"/>
-      <c r="G6" s="332"/>
+      <c r="C6" s="330"/>
+      <c r="D6" s="330"/>
+      <c r="E6" s="330"/>
+      <c r="F6" s="330"/>
+      <c r="G6" s="330"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="326" t="s">
+      <c r="A7" s="324" t="s">
         <v>608</v>
       </c>
-      <c r="C7" s="332"/>
-      <c r="D7" s="332"/>
-      <c r="E7" s="332"/>
-      <c r="F7" s="332"/>
-      <c r="G7" s="332"/>
+      <c r="C7" s="330"/>
+      <c r="D7" s="330"/>
+      <c r="E7" s="330"/>
+      <c r="F7" s="330"/>
+      <c r="G7" s="330"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="326" t="s">
+      <c r="A8" s="324" t="s">
         <v>609</v>
       </c>
-      <c r="C8" s="332"/>
-      <c r="D8" s="332"/>
-      <c r="E8" s="332"/>
-      <c r="F8" s="332"/>
-      <c r="G8" s="332"/>
+      <c r="C8" s="330"/>
+      <c r="D8" s="330"/>
+      <c r="E8" s="330"/>
+      <c r="F8" s="330"/>
+      <c r="G8" s="330"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="326" t="s">
+      <c r="A9" s="324" t="s">
         <v>610</v>
       </c>
-      <c r="C9" s="332"/>
-      <c r="D9" s="332"/>
-      <c r="E9" s="332"/>
-      <c r="F9" s="332"/>
-      <c r="G9" s="332"/>
+      <c r="C9" s="330"/>
+      <c r="D9" s="330"/>
+      <c r="E9" s="330"/>
+      <c r="F9" s="330"/>
+      <c r="G9" s="330"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="326" t="s">
+      <c r="A10" s="324" t="s">
         <v>611</v>
       </c>
-      <c r="C10" s="332"/>
-      <c r="D10" s="332"/>
-      <c r="E10" s="332"/>
-      <c r="F10" s="332"/>
-      <c r="G10" s="332"/>
+      <c r="C10" s="330"/>
+      <c r="D10" s="330"/>
+      <c r="E10" s="330"/>
+      <c r="F10" s="330"/>
+      <c r="G10" s="330"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="326" t="s">
+      <c r="A11" s="324" t="s">
         <v>612</v>
       </c>
-      <c r="C11" s="332"/>
-      <c r="D11" s="332"/>
-      <c r="E11" s="332"/>
-      <c r="F11" s="332"/>
-      <c r="G11" s="332"/>
+      <c r="C11" s="330"/>
+      <c r="D11" s="330"/>
+      <c r="E11" s="330"/>
+      <c r="F11" s="330"/>
+      <c r="G11" s="330"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="326" t="s">
+      <c r="A12" s="324" t="s">
         <v>613</v>
       </c>
-      <c r="C12" s="332"/>
-      <c r="D12" s="332"/>
-      <c r="E12" s="332"/>
-      <c r="F12" s="332"/>
-      <c r="G12" s="332"/>
+      <c r="C12" s="330"/>
+      <c r="D12" s="330"/>
+      <c r="E12" s="330"/>
+      <c r="F12" s="330"/>
+      <c r="G12" s="330"/>
     </row>
     <row r="13" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="150" t="s">
         <v>614</v>
       </c>
-      <c r="C13" s="333" t="s">
+      <c r="C13" s="331" t="s">
         <v>549</v>
       </c>
-      <c r="D13" s="333"/>
-      <c r="E13" s="333"/>
-      <c r="F13" s="333"/>
-      <c r="G13" s="333"/>
+      <c r="D13" s="331"/>
+      <c r="E13" s="331"/>
+      <c r="F13" s="331"/>
+      <c r="G13" s="331"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="150" t="s">
         <v>615</v>
       </c>
-      <c r="C14" s="334" t="n">
+      <c r="C14" s="332" t="n">
         <v>1</v>
       </c>
-      <c r="D14" s="344" t="str">
+      <c r="D14" s="342" t="str">
         <f aca="false">A5</f>
         <v>[:huomiot :iv-ilmastointi :toimenpide 0 :nimi-sv]</v>
       </c>
-      <c r="E14" s="344"/>
-      <c r="F14" s="344"/>
-      <c r="G14" s="344"/>
+      <c r="E14" s="342"/>
+      <c r="F14" s="342"/>
+      <c r="G14" s="342"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="150" t="s">
         <v>616</v>
       </c>
-      <c r="C15" s="334" t="n">
+      <c r="C15" s="332" t="n">
         <v>2</v>
       </c>
-      <c r="D15" s="344" t="str">
+      <c r="D15" s="342" t="str">
         <f aca="false">A7</f>
         <v>[:huomiot :iv-ilmastointi :toimenpide 1 :nimi-sv]</v>
       </c>
-      <c r="E15" s="344"/>
-      <c r="F15" s="344"/>
-      <c r="G15" s="344"/>
+      <c r="E15" s="342"/>
+      <c r="F15" s="342"/>
+      <c r="G15" s="342"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="150" t="s">
         <v>617</v>
       </c>
-      <c r="C16" s="334" t="n">
+      <c r="C16" s="332" t="n">
         <v>3</v>
       </c>
-      <c r="D16" s="344" t="str">
+      <c r="D16" s="342" t="str">
         <f aca="false">A9</f>
         <v>[:huomiot :iv-ilmastointi :toimenpide 2 :nimi-sv]</v>
       </c>
-      <c r="E16" s="344"/>
-      <c r="F16" s="344"/>
-      <c r="G16" s="344"/>
+      <c r="E16" s="342"/>
+      <c r="F16" s="342"/>
+      <c r="G16" s="342"/>
     </row>
     <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="150" t="s">
         <v>618</v>
       </c>
-      <c r="C17" s="336"/>
-      <c r="D17" s="337" t="s">
+      <c r="C17" s="334"/>
+      <c r="D17" s="335" t="s">
         <v>554</v>
       </c>
-      <c r="E17" s="337" t="s">
+      <c r="E17" s="335" t="s">
         <v>555</v>
       </c>
-      <c r="F17" s="337" t="s">
+      <c r="F17" s="335" t="s">
         <v>556</v>
       </c>
-      <c r="G17" s="338" t="s">
+      <c r="G17" s="336" t="s">
         <v>557</v>
       </c>
     </row>
@@ -30468,7 +30460,7 @@
       <c r="A18" s="150" t="s">
         <v>619</v>
       </c>
-      <c r="C18" s="336"/>
+      <c r="C18" s="334"/>
       <c r="D18" s="108" t="s">
         <v>106</v>
       </c>
@@ -30486,22 +30478,22 @@
       <c r="A19" s="150" t="s">
         <v>620</v>
       </c>
-      <c r="C19" s="334" t="n">
+      <c r="C19" s="332" t="n">
         <v>1</v>
       </c>
-      <c r="D19" s="339" t="str">
+      <c r="D19" s="337" t="str">
         <f aca="false">A10</f>
         <v>[:huomiot :iv-ilmastointi :toimenpide 0 :lampo]</v>
       </c>
-      <c r="E19" s="339" t="str">
+      <c r="E19" s="337" t="str">
         <f aca="false">A11</f>
         <v>[:huomiot :iv-ilmastointi :toimenpide 0 :sahko]</v>
       </c>
-      <c r="F19" s="339" t="str">
+      <c r="F19" s="337" t="str">
         <f aca="false">A12</f>
         <v>[:huomiot :iv-ilmastointi :toimenpide 0 :jaahdytys]</v>
       </c>
-      <c r="G19" s="339" t="str">
+      <c r="G19" s="337" t="str">
         <f aca="false">A13</f>
         <v>[:huomiot :iv-ilmastointi :toimenpide 0 :eluvun-muutos]</v>
       </c>
@@ -30510,22 +30502,22 @@
       <c r="A20" s="150" t="s">
         <v>621</v>
       </c>
-      <c r="C20" s="334" t="n">
+      <c r="C20" s="332" t="n">
         <v>2</v>
       </c>
-      <c r="D20" s="339" t="str">
+      <c r="D20" s="337" t="str">
         <f aca="false">A14</f>
         <v>[:huomiot :iv-ilmastointi :toimenpide 1 :lampo]</v>
       </c>
-      <c r="E20" s="339" t="str">
+      <c r="E20" s="337" t="str">
         <f aca="false">A15</f>
         <v>[:huomiot :iv-ilmastointi :toimenpide 1 :sahko]</v>
       </c>
-      <c r="F20" s="339" t="str">
+      <c r="F20" s="337" t="str">
         <f aca="false">A16</f>
         <v>[:huomiot :iv-ilmastointi :toimenpide 1 :jaahdytys]</v>
       </c>
-      <c r="G20" s="339" t="str">
+      <c r="G20" s="337" t="str">
         <f aca="false">A17</f>
         <v>[:huomiot :iv-ilmastointi :toimenpide 1 :eluvun-muutos]</v>
       </c>
@@ -30534,22 +30526,22 @@
       <c r="A21" s="150" t="s">
         <v>622</v>
       </c>
-      <c r="C21" s="334" t="n">
+      <c r="C21" s="332" t="n">
         <v>3</v>
       </c>
-      <c r="D21" s="339" t="str">
+      <c r="D21" s="337" t="str">
         <f aca="false">A18</f>
         <v>[:huomiot :iv-ilmastointi :toimenpide 2 :lampo]</v>
       </c>
-      <c r="E21" s="339" t="str">
+      <c r="E21" s="337" t="str">
         <f aca="false">A19</f>
         <v>[:huomiot :iv-ilmastointi :toimenpide 2 :sahko]</v>
       </c>
-      <c r="F21" s="339" t="str">
+      <c r="F21" s="337" t="str">
         <f aca="false">A20</f>
         <v>[:huomiot :iv-ilmastointi :toimenpide 2 :jaahdytys]</v>
       </c>
-      <c r="G21" s="339" t="str">
+      <c r="G21" s="337" t="str">
         <f aca="false">A21</f>
         <v>[:huomiot :iv-ilmastointi :toimenpide 2 :eluvun-muutos]</v>
       </c>
@@ -30558,189 +30550,189 @@
       <c r="A22" s="150" t="s">
         <v>623</v>
       </c>
-      <c r="C22" s="340" t="s">
+      <c r="C22" s="338" t="s">
         <v>624</v>
       </c>
-      <c r="D22" s="342"/>
+      <c r="D22" s="340"/>
       <c r="E22" s="30"/>
       <c r="F22" s="30"/>
-      <c r="G22" s="341"/>
+      <c r="G22" s="339"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="150" t="s">
         <v>625</v>
       </c>
-      <c r="C23" s="332" t="str">
+      <c r="C23" s="330" t="str">
         <f aca="false">A23</f>
         <v>[:huomiot :valaistus-muut :teksti-sv]</v>
       </c>
-      <c r="D23" s="332"/>
-      <c r="E23" s="332"/>
-      <c r="F23" s="332"/>
-      <c r="G23" s="332"/>
+      <c r="D23" s="330"/>
+      <c r="E23" s="330"/>
+      <c r="F23" s="330"/>
+      <c r="G23" s="330"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="150" t="s">
         <v>626</v>
       </c>
-      <c r="C24" s="332"/>
-      <c r="D24" s="332"/>
-      <c r="E24" s="332"/>
-      <c r="F24" s="332"/>
-      <c r="G24" s="332"/>
+      <c r="C24" s="330"/>
+      <c r="D24" s="330"/>
+      <c r="E24" s="330"/>
+      <c r="F24" s="330"/>
+      <c r="G24" s="330"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="150" t="s">
         <v>627</v>
       </c>
-      <c r="C25" s="332"/>
-      <c r="D25" s="332"/>
-      <c r="E25" s="332"/>
-      <c r="F25" s="332"/>
-      <c r="G25" s="332"/>
+      <c r="C25" s="330"/>
+      <c r="D25" s="330"/>
+      <c r="E25" s="330"/>
+      <c r="F25" s="330"/>
+      <c r="G25" s="330"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="150" t="s">
         <v>628</v>
       </c>
-      <c r="C26" s="332"/>
-      <c r="D26" s="332"/>
-      <c r="E26" s="332"/>
-      <c r="F26" s="332"/>
-      <c r="G26" s="332"/>
+      <c r="C26" s="330"/>
+      <c r="D26" s="330"/>
+      <c r="E26" s="330"/>
+      <c r="F26" s="330"/>
+      <c r="G26" s="330"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="150" t="s">
         <v>629</v>
       </c>
-      <c r="C27" s="332"/>
-      <c r="D27" s="332"/>
-      <c r="E27" s="332"/>
-      <c r="F27" s="332"/>
-      <c r="G27" s="332"/>
+      <c r="C27" s="330"/>
+      <c r="D27" s="330"/>
+      <c r="E27" s="330"/>
+      <c r="F27" s="330"/>
+      <c r="G27" s="330"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="150" t="s">
         <v>630</v>
       </c>
-      <c r="C28" s="332"/>
-      <c r="D28" s="332"/>
-      <c r="E28" s="332"/>
-      <c r="F28" s="332"/>
-      <c r="G28" s="332"/>
+      <c r="C28" s="330"/>
+      <c r="D28" s="330"/>
+      <c r="E28" s="330"/>
+      <c r="F28" s="330"/>
+      <c r="G28" s="330"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="150" t="s">
         <v>631</v>
       </c>
-      <c r="C29" s="332"/>
-      <c r="D29" s="332"/>
-      <c r="E29" s="332"/>
-      <c r="F29" s="332"/>
-      <c r="G29" s="332"/>
+      <c r="C29" s="330"/>
+      <c r="D29" s="330"/>
+      <c r="E29" s="330"/>
+      <c r="F29" s="330"/>
+      <c r="G29" s="330"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="150" t="s">
         <v>632</v>
       </c>
-      <c r="C30" s="332"/>
-      <c r="D30" s="332"/>
-      <c r="E30" s="332"/>
-      <c r="F30" s="332"/>
-      <c r="G30" s="332"/>
+      <c r="C30" s="330"/>
+      <c r="D30" s="330"/>
+      <c r="E30" s="330"/>
+      <c r="F30" s="330"/>
+      <c r="G30" s="330"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="150" t="s">
         <v>633</v>
       </c>
-      <c r="C31" s="332"/>
-      <c r="D31" s="332"/>
-      <c r="E31" s="332"/>
-      <c r="F31" s="332"/>
-      <c r="G31" s="332"/>
+      <c r="C31" s="330"/>
+      <c r="D31" s="330"/>
+      <c r="E31" s="330"/>
+      <c r="F31" s="330"/>
+      <c r="G31" s="330"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="150" t="s">
         <v>634</v>
       </c>
-      <c r="C32" s="332"/>
-      <c r="D32" s="332"/>
-      <c r="E32" s="332"/>
-      <c r="F32" s="332"/>
-      <c r="G32" s="332"/>
+      <c r="C32" s="330"/>
+      <c r="D32" s="330"/>
+      <c r="E32" s="330"/>
+      <c r="F32" s="330"/>
+      <c r="G32" s="330"/>
     </row>
     <row r="33" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="150" t="s">
         <v>635</v>
       </c>
-      <c r="C33" s="333" t="s">
+      <c r="C33" s="331" t="s">
         <v>549</v>
       </c>
-      <c r="D33" s="333"/>
-      <c r="E33" s="333"/>
-      <c r="F33" s="333"/>
-      <c r="G33" s="333"/>
+      <c r="D33" s="331"/>
+      <c r="E33" s="331"/>
+      <c r="F33" s="331"/>
+      <c r="G33" s="331"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="150" t="s">
         <v>636</v>
       </c>
-      <c r="C34" s="334" t="n">
+      <c r="C34" s="332" t="n">
         <v>1</v>
       </c>
-      <c r="D34" s="344" t="str">
+      <c r="D34" s="342" t="str">
         <f aca="false">A25</f>
         <v>[:huomiot :valaistus-muut :toimenpide 0 :nimi-sv]</v>
       </c>
-      <c r="E34" s="344"/>
-      <c r="F34" s="344"/>
-      <c r="G34" s="344"/>
+      <c r="E34" s="342"/>
+      <c r="F34" s="342"/>
+      <c r="G34" s="342"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="150" t="s">
         <v>637</v>
       </c>
-      <c r="C35" s="334" t="n">
+      <c r="C35" s="332" t="n">
         <v>2</v>
       </c>
-      <c r="D35" s="344" t="str">
+      <c r="D35" s="342" t="str">
         <f aca="false">A27</f>
         <v>[:huomiot :valaistus-muut :toimenpide 1 :nimi-sv]</v>
       </c>
-      <c r="E35" s="344"/>
-      <c r="F35" s="344"/>
-      <c r="G35" s="344"/>
+      <c r="E35" s="342"/>
+      <c r="F35" s="342"/>
+      <c r="G35" s="342"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="150" t="s">
         <v>638</v>
       </c>
-      <c r="C36" s="334" t="n">
+      <c r="C36" s="332" t="n">
         <v>3</v>
       </c>
-      <c r="D36" s="344" t="str">
+      <c r="D36" s="342" t="str">
         <f aca="false">A28</f>
         <v>[:huomiot :valaistus-muut :toimenpide 2 :nimi-fi]</v>
       </c>
-      <c r="E36" s="344"/>
-      <c r="F36" s="344"/>
-      <c r="G36" s="344"/>
+      <c r="E36" s="342"/>
+      <c r="F36" s="342"/>
+      <c r="G36" s="342"/>
     </row>
     <row r="37" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="150" t="s">
         <v>639</v>
       </c>
-      <c r="C37" s="336"/>
-      <c r="D37" s="337" t="s">
+      <c r="C37" s="334"/>
+      <c r="D37" s="335" t="s">
         <v>554</v>
       </c>
-      <c r="E37" s="337" t="s">
+      <c r="E37" s="335" t="s">
         <v>555</v>
       </c>
-      <c r="F37" s="337" t="s">
+      <c r="F37" s="335" t="s">
         <v>556</v>
       </c>
-      <c r="G37" s="338" t="s">
+      <c r="G37" s="336" t="s">
         <v>557</v>
       </c>
     </row>
@@ -30748,7 +30740,7 @@
       <c r="A38" s="150" t="s">
         <v>640</v>
       </c>
-      <c r="C38" s="336"/>
+      <c r="C38" s="334"/>
       <c r="D38" s="108" t="s">
         <v>106</v>
       </c>
@@ -30766,22 +30758,22 @@
       <c r="A39" s="150" t="s">
         <v>641</v>
       </c>
-      <c r="C39" s="334" t="n">
+      <c r="C39" s="332" t="n">
         <v>1</v>
       </c>
-      <c r="D39" s="339" t="str">
+      <c r="D39" s="337" t="str">
         <f aca="false">A30</f>
         <v>[:huomiot :valaistus-muut :toimenpide 0 :lampo]</v>
       </c>
-      <c r="E39" s="339" t="str">
+      <c r="E39" s="337" t="str">
         <f aca="false">A31</f>
         <v>[:huomiot :valaistus-muut :toimenpide 0 :sahko]</v>
       </c>
-      <c r="F39" s="339" t="str">
+      <c r="F39" s="337" t="str">
         <f aca="false">A32</f>
         <v>[:huomiot :valaistus-muut :toimenpide 0 :jaahdytys]</v>
       </c>
-      <c r="G39" s="339" t="str">
+      <c r="G39" s="337" t="str">
         <f aca="false">A33</f>
         <v>[:huomiot :valaistus-muut :toimenpide 0 :eluvun-muutos]</v>
       </c>
@@ -30790,22 +30782,22 @@
       <c r="A40" s="150" t="s">
         <v>642</v>
       </c>
-      <c r="C40" s="334" t="n">
+      <c r="C40" s="332" t="n">
         <v>2</v>
       </c>
-      <c r="D40" s="339" t="str">
+      <c r="D40" s="337" t="str">
         <f aca="false">A34</f>
         <v>[:huomiot :valaistus-muut :toimenpide 1 :lampo]</v>
       </c>
-      <c r="E40" s="339" t="str">
+      <c r="E40" s="337" t="str">
         <f aca="false">A35</f>
         <v>[:huomiot :valaistus-muut :toimenpide 1 :sahko]</v>
       </c>
-      <c r="F40" s="339" t="str">
+      <c r="F40" s="337" t="str">
         <f aca="false">A36</f>
         <v>[:huomiot :valaistus-muut :toimenpide 1 :jaahdytys]</v>
       </c>
-      <c r="G40" s="339" t="str">
+      <c r="G40" s="337" t="str">
         <f aca="false">A37</f>
         <v>[:huomiot :valaistus-muut :toimenpide 1 :eluvun-muutos]</v>
       </c>
@@ -30814,22 +30806,22 @@
       <c r="A41" s="150" t="s">
         <v>643</v>
       </c>
-      <c r="C41" s="334" t="n">
+      <c r="C41" s="332" t="n">
         <v>3</v>
       </c>
-      <c r="D41" s="339" t="str">
+      <c r="D41" s="337" t="str">
         <f aca="false">A38</f>
         <v>[:huomiot :valaistus-muut :toimenpide 2 :lampo]</v>
       </c>
-      <c r="E41" s="339" t="str">
+      <c r="E41" s="337" t="str">
         <f aca="false">A39</f>
         <v>[:huomiot :valaistus-muut :toimenpide 2 :sahko]</v>
       </c>
-      <c r="F41" s="339" t="str">
+      <c r="F41" s="337" t="str">
         <f aca="false">A40</f>
         <v>[:huomiot :valaistus-muut :toimenpide 2 :jaahdytys]</v>
       </c>
-      <c r="G41" s="339" t="str">
+      <c r="G41" s="337" t="str">
         <f aca="false">A41</f>
         <v>[:huomiot :valaistus-muut :toimenpide 2 :eluvun-muutos]</v>
       </c>
@@ -30838,145 +30830,145 @@
       <c r="A42" s="150" t="s">
         <v>644</v>
       </c>
-      <c r="C42" s="340" t="s">
+      <c r="C42" s="338" t="s">
         <v>645</v>
       </c>
-      <c r="D42" s="342"/>
-      <c r="E42" s="345"/>
+      <c r="D42" s="340"/>
+      <c r="E42" s="343"/>
       <c r="F42" s="30"/>
-      <c r="G42" s="341"/>
+      <c r="G42" s="339"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="150" t="s">
         <v>646</v>
       </c>
-      <c r="C43" s="332" t="str">
+      <c r="C43" s="330" t="str">
         <f aca="false">A43</f>
         <v>[:huomiot :suositukset-sv]</v>
       </c>
-      <c r="D43" s="332"/>
-      <c r="E43" s="332"/>
-      <c r="F43" s="332"/>
-      <c r="G43" s="332"/>
+      <c r="D43" s="330"/>
+      <c r="E43" s="330"/>
+      <c r="F43" s="330"/>
+      <c r="G43" s="330"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="150" t="s">
         <v>647</v>
       </c>
-      <c r="C44" s="332"/>
-      <c r="D44" s="332"/>
-      <c r="E44" s="332"/>
-      <c r="F44" s="332"/>
-      <c r="G44" s="332"/>
+      <c r="C44" s="330"/>
+      <c r="D44" s="330"/>
+      <c r="E44" s="330"/>
+      <c r="F44" s="330"/>
+      <c r="G44" s="330"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="150" t="s">
         <v>648</v>
       </c>
-      <c r="C45" s="332"/>
-      <c r="D45" s="332"/>
-      <c r="E45" s="332"/>
-      <c r="F45" s="332"/>
-      <c r="G45" s="332"/>
+      <c r="C45" s="330"/>
+      <c r="D45" s="330"/>
+      <c r="E45" s="330"/>
+      <c r="F45" s="330"/>
+      <c r="G45" s="330"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="150"/>
-      <c r="C46" s="332"/>
-      <c r="D46" s="332"/>
-      <c r="E46" s="332"/>
-      <c r="F46" s="332"/>
-      <c r="G46" s="332"/>
+      <c r="C46" s="330"/>
+      <c r="D46" s="330"/>
+      <c r="E46" s="330"/>
+      <c r="F46" s="330"/>
+      <c r="G46" s="330"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="150"/>
-      <c r="C47" s="332"/>
-      <c r="D47" s="332"/>
-      <c r="E47" s="332"/>
-      <c r="F47" s="332"/>
-      <c r="G47" s="332"/>
+      <c r="C47" s="330"/>
+      <c r="D47" s="330"/>
+      <c r="E47" s="330"/>
+      <c r="F47" s="330"/>
+      <c r="G47" s="330"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="150"/>
-      <c r="C48" s="332"/>
-      <c r="D48" s="332"/>
-      <c r="E48" s="332"/>
-      <c r="F48" s="332"/>
-      <c r="G48" s="332"/>
+      <c r="C48" s="330"/>
+      <c r="D48" s="330"/>
+      <c r="E48" s="330"/>
+      <c r="F48" s="330"/>
+      <c r="G48" s="330"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="150"/>
-      <c r="C49" s="332"/>
-      <c r="D49" s="332"/>
-      <c r="E49" s="332"/>
-      <c r="F49" s="332"/>
-      <c r="G49" s="332"/>
+      <c r="C49" s="330"/>
+      <c r="D49" s="330"/>
+      <c r="E49" s="330"/>
+      <c r="F49" s="330"/>
+      <c r="G49" s="330"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="150"/>
-      <c r="C50" s="332"/>
-      <c r="D50" s="332"/>
-      <c r="E50" s="332"/>
-      <c r="F50" s="332"/>
-      <c r="G50" s="332"/>
+      <c r="C50" s="330"/>
+      <c r="D50" s="330"/>
+      <c r="E50" s="330"/>
+      <c r="F50" s="330"/>
+      <c r="G50" s="330"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="150"/>
-      <c r="C51" s="332"/>
-      <c r="D51" s="332"/>
-      <c r="E51" s="332"/>
-      <c r="F51" s="332"/>
-      <c r="G51" s="332"/>
+      <c r="C51" s="330"/>
+      <c r="D51" s="330"/>
+      <c r="E51" s="330"/>
+      <c r="F51" s="330"/>
+      <c r="G51" s="330"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="150"/>
-      <c r="C52" s="332"/>
-      <c r="D52" s="332"/>
-      <c r="E52" s="332"/>
-      <c r="F52" s="332"/>
-      <c r="G52" s="332"/>
+      <c r="C52" s="330"/>
+      <c r="D52" s="330"/>
+      <c r="E52" s="330"/>
+      <c r="F52" s="330"/>
+      <c r="G52" s="330"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="150"/>
-      <c r="C53" s="332"/>
-      <c r="D53" s="332"/>
-      <c r="E53" s="332"/>
-      <c r="F53" s="332"/>
-      <c r="G53" s="332"/>
+      <c r="C53" s="330"/>
+      <c r="D53" s="330"/>
+      <c r="E53" s="330"/>
+      <c r="F53" s="330"/>
+      <c r="G53" s="330"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="150"/>
-      <c r="C54" s="332"/>
-      <c r="D54" s="332"/>
-      <c r="E54" s="332"/>
-      <c r="F54" s="332"/>
-      <c r="G54" s="332"/>
+      <c r="C54" s="330"/>
+      <c r="D54" s="330"/>
+      <c r="E54" s="330"/>
+      <c r="F54" s="330"/>
+      <c r="G54" s="330"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="150"/>
-      <c r="C55" s="332"/>
-      <c r="D55" s="332"/>
-      <c r="E55" s="332"/>
-      <c r="F55" s="332"/>
-      <c r="G55" s="332"/>
+      <c r="C55" s="330"/>
+      <c r="D55" s="330"/>
+      <c r="E55" s="330"/>
+      <c r="F55" s="330"/>
+      <c r="G55" s="330"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="150"/>
-      <c r="C56" s="332"/>
-      <c r="D56" s="332"/>
-      <c r="E56" s="332"/>
-      <c r="F56" s="332"/>
-      <c r="G56" s="332"/>
+      <c r="C56" s="330"/>
+      <c r="D56" s="330"/>
+      <c r="E56" s="330"/>
+      <c r="F56" s="330"/>
+      <c r="G56" s="330"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="150"/>
-      <c r="C57" s="332"/>
-      <c r="D57" s="332"/>
-      <c r="E57" s="332"/>
-      <c r="F57" s="332"/>
-      <c r="G57" s="332"/>
+      <c r="C57" s="330"/>
+      <c r="D57" s="330"/>
+      <c r="E57" s="330"/>
+      <c r="F57" s="330"/>
+      <c r="G57" s="330"/>
     </row>
     <row r="58" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C58" s="331" t="s">
+      <c r="C58" s="329" t="s">
         <v>649</v>
       </c>
       <c r="D58" s="94"/>
@@ -30994,48 +30986,48 @@
     </row>
     <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="150"/>
-      <c r="C60" s="307" t="s">
+      <c r="C60" s="305" t="s">
         <v>650</v>
       </c>
-      <c r="D60" s="307"/>
-      <c r="E60" s="307"/>
-      <c r="F60" s="307"/>
-      <c r="G60" s="307"/>
+      <c r="D60" s="305"/>
+      <c r="E60" s="305"/>
+      <c r="F60" s="305"/>
+      <c r="G60" s="305"/>
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="150"/>
-      <c r="C61" s="332" t="str">
+      <c r="C61" s="330" t="str">
         <f aca="false">A45</f>
         <v>[:huomiot :lisatietoja-sv]</v>
       </c>
-      <c r="D61" s="332"/>
-      <c r="E61" s="332"/>
-      <c r="F61" s="332"/>
-      <c r="G61" s="332"/>
+      <c r="D61" s="330"/>
+      <c r="E61" s="330"/>
+      <c r="F61" s="330"/>
+      <c r="G61" s="330"/>
     </row>
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="150"/>
-      <c r="C62" s="332"/>
-      <c r="D62" s="332"/>
-      <c r="E62" s="332"/>
-      <c r="F62" s="332"/>
-      <c r="G62" s="332"/>
+      <c r="C62" s="330"/>
+      <c r="D62" s="330"/>
+      <c r="E62" s="330"/>
+      <c r="F62" s="330"/>
+      <c r="G62" s="330"/>
     </row>
     <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="150"/>
-      <c r="C63" s="332"/>
-      <c r="D63" s="332"/>
-      <c r="E63" s="332"/>
-      <c r="F63" s="332"/>
-      <c r="G63" s="332"/>
+      <c r="C63" s="330"/>
+      <c r="D63" s="330"/>
+      <c r="E63" s="330"/>
+      <c r="F63" s="330"/>
+      <c r="G63" s="330"/>
     </row>
     <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="150"/>
-      <c r="C64" s="332"/>
-      <c r="D64" s="332"/>
-      <c r="E64" s="332"/>
-      <c r="F64" s="332"/>
-      <c r="G64" s="332"/>
+      <c r="C64" s="330"/>
+      <c r="D64" s="330"/>
+      <c r="E64" s="330"/>
+      <c r="F64" s="330"/>
+      <c r="G64" s="330"/>
     </row>
     <row r="65" customFormat="false" ht="5.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C65" s="143"/>
@@ -31171,7 +31163,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="326" width="25.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="324" width="25.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="0.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="4" width="5.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="4" style="4" width="15.71"/>
@@ -31180,7 +31172,7 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="326" t="s">
+      <c r="A1" s="324" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="5"/>
@@ -31189,777 +31181,777 @@
       <c r="A2" s="150" t="s">
         <v>651</v>
       </c>
-      <c r="C2" s="346" t="s">
+      <c r="C2" s="344" t="s">
         <v>652</v>
       </c>
-      <c r="D2" s="346"/>
-      <c r="E2" s="346"/>
-      <c r="F2" s="346"/>
-      <c r="G2" s="346"/>
-      <c r="H2" s="346"/>
-      <c r="I2" s="346"/>
+      <c r="D2" s="344"/>
+      <c r="E2" s="344"/>
+      <c r="F2" s="344"/>
+      <c r="G2" s="344"/>
+      <c r="H2" s="344"/>
+      <c r="I2" s="344"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="326" t="s">
+      <c r="A3" s="324" t="s">
         <v>653</v>
       </c>
-      <c r="C3" s="332" t="str">
+      <c r="C3" s="330" t="str">
         <f aca="false">A3</f>
         <v>[:lisamerkintoja-sv]</v>
       </c>
-      <c r="D3" s="332"/>
-      <c r="E3" s="332"/>
-      <c r="F3" s="332"/>
-      <c r="G3" s="332"/>
-      <c r="H3" s="332"/>
-      <c r="I3" s="332"/>
+      <c r="D3" s="330"/>
+      <c r="E3" s="330"/>
+      <c r="F3" s="330"/>
+      <c r="G3" s="330"/>
+      <c r="H3" s="330"/>
+      <c r="I3" s="330"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="326" t="s">
+      <c r="A4" s="324" t="s">
         <v>654</v>
       </c>
-      <c r="C4" s="332"/>
-      <c r="D4" s="332"/>
-      <c r="E4" s="332"/>
-      <c r="F4" s="332"/>
-      <c r="G4" s="332"/>
-      <c r="H4" s="332"/>
-      <c r="I4" s="332"/>
+      <c r="C4" s="330"/>
+      <c r="D4" s="330"/>
+      <c r="E4" s="330"/>
+      <c r="F4" s="330"/>
+      <c r="G4" s="330"/>
+      <c r="H4" s="330"/>
+      <c r="I4" s="330"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="326" t="s">
+      <c r="A5" s="324" t="s">
         <v>655</v>
       </c>
-      <c r="C5" s="332"/>
-      <c r="D5" s="332"/>
-      <c r="E5" s="332"/>
-      <c r="F5" s="332"/>
-      <c r="G5" s="332"/>
-      <c r="H5" s="332"/>
-      <c r="I5" s="332"/>
+      <c r="C5" s="330"/>
+      <c r="D5" s="330"/>
+      <c r="E5" s="330"/>
+      <c r="F5" s="330"/>
+      <c r="G5" s="330"/>
+      <c r="H5" s="330"/>
+      <c r="I5" s="330"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="326" t="s">
+      <c r="A6" s="324" t="s">
         <v>656</v>
       </c>
-      <c r="C6" s="332"/>
-      <c r="D6" s="332"/>
-      <c r="E6" s="332"/>
-      <c r="F6" s="332"/>
-      <c r="G6" s="332"/>
-      <c r="H6" s="332"/>
-      <c r="I6" s="332"/>
+      <c r="C6" s="330"/>
+      <c r="D6" s="330"/>
+      <c r="E6" s="330"/>
+      <c r="F6" s="330"/>
+      <c r="G6" s="330"/>
+      <c r="H6" s="330"/>
+      <c r="I6" s="330"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="326" t="s">
+      <c r="A7" s="324" t="s">
         <v>657</v>
       </c>
-      <c r="C7" s="332"/>
-      <c r="D7" s="332"/>
-      <c r="E7" s="332"/>
-      <c r="F7" s="332"/>
-      <c r="G7" s="332"/>
-      <c r="H7" s="332"/>
-      <c r="I7" s="332"/>
+      <c r="C7" s="330"/>
+      <c r="D7" s="330"/>
+      <c r="E7" s="330"/>
+      <c r="F7" s="330"/>
+      <c r="G7" s="330"/>
+      <c r="H7" s="330"/>
+      <c r="I7" s="330"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="326" t="s">
+      <c r="A8" s="324" t="s">
         <v>658</v>
       </c>
-      <c r="C8" s="332"/>
-      <c r="D8" s="332"/>
-      <c r="E8" s="332"/>
-      <c r="F8" s="332"/>
-      <c r="G8" s="332"/>
-      <c r="H8" s="332"/>
-      <c r="I8" s="332"/>
+      <c r="C8" s="330"/>
+      <c r="D8" s="330"/>
+      <c r="E8" s="330"/>
+      <c r="F8" s="330"/>
+      <c r="G8" s="330"/>
+      <c r="H8" s="330"/>
+      <c r="I8" s="330"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="326" t="s">
+      <c r="A9" s="324" t="s">
         <v>659</v>
       </c>
-      <c r="C9" s="332"/>
-      <c r="D9" s="332"/>
-      <c r="E9" s="332"/>
-      <c r="F9" s="332"/>
-      <c r="G9" s="332"/>
-      <c r="H9" s="332"/>
-      <c r="I9" s="332"/>
+      <c r="C9" s="330"/>
+      <c r="D9" s="330"/>
+      <c r="E9" s="330"/>
+      <c r="F9" s="330"/>
+      <c r="G9" s="330"/>
+      <c r="H9" s="330"/>
+      <c r="I9" s="330"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="326" t="s">
+      <c r="A10" s="324" t="s">
         <v>660</v>
       </c>
-      <c r="C10" s="332"/>
-      <c r="D10" s="332"/>
-      <c r="E10" s="332"/>
-      <c r="F10" s="332"/>
-      <c r="G10" s="332"/>
-      <c r="H10" s="332"/>
-      <c r="I10" s="332"/>
+      <c r="C10" s="330"/>
+      <c r="D10" s="330"/>
+      <c r="E10" s="330"/>
+      <c r="F10" s="330"/>
+      <c r="G10" s="330"/>
+      <c r="H10" s="330"/>
+      <c r="I10" s="330"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="326" t="s">
+      <c r="A11" s="324" t="s">
         <v>661</v>
       </c>
-      <c r="C11" s="332"/>
-      <c r="D11" s="332"/>
-      <c r="E11" s="332"/>
-      <c r="F11" s="332"/>
-      <c r="G11" s="332"/>
-      <c r="H11" s="332"/>
-      <c r="I11" s="332"/>
+      <c r="C11" s="330"/>
+      <c r="D11" s="330"/>
+      <c r="E11" s="330"/>
+      <c r="F11" s="330"/>
+      <c r="G11" s="330"/>
+      <c r="H11" s="330"/>
+      <c r="I11" s="330"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="326" t="s">
+      <c r="A12" s="324" t="s">
         <v>662</v>
       </c>
-      <c r="C12" s="332"/>
-      <c r="D12" s="332"/>
-      <c r="E12" s="332"/>
-      <c r="F12" s="332"/>
-      <c r="G12" s="332"/>
-      <c r="H12" s="332"/>
-      <c r="I12" s="332"/>
+      <c r="C12" s="330"/>
+      <c r="D12" s="330"/>
+      <c r="E12" s="330"/>
+      <c r="F12" s="330"/>
+      <c r="G12" s="330"/>
+      <c r="H12" s="330"/>
+      <c r="I12" s="330"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="326" t="s">
+      <c r="A13" s="324" t="s">
         <v>663</v>
       </c>
-      <c r="C13" s="332"/>
-      <c r="D13" s="332"/>
-      <c r="E13" s="332"/>
-      <c r="F13" s="332"/>
-      <c r="G13" s="332"/>
-      <c r="H13" s="332"/>
-      <c r="I13" s="332"/>
+      <c r="C13" s="330"/>
+      <c r="D13" s="330"/>
+      <c r="E13" s="330"/>
+      <c r="F13" s="330"/>
+      <c r="G13" s="330"/>
+      <c r="H13" s="330"/>
+      <c r="I13" s="330"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="326" t="s">
+      <c r="A14" s="324" t="s">
         <v>664</v>
       </c>
-      <c r="C14" s="332"/>
-      <c r="D14" s="332"/>
-      <c r="E14" s="332"/>
-      <c r="F14" s="332"/>
-      <c r="G14" s="332"/>
-      <c r="H14" s="332"/>
-      <c r="I14" s="332"/>
+      <c r="C14" s="330"/>
+      <c r="D14" s="330"/>
+      <c r="E14" s="330"/>
+      <c r="F14" s="330"/>
+      <c r="G14" s="330"/>
+      <c r="H14" s="330"/>
+      <c r="I14" s="330"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="326" t="s">
+      <c r="A15" s="324" t="s">
         <v>665</v>
       </c>
-      <c r="C15" s="332"/>
-      <c r="D15" s="332"/>
-      <c r="E15" s="332"/>
-      <c r="F15" s="332"/>
-      <c r="G15" s="332"/>
-      <c r="H15" s="332"/>
-      <c r="I15" s="332"/>
+      <c r="C15" s="330"/>
+      <c r="D15" s="330"/>
+      <c r="E15" s="330"/>
+      <c r="F15" s="330"/>
+      <c r="G15" s="330"/>
+      <c r="H15" s="330"/>
+      <c r="I15" s="330"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="326" t="s">
+      <c r="A16" s="324" t="s">
         <v>666</v>
       </c>
-      <c r="C16" s="332"/>
-      <c r="D16" s="332"/>
-      <c r="E16" s="332"/>
-      <c r="F16" s="332"/>
-      <c r="G16" s="332"/>
-      <c r="H16" s="332"/>
-      <c r="I16" s="332"/>
+      <c r="C16" s="330"/>
+      <c r="D16" s="330"/>
+      <c r="E16" s="330"/>
+      <c r="F16" s="330"/>
+      <c r="G16" s="330"/>
+      <c r="H16" s="330"/>
+      <c r="I16" s="330"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="326" t="s">
+      <c r="A17" s="324" t="s">
         <v>667</v>
       </c>
-      <c r="C17" s="332"/>
-      <c r="D17" s="332"/>
-      <c r="E17" s="332"/>
-      <c r="F17" s="332"/>
-      <c r="G17" s="332"/>
-      <c r="H17" s="332"/>
-      <c r="I17" s="332"/>
+      <c r="C17" s="330"/>
+      <c r="D17" s="330"/>
+      <c r="E17" s="330"/>
+      <c r="F17" s="330"/>
+      <c r="G17" s="330"/>
+      <c r="H17" s="330"/>
+      <c r="I17" s="330"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="326" t="s">
+      <c r="A18" s="324" t="s">
         <v>668</v>
       </c>
-      <c r="C18" s="332"/>
-      <c r="D18" s="332"/>
-      <c r="E18" s="332"/>
-      <c r="F18" s="332"/>
-      <c r="G18" s="332"/>
-      <c r="H18" s="332"/>
-      <c r="I18" s="332"/>
+      <c r="C18" s="330"/>
+      <c r="D18" s="330"/>
+      <c r="E18" s="330"/>
+      <c r="F18" s="330"/>
+      <c r="G18" s="330"/>
+      <c r="H18" s="330"/>
+      <c r="I18" s="330"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="326" t="s">
+      <c r="A19" s="324" t="s">
         <v>669</v>
       </c>
-      <c r="C19" s="332"/>
-      <c r="D19" s="332"/>
-      <c r="E19" s="332"/>
-      <c r="F19" s="332"/>
-      <c r="G19" s="332"/>
-      <c r="H19" s="332"/>
-      <c r="I19" s="332"/>
+      <c r="C19" s="330"/>
+      <c r="D19" s="330"/>
+      <c r="E19" s="330"/>
+      <c r="F19" s="330"/>
+      <c r="G19" s="330"/>
+      <c r="H19" s="330"/>
+      <c r="I19" s="330"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="326" t="s">
+      <c r="A20" s="324" t="s">
         <v>670</v>
       </c>
-      <c r="C20" s="332"/>
-      <c r="D20" s="332"/>
-      <c r="E20" s="332"/>
-      <c r="F20" s="332"/>
-      <c r="G20" s="332"/>
-      <c r="H20" s="332"/>
-      <c r="I20" s="332"/>
+      <c r="C20" s="330"/>
+      <c r="D20" s="330"/>
+      <c r="E20" s="330"/>
+      <c r="F20" s="330"/>
+      <c r="G20" s="330"/>
+      <c r="H20" s="330"/>
+      <c r="I20" s="330"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="326" t="s">
+      <c r="A21" s="324" t="s">
         <v>671</v>
       </c>
-      <c r="C21" s="332"/>
-      <c r="D21" s="332"/>
-      <c r="E21" s="332"/>
-      <c r="F21" s="332"/>
-      <c r="G21" s="332"/>
-      <c r="H21" s="332"/>
-      <c r="I21" s="332"/>
+      <c r="C21" s="330"/>
+      <c r="D21" s="330"/>
+      <c r="E21" s="330"/>
+      <c r="F21" s="330"/>
+      <c r="G21" s="330"/>
+      <c r="H21" s="330"/>
+      <c r="I21" s="330"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="326" t="s">
+      <c r="A22" s="324" t="s">
         <v>672</v>
       </c>
-      <c r="C22" s="332"/>
-      <c r="D22" s="332"/>
-      <c r="E22" s="332"/>
-      <c r="F22" s="332"/>
-      <c r="G22" s="332"/>
-      <c r="H22" s="332"/>
-      <c r="I22" s="332"/>
+      <c r="C22" s="330"/>
+      <c r="D22" s="330"/>
+      <c r="E22" s="330"/>
+      <c r="F22" s="330"/>
+      <c r="G22" s="330"/>
+      <c r="H22" s="330"/>
+      <c r="I22" s="330"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="326" t="s">
+      <c r="A23" s="324" t="s">
         <v>673</v>
       </c>
-      <c r="C23" s="332"/>
-      <c r="D23" s="332"/>
-      <c r="E23" s="332"/>
-      <c r="F23" s="332"/>
-      <c r="G23" s="332"/>
-      <c r="H23" s="332"/>
-      <c r="I23" s="332"/>
+      <c r="C23" s="330"/>
+      <c r="D23" s="330"/>
+      <c r="E23" s="330"/>
+      <c r="F23" s="330"/>
+      <c r="G23" s="330"/>
+      <c r="H23" s="330"/>
+      <c r="I23" s="330"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="326" t="s">
+      <c r="A24" s="324" t="s">
         <v>674</v>
       </c>
-      <c r="C24" s="332"/>
-      <c r="D24" s="332"/>
-      <c r="E24" s="332"/>
-      <c r="F24" s="332"/>
-      <c r="G24" s="332"/>
-      <c r="H24" s="332"/>
-      <c r="I24" s="332"/>
+      <c r="C24" s="330"/>
+      <c r="D24" s="330"/>
+      <c r="E24" s="330"/>
+      <c r="F24" s="330"/>
+      <c r="G24" s="330"/>
+      <c r="H24" s="330"/>
+      <c r="I24" s="330"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="326" t="s">
+      <c r="A25" s="324" t="s">
         <v>675</v>
       </c>
-      <c r="C25" s="332"/>
-      <c r="D25" s="332"/>
-      <c r="E25" s="332"/>
-      <c r="F25" s="332"/>
-      <c r="G25" s="332"/>
-      <c r="H25" s="332"/>
-      <c r="I25" s="332"/>
+      <c r="C25" s="330"/>
+      <c r="D25" s="330"/>
+      <c r="E25" s="330"/>
+      <c r="F25" s="330"/>
+      <c r="G25" s="330"/>
+      <c r="H25" s="330"/>
+      <c r="I25" s="330"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="326" t="s">
+      <c r="A26" s="324" t="s">
         <v>676</v>
       </c>
-      <c r="C26" s="332"/>
-      <c r="D26" s="332"/>
-      <c r="E26" s="332"/>
-      <c r="F26" s="332"/>
-      <c r="G26" s="332"/>
-      <c r="H26" s="332"/>
-      <c r="I26" s="332"/>
+      <c r="C26" s="330"/>
+      <c r="D26" s="330"/>
+      <c r="E26" s="330"/>
+      <c r="F26" s="330"/>
+      <c r="G26" s="330"/>
+      <c r="H26" s="330"/>
+      <c r="I26" s="330"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="326" t="s">
+      <c r="A27" s="324" t="s">
         <v>677</v>
       </c>
-      <c r="C27" s="332"/>
-      <c r="D27" s="332"/>
-      <c r="E27" s="332"/>
-      <c r="F27" s="332"/>
-      <c r="G27" s="332"/>
-      <c r="H27" s="332"/>
-      <c r="I27" s="332"/>
+      <c r="C27" s="330"/>
+      <c r="D27" s="330"/>
+      <c r="E27" s="330"/>
+      <c r="F27" s="330"/>
+      <c r="G27" s="330"/>
+      <c r="H27" s="330"/>
+      <c r="I27" s="330"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="326" t="s">
+      <c r="A28" s="324" t="s">
         <v>678</v>
       </c>
-      <c r="C28" s="332"/>
-      <c r="D28" s="332"/>
-      <c r="E28" s="332"/>
-      <c r="F28" s="332"/>
-      <c r="G28" s="332"/>
-      <c r="H28" s="332"/>
-      <c r="I28" s="332"/>
+      <c r="C28" s="330"/>
+      <c r="D28" s="330"/>
+      <c r="E28" s="330"/>
+      <c r="F28" s="330"/>
+      <c r="G28" s="330"/>
+      <c r="H28" s="330"/>
+      <c r="I28" s="330"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="326" t="s">
+      <c r="A29" s="324" t="s">
         <v>679</v>
       </c>
-      <c r="C29" s="332"/>
-      <c r="D29" s="332"/>
-      <c r="E29" s="332"/>
-      <c r="F29" s="332"/>
-      <c r="G29" s="332"/>
-      <c r="H29" s="332"/>
-      <c r="I29" s="332"/>
+      <c r="C29" s="330"/>
+      <c r="D29" s="330"/>
+      <c r="E29" s="330"/>
+      <c r="F29" s="330"/>
+      <c r="G29" s="330"/>
+      <c r="H29" s="330"/>
+      <c r="I29" s="330"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="326" t="s">
+      <c r="A30" s="324" t="s">
         <v>680</v>
       </c>
-      <c r="C30" s="332"/>
-      <c r="D30" s="332"/>
-      <c r="E30" s="332"/>
-      <c r="F30" s="332"/>
-      <c r="G30" s="332"/>
-      <c r="H30" s="332"/>
-      <c r="I30" s="332"/>
+      <c r="C30" s="330"/>
+      <c r="D30" s="330"/>
+      <c r="E30" s="330"/>
+      <c r="F30" s="330"/>
+      <c r="G30" s="330"/>
+      <c r="H30" s="330"/>
+      <c r="I30" s="330"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="326" t="s">
+      <c r="A31" s="324" t="s">
         <v>681</v>
       </c>
-      <c r="C31" s="332"/>
-      <c r="D31" s="332"/>
-      <c r="E31" s="332"/>
-      <c r="F31" s="332"/>
-      <c r="G31" s="332"/>
-      <c r="H31" s="332"/>
-      <c r="I31" s="332"/>
+      <c r="C31" s="330"/>
+      <c r="D31" s="330"/>
+      <c r="E31" s="330"/>
+      <c r="F31" s="330"/>
+      <c r="G31" s="330"/>
+      <c r="H31" s="330"/>
+      <c r="I31" s="330"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="326" t="s">
+      <c r="A32" s="324" t="s">
         <v>682</v>
       </c>
-      <c r="C32" s="332"/>
-      <c r="D32" s="332"/>
-      <c r="E32" s="332"/>
-      <c r="F32" s="332"/>
-      <c r="G32" s="332"/>
-      <c r="H32" s="332"/>
-      <c r="I32" s="332"/>
+      <c r="C32" s="330"/>
+      <c r="D32" s="330"/>
+      <c r="E32" s="330"/>
+      <c r="F32" s="330"/>
+      <c r="G32" s="330"/>
+      <c r="H32" s="330"/>
+      <c r="I32" s="330"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="326" t="s">
+      <c r="A33" s="324" t="s">
         <v>683</v>
       </c>
-      <c r="C33" s="332"/>
-      <c r="D33" s="332"/>
-      <c r="E33" s="332"/>
-      <c r="F33" s="332"/>
-      <c r="G33" s="332"/>
-      <c r="H33" s="332"/>
-      <c r="I33" s="332"/>
+      <c r="C33" s="330"/>
+      <c r="D33" s="330"/>
+      <c r="E33" s="330"/>
+      <c r="F33" s="330"/>
+      <c r="G33" s="330"/>
+      <c r="H33" s="330"/>
+      <c r="I33" s="330"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="326" t="s">
+      <c r="A34" s="324" t="s">
         <v>684</v>
       </c>
-      <c r="C34" s="332"/>
-      <c r="D34" s="332"/>
-      <c r="E34" s="332"/>
-      <c r="F34" s="332"/>
-      <c r="G34" s="332"/>
-      <c r="H34" s="332"/>
-      <c r="I34" s="332"/>
+      <c r="C34" s="330"/>
+      <c r="D34" s="330"/>
+      <c r="E34" s="330"/>
+      <c r="F34" s="330"/>
+      <c r="G34" s="330"/>
+      <c r="H34" s="330"/>
+      <c r="I34" s="330"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="326" t="s">
+      <c r="A35" s="324" t="s">
         <v>685</v>
       </c>
-      <c r="C35" s="332"/>
-      <c r="D35" s="332"/>
-      <c r="E35" s="332"/>
-      <c r="F35" s="332"/>
-      <c r="G35" s="332"/>
-      <c r="H35" s="332"/>
-      <c r="I35" s="332"/>
+      <c r="C35" s="330"/>
+      <c r="D35" s="330"/>
+      <c r="E35" s="330"/>
+      <c r="F35" s="330"/>
+      <c r="G35" s="330"/>
+      <c r="H35" s="330"/>
+      <c r="I35" s="330"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="326" t="s">
+      <c r="A36" s="324" t="s">
         <v>686</v>
       </c>
-      <c r="C36" s="332"/>
-      <c r="D36" s="332"/>
-      <c r="E36" s="332"/>
-      <c r="F36" s="332"/>
-      <c r="G36" s="332"/>
-      <c r="H36" s="332"/>
-      <c r="I36" s="332"/>
+      <c r="C36" s="330"/>
+      <c r="D36" s="330"/>
+      <c r="E36" s="330"/>
+      <c r="F36" s="330"/>
+      <c r="G36" s="330"/>
+      <c r="H36" s="330"/>
+      <c r="I36" s="330"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="326" t="s">
+      <c r="A37" s="324" t="s">
         <v>687</v>
       </c>
-      <c r="C37" s="332"/>
-      <c r="D37" s="332"/>
-      <c r="E37" s="332"/>
-      <c r="F37" s="332"/>
-      <c r="G37" s="332"/>
-      <c r="H37" s="332"/>
-      <c r="I37" s="332"/>
+      <c r="C37" s="330"/>
+      <c r="D37" s="330"/>
+      <c r="E37" s="330"/>
+      <c r="F37" s="330"/>
+      <c r="G37" s="330"/>
+      <c r="H37" s="330"/>
+      <c r="I37" s="330"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="326" t="s">
+      <c r="A38" s="324" t="s">
         <v>688</v>
       </c>
-      <c r="C38" s="332"/>
-      <c r="D38" s="332"/>
-      <c r="E38" s="332"/>
-      <c r="F38" s="332"/>
-      <c r="G38" s="332"/>
-      <c r="H38" s="332"/>
-      <c r="I38" s="332"/>
+      <c r="C38" s="330"/>
+      <c r="D38" s="330"/>
+      <c r="E38" s="330"/>
+      <c r="F38" s="330"/>
+      <c r="G38" s="330"/>
+      <c r="H38" s="330"/>
+      <c r="I38" s="330"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="326" t="s">
+      <c r="A39" s="324" t="s">
         <v>689</v>
       </c>
-      <c r="C39" s="332"/>
-      <c r="D39" s="332"/>
-      <c r="E39" s="332"/>
-      <c r="F39" s="332"/>
-      <c r="G39" s="332"/>
-      <c r="H39" s="332"/>
-      <c r="I39" s="332"/>
+      <c r="C39" s="330"/>
+      <c r="D39" s="330"/>
+      <c r="E39" s="330"/>
+      <c r="F39" s="330"/>
+      <c r="G39" s="330"/>
+      <c r="H39" s="330"/>
+      <c r="I39" s="330"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="326" t="s">
+      <c r="A40" s="324" t="s">
         <v>690</v>
       </c>
-      <c r="C40" s="332"/>
-      <c r="D40" s="332"/>
-      <c r="E40" s="332"/>
-      <c r="F40" s="332"/>
-      <c r="G40" s="332"/>
-      <c r="H40" s="332"/>
-      <c r="I40" s="332"/>
+      <c r="C40" s="330"/>
+      <c r="D40" s="330"/>
+      <c r="E40" s="330"/>
+      <c r="F40" s="330"/>
+      <c r="G40" s="330"/>
+      <c r="H40" s="330"/>
+      <c r="I40" s="330"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="326" t="s">
+      <c r="A41" s="324" t="s">
         <v>691</v>
       </c>
-      <c r="C41" s="332"/>
-      <c r="D41" s="332"/>
-      <c r="E41" s="332"/>
-      <c r="F41" s="332"/>
-      <c r="G41" s="332"/>
-      <c r="H41" s="332"/>
-      <c r="I41" s="332"/>
+      <c r="C41" s="330"/>
+      <c r="D41" s="330"/>
+      <c r="E41" s="330"/>
+      <c r="F41" s="330"/>
+      <c r="G41" s="330"/>
+      <c r="H41" s="330"/>
+      <c r="I41" s="330"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="326" t="s">
+      <c r="A42" s="324" t="s">
         <v>692</v>
       </c>
-      <c r="C42" s="332"/>
-      <c r="D42" s="332"/>
-      <c r="E42" s="332"/>
-      <c r="F42" s="332"/>
-      <c r="G42" s="332"/>
-      <c r="H42" s="332"/>
-      <c r="I42" s="332"/>
+      <c r="C42" s="330"/>
+      <c r="D42" s="330"/>
+      <c r="E42" s="330"/>
+      <c r="F42" s="330"/>
+      <c r="G42" s="330"/>
+      <c r="H42" s="330"/>
+      <c r="I42" s="330"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="326" t="s">
+      <c r="A43" s="324" t="s">
         <v>693</v>
       </c>
-      <c r="C43" s="332"/>
-      <c r="D43" s="332"/>
-      <c r="E43" s="332"/>
-      <c r="F43" s="332"/>
-      <c r="G43" s="332"/>
-      <c r="H43" s="332"/>
-      <c r="I43" s="332"/>
+      <c r="C43" s="330"/>
+      <c r="D43" s="330"/>
+      <c r="E43" s="330"/>
+      <c r="F43" s="330"/>
+      <c r="G43" s="330"/>
+      <c r="H43" s="330"/>
+      <c r="I43" s="330"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="326" t="s">
+      <c r="A44" s="324" t="s">
         <v>694</v>
       </c>
-      <c r="C44" s="332"/>
-      <c r="D44" s="332"/>
-      <c r="E44" s="332"/>
-      <c r="F44" s="332"/>
-      <c r="G44" s="332"/>
-      <c r="H44" s="332"/>
-      <c r="I44" s="332"/>
+      <c r="C44" s="330"/>
+      <c r="D44" s="330"/>
+      <c r="E44" s="330"/>
+      <c r="F44" s="330"/>
+      <c r="G44" s="330"/>
+      <c r="H44" s="330"/>
+      <c r="I44" s="330"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="326" t="s">
+      <c r="A45" s="324" t="s">
         <v>695</v>
       </c>
-      <c r="C45" s="332"/>
-      <c r="D45" s="332"/>
-      <c r="E45" s="332"/>
-      <c r="F45" s="332"/>
-      <c r="G45" s="332"/>
-      <c r="H45" s="332"/>
-      <c r="I45" s="332"/>
+      <c r="C45" s="330"/>
+      <c r="D45" s="330"/>
+      <c r="E45" s="330"/>
+      <c r="F45" s="330"/>
+      <c r="G45" s="330"/>
+      <c r="H45" s="330"/>
+      <c r="I45" s="330"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="326" t="s">
+      <c r="A46" s="324" t="s">
         <v>696</v>
       </c>
-      <c r="C46" s="332"/>
-      <c r="D46" s="332"/>
-      <c r="E46" s="332"/>
-      <c r="F46" s="332"/>
-      <c r="G46" s="332"/>
-      <c r="H46" s="332"/>
-      <c r="I46" s="332"/>
+      <c r="C46" s="330"/>
+      <c r="D46" s="330"/>
+      <c r="E46" s="330"/>
+      <c r="F46" s="330"/>
+      <c r="G46" s="330"/>
+      <c r="H46" s="330"/>
+      <c r="I46" s="330"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="326" t="s">
+      <c r="A47" s="324" t="s">
         <v>697</v>
       </c>
-      <c r="C47" s="332"/>
-      <c r="D47" s="332"/>
-      <c r="E47" s="332"/>
-      <c r="F47" s="332"/>
-      <c r="G47" s="332"/>
-      <c r="H47" s="332"/>
-      <c r="I47" s="332"/>
+      <c r="C47" s="330"/>
+      <c r="D47" s="330"/>
+      <c r="E47" s="330"/>
+      <c r="F47" s="330"/>
+      <c r="G47" s="330"/>
+      <c r="H47" s="330"/>
+      <c r="I47" s="330"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="326" t="s">
+      <c r="A48" s="324" t="s">
         <v>698</v>
       </c>
-      <c r="C48" s="332"/>
-      <c r="D48" s="332"/>
-      <c r="E48" s="332"/>
-      <c r="F48" s="332"/>
-      <c r="G48" s="332"/>
-      <c r="H48" s="332"/>
-      <c r="I48" s="332"/>
+      <c r="C48" s="330"/>
+      <c r="D48" s="330"/>
+      <c r="E48" s="330"/>
+      <c r="F48" s="330"/>
+      <c r="G48" s="330"/>
+      <c r="H48" s="330"/>
+      <c r="I48" s="330"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="326" t="s">
+      <c r="A49" s="324" t="s">
         <v>699</v>
       </c>
-      <c r="C49" s="332"/>
-      <c r="D49" s="332"/>
-      <c r="E49" s="332"/>
-      <c r="F49" s="332"/>
-      <c r="G49" s="332"/>
-      <c r="H49" s="332"/>
-      <c r="I49" s="332"/>
+      <c r="C49" s="330"/>
+      <c r="D49" s="330"/>
+      <c r="E49" s="330"/>
+      <c r="F49" s="330"/>
+      <c r="G49" s="330"/>
+      <c r="H49" s="330"/>
+      <c r="I49" s="330"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="326" t="s">
+      <c r="A50" s="324" t="s">
         <v>700</v>
       </c>
-      <c r="C50" s="332"/>
-      <c r="D50" s="332"/>
-      <c r="E50" s="332"/>
-      <c r="F50" s="332"/>
-      <c r="G50" s="332"/>
-      <c r="H50" s="332"/>
-      <c r="I50" s="332"/>
+      <c r="C50" s="330"/>
+      <c r="D50" s="330"/>
+      <c r="E50" s="330"/>
+      <c r="F50" s="330"/>
+      <c r="G50" s="330"/>
+      <c r="H50" s="330"/>
+      <c r="I50" s="330"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="326" t="s">
+      <c r="A51" s="324" t="s">
         <v>701</v>
       </c>
-      <c r="C51" s="332"/>
-      <c r="D51" s="332"/>
-      <c r="E51" s="332"/>
-      <c r="F51" s="332"/>
-      <c r="G51" s="332"/>
-      <c r="H51" s="332"/>
-      <c r="I51" s="332"/>
+      <c r="C51" s="330"/>
+      <c r="D51" s="330"/>
+      <c r="E51" s="330"/>
+      <c r="F51" s="330"/>
+      <c r="G51" s="330"/>
+      <c r="H51" s="330"/>
+      <c r="I51" s="330"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="326" t="s">
+      <c r="A52" s="324" t="s">
         <v>702</v>
       </c>
-      <c r="C52" s="332"/>
-      <c r="D52" s="332"/>
-      <c r="E52" s="332"/>
-      <c r="F52" s="332"/>
-      <c r="G52" s="332"/>
-      <c r="H52" s="332"/>
-      <c r="I52" s="332"/>
+      <c r="C52" s="330"/>
+      <c r="D52" s="330"/>
+      <c r="E52" s="330"/>
+      <c r="F52" s="330"/>
+      <c r="G52" s="330"/>
+      <c r="H52" s="330"/>
+      <c r="I52" s="330"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="326" t="s">
+      <c r="A53" s="324" t="s">
         <v>703</v>
       </c>
-      <c r="C53" s="332"/>
-      <c r="D53" s="332"/>
-      <c r="E53" s="332"/>
-      <c r="F53" s="332"/>
-      <c r="G53" s="332"/>
-      <c r="H53" s="332"/>
-      <c r="I53" s="332"/>
+      <c r="C53" s="330"/>
+      <c r="D53" s="330"/>
+      <c r="E53" s="330"/>
+      <c r="F53" s="330"/>
+      <c r="G53" s="330"/>
+      <c r="H53" s="330"/>
+      <c r="I53" s="330"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="326" t="s">
+      <c r="A54" s="324" t="s">
         <v>704</v>
       </c>
-      <c r="C54" s="332"/>
-      <c r="D54" s="332"/>
-      <c r="E54" s="332"/>
-      <c r="F54" s="332"/>
-      <c r="G54" s="332"/>
-      <c r="H54" s="332"/>
-      <c r="I54" s="332"/>
+      <c r="C54" s="330"/>
+      <c r="D54" s="330"/>
+      <c r="E54" s="330"/>
+      <c r="F54" s="330"/>
+      <c r="G54" s="330"/>
+      <c r="H54" s="330"/>
+      <c r="I54" s="330"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="326" t="s">
+      <c r="A55" s="324" t="s">
         <v>705</v>
       </c>
-      <c r="C55" s="332"/>
-      <c r="D55" s="332"/>
-      <c r="E55" s="332"/>
-      <c r="F55" s="332"/>
-      <c r="G55" s="332"/>
-      <c r="H55" s="332"/>
-      <c r="I55" s="332"/>
+      <c r="C55" s="330"/>
+      <c r="D55" s="330"/>
+      <c r="E55" s="330"/>
+      <c r="F55" s="330"/>
+      <c r="G55" s="330"/>
+      <c r="H55" s="330"/>
+      <c r="I55" s="330"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="326" t="s">
+      <c r="A56" s="324" t="s">
         <v>706</v>
       </c>
-      <c r="C56" s="332"/>
-      <c r="D56" s="332"/>
-      <c r="E56" s="332"/>
-      <c r="F56" s="332"/>
-      <c r="G56" s="332"/>
-      <c r="H56" s="332"/>
-      <c r="I56" s="332"/>
+      <c r="C56" s="330"/>
+      <c r="D56" s="330"/>
+      <c r="E56" s="330"/>
+      <c r="F56" s="330"/>
+      <c r="G56" s="330"/>
+      <c r="H56" s="330"/>
+      <c r="I56" s="330"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="326" t="s">
+      <c r="A57" s="324" t="s">
         <v>707</v>
       </c>
-      <c r="C57" s="332"/>
-      <c r="D57" s="332"/>
-      <c r="E57" s="332"/>
-      <c r="F57" s="332"/>
-      <c r="G57" s="332"/>
-      <c r="H57" s="332"/>
-      <c r="I57" s="332"/>
+      <c r="C57" s="330"/>
+      <c r="D57" s="330"/>
+      <c r="E57" s="330"/>
+      <c r="F57" s="330"/>
+      <c r="G57" s="330"/>
+      <c r="H57" s="330"/>
+      <c r="I57" s="330"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="326" t="s">
+      <c r="A58" s="324" t="s">
         <v>708</v>
       </c>
-      <c r="C58" s="332"/>
-      <c r="D58" s="332"/>
-      <c r="E58" s="332"/>
-      <c r="F58" s="332"/>
-      <c r="G58" s="332"/>
-      <c r="H58" s="332"/>
-      <c r="I58" s="332"/>
+      <c r="C58" s="330"/>
+      <c r="D58" s="330"/>
+      <c r="E58" s="330"/>
+      <c r="F58" s="330"/>
+      <c r="G58" s="330"/>
+      <c r="H58" s="330"/>
+      <c r="I58" s="330"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="326" t="s">
+      <c r="A59" s="324" t="s">
         <v>709</v>
       </c>
-      <c r="C59" s="332"/>
-      <c r="D59" s="332"/>
-      <c r="E59" s="332"/>
-      <c r="F59" s="332"/>
-      <c r="G59" s="332"/>
-      <c r="H59" s="332"/>
-      <c r="I59" s="332"/>
+      <c r="C59" s="330"/>
+      <c r="D59" s="330"/>
+      <c r="E59" s="330"/>
+      <c r="F59" s="330"/>
+      <c r="G59" s="330"/>
+      <c r="H59" s="330"/>
+      <c r="I59" s="330"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="326" t="s">
+      <c r="A60" s="324" t="s">
         <v>710</v>
       </c>
-      <c r="C60" s="332"/>
-      <c r="D60" s="332"/>
-      <c r="E60" s="332"/>
-      <c r="F60" s="332"/>
-      <c r="G60" s="332"/>
-      <c r="H60" s="332"/>
-      <c r="I60" s="332"/>
+      <c r="C60" s="330"/>
+      <c r="D60" s="330"/>
+      <c r="E60" s="330"/>
+      <c r="F60" s="330"/>
+      <c r="G60" s="330"/>
+      <c r="H60" s="330"/>
+      <c r="I60" s="330"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="326" t="s">
+      <c r="A61" s="324" t="s">
         <v>711</v>
       </c>
-      <c r="C61" s="332"/>
-      <c r="D61" s="332"/>
-      <c r="E61" s="332"/>
-      <c r="F61" s="332"/>
-      <c r="G61" s="332"/>
-      <c r="H61" s="332"/>
-      <c r="I61" s="332"/>
+      <c r="C61" s="330"/>
+      <c r="D61" s="330"/>
+      <c r="E61" s="330"/>
+      <c r="F61" s="330"/>
+      <c r="G61" s="330"/>
+      <c r="H61" s="330"/>
+      <c r="I61" s="330"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="326" t="s">
+      <c r="A62" s="324" t="s">
         <v>712</v>
       </c>
-      <c r="C62" s="332"/>
-      <c r="D62" s="332"/>
-      <c r="E62" s="332"/>
-      <c r="F62" s="332"/>
-      <c r="G62" s="332"/>
-      <c r="H62" s="332"/>
-      <c r="I62" s="332"/>
+      <c r="C62" s="330"/>
+      <c r="D62" s="330"/>
+      <c r="E62" s="330"/>
+      <c r="F62" s="330"/>
+      <c r="G62" s="330"/>
+      <c r="H62" s="330"/>
+      <c r="I62" s="330"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="326" t="s">
+      <c r="A63" s="324" t="s">
         <v>713</v>
       </c>
-      <c r="C63" s="332"/>
-      <c r="D63" s="332"/>
-      <c r="E63" s="332"/>
-      <c r="F63" s="332"/>
-      <c r="G63" s="332"/>
-      <c r="H63" s="332"/>
-      <c r="I63" s="332"/>
+      <c r="C63" s="330"/>
+      <c r="D63" s="330"/>
+      <c r="E63" s="330"/>
+      <c r="F63" s="330"/>
+      <c r="G63" s="330"/>
+      <c r="H63" s="330"/>
+      <c r="I63" s="330"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="326" t="s">
+      <c r="A64" s="324" t="s">
         <v>714</v>
       </c>
-      <c r="C64" s="332"/>
-      <c r="D64" s="332"/>
-      <c r="E64" s="332"/>
-      <c r="F64" s="332"/>
-      <c r="G64" s="332"/>
-      <c r="H64" s="332"/>
-      <c r="I64" s="332"/>
+      <c r="C64" s="330"/>
+      <c r="D64" s="330"/>
+      <c r="E64" s="330"/>
+      <c r="F64" s="330"/>
+      <c r="G64" s="330"/>
+      <c r="H64" s="330"/>
+      <c r="I64" s="330"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="326" t="s">
+      <c r="A65" s="324" t="s">
         <v>715</v>
       </c>
-      <c r="C65" s="332"/>
-      <c r="D65" s="332"/>
-      <c r="E65" s="332"/>
-      <c r="F65" s="332"/>
-      <c r="G65" s="332"/>
-      <c r="H65" s="332"/>
-      <c r="I65" s="332"/>
+      <c r="C65" s="330"/>
+      <c r="D65" s="330"/>
+      <c r="E65" s="330"/>
+      <c r="F65" s="330"/>
+      <c r="G65" s="330"/>
+      <c r="H65" s="330"/>
+      <c r="I65" s="330"/>
     </row>
     <row r="66" customFormat="false" ht="5.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="326" t="s">
+      <c r="A66" s="324" t="s">
         <v>716</v>
       </c>
       <c r="C66" s="143"/>
@@ -31971,372 +31963,372 @@
       <c r="I66" s="157"/>
     </row>
     <row r="67" customFormat="false" ht="4.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="326" t="s">
+      <c r="A67" s="324" t="s">
         <v>717</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="326" t="s">
+      <c r="A68" s="324" t="s">
         <v>718</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="326" t="s">
+      <c r="A69" s="324" t="s">
         <v>719</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="326" t="s">
+      <c r="A70" s="324" t="s">
         <v>720</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="326" t="s">
+      <c r="A71" s="324" t="s">
         <v>721</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="326" t="s">
+      <c r="A72" s="324" t="s">
         <v>722</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="326" t="s">
+      <c r="A73" s="324" t="s">
         <v>723</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="326" t="s">
+      <c r="A74" s="324" t="s">
         <v>724</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="326" t="s">
+      <c r="A75" s="324" t="s">
         <v>725</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="326" t="s">
+      <c r="A76" s="324" t="s">
         <v>726</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="326" t="s">
+      <c r="A77" s="324" t="s">
         <v>727</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="326" t="s">
+      <c r="A78" s="324" t="s">
         <v>728</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="326" t="s">
+      <c r="A79" s="324" t="s">
         <v>729</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="326" t="s">
+      <c r="A80" s="324" t="s">
         <v>730</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="326" t="s">
+      <c r="A81" s="324" t="s">
         <v>731</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="326" t="s">
+      <c r="A82" s="324" t="s">
         <v>732</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="326" t="s">
+      <c r="A83" s="324" t="s">
         <v>733</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="326" t="s">
+      <c r="A84" s="324" t="s">
         <v>734</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="326" t="s">
+      <c r="A85" s="324" t="s">
         <v>735</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="326" t="s">
+      <c r="A86" s="324" t="s">
         <v>736</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="326" t="s">
+      <c r="A87" s="324" t="s">
         <v>737</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="326" t="s">
+      <c r="A88" s="324" t="s">
         <v>738</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="326" t="s">
+      <c r="A89" s="324" t="s">
         <v>739</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="326" t="s">
+      <c r="A90" s="324" t="s">
         <v>740</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="326" t="s">
+      <c r="A91" s="324" t="s">
         <v>741</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="326" t="s">
+      <c r="A92" s="324" t="s">
         <v>742</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="326" t="s">
+      <c r="A93" s="324" t="s">
         <v>743</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="326" t="s">
+      <c r="A94" s="324" t="s">
         <v>744</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="326" t="s">
+      <c r="A95" s="324" t="s">
         <v>745</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="326" t="s">
+      <c r="A96" s="324" t="s">
         <v>746</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="326" t="s">
+      <c r="A97" s="324" t="s">
         <v>747</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="326" t="s">
+      <c r="A98" s="324" t="s">
         <v>748</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="326" t="s">
+      <c r="A99" s="324" t="s">
         <v>749</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="326" t="s">
+      <c r="A100" s="324" t="s">
         <v>750</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="326" t="s">
+      <c r="A101" s="324" t="s">
         <v>751</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="326" t="s">
+      <c r="A102" s="324" t="s">
         <v>752</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="326" t="s">
+      <c r="A103" s="324" t="s">
         <v>753</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="326" t="s">
+      <c r="A104" s="324" t="s">
         <v>754</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="326" t="s">
+      <c r="A105" s="324" t="s">
         <v>755</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="326" t="s">
+      <c r="A106" s="324" t="s">
         <v>756</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="326" t="s">
+      <c r="A107" s="324" t="s">
         <v>757</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="326" t="s">
+      <c r="A108" s="324" t="s">
         <v>758</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="326" t="s">
+      <c r="A109" s="324" t="s">
         <v>759</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="326" t="s">
+      <c r="A110" s="324" t="s">
         <v>760</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="326" t="s">
+      <c r="A111" s="324" t="s">
         <v>761</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="326" t="s">
+      <c r="A112" s="324" t="s">
         <v>762</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="326" t="s">
+      <c r="A113" s="324" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="326" t="s">
+      <c r="A114" s="324" t="s">
         <v>764</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="326" t="s">
+      <c r="A115" s="324" t="s">
         <v>765</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="326" t="s">
+      <c r="A116" s="324" t="s">
         <v>766</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="326" t="s">
+      <c r="A117" s="324" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="326" t="s">
+      <c r="A118" s="324" t="s">
         <v>768</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="326" t="s">
+      <c r="A119" s="324" t="s">
         <v>769</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="326" t="s">
+      <c r="A120" s="324" t="s">
         <v>770</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="326" t="s">
+      <c r="A121" s="324" t="s">
         <v>771</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="326" t="s">
+      <c r="A122" s="324" t="s">
         <v>772</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="326" t="s">
+      <c r="A123" s="324" t="s">
         <v>773</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="326" t="s">
+      <c r="A124" s="324" t="s">
         <v>774</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="326" t="s">
+      <c r="A125" s="324" t="s">
         <v>775</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="326" t="s">
+      <c r="A126" s="324" t="s">
         <v>776</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="326" t="s">
+      <c r="A127" s="324" t="s">
         <v>777</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="326" t="s">
+      <c r="A128" s="324" t="s">
         <v>778</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="326" t="s">
+      <c r="A129" s="324" t="s">
         <v>779</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="326" t="s">
+      <c r="A130" s="324" t="s">
         <v>780</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="326" t="s">
+      <c r="A131" s="324" t="s">
         <v>781</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="326" t="s">
+      <c r="A132" s="324" t="s">
         <v>782</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="326" t="s">
+      <c r="A133" s="324" t="s">
         <v>783</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="326" t="s">
+      <c r="A134" s="324" t="s">
         <v>784</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="326" t="s">
+      <c r="A135" s="324" t="s">
         <v>785</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="326" t="s">
+      <c r="A136" s="324" t="s">
         <v>786</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="326" t="s">
+      <c r="A137" s="324" t="s">
         <v>787</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="326" t="s">
+      <c r="A138" s="324" t="s">
         <v>788</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="326" t="s">
+      <c r="A139" s="324" t="s">
         <v>789</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="326" t="s">
+      <c r="A140" s="324" t="s">
         <v>790</v>
       </c>
     </row>

--- a/etp-backend/src/main/resources/energiatodistus-2013-sv.xlsx
+++ b/etp-backend/src/main/resources/energiatodistus-2013-sv.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="1) etusivu" sheetId="1" state="visible" r:id="rId2"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="791">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="792">
   <si>
     <t xml:space="preserve">[:id]</t>
   </si>
@@ -2181,6 +2181,29 @@
     <t xml:space="preserve">[:toteutunut-ostoenergiankulutus :ostettu-energia :kokonaissahko-vuosikulutus-nettoala]</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <color rgb="FF009EE0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">m</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color rgb="FF009EE0"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2</t>
+    </r>
+  </si>
+  <si>
     <t xml:space="preserve">[:toteutunut-ostoenergiankulutus :ostettu-energia :kiinteistosahko-vuosikulutus]</t>
   </si>
   <si>
@@ -3337,7 +3360,7 @@
     <numFmt numFmtId="173" formatCode="#,##0.00"/>
     <numFmt numFmtId="174" formatCode="0.0"/>
   </numFmts>
-  <fonts count="39">
+  <fonts count="41">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -3607,6 +3630,21 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF009EE0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <vertAlign val="superscript"/>
+      <sz val="10"/>
+      <color rgb="FF009EE0"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -3966,7 +4004,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="345">
+  <cellXfs count="347">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -5063,6 +5101,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -5087,7 +5133,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="37" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="39" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5179,7 +5225,7 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="37" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="39" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5255,11 +5301,11 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="38" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="40" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="38" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="40" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -8752,9 +8798,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>246600</xdr:colOff>
+      <xdr:colOff>246240</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>260280</xdr:rowOff>
+      <xdr:rowOff>259920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8768,7 +8814,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="4199040"/>
-          <a:ext cx="756360" cy="212760"/>
+          <a:ext cx="756000" cy="212400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8789,9 +8835,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>146520</xdr:colOff>
+      <xdr:colOff>146160</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>260280</xdr:rowOff>
+      <xdr:rowOff>259920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8805,7 +8851,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="4513320"/>
-          <a:ext cx="1099440" cy="212760"/>
+          <a:ext cx="1099080" cy="212400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8826,9 +8872,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>19800</xdr:colOff>
+      <xdr:colOff>19440</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>261360</xdr:rowOff>
+      <xdr:rowOff>261000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8842,7 +8888,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="4828680"/>
-          <a:ext cx="1406520" cy="212760"/>
+          <a:ext cx="1406160" cy="212400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8863,9 +8909,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>343800</xdr:colOff>
+      <xdr:colOff>343440</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>261360</xdr:rowOff>
+      <xdr:rowOff>261000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8879,7 +8925,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="5142960"/>
-          <a:ext cx="1730520" cy="212760"/>
+          <a:ext cx="1730160" cy="212400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8900,9 +8946,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>217080</xdr:colOff>
+      <xdr:colOff>216720</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>274320</xdr:rowOff>
+      <xdr:rowOff>273960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8916,7 +8962,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="5457240"/>
-          <a:ext cx="2037600" cy="225720"/>
+          <a:ext cx="2037240" cy="225360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8937,9 +8983,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>160200</xdr:colOff>
+      <xdr:colOff>159840</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>261360</xdr:rowOff>
+      <xdr:rowOff>261000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8953,7 +8999,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="5771520"/>
-          <a:ext cx="2382480" cy="212760"/>
+          <a:ext cx="2382120" cy="212400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8974,9 +9020,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>100440</xdr:colOff>
+      <xdr:colOff>100080</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>260280</xdr:rowOff>
+      <xdr:rowOff>259920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8990,7 +9036,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="6085080"/>
-          <a:ext cx="2695680" cy="212760"/>
+          <a:ext cx="2695320" cy="212400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9390,9 +9436,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>316800</xdr:colOff>
+      <xdr:colOff>316440</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>77760</xdr:rowOff>
+      <xdr:rowOff>77400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9402,7 +9448,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1994400" y="149040"/>
-          <a:ext cx="6998760" cy="10062000"/>
+          <a:ext cx="6998400" cy="10061640"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -9488,9 +9534,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>4680</xdr:colOff>
+      <xdr:colOff>4320</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>78840</xdr:rowOff>
+      <xdr:rowOff>78480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9500,7 +9546,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1987560" y="10344960"/>
-          <a:ext cx="7016040" cy="265680"/>
+          <a:ext cx="7015680" cy="265320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9554,9 +9600,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>433080</xdr:colOff>
+      <xdr:colOff>432720</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>56160</xdr:rowOff>
+      <xdr:rowOff>55800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9566,7 +9612,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5525280" y="4883760"/>
-          <a:ext cx="794880" cy="266760"/>
+          <a:ext cx="794520" cy="266400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9618,9 +9664,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>432000</xdr:colOff>
+      <xdr:colOff>431640</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>195840</xdr:rowOff>
+      <xdr:rowOff>195480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9630,7 +9676,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5524200" y="5023440"/>
-          <a:ext cx="794880" cy="266760"/>
+          <a:ext cx="794520" cy="266400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9683,7 +9729,7 @@
   </sheetPr>
   <dimension ref="A1:AK262"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="L49" activeCellId="0" sqref="L49"/>
     </sheetView>
   </sheetViews>
@@ -22331,7 +22377,7 @@
   </sheetPr>
   <dimension ref="A1:N94"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D57" activeCellId="0" sqref="D57"/>
     </sheetView>
   </sheetViews>
@@ -27291,8 +27337,8 @@
   </sheetPr>
   <dimension ref="A1:Y67"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D58" activeCellId="0" sqref="D58"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F16" activeCellId="0" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -27300,9 +27346,10 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="90" width="61.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="26" width="0.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="26" width="1.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="26" width="17.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="26" width="16.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="6" style="26" width="12.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="26" width="23.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="26" width="7.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="26" width="15.55"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="7" style="26" width="12.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="26" width="2.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="26" width="0.86"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="13" style="26" width="9.13"/>
@@ -27394,19 +27441,24 @@
         <v>448</v>
       </c>
       <c r="C7" s="97"/>
-      <c r="D7" s="61" t="str">
+      <c r="D7" s="274" t="s">
+        <v>92</v>
+      </c>
+      <c r="E7" s="29" t="str">
         <f aca="false">A3</f>
         <v>#function[solita.etp.service.energiatodistus-pdf/fn--61283]</v>
       </c>
-      <c r="E7" s="14"/>
-      <c r="G7" s="274"/>
+      <c r="F7" s="275" t="s">
+        <v>449</v>
+      </c>
+      <c r="G7" s="276"/>
       <c r="J7" s="14"/>
       <c r="K7" s="98"/>
       <c r="O7" s="29"/>
     </row>
     <row r="8" customFormat="false" ht="3.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="90" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C8" s="97"/>
       <c r="D8" s="14"/>
@@ -27419,7 +27471,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="90" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C9" s="97"/>
       <c r="D9" s="14"/>
@@ -27433,910 +27485,910 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="90" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C10" s="97"/>
       <c r="D10" s="61" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="E10" s="14"/>
-      <c r="F10" s="275"/>
-      <c r="G10" s="276"/>
-      <c r="H10" s="277"/>
-      <c r="I10" s="278" t="s">
+      <c r="F10" s="277"/>
+      <c r="G10" s="278"/>
+      <c r="H10" s="279"/>
+      <c r="I10" s="280" t="s">
         <v>106</v>
       </c>
-      <c r="J10" s="279" t="s">
+      <c r="J10" s="281" t="s">
         <v>107</v>
       </c>
-      <c r="K10" s="280"/>
+      <c r="K10" s="282"/>
     </row>
     <row r="11" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="90" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C11" s="97"/>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
-      <c r="F11" s="281"/>
+      <c r="F11" s="283"/>
       <c r="G11" s="38"/>
       <c r="H11" s="112"/>
-      <c r="I11" s="282"/>
-      <c r="J11" s="283"/>
+      <c r="I11" s="284"/>
+      <c r="J11" s="285"/>
       <c r="K11" s="112"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="90" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C12" s="97"/>
-      <c r="D12" s="284" t="s">
-        <v>455</v>
-      </c>
-      <c r="E12" s="284"/>
-      <c r="F12" s="285"/>
-      <c r="G12" s="286"/>
-      <c r="H12" s="287"/>
-      <c r="I12" s="288" t="str">
+      <c r="D12" s="286" t="s">
+        <v>456</v>
+      </c>
+      <c r="E12" s="286"/>
+      <c r="F12" s="287"/>
+      <c r="G12" s="288"/>
+      <c r="H12" s="289"/>
+      <c r="I12" s="290" t="str">
         <f aca="false">A4</f>
         <v>[:toteutunut-ostoenergiankulutus :ostettu-energia :kaukolampo-vuosikulutus]</v>
       </c>
-      <c r="J12" s="289" t="str">
+      <c r="J12" s="291" t="str">
         <f aca="false">A5</f>
         <v>[:toteutunut-ostoenergiankulutus :ostettu-energia :kaukolampo-vuosikulutus-nettoala]</v>
       </c>
-      <c r="K12" s="290"/>
+      <c r="K12" s="292"/>
       <c r="Y12" s="23"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="90" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C13" s="97"/>
-      <c r="D13" s="284" t="s">
-        <v>457</v>
-      </c>
-      <c r="E13" s="284"/>
-      <c r="F13" s="285"/>
-      <c r="G13" s="286"/>
-      <c r="H13" s="287"/>
-      <c r="I13" s="288" t="str">
+      <c r="D13" s="286" t="s">
+        <v>458</v>
+      </c>
+      <c r="E13" s="286"/>
+      <c r="F13" s="287"/>
+      <c r="G13" s="288"/>
+      <c r="H13" s="289"/>
+      <c r="I13" s="290" t="str">
         <f aca="false">A6</f>
         <v>[:toteutunut-ostoenergiankulutus :ostettu-energia :kokonaissahko-vuosikulutus]</v>
       </c>
-      <c r="J13" s="289" t="str">
+      <c r="J13" s="291" t="str">
         <f aca="false">A7</f>
         <v>[:toteutunut-ostoenergiankulutus :ostettu-energia :kokonaissahko-vuosikulutus-nettoala]</v>
       </c>
-      <c r="K13" s="290"/>
+      <c r="K13" s="292"/>
       <c r="Y13" s="23"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="90" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C14" s="97"/>
-      <c r="D14" s="276" t="s">
-        <v>459</v>
-      </c>
-      <c r="E14" s="284"/>
-      <c r="F14" s="285"/>
-      <c r="G14" s="286"/>
-      <c r="H14" s="287"/>
-      <c r="I14" s="288" t="str">
+      <c r="D14" s="278" t="s">
+        <v>460</v>
+      </c>
+      <c r="E14" s="286"/>
+      <c r="F14" s="287"/>
+      <c r="G14" s="288"/>
+      <c r="H14" s="289"/>
+      <c r="I14" s="290" t="str">
         <f aca="false">A8</f>
         <v>[:toteutunut-ostoenergiankulutus :ostettu-energia :kiinteistosahko-vuosikulutus]</v>
       </c>
-      <c r="J14" s="289" t="str">
+      <c r="J14" s="291" t="str">
         <f aca="false">A9</f>
         <v>[:toteutunut-ostoenergiankulutus :ostettu-energia :kiinteistosahko-vuosikulutus-nettoala]</v>
       </c>
-      <c r="K14" s="290"/>
+      <c r="K14" s="292"/>
       <c r="Y14" s="23"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="90" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C15" s="97"/>
-      <c r="D15" s="276" t="s">
-        <v>461</v>
-      </c>
-      <c r="E15" s="284"/>
-      <c r="F15" s="285"/>
-      <c r="G15" s="286"/>
-      <c r="H15" s="287"/>
-      <c r="I15" s="288" t="str">
+      <c r="D15" s="278" t="s">
+        <v>462</v>
+      </c>
+      <c r="E15" s="286"/>
+      <c r="F15" s="287"/>
+      <c r="G15" s="288"/>
+      <c r="H15" s="289"/>
+      <c r="I15" s="290" t="str">
         <f aca="false">A10</f>
         <v>[:toteutunut-ostoenergiankulutus :ostettu-energia :kayttajasahko-vuosikulutus]</v>
       </c>
-      <c r="J15" s="289" t="str">
+      <c r="J15" s="291" t="str">
         <f aca="false">A11</f>
         <v>[:toteutunut-ostoenergiankulutus :ostettu-energia :kayttajasahko-vuosikulutus-nettoala]</v>
       </c>
-      <c r="K15" s="290"/>
+      <c r="K15" s="292"/>
       <c r="Y15" s="23"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="90" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C16" s="97"/>
-      <c r="D16" s="284" t="s">
+      <c r="D16" s="286" t="s">
         <v>350</v>
       </c>
-      <c r="E16" s="284"/>
-      <c r="F16" s="284"/>
-      <c r="G16" s="284"/>
-      <c r="H16" s="284"/>
-      <c r="I16" s="288" t="str">
+      <c r="E16" s="286"/>
+      <c r="F16" s="286"/>
+      <c r="G16" s="286"/>
+      <c r="H16" s="286"/>
+      <c r="I16" s="290" t="str">
         <f aca="false">A12</f>
         <v>[:toteutunut-ostoenergiankulutus :ostettu-energia :kaukojaahdytys-vuosikulutus]</v>
       </c>
-      <c r="J16" s="289" t="str">
+      <c r="J16" s="291" t="str">
         <f aca="false">A13</f>
         <v>[:toteutunut-ostoenergiankulutus :ostettu-energia :kaukojaahdytys-vuosikulutus-nettoala]</v>
       </c>
-      <c r="K16" s="290"/>
+      <c r="K16" s="292"/>
       <c r="Y16" s="23"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="90" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C17" s="97"/>
-      <c r="D17" s="291" t="str">
+      <c r="D17" s="293" t="str">
         <f aca="false">A15</f>
         <v>[:toteutunut-ostoenergiankulutus :ostettu-energia :muu 0 :nimi-sv]</v>
       </c>
-      <c r="E17" s="291"/>
-      <c r="F17" s="291"/>
-      <c r="G17" s="291"/>
-      <c r="H17" s="291"/>
-      <c r="I17" s="288" t="str">
+      <c r="E17" s="293"/>
+      <c r="F17" s="293"/>
+      <c r="G17" s="293"/>
+      <c r="H17" s="293"/>
+      <c r="I17" s="290" t="str">
         <f aca="false">A16</f>
         <v>[:toteutunut-ostoenergiankulutus :ostettu-energia :muu 0 :vuosikulutus]</v>
       </c>
-      <c r="J17" s="289" t="str">
+      <c r="J17" s="291" t="str">
         <f aca="false">A17</f>
         <v>[:toteutunut-ostoenergiankulutus :ostettu-energia :muu 0 :vuosikulutus-nettoala]</v>
       </c>
-      <c r="K17" s="290"/>
+      <c r="K17" s="292"/>
       <c r="Y17" s="23"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="90" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C18" s="97"/>
-      <c r="D18" s="291" t="str">
+      <c r="D18" s="293" t="str">
         <f aca="false">A19</f>
         <v>[:toteutunut-ostoenergiankulutus :ostettu-energia :muu 1 :nimi-sv]</v>
       </c>
-      <c r="E18" s="291"/>
-      <c r="F18" s="291"/>
-      <c r="G18" s="291"/>
-      <c r="H18" s="291"/>
-      <c r="I18" s="288" t="str">
+      <c r="E18" s="293"/>
+      <c r="F18" s="293"/>
+      <c r="G18" s="293"/>
+      <c r="H18" s="293"/>
+      <c r="I18" s="290" t="str">
         <f aca="false">A20</f>
         <v>[:toteutunut-ostoenergiankulutus :ostettu-energia :muu 1 :vuosikulutus]</v>
       </c>
-      <c r="J18" s="289" t="str">
+      <c r="J18" s="291" t="str">
         <f aca="false">A21</f>
         <v>[:toteutunut-ostoenergiankulutus :ostettu-energia :muu 1 :vuosikulutus-nettoala]</v>
       </c>
-      <c r="K18" s="290"/>
+      <c r="K18" s="292"/>
       <c r="Y18" s="23"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="90" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C19" s="97"/>
-      <c r="D19" s="291" t="str">
+      <c r="D19" s="293" t="str">
         <f aca="false">A23</f>
         <v>[:toteutunut-ostoenergiankulutus :ostettu-energia :muu 2 :nimi-sv]</v>
       </c>
-      <c r="E19" s="291"/>
-      <c r="F19" s="291"/>
-      <c r="G19" s="291"/>
-      <c r="H19" s="291"/>
-      <c r="I19" s="288" t="str">
+      <c r="E19" s="293"/>
+      <c r="F19" s="293"/>
+      <c r="G19" s="293"/>
+      <c r="H19" s="293"/>
+      <c r="I19" s="290" t="str">
         <f aca="false">A24</f>
         <v>[:toteutunut-ostoenergiankulutus :ostettu-energia :muu 2 :vuosikulutus]</v>
       </c>
-      <c r="J19" s="289" t="str">
+      <c r="J19" s="291" t="str">
         <f aca="false">A25</f>
         <v>[:toteutunut-ostoenergiankulutus :ostettu-energia :muu 2 :vuosikulutus-nettoala]</v>
       </c>
-      <c r="K19" s="290"/>
+      <c r="K19" s="292"/>
       <c r="Y19" s="23"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="90" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C20" s="97"/>
-      <c r="D20" s="291" t="str">
+      <c r="D20" s="293" t="str">
         <f aca="false">A27</f>
         <v>[:toteutunut-ostoenergiankulutus :ostettu-energia :muu 3 :nimi-sv]</v>
       </c>
-      <c r="E20" s="291"/>
-      <c r="F20" s="291"/>
-      <c r="G20" s="291"/>
-      <c r="H20" s="291"/>
-      <c r="I20" s="288" t="str">
+      <c r="E20" s="293"/>
+      <c r="F20" s="293"/>
+      <c r="G20" s="293"/>
+      <c r="H20" s="293"/>
+      <c r="I20" s="290" t="str">
         <f aca="false">A28</f>
         <v>[:toteutunut-ostoenergiankulutus :ostettu-energia :muu 3 :vuosikulutus]</v>
       </c>
-      <c r="J20" s="289" t="str">
+      <c r="J20" s="291" t="str">
         <f aca="false">A29</f>
         <v>[:toteutunut-ostoenergiankulutus :ostettu-energia :muu 3 :vuosikulutus-nettoala]</v>
       </c>
-      <c r="K20" s="290"/>
+      <c r="K20" s="292"/>
       <c r="Y20" s="23"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="90" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C21" s="97"/>
-      <c r="D21" s="291" t="str">
+      <c r="D21" s="293" t="str">
         <f aca="false">A31</f>
         <v>[:toteutunut-ostoenergiankulutus :ostettu-energia :muu 4 :nimi-sv]</v>
       </c>
-      <c r="E21" s="291"/>
-      <c r="F21" s="291"/>
-      <c r="G21" s="291"/>
-      <c r="H21" s="291"/>
-      <c r="I21" s="288" t="str">
+      <c r="E21" s="293"/>
+      <c r="F21" s="293"/>
+      <c r="G21" s="293"/>
+      <c r="H21" s="293"/>
+      <c r="I21" s="290" t="str">
         <f aca="false">A32</f>
         <v>[:toteutunut-ostoenergiankulutus :ostettu-energia :muu 4 :vuosikulutus]</v>
       </c>
-      <c r="J21" s="289" t="str">
+      <c r="J21" s="291" t="str">
         <f aca="false">A33</f>
         <v>[:toteutunut-ostoenergiankulutus :ostettu-energia :muu 4 :vuosikulutus-nettoala]</v>
       </c>
-      <c r="K21" s="290"/>
+      <c r="K21" s="292"/>
       <c r="Y21" s="23"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="90" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C22" s="97"/>
-      <c r="D22" s="292"/>
-      <c r="E22" s="292"/>
-      <c r="F22" s="292"/>
-      <c r="G22" s="292"/>
-      <c r="H22" s="292"/>
-      <c r="I22" s="293"/>
-      <c r="J22" s="294" t="str">
+      <c r="D22" s="294"/>
+      <c r="E22" s="294"/>
+      <c r="F22" s="294"/>
+      <c r="G22" s="294"/>
+      <c r="H22" s="294"/>
+      <c r="I22" s="295"/>
+      <c r="J22" s="296" t="str">
         <f aca="false">IF(AND(I22&lt;&gt;0,ISNUMBER(I22/'4) E-luvun laskennan tulokset '!$E$9)),CEILING(I22/'4) E-luvun laskennan tulokset '!$E$9,1),"")</f>
         <v/>
       </c>
-      <c r="K22" s="295"/>
+      <c r="K22" s="297"/>
       <c r="Y22" s="23"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="90" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C23" s="97"/>
-      <c r="D23" s="296"/>
-      <c r="E23" s="296"/>
-      <c r="F23" s="285"/>
-      <c r="G23" s="286"/>
-      <c r="H23" s="285"/>
-      <c r="I23" s="297"/>
-      <c r="J23" s="298"/>
-      <c r="K23" s="290"/>
+      <c r="D23" s="298"/>
+      <c r="E23" s="298"/>
+      <c r="F23" s="287"/>
+      <c r="G23" s="288"/>
+      <c r="H23" s="287"/>
+      <c r="I23" s="299"/>
+      <c r="J23" s="300"/>
+      <c r="K23" s="292"/>
       <c r="Y23" s="23"/>
     </row>
     <row r="24" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="90" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C24" s="97"/>
-      <c r="D24" s="299" t="s">
-        <v>471</v>
-      </c>
-      <c r="E24" s="299"/>
-      <c r="F24" s="300" t="s">
+      <c r="D24" s="301" t="s">
         <v>472</v>
       </c>
-      <c r="G24" s="301" t="s">
+      <c r="E24" s="301"/>
+      <c r="F24" s="302" t="s">
         <v>473</v>
       </c>
-      <c r="H24" s="300" t="s">
+      <c r="G24" s="303" t="s">
         <v>474</v>
       </c>
-      <c r="I24" s="301" t="s">
+      <c r="H24" s="302" t="s">
+        <v>475</v>
+      </c>
+      <c r="I24" s="303" t="s">
         <v>106</v>
       </c>
-      <c r="J24" s="302" t="s">
+      <c r="J24" s="304" t="s">
         <v>107</v>
       </c>
-      <c r="K24" s="303"/>
+      <c r="K24" s="305"/>
       <c r="Y24" s="23"/>
     </row>
     <row r="25" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="90" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C25" s="97"/>
       <c r="D25" s="61"/>
       <c r="E25" s="61"/>
-      <c r="F25" s="304"/>
-      <c r="G25" s="305"/>
-      <c r="H25" s="278"/>
-      <c r="I25" s="278"/>
-      <c r="J25" s="306"/>
-      <c r="K25" s="280"/>
+      <c r="F25" s="306"/>
+      <c r="G25" s="307"/>
+      <c r="H25" s="280"/>
+      <c r="I25" s="280"/>
+      <c r="J25" s="308"/>
+      <c r="K25" s="282"/>
       <c r="Y25" s="23"/>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="90" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C26" s="97"/>
-      <c r="D26" s="284" t="s">
-        <v>477</v>
-      </c>
-      <c r="E26" s="284"/>
-      <c r="F26" s="288" t="str">
+      <c r="D26" s="286" t="s">
+        <v>478</v>
+      </c>
+      <c r="E26" s="286"/>
+      <c r="F26" s="290" t="str">
         <f aca="false">A34</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :kevyt-polttooljy]</v>
       </c>
-      <c r="G26" s="305" t="s">
-        <v>478</v>
-      </c>
-      <c r="H26" s="278" t="n">
+      <c r="G26" s="307" t="s">
+        <v>479</v>
+      </c>
+      <c r="H26" s="280" t="n">
         <v>10</v>
       </c>
-      <c r="I26" s="307" t="str">
+      <c r="I26" s="309" t="str">
         <f aca="false">A35</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :kevyt-polttooljy-kwh]</v>
       </c>
-      <c r="J26" s="289" t="str">
+      <c r="J26" s="291" t="str">
         <f aca="false">A36</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :kevyt-polttooljy-kwh-nettoala]</v>
       </c>
-      <c r="K26" s="308"/>
+      <c r="K26" s="310"/>
       <c r="Y26" s="23"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="90" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C27" s="97"/>
-      <c r="D27" s="284" t="s">
-        <v>480</v>
-      </c>
-      <c r="E27" s="284"/>
-      <c r="F27" s="288" t="str">
+      <c r="D27" s="286" t="s">
+        <v>481</v>
+      </c>
+      <c r="E27" s="286"/>
+      <c r="F27" s="290" t="str">
         <f aca="false">A37</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :pilkkeet-havu-sekapuu]</v>
       </c>
-      <c r="G27" s="305" t="s">
-        <v>481</v>
-      </c>
-      <c r="H27" s="278" t="n">
+      <c r="G27" s="307" t="s">
+        <v>482</v>
+      </c>
+      <c r="H27" s="280" t="n">
         <v>1300</v>
       </c>
-      <c r="I27" s="307" t="str">
+      <c r="I27" s="309" t="str">
         <f aca="false">A38</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :pilkkeet-havu-sekapuu-kwh]</v>
       </c>
-      <c r="J27" s="289" t="str">
+      <c r="J27" s="291" t="str">
         <f aca="false">A39</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :pilkkeet-havu-sekapuu-kwh-nettoala]</v>
       </c>
-      <c r="K27" s="308"/>
+      <c r="K27" s="310"/>
       <c r="Y27" s="23"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="90" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C28" s="97"/>
-      <c r="D28" s="284" t="s">
-        <v>483</v>
-      </c>
-      <c r="E28" s="284"/>
-      <c r="F28" s="288" t="str">
+      <c r="D28" s="286" t="s">
+        <v>484</v>
+      </c>
+      <c r="E28" s="286"/>
+      <c r="F28" s="290" t="str">
         <f aca="false">A40</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :pilkkeet-koivu]</v>
       </c>
-      <c r="G28" s="305" t="s">
-        <v>481</v>
-      </c>
-      <c r="H28" s="278" t="n">
+      <c r="G28" s="307" t="s">
+        <v>482</v>
+      </c>
+      <c r="H28" s="280" t="n">
         <v>1700</v>
       </c>
-      <c r="I28" s="307" t="str">
+      <c r="I28" s="309" t="str">
         <f aca="false">A41</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :pilkkeet-koivu-kwh]</v>
       </c>
-      <c r="J28" s="289" t="str">
+      <c r="J28" s="291" t="str">
         <f aca="false">A42</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :pilkkeet-koivu-kwh-nettoala]</v>
       </c>
-      <c r="K28" s="308"/>
+      <c r="K28" s="310"/>
       <c r="Y28" s="23"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="90" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C29" s="97"/>
-      <c r="D29" s="284" t="s">
-        <v>485</v>
-      </c>
-      <c r="E29" s="284"/>
-      <c r="F29" s="288" t="str">
+      <c r="D29" s="286" t="s">
+        <v>486</v>
+      </c>
+      <c r="E29" s="286"/>
+      <c r="F29" s="290" t="str">
         <f aca="false">A43</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :puupelletit]</v>
       </c>
-      <c r="G29" s="305" t="s">
-        <v>486</v>
-      </c>
-      <c r="H29" s="278" t="n">
+      <c r="G29" s="307" t="s">
+        <v>487</v>
+      </c>
+      <c r="H29" s="280" t="n">
         <v>4.7</v>
       </c>
-      <c r="I29" s="307" t="str">
+      <c r="I29" s="309" t="str">
         <f aca="false">A44</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :puupelletit-kwh]</v>
       </c>
-      <c r="J29" s="289" t="str">
+      <c r="J29" s="291" t="str">
         <f aca="false">A45</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :puupelletit-kwh-nettoala]</v>
       </c>
-      <c r="K29" s="308"/>
+      <c r="K29" s="310"/>
       <c r="Y29" s="23"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="90" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C30" s="97"/>
-      <c r="D30" s="309" t="str">
+      <c r="D30" s="311" t="str">
         <f aca="false">A46</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :muu 0 :nimi]</v>
       </c>
-      <c r="E30" s="309"/>
-      <c r="F30" s="288" t="str">
+      <c r="E30" s="311"/>
+      <c r="F30" s="290" t="str">
         <f aca="false">A47</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :muu 0 :maara-vuodessa]</v>
       </c>
-      <c r="G30" s="310" t="str">
+      <c r="G30" s="312" t="str">
         <f aca="false">A48</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :muu 0 :yksikko]</v>
       </c>
-      <c r="H30" s="311" t="str">
+      <c r="H30" s="313" t="str">
         <f aca="false">A49</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :muu 0 :muunnoskerroin]</v>
       </c>
-      <c r="I30" s="307" t="str">
+      <c r="I30" s="309" t="str">
         <f aca="false">A50</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :muu 0 :kwh]</v>
       </c>
-      <c r="J30" s="289" t="str">
+      <c r="J30" s="291" t="str">
         <f aca="false">A51</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :muu 0 :kwh-nettoala]</v>
       </c>
-      <c r="K30" s="308"/>
+      <c r="K30" s="310"/>
       <c r="Y30" s="23"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="90" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C31" s="97"/>
-      <c r="D31" s="309" t="str">
+      <c r="D31" s="311" t="str">
         <f aca="false">A52</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :muu 1 :nimi]</v>
       </c>
-      <c r="E31" s="309"/>
-      <c r="F31" s="288" t="str">
+      <c r="E31" s="311"/>
+      <c r="F31" s="290" t="str">
         <f aca="false">A53</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :muu 1 :maara-vuodessa]</v>
       </c>
-      <c r="G31" s="310" t="str">
+      <c r="G31" s="312" t="str">
         <f aca="false">A54</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :muu 1 :yksikko]</v>
       </c>
-      <c r="H31" s="311" t="str">
+      <c r="H31" s="313" t="str">
         <f aca="false">A55</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :muu 1 :muunnoskerroin]</v>
       </c>
-      <c r="I31" s="307" t="str">
+      <c r="I31" s="309" t="str">
         <f aca="false">A56</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :muu 1 :kwh]</v>
       </c>
-      <c r="J31" s="289" t="str">
+      <c r="J31" s="291" t="str">
         <f aca="false">A57</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :muu 1 :kwh-nettoala]</v>
       </c>
-      <c r="K31" s="308"/>
+      <c r="K31" s="310"/>
       <c r="Y31" s="23"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="90" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C32" s="97"/>
-      <c r="D32" s="312"/>
-      <c r="E32" s="312"/>
-      <c r="F32" s="288"/>
-      <c r="G32" s="313"/>
-      <c r="H32" s="311"/>
-      <c r="I32" s="307" t="str">
+      <c r="D32" s="314"/>
+      <c r="E32" s="314"/>
+      <c r="F32" s="290"/>
+      <c r="G32" s="315"/>
+      <c r="H32" s="313"/>
+      <c r="I32" s="309" t="str">
         <f aca="false">IF(ISNUMBER(H32*F32),IF(H32*F32&lt;&gt;0,CEILING(H32*F32,1),""),"")</f>
         <v/>
       </c>
-      <c r="J32" s="289" t="str">
+      <c r="J32" s="291" t="str">
         <f aca="false">IF(AND(I32&lt;&gt;0,ISNUMBER(I32/'4) E-luvun laskennan tulokset '!$E$9)),CEILING(I32/'4) E-luvun laskennan tulokset '!$E$9,1),"")</f>
         <v/>
       </c>
-      <c r="K32" s="308"/>
+      <c r="K32" s="310"/>
       <c r="Y32" s="23"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="90" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C33" s="97"/>
-      <c r="D33" s="312"/>
-      <c r="E33" s="312"/>
-      <c r="F33" s="288"/>
-      <c r="G33" s="313"/>
-      <c r="H33" s="311"/>
-      <c r="I33" s="307" t="str">
+      <c r="D33" s="314"/>
+      <c r="E33" s="314"/>
+      <c r="F33" s="290"/>
+      <c r="G33" s="315"/>
+      <c r="H33" s="313"/>
+      <c r="I33" s="309" t="str">
         <f aca="false">IF(ISNUMBER(H33*F33),IF(H33*F33&lt;&gt;0,CEILING(H33*F33,1),""),"")</f>
         <v/>
       </c>
-      <c r="J33" s="289" t="str">
+      <c r="J33" s="291" t="str">
         <f aca="false">IF(AND(I33&lt;&gt;0,ISNUMBER(I33/'4) E-luvun laskennan tulokset '!$E$9)),CEILING(I33/'4) E-luvun laskennan tulokset '!$E$9,1),"")</f>
         <v/>
       </c>
-      <c r="K33" s="308"/>
+      <c r="K33" s="310"/>
       <c r="Y33" s="23"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="90" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C34" s="97"/>
-      <c r="D34" s="312"/>
-      <c r="E34" s="312"/>
-      <c r="F34" s="288"/>
-      <c r="G34" s="313"/>
-      <c r="H34" s="311"/>
-      <c r="I34" s="307" t="str">
+      <c r="D34" s="314"/>
+      <c r="E34" s="314"/>
+      <c r="F34" s="290"/>
+      <c r="G34" s="315"/>
+      <c r="H34" s="313"/>
+      <c r="I34" s="309" t="str">
         <f aca="false">IF(ISNUMBER(H34*F34),IF(H34*F34&lt;&gt;0,CEILING(H34*F34,1),""),"")</f>
         <v/>
       </c>
-      <c r="J34" s="289" t="str">
+      <c r="J34" s="291" t="str">
         <f aca="false">IF(AND(I34&lt;&gt;0,ISNUMBER(I34/'4) E-luvun laskennan tulokset '!$E$9)),CEILING(I34/'4) E-luvun laskennan tulokset '!$E$9,1),"")</f>
         <v/>
       </c>
-      <c r="K34" s="308"/>
+      <c r="K34" s="310"/>
       <c r="Y34" s="23"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="90" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C35" s="97"/>
-      <c r="D35" s="312"/>
-      <c r="E35" s="312"/>
-      <c r="F35" s="288"/>
-      <c r="G35" s="313"/>
-      <c r="H35" s="311"/>
-      <c r="I35" s="307" t="str">
+      <c r="D35" s="314"/>
+      <c r="E35" s="314"/>
+      <c r="F35" s="290"/>
+      <c r="G35" s="315"/>
+      <c r="H35" s="313"/>
+      <c r="I35" s="309" t="str">
         <f aca="false">IF(ISNUMBER(H35*F35),IF(H35*F35&lt;&gt;0,CEILING(H35*F35,1),""),"")</f>
         <v/>
       </c>
-      <c r="J35" s="289" t="str">
+      <c r="J35" s="291" t="str">
         <f aca="false">IF(AND(I35&lt;&gt;0,ISNUMBER(I35/'4) E-luvun laskennan tulokset '!$E$9)),CEILING(I35/'4) E-luvun laskennan tulokset '!$E$9,1),"")</f>
         <v/>
       </c>
-      <c r="K35" s="308"/>
+      <c r="K35" s="310"/>
       <c r="Y35" s="23"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="90" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C36" s="97"/>
-      <c r="D36" s="312"/>
-      <c r="E36" s="312"/>
-      <c r="F36" s="288"/>
-      <c r="G36" s="313"/>
-      <c r="H36" s="311"/>
-      <c r="I36" s="307" t="str">
+      <c r="D36" s="314"/>
+      <c r="E36" s="314"/>
+      <c r="F36" s="290"/>
+      <c r="G36" s="315"/>
+      <c r="H36" s="313"/>
+      <c r="I36" s="309" t="str">
         <f aca="false">IF(ISNUMBER(H36*F36),IF(H36*F36&lt;&gt;0,CEILING(H36*F36,1),""),"")</f>
         <v/>
       </c>
-      <c r="J36" s="289" t="str">
+      <c r="J36" s="291" t="str">
         <f aca="false">IF(AND(I36&lt;&gt;0,ISNUMBER(I36/'4) E-luvun laskennan tulokset '!$E$9)),CEILING(I36/'4) E-luvun laskennan tulokset '!$E$9,1),"")</f>
         <v/>
       </c>
-      <c r="K36" s="308"/>
+      <c r="K36" s="310"/>
       <c r="Y36" s="23"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="90" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C37" s="97"/>
-      <c r="D37" s="312"/>
-      <c r="E37" s="312"/>
-      <c r="F37" s="288"/>
-      <c r="G37" s="313"/>
-      <c r="H37" s="311"/>
-      <c r="I37" s="307" t="str">
+      <c r="D37" s="314"/>
+      <c r="E37" s="314"/>
+      <c r="F37" s="290"/>
+      <c r="G37" s="315"/>
+      <c r="H37" s="313"/>
+      <c r="I37" s="309" t="str">
         <f aca="false">IF(ISNUMBER(H37*F37),IF(H37*F37&lt;&gt;0,CEILING(H37*F37,1),""),"")</f>
         <v/>
       </c>
-      <c r="J37" s="289" t="str">
+      <c r="J37" s="291" t="str">
         <f aca="false">IF(AND(I37&lt;&gt;0,ISNUMBER(I37/'4) E-luvun laskennan tulokset '!$E$9)),CEILING(I37/'4) E-luvun laskennan tulokset '!$E$9,1),"")</f>
         <v/>
       </c>
-      <c r="K37" s="308"/>
+      <c r="K37" s="310"/>
       <c r="Y37" s="23"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="90" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C38" s="97"/>
-      <c r="D38" s="312"/>
-      <c r="E38" s="312"/>
-      <c r="F38" s="288"/>
-      <c r="G38" s="313"/>
-      <c r="H38" s="311"/>
-      <c r="I38" s="307" t="str">
+      <c r="D38" s="314"/>
+      <c r="E38" s="314"/>
+      <c r="F38" s="290"/>
+      <c r="G38" s="315"/>
+      <c r="H38" s="313"/>
+      <c r="I38" s="309" t="str">
         <f aca="false">IF(ISNUMBER(H38*F38),IF(H38*F38&lt;&gt;0,CEILING(H38*F38,1),""),"")</f>
         <v/>
       </c>
-      <c r="J38" s="289" t="str">
+      <c r="J38" s="291" t="str">
         <f aca="false">IF(AND(I38&lt;&gt;0,ISNUMBER(I38/'4) E-luvun laskennan tulokset '!$E$9)),CEILING(I38/'4) E-luvun laskennan tulokset '!$E$9,1),"")</f>
         <v/>
       </c>
-      <c r="K38" s="308"/>
+      <c r="K38" s="310"/>
       <c r="Y38" s="23"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="90" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C39" s="97"/>
-      <c r="D39" s="312"/>
-      <c r="E39" s="312"/>
-      <c r="F39" s="288"/>
-      <c r="G39" s="313"/>
-      <c r="H39" s="311"/>
-      <c r="I39" s="307" t="str">
+      <c r="D39" s="314"/>
+      <c r="E39" s="314"/>
+      <c r="F39" s="290"/>
+      <c r="G39" s="315"/>
+      <c r="H39" s="313"/>
+      <c r="I39" s="309" t="str">
         <f aca="false">IF(ISNUMBER(H39*F39),IF(H39*F39&lt;&gt;0,CEILING(H39*F39,1),""),"")</f>
         <v/>
       </c>
-      <c r="J39" s="289" t="str">
+      <c r="J39" s="291" t="str">
         <f aca="false">IF(AND(I39&lt;&gt;0,ISNUMBER(I39/'4) E-luvun laskennan tulokset '!$E$9)),CEILING(I39/'4) E-luvun laskennan tulokset '!$E$9,1),"")</f>
         <v/>
       </c>
-      <c r="K39" s="308"/>
+      <c r="K39" s="310"/>
       <c r="Y39" s="23"/>
     </row>
     <row r="40" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="90" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C40" s="97"/>
-      <c r="D40" s="296"/>
-      <c r="E40" s="296"/>
-      <c r="F40" s="285"/>
-      <c r="G40" s="286"/>
-      <c r="H40" s="285"/>
-      <c r="I40" s="297"/>
-      <c r="J40" s="298"/>
-      <c r="K40" s="290"/>
+      <c r="D40" s="298"/>
+      <c r="E40" s="298"/>
+      <c r="F40" s="287"/>
+      <c r="G40" s="288"/>
+      <c r="H40" s="287"/>
+      <c r="I40" s="299"/>
+      <c r="J40" s="300"/>
+      <c r="K40" s="292"/>
       <c r="Y40" s="23"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="90" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C41" s="97"/>
-      <c r="D41" s="314" t="s">
-        <v>499</v>
-      </c>
-      <c r="E41" s="296"/>
-      <c r="F41" s="285"/>
-      <c r="G41" s="286"/>
-      <c r="H41" s="285"/>
-      <c r="I41" s="297"/>
-      <c r="J41" s="298"/>
-      <c r="K41" s="290"/>
+      <c r="D41" s="316" t="s">
+        <v>500</v>
+      </c>
+      <c r="E41" s="298"/>
+      <c r="F41" s="287"/>
+      <c r="G41" s="288"/>
+      <c r="H41" s="287"/>
+      <c r="I41" s="299"/>
+      <c r="J41" s="300"/>
+      <c r="K41" s="292"/>
       <c r="Y41" s="23"/>
     </row>
     <row r="42" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="90" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C42" s="97"/>
-      <c r="D42" s="315"/>
-      <c r="E42" s="315"/>
-      <c r="F42" s="316"/>
-      <c r="G42" s="317"/>
-      <c r="H42" s="316"/>
-      <c r="I42" s="318"/>
-      <c r="J42" s="319"/>
-      <c r="K42" s="295"/>
+      <c r="D42" s="317"/>
+      <c r="E42" s="317"/>
+      <c r="F42" s="318"/>
+      <c r="G42" s="319"/>
+      <c r="H42" s="318"/>
+      <c r="I42" s="320"/>
+      <c r="J42" s="321"/>
+      <c r="K42" s="297"/>
       <c r="Y42" s="23"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="90" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C43" s="97"/>
-      <c r="D43" s="296"/>
-      <c r="E43" s="296"/>
-      <c r="F43" s="285"/>
-      <c r="G43" s="286"/>
-      <c r="H43" s="285"/>
-      <c r="I43" s="297"/>
-      <c r="J43" s="298"/>
-      <c r="K43" s="290"/>
+      <c r="D43" s="298"/>
+      <c r="E43" s="298"/>
+      <c r="F43" s="287"/>
+      <c r="G43" s="288"/>
+      <c r="H43" s="287"/>
+      <c r="I43" s="299"/>
+      <c r="J43" s="300"/>
+      <c r="K43" s="292"/>
       <c r="Y43" s="23"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="90" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C44" s="97"/>
       <c r="D44" s="61" t="s">
-        <v>503</v>
-      </c>
-      <c r="E44" s="296"/>
-      <c r="F44" s="285"/>
-      <c r="G44" s="286"/>
-      <c r="H44" s="285"/>
-      <c r="I44" s="297"/>
-      <c r="J44" s="298"/>
-      <c r="K44" s="290"/>
+        <v>504</v>
+      </c>
+      <c r="E44" s="298"/>
+      <c r="F44" s="287"/>
+      <c r="G44" s="288"/>
+      <c r="H44" s="287"/>
+      <c r="I44" s="299"/>
+      <c r="J44" s="300"/>
+      <c r="K44" s="292"/>
       <c r="Y44" s="23"/>
     </row>
     <row r="45" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="90" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C45" s="97"/>
       <c r="D45" s="61"/>
-      <c r="E45" s="296"/>
-      <c r="F45" s="285"/>
-      <c r="G45" s="286"/>
-      <c r="H45" s="285"/>
-      <c r="I45" s="297"/>
-      <c r="J45" s="298"/>
-      <c r="K45" s="290"/>
+      <c r="E45" s="298"/>
+      <c r="F45" s="287"/>
+      <c r="G45" s="288"/>
+      <c r="H45" s="287"/>
+      <c r="I45" s="299"/>
+      <c r="J45" s="300"/>
+      <c r="K45" s="292"/>
       <c r="Y45" s="23"/>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="90" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C46" s="97"/>
       <c r="D46" s="61"/>
-      <c r="E46" s="296"/>
-      <c r="F46" s="285"/>
-      <c r="G46" s="286"/>
-      <c r="H46" s="285"/>
-      <c r="I46" s="278" t="s">
+      <c r="E46" s="298"/>
+      <c r="F46" s="287"/>
+      <c r="G46" s="288"/>
+      <c r="H46" s="287"/>
+      <c r="I46" s="280" t="s">
         <v>106</v>
       </c>
-      <c r="J46" s="279" t="s">
+      <c r="J46" s="281" t="s">
         <v>107</v>
       </c>
-      <c r="K46" s="280"/>
+      <c r="K46" s="282"/>
       <c r="Y46" s="23"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="90" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C47" s="97"/>
       <c r="D47" s="23" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="E47" s="23"/>
-      <c r="F47" s="320"/>
-      <c r="G47" s="321"/>
-      <c r="H47" s="321"/>
-      <c r="I47" s="288" t="str">
+      <c r="F47" s="322"/>
+      <c r="G47" s="323"/>
+      <c r="H47" s="323"/>
+      <c r="I47" s="290" t="str">
         <f aca="false">A58</f>
         <v>[:toteutunut-ostoenergiankulutus :sahko-vuosikulutus-yhteensa]</v>
       </c>
-      <c r="J47" s="289" t="str">
+      <c r="J47" s="291" t="str">
         <f aca="false">A59</f>
         <v>[:toteutunut-ostoenergiankulutus :sahko-vuosikulutus-yhteensa-nettoala]</v>
       </c>
-      <c r="K47" s="290"/>
+      <c r="K47" s="292"/>
       <c r="Y47" s="23"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="90" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C48" s="97"/>
       <c r="D48" s="23" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E48" s="23"/>
-      <c r="F48" s="320"/>
-      <c r="G48" s="321"/>
-      <c r="H48" s="321"/>
-      <c r="I48" s="288" t="str">
+      <c r="F48" s="322"/>
+      <c r="G48" s="323"/>
+      <c r="H48" s="323"/>
+      <c r="I48" s="290" t="str">
         <f aca="false">A60</f>
         <v>[:toteutunut-ostoenergiankulutus :kaukolampo-vuosikulutus-yhteensa]</v>
       </c>
-      <c r="J48" s="289" t="str">
+      <c r="J48" s="291" t="str">
         <f aca="false">A61</f>
         <v>[:toteutunut-ostoenergiankulutus :kaukolampo-vuosikulutus-yhteensa-nettoala]</v>
       </c>
-      <c r="K48" s="290"/>
+      <c r="K48" s="292"/>
       <c r="Y48" s="23"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="90" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C49" s="97"/>
       <c r="D49" s="23" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E49" s="23"/>
-      <c r="F49" s="320"/>
-      <c r="G49" s="321"/>
-      <c r="H49" s="321"/>
-      <c r="I49" s="288" t="str">
+      <c r="F49" s="322"/>
+      <c r="G49" s="323"/>
+      <c r="H49" s="323"/>
+      <c r="I49" s="290" t="str">
         <f aca="false">A62</f>
         <v>[:toteutunut-ostoenergiankulutus :polttoaineet-vuosikulutus-yhteensa]</v>
       </c>
-      <c r="J49" s="289" t="str">
+      <c r="J49" s="291" t="str">
         <f aca="false">A63</f>
         <v>[:toteutunut-ostoenergiankulutus :polttoaineet-vuosikulutus-yhteensa-nettoala]</v>
       </c>
-      <c r="K49" s="290"/>
+      <c r="K49" s="292"/>
       <c r="Y49" s="23"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="90" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C50" s="97"/>
       <c r="D50" s="23" t="s">
         <v>350</v>
       </c>
       <c r="E50" s="23"/>
-      <c r="F50" s="320"/>
-      <c r="G50" s="321"/>
-      <c r="H50" s="321"/>
-      <c r="I50" s="288" t="str">
+      <c r="F50" s="322"/>
+      <c r="G50" s="323"/>
+      <c r="H50" s="323"/>
+      <c r="I50" s="290" t="str">
         <f aca="false">A64</f>
         <v>[:toteutunut-ostoenergiankulutus :kaukojaahdytys-vuosikulutus-yhteensa]</v>
       </c>
-      <c r="J50" s="289" t="str">
+      <c r="J50" s="291" t="str">
         <f aca="false">A65</f>
         <v>[:toteutunut-ostoenergiankulutus :kaukojaahdytys-vuosikulutus-yhteensa-nettoala]</v>
       </c>
-      <c r="K50" s="290"/>
+      <c r="K50" s="292"/>
       <c r="Y50" s="23"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="90" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C51" s="97"/>
       <c r="D51" s="61" t="s">
@@ -28346,19 +28398,19 @@
       <c r="F51" s="14"/>
       <c r="G51" s="38"/>
       <c r="H51" s="38"/>
-      <c r="I51" s="307" t="str">
+      <c r="I51" s="309" t="str">
         <f aca="false">A66</f>
         <v>[:toteutunut-ostoenergiankulutus :summa]</v>
       </c>
-      <c r="J51" s="289" t="str">
+      <c r="J51" s="291" t="str">
         <f aca="false">A67</f>
         <v>[:toteutunut-ostoenergiankulutus :summa-nettoala]</v>
       </c>
-      <c r="K51" s="322"/>
+      <c r="K51" s="324"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="90" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C52" s="97"/>
       <c r="D52" s="61"/>
@@ -28372,11 +28424,11 @@
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="90" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C53" s="97"/>
       <c r="D53" s="142" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="E53" s="142"/>
       <c r="F53" s="142"/>
@@ -28388,7 +28440,7 @@
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="90" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C54" s="97"/>
       <c r="D54" s="142"/>
@@ -28402,7 +28454,7 @@
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="90" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C55" s="97"/>
       <c r="D55" s="142"/>
@@ -28416,7 +28468,7 @@
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="90" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C56" s="97"/>
       <c r="D56" s="142"/>
@@ -28430,7 +28482,7 @@
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="90" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C57" s="97"/>
       <c r="D57" s="142"/>
@@ -28444,7 +28496,7 @@
     </row>
     <row r="58" customFormat="false" ht="3.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="90" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C58" s="143"/>
       <c r="D58" s="144"/>
@@ -28454,52 +28506,52 @@
       <c r="H58" s="144"/>
       <c r="I58" s="144"/>
       <c r="J58" s="144"/>
-      <c r="K58" s="323"/>
+      <c r="K58" s="325"/>
       <c r="L58" s="146"/>
     </row>
     <row r="59" customFormat="false" ht="4.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="90" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="90" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="90" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="90" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="90" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="90" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="90" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="90" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="90" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
   </sheetData>
@@ -29200,7 +29252,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="324" width="25.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="326" width="25.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="0.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="4" width="5.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="4" style="4" width="23.28"/>
@@ -29209,38 +29261,38 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="324" t="s">
+      <c r="A1" s="326" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" s="326" customFormat="true" ht="55.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="325" t="s">
-        <v>531</v>
-      </c>
-      <c r="C2" s="327" t="s">
+    <row r="2" s="328" customFormat="true" ht="55.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="327" t="s">
         <v>532</v>
       </c>
-      <c r="D2" s="327"/>
-      <c r="E2" s="327"/>
-      <c r="F2" s="327"/>
-      <c r="G2" s="327"/>
+      <c r="C2" s="329" t="s">
+        <v>533</v>
+      </c>
+      <c r="D2" s="329"/>
+      <c r="E2" s="329"/>
+      <c r="F2" s="329"/>
+      <c r="G2" s="329"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="150" t="s">
-        <v>533</v>
-      </c>
-      <c r="C3" s="328" t="s">
+        <v>534</v>
+      </c>
+      <c r="C3" s="330" t="s">
         <v>152</v>
       </c>
-      <c r="D3" s="328"/>
-      <c r="E3" s="328"/>
-      <c r="F3" s="328"/>
-      <c r="G3" s="328"/>
+      <c r="D3" s="330"/>
+      <c r="E3" s="330"/>
+      <c r="F3" s="330"/>
+      <c r="G3" s="330"/>
     </row>
     <row r="4" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="324" t="s">
-        <v>534</v>
+      <c r="A4" s="326" t="s">
+        <v>535</v>
       </c>
       <c r="C4" s="143"/>
       <c r="D4" s="5"/>
@@ -29249,202 +29301,202 @@
       <c r="G4" s="152"/>
     </row>
     <row r="5" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="324" t="s">
-        <v>535</v>
-      </c>
-      <c r="C5" s="329" t="s">
+      <c r="A5" s="326" t="s">
         <v>536</v>
       </c>
+      <c r="C5" s="331" t="s">
+        <v>537</v>
+      </c>
       <c r="D5" s="94" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="E5" s="167"/>
       <c r="F5" s="167"/>
       <c r="G5" s="168"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="324" t="s">
-        <v>538</v>
-      </c>
-      <c r="C6" s="330" t="str">
+      <c r="A6" s="326" t="s">
+        <v>539</v>
+      </c>
+      <c r="C6" s="332" t="str">
         <f aca="false">A3</f>
         <v>[:huomiot :ymparys :teksti-sv]</v>
       </c>
-      <c r="D6" s="330"/>
-      <c r="E6" s="330"/>
-      <c r="F6" s="330"/>
-      <c r="G6" s="330"/>
+      <c r="D6" s="332"/>
+      <c r="E6" s="332"/>
+      <c r="F6" s="332"/>
+      <c r="G6" s="332"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="324" t="s">
-        <v>539</v>
-      </c>
-      <c r="C7" s="330"/>
-      <c r="D7" s="330"/>
-      <c r="E7" s="330"/>
-      <c r="F7" s="330"/>
-      <c r="G7" s="330"/>
+      <c r="A7" s="326" t="s">
+        <v>540</v>
+      </c>
+      <c r="C7" s="332"/>
+      <c r="D7" s="332"/>
+      <c r="E7" s="332"/>
+      <c r="F7" s="332"/>
+      <c r="G7" s="332"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="324" t="s">
-        <v>540</v>
-      </c>
-      <c r="C8" s="330"/>
-      <c r="D8" s="330"/>
-      <c r="E8" s="330"/>
-      <c r="F8" s="330"/>
-      <c r="G8" s="330"/>
+      <c r="A8" s="326" t="s">
+        <v>541</v>
+      </c>
+      <c r="C8" s="332"/>
+      <c r="D8" s="332"/>
+      <c r="E8" s="332"/>
+      <c r="F8" s="332"/>
+      <c r="G8" s="332"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="324" t="s">
-        <v>541</v>
-      </c>
-      <c r="C9" s="330"/>
-      <c r="D9" s="330"/>
-      <c r="E9" s="330"/>
-      <c r="F9" s="330"/>
-      <c r="G9" s="330"/>
+      <c r="A9" s="326" t="s">
+        <v>542</v>
+      </c>
+      <c r="C9" s="332"/>
+      <c r="D9" s="332"/>
+      <c r="E9" s="332"/>
+      <c r="F9" s="332"/>
+      <c r="G9" s="332"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="324" t="s">
-        <v>542</v>
-      </c>
-      <c r="C10" s="330"/>
-      <c r="D10" s="330"/>
-      <c r="E10" s="330"/>
-      <c r="F10" s="330"/>
-      <c r="G10" s="330"/>
+      <c r="A10" s="326" t="s">
+        <v>543</v>
+      </c>
+      <c r="C10" s="332"/>
+      <c r="D10" s="332"/>
+      <c r="E10" s="332"/>
+      <c r="F10" s="332"/>
+      <c r="G10" s="332"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="324" t="s">
-        <v>543</v>
-      </c>
-      <c r="C11" s="330"/>
-      <c r="D11" s="330"/>
-      <c r="E11" s="330"/>
-      <c r="F11" s="330"/>
-      <c r="G11" s="330"/>
+      <c r="A11" s="326" t="s">
+        <v>544</v>
+      </c>
+      <c r="C11" s="332"/>
+      <c r="D11" s="332"/>
+      <c r="E11" s="332"/>
+      <c r="F11" s="332"/>
+      <c r="G11" s="332"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="324" t="s">
-        <v>544</v>
-      </c>
-      <c r="C12" s="330"/>
-      <c r="D12" s="330"/>
-      <c r="E12" s="330"/>
-      <c r="F12" s="330"/>
-      <c r="G12" s="330"/>
+      <c r="A12" s="326" t="s">
+        <v>545</v>
+      </c>
+      <c r="C12" s="332"/>
+      <c r="D12" s="332"/>
+      <c r="E12" s="332"/>
+      <c r="F12" s="332"/>
+      <c r="G12" s="332"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="324" t="s">
-        <v>545</v>
-      </c>
-      <c r="C13" s="330"/>
-      <c r="D13" s="330"/>
-      <c r="E13" s="330"/>
-      <c r="F13" s="330"/>
-      <c r="G13" s="330"/>
+      <c r="A13" s="326" t="s">
+        <v>546</v>
+      </c>
+      <c r="C13" s="332"/>
+      <c r="D13" s="332"/>
+      <c r="E13" s="332"/>
+      <c r="F13" s="332"/>
+      <c r="G13" s="332"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="324" t="s">
-        <v>546</v>
-      </c>
-      <c r="C14" s="330"/>
-      <c r="D14" s="330"/>
-      <c r="E14" s="330"/>
-      <c r="F14" s="330"/>
-      <c r="G14" s="330"/>
+      <c r="A14" s="326" t="s">
+        <v>547</v>
+      </c>
+      <c r="C14" s="332"/>
+      <c r="D14" s="332"/>
+      <c r="E14" s="332"/>
+      <c r="F14" s="332"/>
+      <c r="G14" s="332"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="324" t="s">
-        <v>547</v>
-      </c>
-      <c r="C15" s="330"/>
-      <c r="D15" s="330"/>
-      <c r="E15" s="330"/>
-      <c r="F15" s="330"/>
-      <c r="G15" s="330"/>
+      <c r="A15" s="326" t="s">
+        <v>548</v>
+      </c>
+      <c r="C15" s="332"/>
+      <c r="D15" s="332"/>
+      <c r="E15" s="332"/>
+      <c r="F15" s="332"/>
+      <c r="G15" s="332"/>
     </row>
     <row r="16" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="150" t="s">
-        <v>548</v>
-      </c>
-      <c r="C16" s="331" t="s">
         <v>549</v>
       </c>
-      <c r="D16" s="331"/>
-      <c r="E16" s="331"/>
-      <c r="F16" s="331"/>
-      <c r="G16" s="331"/>
+      <c r="C16" s="333" t="s">
+        <v>550</v>
+      </c>
+      <c r="D16" s="333"/>
+      <c r="E16" s="333"/>
+      <c r="F16" s="333"/>
+      <c r="G16" s="333"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="150" t="s">
-        <v>550</v>
-      </c>
-      <c r="C17" s="332" t="n">
+        <v>551</v>
+      </c>
+      <c r="C17" s="334" t="n">
         <v>1</v>
       </c>
-      <c r="D17" s="333" t="str">
+      <c r="D17" s="335" t="str">
         <f aca="false">A5</f>
         <v>[:huomiot :ymparys :toimenpide 0 :nimi-sv]</v>
       </c>
-      <c r="E17" s="333"/>
-      <c r="F17" s="333"/>
-      <c r="G17" s="333"/>
+      <c r="E17" s="335"/>
+      <c r="F17" s="335"/>
+      <c r="G17" s="335"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="150" t="s">
-        <v>551</v>
-      </c>
-      <c r="C18" s="332" t="n">
+        <v>552</v>
+      </c>
+      <c r="C18" s="334" t="n">
         <v>2</v>
       </c>
-      <c r="D18" s="333" t="str">
+      <c r="D18" s="335" t="str">
         <f aca="false">A7</f>
         <v>[:huomiot :ymparys :toimenpide 1 :nimi-sv]</v>
       </c>
-      <c r="E18" s="333"/>
-      <c r="F18" s="333"/>
-      <c r="G18" s="333"/>
+      <c r="E18" s="335"/>
+      <c r="F18" s="335"/>
+      <c r="G18" s="335"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="150" t="s">
-        <v>552</v>
-      </c>
-      <c r="C19" s="332" t="n">
+        <v>553</v>
+      </c>
+      <c r="C19" s="334" t="n">
         <v>3</v>
       </c>
-      <c r="D19" s="333" t="str">
+      <c r="D19" s="335" t="str">
         <f aca="false">A9</f>
         <v>[:huomiot :ymparys :toimenpide 2 :nimi-sv]</v>
       </c>
-      <c r="E19" s="333"/>
-      <c r="F19" s="333"/>
-      <c r="G19" s="333"/>
+      <c r="E19" s="335"/>
+      <c r="F19" s="335"/>
+      <c r="G19" s="335"/>
     </row>
     <row r="20" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="150" t="s">
-        <v>553</v>
-      </c>
-      <c r="C20" s="334"/>
-      <c r="D20" s="335" t="s">
         <v>554</v>
       </c>
-      <c r="E20" s="335" t="s">
+      <c r="C20" s="336"/>
+      <c r="D20" s="337" t="s">
         <v>555</v>
       </c>
-      <c r="F20" s="335" t="s">
+      <c r="E20" s="337" t="s">
         <v>556</v>
       </c>
-      <c r="G20" s="336" t="s">
+      <c r="F20" s="337" t="s">
         <v>557</v>
+      </c>
+      <c r="G20" s="338" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="150" t="s">
-        <v>558</v>
-      </c>
-      <c r="C21" s="334"/>
+        <v>559</v>
+      </c>
+      <c r="C21" s="336"/>
       <c r="D21" s="108" t="s">
         <v>106</v>
       </c>
@@ -29455,276 +29507,276 @@
         <v>106</v>
       </c>
       <c r="G21" s="108" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="150" t="s">
-        <v>560</v>
-      </c>
-      <c r="C22" s="332" t="n">
+        <v>561</v>
+      </c>
+      <c r="C22" s="334" t="n">
         <v>1</v>
       </c>
-      <c r="D22" s="337" t="str">
+      <c r="D22" s="339" t="str">
         <f aca="false">A10</f>
         <v>[:huomiot :ymparys :toimenpide 0 :lampo]</v>
       </c>
-      <c r="E22" s="337" t="str">
+      <c r="E22" s="339" t="str">
         <f aca="false">A11</f>
         <v>[:huomiot :ymparys :toimenpide 0 :sahko]</v>
       </c>
-      <c r="F22" s="337" t="str">
+      <c r="F22" s="339" t="str">
         <f aca="false">A12</f>
         <v>[:huomiot :ymparys :toimenpide 0 :jaahdytys]</v>
       </c>
-      <c r="G22" s="337" t="str">
+      <c r="G22" s="339" t="str">
         <f aca="false">A13</f>
         <v>[:huomiot :ymparys :toimenpide 0 :eluvun-muutos]</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="150" t="s">
-        <v>561</v>
-      </c>
-      <c r="C23" s="332" t="n">
+        <v>562</v>
+      </c>
+      <c r="C23" s="334" t="n">
         <v>2</v>
       </c>
-      <c r="D23" s="337" t="str">
+      <c r="D23" s="339" t="str">
         <f aca="false">A14</f>
         <v>[:huomiot :ymparys :toimenpide 1 :lampo]</v>
       </c>
-      <c r="E23" s="337" t="str">
+      <c r="E23" s="339" t="str">
         <f aca="false">A15</f>
         <v>[:huomiot :ymparys :toimenpide 1 :sahko]</v>
       </c>
-      <c r="F23" s="337" t="str">
+      <c r="F23" s="339" t="str">
         <f aca="false">A16</f>
         <v>[:huomiot :ymparys :toimenpide 1 :jaahdytys]</v>
       </c>
-      <c r="G23" s="337" t="str">
+      <c r="G23" s="339" t="str">
         <f aca="false">A17</f>
         <v>[:huomiot :ymparys :toimenpide 1 :eluvun-muutos]</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="150" t="s">
-        <v>562</v>
-      </c>
-      <c r="C24" s="332" t="n">
+        <v>563</v>
+      </c>
+      <c r="C24" s="334" t="n">
         <v>3</v>
       </c>
-      <c r="D24" s="337" t="str">
+      <c r="D24" s="339" t="str">
         <f aca="false">A18</f>
         <v>[:huomiot :ymparys :toimenpide 2 :lampo]</v>
       </c>
-      <c r="E24" s="337" t="str">
+      <c r="E24" s="339" t="str">
         <f aca="false">A19</f>
         <v>[:huomiot :ymparys :toimenpide 2 :sahko]</v>
       </c>
-      <c r="F24" s="337" t="str">
+      <c r="F24" s="339" t="str">
         <f aca="false">A20</f>
         <v>[:huomiot :ymparys :toimenpide 2 :jaahdytys]</v>
       </c>
-      <c r="G24" s="337" t="str">
+      <c r="G24" s="339" t="str">
         <f aca="false">A21</f>
         <v>[:huomiot :ymparys :toimenpide 2 :eluvun-muutos]</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="150" t="s">
-        <v>563</v>
-      </c>
-      <c r="C25" s="338" t="s">
         <v>564</v>
+      </c>
+      <c r="C25" s="340" t="s">
+        <v>565</v>
       </c>
       <c r="D25" s="94"/>
       <c r="E25" s="167"/>
       <c r="F25" s="167"/>
-      <c r="G25" s="339"/>
+      <c r="G25" s="341"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="150" t="s">
-        <v>565</v>
-      </c>
-      <c r="C26" s="330" t="str">
+        <v>566</v>
+      </c>
+      <c r="C26" s="332" t="str">
         <f aca="false">A23</f>
         <v>[:huomiot :alapohja-ylapohja :teksti-sv]</v>
       </c>
-      <c r="D26" s="330"/>
-      <c r="E26" s="330"/>
-      <c r="F26" s="330"/>
-      <c r="G26" s="330"/>
+      <c r="D26" s="332"/>
+      <c r="E26" s="332"/>
+      <c r="F26" s="332"/>
+      <c r="G26" s="332"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="150" t="s">
-        <v>566</v>
-      </c>
-      <c r="C27" s="330"/>
-      <c r="D27" s="330"/>
-      <c r="E27" s="330"/>
-      <c r="F27" s="330"/>
-      <c r="G27" s="330"/>
+        <v>567</v>
+      </c>
+      <c r="C27" s="332"/>
+      <c r="D27" s="332"/>
+      <c r="E27" s="332"/>
+      <c r="F27" s="332"/>
+      <c r="G27" s="332"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="150" t="s">
-        <v>567</v>
-      </c>
-      <c r="C28" s="330"/>
-      <c r="D28" s="330"/>
-      <c r="E28" s="330"/>
-      <c r="F28" s="330"/>
-      <c r="G28" s="330"/>
+        <v>568</v>
+      </c>
+      <c r="C28" s="332"/>
+      <c r="D28" s="332"/>
+      <c r="E28" s="332"/>
+      <c r="F28" s="332"/>
+      <c r="G28" s="332"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="150" t="s">
-        <v>568</v>
-      </c>
-      <c r="C29" s="330"/>
-      <c r="D29" s="330"/>
-      <c r="E29" s="330"/>
-      <c r="F29" s="330"/>
-      <c r="G29" s="330"/>
+        <v>569</v>
+      </c>
+      <c r="C29" s="332"/>
+      <c r="D29" s="332"/>
+      <c r="E29" s="332"/>
+      <c r="F29" s="332"/>
+      <c r="G29" s="332"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="150" t="s">
-        <v>569</v>
-      </c>
-      <c r="C30" s="330"/>
-      <c r="D30" s="330"/>
-      <c r="E30" s="330"/>
-      <c r="F30" s="330"/>
-      <c r="G30" s="330"/>
+        <v>570</v>
+      </c>
+      <c r="C30" s="332"/>
+      <c r="D30" s="332"/>
+      <c r="E30" s="332"/>
+      <c r="F30" s="332"/>
+      <c r="G30" s="332"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="150" t="s">
-        <v>570</v>
-      </c>
-      <c r="C31" s="330"/>
-      <c r="D31" s="330"/>
-      <c r="E31" s="330"/>
-      <c r="F31" s="330"/>
-      <c r="G31" s="330"/>
+        <v>571</v>
+      </c>
+      <c r="C31" s="332"/>
+      <c r="D31" s="332"/>
+      <c r="E31" s="332"/>
+      <c r="F31" s="332"/>
+      <c r="G31" s="332"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="150" t="s">
-        <v>571</v>
-      </c>
-      <c r="C32" s="330"/>
-      <c r="D32" s="330"/>
-      <c r="E32" s="330"/>
-      <c r="F32" s="330"/>
-      <c r="G32" s="330"/>
+        <v>572</v>
+      </c>
+      <c r="C32" s="332"/>
+      <c r="D32" s="332"/>
+      <c r="E32" s="332"/>
+      <c r="F32" s="332"/>
+      <c r="G32" s="332"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="150" t="s">
-        <v>572</v>
-      </c>
-      <c r="C33" s="330"/>
-      <c r="D33" s="330"/>
-      <c r="E33" s="330"/>
-      <c r="F33" s="330"/>
-      <c r="G33" s="330"/>
+        <v>573</v>
+      </c>
+      <c r="C33" s="332"/>
+      <c r="D33" s="332"/>
+      <c r="E33" s="332"/>
+      <c r="F33" s="332"/>
+      <c r="G33" s="332"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="150" t="s">
-        <v>573</v>
-      </c>
-      <c r="C34" s="330"/>
-      <c r="D34" s="330"/>
-      <c r="E34" s="330"/>
-      <c r="F34" s="330"/>
-      <c r="G34" s="330"/>
+        <v>574</v>
+      </c>
+      <c r="C34" s="332"/>
+      <c r="D34" s="332"/>
+      <c r="E34" s="332"/>
+      <c r="F34" s="332"/>
+      <c r="G34" s="332"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="150" t="s">
-        <v>574</v>
-      </c>
-      <c r="C35" s="330"/>
-      <c r="D35" s="330"/>
-      <c r="E35" s="330"/>
-      <c r="F35" s="330"/>
-      <c r="G35" s="330"/>
+        <v>575</v>
+      </c>
+      <c r="C35" s="332"/>
+      <c r="D35" s="332"/>
+      <c r="E35" s="332"/>
+      <c r="F35" s="332"/>
+      <c r="G35" s="332"/>
     </row>
     <row r="36" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="150" t="s">
-        <v>575</v>
-      </c>
-      <c r="C36" s="331" t="s">
-        <v>549</v>
-      </c>
-      <c r="D36" s="331"/>
-      <c r="E36" s="331"/>
-      <c r="F36" s="331"/>
-      <c r="G36" s="331"/>
+        <v>576</v>
+      </c>
+      <c r="C36" s="333" t="s">
+        <v>550</v>
+      </c>
+      <c r="D36" s="333"/>
+      <c r="E36" s="333"/>
+      <c r="F36" s="333"/>
+      <c r="G36" s="333"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="150" t="s">
-        <v>576</v>
-      </c>
-      <c r="C37" s="332" t="n">
+        <v>577</v>
+      </c>
+      <c r="C37" s="334" t="n">
         <v>1</v>
       </c>
-      <c r="D37" s="333" t="str">
+      <c r="D37" s="335" t="str">
         <f aca="false">A25</f>
         <v>[:huomiot :alapohja-ylapohja :toimenpide 0 :nimi-sv]</v>
       </c>
-      <c r="E37" s="333"/>
-      <c r="F37" s="333"/>
-      <c r="G37" s="333"/>
+      <c r="E37" s="335"/>
+      <c r="F37" s="335"/>
+      <c r="G37" s="335"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="150" t="s">
-        <v>577</v>
-      </c>
-      <c r="C38" s="332" t="n">
+        <v>578</v>
+      </c>
+      <c r="C38" s="334" t="n">
         <v>2</v>
       </c>
-      <c r="D38" s="333" t="str">
+      <c r="D38" s="335" t="str">
         <f aca="false">A27</f>
         <v>[:huomiot :alapohja-ylapohja :toimenpide 1 :nimi-sv]</v>
       </c>
-      <c r="E38" s="333"/>
-      <c r="F38" s="333"/>
-      <c r="G38" s="333"/>
+      <c r="E38" s="335"/>
+      <c r="F38" s="335"/>
+      <c r="G38" s="335"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="150" t="s">
-        <v>578</v>
-      </c>
-      <c r="C39" s="332" t="n">
+        <v>579</v>
+      </c>
+      <c r="C39" s="334" t="n">
         <v>3</v>
       </c>
-      <c r="D39" s="333" t="str">
+      <c r="D39" s="335" t="str">
         <f aca="false">A29</f>
         <v>[:huomiot :alapohja-ylapohja :toimenpide 2 :nimi-sv]</v>
       </c>
-      <c r="E39" s="333"/>
-      <c r="F39" s="333"/>
-      <c r="G39" s="333"/>
+      <c r="E39" s="335"/>
+      <c r="F39" s="335"/>
+      <c r="G39" s="335"/>
     </row>
     <row r="40" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="150" t="s">
-        <v>579</v>
-      </c>
-      <c r="C40" s="334"/>
-      <c r="D40" s="335" t="s">
-        <v>554</v>
-      </c>
-      <c r="E40" s="335" t="s">
+        <v>580</v>
+      </c>
+      <c r="C40" s="336"/>
+      <c r="D40" s="337" t="s">
         <v>555</v>
       </c>
-      <c r="F40" s="335" t="s">
+      <c r="E40" s="337" t="s">
         <v>556</v>
       </c>
-      <c r="G40" s="336" t="s">
+      <c r="F40" s="337" t="s">
         <v>557</v>
+      </c>
+      <c r="G40" s="338" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="150" t="s">
-        <v>580</v>
-      </c>
-      <c r="C41" s="334"/>
+        <v>581</v>
+      </c>
+      <c r="C41" s="336"/>
       <c r="D41" s="108" t="s">
         <v>106</v>
       </c>
@@ -29735,276 +29787,276 @@
         <v>106</v>
       </c>
       <c r="G41" s="108" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="150" t="s">
-        <v>581</v>
-      </c>
-      <c r="C42" s="332" t="n">
+        <v>582</v>
+      </c>
+      <c r="C42" s="334" t="n">
         <v>1</v>
       </c>
-      <c r="D42" s="337" t="str">
+      <c r="D42" s="339" t="str">
         <f aca="false">A30</f>
         <v>[:huomiot :alapohja-ylapohja :toimenpide 0 :lampo]</v>
       </c>
-      <c r="E42" s="337" t="str">
+      <c r="E42" s="339" t="str">
         <f aca="false">A31</f>
         <v>[:huomiot :alapohja-ylapohja :toimenpide 0 :sahko]</v>
       </c>
-      <c r="F42" s="337" t="str">
+      <c r="F42" s="339" t="str">
         <f aca="false">A32</f>
         <v>[:huomiot :alapohja-ylapohja :toimenpide 0 :jaahdytys]</v>
       </c>
-      <c r="G42" s="337" t="str">
+      <c r="G42" s="339" t="str">
         <f aca="false">A33</f>
         <v>[:huomiot :alapohja-ylapohja :toimenpide 0 :eluvun-muutos]</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="150" t="s">
-        <v>582</v>
-      </c>
-      <c r="C43" s="332" t="n">
+        <v>583</v>
+      </c>
+      <c r="C43" s="334" t="n">
         <v>2</v>
       </c>
-      <c r="D43" s="337" t="str">
+      <c r="D43" s="339" t="str">
         <f aca="false">A34</f>
         <v>[:huomiot :alapohja-ylapohja :toimenpide 1 :lampo]</v>
       </c>
-      <c r="E43" s="337" t="str">
+      <c r="E43" s="339" t="str">
         <f aca="false">A35</f>
         <v>[:huomiot :alapohja-ylapohja :toimenpide 1 :sahko]</v>
       </c>
-      <c r="F43" s="337" t="str">
+      <c r="F43" s="339" t="str">
         <f aca="false">A36</f>
         <v>[:huomiot :alapohja-ylapohja :toimenpide 1 :jaahdytys]</v>
       </c>
-      <c r="G43" s="337" t="str">
+      <c r="G43" s="339" t="str">
         <f aca="false">A37</f>
         <v>[:huomiot :alapohja-ylapohja :toimenpide 1 :eluvun-muutos]</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="150" t="s">
-        <v>583</v>
-      </c>
-      <c r="C44" s="332" t="n">
+        <v>584</v>
+      </c>
+      <c r="C44" s="334" t="n">
         <v>3</v>
       </c>
-      <c r="D44" s="337" t="str">
+      <c r="D44" s="339" t="str">
         <f aca="false">A38</f>
         <v>[:huomiot :alapohja-ylapohja :toimenpide 2 :lampo]</v>
       </c>
-      <c r="E44" s="337" t="str">
+      <c r="E44" s="339" t="str">
         <f aca="false">A39</f>
         <v>[:huomiot :alapohja-ylapohja :toimenpide 2 :sahko]</v>
       </c>
-      <c r="F44" s="337" t="str">
+      <c r="F44" s="339" t="str">
         <f aca="false">A40</f>
         <v>[:huomiot :alapohja-ylapohja :toimenpide 2 :jaahdytys]</v>
       </c>
-      <c r="G44" s="337" t="str">
+      <c r="G44" s="339" t="str">
         <f aca="false">A41</f>
         <v>[:huomiot :alapohja-ylapohja :toimenpide 2 :eluvun-muutos]</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="150" t="s">
-        <v>584</v>
-      </c>
-      <c r="C45" s="338" t="s">
         <v>585</v>
       </c>
-      <c r="D45" s="340"/>
+      <c r="C45" s="340" t="s">
+        <v>586</v>
+      </c>
+      <c r="D45" s="342"/>
       <c r="E45" s="30"/>
       <c r="F45" s="30"/>
-      <c r="G45" s="339"/>
+      <c r="G45" s="341"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="150" t="s">
-        <v>586</v>
-      </c>
-      <c r="C46" s="330" t="str">
+        <v>587</v>
+      </c>
+      <c r="C46" s="332" t="str">
         <f aca="false">A43</f>
         <v>[:huomiot :lammitys :teksti-sv]</v>
       </c>
-      <c r="D46" s="330"/>
-      <c r="E46" s="330"/>
-      <c r="F46" s="330"/>
-      <c r="G46" s="330"/>
+      <c r="D46" s="332"/>
+      <c r="E46" s="332"/>
+      <c r="F46" s="332"/>
+      <c r="G46" s="332"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="150" t="s">
-        <v>587</v>
-      </c>
-      <c r="C47" s="330"/>
-      <c r="D47" s="330"/>
-      <c r="E47" s="330"/>
-      <c r="F47" s="330"/>
-      <c r="G47" s="330"/>
+        <v>588</v>
+      </c>
+      <c r="C47" s="332"/>
+      <c r="D47" s="332"/>
+      <c r="E47" s="332"/>
+      <c r="F47" s="332"/>
+      <c r="G47" s="332"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="150" t="s">
-        <v>588</v>
-      </c>
-      <c r="C48" s="330"/>
-      <c r="D48" s="330"/>
-      <c r="E48" s="330"/>
-      <c r="F48" s="330"/>
-      <c r="G48" s="330"/>
+        <v>589</v>
+      </c>
+      <c r="C48" s="332"/>
+      <c r="D48" s="332"/>
+      <c r="E48" s="332"/>
+      <c r="F48" s="332"/>
+      <c r="G48" s="332"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="150" t="s">
-        <v>589</v>
-      </c>
-      <c r="C49" s="330"/>
-      <c r="D49" s="330"/>
-      <c r="E49" s="330"/>
-      <c r="F49" s="330"/>
-      <c r="G49" s="330"/>
+        <v>590</v>
+      </c>
+      <c r="C49" s="332"/>
+      <c r="D49" s="332"/>
+      <c r="E49" s="332"/>
+      <c r="F49" s="332"/>
+      <c r="G49" s="332"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="150" t="s">
-        <v>590</v>
-      </c>
-      <c r="C50" s="330"/>
-      <c r="D50" s="330"/>
-      <c r="E50" s="330"/>
-      <c r="F50" s="330"/>
-      <c r="G50" s="330"/>
+        <v>591</v>
+      </c>
+      <c r="C50" s="332"/>
+      <c r="D50" s="332"/>
+      <c r="E50" s="332"/>
+      <c r="F50" s="332"/>
+      <c r="G50" s="332"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="150" t="s">
-        <v>591</v>
-      </c>
-      <c r="C51" s="330"/>
-      <c r="D51" s="330"/>
-      <c r="E51" s="330"/>
-      <c r="F51" s="330"/>
-      <c r="G51" s="330"/>
+        <v>592</v>
+      </c>
+      <c r="C51" s="332"/>
+      <c r="D51" s="332"/>
+      <c r="E51" s="332"/>
+      <c r="F51" s="332"/>
+      <c r="G51" s="332"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="150" t="s">
-        <v>592</v>
-      </c>
-      <c r="C52" s="330"/>
-      <c r="D52" s="330"/>
-      <c r="E52" s="330"/>
-      <c r="F52" s="330"/>
-      <c r="G52" s="330"/>
+        <v>593</v>
+      </c>
+      <c r="C52" s="332"/>
+      <c r="D52" s="332"/>
+      <c r="E52" s="332"/>
+      <c r="F52" s="332"/>
+      <c r="G52" s="332"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="150" t="s">
-        <v>593</v>
-      </c>
-      <c r="C53" s="330"/>
-      <c r="D53" s="330"/>
-      <c r="E53" s="330"/>
-      <c r="F53" s="330"/>
-      <c r="G53" s="330"/>
+        <v>594</v>
+      </c>
+      <c r="C53" s="332"/>
+      <c r="D53" s="332"/>
+      <c r="E53" s="332"/>
+      <c r="F53" s="332"/>
+      <c r="G53" s="332"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="150" t="s">
-        <v>594</v>
-      </c>
-      <c r="C54" s="330"/>
-      <c r="D54" s="330"/>
-      <c r="E54" s="330"/>
-      <c r="F54" s="330"/>
-      <c r="G54" s="330"/>
+        <v>595</v>
+      </c>
+      <c r="C54" s="332"/>
+      <c r="D54" s="332"/>
+      <c r="E54" s="332"/>
+      <c r="F54" s="332"/>
+      <c r="G54" s="332"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="150" t="s">
-        <v>595</v>
-      </c>
-      <c r="C55" s="330"/>
-      <c r="D55" s="330"/>
-      <c r="E55" s="330"/>
-      <c r="F55" s="330"/>
-      <c r="G55" s="330"/>
+        <v>596</v>
+      </c>
+      <c r="C55" s="332"/>
+      <c r="D55" s="332"/>
+      <c r="E55" s="332"/>
+      <c r="F55" s="332"/>
+      <c r="G55" s="332"/>
     </row>
     <row r="56" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="150" t="s">
-        <v>596</v>
-      </c>
-      <c r="C56" s="331" t="s">
-        <v>549</v>
-      </c>
-      <c r="D56" s="331"/>
-      <c r="E56" s="331"/>
-      <c r="F56" s="331"/>
-      <c r="G56" s="331"/>
+        <v>597</v>
+      </c>
+      <c r="C56" s="333" t="s">
+        <v>550</v>
+      </c>
+      <c r="D56" s="333"/>
+      <c r="E56" s="333"/>
+      <c r="F56" s="333"/>
+      <c r="G56" s="333"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="150" t="s">
-        <v>597</v>
-      </c>
-      <c r="C57" s="332" t="n">
+        <v>598</v>
+      </c>
+      <c r="C57" s="334" t="n">
         <v>1</v>
       </c>
-      <c r="D57" s="333" t="str">
+      <c r="D57" s="335" t="str">
         <f aca="false">A45</f>
         <v>[:huomiot :lammitys :toimenpide 0 :nimi-sv]</v>
       </c>
-      <c r="E57" s="333"/>
-      <c r="F57" s="333"/>
-      <c r="G57" s="333"/>
+      <c r="E57" s="335"/>
+      <c r="F57" s="335"/>
+      <c r="G57" s="335"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="150" t="s">
-        <v>598</v>
-      </c>
-      <c r="C58" s="332" t="n">
+        <v>599</v>
+      </c>
+      <c r="C58" s="334" t="n">
         <v>2</v>
       </c>
-      <c r="D58" s="333" t="str">
+      <c r="D58" s="335" t="str">
         <f aca="false">A47</f>
         <v>[:huomiot :lammitys :toimenpide 1 :nimi-sv]</v>
       </c>
-      <c r="E58" s="333"/>
-      <c r="F58" s="333"/>
-      <c r="G58" s="333"/>
+      <c r="E58" s="335"/>
+      <c r="F58" s="335"/>
+      <c r="G58" s="335"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="150" t="s">
-        <v>599</v>
-      </c>
-      <c r="C59" s="332" t="n">
+        <v>600</v>
+      </c>
+      <c r="C59" s="334" t="n">
         <v>3</v>
       </c>
-      <c r="D59" s="333" t="str">
+      <c r="D59" s="335" t="str">
         <f aca="false">A49</f>
         <v>[:huomiot :lammitys :toimenpide 2 :nimi-sv]</v>
       </c>
-      <c r="E59" s="333"/>
-      <c r="F59" s="333"/>
-      <c r="G59" s="333"/>
+      <c r="E59" s="335"/>
+      <c r="F59" s="335"/>
+      <c r="G59" s="335"/>
     </row>
     <row r="60" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="150" t="s">
-        <v>600</v>
-      </c>
-      <c r="C60" s="334"/>
-      <c r="D60" s="335" t="s">
-        <v>554</v>
-      </c>
-      <c r="E60" s="335" t="s">
+        <v>601</v>
+      </c>
+      <c r="C60" s="336"/>
+      <c r="D60" s="337" t="s">
         <v>555</v>
       </c>
-      <c r="F60" s="335" t="s">
+      <c r="E60" s="337" t="s">
         <v>556</v>
       </c>
-      <c r="G60" s="336" t="s">
+      <c r="F60" s="337" t="s">
         <v>557</v>
+      </c>
+      <c r="G60" s="338" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="150" t="s">
-        <v>601</v>
-      </c>
-      <c r="C61" s="334"/>
+        <v>602</v>
+      </c>
+      <c r="C61" s="336"/>
       <c r="D61" s="108" t="s">
         <v>106</v>
       </c>
@@ -30015,71 +30067,71 @@
         <v>106</v>
       </c>
       <c r="G61" s="108" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="150"/>
-      <c r="C62" s="332" t="n">
+      <c r="C62" s="334" t="n">
         <v>1</v>
       </c>
-      <c r="D62" s="337" t="str">
+      <c r="D62" s="339" t="str">
         <f aca="false">A50</f>
         <v>[:huomiot :lammitys :toimenpide 0 :lampo]</v>
       </c>
-      <c r="E62" s="337" t="str">
+      <c r="E62" s="339" t="str">
         <f aca="false">A51</f>
         <v>[:huomiot :lammitys :toimenpide 0 :sahko]</v>
       </c>
-      <c r="F62" s="337" t="str">
+      <c r="F62" s="339" t="str">
         <f aca="false">A52</f>
         <v>[:huomiot :lammitys :toimenpide 0 :jaahdytys]</v>
       </c>
-      <c r="G62" s="337" t="str">
+      <c r="G62" s="339" t="str">
         <f aca="false">A53</f>
         <v>[:huomiot :lammitys :toimenpide 0 :eluvun-muutos]</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="150"/>
-      <c r="C63" s="332" t="n">
+      <c r="C63" s="334" t="n">
         <v>2</v>
       </c>
-      <c r="D63" s="337" t="str">
+      <c r="D63" s="339" t="str">
         <f aca="false">A54</f>
         <v>[:huomiot :lammitys :toimenpide 1 :lampo]</v>
       </c>
-      <c r="E63" s="337" t="str">
+      <c r="E63" s="339" t="str">
         <f aca="false">A55</f>
         <v>[:huomiot :lammitys :toimenpide 1 :sahko]</v>
       </c>
-      <c r="F63" s="337" t="str">
+      <c r="F63" s="339" t="str">
         <f aca="false">A56</f>
         <v>[:huomiot :lammitys :toimenpide 1 :jaahdytys]</v>
       </c>
-      <c r="G63" s="341" t="str">
+      <c r="G63" s="343" t="str">
         <f aca="false">A57</f>
         <v>[:huomiot :lammitys :toimenpide 1 :eluvun-muutos]</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="150"/>
-      <c r="C64" s="332" t="n">
+      <c r="C64" s="334" t="n">
         <v>3</v>
       </c>
-      <c r="D64" s="337" t="str">
+      <c r="D64" s="339" t="str">
         <f aca="false">A58</f>
         <v>[:huomiot :lammitys :toimenpide 2 :lampo]</v>
       </c>
-      <c r="E64" s="337" t="str">
+      <c r="E64" s="339" t="str">
         <f aca="false">A59</f>
         <v>[:huomiot :lammitys :toimenpide 2 :sahko]</v>
       </c>
-      <c r="F64" s="337" t="str">
+      <c r="F64" s="339" t="str">
         <f aca="false">A60</f>
         <v>[:huomiot :lammitys :toimenpide 2 :jaahdytys]</v>
       </c>
-      <c r="G64" s="337" t="str">
+      <c r="G64" s="339" t="str">
         <f aca="false">A61</f>
         <v>[:huomiot :lammitys :toimenpide 2 :eluvun-muutos]</v>
       </c>
@@ -30252,7 +30304,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="324" width="25.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="326" width="25.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="0.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="4" width="5.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="4" style="4" width="23.28"/>
@@ -30261,17 +30313,17 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="324" t="s">
+      <c r="A1" s="326" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="5"/>
     </row>
     <row r="2" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="324" t="s">
-        <v>602</v>
-      </c>
-      <c r="C2" s="329" t="s">
+      <c r="A2" s="326" t="s">
         <v>603</v>
+      </c>
+      <c r="C2" s="331" t="s">
+        <v>604</v>
       </c>
       <c r="D2" s="94"/>
       <c r="E2" s="167"/>
@@ -30279,188 +30331,188 @@
       <c r="G2" s="168"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="324" t="s">
-        <v>604</v>
-      </c>
-      <c r="C3" s="330" t="str">
+      <c r="A3" s="326" t="s">
+        <v>605</v>
+      </c>
+      <c r="C3" s="332" t="str">
         <f aca="false">A3</f>
         <v>[:huomiot :iv-ilmastointi :teksti-sv]</v>
       </c>
-      <c r="D3" s="330"/>
-      <c r="E3" s="330"/>
-      <c r="F3" s="330"/>
-      <c r="G3" s="330"/>
+      <c r="D3" s="332"/>
+      <c r="E3" s="332"/>
+      <c r="F3" s="332"/>
+      <c r="G3" s="332"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="324" t="s">
-        <v>605</v>
-      </c>
-      <c r="C4" s="330"/>
-      <c r="D4" s="330"/>
-      <c r="E4" s="330"/>
-      <c r="F4" s="330"/>
-      <c r="G4" s="330"/>
+      <c r="A4" s="326" t="s">
+        <v>606</v>
+      </c>
+      <c r="C4" s="332"/>
+      <c r="D4" s="332"/>
+      <c r="E4" s="332"/>
+      <c r="F4" s="332"/>
+      <c r="G4" s="332"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="324" t="s">
-        <v>606</v>
-      </c>
-      <c r="C5" s="330"/>
-      <c r="D5" s="330"/>
-      <c r="E5" s="330"/>
-      <c r="F5" s="330"/>
-      <c r="G5" s="330"/>
+      <c r="A5" s="326" t="s">
+        <v>607</v>
+      </c>
+      <c r="C5" s="332"/>
+      <c r="D5" s="332"/>
+      <c r="E5" s="332"/>
+      <c r="F5" s="332"/>
+      <c r="G5" s="332"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="324" t="s">
-        <v>607</v>
-      </c>
-      <c r="C6" s="330"/>
-      <c r="D6" s="330"/>
-      <c r="E6" s="330"/>
-      <c r="F6" s="330"/>
-      <c r="G6" s="330"/>
+      <c r="A6" s="326" t="s">
+        <v>608</v>
+      </c>
+      <c r="C6" s="332"/>
+      <c r="D6" s="332"/>
+      <c r="E6" s="332"/>
+      <c r="F6" s="332"/>
+      <c r="G6" s="332"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="324" t="s">
-        <v>608</v>
-      </c>
-      <c r="C7" s="330"/>
-      <c r="D7" s="330"/>
-      <c r="E7" s="330"/>
-      <c r="F7" s="330"/>
-      <c r="G7" s="330"/>
+      <c r="A7" s="326" t="s">
+        <v>609</v>
+      </c>
+      <c r="C7" s="332"/>
+      <c r="D7" s="332"/>
+      <c r="E7" s="332"/>
+      <c r="F7" s="332"/>
+      <c r="G7" s="332"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="324" t="s">
-        <v>609</v>
-      </c>
-      <c r="C8" s="330"/>
-      <c r="D8" s="330"/>
-      <c r="E8" s="330"/>
-      <c r="F8" s="330"/>
-      <c r="G8" s="330"/>
+      <c r="A8" s="326" t="s">
+        <v>610</v>
+      </c>
+      <c r="C8" s="332"/>
+      <c r="D8" s="332"/>
+      <c r="E8" s="332"/>
+      <c r="F8" s="332"/>
+      <c r="G8" s="332"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="324" t="s">
-        <v>610</v>
-      </c>
-      <c r="C9" s="330"/>
-      <c r="D9" s="330"/>
-      <c r="E9" s="330"/>
-      <c r="F9" s="330"/>
-      <c r="G9" s="330"/>
+      <c r="A9" s="326" t="s">
+        <v>611</v>
+      </c>
+      <c r="C9" s="332"/>
+      <c r="D9" s="332"/>
+      <c r="E9" s="332"/>
+      <c r="F9" s="332"/>
+      <c r="G9" s="332"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="324" t="s">
-        <v>611</v>
-      </c>
-      <c r="C10" s="330"/>
-      <c r="D10" s="330"/>
-      <c r="E10" s="330"/>
-      <c r="F10" s="330"/>
-      <c r="G10" s="330"/>
+      <c r="A10" s="326" t="s">
+        <v>612</v>
+      </c>
+      <c r="C10" s="332"/>
+      <c r="D10" s="332"/>
+      <c r="E10" s="332"/>
+      <c r="F10" s="332"/>
+      <c r="G10" s="332"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="324" t="s">
-        <v>612</v>
-      </c>
-      <c r="C11" s="330"/>
-      <c r="D11" s="330"/>
-      <c r="E11" s="330"/>
-      <c r="F11" s="330"/>
-      <c r="G11" s="330"/>
+      <c r="A11" s="326" t="s">
+        <v>613</v>
+      </c>
+      <c r="C11" s="332"/>
+      <c r="D11" s="332"/>
+      <c r="E11" s="332"/>
+      <c r="F11" s="332"/>
+      <c r="G11" s="332"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="324" t="s">
-        <v>613</v>
-      </c>
-      <c r="C12" s="330"/>
-      <c r="D12" s="330"/>
-      <c r="E12" s="330"/>
-      <c r="F12" s="330"/>
-      <c r="G12" s="330"/>
+      <c r="A12" s="326" t="s">
+        <v>614</v>
+      </c>
+      <c r="C12" s="332"/>
+      <c r="D12" s="332"/>
+      <c r="E12" s="332"/>
+      <c r="F12" s="332"/>
+      <c r="G12" s="332"/>
     </row>
     <row r="13" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="150" t="s">
-        <v>614</v>
-      </c>
-      <c r="C13" s="331" t="s">
-        <v>549</v>
-      </c>
-      <c r="D13" s="331"/>
-      <c r="E13" s="331"/>
-      <c r="F13" s="331"/>
-      <c r="G13" s="331"/>
+        <v>615</v>
+      </c>
+      <c r="C13" s="333" t="s">
+        <v>550</v>
+      </c>
+      <c r="D13" s="333"/>
+      <c r="E13" s="333"/>
+      <c r="F13" s="333"/>
+      <c r="G13" s="333"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="150" t="s">
-        <v>615</v>
-      </c>
-      <c r="C14" s="332" t="n">
+        <v>616</v>
+      </c>
+      <c r="C14" s="334" t="n">
         <v>1</v>
       </c>
-      <c r="D14" s="342" t="str">
+      <c r="D14" s="344" t="str">
         <f aca="false">A5</f>
         <v>[:huomiot :iv-ilmastointi :toimenpide 0 :nimi-sv]</v>
       </c>
-      <c r="E14" s="342"/>
-      <c r="F14" s="342"/>
-      <c r="G14" s="342"/>
+      <c r="E14" s="344"/>
+      <c r="F14" s="344"/>
+      <c r="G14" s="344"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="150" t="s">
-        <v>616</v>
-      </c>
-      <c r="C15" s="332" t="n">
+        <v>617</v>
+      </c>
+      <c r="C15" s="334" t="n">
         <v>2</v>
       </c>
-      <c r="D15" s="342" t="str">
+      <c r="D15" s="344" t="str">
         <f aca="false">A7</f>
         <v>[:huomiot :iv-ilmastointi :toimenpide 1 :nimi-sv]</v>
       </c>
-      <c r="E15" s="342"/>
-      <c r="F15" s="342"/>
-      <c r="G15" s="342"/>
+      <c r="E15" s="344"/>
+      <c r="F15" s="344"/>
+      <c r="G15" s="344"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="150" t="s">
-        <v>617</v>
-      </c>
-      <c r="C16" s="332" t="n">
+        <v>618</v>
+      </c>
+      <c r="C16" s="334" t="n">
         <v>3</v>
       </c>
-      <c r="D16" s="342" t="str">
+      <c r="D16" s="344" t="str">
         <f aca="false">A9</f>
         <v>[:huomiot :iv-ilmastointi :toimenpide 2 :nimi-sv]</v>
       </c>
-      <c r="E16" s="342"/>
-      <c r="F16" s="342"/>
-      <c r="G16" s="342"/>
+      <c r="E16" s="344"/>
+      <c r="F16" s="344"/>
+      <c r="G16" s="344"/>
     </row>
     <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="150" t="s">
-        <v>618</v>
-      </c>
-      <c r="C17" s="334"/>
-      <c r="D17" s="335" t="s">
-        <v>554</v>
-      </c>
-      <c r="E17" s="335" t="s">
+        <v>619</v>
+      </c>
+      <c r="C17" s="336"/>
+      <c r="D17" s="337" t="s">
         <v>555</v>
       </c>
-      <c r="F17" s="335" t="s">
+      <c r="E17" s="337" t="s">
         <v>556</v>
       </c>
-      <c r="G17" s="336" t="s">
+      <c r="F17" s="337" t="s">
         <v>557</v>
+      </c>
+      <c r="G17" s="338" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="150" t="s">
-        <v>619</v>
-      </c>
-      <c r="C18" s="334"/>
+        <v>620</v>
+      </c>
+      <c r="C18" s="336"/>
       <c r="D18" s="108" t="s">
         <v>106</v>
       </c>
@@ -30471,276 +30523,276 @@
         <v>106</v>
       </c>
       <c r="G18" s="108" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="150" t="s">
-        <v>620</v>
-      </c>
-      <c r="C19" s="332" t="n">
+        <v>621</v>
+      </c>
+      <c r="C19" s="334" t="n">
         <v>1</v>
       </c>
-      <c r="D19" s="337" t="str">
+      <c r="D19" s="339" t="str">
         <f aca="false">A10</f>
         <v>[:huomiot :iv-ilmastointi :toimenpide 0 :lampo]</v>
       </c>
-      <c r="E19" s="337" t="str">
+      <c r="E19" s="339" t="str">
         <f aca="false">A11</f>
         <v>[:huomiot :iv-ilmastointi :toimenpide 0 :sahko]</v>
       </c>
-      <c r="F19" s="337" t="str">
+      <c r="F19" s="339" t="str">
         <f aca="false">A12</f>
         <v>[:huomiot :iv-ilmastointi :toimenpide 0 :jaahdytys]</v>
       </c>
-      <c r="G19" s="337" t="str">
+      <c r="G19" s="339" t="str">
         <f aca="false">A13</f>
         <v>[:huomiot :iv-ilmastointi :toimenpide 0 :eluvun-muutos]</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="150" t="s">
-        <v>621</v>
-      </c>
-      <c r="C20" s="332" t="n">
+        <v>622</v>
+      </c>
+      <c r="C20" s="334" t="n">
         <v>2</v>
       </c>
-      <c r="D20" s="337" t="str">
+      <c r="D20" s="339" t="str">
         <f aca="false">A14</f>
         <v>[:huomiot :iv-ilmastointi :toimenpide 1 :lampo]</v>
       </c>
-      <c r="E20" s="337" t="str">
+      <c r="E20" s="339" t="str">
         <f aca="false">A15</f>
         <v>[:huomiot :iv-ilmastointi :toimenpide 1 :sahko]</v>
       </c>
-      <c r="F20" s="337" t="str">
+      <c r="F20" s="339" t="str">
         <f aca="false">A16</f>
         <v>[:huomiot :iv-ilmastointi :toimenpide 1 :jaahdytys]</v>
       </c>
-      <c r="G20" s="337" t="str">
+      <c r="G20" s="339" t="str">
         <f aca="false">A17</f>
         <v>[:huomiot :iv-ilmastointi :toimenpide 1 :eluvun-muutos]</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="150" t="s">
-        <v>622</v>
-      </c>
-      <c r="C21" s="332" t="n">
+        <v>623</v>
+      </c>
+      <c r="C21" s="334" t="n">
         <v>3</v>
       </c>
-      <c r="D21" s="337" t="str">
+      <c r="D21" s="339" t="str">
         <f aca="false">A18</f>
         <v>[:huomiot :iv-ilmastointi :toimenpide 2 :lampo]</v>
       </c>
-      <c r="E21" s="337" t="str">
+      <c r="E21" s="339" t="str">
         <f aca="false">A19</f>
         <v>[:huomiot :iv-ilmastointi :toimenpide 2 :sahko]</v>
       </c>
-      <c r="F21" s="337" t="str">
+      <c r="F21" s="339" t="str">
         <f aca="false">A20</f>
         <v>[:huomiot :iv-ilmastointi :toimenpide 2 :jaahdytys]</v>
       </c>
-      <c r="G21" s="337" t="str">
+      <c r="G21" s="339" t="str">
         <f aca="false">A21</f>
         <v>[:huomiot :iv-ilmastointi :toimenpide 2 :eluvun-muutos]</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="150" t="s">
-        <v>623</v>
-      </c>
-      <c r="C22" s="338" t="s">
         <v>624</v>
       </c>
-      <c r="D22" s="340"/>
+      <c r="C22" s="340" t="s">
+        <v>625</v>
+      </c>
+      <c r="D22" s="342"/>
       <c r="E22" s="30"/>
       <c r="F22" s="30"/>
-      <c r="G22" s="339"/>
+      <c r="G22" s="341"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="150" t="s">
-        <v>625</v>
-      </c>
-      <c r="C23" s="330" t="str">
+        <v>626</v>
+      </c>
+      <c r="C23" s="332" t="str">
         <f aca="false">A23</f>
         <v>[:huomiot :valaistus-muut :teksti-sv]</v>
       </c>
-      <c r="D23" s="330"/>
-      <c r="E23" s="330"/>
-      <c r="F23" s="330"/>
-      <c r="G23" s="330"/>
+      <c r="D23" s="332"/>
+      <c r="E23" s="332"/>
+      <c r="F23" s="332"/>
+      <c r="G23" s="332"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="150" t="s">
-        <v>626</v>
-      </c>
-      <c r="C24" s="330"/>
-      <c r="D24" s="330"/>
-      <c r="E24" s="330"/>
-      <c r="F24" s="330"/>
-      <c r="G24" s="330"/>
+        <v>627</v>
+      </c>
+      <c r="C24" s="332"/>
+      <c r="D24" s="332"/>
+      <c r="E24" s="332"/>
+      <c r="F24" s="332"/>
+      <c r="G24" s="332"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="150" t="s">
-        <v>627</v>
-      </c>
-      <c r="C25" s="330"/>
-      <c r="D25" s="330"/>
-      <c r="E25" s="330"/>
-      <c r="F25" s="330"/>
-      <c r="G25" s="330"/>
+        <v>628</v>
+      </c>
+      <c r="C25" s="332"/>
+      <c r="D25" s="332"/>
+      <c r="E25" s="332"/>
+      <c r="F25" s="332"/>
+      <c r="G25" s="332"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="150" t="s">
-        <v>628</v>
-      </c>
-      <c r="C26" s="330"/>
-      <c r="D26" s="330"/>
-      <c r="E26" s="330"/>
-      <c r="F26" s="330"/>
-      <c r="G26" s="330"/>
+        <v>629</v>
+      </c>
+      <c r="C26" s="332"/>
+      <c r="D26" s="332"/>
+      <c r="E26" s="332"/>
+      <c r="F26" s="332"/>
+      <c r="G26" s="332"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="150" t="s">
-        <v>629</v>
-      </c>
-      <c r="C27" s="330"/>
-      <c r="D27" s="330"/>
-      <c r="E27" s="330"/>
-      <c r="F27" s="330"/>
-      <c r="G27" s="330"/>
+        <v>630</v>
+      </c>
+      <c r="C27" s="332"/>
+      <c r="D27" s="332"/>
+      <c r="E27" s="332"/>
+      <c r="F27" s="332"/>
+      <c r="G27" s="332"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="150" t="s">
-        <v>630</v>
-      </c>
-      <c r="C28" s="330"/>
-      <c r="D28" s="330"/>
-      <c r="E28" s="330"/>
-      <c r="F28" s="330"/>
-      <c r="G28" s="330"/>
+        <v>631</v>
+      </c>
+      <c r="C28" s="332"/>
+      <c r="D28" s="332"/>
+      <c r="E28" s="332"/>
+      <c r="F28" s="332"/>
+      <c r="G28" s="332"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="150" t="s">
-        <v>631</v>
-      </c>
-      <c r="C29" s="330"/>
-      <c r="D29" s="330"/>
-      <c r="E29" s="330"/>
-      <c r="F29" s="330"/>
-      <c r="G29" s="330"/>
+        <v>632</v>
+      </c>
+      <c r="C29" s="332"/>
+      <c r="D29" s="332"/>
+      <c r="E29" s="332"/>
+      <c r="F29" s="332"/>
+      <c r="G29" s="332"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="150" t="s">
-        <v>632</v>
-      </c>
-      <c r="C30" s="330"/>
-      <c r="D30" s="330"/>
-      <c r="E30" s="330"/>
-      <c r="F30" s="330"/>
-      <c r="G30" s="330"/>
+        <v>633</v>
+      </c>
+      <c r="C30" s="332"/>
+      <c r="D30" s="332"/>
+      <c r="E30" s="332"/>
+      <c r="F30" s="332"/>
+      <c r="G30" s="332"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="150" t="s">
-        <v>633</v>
-      </c>
-      <c r="C31" s="330"/>
-      <c r="D31" s="330"/>
-      <c r="E31" s="330"/>
-      <c r="F31" s="330"/>
-      <c r="G31" s="330"/>
+        <v>634</v>
+      </c>
+      <c r="C31" s="332"/>
+      <c r="D31" s="332"/>
+      <c r="E31" s="332"/>
+      <c r="F31" s="332"/>
+      <c r="G31" s="332"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="150" t="s">
-        <v>634</v>
-      </c>
-      <c r="C32" s="330"/>
-      <c r="D32" s="330"/>
-      <c r="E32" s="330"/>
-      <c r="F32" s="330"/>
-      <c r="G32" s="330"/>
+        <v>635</v>
+      </c>
+      <c r="C32" s="332"/>
+      <c r="D32" s="332"/>
+      <c r="E32" s="332"/>
+      <c r="F32" s="332"/>
+      <c r="G32" s="332"/>
     </row>
     <row r="33" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="150" t="s">
-        <v>635</v>
-      </c>
-      <c r="C33" s="331" t="s">
-        <v>549</v>
-      </c>
-      <c r="D33" s="331"/>
-      <c r="E33" s="331"/>
-      <c r="F33" s="331"/>
-      <c r="G33" s="331"/>
+        <v>636</v>
+      </c>
+      <c r="C33" s="333" t="s">
+        <v>550</v>
+      </c>
+      <c r="D33" s="333"/>
+      <c r="E33" s="333"/>
+      <c r="F33" s="333"/>
+      <c r="G33" s="333"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="150" t="s">
-        <v>636</v>
-      </c>
-      <c r="C34" s="332" t="n">
+        <v>637</v>
+      </c>
+      <c r="C34" s="334" t="n">
         <v>1</v>
       </c>
-      <c r="D34" s="342" t="str">
+      <c r="D34" s="344" t="str">
         <f aca="false">A25</f>
         <v>[:huomiot :valaistus-muut :toimenpide 0 :nimi-sv]</v>
       </c>
-      <c r="E34" s="342"/>
-      <c r="F34" s="342"/>
-      <c r="G34" s="342"/>
+      <c r="E34" s="344"/>
+      <c r="F34" s="344"/>
+      <c r="G34" s="344"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="150" t="s">
-        <v>637</v>
-      </c>
-      <c r="C35" s="332" t="n">
+        <v>638</v>
+      </c>
+      <c r="C35" s="334" t="n">
         <v>2</v>
       </c>
-      <c r="D35" s="342" t="str">
+      <c r="D35" s="344" t="str">
         <f aca="false">A27</f>
         <v>[:huomiot :valaistus-muut :toimenpide 1 :nimi-sv]</v>
       </c>
-      <c r="E35" s="342"/>
-      <c r="F35" s="342"/>
-      <c r="G35" s="342"/>
+      <c r="E35" s="344"/>
+      <c r="F35" s="344"/>
+      <c r="G35" s="344"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="150" t="s">
-        <v>638</v>
-      </c>
-      <c r="C36" s="332" t="n">
+        <v>639</v>
+      </c>
+      <c r="C36" s="334" t="n">
         <v>3</v>
       </c>
-      <c r="D36" s="342" t="str">
+      <c r="D36" s="344" t="str">
         <f aca="false">A28</f>
         <v>[:huomiot :valaistus-muut :toimenpide 2 :nimi-fi]</v>
       </c>
-      <c r="E36" s="342"/>
-      <c r="F36" s="342"/>
-      <c r="G36" s="342"/>
+      <c r="E36" s="344"/>
+      <c r="F36" s="344"/>
+      <c r="G36" s="344"/>
     </row>
     <row r="37" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="150" t="s">
-        <v>639</v>
-      </c>
-      <c r="C37" s="334"/>
-      <c r="D37" s="335" t="s">
-        <v>554</v>
-      </c>
-      <c r="E37" s="335" t="s">
+        <v>640</v>
+      </c>
+      <c r="C37" s="336"/>
+      <c r="D37" s="337" t="s">
         <v>555</v>
       </c>
-      <c r="F37" s="335" t="s">
+      <c r="E37" s="337" t="s">
         <v>556</v>
       </c>
-      <c r="G37" s="336" t="s">
+      <c r="F37" s="337" t="s">
         <v>557</v>
+      </c>
+      <c r="G37" s="338" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="150" t="s">
-        <v>640</v>
-      </c>
-      <c r="C38" s="334"/>
+        <v>641</v>
+      </c>
+      <c r="C38" s="336"/>
       <c r="D38" s="108" t="s">
         <v>106</v>
       </c>
@@ -30751,225 +30803,225 @@
         <v>106</v>
       </c>
       <c r="G38" s="108" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="150" t="s">
-        <v>641</v>
-      </c>
-      <c r="C39" s="332" t="n">
+        <v>642</v>
+      </c>
+      <c r="C39" s="334" t="n">
         <v>1</v>
       </c>
-      <c r="D39" s="337" t="str">
+      <c r="D39" s="339" t="str">
         <f aca="false">A30</f>
         <v>[:huomiot :valaistus-muut :toimenpide 0 :lampo]</v>
       </c>
-      <c r="E39" s="337" t="str">
+      <c r="E39" s="339" t="str">
         <f aca="false">A31</f>
         <v>[:huomiot :valaistus-muut :toimenpide 0 :sahko]</v>
       </c>
-      <c r="F39" s="337" t="str">
+      <c r="F39" s="339" t="str">
         <f aca="false">A32</f>
         <v>[:huomiot :valaistus-muut :toimenpide 0 :jaahdytys]</v>
       </c>
-      <c r="G39" s="337" t="str">
+      <c r="G39" s="339" t="str">
         <f aca="false">A33</f>
         <v>[:huomiot :valaistus-muut :toimenpide 0 :eluvun-muutos]</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="150" t="s">
-        <v>642</v>
-      </c>
-      <c r="C40" s="332" t="n">
+        <v>643</v>
+      </c>
+      <c r="C40" s="334" t="n">
         <v>2</v>
       </c>
-      <c r="D40" s="337" t="str">
+      <c r="D40" s="339" t="str">
         <f aca="false">A34</f>
         <v>[:huomiot :valaistus-muut :toimenpide 1 :lampo]</v>
       </c>
-      <c r="E40" s="337" t="str">
+      <c r="E40" s="339" t="str">
         <f aca="false">A35</f>
         <v>[:huomiot :valaistus-muut :toimenpide 1 :sahko]</v>
       </c>
-      <c r="F40" s="337" t="str">
+      <c r="F40" s="339" t="str">
         <f aca="false">A36</f>
         <v>[:huomiot :valaistus-muut :toimenpide 1 :jaahdytys]</v>
       </c>
-      <c r="G40" s="337" t="str">
+      <c r="G40" s="339" t="str">
         <f aca="false">A37</f>
         <v>[:huomiot :valaistus-muut :toimenpide 1 :eluvun-muutos]</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="150" t="s">
-        <v>643</v>
-      </c>
-      <c r="C41" s="332" t="n">
+        <v>644</v>
+      </c>
+      <c r="C41" s="334" t="n">
         <v>3</v>
       </c>
-      <c r="D41" s="337" t="str">
+      <c r="D41" s="339" t="str">
         <f aca="false">A38</f>
         <v>[:huomiot :valaistus-muut :toimenpide 2 :lampo]</v>
       </c>
-      <c r="E41" s="337" t="str">
+      <c r="E41" s="339" t="str">
         <f aca="false">A39</f>
         <v>[:huomiot :valaistus-muut :toimenpide 2 :sahko]</v>
       </c>
-      <c r="F41" s="337" t="str">
+      <c r="F41" s="339" t="str">
         <f aca="false">A40</f>
         <v>[:huomiot :valaistus-muut :toimenpide 2 :jaahdytys]</v>
       </c>
-      <c r="G41" s="337" t="str">
+      <c r="G41" s="339" t="str">
         <f aca="false">A41</f>
         <v>[:huomiot :valaistus-muut :toimenpide 2 :eluvun-muutos]</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="150" t="s">
-        <v>644</v>
-      </c>
-      <c r="C42" s="338" t="s">
         <v>645</v>
       </c>
-      <c r="D42" s="340"/>
-      <c r="E42" s="343"/>
+      <c r="C42" s="340" t="s">
+        <v>646</v>
+      </c>
+      <c r="D42" s="342"/>
+      <c r="E42" s="345"/>
       <c r="F42" s="30"/>
-      <c r="G42" s="339"/>
+      <c r="G42" s="341"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="150" t="s">
-        <v>646</v>
-      </c>
-      <c r="C43" s="330" t="str">
+        <v>647</v>
+      </c>
+      <c r="C43" s="332" t="str">
         <f aca="false">A43</f>
         <v>[:huomiot :suositukset-sv]</v>
       </c>
-      <c r="D43" s="330"/>
-      <c r="E43" s="330"/>
-      <c r="F43" s="330"/>
-      <c r="G43" s="330"/>
+      <c r="D43" s="332"/>
+      <c r="E43" s="332"/>
+      <c r="F43" s="332"/>
+      <c r="G43" s="332"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="150" t="s">
-        <v>647</v>
-      </c>
-      <c r="C44" s="330"/>
-      <c r="D44" s="330"/>
-      <c r="E44" s="330"/>
-      <c r="F44" s="330"/>
-      <c r="G44" s="330"/>
+        <v>648</v>
+      </c>
+      <c r="C44" s="332"/>
+      <c r="D44" s="332"/>
+      <c r="E44" s="332"/>
+      <c r="F44" s="332"/>
+      <c r="G44" s="332"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="150" t="s">
-        <v>648</v>
-      </c>
-      <c r="C45" s="330"/>
-      <c r="D45" s="330"/>
-      <c r="E45" s="330"/>
-      <c r="F45" s="330"/>
-      <c r="G45" s="330"/>
+        <v>649</v>
+      </c>
+      <c r="C45" s="332"/>
+      <c r="D45" s="332"/>
+      <c r="E45" s="332"/>
+      <c r="F45" s="332"/>
+      <c r="G45" s="332"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="150"/>
-      <c r="C46" s="330"/>
-      <c r="D46" s="330"/>
-      <c r="E46" s="330"/>
-      <c r="F46" s="330"/>
-      <c r="G46" s="330"/>
+      <c r="C46" s="332"/>
+      <c r="D46" s="332"/>
+      <c r="E46" s="332"/>
+      <c r="F46" s="332"/>
+      <c r="G46" s="332"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="150"/>
-      <c r="C47" s="330"/>
-      <c r="D47" s="330"/>
-      <c r="E47" s="330"/>
-      <c r="F47" s="330"/>
-      <c r="G47" s="330"/>
+      <c r="C47" s="332"/>
+      <c r="D47" s="332"/>
+      <c r="E47" s="332"/>
+      <c r="F47" s="332"/>
+      <c r="G47" s="332"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="150"/>
-      <c r="C48" s="330"/>
-      <c r="D48" s="330"/>
-      <c r="E48" s="330"/>
-      <c r="F48" s="330"/>
-      <c r="G48" s="330"/>
+      <c r="C48" s="332"/>
+      <c r="D48" s="332"/>
+      <c r="E48" s="332"/>
+      <c r="F48" s="332"/>
+      <c r="G48" s="332"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="150"/>
-      <c r="C49" s="330"/>
-      <c r="D49" s="330"/>
-      <c r="E49" s="330"/>
-      <c r="F49" s="330"/>
-      <c r="G49" s="330"/>
+      <c r="C49" s="332"/>
+      <c r="D49" s="332"/>
+      <c r="E49" s="332"/>
+      <c r="F49" s="332"/>
+      <c r="G49" s="332"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="150"/>
-      <c r="C50" s="330"/>
-      <c r="D50" s="330"/>
-      <c r="E50" s="330"/>
-      <c r="F50" s="330"/>
-      <c r="G50" s="330"/>
+      <c r="C50" s="332"/>
+      <c r="D50" s="332"/>
+      <c r="E50" s="332"/>
+      <c r="F50" s="332"/>
+      <c r="G50" s="332"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="150"/>
-      <c r="C51" s="330"/>
-      <c r="D51" s="330"/>
-      <c r="E51" s="330"/>
-      <c r="F51" s="330"/>
-      <c r="G51" s="330"/>
+      <c r="C51" s="332"/>
+      <c r="D51" s="332"/>
+      <c r="E51" s="332"/>
+      <c r="F51" s="332"/>
+      <c r="G51" s="332"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="150"/>
-      <c r="C52" s="330"/>
-      <c r="D52" s="330"/>
-      <c r="E52" s="330"/>
-      <c r="F52" s="330"/>
-      <c r="G52" s="330"/>
+      <c r="C52" s="332"/>
+      <c r="D52" s="332"/>
+      <c r="E52" s="332"/>
+      <c r="F52" s="332"/>
+      <c r="G52" s="332"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="150"/>
-      <c r="C53" s="330"/>
-      <c r="D53" s="330"/>
-      <c r="E53" s="330"/>
-      <c r="F53" s="330"/>
-      <c r="G53" s="330"/>
+      <c r="C53" s="332"/>
+      <c r="D53" s="332"/>
+      <c r="E53" s="332"/>
+      <c r="F53" s="332"/>
+      <c r="G53" s="332"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="150"/>
-      <c r="C54" s="330"/>
-      <c r="D54" s="330"/>
-      <c r="E54" s="330"/>
-      <c r="F54" s="330"/>
-      <c r="G54" s="330"/>
+      <c r="C54" s="332"/>
+      <c r="D54" s="332"/>
+      <c r="E54" s="332"/>
+      <c r="F54" s="332"/>
+      <c r="G54" s="332"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="150"/>
-      <c r="C55" s="330"/>
-      <c r="D55" s="330"/>
-      <c r="E55" s="330"/>
-      <c r="F55" s="330"/>
-      <c r="G55" s="330"/>
+      <c r="C55" s="332"/>
+      <c r="D55" s="332"/>
+      <c r="E55" s="332"/>
+      <c r="F55" s="332"/>
+      <c r="G55" s="332"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="150"/>
-      <c r="C56" s="330"/>
-      <c r="D56" s="330"/>
-      <c r="E56" s="330"/>
-      <c r="F56" s="330"/>
-      <c r="G56" s="330"/>
+      <c r="C56" s="332"/>
+      <c r="D56" s="332"/>
+      <c r="E56" s="332"/>
+      <c r="F56" s="332"/>
+      <c r="G56" s="332"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="150"/>
-      <c r="C57" s="330"/>
-      <c r="D57" s="330"/>
-      <c r="E57" s="330"/>
-      <c r="F57" s="330"/>
-      <c r="G57" s="330"/>
+      <c r="C57" s="332"/>
+      <c r="D57" s="332"/>
+      <c r="E57" s="332"/>
+      <c r="F57" s="332"/>
+      <c r="G57" s="332"/>
     </row>
     <row r="58" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C58" s="329" t="s">
-        <v>649</v>
+      <c r="C58" s="331" t="s">
+        <v>650</v>
       </c>
       <c r="D58" s="94"/>
       <c r="E58" s="167"/>
@@ -30986,48 +31038,48 @@
     </row>
     <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="150"/>
-      <c r="C60" s="305" t="s">
-        <v>650</v>
-      </c>
-      <c r="D60" s="305"/>
-      <c r="E60" s="305"/>
-      <c r="F60" s="305"/>
-      <c r="G60" s="305"/>
+      <c r="C60" s="307" t="s">
+        <v>651</v>
+      </c>
+      <c r="D60" s="307"/>
+      <c r="E60" s="307"/>
+      <c r="F60" s="307"/>
+      <c r="G60" s="307"/>
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="150"/>
-      <c r="C61" s="330" t="str">
+      <c r="C61" s="332" t="str">
         <f aca="false">A45</f>
         <v>[:huomiot :lisatietoja-sv]</v>
       </c>
-      <c r="D61" s="330"/>
-      <c r="E61" s="330"/>
-      <c r="F61" s="330"/>
-      <c r="G61" s="330"/>
+      <c r="D61" s="332"/>
+      <c r="E61" s="332"/>
+      <c r="F61" s="332"/>
+      <c r="G61" s="332"/>
     </row>
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="150"/>
-      <c r="C62" s="330"/>
-      <c r="D62" s="330"/>
-      <c r="E62" s="330"/>
-      <c r="F62" s="330"/>
-      <c r="G62" s="330"/>
+      <c r="C62" s="332"/>
+      <c r="D62" s="332"/>
+      <c r="E62" s="332"/>
+      <c r="F62" s="332"/>
+      <c r="G62" s="332"/>
     </row>
     <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="150"/>
-      <c r="C63" s="330"/>
-      <c r="D63" s="330"/>
-      <c r="E63" s="330"/>
-      <c r="F63" s="330"/>
-      <c r="G63" s="330"/>
+      <c r="C63" s="332"/>
+      <c r="D63" s="332"/>
+      <c r="E63" s="332"/>
+      <c r="F63" s="332"/>
+      <c r="G63" s="332"/>
     </row>
     <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="150"/>
-      <c r="C64" s="330"/>
-      <c r="D64" s="330"/>
-      <c r="E64" s="330"/>
-      <c r="F64" s="330"/>
-      <c r="G64" s="330"/>
+      <c r="C64" s="332"/>
+      <c r="D64" s="332"/>
+      <c r="E64" s="332"/>
+      <c r="F64" s="332"/>
+      <c r="G64" s="332"/>
     </row>
     <row r="65" customFormat="false" ht="5.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C65" s="143"/>
@@ -31163,7 +31215,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="324" width="25.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="326" width="25.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="0.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="4" width="5.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="4" style="4" width="15.71"/>
@@ -31172,787 +31224,787 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="324" t="s">
+      <c r="A1" s="326" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="5"/>
     </row>
     <row r="2" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="150" t="s">
-        <v>651</v>
-      </c>
-      <c r="C2" s="344" t="s">
         <v>652</v>
       </c>
-      <c r="D2" s="344"/>
-      <c r="E2" s="344"/>
-      <c r="F2" s="344"/>
-      <c r="G2" s="344"/>
-      <c r="H2" s="344"/>
-      <c r="I2" s="344"/>
+      <c r="C2" s="346" t="s">
+        <v>653</v>
+      </c>
+      <c r="D2" s="346"/>
+      <c r="E2" s="346"/>
+      <c r="F2" s="346"/>
+      <c r="G2" s="346"/>
+      <c r="H2" s="346"/>
+      <c r="I2" s="346"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="324" t="s">
-        <v>653</v>
-      </c>
-      <c r="C3" s="330" t="str">
+      <c r="A3" s="326" t="s">
+        <v>654</v>
+      </c>
+      <c r="C3" s="332" t="str">
         <f aca="false">A3</f>
         <v>[:lisamerkintoja-sv]</v>
       </c>
-      <c r="D3" s="330"/>
-      <c r="E3" s="330"/>
-      <c r="F3" s="330"/>
-      <c r="G3" s="330"/>
-      <c r="H3" s="330"/>
-      <c r="I3" s="330"/>
+      <c r="D3" s="332"/>
+      <c r="E3" s="332"/>
+      <c r="F3" s="332"/>
+      <c r="G3" s="332"/>
+      <c r="H3" s="332"/>
+      <c r="I3" s="332"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="324" t="s">
-        <v>654</v>
-      </c>
-      <c r="C4" s="330"/>
-      <c r="D4" s="330"/>
-      <c r="E4" s="330"/>
-      <c r="F4" s="330"/>
-      <c r="G4" s="330"/>
-      <c r="H4" s="330"/>
-      <c r="I4" s="330"/>
+      <c r="A4" s="326" t="s">
+        <v>655</v>
+      </c>
+      <c r="C4" s="332"/>
+      <c r="D4" s="332"/>
+      <c r="E4" s="332"/>
+      <c r="F4" s="332"/>
+      <c r="G4" s="332"/>
+      <c r="H4" s="332"/>
+      <c r="I4" s="332"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="324" t="s">
-        <v>655</v>
-      </c>
-      <c r="C5" s="330"/>
-      <c r="D5" s="330"/>
-      <c r="E5" s="330"/>
-      <c r="F5" s="330"/>
-      <c r="G5" s="330"/>
-      <c r="H5" s="330"/>
-      <c r="I5" s="330"/>
+      <c r="A5" s="326" t="s">
+        <v>656</v>
+      </c>
+      <c r="C5" s="332"/>
+      <c r="D5" s="332"/>
+      <c r="E5" s="332"/>
+      <c r="F5" s="332"/>
+      <c r="G5" s="332"/>
+      <c r="H5" s="332"/>
+      <c r="I5" s="332"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="324" t="s">
-        <v>656</v>
-      </c>
-      <c r="C6" s="330"/>
-      <c r="D6" s="330"/>
-      <c r="E6" s="330"/>
-      <c r="F6" s="330"/>
-      <c r="G6" s="330"/>
-      <c r="H6" s="330"/>
-      <c r="I6" s="330"/>
+      <c r="A6" s="326" t="s">
+        <v>657</v>
+      </c>
+      <c r="C6" s="332"/>
+      <c r="D6" s="332"/>
+      <c r="E6" s="332"/>
+      <c r="F6" s="332"/>
+      <c r="G6" s="332"/>
+      <c r="H6" s="332"/>
+      <c r="I6" s="332"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="324" t="s">
-        <v>657</v>
-      </c>
-      <c r="C7" s="330"/>
-      <c r="D7" s="330"/>
-      <c r="E7" s="330"/>
-      <c r="F7" s="330"/>
-      <c r="G7" s="330"/>
-      <c r="H7" s="330"/>
-      <c r="I7" s="330"/>
+      <c r="A7" s="326" t="s">
+        <v>658</v>
+      </c>
+      <c r="C7" s="332"/>
+      <c r="D7" s="332"/>
+      <c r="E7" s="332"/>
+      <c r="F7" s="332"/>
+      <c r="G7" s="332"/>
+      <c r="H7" s="332"/>
+      <c r="I7" s="332"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="324" t="s">
-        <v>658</v>
-      </c>
-      <c r="C8" s="330"/>
-      <c r="D8" s="330"/>
-      <c r="E8" s="330"/>
-      <c r="F8" s="330"/>
-      <c r="G8" s="330"/>
-      <c r="H8" s="330"/>
-      <c r="I8" s="330"/>
+      <c r="A8" s="326" t="s">
+        <v>659</v>
+      </c>
+      <c r="C8" s="332"/>
+      <c r="D8" s="332"/>
+      <c r="E8" s="332"/>
+      <c r="F8" s="332"/>
+      <c r="G8" s="332"/>
+      <c r="H8" s="332"/>
+      <c r="I8" s="332"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="324" t="s">
-        <v>659</v>
-      </c>
-      <c r="C9" s="330"/>
-      <c r="D9" s="330"/>
-      <c r="E9" s="330"/>
-      <c r="F9" s="330"/>
-      <c r="G9" s="330"/>
-      <c r="H9" s="330"/>
-      <c r="I9" s="330"/>
+      <c r="A9" s="326" t="s">
+        <v>660</v>
+      </c>
+      <c r="C9" s="332"/>
+      <c r="D9" s="332"/>
+      <c r="E9" s="332"/>
+      <c r="F9" s="332"/>
+      <c r="G9" s="332"/>
+      <c r="H9" s="332"/>
+      <c r="I9" s="332"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="324" t="s">
-        <v>660</v>
-      </c>
-      <c r="C10" s="330"/>
-      <c r="D10" s="330"/>
-      <c r="E10" s="330"/>
-      <c r="F10" s="330"/>
-      <c r="G10" s="330"/>
-      <c r="H10" s="330"/>
-      <c r="I10" s="330"/>
+      <c r="A10" s="326" t="s">
+        <v>661</v>
+      </c>
+      <c r="C10" s="332"/>
+      <c r="D10" s="332"/>
+      <c r="E10" s="332"/>
+      <c r="F10" s="332"/>
+      <c r="G10" s="332"/>
+      <c r="H10" s="332"/>
+      <c r="I10" s="332"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="324" t="s">
-        <v>661</v>
-      </c>
-      <c r="C11" s="330"/>
-      <c r="D11" s="330"/>
-      <c r="E11" s="330"/>
-      <c r="F11" s="330"/>
-      <c r="G11" s="330"/>
-      <c r="H11" s="330"/>
-      <c r="I11" s="330"/>
+      <c r="A11" s="326" t="s">
+        <v>662</v>
+      </c>
+      <c r="C11" s="332"/>
+      <c r="D11" s="332"/>
+      <c r="E11" s="332"/>
+      <c r="F11" s="332"/>
+      <c r="G11" s="332"/>
+      <c r="H11" s="332"/>
+      <c r="I11" s="332"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="324" t="s">
-        <v>662</v>
-      </c>
-      <c r="C12" s="330"/>
-      <c r="D12" s="330"/>
-      <c r="E12" s="330"/>
-      <c r="F12" s="330"/>
-      <c r="G12" s="330"/>
-      <c r="H12" s="330"/>
-      <c r="I12" s="330"/>
+      <c r="A12" s="326" t="s">
+        <v>663</v>
+      </c>
+      <c r="C12" s="332"/>
+      <c r="D12" s="332"/>
+      <c r="E12" s="332"/>
+      <c r="F12" s="332"/>
+      <c r="G12" s="332"/>
+      <c r="H12" s="332"/>
+      <c r="I12" s="332"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="324" t="s">
-        <v>663</v>
-      </c>
-      <c r="C13" s="330"/>
-      <c r="D13" s="330"/>
-      <c r="E13" s="330"/>
-      <c r="F13" s="330"/>
-      <c r="G13" s="330"/>
-      <c r="H13" s="330"/>
-      <c r="I13" s="330"/>
+      <c r="A13" s="326" t="s">
+        <v>664</v>
+      </c>
+      <c r="C13" s="332"/>
+      <c r="D13" s="332"/>
+      <c r="E13" s="332"/>
+      <c r="F13" s="332"/>
+      <c r="G13" s="332"/>
+      <c r="H13" s="332"/>
+      <c r="I13" s="332"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="324" t="s">
-        <v>664</v>
-      </c>
-      <c r="C14" s="330"/>
-      <c r="D14" s="330"/>
-      <c r="E14" s="330"/>
-      <c r="F14" s="330"/>
-      <c r="G14" s="330"/>
-      <c r="H14" s="330"/>
-      <c r="I14" s="330"/>
+      <c r="A14" s="326" t="s">
+        <v>665</v>
+      </c>
+      <c r="C14" s="332"/>
+      <c r="D14" s="332"/>
+      <c r="E14" s="332"/>
+      <c r="F14" s="332"/>
+      <c r="G14" s="332"/>
+      <c r="H14" s="332"/>
+      <c r="I14" s="332"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="324" t="s">
-        <v>665</v>
-      </c>
-      <c r="C15" s="330"/>
-      <c r="D15" s="330"/>
-      <c r="E15" s="330"/>
-      <c r="F15" s="330"/>
-      <c r="G15" s="330"/>
-      <c r="H15" s="330"/>
-      <c r="I15" s="330"/>
+      <c r="A15" s="326" t="s">
+        <v>666</v>
+      </c>
+      <c r="C15" s="332"/>
+      <c r="D15" s="332"/>
+      <c r="E15" s="332"/>
+      <c r="F15" s="332"/>
+      <c r="G15" s="332"/>
+      <c r="H15" s="332"/>
+      <c r="I15" s="332"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="324" t="s">
-        <v>666</v>
-      </c>
-      <c r="C16" s="330"/>
-      <c r="D16" s="330"/>
-      <c r="E16" s="330"/>
-      <c r="F16" s="330"/>
-      <c r="G16" s="330"/>
-      <c r="H16" s="330"/>
-      <c r="I16" s="330"/>
+      <c r="A16" s="326" t="s">
+        <v>667</v>
+      </c>
+      <c r="C16" s="332"/>
+      <c r="D16" s="332"/>
+      <c r="E16" s="332"/>
+      <c r="F16" s="332"/>
+      <c r="G16" s="332"/>
+      <c r="H16" s="332"/>
+      <c r="I16" s="332"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="324" t="s">
-        <v>667</v>
-      </c>
-      <c r="C17" s="330"/>
-      <c r="D17" s="330"/>
-      <c r="E17" s="330"/>
-      <c r="F17" s="330"/>
-      <c r="G17" s="330"/>
-      <c r="H17" s="330"/>
-      <c r="I17" s="330"/>
+      <c r="A17" s="326" t="s">
+        <v>668</v>
+      </c>
+      <c r="C17" s="332"/>
+      <c r="D17" s="332"/>
+      <c r="E17" s="332"/>
+      <c r="F17" s="332"/>
+      <c r="G17" s="332"/>
+      <c r="H17" s="332"/>
+      <c r="I17" s="332"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="324" t="s">
-        <v>668</v>
-      </c>
-      <c r="C18" s="330"/>
-      <c r="D18" s="330"/>
-      <c r="E18" s="330"/>
-      <c r="F18" s="330"/>
-      <c r="G18" s="330"/>
-      <c r="H18" s="330"/>
-      <c r="I18" s="330"/>
+      <c r="A18" s="326" t="s">
+        <v>669</v>
+      </c>
+      <c r="C18" s="332"/>
+      <c r="D18" s="332"/>
+      <c r="E18" s="332"/>
+      <c r="F18" s="332"/>
+      <c r="G18" s="332"/>
+      <c r="H18" s="332"/>
+      <c r="I18" s="332"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="324" t="s">
-        <v>669</v>
-      </c>
-      <c r="C19" s="330"/>
-      <c r="D19" s="330"/>
-      <c r="E19" s="330"/>
-      <c r="F19" s="330"/>
-      <c r="G19" s="330"/>
-      <c r="H19" s="330"/>
-      <c r="I19" s="330"/>
+      <c r="A19" s="326" t="s">
+        <v>670</v>
+      </c>
+      <c r="C19" s="332"/>
+      <c r="D19" s="332"/>
+      <c r="E19" s="332"/>
+      <c r="F19" s="332"/>
+      <c r="G19" s="332"/>
+      <c r="H19" s="332"/>
+      <c r="I19" s="332"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="324" t="s">
-        <v>670</v>
-      </c>
-      <c r="C20" s="330"/>
-      <c r="D20" s="330"/>
-      <c r="E20" s="330"/>
-      <c r="F20" s="330"/>
-      <c r="G20" s="330"/>
-      <c r="H20" s="330"/>
-      <c r="I20" s="330"/>
+      <c r="A20" s="326" t="s">
+        <v>671</v>
+      </c>
+      <c r="C20" s="332"/>
+      <c r="D20" s="332"/>
+      <c r="E20" s="332"/>
+      <c r="F20" s="332"/>
+      <c r="G20" s="332"/>
+      <c r="H20" s="332"/>
+      <c r="I20" s="332"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="324" t="s">
-        <v>671</v>
-      </c>
-      <c r="C21" s="330"/>
-      <c r="D21" s="330"/>
-      <c r="E21" s="330"/>
-      <c r="F21" s="330"/>
-      <c r="G21" s="330"/>
-      <c r="H21" s="330"/>
-      <c r="I21" s="330"/>
+      <c r="A21" s="326" t="s">
+        <v>672</v>
+      </c>
+      <c r="C21" s="332"/>
+      <c r="D21" s="332"/>
+      <c r="E21" s="332"/>
+      <c r="F21" s="332"/>
+      <c r="G21" s="332"/>
+      <c r="H21" s="332"/>
+      <c r="I21" s="332"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="324" t="s">
-        <v>672</v>
-      </c>
-      <c r="C22" s="330"/>
-      <c r="D22" s="330"/>
-      <c r="E22" s="330"/>
-      <c r="F22" s="330"/>
-      <c r="G22" s="330"/>
-      <c r="H22" s="330"/>
-      <c r="I22" s="330"/>
+      <c r="A22" s="326" t="s">
+        <v>673</v>
+      </c>
+      <c r="C22" s="332"/>
+      <c r="D22" s="332"/>
+      <c r="E22" s="332"/>
+      <c r="F22" s="332"/>
+      <c r="G22" s="332"/>
+      <c r="H22" s="332"/>
+      <c r="I22" s="332"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="324" t="s">
-        <v>673</v>
-      </c>
-      <c r="C23" s="330"/>
-      <c r="D23" s="330"/>
-      <c r="E23" s="330"/>
-      <c r="F23" s="330"/>
-      <c r="G23" s="330"/>
-      <c r="H23" s="330"/>
-      <c r="I23" s="330"/>
+      <c r="A23" s="326" t="s">
+        <v>674</v>
+      </c>
+      <c r="C23" s="332"/>
+      <c r="D23" s="332"/>
+      <c r="E23" s="332"/>
+      <c r="F23" s="332"/>
+      <c r="G23" s="332"/>
+      <c r="H23" s="332"/>
+      <c r="I23" s="332"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="324" t="s">
-        <v>674</v>
-      </c>
-      <c r="C24" s="330"/>
-      <c r="D24" s="330"/>
-      <c r="E24" s="330"/>
-      <c r="F24" s="330"/>
-      <c r="G24" s="330"/>
-      <c r="H24" s="330"/>
-      <c r="I24" s="330"/>
+      <c r="A24" s="326" t="s">
+        <v>675</v>
+      </c>
+      <c r="C24" s="332"/>
+      <c r="D24" s="332"/>
+      <c r="E24" s="332"/>
+      <c r="F24" s="332"/>
+      <c r="G24" s="332"/>
+      <c r="H24" s="332"/>
+      <c r="I24" s="332"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="324" t="s">
-        <v>675</v>
-      </c>
-      <c r="C25" s="330"/>
-      <c r="D25" s="330"/>
-      <c r="E25" s="330"/>
-      <c r="F25" s="330"/>
-      <c r="G25" s="330"/>
-      <c r="H25" s="330"/>
-      <c r="I25" s="330"/>
+      <c r="A25" s="326" t="s">
+        <v>676</v>
+      </c>
+      <c r="C25" s="332"/>
+      <c r="D25" s="332"/>
+      <c r="E25" s="332"/>
+      <c r="F25" s="332"/>
+      <c r="G25" s="332"/>
+      <c r="H25" s="332"/>
+      <c r="I25" s="332"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="324" t="s">
-        <v>676</v>
-      </c>
-      <c r="C26" s="330"/>
-      <c r="D26" s="330"/>
-      <c r="E26" s="330"/>
-      <c r="F26" s="330"/>
-      <c r="G26" s="330"/>
-      <c r="H26" s="330"/>
-      <c r="I26" s="330"/>
+      <c r="A26" s="326" t="s">
+        <v>677</v>
+      </c>
+      <c r="C26" s="332"/>
+      <c r="D26" s="332"/>
+      <c r="E26" s="332"/>
+      <c r="F26" s="332"/>
+      <c r="G26" s="332"/>
+      <c r="H26" s="332"/>
+      <c r="I26" s="332"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="324" t="s">
-        <v>677</v>
-      </c>
-      <c r="C27" s="330"/>
-      <c r="D27" s="330"/>
-      <c r="E27" s="330"/>
-      <c r="F27" s="330"/>
-      <c r="G27" s="330"/>
-      <c r="H27" s="330"/>
-      <c r="I27" s="330"/>
+      <c r="A27" s="326" t="s">
+        <v>678</v>
+      </c>
+      <c r="C27" s="332"/>
+      <c r="D27" s="332"/>
+      <c r="E27" s="332"/>
+      <c r="F27" s="332"/>
+      <c r="G27" s="332"/>
+      <c r="H27" s="332"/>
+      <c r="I27" s="332"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="324" t="s">
-        <v>678</v>
-      </c>
-      <c r="C28" s="330"/>
-      <c r="D28" s="330"/>
-      <c r="E28" s="330"/>
-      <c r="F28" s="330"/>
-      <c r="G28" s="330"/>
-      <c r="H28" s="330"/>
-      <c r="I28" s="330"/>
+      <c r="A28" s="326" t="s">
+        <v>679</v>
+      </c>
+      <c r="C28" s="332"/>
+      <c r="D28" s="332"/>
+      <c r="E28" s="332"/>
+      <c r="F28" s="332"/>
+      <c r="G28" s="332"/>
+      <c r="H28" s="332"/>
+      <c r="I28" s="332"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="324" t="s">
-        <v>679</v>
-      </c>
-      <c r="C29" s="330"/>
-      <c r="D29" s="330"/>
-      <c r="E29" s="330"/>
-      <c r="F29" s="330"/>
-      <c r="G29" s="330"/>
-      <c r="H29" s="330"/>
-      <c r="I29" s="330"/>
+      <c r="A29" s="326" t="s">
+        <v>680</v>
+      </c>
+      <c r="C29" s="332"/>
+      <c r="D29" s="332"/>
+      <c r="E29" s="332"/>
+      <c r="F29" s="332"/>
+      <c r="G29" s="332"/>
+      <c r="H29" s="332"/>
+      <c r="I29" s="332"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="324" t="s">
-        <v>680</v>
-      </c>
-      <c r="C30" s="330"/>
-      <c r="D30" s="330"/>
-      <c r="E30" s="330"/>
-      <c r="F30" s="330"/>
-      <c r="G30" s="330"/>
-      <c r="H30" s="330"/>
-      <c r="I30" s="330"/>
+      <c r="A30" s="326" t="s">
+        <v>681</v>
+      </c>
+      <c r="C30" s="332"/>
+      <c r="D30" s="332"/>
+      <c r="E30" s="332"/>
+      <c r="F30" s="332"/>
+      <c r="G30" s="332"/>
+      <c r="H30" s="332"/>
+      <c r="I30" s="332"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="324" t="s">
-        <v>681</v>
-      </c>
-      <c r="C31" s="330"/>
-      <c r="D31" s="330"/>
-      <c r="E31" s="330"/>
-      <c r="F31" s="330"/>
-      <c r="G31" s="330"/>
-      <c r="H31" s="330"/>
-      <c r="I31" s="330"/>
+      <c r="A31" s="326" t="s">
+        <v>682</v>
+      </c>
+      <c r="C31" s="332"/>
+      <c r="D31" s="332"/>
+      <c r="E31" s="332"/>
+      <c r="F31" s="332"/>
+      <c r="G31" s="332"/>
+      <c r="H31" s="332"/>
+      <c r="I31" s="332"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="324" t="s">
-        <v>682</v>
-      </c>
-      <c r="C32" s="330"/>
-      <c r="D32" s="330"/>
-      <c r="E32" s="330"/>
-      <c r="F32" s="330"/>
-      <c r="G32" s="330"/>
-      <c r="H32" s="330"/>
-      <c r="I32" s="330"/>
+      <c r="A32" s="326" t="s">
+        <v>683</v>
+      </c>
+      <c r="C32" s="332"/>
+      <c r="D32" s="332"/>
+      <c r="E32" s="332"/>
+      <c r="F32" s="332"/>
+      <c r="G32" s="332"/>
+      <c r="H32" s="332"/>
+      <c r="I32" s="332"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="324" t="s">
-        <v>683</v>
-      </c>
-      <c r="C33" s="330"/>
-      <c r="D33" s="330"/>
-      <c r="E33" s="330"/>
-      <c r="F33" s="330"/>
-      <c r="G33" s="330"/>
-      <c r="H33" s="330"/>
-      <c r="I33" s="330"/>
+      <c r="A33" s="326" t="s">
+        <v>684</v>
+      </c>
+      <c r="C33" s="332"/>
+      <c r="D33" s="332"/>
+      <c r="E33" s="332"/>
+      <c r="F33" s="332"/>
+      <c r="G33" s="332"/>
+      <c r="H33" s="332"/>
+      <c r="I33" s="332"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="324" t="s">
-        <v>684</v>
-      </c>
-      <c r="C34" s="330"/>
-      <c r="D34" s="330"/>
-      <c r="E34" s="330"/>
-      <c r="F34" s="330"/>
-      <c r="G34" s="330"/>
-      <c r="H34" s="330"/>
-      <c r="I34" s="330"/>
+      <c r="A34" s="326" t="s">
+        <v>685</v>
+      </c>
+      <c r="C34" s="332"/>
+      <c r="D34" s="332"/>
+      <c r="E34" s="332"/>
+      <c r="F34" s="332"/>
+      <c r="G34" s="332"/>
+      <c r="H34" s="332"/>
+      <c r="I34" s="332"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="324" t="s">
-        <v>685</v>
-      </c>
-      <c r="C35" s="330"/>
-      <c r="D35" s="330"/>
-      <c r="E35" s="330"/>
-      <c r="F35" s="330"/>
-      <c r="G35" s="330"/>
-      <c r="H35" s="330"/>
-      <c r="I35" s="330"/>
+      <c r="A35" s="326" t="s">
+        <v>686</v>
+      </c>
+      <c r="C35" s="332"/>
+      <c r="D35" s="332"/>
+      <c r="E35" s="332"/>
+      <c r="F35" s="332"/>
+      <c r="G35" s="332"/>
+      <c r="H35" s="332"/>
+      <c r="I35" s="332"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="324" t="s">
-        <v>686</v>
-      </c>
-      <c r="C36" s="330"/>
-      <c r="D36" s="330"/>
-      <c r="E36" s="330"/>
-      <c r="F36" s="330"/>
-      <c r="G36" s="330"/>
-      <c r="H36" s="330"/>
-      <c r="I36" s="330"/>
+      <c r="A36" s="326" t="s">
+        <v>687</v>
+      </c>
+      <c r="C36" s="332"/>
+      <c r="D36" s="332"/>
+      <c r="E36" s="332"/>
+      <c r="F36" s="332"/>
+      <c r="G36" s="332"/>
+      <c r="H36" s="332"/>
+      <c r="I36" s="332"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="324" t="s">
-        <v>687</v>
-      </c>
-      <c r="C37" s="330"/>
-      <c r="D37" s="330"/>
-      <c r="E37" s="330"/>
-      <c r="F37" s="330"/>
-      <c r="G37" s="330"/>
-      <c r="H37" s="330"/>
-      <c r="I37" s="330"/>
+      <c r="A37" s="326" t="s">
+        <v>688</v>
+      </c>
+      <c r="C37" s="332"/>
+      <c r="D37" s="332"/>
+      <c r="E37" s="332"/>
+      <c r="F37" s="332"/>
+      <c r="G37" s="332"/>
+      <c r="H37" s="332"/>
+      <c r="I37" s="332"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="324" t="s">
-        <v>688</v>
-      </c>
-      <c r="C38" s="330"/>
-      <c r="D38" s="330"/>
-      <c r="E38" s="330"/>
-      <c r="F38" s="330"/>
-      <c r="G38" s="330"/>
-      <c r="H38" s="330"/>
-      <c r="I38" s="330"/>
+      <c r="A38" s="326" t="s">
+        <v>689</v>
+      </c>
+      <c r="C38" s="332"/>
+      <c r="D38" s="332"/>
+      <c r="E38" s="332"/>
+      <c r="F38" s="332"/>
+      <c r="G38" s="332"/>
+      <c r="H38" s="332"/>
+      <c r="I38" s="332"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="324" t="s">
-        <v>689</v>
-      </c>
-      <c r="C39" s="330"/>
-      <c r="D39" s="330"/>
-      <c r="E39" s="330"/>
-      <c r="F39" s="330"/>
-      <c r="G39" s="330"/>
-      <c r="H39" s="330"/>
-      <c r="I39" s="330"/>
+      <c r="A39" s="326" t="s">
+        <v>690</v>
+      </c>
+      <c r="C39" s="332"/>
+      <c r="D39" s="332"/>
+      <c r="E39" s="332"/>
+      <c r="F39" s="332"/>
+      <c r="G39" s="332"/>
+      <c r="H39" s="332"/>
+      <c r="I39" s="332"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="324" t="s">
-        <v>690</v>
-      </c>
-      <c r="C40" s="330"/>
-      <c r="D40" s="330"/>
-      <c r="E40" s="330"/>
-      <c r="F40" s="330"/>
-      <c r="G40" s="330"/>
-      <c r="H40" s="330"/>
-      <c r="I40" s="330"/>
+      <c r="A40" s="326" t="s">
+        <v>691</v>
+      </c>
+      <c r="C40" s="332"/>
+      <c r="D40" s="332"/>
+      <c r="E40" s="332"/>
+      <c r="F40" s="332"/>
+      <c r="G40" s="332"/>
+      <c r="H40" s="332"/>
+      <c r="I40" s="332"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="324" t="s">
-        <v>691</v>
-      </c>
-      <c r="C41" s="330"/>
-      <c r="D41" s="330"/>
-      <c r="E41" s="330"/>
-      <c r="F41" s="330"/>
-      <c r="G41" s="330"/>
-      <c r="H41" s="330"/>
-      <c r="I41" s="330"/>
+      <c r="A41" s="326" t="s">
+        <v>692</v>
+      </c>
+      <c r="C41" s="332"/>
+      <c r="D41" s="332"/>
+      <c r="E41" s="332"/>
+      <c r="F41" s="332"/>
+      <c r="G41" s="332"/>
+      <c r="H41" s="332"/>
+      <c r="I41" s="332"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="324" t="s">
-        <v>692</v>
-      </c>
-      <c r="C42" s="330"/>
-      <c r="D42" s="330"/>
-      <c r="E42" s="330"/>
-      <c r="F42" s="330"/>
-      <c r="G42" s="330"/>
-      <c r="H42" s="330"/>
-      <c r="I42" s="330"/>
+      <c r="A42" s="326" t="s">
+        <v>693</v>
+      </c>
+      <c r="C42" s="332"/>
+      <c r="D42" s="332"/>
+      <c r="E42" s="332"/>
+      <c r="F42" s="332"/>
+      <c r="G42" s="332"/>
+      <c r="H42" s="332"/>
+      <c r="I42" s="332"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="324" t="s">
-        <v>693</v>
-      </c>
-      <c r="C43" s="330"/>
-      <c r="D43" s="330"/>
-      <c r="E43" s="330"/>
-      <c r="F43" s="330"/>
-      <c r="G43" s="330"/>
-      <c r="H43" s="330"/>
-      <c r="I43" s="330"/>
+      <c r="A43" s="326" t="s">
+        <v>694</v>
+      </c>
+      <c r="C43" s="332"/>
+      <c r="D43" s="332"/>
+      <c r="E43" s="332"/>
+      <c r="F43" s="332"/>
+      <c r="G43" s="332"/>
+      <c r="H43" s="332"/>
+      <c r="I43" s="332"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="324" t="s">
-        <v>694</v>
-      </c>
-      <c r="C44" s="330"/>
-      <c r="D44" s="330"/>
-      <c r="E44" s="330"/>
-      <c r="F44" s="330"/>
-      <c r="G44" s="330"/>
-      <c r="H44" s="330"/>
-      <c r="I44" s="330"/>
+      <c r="A44" s="326" t="s">
+        <v>695</v>
+      </c>
+      <c r="C44" s="332"/>
+      <c r="D44" s="332"/>
+      <c r="E44" s="332"/>
+      <c r="F44" s="332"/>
+      <c r="G44" s="332"/>
+      <c r="H44" s="332"/>
+      <c r="I44" s="332"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="324" t="s">
-        <v>695</v>
-      </c>
-      <c r="C45" s="330"/>
-      <c r="D45" s="330"/>
-      <c r="E45" s="330"/>
-      <c r="F45" s="330"/>
-      <c r="G45" s="330"/>
-      <c r="H45" s="330"/>
-      <c r="I45" s="330"/>
+      <c r="A45" s="326" t="s">
+        <v>696</v>
+      </c>
+      <c r="C45" s="332"/>
+      <c r="D45" s="332"/>
+      <c r="E45" s="332"/>
+      <c r="F45" s="332"/>
+      <c r="G45" s="332"/>
+      <c r="H45" s="332"/>
+      <c r="I45" s="332"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="324" t="s">
-        <v>696</v>
-      </c>
-      <c r="C46" s="330"/>
-      <c r="D46" s="330"/>
-      <c r="E46" s="330"/>
-      <c r="F46" s="330"/>
-      <c r="G46" s="330"/>
-      <c r="H46" s="330"/>
-      <c r="I46" s="330"/>
+      <c r="A46" s="326" t="s">
+        <v>697</v>
+      </c>
+      <c r="C46" s="332"/>
+      <c r="D46" s="332"/>
+      <c r="E46" s="332"/>
+      <c r="F46" s="332"/>
+      <c r="G46" s="332"/>
+      <c r="H46" s="332"/>
+      <c r="I46" s="332"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="324" t="s">
-        <v>697</v>
-      </c>
-      <c r="C47" s="330"/>
-      <c r="D47" s="330"/>
-      <c r="E47" s="330"/>
-      <c r="F47" s="330"/>
-      <c r="G47" s="330"/>
-      <c r="H47" s="330"/>
-      <c r="I47" s="330"/>
+      <c r="A47" s="326" t="s">
+        <v>698</v>
+      </c>
+      <c r="C47" s="332"/>
+      <c r="D47" s="332"/>
+      <c r="E47" s="332"/>
+      <c r="F47" s="332"/>
+      <c r="G47" s="332"/>
+      <c r="H47" s="332"/>
+      <c r="I47" s="332"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="324" t="s">
-        <v>698</v>
-      </c>
-      <c r="C48" s="330"/>
-      <c r="D48" s="330"/>
-      <c r="E48" s="330"/>
-      <c r="F48" s="330"/>
-      <c r="G48" s="330"/>
-      <c r="H48" s="330"/>
-      <c r="I48" s="330"/>
+      <c r="A48" s="326" t="s">
+        <v>699</v>
+      </c>
+      <c r="C48" s="332"/>
+      <c r="D48" s="332"/>
+      <c r="E48" s="332"/>
+      <c r="F48" s="332"/>
+      <c r="G48" s="332"/>
+      <c r="H48" s="332"/>
+      <c r="I48" s="332"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="324" t="s">
-        <v>699</v>
-      </c>
-      <c r="C49" s="330"/>
-      <c r="D49" s="330"/>
-      <c r="E49" s="330"/>
-      <c r="F49" s="330"/>
-      <c r="G49" s="330"/>
-      <c r="H49" s="330"/>
-      <c r="I49" s="330"/>
+      <c r="A49" s="326" t="s">
+        <v>700</v>
+      </c>
+      <c r="C49" s="332"/>
+      <c r="D49" s="332"/>
+      <c r="E49" s="332"/>
+      <c r="F49" s="332"/>
+      <c r="G49" s="332"/>
+      <c r="H49" s="332"/>
+      <c r="I49" s="332"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="324" t="s">
-        <v>700</v>
-      </c>
-      <c r="C50" s="330"/>
-      <c r="D50" s="330"/>
-      <c r="E50" s="330"/>
-      <c r="F50" s="330"/>
-      <c r="G50" s="330"/>
-      <c r="H50" s="330"/>
-      <c r="I50" s="330"/>
+      <c r="A50" s="326" t="s">
+        <v>701</v>
+      </c>
+      <c r="C50" s="332"/>
+      <c r="D50" s="332"/>
+      <c r="E50" s="332"/>
+      <c r="F50" s="332"/>
+      <c r="G50" s="332"/>
+      <c r="H50" s="332"/>
+      <c r="I50" s="332"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="324" t="s">
-        <v>701</v>
-      </c>
-      <c r="C51" s="330"/>
-      <c r="D51" s="330"/>
-      <c r="E51" s="330"/>
-      <c r="F51" s="330"/>
-      <c r="G51" s="330"/>
-      <c r="H51" s="330"/>
-      <c r="I51" s="330"/>
+      <c r="A51" s="326" t="s">
+        <v>702</v>
+      </c>
+      <c r="C51" s="332"/>
+      <c r="D51" s="332"/>
+      <c r="E51" s="332"/>
+      <c r="F51" s="332"/>
+      <c r="G51" s="332"/>
+      <c r="H51" s="332"/>
+      <c r="I51" s="332"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="324" t="s">
-        <v>702</v>
-      </c>
-      <c r="C52" s="330"/>
-      <c r="D52" s="330"/>
-      <c r="E52" s="330"/>
-      <c r="F52" s="330"/>
-      <c r="G52" s="330"/>
-      <c r="H52" s="330"/>
-      <c r="I52" s="330"/>
+      <c r="A52" s="326" t="s">
+        <v>703</v>
+      </c>
+      <c r="C52" s="332"/>
+      <c r="D52" s="332"/>
+      <c r="E52" s="332"/>
+      <c r="F52" s="332"/>
+      <c r="G52" s="332"/>
+      <c r="H52" s="332"/>
+      <c r="I52" s="332"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="324" t="s">
-        <v>703</v>
-      </c>
-      <c r="C53" s="330"/>
-      <c r="D53" s="330"/>
-      <c r="E53" s="330"/>
-      <c r="F53" s="330"/>
-      <c r="G53" s="330"/>
-      <c r="H53" s="330"/>
-      <c r="I53" s="330"/>
+      <c r="A53" s="326" t="s">
+        <v>704</v>
+      </c>
+      <c r="C53" s="332"/>
+      <c r="D53" s="332"/>
+      <c r="E53" s="332"/>
+      <c r="F53" s="332"/>
+      <c r="G53" s="332"/>
+      <c r="H53" s="332"/>
+      <c r="I53" s="332"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="324" t="s">
-        <v>704</v>
-      </c>
-      <c r="C54" s="330"/>
-      <c r="D54" s="330"/>
-      <c r="E54" s="330"/>
-      <c r="F54" s="330"/>
-      <c r="G54" s="330"/>
-      <c r="H54" s="330"/>
-      <c r="I54" s="330"/>
+      <c r="A54" s="326" t="s">
+        <v>705</v>
+      </c>
+      <c r="C54" s="332"/>
+      <c r="D54" s="332"/>
+      <c r="E54" s="332"/>
+      <c r="F54" s="332"/>
+      <c r="G54" s="332"/>
+      <c r="H54" s="332"/>
+      <c r="I54" s="332"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="324" t="s">
-        <v>705</v>
-      </c>
-      <c r="C55" s="330"/>
-      <c r="D55" s="330"/>
-      <c r="E55" s="330"/>
-      <c r="F55" s="330"/>
-      <c r="G55" s="330"/>
-      <c r="H55" s="330"/>
-      <c r="I55" s="330"/>
+      <c r="A55" s="326" t="s">
+        <v>706</v>
+      </c>
+      <c r="C55" s="332"/>
+      <c r="D55" s="332"/>
+      <c r="E55" s="332"/>
+      <c r="F55" s="332"/>
+      <c r="G55" s="332"/>
+      <c r="H55" s="332"/>
+      <c r="I55" s="332"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="324" t="s">
-        <v>706</v>
-      </c>
-      <c r="C56" s="330"/>
-      <c r="D56" s="330"/>
-      <c r="E56" s="330"/>
-      <c r="F56" s="330"/>
-      <c r="G56" s="330"/>
-      <c r="H56" s="330"/>
-      <c r="I56" s="330"/>
+      <c r="A56" s="326" t="s">
+        <v>707</v>
+      </c>
+      <c r="C56" s="332"/>
+      <c r="D56" s="332"/>
+      <c r="E56" s="332"/>
+      <c r="F56" s="332"/>
+      <c r="G56" s="332"/>
+      <c r="H56" s="332"/>
+      <c r="I56" s="332"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="324" t="s">
-        <v>707</v>
-      </c>
-      <c r="C57" s="330"/>
-      <c r="D57" s="330"/>
-      <c r="E57" s="330"/>
-      <c r="F57" s="330"/>
-      <c r="G57" s="330"/>
-      <c r="H57" s="330"/>
-      <c r="I57" s="330"/>
+      <c r="A57" s="326" t="s">
+        <v>708</v>
+      </c>
+      <c r="C57" s="332"/>
+      <c r="D57" s="332"/>
+      <c r="E57" s="332"/>
+      <c r="F57" s="332"/>
+      <c r="G57" s="332"/>
+      <c r="H57" s="332"/>
+      <c r="I57" s="332"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="324" t="s">
-        <v>708</v>
-      </c>
-      <c r="C58" s="330"/>
-      <c r="D58" s="330"/>
-      <c r="E58" s="330"/>
-      <c r="F58" s="330"/>
-      <c r="G58" s="330"/>
-      <c r="H58" s="330"/>
-      <c r="I58" s="330"/>
+      <c r="A58" s="326" t="s">
+        <v>709</v>
+      </c>
+      <c r="C58" s="332"/>
+      <c r="D58" s="332"/>
+      <c r="E58" s="332"/>
+      <c r="F58" s="332"/>
+      <c r="G58" s="332"/>
+      <c r="H58" s="332"/>
+      <c r="I58" s="332"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="324" t="s">
-        <v>709</v>
-      </c>
-      <c r="C59" s="330"/>
-      <c r="D59" s="330"/>
-      <c r="E59" s="330"/>
-      <c r="F59" s="330"/>
-      <c r="G59" s="330"/>
-      <c r="H59" s="330"/>
-      <c r="I59" s="330"/>
+      <c r="A59" s="326" t="s">
+        <v>710</v>
+      </c>
+      <c r="C59" s="332"/>
+      <c r="D59" s="332"/>
+      <c r="E59" s="332"/>
+      <c r="F59" s="332"/>
+      <c r="G59" s="332"/>
+      <c r="H59" s="332"/>
+      <c r="I59" s="332"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="324" t="s">
-        <v>710</v>
-      </c>
-      <c r="C60" s="330"/>
-      <c r="D60" s="330"/>
-      <c r="E60" s="330"/>
-      <c r="F60" s="330"/>
-      <c r="G60" s="330"/>
-      <c r="H60" s="330"/>
-      <c r="I60" s="330"/>
+      <c r="A60" s="326" t="s">
+        <v>711</v>
+      </c>
+      <c r="C60" s="332"/>
+      <c r="D60" s="332"/>
+      <c r="E60" s="332"/>
+      <c r="F60" s="332"/>
+      <c r="G60" s="332"/>
+      <c r="H60" s="332"/>
+      <c r="I60" s="332"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="324" t="s">
-        <v>711</v>
-      </c>
-      <c r="C61" s="330"/>
-      <c r="D61" s="330"/>
-      <c r="E61" s="330"/>
-      <c r="F61" s="330"/>
-      <c r="G61" s="330"/>
-      <c r="H61" s="330"/>
-      <c r="I61" s="330"/>
+      <c r="A61" s="326" t="s">
+        <v>712</v>
+      </c>
+      <c r="C61" s="332"/>
+      <c r="D61" s="332"/>
+      <c r="E61" s="332"/>
+      <c r="F61" s="332"/>
+      <c r="G61" s="332"/>
+      <c r="H61" s="332"/>
+      <c r="I61" s="332"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="324" t="s">
-        <v>712</v>
-      </c>
-      <c r="C62" s="330"/>
-      <c r="D62" s="330"/>
-      <c r="E62" s="330"/>
-      <c r="F62" s="330"/>
-      <c r="G62" s="330"/>
-      <c r="H62" s="330"/>
-      <c r="I62" s="330"/>
+      <c r="A62" s="326" t="s">
+        <v>713</v>
+      </c>
+      <c r="C62" s="332"/>
+      <c r="D62" s="332"/>
+      <c r="E62" s="332"/>
+      <c r="F62" s="332"/>
+      <c r="G62" s="332"/>
+      <c r="H62" s="332"/>
+      <c r="I62" s="332"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="324" t="s">
-        <v>713</v>
-      </c>
-      <c r="C63" s="330"/>
-      <c r="D63" s="330"/>
-      <c r="E63" s="330"/>
-      <c r="F63" s="330"/>
-      <c r="G63" s="330"/>
-      <c r="H63" s="330"/>
-      <c r="I63" s="330"/>
+      <c r="A63" s="326" t="s">
+        <v>714</v>
+      </c>
+      <c r="C63" s="332"/>
+      <c r="D63" s="332"/>
+      <c r="E63" s="332"/>
+      <c r="F63" s="332"/>
+      <c r="G63" s="332"/>
+      <c r="H63" s="332"/>
+      <c r="I63" s="332"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="324" t="s">
-        <v>714</v>
-      </c>
-      <c r="C64" s="330"/>
-      <c r="D64" s="330"/>
-      <c r="E64" s="330"/>
-      <c r="F64" s="330"/>
-      <c r="G64" s="330"/>
-      <c r="H64" s="330"/>
-      <c r="I64" s="330"/>
+      <c r="A64" s="326" t="s">
+        <v>715</v>
+      </c>
+      <c r="C64" s="332"/>
+      <c r="D64" s="332"/>
+      <c r="E64" s="332"/>
+      <c r="F64" s="332"/>
+      <c r="G64" s="332"/>
+      <c r="H64" s="332"/>
+      <c r="I64" s="332"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="324" t="s">
-        <v>715</v>
-      </c>
-      <c r="C65" s="330"/>
-      <c r="D65" s="330"/>
-      <c r="E65" s="330"/>
-      <c r="F65" s="330"/>
-      <c r="G65" s="330"/>
-      <c r="H65" s="330"/>
-      <c r="I65" s="330"/>
+      <c r="A65" s="326" t="s">
+        <v>716</v>
+      </c>
+      <c r="C65" s="332"/>
+      <c r="D65" s="332"/>
+      <c r="E65" s="332"/>
+      <c r="F65" s="332"/>
+      <c r="G65" s="332"/>
+      <c r="H65" s="332"/>
+      <c r="I65" s="332"/>
     </row>
     <row r="66" customFormat="false" ht="5.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="324" t="s">
-        <v>716</v>
+      <c r="A66" s="326" t="s">
+        <v>717</v>
       </c>
       <c r="C66" s="143"/>
       <c r="D66" s="144"/>
@@ -31963,373 +32015,373 @@
       <c r="I66" s="157"/>
     </row>
     <row r="67" customFormat="false" ht="4.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="324" t="s">
-        <v>717</v>
+      <c r="A67" s="326" t="s">
+        <v>718</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="324" t="s">
-        <v>718</v>
+      <c r="A68" s="326" t="s">
+        <v>719</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="324" t="s">
-        <v>719</v>
+      <c r="A69" s="326" t="s">
+        <v>720</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="324" t="s">
-        <v>720</v>
+      <c r="A70" s="326" t="s">
+        <v>721</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="324" t="s">
-        <v>721</v>
+      <c r="A71" s="326" t="s">
+        <v>722</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="324" t="s">
-        <v>722</v>
+      <c r="A72" s="326" t="s">
+        <v>723</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="324" t="s">
-        <v>723</v>
+      <c r="A73" s="326" t="s">
+        <v>724</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="324" t="s">
-        <v>724</v>
+      <c r="A74" s="326" t="s">
+        <v>725</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="324" t="s">
-        <v>725</v>
+      <c r="A75" s="326" t="s">
+        <v>726</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="324" t="s">
-        <v>726</v>
+      <c r="A76" s="326" t="s">
+        <v>727</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="324" t="s">
-        <v>727</v>
+      <c r="A77" s="326" t="s">
+        <v>728</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="324" t="s">
-        <v>728</v>
+      <c r="A78" s="326" t="s">
+        <v>729</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="324" t="s">
-        <v>729</v>
+      <c r="A79" s="326" t="s">
+        <v>730</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="324" t="s">
-        <v>730</v>
+      <c r="A80" s="326" t="s">
+        <v>731</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="324" t="s">
-        <v>731</v>
+      <c r="A81" s="326" t="s">
+        <v>732</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="324" t="s">
-        <v>732</v>
+      <c r="A82" s="326" t="s">
+        <v>733</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="324" t="s">
-        <v>733</v>
+      <c r="A83" s="326" t="s">
+        <v>734</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="324" t="s">
-        <v>734</v>
+      <c r="A84" s="326" t="s">
+        <v>735</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="324" t="s">
-        <v>735</v>
+      <c r="A85" s="326" t="s">
+        <v>736</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="324" t="s">
-        <v>736</v>
+      <c r="A86" s="326" t="s">
+        <v>737</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="324" t="s">
-        <v>737</v>
+      <c r="A87" s="326" t="s">
+        <v>738</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="324" t="s">
-        <v>738</v>
+      <c r="A88" s="326" t="s">
+        <v>739</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="324" t="s">
-        <v>739</v>
+      <c r="A89" s="326" t="s">
+        <v>740</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="324" t="s">
-        <v>740</v>
+      <c r="A90" s="326" t="s">
+        <v>741</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="324" t="s">
-        <v>741</v>
+      <c r="A91" s="326" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="324" t="s">
-        <v>742</v>
+      <c r="A92" s="326" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="324" t="s">
-        <v>743</v>
+      <c r="A93" s="326" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="324" t="s">
-        <v>744</v>
+      <c r="A94" s="326" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="324" t="s">
-        <v>745</v>
+      <c r="A95" s="326" t="s">
+        <v>746</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="324" t="s">
-        <v>746</v>
+      <c r="A96" s="326" t="s">
+        <v>747</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="324" t="s">
-        <v>747</v>
+      <c r="A97" s="326" t="s">
+        <v>748</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="324" t="s">
-        <v>748</v>
+      <c r="A98" s="326" t="s">
+        <v>749</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="324" t="s">
-        <v>749</v>
+      <c r="A99" s="326" t="s">
+        <v>750</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="324" t="s">
-        <v>750</v>
+      <c r="A100" s="326" t="s">
+        <v>751</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="324" t="s">
-        <v>751</v>
+      <c r="A101" s="326" t="s">
+        <v>752</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="324" t="s">
-        <v>752</v>
+      <c r="A102" s="326" t="s">
+        <v>753</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="324" t="s">
-        <v>753</v>
+      <c r="A103" s="326" t="s">
+        <v>754</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="324" t="s">
-        <v>754</v>
+      <c r="A104" s="326" t="s">
+        <v>755</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="324" t="s">
-        <v>755</v>
+      <c r="A105" s="326" t="s">
+        <v>756</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="324" t="s">
-        <v>756</v>
+      <c r="A106" s="326" t="s">
+        <v>757</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="324" t="s">
-        <v>757</v>
+      <c r="A107" s="326" t="s">
+        <v>758</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="324" t="s">
-        <v>758</v>
+      <c r="A108" s="326" t="s">
+        <v>759</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="324" t="s">
-        <v>759</v>
+      <c r="A109" s="326" t="s">
+        <v>760</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="324" t="s">
-        <v>760</v>
+      <c r="A110" s="326" t="s">
+        <v>761</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="324" t="s">
-        <v>761</v>
+      <c r="A111" s="326" t="s">
+        <v>762</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="324" t="s">
-        <v>762</v>
+      <c r="A112" s="326" t="s">
+        <v>763</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="324" t="s">
-        <v>763</v>
+      <c r="A113" s="326" t="s">
+        <v>764</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="324" t="s">
-        <v>764</v>
+      <c r="A114" s="326" t="s">
+        <v>765</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="324" t="s">
-        <v>765</v>
+      <c r="A115" s="326" t="s">
+        <v>766</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="324" t="s">
-        <v>766</v>
+      <c r="A116" s="326" t="s">
+        <v>767</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="324" t="s">
-        <v>767</v>
+      <c r="A117" s="326" t="s">
+        <v>768</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="324" t="s">
-        <v>768</v>
+      <c r="A118" s="326" t="s">
+        <v>769</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="324" t="s">
-        <v>769</v>
+      <c r="A119" s="326" t="s">
+        <v>770</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="324" t="s">
-        <v>770</v>
+      <c r="A120" s="326" t="s">
+        <v>771</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="324" t="s">
-        <v>771</v>
+      <c r="A121" s="326" t="s">
+        <v>772</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="324" t="s">
-        <v>772</v>
+      <c r="A122" s="326" t="s">
+        <v>773</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="324" t="s">
-        <v>773</v>
+      <c r="A123" s="326" t="s">
+        <v>774</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="324" t="s">
-        <v>774</v>
+      <c r="A124" s="326" t="s">
+        <v>775</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="324" t="s">
-        <v>775</v>
+      <c r="A125" s="326" t="s">
+        <v>776</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="324" t="s">
-        <v>776</v>
+      <c r="A126" s="326" t="s">
+        <v>777</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="324" t="s">
-        <v>777</v>
+      <c r="A127" s="326" t="s">
+        <v>778</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="324" t="s">
-        <v>778</v>
+      <c r="A128" s="326" t="s">
+        <v>779</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="324" t="s">
-        <v>779</v>
+      <c r="A129" s="326" t="s">
+        <v>780</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="324" t="s">
-        <v>780</v>
+      <c r="A130" s="326" t="s">
+        <v>781</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="324" t="s">
-        <v>781</v>
+      <c r="A131" s="326" t="s">
+        <v>782</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="324" t="s">
-        <v>782</v>
+      <c r="A132" s="326" t="s">
+        <v>783</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="324" t="s">
-        <v>783</v>
+      <c r="A133" s="326" t="s">
+        <v>784</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="324" t="s">
-        <v>784</v>
+      <c r="A134" s="326" t="s">
+        <v>785</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="324" t="s">
-        <v>785</v>
+      <c r="A135" s="326" t="s">
+        <v>786</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="324" t="s">
-        <v>786</v>
+      <c r="A136" s="326" t="s">
+        <v>787</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="324" t="s">
-        <v>787</v>
+      <c r="A137" s="326" t="s">
+        <v>788</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="324" t="s">
-        <v>788</v>
+      <c r="A138" s="326" t="s">
+        <v>789</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="324" t="s">
-        <v>789</v>
+      <c r="A139" s="326" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="324" t="s">
-        <v>790</v>
+      <c r="A140" s="326" t="s">
+        <v>791</v>
       </c>
     </row>
   </sheetData>

--- a/etp-backend/src/main/resources/energiatodistus-2013-sv.xlsx
+++ b/etp-backend/src/main/resources/energiatodistus-2013-sv.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="1) etusivu" sheetId="1" state="visible" r:id="rId2"/>
@@ -2188,6 +2188,7 @@
         <color rgb="FF009EE0"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">m</t>
     </r>
@@ -2199,6 +2200,7 @@
         <color rgb="FF009EE0"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">2</t>
     </r>
@@ -3360,7 +3362,7 @@
     <numFmt numFmtId="173" formatCode="#,##0.00"/>
     <numFmt numFmtId="174" formatCode="0.0"/>
   </numFmts>
-  <fonts count="41">
+  <fonts count="39">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -3630,21 +3632,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="10"/>
-      <color rgb="FF009EE0"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <vertAlign val="superscript"/>
-      <sz val="10"/>
-      <color rgb="FF009EE0"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -5101,11 +5088,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5133,7 +5120,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="39" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="37" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5225,7 +5212,7 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="39" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="37" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5301,11 +5288,11 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="40" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="38" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="40" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="38" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -8798,9 +8785,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>246240</xdr:colOff>
+      <xdr:colOff>245880</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>259920</xdr:rowOff>
+      <xdr:rowOff>259560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8814,7 +8801,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="4199040"/>
-          <a:ext cx="756000" cy="212400"/>
+          <a:ext cx="755640" cy="212040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8835,9 +8822,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>146160</xdr:colOff>
+      <xdr:colOff>145800</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>259920</xdr:rowOff>
+      <xdr:rowOff>259560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8851,7 +8838,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="4513320"/>
-          <a:ext cx="1099080" cy="212400"/>
+          <a:ext cx="1098720" cy="212040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8872,9 +8859,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>19440</xdr:colOff>
+      <xdr:colOff>19080</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>261000</xdr:rowOff>
+      <xdr:rowOff>260640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8888,7 +8875,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="4828680"/>
-          <a:ext cx="1406160" cy="212400"/>
+          <a:ext cx="1405800" cy="212040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8909,9 +8896,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>343440</xdr:colOff>
+      <xdr:colOff>343080</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>261000</xdr:rowOff>
+      <xdr:rowOff>260640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8925,7 +8912,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="5142960"/>
-          <a:ext cx="1730160" cy="212400"/>
+          <a:ext cx="1729800" cy="212040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8946,9 +8933,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>216720</xdr:colOff>
+      <xdr:colOff>216360</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>273960</xdr:rowOff>
+      <xdr:rowOff>273600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8962,7 +8949,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="5457240"/>
-          <a:ext cx="2037240" cy="225360"/>
+          <a:ext cx="2036880" cy="225000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8983,9 +8970,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>159840</xdr:colOff>
+      <xdr:colOff>159480</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>261000</xdr:rowOff>
+      <xdr:rowOff>260640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8999,7 +8986,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="5771520"/>
-          <a:ext cx="2382120" cy="212400"/>
+          <a:ext cx="2381760" cy="212040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9020,9 +9007,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>100080</xdr:colOff>
+      <xdr:colOff>99720</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>259920</xdr:rowOff>
+      <xdr:rowOff>259560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9036,7 +9023,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="6085080"/>
-          <a:ext cx="2695320" cy="212400"/>
+          <a:ext cx="2694960" cy="212040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9436,9 +9423,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>316440</xdr:colOff>
+      <xdr:colOff>316080</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>77400</xdr:rowOff>
+      <xdr:rowOff>77040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9448,7 +9435,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1994400" y="149040"/>
-          <a:ext cx="6998400" cy="10061640"/>
+          <a:ext cx="6998040" cy="10061280"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -9534,9 +9521,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>4320</xdr:colOff>
+      <xdr:colOff>3960</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>78480</xdr:rowOff>
+      <xdr:rowOff>78120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9546,7 +9533,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1987560" y="10344960"/>
-          <a:ext cx="7015680" cy="265320"/>
+          <a:ext cx="7015320" cy="264960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9600,9 +9587,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>432720</xdr:colOff>
+      <xdr:colOff>432360</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>55800</xdr:rowOff>
+      <xdr:rowOff>55440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9612,7 +9599,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5525280" y="4883760"/>
-          <a:ext cx="794520" cy="266400"/>
+          <a:ext cx="794160" cy="266040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9664,9 +9651,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>431640</xdr:colOff>
+      <xdr:colOff>431280</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>195480</xdr:rowOff>
+      <xdr:rowOff>195120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9676,7 +9663,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5524200" y="5023440"/>
-          <a:ext cx="794520" cy="266400"/>
+          <a:ext cx="794160" cy="266040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -27337,7 +27324,7 @@
   </sheetPr>
   <dimension ref="A1:Y67"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F16" activeCellId="0" sqref="F16"/>
     </sheetView>
   </sheetViews>
@@ -27346,8 +27333,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="90" width="61.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="26" width="0.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="26" width="1.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="26" width="23.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="26" width="7.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="26" width="23.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="26" width="7.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="26" width="15.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="7" style="26" width="12.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="26" width="2.42"/>
@@ -27441,10 +27428,10 @@
         <v>448</v>
       </c>
       <c r="C7" s="97"/>
-      <c r="D7" s="274" t="s">
+      <c r="D7" s="61" t="s">
         <v>92</v>
       </c>
-      <c r="E7" s="29" t="str">
+      <c r="E7" s="274" t="str">
         <f aca="false">A3</f>
         <v>#function[solita.etp.service.energiatodistus-pdf/fn--61283]</v>
       </c>
@@ -29246,7 +29233,7 @@
   </sheetPr>
   <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A43" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="J61" activeCellId="0" sqref="J61"/>
     </sheetView>
   </sheetViews>
@@ -30298,8 +30285,8 @@
   </sheetPr>
   <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J59" activeCellId="0" sqref="J59"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -30763,8 +30750,8 @@
         <v>3</v>
       </c>
       <c r="D36" s="344" t="str">
-        <f aca="false">A28</f>
-        <v>[:huomiot :valaistus-muut :toimenpide 2 :nimi-fi]</v>
+        <f aca="false">A29</f>
+        <v>[:huomiot :valaistus-muut :toimenpide 2 :nimi-sv]</v>
       </c>
       <c r="E36" s="344"/>
       <c r="F36" s="344"/>

--- a/etp-backend/src/main/resources/energiatodistus-2013-sv.xlsx
+++ b/etp-backend/src/main/resources/energiatodistus-2013-sv.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="1) etusivu" sheetId="1" state="visible" r:id="rId2"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="979" uniqueCount="792">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="978" uniqueCount="794">
   <si>
     <t xml:space="preserve">[:id]</t>
   </si>
@@ -476,19 +476,19 @@
     <t xml:space="preserve">[:tulokset :kaytettavat-energiamuodot :uusiutuva-polttoaine-kerroin]</t>
   </si>
   <si>
-    <t xml:space="preserve">TODO uusiutuva polttoaine</t>
+    <t xml:space="preserve">förrnybara bränslen</t>
   </si>
   <si>
     <t xml:space="preserve">[:tulokset :kaytettavat-energiamuodot :uusiutuva-polttoaine-nettoala-kertoimella]</t>
   </si>
   <si>
-    <t xml:space="preserve">TODO fossiilinen polttoaine</t>
+    <t xml:space="preserve">fossila bränslen</t>
   </si>
   <si>
     <t xml:space="preserve">[:tulokset :kaytettavat-energiamuodot :fossiilinen-polttoaine]</t>
   </si>
   <si>
-    <t xml:space="preserve">TODO kaukojäähdytys</t>
+    <t xml:space="preserve">fjärrkyla</t>
   </si>
   <si>
     <t xml:space="preserve">[:tulokset :kaytettavat-energiamuodot :fossiilinen-polttoaine-nettoala]</t>
@@ -1734,9 +1734,18 @@
     <t xml:space="preserve">[:tulokset :kaytettavat-energiamuodot :fossiilinen-polttoaine-kertoimella]</t>
   </si>
   <si>
+    <t xml:space="preserve">TODO fossiilinen polttoaine</t>
+  </si>
+  <si>
     <t xml:space="preserve">[:tulokset :kaytettavat-energiamuodot :kaukojaahdytys-kertoimella]</t>
   </si>
   <si>
+    <t xml:space="preserve">TODO kaukojäähdytys</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TODO uusiutuva polttoaine</t>
+  </si>
+  <si>
     <t xml:space="preserve">[:tulokset :kaytettavat-energiamuodot :uusiutuva-polttoaine-kertoimella]</t>
   </si>
   <si>
@@ -1752,7 +1761,7 @@
     <t xml:space="preserve">[:tulokset :kaytettavat-energiamuodot :muu 1 :ostoenergia-kertoimella]</t>
   </si>
   <si>
-    <t xml:space="preserve">Rakennuksen teknisten järjestelmien energiankulutus</t>
+    <t xml:space="preserve">Energi som förbrukas av husets tekniska system</t>
   </si>
   <si>
     <t xml:space="preserve">[:tulokset :kaytettavat-energiamuodot :muu 2 :ostoenergia-kertoimella]</t>
@@ -2315,7 +2324,7 @@
     <t xml:space="preserve">Lätt brännolja</t>
   </si>
   <si>
-    <t xml:space="preserve">litra</t>
+    <t xml:space="preserve">liter</t>
   </si>
   <si>
     <t xml:space="preserve">[:toteutunut-ostoenergiankulutus :ostettu-energia :muu 3 :nimi-sv]</t>
@@ -2332,7 +2341,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">pino-m</t>
+      <t xml:space="preserve">trav-m</t>
     </r>
     <r>
       <rPr>
@@ -2527,9 +2536,6 @@
   </si>
   <si>
     <t xml:space="preserve">[:huomiot :ymparys :toimenpide 0 :nimi-sv]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Huomiot - ulkoseinät, ulko-ovet ja ikkunat</t>
   </si>
   <si>
     <t xml:space="preserve">Anmärkningar - ytterväggar, ytterdörrar och fönster</t>
@@ -3991,7 +3997,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="347">
+  <cellXfs count="346">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4552,7 +4558,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="24" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -4880,15 +4886,15 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5086,10 +5092,6 @@
     </xf>
     <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
@@ -8785,9 +8787,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>245880</xdr:colOff>
+      <xdr:colOff>245520</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>259560</xdr:rowOff>
+      <xdr:rowOff>259200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8801,7 +8803,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="4199040"/>
-          <a:ext cx="755640" cy="212040"/>
+          <a:ext cx="755280" cy="211680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8822,9 +8824,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>145800</xdr:colOff>
+      <xdr:colOff>145440</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>259560</xdr:rowOff>
+      <xdr:rowOff>259200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8838,7 +8840,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="4513320"/>
-          <a:ext cx="1098720" cy="212040"/>
+          <a:ext cx="1098360" cy="211680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8859,9 +8861,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>19080</xdr:colOff>
+      <xdr:colOff>18720</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>260640</xdr:rowOff>
+      <xdr:rowOff>260280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8875,7 +8877,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="4828680"/>
-          <a:ext cx="1405800" cy="212040"/>
+          <a:ext cx="1405440" cy="211680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8896,9 +8898,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>343080</xdr:colOff>
+      <xdr:colOff>342720</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>260640</xdr:rowOff>
+      <xdr:rowOff>260280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8912,7 +8914,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="5142960"/>
-          <a:ext cx="1729800" cy="212040"/>
+          <a:ext cx="1729440" cy="211680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8933,9 +8935,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>216360</xdr:colOff>
+      <xdr:colOff>216000</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>273600</xdr:rowOff>
+      <xdr:rowOff>273240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8949,7 +8951,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="5457240"/>
-          <a:ext cx="2036880" cy="225000"/>
+          <a:ext cx="2036520" cy="224640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8970,9 +8972,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>159480</xdr:colOff>
+      <xdr:colOff>159120</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>260640</xdr:rowOff>
+      <xdr:rowOff>260280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8986,7 +8988,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="5771520"/>
-          <a:ext cx="2381760" cy="212040"/>
+          <a:ext cx="2381400" cy="211680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9007,9 +9009,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>99720</xdr:colOff>
+      <xdr:colOff>99360</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>259560</xdr:rowOff>
+      <xdr:rowOff>259200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9023,7 +9025,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="6085080"/>
-          <a:ext cx="2694960" cy="212040"/>
+          <a:ext cx="2694600" cy="211680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9423,9 +9425,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>316080</xdr:colOff>
+      <xdr:colOff>315720</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>77040</xdr:rowOff>
+      <xdr:rowOff>76680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9435,7 +9437,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1994400" y="149040"/>
-          <a:ext cx="6998040" cy="10061280"/>
+          <a:ext cx="6997680" cy="10060920"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -9521,9 +9523,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>3960</xdr:colOff>
+      <xdr:colOff>3600</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>78120</xdr:rowOff>
+      <xdr:rowOff>77760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9533,7 +9535,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1987560" y="10344960"/>
-          <a:ext cx="7015320" cy="264960"/>
+          <a:ext cx="7014960" cy="264600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9587,9 +9589,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>432360</xdr:colOff>
+      <xdr:colOff>432000</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>55440</xdr:rowOff>
+      <xdr:rowOff>55080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9599,7 +9601,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5525280" y="4883760"/>
-          <a:ext cx="794160" cy="266040"/>
+          <a:ext cx="793800" cy="265680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9651,9 +9653,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>431280</xdr:colOff>
+      <xdr:colOff>430920</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>195120</xdr:rowOff>
+      <xdr:rowOff>194760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9663,7 +9665,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5524200" y="5023440"/>
-          <a:ext cx="794160" cy="266040"/>
+          <a:ext cx="793800" cy="265680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -19526,7 +19528,7 @@
   <dimension ref="A1:AC82"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N15" activeCellId="0" sqref="N15"/>
+      <selection pane="topLeft" activeCell="D20" activeCellId="0" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -22364,8 +22366,8 @@
   </sheetPr>
   <dimension ref="A1:N94"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D57" activeCellId="0" sqref="D57"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E74" activeCellId="0" sqref="E74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -23648,8 +23650,8 @@
       <c r="E73" s="221" t="s">
         <v>295</v>
       </c>
-      <c r="F73" s="180"/>
-      <c r="G73" s="180"/>
+      <c r="F73" s="222"/>
+      <c r="G73" s="222"/>
       <c r="H73" s="177"/>
       <c r="I73" s="175"/>
     </row>
@@ -23662,8 +23664,8 @@
       <c r="E74" s="183" t="s">
         <v>108</v>
       </c>
-      <c r="F74" s="222"/>
-      <c r="G74" s="223"/>
+      <c r="F74" s="223"/>
+      <c r="G74" s="222"/>
       <c r="H74" s="177"/>
       <c r="I74" s="175"/>
     </row>
@@ -23674,8 +23676,8 @@
       <c r="C75" s="172"/>
       <c r="D75" s="170"/>
       <c r="E75" s="202"/>
-      <c r="F75" s="223"/>
-      <c r="G75" s="223"/>
+      <c r="F75" s="222"/>
+      <c r="G75" s="222"/>
       <c r="H75" s="177"/>
       <c r="I75" s="175"/>
     </row>
@@ -23692,7 +23694,7 @@
         <v>[:lahtotiedot :jaahdytysjarjestelma :jaahdytyskauden-painotettu-kylmakerroin]</v>
       </c>
       <c r="F76" s="218"/>
-      <c r="G76" s="223"/>
+      <c r="G76" s="222"/>
       <c r="H76" s="177"/>
       <c r="I76" s="175"/>
       <c r="L76" s="198"/>
@@ -24766,7 +24768,7 @@
   <dimension ref="A1:T113"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G22" activeCellId="0" sqref="G22"/>
+      <selection pane="topLeft" activeCell="D41" activeCellId="0" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -25211,7 +25213,7 @@
       </c>
       <c r="C20" s="172"/>
       <c r="D20" s="250" t="s">
-        <v>118</v>
+        <v>340</v>
       </c>
       <c r="E20" s="220" t="str">
         <f aca="false">A15</f>
@@ -25243,11 +25245,11 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="158" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C21" s="172"/>
       <c r="D21" s="250" t="s">
-        <v>120</v>
+        <v>342</v>
       </c>
       <c r="E21" s="220" t="str">
         <f aca="false">A19</f>
@@ -25283,7 +25285,7 @@
       </c>
       <c r="C22" s="172"/>
       <c r="D22" s="254" t="s">
-        <v>116</v>
+        <v>343</v>
       </c>
       <c r="E22" s="220" t="str">
         <f aca="false">A23</f>
@@ -25389,7 +25391,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="158" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="C25" s="172"/>
       <c r="D25" s="255" t="str">
@@ -25430,7 +25432,7 @@
       </c>
       <c r="C26" s="172"/>
       <c r="D26" s="256" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="E26" s="257" t="str">
         <f aca="false">A42</f>
@@ -25485,7 +25487,7 @@
       </c>
       <c r="C28" s="166"/>
       <c r="D28" s="94" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="E28" s="167"/>
       <c r="F28" s="167"/>
@@ -25528,7 +25530,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="158" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="C30" s="172"/>
       <c r="D30" s="170"/>
@@ -25677,7 +25679,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="158" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="C35" s="172"/>
       <c r="D35" s="259" t="str">
@@ -25765,7 +25767,7 @@
       </c>
       <c r="C38" s="166"/>
       <c r="D38" s="94" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="E38" s="167"/>
       <c r="F38" s="167"/>
@@ -25807,19 +25809,19 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="158" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="C40" s="172"/>
       <c r="D40" s="170"/>
       <c r="E40" s="170"/>
       <c r="F40" s="202" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="G40" s="180" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="H40" s="180" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="I40" s="180"/>
       <c r="J40" s="236"/>
@@ -25863,7 +25865,7 @@
     </row>
     <row r="42" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="158" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="C42" s="172"/>
       <c r="D42" s="170"/>
@@ -25885,7 +25887,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="158" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="C43" s="172"/>
       <c r="D43" s="173" t="s">
@@ -25909,11 +25911,11 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="158" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="C44" s="172"/>
       <c r="D44" s="173" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="E44" s="173"/>
       <c r="F44" s="251" t="str">
@@ -25941,11 +25943,11 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="158" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="C45" s="172"/>
       <c r="D45" s="173" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="E45" s="173"/>
       <c r="F45" s="187" t="str">
@@ -25973,11 +25975,11 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="158" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="C46" s="172"/>
       <c r="D46" s="173" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="E46" s="173"/>
       <c r="F46" s="187" t="str">
@@ -26005,11 +26007,11 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="158" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="C47" s="172"/>
       <c r="D47" s="173" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="E47" s="173"/>
       <c r="F47" s="187" t="str">
@@ -26036,7 +26038,7 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="158" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="C48" s="172"/>
       <c r="D48" s="173" t="s">
@@ -26069,11 +26071,11 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="158" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="C49" s="172"/>
       <c r="D49" s="173" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="E49" s="173"/>
       <c r="F49" s="187" t="str">
@@ -26100,11 +26102,11 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="158" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="C50" s="172"/>
       <c r="D50" s="256" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="E50" s="256"/>
       <c r="F50" s="264" t="str">
@@ -26133,16 +26135,16 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="158" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="C51" s="172"/>
       <c r="D51" s="265" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="E51" s="256"/>
-      <c r="F51" s="222"/>
-      <c r="G51" s="222"/>
-      <c r="H51" s="222"/>
+      <c r="F51" s="223"/>
+      <c r="G51" s="223"/>
+      <c r="H51" s="223"/>
       <c r="I51" s="180"/>
       <c r="J51" s="235"/>
       <c r="L51" s="241"/>
@@ -26157,7 +26159,7 @@
     </row>
     <row r="52" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="158" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="C52" s="172"/>
       <c r="D52" s="177"/>
@@ -26179,11 +26181,11 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="158" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="C53" s="166"/>
       <c r="D53" s="94" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="E53" s="167"/>
       <c r="F53" s="167"/>
@@ -26194,7 +26196,7 @@
     </row>
     <row r="54" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="158" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="C54" s="172"/>
       <c r="D54" s="177"/>
@@ -26207,7 +26209,7 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="158" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="C55" s="172"/>
       <c r="D55" s="170"/>
@@ -26223,7 +26225,7 @@
     </row>
     <row r="56" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="158" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="C56" s="172"/>
       <c r="D56" s="170"/>
@@ -26235,11 +26237,11 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="158" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C57" s="172"/>
       <c r="D57" s="173" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="E57" s="173"/>
       <c r="F57" s="220" t="str">
@@ -26250,17 +26252,17 @@
         <f aca="false">A96</f>
         <v>[:tulokset :nettotarve :tilojen-lammitys-vuosikulutus-nettoala]</v>
       </c>
-      <c r="H57" s="222"/>
+      <c r="H57" s="223"/>
       <c r="I57" s="182"/>
       <c r="J57" s="235"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="158" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="C58" s="172"/>
       <c r="D58" s="173" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="E58" s="173"/>
       <c r="F58" s="220" t="str">
@@ -26271,13 +26273,13 @@
         <f aca="false">A98</f>
         <v>[:tulokset :nettotarve :ilmanvaihdon-lammitys-vuosikulutus-nettoala]</v>
       </c>
-      <c r="H58" s="223"/>
+      <c r="H58" s="222"/>
       <c r="I58" s="180"/>
       <c r="J58" s="236"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="158" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="C59" s="172"/>
       <c r="D59" s="173" t="s">
@@ -26292,17 +26294,17 @@
         <f aca="false">A100</f>
         <v>[:tulokset :nettotarve :kayttoveden-valmistus-vuosikulutus-nettoala]</v>
       </c>
-      <c r="H59" s="222"/>
+      <c r="H59" s="223"/>
       <c r="I59" s="180"/>
       <c r="J59" s="235"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="158" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="C60" s="172"/>
       <c r="D60" s="173" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="E60" s="173"/>
       <c r="F60" s="220" t="str">
@@ -26313,13 +26315,13 @@
         <f aca="false">A102</f>
         <v>[:tulokset :nettotarve :jaahdytys-vuosikulutus-nettoala]</v>
       </c>
-      <c r="H60" s="223"/>
+      <c r="H60" s="222"/>
       <c r="I60" s="180"/>
       <c r="J60" s="236"/>
     </row>
     <row r="61" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="158" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="C61" s="172"/>
       <c r="D61" s="173"/>
@@ -26332,11 +26334,11 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="158" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="C62" s="172"/>
       <c r="D62" s="219" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="E62" s="219"/>
       <c r="F62" s="219"/>
@@ -26347,11 +26349,11 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="158" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="C63" s="172"/>
       <c r="D63" s="219" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="E63" s="219"/>
       <c r="F63" s="219"/>
@@ -26362,7 +26364,7 @@
     </row>
     <row r="64" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="158" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="C64" s="172"/>
       <c r="D64" s="173"/>
@@ -26375,11 +26377,11 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="158" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="C65" s="166"/>
       <c r="D65" s="94" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="E65" s="167"/>
       <c r="F65" s="167"/>
@@ -26390,7 +26392,7 @@
     </row>
     <row r="66" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="158" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="C66" s="172"/>
       <c r="D66" s="177"/>
@@ -26403,7 +26405,7 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="158" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="C67" s="172"/>
       <c r="D67" s="170"/>
@@ -26419,7 +26421,7 @@
     </row>
     <row r="68" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="158" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="C68" s="172"/>
       <c r="D68" s="170"/>
@@ -26431,11 +26433,11 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="158" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="C69" s="172"/>
       <c r="D69" s="195" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="E69" s="195"/>
       <c r="F69" s="220" t="str">
@@ -26446,13 +26448,13 @@
         <f aca="false">A104</f>
         <v>[:tulokset :lampokuormat :aurinko-nettoala]</v>
       </c>
-      <c r="H69" s="223"/>
+      <c r="H69" s="222"/>
       <c r="I69" s="182"/>
       <c r="J69" s="235"/>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="158" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="C70" s="172"/>
       <c r="D70" s="195" t="s">
@@ -26467,17 +26469,17 @@
         <f aca="false">A106</f>
         <v>[:tulokset :lampokuormat :ihmiset-nettoala]</v>
       </c>
-      <c r="H70" s="223"/>
+      <c r="H70" s="222"/>
       <c r="I70" s="180"/>
       <c r="J70" s="236"/>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="158" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="C71" s="172"/>
       <c r="D71" s="173" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="E71" s="173"/>
       <c r="F71" s="220" t="str">
@@ -26488,13 +26490,13 @@
         <f aca="false">A108</f>
         <v>[:tulokset :lampokuormat :kuluttajalaitteet-nettoala]</v>
       </c>
-      <c r="H71" s="223"/>
+      <c r="H71" s="222"/>
       <c r="I71" s="180"/>
       <c r="J71" s="235"/>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="158" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="C72" s="172"/>
       <c r="D72" s="173" t="s">
@@ -26509,17 +26511,17 @@
         <f aca="false">A110</f>
         <v>[:tulokset :lampokuormat :valaistus-nettoala]</v>
       </c>
-      <c r="H72" s="223"/>
+      <c r="H72" s="222"/>
       <c r="I72" s="180"/>
       <c r="J72" s="235"/>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="158" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="C73" s="172"/>
       <c r="D73" s="173" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="E73" s="173"/>
       <c r="F73" s="220" t="str">
@@ -26530,13 +26532,13 @@
         <f aca="false">A112</f>
         <v>[:tulokset :lampokuormat :kvesi-nettoala]</v>
       </c>
-      <c r="H73" s="223"/>
+      <c r="H73" s="222"/>
       <c r="I73" s="180"/>
       <c r="J73" s="236"/>
     </row>
     <row r="74" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="158" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="C74" s="172"/>
       <c r="D74" s="173"/>
@@ -26549,11 +26551,11 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="158" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="C75" s="166"/>
       <c r="D75" s="94" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="E75" s="167"/>
       <c r="F75" s="167"/>
@@ -26564,7 +26566,7 @@
     </row>
     <row r="76" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="158" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="C76" s="172"/>
       <c r="D76" s="177"/>
@@ -26577,11 +26579,11 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="158" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="C77" s="172"/>
       <c r="D77" s="173" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="E77" s="173"/>
       <c r="F77" s="266" t="str">
@@ -26595,7 +26597,7 @@
     </row>
     <row r="78" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="158" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="C78" s="226"/>
       <c r="D78" s="227"/>
@@ -26608,177 +26610,177 @@
     </row>
     <row r="79" customFormat="false" ht="5.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="158" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="158" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="158" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="158" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="158" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="158" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="158" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="158" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="158" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="158" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="158" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="158" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="158" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="158" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="158" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="158" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="158" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="158" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="158" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="158" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="158" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="158" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="158" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="158" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="158" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="158" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="158" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="158" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="158" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="158" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="158" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="158" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="158" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="158" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="158" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
     </row>
   </sheetData>
@@ -27325,7 +27327,7 @@
   <dimension ref="A1:Y67"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F16" activeCellId="0" sqref="F16"/>
+      <selection pane="topLeft" activeCell="A43" activeCellId="0" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -27333,8 +27335,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="90" width="61.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="26" width="0.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="26" width="1.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="26" width="23.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="26" width="7.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="26" width="23.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="26" width="7.8"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="26" width="15.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="7" style="26" width="12.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="26" width="2.42"/>
@@ -27349,11 +27351,11 @@
     </row>
     <row r="2" s="268" customFormat="true" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="267" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="C2" s="269"/>
       <c r="D2" s="270" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="E2" s="270"/>
       <c r="F2" s="271"/>
@@ -27365,11 +27367,11 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="90" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="C3" s="97"/>
       <c r="D3" s="23" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="E3" s="273"/>
       <c r="F3" s="14"/>
@@ -27381,7 +27383,7 @@
     </row>
     <row r="4" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="90" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="C4" s="97"/>
       <c r="D4" s="14"/>
@@ -27395,11 +27397,11 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="90" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="C5" s="93"/>
       <c r="D5" s="94" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="E5" s="94"/>
       <c r="F5" s="95"/>
@@ -27411,7 +27413,7 @@
     </row>
     <row r="6" customFormat="false" ht="3.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="90" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="C6" s="97"/>
       <c r="D6" s="14"/>
@@ -27425,27 +27427,27 @@
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="90" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="C7" s="97"/>
       <c r="D7" s="61" t="s">
         <v>92</v>
       </c>
-      <c r="E7" s="274" t="str">
+      <c r="E7" s="99" t="str">
         <f aca="false">A3</f>
         <v>#function[solita.etp.service.energiatodistus-pdf/fn--61283]</v>
       </c>
-      <c r="F7" s="275" t="s">
-        <v>449</v>
-      </c>
-      <c r="G7" s="276"/>
+      <c r="F7" s="274" t="s">
+        <v>452</v>
+      </c>
+      <c r="G7" s="275"/>
       <c r="J7" s="14"/>
       <c r="K7" s="98"/>
       <c r="O7" s="29"/>
     </row>
     <row r="8" customFormat="false" ht="3.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="90" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="C8" s="97"/>
       <c r="D8" s="14"/>
@@ -27458,7 +27460,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="90" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="C9" s="97"/>
       <c r="D9" s="14"/>
@@ -27472,932 +27474,932 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="90" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="C10" s="97"/>
       <c r="D10" s="61" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="E10" s="14"/>
-      <c r="F10" s="277"/>
-      <c r="G10" s="278"/>
-      <c r="H10" s="279"/>
-      <c r="I10" s="280" t="s">
+      <c r="F10" s="276"/>
+      <c r="G10" s="277"/>
+      <c r="H10" s="278"/>
+      <c r="I10" s="279" t="s">
         <v>106</v>
       </c>
-      <c r="J10" s="281" t="s">
+      <c r="J10" s="280" t="s">
         <v>107</v>
       </c>
-      <c r="K10" s="282"/>
+      <c r="K10" s="281"/>
     </row>
     <row r="11" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="90" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="C11" s="97"/>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
-      <c r="F11" s="283"/>
+      <c r="F11" s="282"/>
       <c r="G11" s="38"/>
       <c r="H11" s="112"/>
-      <c r="I11" s="284"/>
-      <c r="J11" s="285"/>
+      <c r="I11" s="283"/>
+      <c r="J11" s="284"/>
       <c r="K11" s="112"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="90" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="C12" s="97"/>
-      <c r="D12" s="286" t="s">
-        <v>456</v>
-      </c>
-      <c r="E12" s="286"/>
-      <c r="F12" s="287"/>
-      <c r="G12" s="288"/>
-      <c r="H12" s="289"/>
-      <c r="I12" s="290" t="str">
+      <c r="D12" s="285" t="s">
+        <v>459</v>
+      </c>
+      <c r="E12" s="285"/>
+      <c r="F12" s="286"/>
+      <c r="G12" s="287"/>
+      <c r="H12" s="288"/>
+      <c r="I12" s="289" t="str">
         <f aca="false">A4</f>
         <v>[:toteutunut-ostoenergiankulutus :ostettu-energia :kaukolampo-vuosikulutus]</v>
       </c>
-      <c r="J12" s="291" t="str">
+      <c r="J12" s="290" t="str">
         <f aca="false">A5</f>
         <v>[:toteutunut-ostoenergiankulutus :ostettu-energia :kaukolampo-vuosikulutus-nettoala]</v>
       </c>
-      <c r="K12" s="292"/>
+      <c r="K12" s="291"/>
       <c r="Y12" s="23"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="90" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="C13" s="97"/>
-      <c r="D13" s="286" t="s">
-        <v>458</v>
-      </c>
-      <c r="E13" s="286"/>
-      <c r="F13" s="287"/>
-      <c r="G13" s="288"/>
-      <c r="H13" s="289"/>
-      <c r="I13" s="290" t="str">
+      <c r="D13" s="285" t="s">
+        <v>461</v>
+      </c>
+      <c r="E13" s="285"/>
+      <c r="F13" s="286"/>
+      <c r="G13" s="287"/>
+      <c r="H13" s="288"/>
+      <c r="I13" s="289" t="str">
         <f aca="false">A6</f>
         <v>[:toteutunut-ostoenergiankulutus :ostettu-energia :kokonaissahko-vuosikulutus]</v>
       </c>
-      <c r="J13" s="291" t="str">
+      <c r="J13" s="290" t="str">
         <f aca="false">A7</f>
         <v>[:toteutunut-ostoenergiankulutus :ostettu-energia :kokonaissahko-vuosikulutus-nettoala]</v>
       </c>
-      <c r="K13" s="292"/>
+      <c r="K13" s="291"/>
       <c r="Y13" s="23"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="90" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="C14" s="97"/>
-      <c r="D14" s="278" t="s">
-        <v>460</v>
-      </c>
-      <c r="E14" s="286"/>
-      <c r="F14" s="287"/>
-      <c r="G14" s="288"/>
-      <c r="H14" s="289"/>
-      <c r="I14" s="290" t="str">
+      <c r="D14" s="277" t="s">
+        <v>463</v>
+      </c>
+      <c r="E14" s="285"/>
+      <c r="F14" s="286"/>
+      <c r="G14" s="287"/>
+      <c r="H14" s="288"/>
+      <c r="I14" s="289" t="str">
         <f aca="false">A8</f>
         <v>[:toteutunut-ostoenergiankulutus :ostettu-energia :kiinteistosahko-vuosikulutus]</v>
       </c>
-      <c r="J14" s="291" t="str">
+      <c r="J14" s="290" t="str">
         <f aca="false">A9</f>
         <v>[:toteutunut-ostoenergiankulutus :ostettu-energia :kiinteistosahko-vuosikulutus-nettoala]</v>
       </c>
-      <c r="K14" s="292"/>
+      <c r="K14" s="291"/>
       <c r="Y14" s="23"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="90" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="C15" s="97"/>
-      <c r="D15" s="278" t="s">
-        <v>462</v>
-      </c>
-      <c r="E15" s="286"/>
-      <c r="F15" s="287"/>
-      <c r="G15" s="288"/>
-      <c r="H15" s="289"/>
-      <c r="I15" s="290" t="str">
+      <c r="D15" s="277" t="s">
+        <v>465</v>
+      </c>
+      <c r="E15" s="285"/>
+      <c r="F15" s="286"/>
+      <c r="G15" s="287"/>
+      <c r="H15" s="288"/>
+      <c r="I15" s="289" t="str">
         <f aca="false">A10</f>
         <v>[:toteutunut-ostoenergiankulutus :ostettu-energia :kayttajasahko-vuosikulutus]</v>
       </c>
-      <c r="J15" s="291" t="str">
+      <c r="J15" s="290" t="str">
         <f aca="false">A11</f>
         <v>[:toteutunut-ostoenergiankulutus :ostettu-energia :kayttajasahko-vuosikulutus-nettoala]</v>
       </c>
-      <c r="K15" s="292"/>
+      <c r="K15" s="291"/>
       <c r="Y15" s="23"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="90" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="C16" s="97"/>
-      <c r="D16" s="286" t="s">
-        <v>350</v>
-      </c>
-      <c r="E16" s="286"/>
-      <c r="F16" s="286"/>
-      <c r="G16" s="286"/>
-      <c r="H16" s="286"/>
-      <c r="I16" s="290" t="str">
+      <c r="D16" s="285" t="s">
+        <v>353</v>
+      </c>
+      <c r="E16" s="285"/>
+      <c r="F16" s="285"/>
+      <c r="G16" s="285"/>
+      <c r="H16" s="285"/>
+      <c r="I16" s="289" t="str">
         <f aca="false">A12</f>
         <v>[:toteutunut-ostoenergiankulutus :ostettu-energia :kaukojaahdytys-vuosikulutus]</v>
       </c>
-      <c r="J16" s="291" t="str">
+      <c r="J16" s="290" t="str">
         <f aca="false">A13</f>
         <v>[:toteutunut-ostoenergiankulutus :ostettu-energia :kaukojaahdytys-vuosikulutus-nettoala]</v>
       </c>
-      <c r="K16" s="292"/>
+      <c r="K16" s="291"/>
       <c r="Y16" s="23"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="90" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="C17" s="97"/>
-      <c r="D17" s="293" t="str">
+      <c r="D17" s="292" t="str">
         <f aca="false">A15</f>
         <v>[:toteutunut-ostoenergiankulutus :ostettu-energia :muu 0 :nimi-sv]</v>
       </c>
-      <c r="E17" s="293"/>
-      <c r="F17" s="293"/>
-      <c r="G17" s="293"/>
-      <c r="H17" s="293"/>
-      <c r="I17" s="290" t="str">
+      <c r="E17" s="292"/>
+      <c r="F17" s="292"/>
+      <c r="G17" s="292"/>
+      <c r="H17" s="292"/>
+      <c r="I17" s="289" t="str">
         <f aca="false">A16</f>
         <v>[:toteutunut-ostoenergiankulutus :ostettu-energia :muu 0 :vuosikulutus]</v>
       </c>
-      <c r="J17" s="291" t="str">
+      <c r="J17" s="290" t="str">
         <f aca="false">A17</f>
         <v>[:toteutunut-ostoenergiankulutus :ostettu-energia :muu 0 :vuosikulutus-nettoala]</v>
       </c>
-      <c r="K17" s="292"/>
+      <c r="K17" s="291"/>
       <c r="Y17" s="23"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="90" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="C18" s="97"/>
-      <c r="D18" s="293" t="str">
+      <c r="D18" s="292" t="str">
         <f aca="false">A19</f>
         <v>[:toteutunut-ostoenergiankulutus :ostettu-energia :muu 1 :nimi-sv]</v>
       </c>
-      <c r="E18" s="293"/>
-      <c r="F18" s="293"/>
-      <c r="G18" s="293"/>
-      <c r="H18" s="293"/>
-      <c r="I18" s="290" t="str">
+      <c r="E18" s="292"/>
+      <c r="F18" s="292"/>
+      <c r="G18" s="292"/>
+      <c r="H18" s="292"/>
+      <c r="I18" s="289" t="str">
         <f aca="false">A20</f>
         <v>[:toteutunut-ostoenergiankulutus :ostettu-energia :muu 1 :vuosikulutus]</v>
       </c>
-      <c r="J18" s="291" t="str">
+      <c r="J18" s="290" t="str">
         <f aca="false">A21</f>
         <v>[:toteutunut-ostoenergiankulutus :ostettu-energia :muu 1 :vuosikulutus-nettoala]</v>
       </c>
-      <c r="K18" s="292"/>
+      <c r="K18" s="291"/>
       <c r="Y18" s="23"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="90" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="C19" s="97"/>
-      <c r="D19" s="293" t="str">
+      <c r="D19" s="292" t="str">
         <f aca="false">A23</f>
         <v>[:toteutunut-ostoenergiankulutus :ostettu-energia :muu 2 :nimi-sv]</v>
       </c>
-      <c r="E19" s="293"/>
-      <c r="F19" s="293"/>
-      <c r="G19" s="293"/>
-      <c r="H19" s="293"/>
-      <c r="I19" s="290" t="str">
+      <c r="E19" s="292"/>
+      <c r="F19" s="292"/>
+      <c r="G19" s="292"/>
+      <c r="H19" s="292"/>
+      <c r="I19" s="289" t="str">
         <f aca="false">A24</f>
         <v>[:toteutunut-ostoenergiankulutus :ostettu-energia :muu 2 :vuosikulutus]</v>
       </c>
-      <c r="J19" s="291" t="str">
+      <c r="J19" s="290" t="str">
         <f aca="false">A25</f>
         <v>[:toteutunut-ostoenergiankulutus :ostettu-energia :muu 2 :vuosikulutus-nettoala]</v>
       </c>
-      <c r="K19" s="292"/>
+      <c r="K19" s="291"/>
       <c r="Y19" s="23"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="90" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="C20" s="97"/>
-      <c r="D20" s="293" t="str">
+      <c r="D20" s="292" t="str">
         <f aca="false">A27</f>
         <v>[:toteutunut-ostoenergiankulutus :ostettu-energia :muu 3 :nimi-sv]</v>
       </c>
-      <c r="E20" s="293"/>
-      <c r="F20" s="293"/>
-      <c r="G20" s="293"/>
-      <c r="H20" s="293"/>
-      <c r="I20" s="290" t="str">
+      <c r="E20" s="292"/>
+      <c r="F20" s="292"/>
+      <c r="G20" s="292"/>
+      <c r="H20" s="292"/>
+      <c r="I20" s="289" t="str">
         <f aca="false">A28</f>
         <v>[:toteutunut-ostoenergiankulutus :ostettu-energia :muu 3 :vuosikulutus]</v>
       </c>
-      <c r="J20" s="291" t="str">
+      <c r="J20" s="290" t="str">
         <f aca="false">A29</f>
         <v>[:toteutunut-ostoenergiankulutus :ostettu-energia :muu 3 :vuosikulutus-nettoala]</v>
       </c>
-      <c r="K20" s="292"/>
+      <c r="K20" s="291"/>
       <c r="Y20" s="23"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="90" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="C21" s="97"/>
-      <c r="D21" s="293" t="str">
+      <c r="D21" s="292" t="str">
         <f aca="false">A31</f>
         <v>[:toteutunut-ostoenergiankulutus :ostettu-energia :muu 4 :nimi-sv]</v>
       </c>
-      <c r="E21" s="293"/>
-      <c r="F21" s="293"/>
-      <c r="G21" s="293"/>
-      <c r="H21" s="293"/>
-      <c r="I21" s="290" t="str">
+      <c r="E21" s="292"/>
+      <c r="F21" s="292"/>
+      <c r="G21" s="292"/>
+      <c r="H21" s="292"/>
+      <c r="I21" s="289" t="str">
         <f aca="false">A32</f>
         <v>[:toteutunut-ostoenergiankulutus :ostettu-energia :muu 4 :vuosikulutus]</v>
       </c>
-      <c r="J21" s="291" t="str">
+      <c r="J21" s="290" t="str">
         <f aca="false">A33</f>
         <v>[:toteutunut-ostoenergiankulutus :ostettu-energia :muu 4 :vuosikulutus-nettoala]</v>
       </c>
-      <c r="K21" s="292"/>
+      <c r="K21" s="291"/>
       <c r="Y21" s="23"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="90" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="C22" s="97"/>
-      <c r="D22" s="294"/>
-      <c r="E22" s="294"/>
-      <c r="F22" s="294"/>
-      <c r="G22" s="294"/>
-      <c r="H22" s="294"/>
-      <c r="I22" s="295"/>
-      <c r="J22" s="296" t="str">
+      <c r="D22" s="293"/>
+      <c r="E22" s="293"/>
+      <c r="F22" s="293"/>
+      <c r="G22" s="293"/>
+      <c r="H22" s="293"/>
+      <c r="I22" s="294"/>
+      <c r="J22" s="295" t="str">
         <f aca="false">IF(AND(I22&lt;&gt;0,ISNUMBER(I22/'4) E-luvun laskennan tulokset '!$E$9)),CEILING(I22/'4) E-luvun laskennan tulokset '!$E$9,1),"")</f>
         <v/>
       </c>
-      <c r="K22" s="297"/>
+      <c r="K22" s="296"/>
       <c r="Y22" s="23"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="90" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="C23" s="97"/>
-      <c r="D23" s="298"/>
-      <c r="E23" s="298"/>
-      <c r="F23" s="287"/>
-      <c r="G23" s="288"/>
-      <c r="H23" s="287"/>
-      <c r="I23" s="299"/>
-      <c r="J23" s="300"/>
-      <c r="K23" s="292"/>
+      <c r="D23" s="297"/>
+      <c r="E23" s="297"/>
+      <c r="F23" s="286"/>
+      <c r="G23" s="287"/>
+      <c r="H23" s="286"/>
+      <c r="I23" s="298"/>
+      <c r="J23" s="299"/>
+      <c r="K23" s="291"/>
       <c r="Y23" s="23"/>
     </row>
     <row r="24" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="90" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="C24" s="97"/>
-      <c r="D24" s="301" t="s">
-        <v>472</v>
-      </c>
-      <c r="E24" s="301"/>
-      <c r="F24" s="302" t="s">
-        <v>473</v>
-      </c>
-      <c r="G24" s="303" t="s">
-        <v>474</v>
-      </c>
-      <c r="H24" s="302" t="s">
+      <c r="D24" s="300" t="s">
         <v>475</v>
       </c>
-      <c r="I24" s="303" t="s">
+      <c r="E24" s="300"/>
+      <c r="F24" s="301" t="s">
+        <v>476</v>
+      </c>
+      <c r="G24" s="302" t="s">
+        <v>477</v>
+      </c>
+      <c r="H24" s="301" t="s">
+        <v>478</v>
+      </c>
+      <c r="I24" s="302" t="s">
         <v>106</v>
       </c>
-      <c r="J24" s="304" t="s">
+      <c r="J24" s="303" t="s">
         <v>107</v>
       </c>
-      <c r="K24" s="305"/>
+      <c r="K24" s="304"/>
       <c r="Y24" s="23"/>
     </row>
     <row r="25" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="90" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="C25" s="97"/>
       <c r="D25" s="61"/>
       <c r="E25" s="61"/>
-      <c r="F25" s="306"/>
-      <c r="G25" s="307"/>
-      <c r="H25" s="280"/>
-      <c r="I25" s="280"/>
-      <c r="J25" s="308"/>
-      <c r="K25" s="282"/>
+      <c r="F25" s="305"/>
+      <c r="G25" s="306"/>
+      <c r="H25" s="279"/>
+      <c r="I25" s="279"/>
+      <c r="J25" s="307"/>
+      <c r="K25" s="281"/>
       <c r="Y25" s="23"/>
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="90" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="C26" s="97"/>
-      <c r="D26" s="286" t="s">
-        <v>478</v>
-      </c>
-      <c r="E26" s="286"/>
-      <c r="F26" s="290" t="str">
+      <c r="D26" s="285" t="s">
+        <v>481</v>
+      </c>
+      <c r="E26" s="285"/>
+      <c r="F26" s="289" t="str">
         <f aca="false">A34</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :kevyt-polttooljy]</v>
       </c>
-      <c r="G26" s="307" t="s">
-        <v>479</v>
-      </c>
-      <c r="H26" s="280" t="n">
+      <c r="G26" s="306" t="s">
+        <v>482</v>
+      </c>
+      <c r="H26" s="279" t="n">
         <v>10</v>
       </c>
-      <c r="I26" s="309" t="str">
+      <c r="I26" s="308" t="str">
         <f aca="false">A35</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :kevyt-polttooljy-kwh]</v>
       </c>
-      <c r="J26" s="291" t="str">
+      <c r="J26" s="290" t="str">
         <f aca="false">A36</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :kevyt-polttooljy-kwh-nettoala]</v>
       </c>
-      <c r="K26" s="310"/>
+      <c r="K26" s="309"/>
       <c r="Y26" s="23"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="90" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="C27" s="97"/>
-      <c r="D27" s="286" t="s">
-        <v>481</v>
-      </c>
-      <c r="E27" s="286"/>
-      <c r="F27" s="290" t="str">
+      <c r="D27" s="285" t="s">
+        <v>484</v>
+      </c>
+      <c r="E27" s="285"/>
+      <c r="F27" s="289" t="str">
         <f aca="false">A37</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :pilkkeet-havu-sekapuu]</v>
       </c>
-      <c r="G27" s="307" t="s">
-        <v>482</v>
-      </c>
-      <c r="H27" s="280" t="n">
+      <c r="G27" s="306" t="s">
+        <v>485</v>
+      </c>
+      <c r="H27" s="279" t="n">
         <v>1300</v>
       </c>
-      <c r="I27" s="309" t="str">
+      <c r="I27" s="308" t="str">
         <f aca="false">A38</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :pilkkeet-havu-sekapuu-kwh]</v>
       </c>
-      <c r="J27" s="291" t="str">
+      <c r="J27" s="290" t="str">
         <f aca="false">A39</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :pilkkeet-havu-sekapuu-kwh-nettoala]</v>
       </c>
-      <c r="K27" s="310"/>
+      <c r="K27" s="309"/>
       <c r="Y27" s="23"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="90" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="C28" s="97"/>
-      <c r="D28" s="286" t="s">
-        <v>484</v>
-      </c>
-      <c r="E28" s="286"/>
-      <c r="F28" s="290" t="str">
+      <c r="D28" s="285" t="s">
+        <v>487</v>
+      </c>
+      <c r="E28" s="285"/>
+      <c r="F28" s="289" t="str">
         <f aca="false">A40</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :pilkkeet-koivu]</v>
       </c>
-      <c r="G28" s="307" t="s">
-        <v>482</v>
-      </c>
-      <c r="H28" s="280" t="n">
+      <c r="G28" s="306" t="s">
+        <v>485</v>
+      </c>
+      <c r="H28" s="279" t="n">
         <v>1700</v>
       </c>
-      <c r="I28" s="309" t="str">
+      <c r="I28" s="308" t="str">
         <f aca="false">A41</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :pilkkeet-koivu-kwh]</v>
       </c>
-      <c r="J28" s="291" t="str">
+      <c r="J28" s="290" t="str">
         <f aca="false">A42</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :pilkkeet-koivu-kwh-nettoala]</v>
       </c>
-      <c r="K28" s="310"/>
+      <c r="K28" s="309"/>
       <c r="Y28" s="23"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="90" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="C29" s="97"/>
-      <c r="D29" s="286" t="s">
-        <v>486</v>
-      </c>
-      <c r="E29" s="286"/>
-      <c r="F29" s="290" t="str">
+      <c r="D29" s="285" t="s">
+        <v>489</v>
+      </c>
+      <c r="E29" s="285"/>
+      <c r="F29" s="289" t="str">
         <f aca="false">A43</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :puupelletit]</v>
       </c>
-      <c r="G29" s="307" t="s">
-        <v>487</v>
-      </c>
-      <c r="H29" s="280" t="n">
+      <c r="G29" s="306" t="s">
+        <v>490</v>
+      </c>
+      <c r="H29" s="279" t="n">
         <v>4.7</v>
       </c>
-      <c r="I29" s="309" t="str">
+      <c r="I29" s="308" t="str">
         <f aca="false">A44</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :puupelletit-kwh]</v>
       </c>
-      <c r="J29" s="291" t="str">
+      <c r="J29" s="290" t="str">
         <f aca="false">A45</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :puupelletit-kwh-nettoala]</v>
       </c>
-      <c r="K29" s="310"/>
+      <c r="K29" s="309"/>
       <c r="Y29" s="23"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="90" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="C30" s="97"/>
-      <c r="D30" s="311" t="str">
+      <c r="D30" s="310" t="str">
         <f aca="false">A46</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :muu 0 :nimi]</v>
       </c>
-      <c r="E30" s="311"/>
-      <c r="F30" s="290" t="str">
+      <c r="E30" s="310"/>
+      <c r="F30" s="289" t="str">
         <f aca="false">A47</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :muu 0 :maara-vuodessa]</v>
       </c>
-      <c r="G30" s="312" t="str">
+      <c r="G30" s="311" t="str">
         <f aca="false">A48</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :muu 0 :yksikko]</v>
       </c>
-      <c r="H30" s="313" t="str">
+      <c r="H30" s="312" t="str">
         <f aca="false">A49</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :muu 0 :muunnoskerroin]</v>
       </c>
-      <c r="I30" s="309" t="str">
+      <c r="I30" s="308" t="str">
         <f aca="false">A50</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :muu 0 :kwh]</v>
       </c>
-      <c r="J30" s="291" t="str">
+      <c r="J30" s="290" t="str">
         <f aca="false">A51</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :muu 0 :kwh-nettoala]</v>
       </c>
-      <c r="K30" s="310"/>
+      <c r="K30" s="309"/>
       <c r="Y30" s="23"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="90" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="C31" s="97"/>
-      <c r="D31" s="311" t="str">
+      <c r="D31" s="310" t="str">
         <f aca="false">A52</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :muu 1 :nimi]</v>
       </c>
-      <c r="E31" s="311"/>
-      <c r="F31" s="290" t="str">
+      <c r="E31" s="310"/>
+      <c r="F31" s="289" t="str">
         <f aca="false">A53</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :muu 1 :maara-vuodessa]</v>
       </c>
-      <c r="G31" s="312" t="str">
+      <c r="G31" s="311" t="str">
         <f aca="false">A54</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :muu 1 :yksikko]</v>
       </c>
-      <c r="H31" s="313" t="str">
+      <c r="H31" s="312" t="str">
         <f aca="false">A55</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :muu 1 :muunnoskerroin]</v>
       </c>
-      <c r="I31" s="309" t="str">
+      <c r="I31" s="308" t="str">
         <f aca="false">A56</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :muu 1 :kwh]</v>
       </c>
-      <c r="J31" s="291" t="str">
+      <c r="J31" s="290" t="str">
         <f aca="false">A57</f>
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :muu 1 :kwh-nettoala]</v>
       </c>
-      <c r="K31" s="310"/>
+      <c r="K31" s="309"/>
       <c r="Y31" s="23"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="90" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="C32" s="97"/>
-      <c r="D32" s="314"/>
-      <c r="E32" s="314"/>
-      <c r="F32" s="290"/>
-      <c r="G32" s="315"/>
-      <c r="H32" s="313"/>
-      <c r="I32" s="309" t="str">
+      <c r="D32" s="313"/>
+      <c r="E32" s="313"/>
+      <c r="F32" s="289"/>
+      <c r="G32" s="314"/>
+      <c r="H32" s="312"/>
+      <c r="I32" s="308" t="str">
         <f aca="false">IF(ISNUMBER(H32*F32),IF(H32*F32&lt;&gt;0,CEILING(H32*F32,1),""),"")</f>
         <v/>
       </c>
-      <c r="J32" s="291" t="str">
+      <c r="J32" s="290" t="str">
         <f aca="false">IF(AND(I32&lt;&gt;0,ISNUMBER(I32/'4) E-luvun laskennan tulokset '!$E$9)),CEILING(I32/'4) E-luvun laskennan tulokset '!$E$9,1),"")</f>
         <v/>
       </c>
-      <c r="K32" s="310"/>
+      <c r="K32" s="309"/>
       <c r="Y32" s="23"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="90" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="C33" s="97"/>
-      <c r="D33" s="314"/>
-      <c r="E33" s="314"/>
-      <c r="F33" s="290"/>
-      <c r="G33" s="315"/>
-      <c r="H33" s="313"/>
-      <c r="I33" s="309" t="str">
+      <c r="D33" s="313"/>
+      <c r="E33" s="313"/>
+      <c r="F33" s="289"/>
+      <c r="G33" s="314"/>
+      <c r="H33" s="312"/>
+      <c r="I33" s="308" t="str">
         <f aca="false">IF(ISNUMBER(H33*F33),IF(H33*F33&lt;&gt;0,CEILING(H33*F33,1),""),"")</f>
         <v/>
       </c>
-      <c r="J33" s="291" t="str">
+      <c r="J33" s="290" t="str">
         <f aca="false">IF(AND(I33&lt;&gt;0,ISNUMBER(I33/'4) E-luvun laskennan tulokset '!$E$9)),CEILING(I33/'4) E-luvun laskennan tulokset '!$E$9,1),"")</f>
         <v/>
       </c>
-      <c r="K33" s="310"/>
+      <c r="K33" s="309"/>
       <c r="Y33" s="23"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="90" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="C34" s="97"/>
-      <c r="D34" s="314"/>
-      <c r="E34" s="314"/>
-      <c r="F34" s="290"/>
-      <c r="G34" s="315"/>
-      <c r="H34" s="313"/>
-      <c r="I34" s="309" t="str">
+      <c r="D34" s="313"/>
+      <c r="E34" s="313"/>
+      <c r="F34" s="289"/>
+      <c r="G34" s="314"/>
+      <c r="H34" s="312"/>
+      <c r="I34" s="308" t="str">
         <f aca="false">IF(ISNUMBER(H34*F34),IF(H34*F34&lt;&gt;0,CEILING(H34*F34,1),""),"")</f>
         <v/>
       </c>
-      <c r="J34" s="291" t="str">
+      <c r="J34" s="290" t="str">
         <f aca="false">IF(AND(I34&lt;&gt;0,ISNUMBER(I34/'4) E-luvun laskennan tulokset '!$E$9)),CEILING(I34/'4) E-luvun laskennan tulokset '!$E$9,1),"")</f>
         <v/>
       </c>
-      <c r="K34" s="310"/>
+      <c r="K34" s="309"/>
       <c r="Y34" s="23"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="90" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="C35" s="97"/>
-      <c r="D35" s="314"/>
-      <c r="E35" s="314"/>
-      <c r="F35" s="290"/>
-      <c r="G35" s="315"/>
-      <c r="H35" s="313"/>
-      <c r="I35" s="309" t="str">
+      <c r="D35" s="313"/>
+      <c r="E35" s="313"/>
+      <c r="F35" s="289"/>
+      <c r="G35" s="314"/>
+      <c r="H35" s="312"/>
+      <c r="I35" s="308" t="str">
         <f aca="false">IF(ISNUMBER(H35*F35),IF(H35*F35&lt;&gt;0,CEILING(H35*F35,1),""),"")</f>
         <v/>
       </c>
-      <c r="J35" s="291" t="str">
+      <c r="J35" s="290" t="str">
         <f aca="false">IF(AND(I35&lt;&gt;0,ISNUMBER(I35/'4) E-luvun laskennan tulokset '!$E$9)),CEILING(I35/'4) E-luvun laskennan tulokset '!$E$9,1),"")</f>
         <v/>
       </c>
-      <c r="K35" s="310"/>
+      <c r="K35" s="309"/>
       <c r="Y35" s="23"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="90" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="C36" s="97"/>
-      <c r="D36" s="314"/>
-      <c r="E36" s="314"/>
-      <c r="F36" s="290"/>
-      <c r="G36" s="315"/>
-      <c r="H36" s="313"/>
-      <c r="I36" s="309" t="str">
+      <c r="D36" s="313"/>
+      <c r="E36" s="313"/>
+      <c r="F36" s="289"/>
+      <c r="G36" s="314"/>
+      <c r="H36" s="312"/>
+      <c r="I36" s="308" t="str">
         <f aca="false">IF(ISNUMBER(H36*F36),IF(H36*F36&lt;&gt;0,CEILING(H36*F36,1),""),"")</f>
         <v/>
       </c>
-      <c r="J36" s="291" t="str">
+      <c r="J36" s="290" t="str">
         <f aca="false">IF(AND(I36&lt;&gt;0,ISNUMBER(I36/'4) E-luvun laskennan tulokset '!$E$9)),CEILING(I36/'4) E-luvun laskennan tulokset '!$E$9,1),"")</f>
         <v/>
       </c>
-      <c r="K36" s="310"/>
+      <c r="K36" s="309"/>
       <c r="Y36" s="23"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="90" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="C37" s="97"/>
-      <c r="D37" s="314"/>
-      <c r="E37" s="314"/>
-      <c r="F37" s="290"/>
-      <c r="G37" s="315"/>
-      <c r="H37" s="313"/>
-      <c r="I37" s="309" t="str">
+      <c r="D37" s="313"/>
+      <c r="E37" s="313"/>
+      <c r="F37" s="289"/>
+      <c r="G37" s="314"/>
+      <c r="H37" s="312"/>
+      <c r="I37" s="308" t="str">
         <f aca="false">IF(ISNUMBER(H37*F37),IF(H37*F37&lt;&gt;0,CEILING(H37*F37,1),""),"")</f>
         <v/>
       </c>
-      <c r="J37" s="291" t="str">
+      <c r="J37" s="290" t="str">
         <f aca="false">IF(AND(I37&lt;&gt;0,ISNUMBER(I37/'4) E-luvun laskennan tulokset '!$E$9)),CEILING(I37/'4) E-luvun laskennan tulokset '!$E$9,1),"")</f>
         <v/>
       </c>
-      <c r="K37" s="310"/>
+      <c r="K37" s="309"/>
       <c r="Y37" s="23"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="90" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="C38" s="97"/>
-      <c r="D38" s="314"/>
-      <c r="E38" s="314"/>
-      <c r="F38" s="290"/>
-      <c r="G38" s="315"/>
-      <c r="H38" s="313"/>
-      <c r="I38" s="309" t="str">
+      <c r="D38" s="313"/>
+      <c r="E38" s="313"/>
+      <c r="F38" s="289"/>
+      <c r="G38" s="314"/>
+      <c r="H38" s="312"/>
+      <c r="I38" s="308" t="str">
         <f aca="false">IF(ISNUMBER(H38*F38),IF(H38*F38&lt;&gt;0,CEILING(H38*F38,1),""),"")</f>
         <v/>
       </c>
-      <c r="J38" s="291" t="str">
+      <c r="J38" s="290" t="str">
         <f aca="false">IF(AND(I38&lt;&gt;0,ISNUMBER(I38/'4) E-luvun laskennan tulokset '!$E$9)),CEILING(I38/'4) E-luvun laskennan tulokset '!$E$9,1),"")</f>
         <v/>
       </c>
-      <c r="K38" s="310"/>
+      <c r="K38" s="309"/>
       <c r="Y38" s="23"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="90" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="C39" s="97"/>
-      <c r="D39" s="314"/>
-      <c r="E39" s="314"/>
-      <c r="F39" s="290"/>
-      <c r="G39" s="315"/>
-      <c r="H39" s="313"/>
-      <c r="I39" s="309" t="str">
+      <c r="D39" s="313"/>
+      <c r="E39" s="313"/>
+      <c r="F39" s="289"/>
+      <c r="G39" s="314"/>
+      <c r="H39" s="312"/>
+      <c r="I39" s="308" t="str">
         <f aca="false">IF(ISNUMBER(H39*F39),IF(H39*F39&lt;&gt;0,CEILING(H39*F39,1),""),"")</f>
         <v/>
       </c>
-      <c r="J39" s="291" t="str">
+      <c r="J39" s="290" t="str">
         <f aca="false">IF(AND(I39&lt;&gt;0,ISNUMBER(I39/'4) E-luvun laskennan tulokset '!$E$9)),CEILING(I39/'4) E-luvun laskennan tulokset '!$E$9,1),"")</f>
         <v/>
       </c>
-      <c r="K39" s="310"/>
+      <c r="K39" s="309"/>
       <c r="Y39" s="23"/>
     </row>
     <row r="40" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="90" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="C40" s="97"/>
-      <c r="D40" s="298"/>
-      <c r="E40" s="298"/>
-      <c r="F40" s="287"/>
-      <c r="G40" s="288"/>
-      <c r="H40" s="287"/>
-      <c r="I40" s="299"/>
-      <c r="J40" s="300"/>
-      <c r="K40" s="292"/>
+      <c r="D40" s="297"/>
+      <c r="E40" s="297"/>
+      <c r="F40" s="286"/>
+      <c r="G40" s="287"/>
+      <c r="H40" s="286"/>
+      <c r="I40" s="298"/>
+      <c r="J40" s="299"/>
+      <c r="K40" s="291"/>
       <c r="Y40" s="23"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="90" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="C41" s="97"/>
-      <c r="D41" s="316" t="s">
-        <v>500</v>
-      </c>
-      <c r="E41" s="298"/>
-      <c r="F41" s="287"/>
-      <c r="G41" s="288"/>
-      <c r="H41" s="287"/>
-      <c r="I41" s="299"/>
-      <c r="J41" s="300"/>
-      <c r="K41" s="292"/>
+      <c r="D41" s="315" t="s">
+        <v>503</v>
+      </c>
+      <c r="E41" s="297"/>
+      <c r="F41" s="286"/>
+      <c r="G41" s="287"/>
+      <c r="H41" s="286"/>
+      <c r="I41" s="298"/>
+      <c r="J41" s="299"/>
+      <c r="K41" s="291"/>
       <c r="Y41" s="23"/>
     </row>
     <row r="42" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="90" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="C42" s="97"/>
-      <c r="D42" s="317"/>
-      <c r="E42" s="317"/>
-      <c r="F42" s="318"/>
-      <c r="G42" s="319"/>
-      <c r="H42" s="318"/>
-      <c r="I42" s="320"/>
-      <c r="J42" s="321"/>
-      <c r="K42" s="297"/>
+      <c r="D42" s="316"/>
+      <c r="E42" s="316"/>
+      <c r="F42" s="317"/>
+      <c r="G42" s="318"/>
+      <c r="H42" s="317"/>
+      <c r="I42" s="319"/>
+      <c r="J42" s="320"/>
+      <c r="K42" s="296"/>
       <c r="Y42" s="23"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="90" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="C43" s="97"/>
-      <c r="D43" s="298"/>
-      <c r="E43" s="298"/>
-      <c r="F43" s="287"/>
-      <c r="G43" s="288"/>
-      <c r="H43" s="287"/>
-      <c r="I43" s="299"/>
-      <c r="J43" s="300"/>
-      <c r="K43" s="292"/>
+      <c r="D43" s="297"/>
+      <c r="E43" s="297"/>
+      <c r="F43" s="286"/>
+      <c r="G43" s="287"/>
+      <c r="H43" s="286"/>
+      <c r="I43" s="298"/>
+      <c r="J43" s="299"/>
+      <c r="K43" s="291"/>
       <c r="Y43" s="23"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="90" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="C44" s="97"/>
       <c r="D44" s="61" t="s">
-        <v>504</v>
-      </c>
-      <c r="E44" s="298"/>
-      <c r="F44" s="287"/>
-      <c r="G44" s="288"/>
-      <c r="H44" s="287"/>
-      <c r="I44" s="299"/>
-      <c r="J44" s="300"/>
-      <c r="K44" s="292"/>
+        <v>507</v>
+      </c>
+      <c r="E44" s="297"/>
+      <c r="F44" s="286"/>
+      <c r="G44" s="287"/>
+      <c r="H44" s="286"/>
+      <c r="I44" s="298"/>
+      <c r="J44" s="299"/>
+      <c r="K44" s="291"/>
       <c r="Y44" s="23"/>
     </row>
     <row r="45" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="90" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="C45" s="97"/>
       <c r="D45" s="61"/>
-      <c r="E45" s="298"/>
-      <c r="F45" s="287"/>
-      <c r="G45" s="288"/>
-      <c r="H45" s="287"/>
-      <c r="I45" s="299"/>
-      <c r="J45" s="300"/>
-      <c r="K45" s="292"/>
+      <c r="E45" s="297"/>
+      <c r="F45" s="286"/>
+      <c r="G45" s="287"/>
+      <c r="H45" s="286"/>
+      <c r="I45" s="298"/>
+      <c r="J45" s="299"/>
+      <c r="K45" s="291"/>
       <c r="Y45" s="23"/>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="90" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="C46" s="97"/>
       <c r="D46" s="61"/>
-      <c r="E46" s="298"/>
-      <c r="F46" s="287"/>
-      <c r="G46" s="288"/>
-      <c r="H46" s="287"/>
-      <c r="I46" s="280" t="s">
+      <c r="E46" s="297"/>
+      <c r="F46" s="286"/>
+      <c r="G46" s="287"/>
+      <c r="H46" s="286"/>
+      <c r="I46" s="279" t="s">
         <v>106</v>
       </c>
-      <c r="J46" s="281" t="s">
+      <c r="J46" s="280" t="s">
         <v>107</v>
       </c>
-      <c r="K46" s="282"/>
+      <c r="K46" s="281"/>
       <c r="Y46" s="23"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="90" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="C47" s="97"/>
       <c r="D47" s="23" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="E47" s="23"/>
-      <c r="F47" s="322"/>
-      <c r="G47" s="323"/>
-      <c r="H47" s="323"/>
-      <c r="I47" s="290" t="str">
+      <c r="F47" s="321"/>
+      <c r="G47" s="322"/>
+      <c r="H47" s="322"/>
+      <c r="I47" s="289" t="str">
         <f aca="false">A58</f>
         <v>[:toteutunut-ostoenergiankulutus :sahko-vuosikulutus-yhteensa]</v>
       </c>
-      <c r="J47" s="291" t="str">
+      <c r="J47" s="290" t="str">
         <f aca="false">A59</f>
         <v>[:toteutunut-ostoenergiankulutus :sahko-vuosikulutus-yhteensa-nettoala]</v>
       </c>
-      <c r="K47" s="292"/>
+      <c r="K47" s="291"/>
       <c r="Y47" s="23"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="90" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="C48" s="97"/>
       <c r="D48" s="23" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="E48" s="23"/>
-      <c r="F48" s="322"/>
-      <c r="G48" s="323"/>
-      <c r="H48" s="323"/>
-      <c r="I48" s="290" t="str">
+      <c r="F48" s="321"/>
+      <c r="G48" s="322"/>
+      <c r="H48" s="322"/>
+      <c r="I48" s="289" t="str">
         <f aca="false">A60</f>
         <v>[:toteutunut-ostoenergiankulutus :kaukolampo-vuosikulutus-yhteensa]</v>
       </c>
-      <c r="J48" s="291" t="str">
+      <c r="J48" s="290" t="str">
         <f aca="false">A61</f>
         <v>[:toteutunut-ostoenergiankulutus :kaukolampo-vuosikulutus-yhteensa-nettoala]</v>
       </c>
-      <c r="K48" s="292"/>
+      <c r="K48" s="291"/>
       <c r="Y48" s="23"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="90" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="C49" s="97"/>
       <c r="D49" s="23" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="E49" s="23"/>
-      <c r="F49" s="322"/>
-      <c r="G49" s="323"/>
-      <c r="H49" s="323"/>
-      <c r="I49" s="290" t="str">
+      <c r="F49" s="321"/>
+      <c r="G49" s="322"/>
+      <c r="H49" s="322"/>
+      <c r="I49" s="289" t="str">
         <f aca="false">A62</f>
         <v>[:toteutunut-ostoenergiankulutus :polttoaineet-vuosikulutus-yhteensa]</v>
       </c>
-      <c r="J49" s="291" t="str">
+      <c r="J49" s="290" t="str">
         <f aca="false">A63</f>
         <v>[:toteutunut-ostoenergiankulutus :polttoaineet-vuosikulutus-yhteensa-nettoala]</v>
       </c>
-      <c r="K49" s="292"/>
+      <c r="K49" s="291"/>
       <c r="Y49" s="23"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="90" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="C50" s="97"/>
       <c r="D50" s="23" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="E50" s="23"/>
-      <c r="F50" s="322"/>
-      <c r="G50" s="323"/>
-      <c r="H50" s="323"/>
-      <c r="I50" s="290" t="str">
+      <c r="F50" s="321"/>
+      <c r="G50" s="322"/>
+      <c r="H50" s="322"/>
+      <c r="I50" s="289" t="str">
         <f aca="false">A64</f>
         <v>[:toteutunut-ostoenergiankulutus :kaukojaahdytys-vuosikulutus-yhteensa]</v>
       </c>
-      <c r="J50" s="291" t="str">
+      <c r="J50" s="290" t="str">
         <f aca="false">A65</f>
         <v>[:toteutunut-ostoenergiankulutus :kaukojaahdytys-vuosikulutus-yhteensa-nettoala]</v>
       </c>
-      <c r="K50" s="292"/>
+      <c r="K50" s="291"/>
       <c r="Y50" s="23"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="90" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="C51" s="97"/>
       <c r="D51" s="61" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="E51" s="61"/>
       <c r="F51" s="14"/>
       <c r="G51" s="38"/>
       <c r="H51" s="38"/>
-      <c r="I51" s="309" t="str">
+      <c r="I51" s="308" t="str">
         <f aca="false">A66</f>
         <v>[:toteutunut-ostoenergiankulutus :summa]</v>
       </c>
-      <c r="J51" s="291" t="str">
+      <c r="J51" s="290" t="str">
         <f aca="false">A67</f>
         <v>[:toteutunut-ostoenergiankulutus :summa-nettoala]</v>
       </c>
-      <c r="K51" s="324"/>
+      <c r="K51" s="323"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="90" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="C52" s="97"/>
       <c r="D52" s="61"/>
@@ -28411,11 +28413,11 @@
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="90" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="C53" s="97"/>
       <c r="D53" s="142" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="E53" s="142"/>
       <c r="F53" s="142"/>
@@ -28427,7 +28429,7 @@
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="90" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="C54" s="97"/>
       <c r="D54" s="142"/>
@@ -28441,7 +28443,7 @@
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="90" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="C55" s="97"/>
       <c r="D55" s="142"/>
@@ -28455,7 +28457,7 @@
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="90" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="C56" s="97"/>
       <c r="D56" s="142"/>
@@ -28469,7 +28471,7 @@
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="90" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="C57" s="97"/>
       <c r="D57" s="142"/>
@@ -28483,7 +28485,7 @@
     </row>
     <row r="58" customFormat="false" ht="3.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="90" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="C58" s="143"/>
       <c r="D58" s="144"/>
@@ -28493,52 +28495,52 @@
       <c r="H58" s="144"/>
       <c r="I58" s="144"/>
       <c r="J58" s="144"/>
-      <c r="K58" s="325"/>
+      <c r="K58" s="324"/>
       <c r="L58" s="146"/>
     </row>
     <row r="59" customFormat="false" ht="4.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="90" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="90" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="90" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="90" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="90" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="90" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="90" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="90" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="90" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
     </row>
   </sheetData>
@@ -29233,13 +29235,13 @@
   </sheetPr>
   <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J61" activeCellId="0" sqref="J61"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C26" activeCellId="0" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="326" width="25.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="325" width="25.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="0.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="4" width="5.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="4" style="4" width="23.28"/>
@@ -29248,38 +29250,38 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="326" t="s">
+      <c r="A1" s="325" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="5"/>
     </row>
-    <row r="2" s="328" customFormat="true" ht="55.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="327" t="s">
-        <v>532</v>
-      </c>
-      <c r="C2" s="329" t="s">
-        <v>533</v>
-      </c>
-      <c r="D2" s="329"/>
-      <c r="E2" s="329"/>
-      <c r="F2" s="329"/>
-      <c r="G2" s="329"/>
+    <row r="2" s="327" customFormat="true" ht="55.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="326" t="s">
+        <v>535</v>
+      </c>
+      <c r="C2" s="328" t="s">
+        <v>536</v>
+      </c>
+      <c r="D2" s="328"/>
+      <c r="E2" s="328"/>
+      <c r="F2" s="328"/>
+      <c r="G2" s="328"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="150" t="s">
-        <v>534</v>
-      </c>
-      <c r="C3" s="330" t="s">
+        <v>537</v>
+      </c>
+      <c r="C3" s="329" t="s">
         <v>152</v>
       </c>
-      <c r="D3" s="330"/>
-      <c r="E3" s="330"/>
-      <c r="F3" s="330"/>
-      <c r="G3" s="330"/>
+      <c r="D3" s="329"/>
+      <c r="E3" s="329"/>
+      <c r="F3" s="329"/>
+      <c r="G3" s="329"/>
     </row>
     <row r="4" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="326" t="s">
-        <v>535</v>
+      <c r="A4" s="325" t="s">
+        <v>538</v>
       </c>
       <c r="C4" s="143"/>
       <c r="D4" s="5"/>
@@ -29288,202 +29290,200 @@
       <c r="G4" s="152"/>
     </row>
     <row r="5" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="326" t="s">
-        <v>536</v>
-      </c>
-      <c r="C5" s="331" t="s">
-        <v>537</v>
-      </c>
-      <c r="D5" s="94" t="s">
-        <v>538</v>
-      </c>
+      <c r="A5" s="325" t="s">
+        <v>539</v>
+      </c>
+      <c r="C5" s="330" t="s">
+        <v>540</v>
+      </c>
+      <c r="D5" s="94"/>
       <c r="E5" s="167"/>
       <c r="F5" s="167"/>
       <c r="G5" s="168"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="326" t="s">
-        <v>539</v>
-      </c>
-      <c r="C6" s="332" t="str">
+      <c r="A6" s="325" t="s">
+        <v>541</v>
+      </c>
+      <c r="C6" s="331" t="str">
         <f aca="false">A3</f>
         <v>[:huomiot :ymparys :teksti-sv]</v>
       </c>
-      <c r="D6" s="332"/>
-      <c r="E6" s="332"/>
-      <c r="F6" s="332"/>
-      <c r="G6" s="332"/>
+      <c r="D6" s="331"/>
+      <c r="E6" s="331"/>
+      <c r="F6" s="331"/>
+      <c r="G6" s="331"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="326" t="s">
-        <v>540</v>
-      </c>
-      <c r="C7" s="332"/>
-      <c r="D7" s="332"/>
-      <c r="E7" s="332"/>
-      <c r="F7" s="332"/>
-      <c r="G7" s="332"/>
+      <c r="A7" s="325" t="s">
+        <v>542</v>
+      </c>
+      <c r="C7" s="331"/>
+      <c r="D7" s="331"/>
+      <c r="E7" s="331"/>
+      <c r="F7" s="331"/>
+      <c r="G7" s="331"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="326" t="s">
-        <v>541</v>
-      </c>
-      <c r="C8" s="332"/>
-      <c r="D8" s="332"/>
-      <c r="E8" s="332"/>
-      <c r="F8" s="332"/>
-      <c r="G8" s="332"/>
+      <c r="A8" s="325" t="s">
+        <v>543</v>
+      </c>
+      <c r="C8" s="331"/>
+      <c r="D8" s="331"/>
+      <c r="E8" s="331"/>
+      <c r="F8" s="331"/>
+      <c r="G8" s="331"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="326" t="s">
-        <v>542</v>
-      </c>
-      <c r="C9" s="332"/>
-      <c r="D9" s="332"/>
-      <c r="E9" s="332"/>
-      <c r="F9" s="332"/>
-      <c r="G9" s="332"/>
+      <c r="A9" s="325" t="s">
+        <v>544</v>
+      </c>
+      <c r="C9" s="331"/>
+      <c r="D9" s="331"/>
+      <c r="E9" s="331"/>
+      <c r="F9" s="331"/>
+      <c r="G9" s="331"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="326" t="s">
-        <v>543</v>
-      </c>
-      <c r="C10" s="332"/>
-      <c r="D10" s="332"/>
-      <c r="E10" s="332"/>
-      <c r="F10" s="332"/>
-      <c r="G10" s="332"/>
+      <c r="A10" s="325" t="s">
+        <v>545</v>
+      </c>
+      <c r="C10" s="331"/>
+      <c r="D10" s="331"/>
+      <c r="E10" s="331"/>
+      <c r="F10" s="331"/>
+      <c r="G10" s="331"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="326" t="s">
-        <v>544</v>
-      </c>
-      <c r="C11" s="332"/>
-      <c r="D11" s="332"/>
-      <c r="E11" s="332"/>
-      <c r="F11" s="332"/>
-      <c r="G11" s="332"/>
+      <c r="A11" s="325" t="s">
+        <v>546</v>
+      </c>
+      <c r="C11" s="331"/>
+      <c r="D11" s="331"/>
+      <c r="E11" s="331"/>
+      <c r="F11" s="331"/>
+      <c r="G11" s="331"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="326" t="s">
-        <v>545</v>
-      </c>
-      <c r="C12" s="332"/>
-      <c r="D12" s="332"/>
-      <c r="E12" s="332"/>
-      <c r="F12" s="332"/>
-      <c r="G12" s="332"/>
+      <c r="A12" s="325" t="s">
+        <v>547</v>
+      </c>
+      <c r="C12" s="331"/>
+      <c r="D12" s="331"/>
+      <c r="E12" s="331"/>
+      <c r="F12" s="331"/>
+      <c r="G12" s="331"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="326" t="s">
-        <v>546</v>
-      </c>
-      <c r="C13" s="332"/>
-      <c r="D13" s="332"/>
-      <c r="E13" s="332"/>
-      <c r="F13" s="332"/>
-      <c r="G13" s="332"/>
+      <c r="A13" s="325" t="s">
+        <v>548</v>
+      </c>
+      <c r="C13" s="331"/>
+      <c r="D13" s="331"/>
+      <c r="E13" s="331"/>
+      <c r="F13" s="331"/>
+      <c r="G13" s="331"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="326" t="s">
-        <v>547</v>
-      </c>
-      <c r="C14" s="332"/>
-      <c r="D14" s="332"/>
-      <c r="E14" s="332"/>
-      <c r="F14" s="332"/>
-      <c r="G14" s="332"/>
+      <c r="A14" s="325" t="s">
+        <v>549</v>
+      </c>
+      <c r="C14" s="331"/>
+      <c r="D14" s="331"/>
+      <c r="E14" s="331"/>
+      <c r="F14" s="331"/>
+      <c r="G14" s="331"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="326" t="s">
-        <v>548</v>
-      </c>
-      <c r="C15" s="332"/>
-      <c r="D15" s="332"/>
-      <c r="E15" s="332"/>
-      <c r="F15" s="332"/>
-      <c r="G15" s="332"/>
+      <c r="A15" s="325" t="s">
+        <v>550</v>
+      </c>
+      <c r="C15" s="331"/>
+      <c r="D15" s="331"/>
+      <c r="E15" s="331"/>
+      <c r="F15" s="331"/>
+      <c r="G15" s="331"/>
     </row>
     <row r="16" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="150" t="s">
-        <v>549</v>
-      </c>
-      <c r="C16" s="333" t="s">
-        <v>550</v>
-      </c>
-      <c r="D16" s="333"/>
-      <c r="E16" s="333"/>
-      <c r="F16" s="333"/>
-      <c r="G16" s="333"/>
+        <v>551</v>
+      </c>
+      <c r="C16" s="332" t="s">
+        <v>552</v>
+      </c>
+      <c r="D16" s="332"/>
+      <c r="E16" s="332"/>
+      <c r="F16" s="332"/>
+      <c r="G16" s="332"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="150" t="s">
-        <v>551</v>
-      </c>
-      <c r="C17" s="334" t="n">
+        <v>553</v>
+      </c>
+      <c r="C17" s="333" t="n">
         <v>1</v>
       </c>
-      <c r="D17" s="335" t="str">
+      <c r="D17" s="334" t="str">
         <f aca="false">A5</f>
         <v>[:huomiot :ymparys :toimenpide 0 :nimi-sv]</v>
       </c>
-      <c r="E17" s="335"/>
-      <c r="F17" s="335"/>
-      <c r="G17" s="335"/>
+      <c r="E17" s="334"/>
+      <c r="F17" s="334"/>
+      <c r="G17" s="334"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="150" t="s">
-        <v>552</v>
-      </c>
-      <c r="C18" s="334" t="n">
+        <v>554</v>
+      </c>
+      <c r="C18" s="333" t="n">
         <v>2</v>
       </c>
-      <c r="D18" s="335" t="str">
+      <c r="D18" s="334" t="str">
         <f aca="false">A7</f>
         <v>[:huomiot :ymparys :toimenpide 1 :nimi-sv]</v>
       </c>
-      <c r="E18" s="335"/>
-      <c r="F18" s="335"/>
-      <c r="G18" s="335"/>
+      <c r="E18" s="334"/>
+      <c r="F18" s="334"/>
+      <c r="G18" s="334"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="150" t="s">
-        <v>553</v>
-      </c>
-      <c r="C19" s="334" t="n">
+        <v>555</v>
+      </c>
+      <c r="C19" s="333" t="n">
         <v>3</v>
       </c>
-      <c r="D19" s="335" t="str">
+      <c r="D19" s="334" t="str">
         <f aca="false">A9</f>
         <v>[:huomiot :ymparys :toimenpide 2 :nimi-sv]</v>
       </c>
-      <c r="E19" s="335"/>
-      <c r="F19" s="335"/>
-      <c r="G19" s="335"/>
+      <c r="E19" s="334"/>
+      <c r="F19" s="334"/>
+      <c r="G19" s="334"/>
     </row>
     <row r="20" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="150" t="s">
-        <v>554</v>
-      </c>
-      <c r="C20" s="336"/>
-      <c r="D20" s="337" t="s">
-        <v>555</v>
-      </c>
-      <c r="E20" s="337" t="s">
         <v>556</v>
       </c>
-      <c r="F20" s="337" t="s">
+      <c r="C20" s="335"/>
+      <c r="D20" s="336" t="s">
         <v>557</v>
       </c>
-      <c r="G20" s="338" t="s">
+      <c r="E20" s="336" t="s">
         <v>558</v>
+      </c>
+      <c r="F20" s="336" t="s">
+        <v>559</v>
+      </c>
+      <c r="G20" s="337" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="150" t="s">
-        <v>559</v>
-      </c>
-      <c r="C21" s="336"/>
+        <v>561</v>
+      </c>
+      <c r="C21" s="335"/>
       <c r="D21" s="108" t="s">
         <v>106</v>
       </c>
@@ -29494,276 +29494,276 @@
         <v>106</v>
       </c>
       <c r="G21" s="108" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="150" t="s">
-        <v>561</v>
-      </c>
-      <c r="C22" s="334" t="n">
+        <v>563</v>
+      </c>
+      <c r="C22" s="333" t="n">
         <v>1</v>
       </c>
-      <c r="D22" s="339" t="str">
+      <c r="D22" s="338" t="str">
         <f aca="false">A10</f>
         <v>[:huomiot :ymparys :toimenpide 0 :lampo]</v>
       </c>
-      <c r="E22" s="339" t="str">
+      <c r="E22" s="338" t="str">
         <f aca="false">A11</f>
         <v>[:huomiot :ymparys :toimenpide 0 :sahko]</v>
       </c>
-      <c r="F22" s="339" t="str">
+      <c r="F22" s="338" t="str">
         <f aca="false">A12</f>
         <v>[:huomiot :ymparys :toimenpide 0 :jaahdytys]</v>
       </c>
-      <c r="G22" s="339" t="str">
+      <c r="G22" s="338" t="str">
         <f aca="false">A13</f>
         <v>[:huomiot :ymparys :toimenpide 0 :eluvun-muutos]</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="150" t="s">
-        <v>562</v>
-      </c>
-      <c r="C23" s="334" t="n">
+        <v>564</v>
+      </c>
+      <c r="C23" s="333" t="n">
         <v>2</v>
       </c>
-      <c r="D23" s="339" t="str">
+      <c r="D23" s="338" t="str">
         <f aca="false">A14</f>
         <v>[:huomiot :ymparys :toimenpide 1 :lampo]</v>
       </c>
-      <c r="E23" s="339" t="str">
+      <c r="E23" s="338" t="str">
         <f aca="false">A15</f>
         <v>[:huomiot :ymparys :toimenpide 1 :sahko]</v>
       </c>
-      <c r="F23" s="339" t="str">
+      <c r="F23" s="338" t="str">
         <f aca="false">A16</f>
         <v>[:huomiot :ymparys :toimenpide 1 :jaahdytys]</v>
       </c>
-      <c r="G23" s="339" t="str">
+      <c r="G23" s="338" t="str">
         <f aca="false">A17</f>
         <v>[:huomiot :ymparys :toimenpide 1 :eluvun-muutos]</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="150" t="s">
-        <v>563</v>
-      </c>
-      <c r="C24" s="334" t="n">
+        <v>565</v>
+      </c>
+      <c r="C24" s="333" t="n">
         <v>3</v>
       </c>
-      <c r="D24" s="339" t="str">
+      <c r="D24" s="338" t="str">
         <f aca="false">A18</f>
         <v>[:huomiot :ymparys :toimenpide 2 :lampo]</v>
       </c>
-      <c r="E24" s="339" t="str">
+      <c r="E24" s="338" t="str">
         <f aca="false">A19</f>
         <v>[:huomiot :ymparys :toimenpide 2 :sahko]</v>
       </c>
-      <c r="F24" s="339" t="str">
+      <c r="F24" s="338" t="str">
         <f aca="false">A20</f>
         <v>[:huomiot :ymparys :toimenpide 2 :jaahdytys]</v>
       </c>
-      <c r="G24" s="339" t="str">
+      <c r="G24" s="338" t="str">
         <f aca="false">A21</f>
         <v>[:huomiot :ymparys :toimenpide 2 :eluvun-muutos]</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="150" t="s">
-        <v>564</v>
-      </c>
-      <c r="C25" s="340" t="s">
-        <v>565</v>
+        <v>566</v>
+      </c>
+      <c r="C25" s="339" t="s">
+        <v>567</v>
       </c>
       <c r="D25" s="94"/>
       <c r="E25" s="167"/>
       <c r="F25" s="167"/>
-      <c r="G25" s="341"/>
+      <c r="G25" s="340"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="150" t="s">
-        <v>566</v>
-      </c>
-      <c r="C26" s="332" t="str">
+        <v>568</v>
+      </c>
+      <c r="C26" s="331" t="str">
         <f aca="false">A23</f>
         <v>[:huomiot :alapohja-ylapohja :teksti-sv]</v>
       </c>
-      <c r="D26" s="332"/>
-      <c r="E26" s="332"/>
-      <c r="F26" s="332"/>
-      <c r="G26" s="332"/>
+      <c r="D26" s="331"/>
+      <c r="E26" s="331"/>
+      <c r="F26" s="331"/>
+      <c r="G26" s="331"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="150" t="s">
-        <v>567</v>
-      </c>
-      <c r="C27" s="332"/>
-      <c r="D27" s="332"/>
-      <c r="E27" s="332"/>
-      <c r="F27" s="332"/>
-      <c r="G27" s="332"/>
+        <v>569</v>
+      </c>
+      <c r="C27" s="331"/>
+      <c r="D27" s="331"/>
+      <c r="E27" s="331"/>
+      <c r="F27" s="331"/>
+      <c r="G27" s="331"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="150" t="s">
-        <v>568</v>
-      </c>
-      <c r="C28" s="332"/>
-      <c r="D28" s="332"/>
-      <c r="E28" s="332"/>
-      <c r="F28" s="332"/>
-      <c r="G28" s="332"/>
+        <v>570</v>
+      </c>
+      <c r="C28" s="331"/>
+      <c r="D28" s="331"/>
+      <c r="E28" s="331"/>
+      <c r="F28" s="331"/>
+      <c r="G28" s="331"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="150" t="s">
-        <v>569</v>
-      </c>
-      <c r="C29" s="332"/>
-      <c r="D29" s="332"/>
-      <c r="E29" s="332"/>
-      <c r="F29" s="332"/>
-      <c r="G29" s="332"/>
+        <v>571</v>
+      </c>
+      <c r="C29" s="331"/>
+      <c r="D29" s="331"/>
+      <c r="E29" s="331"/>
+      <c r="F29" s="331"/>
+      <c r="G29" s="331"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="150" t="s">
-        <v>570</v>
-      </c>
-      <c r="C30" s="332"/>
-      <c r="D30" s="332"/>
-      <c r="E30" s="332"/>
-      <c r="F30" s="332"/>
-      <c r="G30" s="332"/>
+        <v>572</v>
+      </c>
+      <c r="C30" s="331"/>
+      <c r="D30" s="331"/>
+      <c r="E30" s="331"/>
+      <c r="F30" s="331"/>
+      <c r="G30" s="331"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="150" t="s">
-        <v>571</v>
-      </c>
-      <c r="C31" s="332"/>
-      <c r="D31" s="332"/>
-      <c r="E31" s="332"/>
-      <c r="F31" s="332"/>
-      <c r="G31" s="332"/>
+        <v>573</v>
+      </c>
+      <c r="C31" s="331"/>
+      <c r="D31" s="331"/>
+      <c r="E31" s="331"/>
+      <c r="F31" s="331"/>
+      <c r="G31" s="331"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="150" t="s">
-        <v>572</v>
-      </c>
-      <c r="C32" s="332"/>
-      <c r="D32" s="332"/>
-      <c r="E32" s="332"/>
-      <c r="F32" s="332"/>
-      <c r="G32" s="332"/>
+        <v>574</v>
+      </c>
+      <c r="C32" s="331"/>
+      <c r="D32" s="331"/>
+      <c r="E32" s="331"/>
+      <c r="F32" s="331"/>
+      <c r="G32" s="331"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="150" t="s">
-        <v>573</v>
-      </c>
-      <c r="C33" s="332"/>
-      <c r="D33" s="332"/>
-      <c r="E33" s="332"/>
-      <c r="F33" s="332"/>
-      <c r="G33" s="332"/>
+        <v>575</v>
+      </c>
+      <c r="C33" s="331"/>
+      <c r="D33" s="331"/>
+      <c r="E33" s="331"/>
+      <c r="F33" s="331"/>
+      <c r="G33" s="331"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="150" t="s">
-        <v>574</v>
-      </c>
-      <c r="C34" s="332"/>
-      <c r="D34" s="332"/>
-      <c r="E34" s="332"/>
-      <c r="F34" s="332"/>
-      <c r="G34" s="332"/>
+        <v>576</v>
+      </c>
+      <c r="C34" s="331"/>
+      <c r="D34" s="331"/>
+      <c r="E34" s="331"/>
+      <c r="F34" s="331"/>
+      <c r="G34" s="331"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="150" t="s">
-        <v>575</v>
-      </c>
-      <c r="C35" s="332"/>
-      <c r="D35" s="332"/>
-      <c r="E35" s="332"/>
-      <c r="F35" s="332"/>
-      <c r="G35" s="332"/>
+        <v>577</v>
+      </c>
+      <c r="C35" s="331"/>
+      <c r="D35" s="331"/>
+      <c r="E35" s="331"/>
+      <c r="F35" s="331"/>
+      <c r="G35" s="331"/>
     </row>
     <row r="36" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="150" t="s">
-        <v>576</v>
-      </c>
-      <c r="C36" s="333" t="s">
-        <v>550</v>
-      </c>
-      <c r="D36" s="333"/>
-      <c r="E36" s="333"/>
-      <c r="F36" s="333"/>
-      <c r="G36" s="333"/>
+        <v>578</v>
+      </c>
+      <c r="C36" s="332" t="s">
+        <v>552</v>
+      </c>
+      <c r="D36" s="332"/>
+      <c r="E36" s="332"/>
+      <c r="F36" s="332"/>
+      <c r="G36" s="332"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="150" t="s">
-        <v>577</v>
-      </c>
-      <c r="C37" s="334" t="n">
+        <v>579</v>
+      </c>
+      <c r="C37" s="333" t="n">
         <v>1</v>
       </c>
-      <c r="D37" s="335" t="str">
+      <c r="D37" s="334" t="str">
         <f aca="false">A25</f>
         <v>[:huomiot :alapohja-ylapohja :toimenpide 0 :nimi-sv]</v>
       </c>
-      <c r="E37" s="335"/>
-      <c r="F37" s="335"/>
-      <c r="G37" s="335"/>
+      <c r="E37" s="334"/>
+      <c r="F37" s="334"/>
+      <c r="G37" s="334"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="150" t="s">
-        <v>578</v>
-      </c>
-      <c r="C38" s="334" t="n">
+        <v>580</v>
+      </c>
+      <c r="C38" s="333" t="n">
         <v>2</v>
       </c>
-      <c r="D38" s="335" t="str">
+      <c r="D38" s="334" t="str">
         <f aca="false">A27</f>
         <v>[:huomiot :alapohja-ylapohja :toimenpide 1 :nimi-sv]</v>
       </c>
-      <c r="E38" s="335"/>
-      <c r="F38" s="335"/>
-      <c r="G38" s="335"/>
+      <c r="E38" s="334"/>
+      <c r="F38" s="334"/>
+      <c r="G38" s="334"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="150" t="s">
-        <v>579</v>
-      </c>
-      <c r="C39" s="334" t="n">
+        <v>581</v>
+      </c>
+      <c r="C39" s="333" t="n">
         <v>3</v>
       </c>
-      <c r="D39" s="335" t="str">
+      <c r="D39" s="334" t="str">
         <f aca="false">A29</f>
         <v>[:huomiot :alapohja-ylapohja :toimenpide 2 :nimi-sv]</v>
       </c>
-      <c r="E39" s="335"/>
-      <c r="F39" s="335"/>
-      <c r="G39" s="335"/>
+      <c r="E39" s="334"/>
+      <c r="F39" s="334"/>
+      <c r="G39" s="334"/>
     </row>
     <row r="40" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="150" t="s">
-        <v>580</v>
-      </c>
-      <c r="C40" s="336"/>
-      <c r="D40" s="337" t="s">
-        <v>555</v>
-      </c>
-      <c r="E40" s="337" t="s">
-        <v>556</v>
-      </c>
-      <c r="F40" s="337" t="s">
+        <v>582</v>
+      </c>
+      <c r="C40" s="335"/>
+      <c r="D40" s="336" t="s">
         <v>557</v>
       </c>
-      <c r="G40" s="338" t="s">
+      <c r="E40" s="336" t="s">
         <v>558</v>
+      </c>
+      <c r="F40" s="336" t="s">
+        <v>559</v>
+      </c>
+      <c r="G40" s="337" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="150" t="s">
-        <v>581</v>
-      </c>
-      <c r="C41" s="336"/>
+        <v>583</v>
+      </c>
+      <c r="C41" s="335"/>
       <c r="D41" s="108" t="s">
         <v>106</v>
       </c>
@@ -29774,276 +29774,276 @@
         <v>106</v>
       </c>
       <c r="G41" s="108" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="150" t="s">
-        <v>582</v>
-      </c>
-      <c r="C42" s="334" t="n">
+        <v>584</v>
+      </c>
+      <c r="C42" s="333" t="n">
         <v>1</v>
       </c>
-      <c r="D42" s="339" t="str">
+      <c r="D42" s="338" t="str">
         <f aca="false">A30</f>
         <v>[:huomiot :alapohja-ylapohja :toimenpide 0 :lampo]</v>
       </c>
-      <c r="E42" s="339" t="str">
+      <c r="E42" s="338" t="str">
         <f aca="false">A31</f>
         <v>[:huomiot :alapohja-ylapohja :toimenpide 0 :sahko]</v>
       </c>
-      <c r="F42" s="339" t="str">
+      <c r="F42" s="338" t="str">
         <f aca="false">A32</f>
         <v>[:huomiot :alapohja-ylapohja :toimenpide 0 :jaahdytys]</v>
       </c>
-      <c r="G42" s="339" t="str">
+      <c r="G42" s="338" t="str">
         <f aca="false">A33</f>
         <v>[:huomiot :alapohja-ylapohja :toimenpide 0 :eluvun-muutos]</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="150" t="s">
-        <v>583</v>
-      </c>
-      <c r="C43" s="334" t="n">
+        <v>585</v>
+      </c>
+      <c r="C43" s="333" t="n">
         <v>2</v>
       </c>
-      <c r="D43" s="339" t="str">
+      <c r="D43" s="338" t="str">
         <f aca="false">A34</f>
         <v>[:huomiot :alapohja-ylapohja :toimenpide 1 :lampo]</v>
       </c>
-      <c r="E43" s="339" t="str">
+      <c r="E43" s="338" t="str">
         <f aca="false">A35</f>
         <v>[:huomiot :alapohja-ylapohja :toimenpide 1 :sahko]</v>
       </c>
-      <c r="F43" s="339" t="str">
+      <c r="F43" s="338" t="str">
         <f aca="false">A36</f>
         <v>[:huomiot :alapohja-ylapohja :toimenpide 1 :jaahdytys]</v>
       </c>
-      <c r="G43" s="339" t="str">
+      <c r="G43" s="338" t="str">
         <f aca="false">A37</f>
         <v>[:huomiot :alapohja-ylapohja :toimenpide 1 :eluvun-muutos]</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="150" t="s">
-        <v>584</v>
-      </c>
-      <c r="C44" s="334" t="n">
+        <v>586</v>
+      </c>
+      <c r="C44" s="333" t="n">
         <v>3</v>
       </c>
-      <c r="D44" s="339" t="str">
+      <c r="D44" s="338" t="str">
         <f aca="false">A38</f>
         <v>[:huomiot :alapohja-ylapohja :toimenpide 2 :lampo]</v>
       </c>
-      <c r="E44" s="339" t="str">
+      <c r="E44" s="338" t="str">
         <f aca="false">A39</f>
         <v>[:huomiot :alapohja-ylapohja :toimenpide 2 :sahko]</v>
       </c>
-      <c r="F44" s="339" t="str">
+      <c r="F44" s="338" t="str">
         <f aca="false">A40</f>
         <v>[:huomiot :alapohja-ylapohja :toimenpide 2 :jaahdytys]</v>
       </c>
-      <c r="G44" s="339" t="str">
+      <c r="G44" s="338" t="str">
         <f aca="false">A41</f>
         <v>[:huomiot :alapohja-ylapohja :toimenpide 2 :eluvun-muutos]</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="150" t="s">
-        <v>585</v>
-      </c>
-      <c r="C45" s="340" t="s">
-        <v>586</v>
-      </c>
-      <c r="D45" s="342"/>
+        <v>587</v>
+      </c>
+      <c r="C45" s="339" t="s">
+        <v>588</v>
+      </c>
+      <c r="D45" s="341"/>
       <c r="E45" s="30"/>
       <c r="F45" s="30"/>
-      <c r="G45" s="341"/>
+      <c r="G45" s="340"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="150" t="s">
-        <v>587</v>
-      </c>
-      <c r="C46" s="332" t="str">
+        <v>589</v>
+      </c>
+      <c r="C46" s="331" t="str">
         <f aca="false">A43</f>
         <v>[:huomiot :lammitys :teksti-sv]</v>
       </c>
-      <c r="D46" s="332"/>
-      <c r="E46" s="332"/>
-      <c r="F46" s="332"/>
-      <c r="G46" s="332"/>
+      <c r="D46" s="331"/>
+      <c r="E46" s="331"/>
+      <c r="F46" s="331"/>
+      <c r="G46" s="331"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="150" t="s">
-        <v>588</v>
-      </c>
-      <c r="C47" s="332"/>
-      <c r="D47" s="332"/>
-      <c r="E47" s="332"/>
-      <c r="F47" s="332"/>
-      <c r="G47" s="332"/>
+        <v>590</v>
+      </c>
+      <c r="C47" s="331"/>
+      <c r="D47" s="331"/>
+      <c r="E47" s="331"/>
+      <c r="F47" s="331"/>
+      <c r="G47" s="331"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="150" t="s">
-        <v>589</v>
-      </c>
-      <c r="C48" s="332"/>
-      <c r="D48" s="332"/>
-      <c r="E48" s="332"/>
-      <c r="F48" s="332"/>
-      <c r="G48" s="332"/>
+        <v>591</v>
+      </c>
+      <c r="C48" s="331"/>
+      <c r="D48" s="331"/>
+      <c r="E48" s="331"/>
+      <c r="F48" s="331"/>
+      <c r="G48" s="331"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="150" t="s">
-        <v>590</v>
-      </c>
-      <c r="C49" s="332"/>
-      <c r="D49" s="332"/>
-      <c r="E49" s="332"/>
-      <c r="F49" s="332"/>
-      <c r="G49" s="332"/>
+        <v>592</v>
+      </c>
+      <c r="C49" s="331"/>
+      <c r="D49" s="331"/>
+      <c r="E49" s="331"/>
+      <c r="F49" s="331"/>
+      <c r="G49" s="331"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="150" t="s">
-        <v>591</v>
-      </c>
-      <c r="C50" s="332"/>
-      <c r="D50" s="332"/>
-      <c r="E50" s="332"/>
-      <c r="F50" s="332"/>
-      <c r="G50" s="332"/>
+        <v>593</v>
+      </c>
+      <c r="C50" s="331"/>
+      <c r="D50" s="331"/>
+      <c r="E50" s="331"/>
+      <c r="F50" s="331"/>
+      <c r="G50" s="331"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="150" t="s">
-        <v>592</v>
-      </c>
-      <c r="C51" s="332"/>
-      <c r="D51" s="332"/>
-      <c r="E51" s="332"/>
-      <c r="F51" s="332"/>
-      <c r="G51" s="332"/>
+        <v>594</v>
+      </c>
+      <c r="C51" s="331"/>
+      <c r="D51" s="331"/>
+      <c r="E51" s="331"/>
+      <c r="F51" s="331"/>
+      <c r="G51" s="331"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="150" t="s">
-        <v>593</v>
-      </c>
-      <c r="C52" s="332"/>
-      <c r="D52" s="332"/>
-      <c r="E52" s="332"/>
-      <c r="F52" s="332"/>
-      <c r="G52" s="332"/>
+        <v>595</v>
+      </c>
+      <c r="C52" s="331"/>
+      <c r="D52" s="331"/>
+      <c r="E52" s="331"/>
+      <c r="F52" s="331"/>
+      <c r="G52" s="331"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="150" t="s">
-        <v>594</v>
-      </c>
-      <c r="C53" s="332"/>
-      <c r="D53" s="332"/>
-      <c r="E53" s="332"/>
-      <c r="F53" s="332"/>
-      <c r="G53" s="332"/>
+        <v>596</v>
+      </c>
+      <c r="C53" s="331"/>
+      <c r="D53" s="331"/>
+      <c r="E53" s="331"/>
+      <c r="F53" s="331"/>
+      <c r="G53" s="331"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="150" t="s">
-        <v>595</v>
-      </c>
-      <c r="C54" s="332"/>
-      <c r="D54" s="332"/>
-      <c r="E54" s="332"/>
-      <c r="F54" s="332"/>
-      <c r="G54" s="332"/>
+        <v>597</v>
+      </c>
+      <c r="C54" s="331"/>
+      <c r="D54" s="331"/>
+      <c r="E54" s="331"/>
+      <c r="F54" s="331"/>
+      <c r="G54" s="331"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="150" t="s">
-        <v>596</v>
-      </c>
-      <c r="C55" s="332"/>
-      <c r="D55" s="332"/>
-      <c r="E55" s="332"/>
-      <c r="F55" s="332"/>
-      <c r="G55" s="332"/>
+        <v>598</v>
+      </c>
+      <c r="C55" s="331"/>
+      <c r="D55" s="331"/>
+      <c r="E55" s="331"/>
+      <c r="F55" s="331"/>
+      <c r="G55" s="331"/>
     </row>
     <row r="56" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="150" t="s">
-        <v>597</v>
-      </c>
-      <c r="C56" s="333" t="s">
-        <v>550</v>
-      </c>
-      <c r="D56" s="333"/>
-      <c r="E56" s="333"/>
-      <c r="F56" s="333"/>
-      <c r="G56" s="333"/>
+        <v>599</v>
+      </c>
+      <c r="C56" s="332" t="s">
+        <v>552</v>
+      </c>
+      <c r="D56" s="332"/>
+      <c r="E56" s="332"/>
+      <c r="F56" s="332"/>
+      <c r="G56" s="332"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="150" t="s">
-        <v>598</v>
-      </c>
-      <c r="C57" s="334" t="n">
+        <v>600</v>
+      </c>
+      <c r="C57" s="333" t="n">
         <v>1</v>
       </c>
-      <c r="D57" s="335" t="str">
+      <c r="D57" s="334" t="str">
         <f aca="false">A45</f>
         <v>[:huomiot :lammitys :toimenpide 0 :nimi-sv]</v>
       </c>
-      <c r="E57" s="335"/>
-      <c r="F57" s="335"/>
-      <c r="G57" s="335"/>
+      <c r="E57" s="334"/>
+      <c r="F57" s="334"/>
+      <c r="G57" s="334"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="150" t="s">
-        <v>599</v>
-      </c>
-      <c r="C58" s="334" t="n">
+        <v>601</v>
+      </c>
+      <c r="C58" s="333" t="n">
         <v>2</v>
       </c>
-      <c r="D58" s="335" t="str">
+      <c r="D58" s="334" t="str">
         <f aca="false">A47</f>
         <v>[:huomiot :lammitys :toimenpide 1 :nimi-sv]</v>
       </c>
-      <c r="E58" s="335"/>
-      <c r="F58" s="335"/>
-      <c r="G58" s="335"/>
+      <c r="E58" s="334"/>
+      <c r="F58" s="334"/>
+      <c r="G58" s="334"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="150" t="s">
-        <v>600</v>
-      </c>
-      <c r="C59" s="334" t="n">
+        <v>602</v>
+      </c>
+      <c r="C59" s="333" t="n">
         <v>3</v>
       </c>
-      <c r="D59" s="335" t="str">
+      <c r="D59" s="334" t="str">
         <f aca="false">A49</f>
         <v>[:huomiot :lammitys :toimenpide 2 :nimi-sv]</v>
       </c>
-      <c r="E59" s="335"/>
-      <c r="F59" s="335"/>
-      <c r="G59" s="335"/>
+      <c r="E59" s="334"/>
+      <c r="F59" s="334"/>
+      <c r="G59" s="334"/>
     </row>
     <row r="60" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="150" t="s">
-        <v>601</v>
-      </c>
-      <c r="C60" s="336"/>
-      <c r="D60" s="337" t="s">
-        <v>555</v>
-      </c>
-      <c r="E60" s="337" t="s">
-        <v>556</v>
-      </c>
-      <c r="F60" s="337" t="s">
+        <v>603</v>
+      </c>
+      <c r="C60" s="335"/>
+      <c r="D60" s="336" t="s">
         <v>557</v>
       </c>
-      <c r="G60" s="338" t="s">
+      <c r="E60" s="336" t="s">
         <v>558</v>
+      </c>
+      <c r="F60" s="336" t="s">
+        <v>559</v>
+      </c>
+      <c r="G60" s="337" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="150" t="s">
-        <v>602</v>
-      </c>
-      <c r="C61" s="336"/>
+        <v>604</v>
+      </c>
+      <c r="C61" s="335"/>
       <c r="D61" s="108" t="s">
         <v>106</v>
       </c>
@@ -30054,71 +30054,71 @@
         <v>106</v>
       </c>
       <c r="G61" s="108" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="150"/>
-      <c r="C62" s="334" t="n">
+      <c r="C62" s="333" t="n">
         <v>1</v>
       </c>
-      <c r="D62" s="339" t="str">
+      <c r="D62" s="338" t="str">
         <f aca="false">A50</f>
         <v>[:huomiot :lammitys :toimenpide 0 :lampo]</v>
       </c>
-      <c r="E62" s="339" t="str">
+      <c r="E62" s="338" t="str">
         <f aca="false">A51</f>
         <v>[:huomiot :lammitys :toimenpide 0 :sahko]</v>
       </c>
-      <c r="F62" s="339" t="str">
+      <c r="F62" s="338" t="str">
         <f aca="false">A52</f>
         <v>[:huomiot :lammitys :toimenpide 0 :jaahdytys]</v>
       </c>
-      <c r="G62" s="339" t="str">
+      <c r="G62" s="338" t="str">
         <f aca="false">A53</f>
         <v>[:huomiot :lammitys :toimenpide 0 :eluvun-muutos]</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="150"/>
-      <c r="C63" s="334" t="n">
+      <c r="C63" s="333" t="n">
         <v>2</v>
       </c>
-      <c r="D63" s="339" t="str">
+      <c r="D63" s="338" t="str">
         <f aca="false">A54</f>
         <v>[:huomiot :lammitys :toimenpide 1 :lampo]</v>
       </c>
-      <c r="E63" s="339" t="str">
+      <c r="E63" s="338" t="str">
         <f aca="false">A55</f>
         <v>[:huomiot :lammitys :toimenpide 1 :sahko]</v>
       </c>
-      <c r="F63" s="339" t="str">
+      <c r="F63" s="338" t="str">
         <f aca="false">A56</f>
         <v>[:huomiot :lammitys :toimenpide 1 :jaahdytys]</v>
       </c>
-      <c r="G63" s="343" t="str">
+      <c r="G63" s="342" t="str">
         <f aca="false">A57</f>
         <v>[:huomiot :lammitys :toimenpide 1 :eluvun-muutos]</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="150"/>
-      <c r="C64" s="334" t="n">
+      <c r="C64" s="333" t="n">
         <v>3</v>
       </c>
-      <c r="D64" s="339" t="str">
+      <c r="D64" s="338" t="str">
         <f aca="false">A58</f>
         <v>[:huomiot :lammitys :toimenpide 2 :lampo]</v>
       </c>
-      <c r="E64" s="339" t="str">
+      <c r="E64" s="338" t="str">
         <f aca="false">A59</f>
         <v>[:huomiot :lammitys :toimenpide 2 :sahko]</v>
       </c>
-      <c r="F64" s="339" t="str">
+      <c r="F64" s="338" t="str">
         <f aca="false">A60</f>
         <v>[:huomiot :lammitys :toimenpide 2 :jaahdytys]</v>
       </c>
-      <c r="G64" s="339" t="str">
+      <c r="G64" s="338" t="str">
         <f aca="false">A61</f>
         <v>[:huomiot :lammitys :toimenpide 2 :eluvun-muutos]</v>
       </c>
@@ -30147,7 +30147,7 @@
     <mergeCell ref="D59:G59"/>
     <mergeCell ref="C60:C61"/>
   </mergeCells>
-  <conditionalFormatting sqref="A1:AMJ1 B16:B40 A65:AMJ1048576 A4:AMJ15 C25:G35 C45:G55 H16:AMJ40 H2:AMJ3 B2:C3 H42:AMJ44 B42:C44">
+  <conditionalFormatting sqref="A1:AMJ1 B16:B40 A65:AMJ1048576 C25:G35 C45:G55 H16:AMJ40 H2:AMJ3 B2:C3 H42:AMJ44 B42:C44 A4:AMJ15">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="428">
       <formula>"*"</formula>
     </cfRule>
@@ -30285,13 +30285,13 @@
   </sheetPr>
   <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="326" width="25.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="325" width="25.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="0.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="4" width="5.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="4" style="4" width="23.28"/>
@@ -30300,17 +30300,17 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="326" t="s">
+      <c r="A1" s="325" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="5"/>
     </row>
     <row r="2" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="326" t="s">
-        <v>603</v>
-      </c>
-      <c r="C2" s="331" t="s">
-        <v>604</v>
+      <c r="A2" s="325" t="s">
+        <v>605</v>
+      </c>
+      <c r="C2" s="330" t="s">
+        <v>606</v>
       </c>
       <c r="D2" s="94"/>
       <c r="E2" s="167"/>
@@ -30318,188 +30318,188 @@
       <c r="G2" s="168"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="326" t="s">
-        <v>605</v>
-      </c>
-      <c r="C3" s="332" t="str">
+      <c r="A3" s="325" t="s">
+        <v>607</v>
+      </c>
+      <c r="C3" s="331" t="str">
         <f aca="false">A3</f>
         <v>[:huomiot :iv-ilmastointi :teksti-sv]</v>
       </c>
-      <c r="D3" s="332"/>
-      <c r="E3" s="332"/>
-      <c r="F3" s="332"/>
-      <c r="G3" s="332"/>
+      <c r="D3" s="331"/>
+      <c r="E3" s="331"/>
+      <c r="F3" s="331"/>
+      <c r="G3" s="331"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="326" t="s">
-        <v>606</v>
-      </c>
-      <c r="C4" s="332"/>
-      <c r="D4" s="332"/>
-      <c r="E4" s="332"/>
-      <c r="F4" s="332"/>
-      <c r="G4" s="332"/>
+      <c r="A4" s="325" t="s">
+        <v>608</v>
+      </c>
+      <c r="C4" s="331"/>
+      <c r="D4" s="331"/>
+      <c r="E4" s="331"/>
+      <c r="F4" s="331"/>
+      <c r="G4" s="331"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="326" t="s">
-        <v>607</v>
-      </c>
-      <c r="C5" s="332"/>
-      <c r="D5" s="332"/>
-      <c r="E5" s="332"/>
-      <c r="F5" s="332"/>
-      <c r="G5" s="332"/>
+      <c r="A5" s="325" t="s">
+        <v>609</v>
+      </c>
+      <c r="C5" s="331"/>
+      <c r="D5" s="331"/>
+      <c r="E5" s="331"/>
+      <c r="F5" s="331"/>
+      <c r="G5" s="331"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="326" t="s">
-        <v>608</v>
-      </c>
-      <c r="C6" s="332"/>
-      <c r="D6" s="332"/>
-      <c r="E6" s="332"/>
-      <c r="F6" s="332"/>
-      <c r="G6" s="332"/>
+      <c r="A6" s="325" t="s">
+        <v>610</v>
+      </c>
+      <c r="C6" s="331"/>
+      <c r="D6" s="331"/>
+      <c r="E6" s="331"/>
+      <c r="F6" s="331"/>
+      <c r="G6" s="331"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="326" t="s">
-        <v>609</v>
-      </c>
-      <c r="C7" s="332"/>
-      <c r="D7" s="332"/>
-      <c r="E7" s="332"/>
-      <c r="F7" s="332"/>
-      <c r="G7" s="332"/>
+      <c r="A7" s="325" t="s">
+        <v>611</v>
+      </c>
+      <c r="C7" s="331"/>
+      <c r="D7" s="331"/>
+      <c r="E7" s="331"/>
+      <c r="F7" s="331"/>
+      <c r="G7" s="331"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="326" t="s">
-        <v>610</v>
-      </c>
-      <c r="C8" s="332"/>
-      <c r="D8" s="332"/>
-      <c r="E8" s="332"/>
-      <c r="F8" s="332"/>
-      <c r="G8" s="332"/>
+      <c r="A8" s="325" t="s">
+        <v>612</v>
+      </c>
+      <c r="C8" s="331"/>
+      <c r="D8" s="331"/>
+      <c r="E8" s="331"/>
+      <c r="F8" s="331"/>
+      <c r="G8" s="331"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="326" t="s">
-        <v>611</v>
-      </c>
-      <c r="C9" s="332"/>
-      <c r="D9" s="332"/>
-      <c r="E9" s="332"/>
-      <c r="F9" s="332"/>
-      <c r="G9" s="332"/>
+      <c r="A9" s="325" t="s">
+        <v>613</v>
+      </c>
+      <c r="C9" s="331"/>
+      <c r="D9" s="331"/>
+      <c r="E9" s="331"/>
+      <c r="F9" s="331"/>
+      <c r="G9" s="331"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="326" t="s">
-        <v>612</v>
-      </c>
-      <c r="C10" s="332"/>
-      <c r="D10" s="332"/>
-      <c r="E10" s="332"/>
-      <c r="F10" s="332"/>
-      <c r="G10" s="332"/>
+      <c r="A10" s="325" t="s">
+        <v>614</v>
+      </c>
+      <c r="C10" s="331"/>
+      <c r="D10" s="331"/>
+      <c r="E10" s="331"/>
+      <c r="F10" s="331"/>
+      <c r="G10" s="331"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="326" t="s">
-        <v>613</v>
-      </c>
-      <c r="C11" s="332"/>
-      <c r="D11" s="332"/>
-      <c r="E11" s="332"/>
-      <c r="F11" s="332"/>
-      <c r="G11" s="332"/>
+      <c r="A11" s="325" t="s">
+        <v>615</v>
+      </c>
+      <c r="C11" s="331"/>
+      <c r="D11" s="331"/>
+      <c r="E11" s="331"/>
+      <c r="F11" s="331"/>
+      <c r="G11" s="331"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="326" t="s">
-        <v>614</v>
-      </c>
-      <c r="C12" s="332"/>
-      <c r="D12" s="332"/>
-      <c r="E12" s="332"/>
-      <c r="F12" s="332"/>
-      <c r="G12" s="332"/>
+      <c r="A12" s="325" t="s">
+        <v>616</v>
+      </c>
+      <c r="C12" s="331"/>
+      <c r="D12" s="331"/>
+      <c r="E12" s="331"/>
+      <c r="F12" s="331"/>
+      <c r="G12" s="331"/>
     </row>
     <row r="13" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="150" t="s">
-        <v>615</v>
-      </c>
-      <c r="C13" s="333" t="s">
-        <v>550</v>
-      </c>
-      <c r="D13" s="333"/>
-      <c r="E13" s="333"/>
-      <c r="F13" s="333"/>
-      <c r="G13" s="333"/>
+        <v>617</v>
+      </c>
+      <c r="C13" s="332" t="s">
+        <v>552</v>
+      </c>
+      <c r="D13" s="332"/>
+      <c r="E13" s="332"/>
+      <c r="F13" s="332"/>
+      <c r="G13" s="332"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="150" t="s">
-        <v>616</v>
-      </c>
-      <c r="C14" s="334" t="n">
+        <v>618</v>
+      </c>
+      <c r="C14" s="333" t="n">
         <v>1</v>
       </c>
-      <c r="D14" s="344" t="str">
+      <c r="D14" s="343" t="str">
         <f aca="false">A5</f>
         <v>[:huomiot :iv-ilmastointi :toimenpide 0 :nimi-sv]</v>
       </c>
-      <c r="E14" s="344"/>
-      <c r="F14" s="344"/>
-      <c r="G14" s="344"/>
+      <c r="E14" s="343"/>
+      <c r="F14" s="343"/>
+      <c r="G14" s="343"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="150" t="s">
-        <v>617</v>
-      </c>
-      <c r="C15" s="334" t="n">
+        <v>619</v>
+      </c>
+      <c r="C15" s="333" t="n">
         <v>2</v>
       </c>
-      <c r="D15" s="344" t="str">
+      <c r="D15" s="343" t="str">
         <f aca="false">A7</f>
         <v>[:huomiot :iv-ilmastointi :toimenpide 1 :nimi-sv]</v>
       </c>
-      <c r="E15" s="344"/>
-      <c r="F15" s="344"/>
-      <c r="G15" s="344"/>
+      <c r="E15" s="343"/>
+      <c r="F15" s="343"/>
+      <c r="G15" s="343"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="150" t="s">
-        <v>618</v>
-      </c>
-      <c r="C16" s="334" t="n">
+        <v>620</v>
+      </c>
+      <c r="C16" s="333" t="n">
         <v>3</v>
       </c>
-      <c r="D16" s="344" t="str">
+      <c r="D16" s="343" t="str">
         <f aca="false">A9</f>
         <v>[:huomiot :iv-ilmastointi :toimenpide 2 :nimi-sv]</v>
       </c>
-      <c r="E16" s="344"/>
-      <c r="F16" s="344"/>
-      <c r="G16" s="344"/>
+      <c r="E16" s="343"/>
+      <c r="F16" s="343"/>
+      <c r="G16" s="343"/>
     </row>
     <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="150" t="s">
-        <v>619</v>
-      </c>
-      <c r="C17" s="336"/>
-      <c r="D17" s="337" t="s">
-        <v>555</v>
-      </c>
-      <c r="E17" s="337" t="s">
-        <v>556</v>
-      </c>
-      <c r="F17" s="337" t="s">
+        <v>621</v>
+      </c>
+      <c r="C17" s="335"/>
+      <c r="D17" s="336" t="s">
         <v>557</v>
       </c>
-      <c r="G17" s="338" t="s">
+      <c r="E17" s="336" t="s">
         <v>558</v>
+      </c>
+      <c r="F17" s="336" t="s">
+        <v>559</v>
+      </c>
+      <c r="G17" s="337" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="150" t="s">
-        <v>620</v>
-      </c>
-      <c r="C18" s="336"/>
+        <v>622</v>
+      </c>
+      <c r="C18" s="335"/>
       <c r="D18" s="108" t="s">
         <v>106</v>
       </c>
@@ -30510,276 +30510,276 @@
         <v>106</v>
       </c>
       <c r="G18" s="108" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="150" t="s">
-        <v>621</v>
-      </c>
-      <c r="C19" s="334" t="n">
+        <v>623</v>
+      </c>
+      <c r="C19" s="333" t="n">
         <v>1</v>
       </c>
-      <c r="D19" s="339" t="str">
+      <c r="D19" s="338" t="str">
         <f aca="false">A10</f>
         <v>[:huomiot :iv-ilmastointi :toimenpide 0 :lampo]</v>
       </c>
-      <c r="E19" s="339" t="str">
+      <c r="E19" s="338" t="str">
         <f aca="false">A11</f>
         <v>[:huomiot :iv-ilmastointi :toimenpide 0 :sahko]</v>
       </c>
-      <c r="F19" s="339" t="str">
+      <c r="F19" s="338" t="str">
         <f aca="false">A12</f>
         <v>[:huomiot :iv-ilmastointi :toimenpide 0 :jaahdytys]</v>
       </c>
-      <c r="G19" s="339" t="str">
+      <c r="G19" s="338" t="str">
         <f aca="false">A13</f>
         <v>[:huomiot :iv-ilmastointi :toimenpide 0 :eluvun-muutos]</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="150" t="s">
-        <v>622</v>
-      </c>
-      <c r="C20" s="334" t="n">
+        <v>624</v>
+      </c>
+      <c r="C20" s="333" t="n">
         <v>2</v>
       </c>
-      <c r="D20" s="339" t="str">
+      <c r="D20" s="338" t="str">
         <f aca="false">A14</f>
         <v>[:huomiot :iv-ilmastointi :toimenpide 1 :lampo]</v>
       </c>
-      <c r="E20" s="339" t="str">
+      <c r="E20" s="338" t="str">
         <f aca="false">A15</f>
         <v>[:huomiot :iv-ilmastointi :toimenpide 1 :sahko]</v>
       </c>
-      <c r="F20" s="339" t="str">
+      <c r="F20" s="338" t="str">
         <f aca="false">A16</f>
         <v>[:huomiot :iv-ilmastointi :toimenpide 1 :jaahdytys]</v>
       </c>
-      <c r="G20" s="339" t="str">
+      <c r="G20" s="338" t="str">
         <f aca="false">A17</f>
         <v>[:huomiot :iv-ilmastointi :toimenpide 1 :eluvun-muutos]</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="150" t="s">
-        <v>623</v>
-      </c>
-      <c r="C21" s="334" t="n">
+        <v>625</v>
+      </c>
+      <c r="C21" s="333" t="n">
         <v>3</v>
       </c>
-      <c r="D21" s="339" t="str">
+      <c r="D21" s="338" t="str">
         <f aca="false">A18</f>
         <v>[:huomiot :iv-ilmastointi :toimenpide 2 :lampo]</v>
       </c>
-      <c r="E21" s="339" t="str">
+      <c r="E21" s="338" t="str">
         <f aca="false">A19</f>
         <v>[:huomiot :iv-ilmastointi :toimenpide 2 :sahko]</v>
       </c>
-      <c r="F21" s="339" t="str">
+      <c r="F21" s="338" t="str">
         <f aca="false">A20</f>
         <v>[:huomiot :iv-ilmastointi :toimenpide 2 :jaahdytys]</v>
       </c>
-      <c r="G21" s="339" t="str">
+      <c r="G21" s="338" t="str">
         <f aca="false">A21</f>
         <v>[:huomiot :iv-ilmastointi :toimenpide 2 :eluvun-muutos]</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="150" t="s">
-        <v>624</v>
-      </c>
-      <c r="C22" s="340" t="s">
-        <v>625</v>
-      </c>
-      <c r="D22" s="342"/>
+        <v>626</v>
+      </c>
+      <c r="C22" s="339" t="s">
+        <v>627</v>
+      </c>
+      <c r="D22" s="341"/>
       <c r="E22" s="30"/>
       <c r="F22" s="30"/>
-      <c r="G22" s="341"/>
+      <c r="G22" s="340"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="150" t="s">
-        <v>626</v>
-      </c>
-      <c r="C23" s="332" t="str">
+        <v>628</v>
+      </c>
+      <c r="C23" s="331" t="str">
         <f aca="false">A23</f>
         <v>[:huomiot :valaistus-muut :teksti-sv]</v>
       </c>
-      <c r="D23" s="332"/>
-      <c r="E23" s="332"/>
-      <c r="F23" s="332"/>
-      <c r="G23" s="332"/>
+      <c r="D23" s="331"/>
+      <c r="E23" s="331"/>
+      <c r="F23" s="331"/>
+      <c r="G23" s="331"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="150" t="s">
-        <v>627</v>
-      </c>
-      <c r="C24" s="332"/>
-      <c r="D24" s="332"/>
-      <c r="E24" s="332"/>
-      <c r="F24" s="332"/>
-      <c r="G24" s="332"/>
+        <v>629</v>
+      </c>
+      <c r="C24" s="331"/>
+      <c r="D24" s="331"/>
+      <c r="E24" s="331"/>
+      <c r="F24" s="331"/>
+      <c r="G24" s="331"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="150" t="s">
-        <v>628</v>
-      </c>
-      <c r="C25" s="332"/>
-      <c r="D25" s="332"/>
-      <c r="E25" s="332"/>
-      <c r="F25" s="332"/>
-      <c r="G25" s="332"/>
+        <v>630</v>
+      </c>
+      <c r="C25" s="331"/>
+      <c r="D25" s="331"/>
+      <c r="E25" s="331"/>
+      <c r="F25" s="331"/>
+      <c r="G25" s="331"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="150" t="s">
-        <v>629</v>
-      </c>
-      <c r="C26" s="332"/>
-      <c r="D26" s="332"/>
-      <c r="E26" s="332"/>
-      <c r="F26" s="332"/>
-      <c r="G26" s="332"/>
+        <v>631</v>
+      </c>
+      <c r="C26" s="331"/>
+      <c r="D26" s="331"/>
+      <c r="E26" s="331"/>
+      <c r="F26" s="331"/>
+      <c r="G26" s="331"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="150" t="s">
-        <v>630</v>
-      </c>
-      <c r="C27" s="332"/>
-      <c r="D27" s="332"/>
-      <c r="E27" s="332"/>
-      <c r="F27" s="332"/>
-      <c r="G27" s="332"/>
+        <v>632</v>
+      </c>
+      <c r="C27" s="331"/>
+      <c r="D27" s="331"/>
+      <c r="E27" s="331"/>
+      <c r="F27" s="331"/>
+      <c r="G27" s="331"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="150" t="s">
-        <v>631</v>
-      </c>
-      <c r="C28" s="332"/>
-      <c r="D28" s="332"/>
-      <c r="E28" s="332"/>
-      <c r="F28" s="332"/>
-      <c r="G28" s="332"/>
+        <v>633</v>
+      </c>
+      <c r="C28" s="331"/>
+      <c r="D28" s="331"/>
+      <c r="E28" s="331"/>
+      <c r="F28" s="331"/>
+      <c r="G28" s="331"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="150" t="s">
-        <v>632</v>
-      </c>
-      <c r="C29" s="332"/>
-      <c r="D29" s="332"/>
-      <c r="E29" s="332"/>
-      <c r="F29" s="332"/>
-      <c r="G29" s="332"/>
+        <v>634</v>
+      </c>
+      <c r="C29" s="331"/>
+      <c r="D29" s="331"/>
+      <c r="E29" s="331"/>
+      <c r="F29" s="331"/>
+      <c r="G29" s="331"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="150" t="s">
-        <v>633</v>
-      </c>
-      <c r="C30" s="332"/>
-      <c r="D30" s="332"/>
-      <c r="E30" s="332"/>
-      <c r="F30" s="332"/>
-      <c r="G30" s="332"/>
+        <v>635</v>
+      </c>
+      <c r="C30" s="331"/>
+      <c r="D30" s="331"/>
+      <c r="E30" s="331"/>
+      <c r="F30" s="331"/>
+      <c r="G30" s="331"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="150" t="s">
-        <v>634</v>
-      </c>
-      <c r="C31" s="332"/>
-      <c r="D31" s="332"/>
-      <c r="E31" s="332"/>
-      <c r="F31" s="332"/>
-      <c r="G31" s="332"/>
+        <v>636</v>
+      </c>
+      <c r="C31" s="331"/>
+      <c r="D31" s="331"/>
+      <c r="E31" s="331"/>
+      <c r="F31" s="331"/>
+      <c r="G31" s="331"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="150" t="s">
-        <v>635</v>
-      </c>
-      <c r="C32" s="332"/>
-      <c r="D32" s="332"/>
-      <c r="E32" s="332"/>
-      <c r="F32" s="332"/>
-      <c r="G32" s="332"/>
+        <v>637</v>
+      </c>
+      <c r="C32" s="331"/>
+      <c r="D32" s="331"/>
+      <c r="E32" s="331"/>
+      <c r="F32" s="331"/>
+      <c r="G32" s="331"/>
     </row>
     <row r="33" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="150" t="s">
-        <v>636</v>
-      </c>
-      <c r="C33" s="333" t="s">
-        <v>550</v>
-      </c>
-      <c r="D33" s="333"/>
-      <c r="E33" s="333"/>
-      <c r="F33" s="333"/>
-      <c r="G33" s="333"/>
+        <v>638</v>
+      </c>
+      <c r="C33" s="332" t="s">
+        <v>552</v>
+      </c>
+      <c r="D33" s="332"/>
+      <c r="E33" s="332"/>
+      <c r="F33" s="332"/>
+      <c r="G33" s="332"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="150" t="s">
-        <v>637</v>
-      </c>
-      <c r="C34" s="334" t="n">
+        <v>639</v>
+      </c>
+      <c r="C34" s="333" t="n">
         <v>1</v>
       </c>
-      <c r="D34" s="344" t="str">
+      <c r="D34" s="343" t="str">
         <f aca="false">A25</f>
         <v>[:huomiot :valaistus-muut :toimenpide 0 :nimi-sv]</v>
       </c>
-      <c r="E34" s="344"/>
-      <c r="F34" s="344"/>
-      <c r="G34" s="344"/>
+      <c r="E34" s="343"/>
+      <c r="F34" s="343"/>
+      <c r="G34" s="343"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="150" t="s">
-        <v>638</v>
-      </c>
-      <c r="C35" s="334" t="n">
+        <v>640</v>
+      </c>
+      <c r="C35" s="333" t="n">
         <v>2</v>
       </c>
-      <c r="D35" s="344" t="str">
+      <c r="D35" s="343" t="str">
         <f aca="false">A27</f>
         <v>[:huomiot :valaistus-muut :toimenpide 1 :nimi-sv]</v>
       </c>
-      <c r="E35" s="344"/>
-      <c r="F35" s="344"/>
-      <c r="G35" s="344"/>
+      <c r="E35" s="343"/>
+      <c r="F35" s="343"/>
+      <c r="G35" s="343"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="150" t="s">
-        <v>639</v>
-      </c>
-      <c r="C36" s="334" t="n">
+        <v>641</v>
+      </c>
+      <c r="C36" s="333" t="n">
         <v>3</v>
       </c>
-      <c r="D36" s="344" t="str">
+      <c r="D36" s="343" t="str">
         <f aca="false">A29</f>
         <v>[:huomiot :valaistus-muut :toimenpide 2 :nimi-sv]</v>
       </c>
-      <c r="E36" s="344"/>
-      <c r="F36" s="344"/>
-      <c r="G36" s="344"/>
+      <c r="E36" s="343"/>
+      <c r="F36" s="343"/>
+      <c r="G36" s="343"/>
     </row>
     <row r="37" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="150" t="s">
-        <v>640</v>
-      </c>
-      <c r="C37" s="336"/>
-      <c r="D37" s="337" t="s">
-        <v>555</v>
-      </c>
-      <c r="E37" s="337" t="s">
-        <v>556</v>
-      </c>
-      <c r="F37" s="337" t="s">
+        <v>642</v>
+      </c>
+      <c r="C37" s="335"/>
+      <c r="D37" s="336" t="s">
         <v>557</v>
       </c>
-      <c r="G37" s="338" t="s">
+      <c r="E37" s="336" t="s">
         <v>558</v>
+      </c>
+      <c r="F37" s="336" t="s">
+        <v>559</v>
+      </c>
+      <c r="G37" s="337" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="150" t="s">
-        <v>641</v>
-      </c>
-      <c r="C38" s="336"/>
+        <v>643</v>
+      </c>
+      <c r="C38" s="335"/>
       <c r="D38" s="108" t="s">
         <v>106</v>
       </c>
@@ -30790,225 +30790,225 @@
         <v>106</v>
       </c>
       <c r="G38" s="108" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="150" t="s">
-        <v>642</v>
-      </c>
-      <c r="C39" s="334" t="n">
+        <v>644</v>
+      </c>
+      <c r="C39" s="333" t="n">
         <v>1</v>
       </c>
-      <c r="D39" s="339" t="str">
+      <c r="D39" s="338" t="str">
         <f aca="false">A30</f>
         <v>[:huomiot :valaistus-muut :toimenpide 0 :lampo]</v>
       </c>
-      <c r="E39" s="339" t="str">
+      <c r="E39" s="338" t="str">
         <f aca="false">A31</f>
         <v>[:huomiot :valaistus-muut :toimenpide 0 :sahko]</v>
       </c>
-      <c r="F39" s="339" t="str">
+      <c r="F39" s="338" t="str">
         <f aca="false">A32</f>
         <v>[:huomiot :valaistus-muut :toimenpide 0 :jaahdytys]</v>
       </c>
-      <c r="G39" s="339" t="str">
+      <c r="G39" s="338" t="str">
         <f aca="false">A33</f>
         <v>[:huomiot :valaistus-muut :toimenpide 0 :eluvun-muutos]</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="150" t="s">
-        <v>643</v>
-      </c>
-      <c r="C40" s="334" t="n">
+        <v>645</v>
+      </c>
+      <c r="C40" s="333" t="n">
         <v>2</v>
       </c>
-      <c r="D40" s="339" t="str">
+      <c r="D40" s="338" t="str">
         <f aca="false">A34</f>
         <v>[:huomiot :valaistus-muut :toimenpide 1 :lampo]</v>
       </c>
-      <c r="E40" s="339" t="str">
+      <c r="E40" s="338" t="str">
         <f aca="false">A35</f>
         <v>[:huomiot :valaistus-muut :toimenpide 1 :sahko]</v>
       </c>
-      <c r="F40" s="339" t="str">
+      <c r="F40" s="338" t="str">
         <f aca="false">A36</f>
         <v>[:huomiot :valaistus-muut :toimenpide 1 :jaahdytys]</v>
       </c>
-      <c r="G40" s="339" t="str">
+      <c r="G40" s="338" t="str">
         <f aca="false">A37</f>
         <v>[:huomiot :valaistus-muut :toimenpide 1 :eluvun-muutos]</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="150" t="s">
-        <v>644</v>
-      </c>
-      <c r="C41" s="334" t="n">
+        <v>646</v>
+      </c>
+      <c r="C41" s="333" t="n">
         <v>3</v>
       </c>
-      <c r="D41" s="339" t="str">
+      <c r="D41" s="338" t="str">
         <f aca="false">A38</f>
         <v>[:huomiot :valaistus-muut :toimenpide 2 :lampo]</v>
       </c>
-      <c r="E41" s="339" t="str">
+      <c r="E41" s="338" t="str">
         <f aca="false">A39</f>
         <v>[:huomiot :valaistus-muut :toimenpide 2 :sahko]</v>
       </c>
-      <c r="F41" s="339" t="str">
+      <c r="F41" s="338" t="str">
         <f aca="false">A40</f>
         <v>[:huomiot :valaistus-muut :toimenpide 2 :jaahdytys]</v>
       </c>
-      <c r="G41" s="339" t="str">
+      <c r="G41" s="338" t="str">
         <f aca="false">A41</f>
         <v>[:huomiot :valaistus-muut :toimenpide 2 :eluvun-muutos]</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="150" t="s">
-        <v>645</v>
-      </c>
-      <c r="C42" s="340" t="s">
-        <v>646</v>
-      </c>
-      <c r="D42" s="342"/>
-      <c r="E42" s="345"/>
+        <v>647</v>
+      </c>
+      <c r="C42" s="339" t="s">
+        <v>648</v>
+      </c>
+      <c r="D42" s="341"/>
+      <c r="E42" s="344"/>
       <c r="F42" s="30"/>
-      <c r="G42" s="341"/>
+      <c r="G42" s="340"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="150" t="s">
-        <v>647</v>
-      </c>
-      <c r="C43" s="332" t="str">
+        <v>649</v>
+      </c>
+      <c r="C43" s="331" t="str">
         <f aca="false">A43</f>
         <v>[:huomiot :suositukset-sv]</v>
       </c>
-      <c r="D43" s="332"/>
-      <c r="E43" s="332"/>
-      <c r="F43" s="332"/>
-      <c r="G43" s="332"/>
+      <c r="D43" s="331"/>
+      <c r="E43" s="331"/>
+      <c r="F43" s="331"/>
+      <c r="G43" s="331"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="150" t="s">
-        <v>648</v>
-      </c>
-      <c r="C44" s="332"/>
-      <c r="D44" s="332"/>
-      <c r="E44" s="332"/>
-      <c r="F44" s="332"/>
-      <c r="G44" s="332"/>
+        <v>650</v>
+      </c>
+      <c r="C44" s="331"/>
+      <c r="D44" s="331"/>
+      <c r="E44" s="331"/>
+      <c r="F44" s="331"/>
+      <c r="G44" s="331"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="150" t="s">
-        <v>649</v>
-      </c>
-      <c r="C45" s="332"/>
-      <c r="D45" s="332"/>
-      <c r="E45" s="332"/>
-      <c r="F45" s="332"/>
-      <c r="G45" s="332"/>
+        <v>651</v>
+      </c>
+      <c r="C45" s="331"/>
+      <c r="D45" s="331"/>
+      <c r="E45" s="331"/>
+      <c r="F45" s="331"/>
+      <c r="G45" s="331"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="150"/>
-      <c r="C46" s="332"/>
-      <c r="D46" s="332"/>
-      <c r="E46" s="332"/>
-      <c r="F46" s="332"/>
-      <c r="G46" s="332"/>
+      <c r="C46" s="331"/>
+      <c r="D46" s="331"/>
+      <c r="E46" s="331"/>
+      <c r="F46" s="331"/>
+      <c r="G46" s="331"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="150"/>
-      <c r="C47" s="332"/>
-      <c r="D47" s="332"/>
-      <c r="E47" s="332"/>
-      <c r="F47" s="332"/>
-      <c r="G47" s="332"/>
+      <c r="C47" s="331"/>
+      <c r="D47" s="331"/>
+      <c r="E47" s="331"/>
+      <c r="F47" s="331"/>
+      <c r="G47" s="331"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="150"/>
-      <c r="C48" s="332"/>
-      <c r="D48" s="332"/>
-      <c r="E48" s="332"/>
-      <c r="F48" s="332"/>
-      <c r="G48" s="332"/>
+      <c r="C48" s="331"/>
+      <c r="D48" s="331"/>
+      <c r="E48" s="331"/>
+      <c r="F48" s="331"/>
+      <c r="G48" s="331"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="150"/>
-      <c r="C49" s="332"/>
-      <c r="D49" s="332"/>
-      <c r="E49" s="332"/>
-      <c r="F49" s="332"/>
-      <c r="G49" s="332"/>
+      <c r="C49" s="331"/>
+      <c r="D49" s="331"/>
+      <c r="E49" s="331"/>
+      <c r="F49" s="331"/>
+      <c r="G49" s="331"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="150"/>
-      <c r="C50" s="332"/>
-      <c r="D50" s="332"/>
-      <c r="E50" s="332"/>
-      <c r="F50" s="332"/>
-      <c r="G50" s="332"/>
+      <c r="C50" s="331"/>
+      <c r="D50" s="331"/>
+      <c r="E50" s="331"/>
+      <c r="F50" s="331"/>
+      <c r="G50" s="331"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="150"/>
-      <c r="C51" s="332"/>
-      <c r="D51" s="332"/>
-      <c r="E51" s="332"/>
-      <c r="F51" s="332"/>
-      <c r="G51" s="332"/>
+      <c r="C51" s="331"/>
+      <c r="D51" s="331"/>
+      <c r="E51" s="331"/>
+      <c r="F51" s="331"/>
+      <c r="G51" s="331"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="150"/>
-      <c r="C52" s="332"/>
-      <c r="D52" s="332"/>
-      <c r="E52" s="332"/>
-      <c r="F52" s="332"/>
-      <c r="G52" s="332"/>
+      <c r="C52" s="331"/>
+      <c r="D52" s="331"/>
+      <c r="E52" s="331"/>
+      <c r="F52" s="331"/>
+      <c r="G52" s="331"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="150"/>
-      <c r="C53" s="332"/>
-      <c r="D53" s="332"/>
-      <c r="E53" s="332"/>
-      <c r="F53" s="332"/>
-      <c r="G53" s="332"/>
+      <c r="C53" s="331"/>
+      <c r="D53" s="331"/>
+      <c r="E53" s="331"/>
+      <c r="F53" s="331"/>
+      <c r="G53" s="331"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="150"/>
-      <c r="C54" s="332"/>
-      <c r="D54" s="332"/>
-      <c r="E54" s="332"/>
-      <c r="F54" s="332"/>
-      <c r="G54" s="332"/>
+      <c r="C54" s="331"/>
+      <c r="D54" s="331"/>
+      <c r="E54" s="331"/>
+      <c r="F54" s="331"/>
+      <c r="G54" s="331"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="150"/>
-      <c r="C55" s="332"/>
-      <c r="D55" s="332"/>
-      <c r="E55" s="332"/>
-      <c r="F55" s="332"/>
-      <c r="G55" s="332"/>
+      <c r="C55" s="331"/>
+      <c r="D55" s="331"/>
+      <c r="E55" s="331"/>
+      <c r="F55" s="331"/>
+      <c r="G55" s="331"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="150"/>
-      <c r="C56" s="332"/>
-      <c r="D56" s="332"/>
-      <c r="E56" s="332"/>
-      <c r="F56" s="332"/>
-      <c r="G56" s="332"/>
+      <c r="C56" s="331"/>
+      <c r="D56" s="331"/>
+      <c r="E56" s="331"/>
+      <c r="F56" s="331"/>
+      <c r="G56" s="331"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="150"/>
-      <c r="C57" s="332"/>
-      <c r="D57" s="332"/>
-      <c r="E57" s="332"/>
-      <c r="F57" s="332"/>
-      <c r="G57" s="332"/>
+      <c r="C57" s="331"/>
+      <c r="D57" s="331"/>
+      <c r="E57" s="331"/>
+      <c r="F57" s="331"/>
+      <c r="G57" s="331"/>
     </row>
     <row r="58" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C58" s="331" t="s">
-        <v>650</v>
+      <c r="C58" s="330" t="s">
+        <v>652</v>
       </c>
       <c r="D58" s="94"/>
       <c r="E58" s="167"/>
@@ -31025,48 +31025,48 @@
     </row>
     <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="150"/>
-      <c r="C60" s="307" t="s">
-        <v>651</v>
-      </c>
-      <c r="D60" s="307"/>
-      <c r="E60" s="307"/>
-      <c r="F60" s="307"/>
-      <c r="G60" s="307"/>
+      <c r="C60" s="306" t="s">
+        <v>653</v>
+      </c>
+      <c r="D60" s="306"/>
+      <c r="E60" s="306"/>
+      <c r="F60" s="306"/>
+      <c r="G60" s="306"/>
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="150"/>
-      <c r="C61" s="332" t="str">
+      <c r="C61" s="331" t="str">
         <f aca="false">A45</f>
         <v>[:huomiot :lisatietoja-sv]</v>
       </c>
-      <c r="D61" s="332"/>
-      <c r="E61" s="332"/>
-      <c r="F61" s="332"/>
-      <c r="G61" s="332"/>
+      <c r="D61" s="331"/>
+      <c r="E61" s="331"/>
+      <c r="F61" s="331"/>
+      <c r="G61" s="331"/>
     </row>
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="150"/>
-      <c r="C62" s="332"/>
-      <c r="D62" s="332"/>
-      <c r="E62" s="332"/>
-      <c r="F62" s="332"/>
-      <c r="G62" s="332"/>
+      <c r="C62" s="331"/>
+      <c r="D62" s="331"/>
+      <c r="E62" s="331"/>
+      <c r="F62" s="331"/>
+      <c r="G62" s="331"/>
     </row>
     <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="150"/>
-      <c r="C63" s="332"/>
-      <c r="D63" s="332"/>
-      <c r="E63" s="332"/>
-      <c r="F63" s="332"/>
-      <c r="G63" s="332"/>
+      <c r="C63" s="331"/>
+      <c r="D63" s="331"/>
+      <c r="E63" s="331"/>
+      <c r="F63" s="331"/>
+      <c r="G63" s="331"/>
     </row>
     <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="150"/>
-      <c r="C64" s="332"/>
-      <c r="D64" s="332"/>
-      <c r="E64" s="332"/>
-      <c r="F64" s="332"/>
-      <c r="G64" s="332"/>
+      <c r="C64" s="331"/>
+      <c r="D64" s="331"/>
+      <c r="E64" s="331"/>
+      <c r="F64" s="331"/>
+      <c r="G64" s="331"/>
     </row>
     <row r="65" customFormat="false" ht="5.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C65" s="143"/>
@@ -31202,7 +31202,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="326" width="25.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="325" width="25.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="0.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="4" width="5.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="4" style="4" width="15.71"/>
@@ -31211,787 +31211,787 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="326" t="s">
+      <c r="A1" s="325" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="5"/>
     </row>
     <row r="2" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="150" t="s">
-        <v>652</v>
-      </c>
-      <c r="C2" s="346" t="s">
-        <v>653</v>
-      </c>
-      <c r="D2" s="346"/>
-      <c r="E2" s="346"/>
-      <c r="F2" s="346"/>
-      <c r="G2" s="346"/>
-      <c r="H2" s="346"/>
-      <c r="I2" s="346"/>
+        <v>654</v>
+      </c>
+      <c r="C2" s="345" t="s">
+        <v>655</v>
+      </c>
+      <c r="D2" s="345"/>
+      <c r="E2" s="345"/>
+      <c r="F2" s="345"/>
+      <c r="G2" s="345"/>
+      <c r="H2" s="345"/>
+      <c r="I2" s="345"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="326" t="s">
-        <v>654</v>
-      </c>
-      <c r="C3" s="332" t="str">
+      <c r="A3" s="325" t="s">
+        <v>656</v>
+      </c>
+      <c r="C3" s="331" t="str">
         <f aca="false">A3</f>
         <v>[:lisamerkintoja-sv]</v>
       </c>
-      <c r="D3" s="332"/>
-      <c r="E3" s="332"/>
-      <c r="F3" s="332"/>
-      <c r="G3" s="332"/>
-      <c r="H3" s="332"/>
-      <c r="I3" s="332"/>
+      <c r="D3" s="331"/>
+      <c r="E3" s="331"/>
+      <c r="F3" s="331"/>
+      <c r="G3" s="331"/>
+      <c r="H3" s="331"/>
+      <c r="I3" s="331"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="326" t="s">
-        <v>655</v>
-      </c>
-      <c r="C4" s="332"/>
-      <c r="D4" s="332"/>
-      <c r="E4" s="332"/>
-      <c r="F4" s="332"/>
-      <c r="G4" s="332"/>
-      <c r="H4" s="332"/>
-      <c r="I4" s="332"/>
+      <c r="A4" s="325" t="s">
+        <v>657</v>
+      </c>
+      <c r="C4" s="331"/>
+      <c r="D4" s="331"/>
+      <c r="E4" s="331"/>
+      <c r="F4" s="331"/>
+      <c r="G4" s="331"/>
+      <c r="H4" s="331"/>
+      <c r="I4" s="331"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="326" t="s">
-        <v>656</v>
-      </c>
-      <c r="C5" s="332"/>
-      <c r="D5" s="332"/>
-      <c r="E5" s="332"/>
-      <c r="F5" s="332"/>
-      <c r="G5" s="332"/>
-      <c r="H5" s="332"/>
-      <c r="I5" s="332"/>
+      <c r="A5" s="325" t="s">
+        <v>658</v>
+      </c>
+      <c r="C5" s="331"/>
+      <c r="D5" s="331"/>
+      <c r="E5" s="331"/>
+      <c r="F5" s="331"/>
+      <c r="G5" s="331"/>
+      <c r="H5" s="331"/>
+      <c r="I5" s="331"/>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="326" t="s">
-        <v>657</v>
-      </c>
-      <c r="C6" s="332"/>
-      <c r="D6" s="332"/>
-      <c r="E6" s="332"/>
-      <c r="F6" s="332"/>
-      <c r="G6" s="332"/>
-      <c r="H6" s="332"/>
-      <c r="I6" s="332"/>
+      <c r="A6" s="325" t="s">
+        <v>659</v>
+      </c>
+      <c r="C6" s="331"/>
+      <c r="D6" s="331"/>
+      <c r="E6" s="331"/>
+      <c r="F6" s="331"/>
+      <c r="G6" s="331"/>
+      <c r="H6" s="331"/>
+      <c r="I6" s="331"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="326" t="s">
-        <v>658</v>
-      </c>
-      <c r="C7" s="332"/>
-      <c r="D7" s="332"/>
-      <c r="E7" s="332"/>
-      <c r="F7" s="332"/>
-      <c r="G7" s="332"/>
-      <c r="H7" s="332"/>
-      <c r="I7" s="332"/>
+      <c r="A7" s="325" t="s">
+        <v>660</v>
+      </c>
+      <c r="C7" s="331"/>
+      <c r="D7" s="331"/>
+      <c r="E7" s="331"/>
+      <c r="F7" s="331"/>
+      <c r="G7" s="331"/>
+      <c r="H7" s="331"/>
+      <c r="I7" s="331"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="326" t="s">
-        <v>659</v>
-      </c>
-      <c r="C8" s="332"/>
-      <c r="D8" s="332"/>
-      <c r="E8" s="332"/>
-      <c r="F8" s="332"/>
-      <c r="G8" s="332"/>
-      <c r="H8" s="332"/>
-      <c r="I8" s="332"/>
+      <c r="A8" s="325" t="s">
+        <v>661</v>
+      </c>
+      <c r="C8" s="331"/>
+      <c r="D8" s="331"/>
+      <c r="E8" s="331"/>
+      <c r="F8" s="331"/>
+      <c r="G8" s="331"/>
+      <c r="H8" s="331"/>
+      <c r="I8" s="331"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="326" t="s">
-        <v>660</v>
-      </c>
-      <c r="C9" s="332"/>
-      <c r="D9" s="332"/>
-      <c r="E9" s="332"/>
-      <c r="F9" s="332"/>
-      <c r="G9" s="332"/>
-      <c r="H9" s="332"/>
-      <c r="I9" s="332"/>
+      <c r="A9" s="325" t="s">
+        <v>662</v>
+      </c>
+      <c r="C9" s="331"/>
+      <c r="D9" s="331"/>
+      <c r="E9" s="331"/>
+      <c r="F9" s="331"/>
+      <c r="G9" s="331"/>
+      <c r="H9" s="331"/>
+      <c r="I9" s="331"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="326" t="s">
-        <v>661</v>
-      </c>
-      <c r="C10" s="332"/>
-      <c r="D10" s="332"/>
-      <c r="E10" s="332"/>
-      <c r="F10" s="332"/>
-      <c r="G10" s="332"/>
-      <c r="H10" s="332"/>
-      <c r="I10" s="332"/>
+      <c r="A10" s="325" t="s">
+        <v>663</v>
+      </c>
+      <c r="C10" s="331"/>
+      <c r="D10" s="331"/>
+      <c r="E10" s="331"/>
+      <c r="F10" s="331"/>
+      <c r="G10" s="331"/>
+      <c r="H10" s="331"/>
+      <c r="I10" s="331"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="326" t="s">
-        <v>662</v>
-      </c>
-      <c r="C11" s="332"/>
-      <c r="D11" s="332"/>
-      <c r="E11" s="332"/>
-      <c r="F11" s="332"/>
-      <c r="G11" s="332"/>
-      <c r="H11" s="332"/>
-      <c r="I11" s="332"/>
+      <c r="A11" s="325" t="s">
+        <v>664</v>
+      </c>
+      <c r="C11" s="331"/>
+      <c r="D11" s="331"/>
+      <c r="E11" s="331"/>
+      <c r="F11" s="331"/>
+      <c r="G11" s="331"/>
+      <c r="H11" s="331"/>
+      <c r="I11" s="331"/>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="326" t="s">
-        <v>663</v>
-      </c>
-      <c r="C12" s="332"/>
-      <c r="D12" s="332"/>
-      <c r="E12" s="332"/>
-      <c r="F12" s="332"/>
-      <c r="G12" s="332"/>
-      <c r="H12" s="332"/>
-      <c r="I12" s="332"/>
+      <c r="A12" s="325" t="s">
+        <v>665</v>
+      </c>
+      <c r="C12" s="331"/>
+      <c r="D12" s="331"/>
+      <c r="E12" s="331"/>
+      <c r="F12" s="331"/>
+      <c r="G12" s="331"/>
+      <c r="H12" s="331"/>
+      <c r="I12" s="331"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="326" t="s">
-        <v>664</v>
-      </c>
-      <c r="C13" s="332"/>
-      <c r="D13" s="332"/>
-      <c r="E13" s="332"/>
-      <c r="F13" s="332"/>
-      <c r="G13" s="332"/>
-      <c r="H13" s="332"/>
-      <c r="I13" s="332"/>
+      <c r="A13" s="325" t="s">
+        <v>666</v>
+      </c>
+      <c r="C13" s="331"/>
+      <c r="D13" s="331"/>
+      <c r="E13" s="331"/>
+      <c r="F13" s="331"/>
+      <c r="G13" s="331"/>
+      <c r="H13" s="331"/>
+      <c r="I13" s="331"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="326" t="s">
-        <v>665</v>
-      </c>
-      <c r="C14" s="332"/>
-      <c r="D14" s="332"/>
-      <c r="E14" s="332"/>
-      <c r="F14" s="332"/>
-      <c r="G14" s="332"/>
-      <c r="H14" s="332"/>
-      <c r="I14" s="332"/>
+      <c r="A14" s="325" t="s">
+        <v>667</v>
+      </c>
+      <c r="C14" s="331"/>
+      <c r="D14" s="331"/>
+      <c r="E14" s="331"/>
+      <c r="F14" s="331"/>
+      <c r="G14" s="331"/>
+      <c r="H14" s="331"/>
+      <c r="I14" s="331"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="326" t="s">
-        <v>666</v>
-      </c>
-      <c r="C15" s="332"/>
-      <c r="D15" s="332"/>
-      <c r="E15" s="332"/>
-      <c r="F15" s="332"/>
-      <c r="G15" s="332"/>
-      <c r="H15" s="332"/>
-      <c r="I15" s="332"/>
+      <c r="A15" s="325" t="s">
+        <v>668</v>
+      </c>
+      <c r="C15" s="331"/>
+      <c r="D15" s="331"/>
+      <c r="E15" s="331"/>
+      <c r="F15" s="331"/>
+      <c r="G15" s="331"/>
+      <c r="H15" s="331"/>
+      <c r="I15" s="331"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="326" t="s">
-        <v>667</v>
-      </c>
-      <c r="C16" s="332"/>
-      <c r="D16" s="332"/>
-      <c r="E16" s="332"/>
-      <c r="F16" s="332"/>
-      <c r="G16" s="332"/>
-      <c r="H16" s="332"/>
-      <c r="I16" s="332"/>
+      <c r="A16" s="325" t="s">
+        <v>669</v>
+      </c>
+      <c r="C16" s="331"/>
+      <c r="D16" s="331"/>
+      <c r="E16" s="331"/>
+      <c r="F16" s="331"/>
+      <c r="G16" s="331"/>
+      <c r="H16" s="331"/>
+      <c r="I16" s="331"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="326" t="s">
-        <v>668</v>
-      </c>
-      <c r="C17" s="332"/>
-      <c r="D17" s="332"/>
-      <c r="E17" s="332"/>
-      <c r="F17" s="332"/>
-      <c r="G17" s="332"/>
-      <c r="H17" s="332"/>
-      <c r="I17" s="332"/>
+      <c r="A17" s="325" t="s">
+        <v>670</v>
+      </c>
+      <c r="C17" s="331"/>
+      <c r="D17" s="331"/>
+      <c r="E17" s="331"/>
+      <c r="F17" s="331"/>
+      <c r="G17" s="331"/>
+      <c r="H17" s="331"/>
+      <c r="I17" s="331"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="326" t="s">
-        <v>669</v>
-      </c>
-      <c r="C18" s="332"/>
-      <c r="D18" s="332"/>
-      <c r="E18" s="332"/>
-      <c r="F18" s="332"/>
-      <c r="G18" s="332"/>
-      <c r="H18" s="332"/>
-      <c r="I18" s="332"/>
+      <c r="A18" s="325" t="s">
+        <v>671</v>
+      </c>
+      <c r="C18" s="331"/>
+      <c r="D18" s="331"/>
+      <c r="E18" s="331"/>
+      <c r="F18" s="331"/>
+      <c r="G18" s="331"/>
+      <c r="H18" s="331"/>
+      <c r="I18" s="331"/>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="326" t="s">
-        <v>670</v>
-      </c>
-      <c r="C19" s="332"/>
-      <c r="D19" s="332"/>
-      <c r="E19" s="332"/>
-      <c r="F19" s="332"/>
-      <c r="G19" s="332"/>
-      <c r="H19" s="332"/>
-      <c r="I19" s="332"/>
+      <c r="A19" s="325" t="s">
+        <v>672</v>
+      </c>
+      <c r="C19" s="331"/>
+      <c r="D19" s="331"/>
+      <c r="E19" s="331"/>
+      <c r="F19" s="331"/>
+      <c r="G19" s="331"/>
+      <c r="H19" s="331"/>
+      <c r="I19" s="331"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="326" t="s">
-        <v>671</v>
-      </c>
-      <c r="C20" s="332"/>
-      <c r="D20" s="332"/>
-      <c r="E20" s="332"/>
-      <c r="F20" s="332"/>
-      <c r="G20" s="332"/>
-      <c r="H20" s="332"/>
-      <c r="I20" s="332"/>
+      <c r="A20" s="325" t="s">
+        <v>673</v>
+      </c>
+      <c r="C20" s="331"/>
+      <c r="D20" s="331"/>
+      <c r="E20" s="331"/>
+      <c r="F20" s="331"/>
+      <c r="G20" s="331"/>
+      <c r="H20" s="331"/>
+      <c r="I20" s="331"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="326" t="s">
-        <v>672</v>
-      </c>
-      <c r="C21" s="332"/>
-      <c r="D21" s="332"/>
-      <c r="E21" s="332"/>
-      <c r="F21" s="332"/>
-      <c r="G21" s="332"/>
-      <c r="H21" s="332"/>
-      <c r="I21" s="332"/>
+      <c r="A21" s="325" t="s">
+        <v>674</v>
+      </c>
+      <c r="C21" s="331"/>
+      <c r="D21" s="331"/>
+      <c r="E21" s="331"/>
+      <c r="F21" s="331"/>
+      <c r="G21" s="331"/>
+      <c r="H21" s="331"/>
+      <c r="I21" s="331"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="326" t="s">
-        <v>673</v>
-      </c>
-      <c r="C22" s="332"/>
-      <c r="D22" s="332"/>
-      <c r="E22" s="332"/>
-      <c r="F22" s="332"/>
-      <c r="G22" s="332"/>
-      <c r="H22" s="332"/>
-      <c r="I22" s="332"/>
+      <c r="A22" s="325" t="s">
+        <v>675</v>
+      </c>
+      <c r="C22" s="331"/>
+      <c r="D22" s="331"/>
+      <c r="E22" s="331"/>
+      <c r="F22" s="331"/>
+      <c r="G22" s="331"/>
+      <c r="H22" s="331"/>
+      <c r="I22" s="331"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="326" t="s">
-        <v>674</v>
-      </c>
-      <c r="C23" s="332"/>
-      <c r="D23" s="332"/>
-      <c r="E23" s="332"/>
-      <c r="F23" s="332"/>
-      <c r="G23" s="332"/>
-      <c r="H23" s="332"/>
-      <c r="I23" s="332"/>
+      <c r="A23" s="325" t="s">
+        <v>676</v>
+      </c>
+      <c r="C23" s="331"/>
+      <c r="D23" s="331"/>
+      <c r="E23" s="331"/>
+      <c r="F23" s="331"/>
+      <c r="G23" s="331"/>
+      <c r="H23" s="331"/>
+      <c r="I23" s="331"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="326" t="s">
-        <v>675</v>
-      </c>
-      <c r="C24" s="332"/>
-      <c r="D24" s="332"/>
-      <c r="E24" s="332"/>
-      <c r="F24" s="332"/>
-      <c r="G24" s="332"/>
-      <c r="H24" s="332"/>
-      <c r="I24" s="332"/>
+      <c r="A24" s="325" t="s">
+        <v>677</v>
+      </c>
+      <c r="C24" s="331"/>
+      <c r="D24" s="331"/>
+      <c r="E24" s="331"/>
+      <c r="F24" s="331"/>
+      <c r="G24" s="331"/>
+      <c r="H24" s="331"/>
+      <c r="I24" s="331"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="326" t="s">
-        <v>676</v>
-      </c>
-      <c r="C25" s="332"/>
-      <c r="D25" s="332"/>
-      <c r="E25" s="332"/>
-      <c r="F25" s="332"/>
-      <c r="G25" s="332"/>
-      <c r="H25" s="332"/>
-      <c r="I25" s="332"/>
+      <c r="A25" s="325" t="s">
+        <v>678</v>
+      </c>
+      <c r="C25" s="331"/>
+      <c r="D25" s="331"/>
+      <c r="E25" s="331"/>
+      <c r="F25" s="331"/>
+      <c r="G25" s="331"/>
+      <c r="H25" s="331"/>
+      <c r="I25" s="331"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="326" t="s">
-        <v>677</v>
-      </c>
-      <c r="C26" s="332"/>
-      <c r="D26" s="332"/>
-      <c r="E26" s="332"/>
-      <c r="F26" s="332"/>
-      <c r="G26" s="332"/>
-      <c r="H26" s="332"/>
-      <c r="I26" s="332"/>
+      <c r="A26" s="325" t="s">
+        <v>679</v>
+      </c>
+      <c r="C26" s="331"/>
+      <c r="D26" s="331"/>
+      <c r="E26" s="331"/>
+      <c r="F26" s="331"/>
+      <c r="G26" s="331"/>
+      <c r="H26" s="331"/>
+      <c r="I26" s="331"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="326" t="s">
-        <v>678</v>
-      </c>
-      <c r="C27" s="332"/>
-      <c r="D27" s="332"/>
-      <c r="E27" s="332"/>
-      <c r="F27" s="332"/>
-      <c r="G27" s="332"/>
-      <c r="H27" s="332"/>
-      <c r="I27" s="332"/>
+      <c r="A27" s="325" t="s">
+        <v>680</v>
+      </c>
+      <c r="C27" s="331"/>
+      <c r="D27" s="331"/>
+      <c r="E27" s="331"/>
+      <c r="F27" s="331"/>
+      <c r="G27" s="331"/>
+      <c r="H27" s="331"/>
+      <c r="I27" s="331"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="326" t="s">
-        <v>679</v>
-      </c>
-      <c r="C28" s="332"/>
-      <c r="D28" s="332"/>
-      <c r="E28" s="332"/>
-      <c r="F28" s="332"/>
-      <c r="G28" s="332"/>
-      <c r="H28" s="332"/>
-      <c r="I28" s="332"/>
+      <c r="A28" s="325" t="s">
+        <v>681</v>
+      </c>
+      <c r="C28" s="331"/>
+      <c r="D28" s="331"/>
+      <c r="E28" s="331"/>
+      <c r="F28" s="331"/>
+      <c r="G28" s="331"/>
+      <c r="H28" s="331"/>
+      <c r="I28" s="331"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="326" t="s">
-        <v>680</v>
-      </c>
-      <c r="C29" s="332"/>
-      <c r="D29" s="332"/>
-      <c r="E29" s="332"/>
-      <c r="F29" s="332"/>
-      <c r="G29" s="332"/>
-      <c r="H29" s="332"/>
-      <c r="I29" s="332"/>
+      <c r="A29" s="325" t="s">
+        <v>682</v>
+      </c>
+      <c r="C29" s="331"/>
+      <c r="D29" s="331"/>
+      <c r="E29" s="331"/>
+      <c r="F29" s="331"/>
+      <c r="G29" s="331"/>
+      <c r="H29" s="331"/>
+      <c r="I29" s="331"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="326" t="s">
-        <v>681</v>
-      </c>
-      <c r="C30" s="332"/>
-      <c r="D30" s="332"/>
-      <c r="E30" s="332"/>
-      <c r="F30" s="332"/>
-      <c r="G30" s="332"/>
-      <c r="H30" s="332"/>
-      <c r="I30" s="332"/>
+      <c r="A30" s="325" t="s">
+        <v>683</v>
+      </c>
+      <c r="C30" s="331"/>
+      <c r="D30" s="331"/>
+      <c r="E30" s="331"/>
+      <c r="F30" s="331"/>
+      <c r="G30" s="331"/>
+      <c r="H30" s="331"/>
+      <c r="I30" s="331"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="326" t="s">
-        <v>682</v>
-      </c>
-      <c r="C31" s="332"/>
-      <c r="D31" s="332"/>
-      <c r="E31" s="332"/>
-      <c r="F31" s="332"/>
-      <c r="G31" s="332"/>
-      <c r="H31" s="332"/>
-      <c r="I31" s="332"/>
+      <c r="A31" s="325" t="s">
+        <v>684</v>
+      </c>
+      <c r="C31" s="331"/>
+      <c r="D31" s="331"/>
+      <c r="E31" s="331"/>
+      <c r="F31" s="331"/>
+      <c r="G31" s="331"/>
+      <c r="H31" s="331"/>
+      <c r="I31" s="331"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="326" t="s">
-        <v>683</v>
-      </c>
-      <c r="C32" s="332"/>
-      <c r="D32" s="332"/>
-      <c r="E32" s="332"/>
-      <c r="F32" s="332"/>
-      <c r="G32" s="332"/>
-      <c r="H32" s="332"/>
-      <c r="I32" s="332"/>
+      <c r="A32" s="325" t="s">
+        <v>685</v>
+      </c>
+      <c r="C32" s="331"/>
+      <c r="D32" s="331"/>
+      <c r="E32" s="331"/>
+      <c r="F32" s="331"/>
+      <c r="G32" s="331"/>
+      <c r="H32" s="331"/>
+      <c r="I32" s="331"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="326" t="s">
-        <v>684</v>
-      </c>
-      <c r="C33" s="332"/>
-      <c r="D33" s="332"/>
-      <c r="E33" s="332"/>
-      <c r="F33" s="332"/>
-      <c r="G33" s="332"/>
-      <c r="H33" s="332"/>
-      <c r="I33" s="332"/>
+      <c r="A33" s="325" t="s">
+        <v>686</v>
+      </c>
+      <c r="C33" s="331"/>
+      <c r="D33" s="331"/>
+      <c r="E33" s="331"/>
+      <c r="F33" s="331"/>
+      <c r="G33" s="331"/>
+      <c r="H33" s="331"/>
+      <c r="I33" s="331"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="326" t="s">
-        <v>685</v>
-      </c>
-      <c r="C34" s="332"/>
-      <c r="D34" s="332"/>
-      <c r="E34" s="332"/>
-      <c r="F34" s="332"/>
-      <c r="G34" s="332"/>
-      <c r="H34" s="332"/>
-      <c r="I34" s="332"/>
+      <c r="A34" s="325" t="s">
+        <v>687</v>
+      </c>
+      <c r="C34" s="331"/>
+      <c r="D34" s="331"/>
+      <c r="E34" s="331"/>
+      <c r="F34" s="331"/>
+      <c r="G34" s="331"/>
+      <c r="H34" s="331"/>
+      <c r="I34" s="331"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="326" t="s">
-        <v>686</v>
-      </c>
-      <c r="C35" s="332"/>
-      <c r="D35" s="332"/>
-      <c r="E35" s="332"/>
-      <c r="F35" s="332"/>
-      <c r="G35" s="332"/>
-      <c r="H35" s="332"/>
-      <c r="I35" s="332"/>
+      <c r="A35" s="325" t="s">
+        <v>688</v>
+      </c>
+      <c r="C35" s="331"/>
+      <c r="D35" s="331"/>
+      <c r="E35" s="331"/>
+      <c r="F35" s="331"/>
+      <c r="G35" s="331"/>
+      <c r="H35" s="331"/>
+      <c r="I35" s="331"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="326" t="s">
-        <v>687</v>
-      </c>
-      <c r="C36" s="332"/>
-      <c r="D36" s="332"/>
-      <c r="E36" s="332"/>
-      <c r="F36" s="332"/>
-      <c r="G36" s="332"/>
-      <c r="H36" s="332"/>
-      <c r="I36" s="332"/>
+      <c r="A36" s="325" t="s">
+        <v>689</v>
+      </c>
+      <c r="C36" s="331"/>
+      <c r="D36" s="331"/>
+      <c r="E36" s="331"/>
+      <c r="F36" s="331"/>
+      <c r="G36" s="331"/>
+      <c r="H36" s="331"/>
+      <c r="I36" s="331"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="326" t="s">
-        <v>688</v>
-      </c>
-      <c r="C37" s="332"/>
-      <c r="D37" s="332"/>
-      <c r="E37" s="332"/>
-      <c r="F37" s="332"/>
-      <c r="G37" s="332"/>
-      <c r="H37" s="332"/>
-      <c r="I37" s="332"/>
+      <c r="A37" s="325" t="s">
+        <v>690</v>
+      </c>
+      <c r="C37" s="331"/>
+      <c r="D37" s="331"/>
+      <c r="E37" s="331"/>
+      <c r="F37" s="331"/>
+      <c r="G37" s="331"/>
+      <c r="H37" s="331"/>
+      <c r="I37" s="331"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="326" t="s">
-        <v>689</v>
-      </c>
-      <c r="C38" s="332"/>
-      <c r="D38" s="332"/>
-      <c r="E38" s="332"/>
-      <c r="F38" s="332"/>
-      <c r="G38" s="332"/>
-      <c r="H38" s="332"/>
-      <c r="I38" s="332"/>
+      <c r="A38" s="325" t="s">
+        <v>691</v>
+      </c>
+      <c r="C38" s="331"/>
+      <c r="D38" s="331"/>
+      <c r="E38" s="331"/>
+      <c r="F38" s="331"/>
+      <c r="G38" s="331"/>
+      <c r="H38" s="331"/>
+      <c r="I38" s="331"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="326" t="s">
-        <v>690</v>
-      </c>
-      <c r="C39" s="332"/>
-      <c r="D39" s="332"/>
-      <c r="E39" s="332"/>
-      <c r="F39" s="332"/>
-      <c r="G39" s="332"/>
-      <c r="H39" s="332"/>
-      <c r="I39" s="332"/>
+      <c r="A39" s="325" t="s">
+        <v>692</v>
+      </c>
+      <c r="C39" s="331"/>
+      <c r="D39" s="331"/>
+      <c r="E39" s="331"/>
+      <c r="F39" s="331"/>
+      <c r="G39" s="331"/>
+      <c r="H39" s="331"/>
+      <c r="I39" s="331"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="326" t="s">
-        <v>691</v>
-      </c>
-      <c r="C40" s="332"/>
-      <c r="D40" s="332"/>
-      <c r="E40" s="332"/>
-      <c r="F40" s="332"/>
-      <c r="G40" s="332"/>
-      <c r="H40" s="332"/>
-      <c r="I40" s="332"/>
+      <c r="A40" s="325" t="s">
+        <v>693</v>
+      </c>
+      <c r="C40" s="331"/>
+      <c r="D40" s="331"/>
+      <c r="E40" s="331"/>
+      <c r="F40" s="331"/>
+      <c r="G40" s="331"/>
+      <c r="H40" s="331"/>
+      <c r="I40" s="331"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="326" t="s">
-        <v>692</v>
-      </c>
-      <c r="C41" s="332"/>
-      <c r="D41" s="332"/>
-      <c r="E41" s="332"/>
-      <c r="F41" s="332"/>
-      <c r="G41" s="332"/>
-      <c r="H41" s="332"/>
-      <c r="I41" s="332"/>
+      <c r="A41" s="325" t="s">
+        <v>694</v>
+      </c>
+      <c r="C41" s="331"/>
+      <c r="D41" s="331"/>
+      <c r="E41" s="331"/>
+      <c r="F41" s="331"/>
+      <c r="G41" s="331"/>
+      <c r="H41" s="331"/>
+      <c r="I41" s="331"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="326" t="s">
-        <v>693</v>
-      </c>
-      <c r="C42" s="332"/>
-      <c r="D42" s="332"/>
-      <c r="E42" s="332"/>
-      <c r="F42" s="332"/>
-      <c r="G42" s="332"/>
-      <c r="H42" s="332"/>
-      <c r="I42" s="332"/>
+      <c r="A42" s="325" t="s">
+        <v>695</v>
+      </c>
+      <c r="C42" s="331"/>
+      <c r="D42" s="331"/>
+      <c r="E42" s="331"/>
+      <c r="F42" s="331"/>
+      <c r="G42" s="331"/>
+      <c r="H42" s="331"/>
+      <c r="I42" s="331"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="326" t="s">
-        <v>694</v>
-      </c>
-      <c r="C43" s="332"/>
-      <c r="D43" s="332"/>
-      <c r="E43" s="332"/>
-      <c r="F43" s="332"/>
-      <c r="G43" s="332"/>
-      <c r="H43" s="332"/>
-      <c r="I43" s="332"/>
+      <c r="A43" s="325" t="s">
+        <v>696</v>
+      </c>
+      <c r="C43" s="331"/>
+      <c r="D43" s="331"/>
+      <c r="E43" s="331"/>
+      <c r="F43" s="331"/>
+      <c r="G43" s="331"/>
+      <c r="H43" s="331"/>
+      <c r="I43" s="331"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="326" t="s">
-        <v>695</v>
-      </c>
-      <c r="C44" s="332"/>
-      <c r="D44" s="332"/>
-      <c r="E44" s="332"/>
-      <c r="F44" s="332"/>
-      <c r="G44" s="332"/>
-      <c r="H44" s="332"/>
-      <c r="I44" s="332"/>
+      <c r="A44" s="325" t="s">
+        <v>697</v>
+      </c>
+      <c r="C44" s="331"/>
+      <c r="D44" s="331"/>
+      <c r="E44" s="331"/>
+      <c r="F44" s="331"/>
+      <c r="G44" s="331"/>
+      <c r="H44" s="331"/>
+      <c r="I44" s="331"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="326" t="s">
-        <v>696</v>
-      </c>
-      <c r="C45" s="332"/>
-      <c r="D45" s="332"/>
-      <c r="E45" s="332"/>
-      <c r="F45" s="332"/>
-      <c r="G45" s="332"/>
-      <c r="H45" s="332"/>
-      <c r="I45" s="332"/>
+      <c r="A45" s="325" t="s">
+        <v>698</v>
+      </c>
+      <c r="C45" s="331"/>
+      <c r="D45" s="331"/>
+      <c r="E45" s="331"/>
+      <c r="F45" s="331"/>
+      <c r="G45" s="331"/>
+      <c r="H45" s="331"/>
+      <c r="I45" s="331"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="326" t="s">
-        <v>697</v>
-      </c>
-      <c r="C46" s="332"/>
-      <c r="D46" s="332"/>
-      <c r="E46" s="332"/>
-      <c r="F46" s="332"/>
-      <c r="G46" s="332"/>
-      <c r="H46" s="332"/>
-      <c r="I46" s="332"/>
+      <c r="A46" s="325" t="s">
+        <v>699</v>
+      </c>
+      <c r="C46" s="331"/>
+      <c r="D46" s="331"/>
+      <c r="E46" s="331"/>
+      <c r="F46" s="331"/>
+      <c r="G46" s="331"/>
+      <c r="H46" s="331"/>
+      <c r="I46" s="331"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="326" t="s">
-        <v>698</v>
-      </c>
-      <c r="C47" s="332"/>
-      <c r="D47" s="332"/>
-      <c r="E47" s="332"/>
-      <c r="F47" s="332"/>
-      <c r="G47" s="332"/>
-      <c r="H47" s="332"/>
-      <c r="I47" s="332"/>
+      <c r="A47" s="325" t="s">
+        <v>700</v>
+      </c>
+      <c r="C47" s="331"/>
+      <c r="D47" s="331"/>
+      <c r="E47" s="331"/>
+      <c r="F47" s="331"/>
+      <c r="G47" s="331"/>
+      <c r="H47" s="331"/>
+      <c r="I47" s="331"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="326" t="s">
-        <v>699</v>
-      </c>
-      <c r="C48" s="332"/>
-      <c r="D48" s="332"/>
-      <c r="E48" s="332"/>
-      <c r="F48" s="332"/>
-      <c r="G48" s="332"/>
-      <c r="H48" s="332"/>
-      <c r="I48" s="332"/>
+      <c r="A48" s="325" t="s">
+        <v>701</v>
+      </c>
+      <c r="C48" s="331"/>
+      <c r="D48" s="331"/>
+      <c r="E48" s="331"/>
+      <c r="F48" s="331"/>
+      <c r="G48" s="331"/>
+      <c r="H48" s="331"/>
+      <c r="I48" s="331"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="326" t="s">
-        <v>700</v>
-      </c>
-      <c r="C49" s="332"/>
-      <c r="D49" s="332"/>
-      <c r="E49" s="332"/>
-      <c r="F49" s="332"/>
-      <c r="G49" s="332"/>
-      <c r="H49" s="332"/>
-      <c r="I49" s="332"/>
+      <c r="A49" s="325" t="s">
+        <v>702</v>
+      </c>
+      <c r="C49" s="331"/>
+      <c r="D49" s="331"/>
+      <c r="E49" s="331"/>
+      <c r="F49" s="331"/>
+      <c r="G49" s="331"/>
+      <c r="H49" s="331"/>
+      <c r="I49" s="331"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="326" t="s">
-        <v>701</v>
-      </c>
-      <c r="C50" s="332"/>
-      <c r="D50" s="332"/>
-      <c r="E50" s="332"/>
-      <c r="F50" s="332"/>
-      <c r="G50" s="332"/>
-      <c r="H50" s="332"/>
-      <c r="I50" s="332"/>
+      <c r="A50" s="325" t="s">
+        <v>703</v>
+      </c>
+      <c r="C50" s="331"/>
+      <c r="D50" s="331"/>
+      <c r="E50" s="331"/>
+      <c r="F50" s="331"/>
+      <c r="G50" s="331"/>
+      <c r="H50" s="331"/>
+      <c r="I50" s="331"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="326" t="s">
-        <v>702</v>
-      </c>
-      <c r="C51" s="332"/>
-      <c r="D51" s="332"/>
-      <c r="E51" s="332"/>
-      <c r="F51" s="332"/>
-      <c r="G51" s="332"/>
-      <c r="H51" s="332"/>
-      <c r="I51" s="332"/>
+      <c r="A51" s="325" t="s">
+        <v>704</v>
+      </c>
+      <c r="C51" s="331"/>
+      <c r="D51" s="331"/>
+      <c r="E51" s="331"/>
+      <c r="F51" s="331"/>
+      <c r="G51" s="331"/>
+      <c r="H51" s="331"/>
+      <c r="I51" s="331"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="326" t="s">
-        <v>703</v>
-      </c>
-      <c r="C52" s="332"/>
-      <c r="D52" s="332"/>
-      <c r="E52" s="332"/>
-      <c r="F52" s="332"/>
-      <c r="G52" s="332"/>
-      <c r="H52" s="332"/>
-      <c r="I52" s="332"/>
+      <c r="A52" s="325" t="s">
+        <v>705</v>
+      </c>
+      <c r="C52" s="331"/>
+      <c r="D52" s="331"/>
+      <c r="E52" s="331"/>
+      <c r="F52" s="331"/>
+      <c r="G52" s="331"/>
+      <c r="H52" s="331"/>
+      <c r="I52" s="331"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="326" t="s">
-        <v>704</v>
-      </c>
-      <c r="C53" s="332"/>
-      <c r="D53" s="332"/>
-      <c r="E53" s="332"/>
-      <c r="F53" s="332"/>
-      <c r="G53" s="332"/>
-      <c r="H53" s="332"/>
-      <c r="I53" s="332"/>
+      <c r="A53" s="325" t="s">
+        <v>706</v>
+      </c>
+      <c r="C53" s="331"/>
+      <c r="D53" s="331"/>
+      <c r="E53" s="331"/>
+      <c r="F53" s="331"/>
+      <c r="G53" s="331"/>
+      <c r="H53" s="331"/>
+      <c r="I53" s="331"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="326" t="s">
-        <v>705</v>
-      </c>
-      <c r="C54" s="332"/>
-      <c r="D54" s="332"/>
-      <c r="E54" s="332"/>
-      <c r="F54" s="332"/>
-      <c r="G54" s="332"/>
-      <c r="H54" s="332"/>
-      <c r="I54" s="332"/>
+      <c r="A54" s="325" t="s">
+        <v>707</v>
+      </c>
+      <c r="C54" s="331"/>
+      <c r="D54" s="331"/>
+      <c r="E54" s="331"/>
+      <c r="F54" s="331"/>
+      <c r="G54" s="331"/>
+      <c r="H54" s="331"/>
+      <c r="I54" s="331"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="326" t="s">
-        <v>706</v>
-      </c>
-      <c r="C55" s="332"/>
-      <c r="D55" s="332"/>
-      <c r="E55" s="332"/>
-      <c r="F55" s="332"/>
-      <c r="G55" s="332"/>
-      <c r="H55" s="332"/>
-      <c r="I55" s="332"/>
+      <c r="A55" s="325" t="s">
+        <v>708</v>
+      </c>
+      <c r="C55" s="331"/>
+      <c r="D55" s="331"/>
+      <c r="E55" s="331"/>
+      <c r="F55" s="331"/>
+      <c r="G55" s="331"/>
+      <c r="H55" s="331"/>
+      <c r="I55" s="331"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="326" t="s">
-        <v>707</v>
-      </c>
-      <c r="C56" s="332"/>
-      <c r="D56" s="332"/>
-      <c r="E56" s="332"/>
-      <c r="F56" s="332"/>
-      <c r="G56" s="332"/>
-      <c r="H56" s="332"/>
-      <c r="I56" s="332"/>
+      <c r="A56" s="325" t="s">
+        <v>709</v>
+      </c>
+      <c r="C56" s="331"/>
+      <c r="D56" s="331"/>
+      <c r="E56" s="331"/>
+      <c r="F56" s="331"/>
+      <c r="G56" s="331"/>
+      <c r="H56" s="331"/>
+      <c r="I56" s="331"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="326" t="s">
-        <v>708</v>
-      </c>
-      <c r="C57" s="332"/>
-      <c r="D57" s="332"/>
-      <c r="E57" s="332"/>
-      <c r="F57" s="332"/>
-      <c r="G57" s="332"/>
-      <c r="H57" s="332"/>
-      <c r="I57" s="332"/>
+      <c r="A57" s="325" t="s">
+        <v>710</v>
+      </c>
+      <c r="C57" s="331"/>
+      <c r="D57" s="331"/>
+      <c r="E57" s="331"/>
+      <c r="F57" s="331"/>
+      <c r="G57" s="331"/>
+      <c r="H57" s="331"/>
+      <c r="I57" s="331"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="326" t="s">
-        <v>709</v>
-      </c>
-      <c r="C58" s="332"/>
-      <c r="D58" s="332"/>
-      <c r="E58" s="332"/>
-      <c r="F58" s="332"/>
-      <c r="G58" s="332"/>
-      <c r="H58" s="332"/>
-      <c r="I58" s="332"/>
+      <c r="A58" s="325" t="s">
+        <v>711</v>
+      </c>
+      <c r="C58" s="331"/>
+      <c r="D58" s="331"/>
+      <c r="E58" s="331"/>
+      <c r="F58" s="331"/>
+      <c r="G58" s="331"/>
+      <c r="H58" s="331"/>
+      <c r="I58" s="331"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="326" t="s">
-        <v>710</v>
-      </c>
-      <c r="C59" s="332"/>
-      <c r="D59" s="332"/>
-      <c r="E59" s="332"/>
-      <c r="F59" s="332"/>
-      <c r="G59" s="332"/>
-      <c r="H59" s="332"/>
-      <c r="I59" s="332"/>
+      <c r="A59" s="325" t="s">
+        <v>712</v>
+      </c>
+      <c r="C59" s="331"/>
+      <c r="D59" s="331"/>
+      <c r="E59" s="331"/>
+      <c r="F59" s="331"/>
+      <c r="G59" s="331"/>
+      <c r="H59" s="331"/>
+      <c r="I59" s="331"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="326" t="s">
-        <v>711</v>
-      </c>
-      <c r="C60" s="332"/>
-      <c r="D60" s="332"/>
-      <c r="E60" s="332"/>
-      <c r="F60" s="332"/>
-      <c r="G60" s="332"/>
-      <c r="H60" s="332"/>
-      <c r="I60" s="332"/>
+      <c r="A60" s="325" t="s">
+        <v>713</v>
+      </c>
+      <c r="C60" s="331"/>
+      <c r="D60" s="331"/>
+      <c r="E60" s="331"/>
+      <c r="F60" s="331"/>
+      <c r="G60" s="331"/>
+      <c r="H60" s="331"/>
+      <c r="I60" s="331"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="326" t="s">
-        <v>712</v>
-      </c>
-      <c r="C61" s="332"/>
-      <c r="D61" s="332"/>
-      <c r="E61" s="332"/>
-      <c r="F61" s="332"/>
-      <c r="G61" s="332"/>
-      <c r="H61" s="332"/>
-      <c r="I61" s="332"/>
+      <c r="A61" s="325" t="s">
+        <v>714</v>
+      </c>
+      <c r="C61" s="331"/>
+      <c r="D61" s="331"/>
+      <c r="E61" s="331"/>
+      <c r="F61" s="331"/>
+      <c r="G61" s="331"/>
+      <c r="H61" s="331"/>
+      <c r="I61" s="331"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="326" t="s">
-        <v>713</v>
-      </c>
-      <c r="C62" s="332"/>
-      <c r="D62" s="332"/>
-      <c r="E62" s="332"/>
-      <c r="F62" s="332"/>
-      <c r="G62" s="332"/>
-      <c r="H62" s="332"/>
-      <c r="I62" s="332"/>
+      <c r="A62" s="325" t="s">
+        <v>715</v>
+      </c>
+      <c r="C62" s="331"/>
+      <c r="D62" s="331"/>
+      <c r="E62" s="331"/>
+      <c r="F62" s="331"/>
+      <c r="G62" s="331"/>
+      <c r="H62" s="331"/>
+      <c r="I62" s="331"/>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="326" t="s">
-        <v>714</v>
-      </c>
-      <c r="C63" s="332"/>
-      <c r="D63" s="332"/>
-      <c r="E63" s="332"/>
-      <c r="F63" s="332"/>
-      <c r="G63" s="332"/>
-      <c r="H63" s="332"/>
-      <c r="I63" s="332"/>
+      <c r="A63" s="325" t="s">
+        <v>716</v>
+      </c>
+      <c r="C63" s="331"/>
+      <c r="D63" s="331"/>
+      <c r="E63" s="331"/>
+      <c r="F63" s="331"/>
+      <c r="G63" s="331"/>
+      <c r="H63" s="331"/>
+      <c r="I63" s="331"/>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="326" t="s">
-        <v>715</v>
-      </c>
-      <c r="C64" s="332"/>
-      <c r="D64" s="332"/>
-      <c r="E64" s="332"/>
-      <c r="F64" s="332"/>
-      <c r="G64" s="332"/>
-      <c r="H64" s="332"/>
-      <c r="I64" s="332"/>
+      <c r="A64" s="325" t="s">
+        <v>717</v>
+      </c>
+      <c r="C64" s="331"/>
+      <c r="D64" s="331"/>
+      <c r="E64" s="331"/>
+      <c r="F64" s="331"/>
+      <c r="G64" s="331"/>
+      <c r="H64" s="331"/>
+      <c r="I64" s="331"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="326" t="s">
-        <v>716</v>
-      </c>
-      <c r="C65" s="332"/>
-      <c r="D65" s="332"/>
-      <c r="E65" s="332"/>
-      <c r="F65" s="332"/>
-      <c r="G65" s="332"/>
-      <c r="H65" s="332"/>
-      <c r="I65" s="332"/>
+      <c r="A65" s="325" t="s">
+        <v>718</v>
+      </c>
+      <c r="C65" s="331"/>
+      <c r="D65" s="331"/>
+      <c r="E65" s="331"/>
+      <c r="F65" s="331"/>
+      <c r="G65" s="331"/>
+      <c r="H65" s="331"/>
+      <c r="I65" s="331"/>
     </row>
     <row r="66" customFormat="false" ht="5.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="326" t="s">
-        <v>717</v>
+      <c r="A66" s="325" t="s">
+        <v>719</v>
       </c>
       <c r="C66" s="143"/>
       <c r="D66" s="144"/>
@@ -32002,373 +32002,373 @@
       <c r="I66" s="157"/>
     </row>
     <row r="67" customFormat="false" ht="4.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="326" t="s">
-        <v>718</v>
+      <c r="A67" s="325" t="s">
+        <v>720</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="326" t="s">
-        <v>719</v>
+      <c r="A68" s="325" t="s">
+        <v>721</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="326" t="s">
-        <v>720</v>
+      <c r="A69" s="325" t="s">
+        <v>722</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="326" t="s">
-        <v>721</v>
+      <c r="A70" s="325" t="s">
+        <v>723</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="326" t="s">
-        <v>722</v>
+      <c r="A71" s="325" t="s">
+        <v>724</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="326" t="s">
-        <v>723</v>
+      <c r="A72" s="325" t="s">
+        <v>725</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="326" t="s">
-        <v>724</v>
+      <c r="A73" s="325" t="s">
+        <v>726</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="326" t="s">
-        <v>725</v>
+      <c r="A74" s="325" t="s">
+        <v>727</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="326" t="s">
-        <v>726</v>
+      <c r="A75" s="325" t="s">
+        <v>728</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="326" t="s">
-        <v>727</v>
+      <c r="A76" s="325" t="s">
+        <v>729</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="326" t="s">
-        <v>728</v>
+      <c r="A77" s="325" t="s">
+        <v>730</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="326" t="s">
-        <v>729</v>
+      <c r="A78" s="325" t="s">
+        <v>731</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="326" t="s">
-        <v>730</v>
+      <c r="A79" s="325" t="s">
+        <v>732</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="326" t="s">
-        <v>731</v>
+      <c r="A80" s="325" t="s">
+        <v>733</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="326" t="s">
-        <v>732</v>
+      <c r="A81" s="325" t="s">
+        <v>734</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="326" t="s">
-        <v>733</v>
+      <c r="A82" s="325" t="s">
+        <v>735</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="326" t="s">
-        <v>734</v>
+      <c r="A83" s="325" t="s">
+        <v>736</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="326" t="s">
-        <v>735</v>
+      <c r="A84" s="325" t="s">
+        <v>737</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="326" t="s">
-        <v>736</v>
+      <c r="A85" s="325" t="s">
+        <v>738</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="326" t="s">
-        <v>737</v>
+      <c r="A86" s="325" t="s">
+        <v>739</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="326" t="s">
-        <v>738</v>
+      <c r="A87" s="325" t="s">
+        <v>740</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="326" t="s">
-        <v>739</v>
+      <c r="A88" s="325" t="s">
+        <v>741</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="326" t="s">
-        <v>740</v>
+      <c r="A89" s="325" t="s">
+        <v>742</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="326" t="s">
-        <v>741</v>
+      <c r="A90" s="325" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="326" t="s">
-        <v>742</v>
+      <c r="A91" s="325" t="s">
+        <v>744</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="326" t="s">
-        <v>743</v>
+      <c r="A92" s="325" t="s">
+        <v>745</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="326" t="s">
-        <v>744</v>
+      <c r="A93" s="325" t="s">
+        <v>746</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="326" t="s">
-        <v>745</v>
+      <c r="A94" s="325" t="s">
+        <v>747</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="326" t="s">
-        <v>746</v>
+      <c r="A95" s="325" t="s">
+        <v>748</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="326" t="s">
-        <v>747</v>
+      <c r="A96" s="325" t="s">
+        <v>749</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="326" t="s">
-        <v>748</v>
+      <c r="A97" s="325" t="s">
+        <v>750</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="326" t="s">
-        <v>749</v>
+      <c r="A98" s="325" t="s">
+        <v>751</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="326" t="s">
-        <v>750</v>
+      <c r="A99" s="325" t="s">
+        <v>752</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="326" t="s">
-        <v>751</v>
+      <c r="A100" s="325" t="s">
+        <v>753</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="326" t="s">
-        <v>752</v>
+      <c r="A101" s="325" t="s">
+        <v>754</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="326" t="s">
-        <v>753</v>
+      <c r="A102" s="325" t="s">
+        <v>755</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="326" t="s">
-        <v>754</v>
+      <c r="A103" s="325" t="s">
+        <v>756</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="326" t="s">
-        <v>755</v>
+      <c r="A104" s="325" t="s">
+        <v>757</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="326" t="s">
-        <v>756</v>
+      <c r="A105" s="325" t="s">
+        <v>758</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="326" t="s">
-        <v>757</v>
+      <c r="A106" s="325" t="s">
+        <v>759</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="326" t="s">
-        <v>758</v>
+      <c r="A107" s="325" t="s">
+        <v>760</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="326" t="s">
-        <v>759</v>
+      <c r="A108" s="325" t="s">
+        <v>761</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="326" t="s">
-        <v>760</v>
+      <c r="A109" s="325" t="s">
+        <v>762</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="326" t="s">
-        <v>761</v>
+      <c r="A110" s="325" t="s">
+        <v>763</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="326" t="s">
-        <v>762</v>
+      <c r="A111" s="325" t="s">
+        <v>764</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A112" s="326" t="s">
-        <v>763</v>
+      <c r="A112" s="325" t="s">
+        <v>765</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A113" s="326" t="s">
-        <v>764</v>
+      <c r="A113" s="325" t="s">
+        <v>766</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A114" s="326" t="s">
-        <v>765</v>
+      <c r="A114" s="325" t="s">
+        <v>767</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A115" s="326" t="s">
-        <v>766</v>
+      <c r="A115" s="325" t="s">
+        <v>768</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A116" s="326" t="s">
-        <v>767</v>
+      <c r="A116" s="325" t="s">
+        <v>769</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A117" s="326" t="s">
-        <v>768</v>
+      <c r="A117" s="325" t="s">
+        <v>770</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A118" s="326" t="s">
-        <v>769</v>
+      <c r="A118" s="325" t="s">
+        <v>771</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A119" s="326" t="s">
-        <v>770</v>
+      <c r="A119" s="325" t="s">
+        <v>772</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A120" s="326" t="s">
-        <v>771</v>
+      <c r="A120" s="325" t="s">
+        <v>773</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A121" s="326" t="s">
-        <v>772</v>
+      <c r="A121" s="325" t="s">
+        <v>774</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A122" s="326" t="s">
-        <v>773</v>
+      <c r="A122" s="325" t="s">
+        <v>775</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A123" s="326" t="s">
-        <v>774</v>
+      <c r="A123" s="325" t="s">
+        <v>776</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A124" s="326" t="s">
-        <v>775</v>
+      <c r="A124" s="325" t="s">
+        <v>777</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A125" s="326" t="s">
-        <v>776</v>
+      <c r="A125" s="325" t="s">
+        <v>778</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="326" t="s">
-        <v>777</v>
+      <c r="A126" s="325" t="s">
+        <v>779</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="326" t="s">
-        <v>778</v>
+      <c r="A127" s="325" t="s">
+        <v>780</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="326" t="s">
-        <v>779</v>
+      <c r="A128" s="325" t="s">
+        <v>781</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="326" t="s">
-        <v>780</v>
+      <c r="A129" s="325" t="s">
+        <v>782</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="326" t="s">
-        <v>781</v>
+      <c r="A130" s="325" t="s">
+        <v>783</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A131" s="326" t="s">
-        <v>782</v>
+      <c r="A131" s="325" t="s">
+        <v>784</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A132" s="326" t="s">
-        <v>783</v>
+      <c r="A132" s="325" t="s">
+        <v>785</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A133" s="326" t="s">
-        <v>784</v>
+      <c r="A133" s="325" t="s">
+        <v>786</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A134" s="326" t="s">
-        <v>785</v>
+      <c r="A134" s="325" t="s">
+        <v>787</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A135" s="326" t="s">
-        <v>786</v>
+      <c r="A135" s="325" t="s">
+        <v>788</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A136" s="326" t="s">
-        <v>787</v>
+      <c r="A136" s="325" t="s">
+        <v>789</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A137" s="326" t="s">
-        <v>788</v>
+      <c r="A137" s="325" t="s">
+        <v>790</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A138" s="326" t="s">
-        <v>789</v>
+      <c r="A138" s="325" t="s">
+        <v>791</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A139" s="326" t="s">
-        <v>790</v>
+      <c r="A139" s="325" t="s">
+        <v>792</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A140" s="326" t="s">
-        <v>791</v>
+      <c r="A140" s="325" t="s">
+        <v>793</v>
       </c>
     </row>
   </sheetData>

--- a/etp-backend/src/main/resources/energiatodistus-2013-sv.xlsx
+++ b/etp-backend/src/main/resources/energiatodistus-2013-sv.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="1) etusivu" sheetId="1" state="visible" r:id="rId2"/>
@@ -3368,7 +3368,7 @@
     <numFmt numFmtId="173" formatCode="#,##0.00"/>
     <numFmt numFmtId="174" formatCode="0.0"/>
   </numFmts>
-  <fonts count="39">
+  <fonts count="40">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -3650,6 +3650,12 @@
       <b val="true"/>
       <sz val="10"/>
       <color rgb="FF339966"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9.5"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -3997,7 +4003,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="346">
+  <cellXfs count="347">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -5377,6 +5383,10 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="39" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="1" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="23" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
@@ -8787,9 +8797,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>245520</xdr:colOff>
+      <xdr:colOff>245160</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>259200</xdr:rowOff>
+      <xdr:rowOff>258840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8803,7 +8813,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="4199040"/>
-          <a:ext cx="755280" cy="211680"/>
+          <a:ext cx="754920" cy="211320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8824,9 +8834,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>145440</xdr:colOff>
+      <xdr:colOff>145080</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>259200</xdr:rowOff>
+      <xdr:rowOff>258840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8840,7 +8850,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="4513320"/>
-          <a:ext cx="1098360" cy="211680"/>
+          <a:ext cx="1098000" cy="211320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8861,9 +8871,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>18720</xdr:colOff>
+      <xdr:colOff>18360</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>260280</xdr:rowOff>
+      <xdr:rowOff>259920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8877,7 +8887,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="4828680"/>
-          <a:ext cx="1405440" cy="211680"/>
+          <a:ext cx="1405080" cy="211320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8898,9 +8908,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>342720</xdr:colOff>
+      <xdr:colOff>342360</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>260280</xdr:rowOff>
+      <xdr:rowOff>259920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8914,7 +8924,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="5142960"/>
-          <a:ext cx="1729440" cy="211680"/>
+          <a:ext cx="1729080" cy="211320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8935,9 +8945,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>216000</xdr:colOff>
+      <xdr:colOff>215640</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>273240</xdr:rowOff>
+      <xdr:rowOff>272880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8951,7 +8961,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="5457240"/>
-          <a:ext cx="2036520" cy="224640"/>
+          <a:ext cx="2036160" cy="224280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8972,9 +8982,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>159120</xdr:colOff>
+      <xdr:colOff>158760</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>260280</xdr:rowOff>
+      <xdr:rowOff>259920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8988,7 +8998,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="5771520"/>
-          <a:ext cx="2381400" cy="211680"/>
+          <a:ext cx="2381040" cy="211320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9009,9 +9019,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>99360</xdr:colOff>
+      <xdr:colOff>99000</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>259200</xdr:rowOff>
+      <xdr:rowOff>258840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9025,7 +9035,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="6085080"/>
-          <a:ext cx="2694600" cy="211680"/>
+          <a:ext cx="2694240" cy="211320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9425,9 +9435,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>315720</xdr:colOff>
+      <xdr:colOff>315360</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>76680</xdr:rowOff>
+      <xdr:rowOff>76320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9437,7 +9447,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1994400" y="149040"/>
-          <a:ext cx="6997680" cy="10060920"/>
+          <a:ext cx="6997320" cy="10060560"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -9523,9 +9533,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>3600</xdr:colOff>
+      <xdr:colOff>3240</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>77760</xdr:rowOff>
+      <xdr:rowOff>77400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9535,7 +9545,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1987560" y="10344960"/>
-          <a:ext cx="7014960" cy="264600"/>
+          <a:ext cx="7014600" cy="264240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9589,9 +9599,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>432000</xdr:colOff>
+      <xdr:colOff>431640</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>55080</xdr:rowOff>
+      <xdr:rowOff>54720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9601,7 +9611,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5525280" y="4883760"/>
-          <a:ext cx="793800" cy="265680"/>
+          <a:ext cx="793440" cy="265320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9653,9 +9663,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>430920</xdr:colOff>
+      <xdr:colOff>430560</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>194760</xdr:rowOff>
+      <xdr:rowOff>194400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9665,7 +9675,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5524200" y="5023440"/>
-          <a:ext cx="793800" cy="265680"/>
+          <a:ext cx="793440" cy="265320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -29235,7 +29245,7 @@
   </sheetPr>
   <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A49" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C26" activeCellId="0" sqref="C26"/>
     </sheetView>
   </sheetViews>
@@ -30285,8 +30295,8 @@
   </sheetPr>
   <dimension ref="A1:G66"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C23" activeCellId="0" sqref="C23"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A77" activeCellId="0" sqref="A77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -31023,7 +31033,7 @@
       <c r="F59" s="5"/>
       <c r="G59" s="155"/>
     </row>
-    <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="11.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="150"/>
       <c r="C60" s="306" t="s">
         <v>653</v>
@@ -31033,47 +31043,47 @@
       <c r="F60" s="306"/>
       <c r="G60" s="306"/>
     </row>
-    <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="150"/>
-      <c r="C61" s="331" t="str">
+      <c r="C61" s="345" t="str">
         <f aca="false">A45</f>
         <v>[:huomiot :lisatietoja-sv]</v>
       </c>
-      <c r="D61" s="331"/>
-      <c r="E61" s="331"/>
-      <c r="F61" s="331"/>
-      <c r="G61" s="331"/>
-    </row>
-    <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="D61" s="345"/>
+      <c r="E61" s="345"/>
+      <c r="F61" s="345"/>
+      <c r="G61" s="345"/>
+    </row>
+    <row r="62" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="150"/>
-      <c r="C62" s="331"/>
-      <c r="D62" s="331"/>
-      <c r="E62" s="331"/>
-      <c r="F62" s="331"/>
-      <c r="G62" s="331"/>
-    </row>
-    <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C62" s="345"/>
+      <c r="D62" s="345"/>
+      <c r="E62" s="345"/>
+      <c r="F62" s="345"/>
+      <c r="G62" s="345"/>
+    </row>
+    <row r="63" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="150"/>
-      <c r="C63" s="331"/>
-      <c r="D63" s="331"/>
-      <c r="E63" s="331"/>
-      <c r="F63" s="331"/>
-      <c r="G63" s="331"/>
-    </row>
-    <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C63" s="345"/>
+      <c r="D63" s="345"/>
+      <c r="E63" s="345"/>
+      <c r="F63" s="345"/>
+      <c r="G63" s="345"/>
+    </row>
+    <row r="64" customFormat="false" ht="14.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="150"/>
-      <c r="C64" s="331"/>
-      <c r="D64" s="331"/>
-      <c r="E64" s="331"/>
-      <c r="F64" s="331"/>
-      <c r="G64" s="331"/>
+      <c r="C64" s="345"/>
+      <c r="D64" s="345"/>
+      <c r="E64" s="345"/>
+      <c r="F64" s="345"/>
+      <c r="G64" s="345"/>
     </row>
     <row r="65" customFormat="false" ht="5.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C65" s="143"/>
-      <c r="D65" s="144"/>
-      <c r="E65" s="144"/>
-      <c r="F65" s="144"/>
-      <c r="G65" s="157"/>
+      <c r="C65" s="345"/>
+      <c r="D65" s="345"/>
+      <c r="E65" s="345"/>
+      <c r="F65" s="345"/>
+      <c r="G65" s="345"/>
     </row>
     <row r="66" customFormat="false" ht="4.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -31092,7 +31102,7 @@
     <mergeCell ref="C37:C38"/>
     <mergeCell ref="C43:G57"/>
     <mergeCell ref="C60:G60"/>
-    <mergeCell ref="C61:G64"/>
+    <mergeCell ref="C61:G65"/>
   </mergeCells>
   <conditionalFormatting sqref="B15:D16 B14:C16 H13:AMJ17 B13:B17 C45:C49 A65:AMJ1048576 A1:AMJ12 C42:G44 C57:G57 E59:AMJ59 B59:B63 H60:AMJ64 C61:C63 B39:B57 H39:AMJ57 B19:B37 H19:AMJ37 C22:G22 C19:F21 D14 A58:AMJ58">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="451">
@@ -31220,15 +31230,15 @@
       <c r="A2" s="150" t="s">
         <v>654</v>
       </c>
-      <c r="C2" s="345" t="s">
+      <c r="C2" s="346" t="s">
         <v>655</v>
       </c>
-      <c r="D2" s="345"/>
-      <c r="E2" s="345"/>
-      <c r="F2" s="345"/>
-      <c r="G2" s="345"/>
-      <c r="H2" s="345"/>
-      <c r="I2" s="345"/>
+      <c r="D2" s="346"/>
+      <c r="E2" s="346"/>
+      <c r="F2" s="346"/>
+      <c r="G2" s="346"/>
+      <c r="H2" s="346"/>
+      <c r="I2" s="346"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="325" t="s">

--- a/etp-backend/src/main/resources/energiatodistus-2013-sv.xlsx
+++ b/etp-backend/src/main/resources/energiatodistus-2013-sv.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="1) etusivu" sheetId="1" state="visible" r:id="rId2"/>
@@ -4563,15 +4563,15 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="25" fillId="7" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="25" fillId="7" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="25" fillId="8" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="25" fillId="8" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="15" fillId="9" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="15" fillId="9" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -8810,9 +8810,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>243360</xdr:colOff>
+      <xdr:colOff>243000</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>257040</xdr:rowOff>
+      <xdr:rowOff>256680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8826,7 +8826,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="4199040"/>
-          <a:ext cx="753120" cy="209520"/>
+          <a:ext cx="752760" cy="209160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8847,9 +8847,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>143280</xdr:colOff>
+      <xdr:colOff>142920</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>257040</xdr:rowOff>
+      <xdr:rowOff>256680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8863,7 +8863,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="4513320"/>
-          <a:ext cx="1096200" cy="209520"/>
+          <a:ext cx="1095840" cy="209160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8884,9 +8884,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>16560</xdr:colOff>
+      <xdr:colOff>16200</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>258120</xdr:rowOff>
+      <xdr:rowOff>257760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8900,7 +8900,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="4828680"/>
-          <a:ext cx="1403280" cy="209520"/>
+          <a:ext cx="1402920" cy="209160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8921,9 +8921,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>340560</xdr:colOff>
+      <xdr:colOff>340200</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>258120</xdr:rowOff>
+      <xdr:rowOff>257760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8937,7 +8937,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="5142960"/>
-          <a:ext cx="1727280" cy="209520"/>
+          <a:ext cx="1726920" cy="209160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8958,9 +8958,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>213840</xdr:colOff>
+      <xdr:colOff>213480</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>271080</xdr:rowOff>
+      <xdr:rowOff>270720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8974,7 +8974,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="5457240"/>
-          <a:ext cx="2034360" cy="222480"/>
+          <a:ext cx="2034000" cy="222120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8995,9 +8995,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>156960</xdr:colOff>
+      <xdr:colOff>156600</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>258120</xdr:rowOff>
+      <xdr:rowOff>257760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9011,7 +9011,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="5771520"/>
-          <a:ext cx="2379240" cy="209520"/>
+          <a:ext cx="2378880" cy="209160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9032,9 +9032,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>97200</xdr:colOff>
+      <xdr:colOff>96840</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>257040</xdr:rowOff>
+      <xdr:rowOff>256680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9048,7 +9048,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="6085080"/>
-          <a:ext cx="2692440" cy="209520"/>
+          <a:ext cx="2692080" cy="209160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9448,9 +9448,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>313560</xdr:colOff>
+      <xdr:colOff>313200</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>74520</xdr:rowOff>
+      <xdr:rowOff>74160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9460,7 +9460,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1994400" y="149040"/>
-          <a:ext cx="6995520" cy="10058760"/>
+          <a:ext cx="6995160" cy="10058400"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -9546,9 +9546,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>1440</xdr:colOff>
+      <xdr:colOff>1080</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>75600</xdr:rowOff>
+      <xdr:rowOff>75240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9558,7 +9558,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1987560" y="10344960"/>
-          <a:ext cx="7012800" cy="262440"/>
+          <a:ext cx="7012440" cy="262080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9612,9 +9612,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>429840</xdr:colOff>
+      <xdr:colOff>429480</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>52920</xdr:rowOff>
+      <xdr:rowOff>52560</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9624,7 +9624,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5525280" y="4883760"/>
-          <a:ext cx="791640" cy="263520"/>
+          <a:ext cx="791280" cy="263160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9676,9 +9676,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>428760</xdr:colOff>
+      <xdr:colOff>428400</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>192600</xdr:rowOff>
+      <xdr:rowOff>192240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9688,7 +9688,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5524200" y="5023440"/>
-          <a:ext cx="791640" cy="263520"/>
+          <a:ext cx="791280" cy="263160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9741,8 +9741,8 @@
   </sheetPr>
   <dimension ref="A1:AK262"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S28" activeCellId="0" sqref="S28"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -19556,8 +19556,8 @@
   </sheetPr>
   <dimension ref="A1:AC82"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D35" activeCellId="0" sqref="D35"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M43" activeCellId="0" sqref="M43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -20614,16 +20614,16 @@
       <c r="E30" s="61"/>
       <c r="F30" s="14"/>
       <c r="H30" s="135" t="str">
-        <f aca="false">A40</f>
-        <v>#function[solita.etp.service.energiatodistus-pdf/fn--64381]</v>
-      </c>
-      <c r="I30" s="136" t="str">
-        <f aca="false">A41</f>
-        <v>#function[solita.etp.service.energiatodistus-pdf/fn--64384]</v>
-      </c>
-      <c r="J30" s="137" t="str">
         <f aca="false">A42</f>
         <v>#function[solita.etp.service.energiatodistus-pdf/fn--64387]</v>
+      </c>
+      <c r="I30" s="136" t="str">
+        <f aca="false">A43</f>
+        <v>#function[solita.etp.service.energiatodistus-pdf/fn--64390]</v>
+      </c>
+      <c r="J30" s="137" t="str">
+        <f aca="false">A44</f>
+        <v>#function[solita.etp.service.energiatodistus-pdf/fn--64393]</v>
       </c>
       <c r="K30" s="130"/>
       <c r="M30" s="0"/>

--- a/etp-backend/src/main/resources/energiatodistus-2013-sv.xlsx
+++ b/etp-backend/src/main/resources/energiatodistus-2013-sv.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="1) etusivu" sheetId="1" state="visible" r:id="rId2"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="798">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="793">
   <si>
     <t xml:space="preserve">[:id]</t>
   </si>
@@ -62,10 +62,10 @@
     <t xml:space="preserve">[:perustiedot :katuosoite-sv]</t>
   </si>
   <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--75416]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--75418]</t>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--49525]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--49527]</t>
   </si>
   <si>
     <t xml:space="preserve">[:perustiedot :rakennustunnus]</t>
@@ -83,34 +83,34 @@
     <t xml:space="preserve">[:perustiedot :alakayttotarkoitus-sv]</t>
   </si>
   <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--75420]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--75422]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--75424]</t>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--49529]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--49531]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--49533]</t>
   </si>
   <si>
     <t xml:space="preserve">Byggnadsbeteckning:</t>
   </si>
   <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--75426]</t>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--49535]</t>
   </si>
   <si>
     <t xml:space="preserve">Byggnaden färdigställd år:</t>
   </si>
   <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--75428]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--75430]</t>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--49537]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--49539]</t>
   </si>
   <si>
     <t xml:space="preserve">Byggnadens användningskategori:</t>
   </si>
   <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--75432]</t>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--49541]</t>
   </si>
   <si>
     <t xml:space="preserve">Certifikatnummer:</t>
@@ -131,10 +131,10 @@
     <t xml:space="preserve">               Energiprestandaklass</t>
   </si>
   <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--75435]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--75438]</t>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--49544]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--49547]</t>
   </si>
   <si>
     <t xml:space="preserve">Byggnadens beräknade totala energiförbrukning (E-tal)</t>
@@ -359,7 +359,7 @@
     <t xml:space="preserve">Muut sairaalat</t>
   </si>
   <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--64377]</t>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--49551]</t>
   </si>
   <si>
     <t xml:space="preserve">SAMMANDRAG ÖVER BYGGNADENS ENERGIPRESTANDA</t>
@@ -623,34 +623,34 @@
     <t xml:space="preserve">[:tulokset :e-luokka-rajat :kayttotarkoitus :label-sv]</t>
   </si>
   <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--64379]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--64381]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--64384]</t>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--49553]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--49555]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--49558]</t>
   </si>
   <si>
     <t xml:space="preserve">ÅTGÄRDER SOM FÖRBÄTTRAR ENERGIPRESTANDAN</t>
   </si>
   <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--64387]</t>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--49561]</t>
   </si>
   <si>
     <t xml:space="preserve">De viktigaste rekommendationerna för att förbättra byggnadens energiprestanda</t>
   </si>
   <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--64390]</t>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--49564]</t>
   </si>
   <si>
     <t xml:space="preserve">Denna del gäller inte nybyggnader</t>
   </si>
   <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--64393]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--64396]</t>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--49567]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--49570]</t>
   </si>
   <si>
     <t xml:space="preserve">[:tulokset :e-luokka]</t>
@@ -1368,40 +1368,37 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">[:lahtotiedot :lammitys :label-fi]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[:lahtotiedot :lammitys :label-sv]</t>
-  </si>
-  <si>
     <t xml:space="preserve">Antal</t>
   </si>
   <si>
     <t xml:space="preserve">Produktion</t>
   </si>
   <si>
+    <t xml:space="preserve">st.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kWh</t>
+  </si>
+  <si>
     <t xml:space="preserve">[:lahtotiedot :lammitys :tilat-ja-iv :tuoton-hyotysuhde]</t>
   </si>
   <si>
-    <t xml:space="preserve">st.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kWh</t>
+    <t xml:space="preserve">Värmelagrande eldstad</t>
   </si>
   <si>
     <t xml:space="preserve">[:lahtotiedot :lammitys :tilat-ja-iv :jaon-hyotysuhde]</t>
   </si>
   <si>
+    <t xml:space="preserve">Luftvärmepump</t>
+  </si>
+  <si>
     <t xml:space="preserve">[:lahtotiedot :lammitys :tilat-ja-iv :lampokerroin]</t>
   </si>
   <si>
-    <t xml:space="preserve">Värmelagrande eldstad</t>
-  </si>
-  <si>
     <t xml:space="preserve">[:lahtotiedot :lammitys :tilat-ja-iv :apulaitteet]</t>
   </si>
   <si>
-    <t xml:space="preserve">Luftvärmepump</t>
+    <t xml:space="preserve">Kylsystem</t>
   </si>
   <si>
     <t xml:space="preserve">[:lahtotiedot :lammitys :lammin-kayttovesi :tuoton-hyotysuhde]</t>
@@ -1410,7 +1407,7 @@
     <t xml:space="preserve">[:lahtotiedot :lammitys :lammin-kayttovesi :jaon-hyotysuhde]</t>
   </si>
   <si>
-    <t xml:space="preserve">Kylsystem</t>
+    <t xml:space="preserve">Viktad kylkoefficient för kylningssäsongen</t>
   </si>
   <si>
     <t xml:space="preserve">[:lahtotiedot :lammitys :lammin-kayttovesi :lampokerroin]</t>
@@ -1419,9 +1416,6 @@
     <t xml:space="preserve">[:lahtotiedot :lammitys :lammin-kayttovesi :apulaitteet]</t>
   </si>
   <si>
-    <t xml:space="preserve">Viktad kylkoefficient för kylningssäsongen</t>
-  </si>
-  <si>
     <t xml:space="preserve">[:lahtotiedot :lammitys :takka :maara]</t>
   </si>
   <si>
@@ -1431,28 +1425,22 @@
     <t xml:space="preserve">[:lahtotiedot :lammitys :ilmalampopumppu :maara]</t>
   </si>
   <si>
+    <t xml:space="preserve">Varmt tappvatten</t>
+  </si>
+  <si>
     <t xml:space="preserve">[:lahtotiedot :lammitys :ilmalampopumppu :tuotto]</t>
   </si>
   <si>
     <t xml:space="preserve">[:lahtotiedot :jaahdytysjarjestelma :jaahdytyskauden-painotettu-kylmakerroin]</t>
   </si>
   <si>
-    <t xml:space="preserve">Varmt tappvatten</t>
+    <t xml:space="preserve">Specifik förbrukn.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nettobehov av uppvärmningsenergi</t>
   </si>
   <si>
     <t xml:space="preserve">[:lahtotiedot :lkvn-kaytto :ominaiskulutus]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[:lahtotiedot :lkvn-kaytto :lammitysenergian-nettotarve]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Specifik förbrukn.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nettobehov av uppvärmningsenergi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--61257]</t>
   </si>
   <si>
     <r>
@@ -1509,25 +1497,25 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--61259]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--61261]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--61263]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--61265]</t>
+    <t xml:space="preserve">[:lahtotiedot :lkvn-kaytto :lammitysenergian-nettotarve]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--49573]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--49575]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--49577]</t>
   </si>
   <si>
     <t xml:space="preserve">Interna värmelaster enligt användningsgrad</t>
   </si>
   <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--61267]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--61269]</t>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--49579]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--49581]</t>
   </si>
   <si>
     <t xml:space="preserve">Användningsgrad</t>
@@ -1542,7 +1530,7 @@
     <t xml:space="preserve">Belysning</t>
   </si>
   <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--61271]</t>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--49583]</t>
   </si>
   <si>
     <r>
@@ -1568,16 +1556,22 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--61273]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--61275]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--61277]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--61279]</t>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--49585]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--49587]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--49589]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--49591]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--49593]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--49595]</t>
   </si>
   <si>
     <t xml:space="preserve">BERÄKNING AV E-TAL, RESULTAT</t>
@@ -1794,9 +1788,6 @@
     <t xml:space="preserve">[:tulokset :kaytettavat-energiamuodot :kertoimella-summa]</t>
   </si>
   <si>
-    <t xml:space="preserve">[:tulokset :kaytettavat-energiamuodot :nettoala-kertoimella-summa]</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -2175,13 +2166,7 @@
     <t xml:space="preserve">[:tulokset :laskentatyokalu]</t>
   </si>
   <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--61281]</t>
-  </si>
-  <si>
     <t xml:space="preserve">FAKTISK ENERGIFÖRBRUKNING</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--61283]</t>
   </si>
   <si>
     <t xml:space="preserve">De mängder köpt energi som står till förfogande anges i oförändrad form utan korrigering med hjälp av graddagstalet</t>
@@ -2985,12 +2970,12 @@
     <t xml:space="preserve">[:tulokset :kuukausierittely 0 :tuotto :aurinkolampo]</t>
   </si>
   <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 0 :tuotto :lampopumppu]</t>
+  </si>
+  <si>
     <t xml:space="preserve">[:tulokset :kuukausierittely 0 :tuotto :muulampo]</t>
   </si>
   <si>
-    <t xml:space="preserve">[:tulokset :kuukausierittely 0 :tuotto :lampopumppu]</t>
-  </si>
-  <si>
     <t xml:space="preserve">[:tulokset :kuukausierittely 0 :kulutus :sahko]</t>
   </si>
   <si>
@@ -3015,12 +3000,12 @@
     <t xml:space="preserve">[:tulokset :kuukausierittely 1 :tuotto :aurinkolampo]</t>
   </si>
   <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 1 :tuotto :lampopumppu]</t>
+  </si>
+  <si>
     <t xml:space="preserve">[:tulokset :kuukausierittely 1 :tuotto :muulampo]</t>
   </si>
   <si>
-    <t xml:space="preserve">[:tulokset :kuukausierittely 1 :tuotto :lampopumppu]</t>
-  </si>
-  <si>
     <t xml:space="preserve">[:tulokset :kuukausierittely 1 :kulutus :sahko]</t>
   </si>
   <si>
@@ -3045,12 +3030,12 @@
     <t xml:space="preserve">[:tulokset :kuukausierittely 2 :tuotto :aurinkolampo]</t>
   </si>
   <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 2 :tuotto :lampopumppu]</t>
+  </si>
+  <si>
     <t xml:space="preserve">[:tulokset :kuukausierittely 2 :tuotto :muulampo]</t>
   </si>
   <si>
-    <t xml:space="preserve">[:tulokset :kuukausierittely 2 :tuotto :lampopumppu]</t>
-  </si>
-  <si>
     <t xml:space="preserve">[:tulokset :kuukausierittely 2 :kulutus :sahko]</t>
   </si>
   <si>
@@ -3075,12 +3060,12 @@
     <t xml:space="preserve">[:tulokset :kuukausierittely 3 :tuotto :aurinkolampo]</t>
   </si>
   <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 3 :tuotto :lampopumppu]</t>
+  </si>
+  <si>
     <t xml:space="preserve">[:tulokset :kuukausierittely 3 :tuotto :muulampo]</t>
   </si>
   <si>
-    <t xml:space="preserve">[:tulokset :kuukausierittely 3 :tuotto :lampopumppu]</t>
-  </si>
-  <si>
     <t xml:space="preserve">[:tulokset :kuukausierittely 3 :kulutus :sahko]</t>
   </si>
   <si>
@@ -3105,12 +3090,12 @@
     <t xml:space="preserve">[:tulokset :kuukausierittely 4 :tuotto :aurinkolampo]</t>
   </si>
   <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 4 :tuotto :lampopumppu]</t>
+  </si>
+  <si>
     <t xml:space="preserve">[:tulokset :kuukausierittely 4 :tuotto :muulampo]</t>
   </si>
   <si>
-    <t xml:space="preserve">[:tulokset :kuukausierittely 4 :tuotto :lampopumppu]</t>
-  </si>
-  <si>
     <t xml:space="preserve">[:tulokset :kuukausierittely 4 :kulutus :sahko]</t>
   </si>
   <si>
@@ -3135,12 +3120,12 @@
     <t xml:space="preserve">[:tulokset :kuukausierittely 5 :tuotto :aurinkolampo]</t>
   </si>
   <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 5 :tuotto :lampopumppu]</t>
+  </si>
+  <si>
     <t xml:space="preserve">[:tulokset :kuukausierittely 5 :tuotto :muulampo]</t>
   </si>
   <si>
-    <t xml:space="preserve">[:tulokset :kuukausierittely 5 :tuotto :lampopumppu]</t>
-  </si>
-  <si>
     <t xml:space="preserve">[:tulokset :kuukausierittely 5 :kulutus :sahko]</t>
   </si>
   <si>
@@ -3165,12 +3150,12 @@
     <t xml:space="preserve">[:tulokset :kuukausierittely 6 :tuotto :aurinkolampo]</t>
   </si>
   <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 6 :tuotto :lampopumppu]</t>
+  </si>
+  <si>
     <t xml:space="preserve">[:tulokset :kuukausierittely 6 :tuotto :muulampo]</t>
   </si>
   <si>
-    <t xml:space="preserve">[:tulokset :kuukausierittely 6 :tuotto :lampopumppu]</t>
-  </si>
-  <si>
     <t xml:space="preserve">[:tulokset :kuukausierittely 6 :kulutus :sahko]</t>
   </si>
   <si>
@@ -3195,12 +3180,12 @@
     <t xml:space="preserve">[:tulokset :kuukausierittely 7 :tuotto :aurinkolampo]</t>
   </si>
   <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 7 :tuotto :lampopumppu]</t>
+  </si>
+  <si>
     <t xml:space="preserve">[:tulokset :kuukausierittely 7 :tuotto :muulampo]</t>
   </si>
   <si>
-    <t xml:space="preserve">[:tulokset :kuukausierittely 7 :tuotto :lampopumppu]</t>
-  </si>
-  <si>
     <t xml:space="preserve">[:tulokset :kuukausierittely 7 :kulutus :sahko]</t>
   </si>
   <si>
@@ -3225,12 +3210,12 @@
     <t xml:space="preserve">[:tulokset :kuukausierittely 8 :tuotto :aurinkolampo]</t>
   </si>
   <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 8 :tuotto :lampopumppu]</t>
+  </si>
+  <si>
     <t xml:space="preserve">[:tulokset :kuukausierittely 8 :tuotto :muulampo]</t>
   </si>
   <si>
-    <t xml:space="preserve">[:tulokset :kuukausierittely 8 :tuotto :lampopumppu]</t>
-  </si>
-  <si>
     <t xml:space="preserve">[:tulokset :kuukausierittely 8 :kulutus :sahko]</t>
   </si>
   <si>
@@ -3255,12 +3240,12 @@
     <t xml:space="preserve">[:tulokset :kuukausierittely 9 :tuotto :aurinkolampo]</t>
   </si>
   <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 9 :tuotto :lampopumppu]</t>
+  </si>
+  <si>
     <t xml:space="preserve">[:tulokset :kuukausierittely 9 :tuotto :muulampo]</t>
   </si>
   <si>
-    <t xml:space="preserve">[:tulokset :kuukausierittely 9 :tuotto :lampopumppu]</t>
-  </si>
-  <si>
     <t xml:space="preserve">[:tulokset :kuukausierittely 9 :kulutus :sahko]</t>
   </si>
   <si>
@@ -3285,12 +3270,12 @@
     <t xml:space="preserve">[:tulokset :kuukausierittely 10 :tuotto :aurinkolampo]</t>
   </si>
   <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 10 :tuotto :lampopumppu]</t>
+  </si>
+  <si>
     <t xml:space="preserve">[:tulokset :kuukausierittely 10 :tuotto :muulampo]</t>
   </si>
   <si>
-    <t xml:space="preserve">[:tulokset :kuukausierittely 10 :tuotto :lampopumppu]</t>
-  </si>
-  <si>
     <t xml:space="preserve">[:tulokset :kuukausierittely 10 :kulutus :sahko]</t>
   </si>
   <si>
@@ -3315,12 +3300,12 @@
     <t xml:space="preserve">[:tulokset :kuukausierittely 11 :tuotto :aurinkolampo]</t>
   </si>
   <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely 11 :tuotto :lampopumppu]</t>
+  </si>
+  <si>
     <t xml:space="preserve">[:tulokset :kuukausierittely 11 :tuotto :muulampo]</t>
   </si>
   <si>
-    <t xml:space="preserve">[:tulokset :kuukausierittely 11 :tuotto :lampopumppu]</t>
-  </si>
-  <si>
     <t xml:space="preserve">[:tulokset :kuukausierittely 11 :kulutus :sahko]</t>
   </si>
   <si>
@@ -3333,34 +3318,34 @@
     <t xml:space="preserve">[:tulokset :kuukausierittely 11 :hyoty :lampo]</t>
   </si>
   <si>
-    <t xml:space="preserve">[:tulokset :kuukausierittely 12 :tuotto :aurinkosahko]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[:tulokset :kuukausierittely 12 :tuotto :tuulisahko]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[:tulokset :kuukausierittely 12 :tuotto :muusahko]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[:tulokset :kuukausierittely 12 :tuotto :aurinkolampo]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[:tulokset :kuukausierittely 12 :tuotto :muulampo]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[:tulokset :kuukausierittely 12 :tuotto :lampopumppu]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[:tulokset :kuukausierittely 12 :kulutus :sahko]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[:tulokset :kuukausierittely 12 :kulutus :lampo]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[:tulokset :kuukausierittely 12 :hyoty :sahko]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[:tulokset :kuukausierittely 12 :hyoty :lampo]</t>
+    <t xml:space="preserve">[:tulokset :kuukausierittely-summat :tuotto :aurinkosahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely-summat :tuotto :tuulisahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely-summat :tuotto :muusahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely-summat :tuotto :aurinkolampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely-summat :tuotto :lampopumppu]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely-summat :tuotto :muulampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely-summat :kulutus :sahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely-summat :kulutus :lampo]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely-summat :hyoty :sahko]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:tulokset :kuukausierittely-summat :hyoty :lampo]</t>
   </si>
 </sst>
 </file>
@@ -4563,15 +4548,15 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="7" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="25" fillId="7" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="25" fillId="8" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="25" fillId="8" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="9" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="15" fillId="9" borderId="17" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="1" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5428,7 +5413,7 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="461">
+  <dxfs count="456">
     <dxf>
       <font>
         <color rgb="FFFFFFFF"/>
@@ -5866,41 +5851,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF209740"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF99"/>
         </patternFill>
       </fill>
     </dxf>
@@ -8810,9 +8760,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>243000</xdr:colOff>
+      <xdr:colOff>242280</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>256680</xdr:rowOff>
+      <xdr:rowOff>255960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8826,7 +8776,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="4199040"/>
-          <a:ext cx="752760" cy="209160"/>
+          <a:ext cx="752040" cy="208440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8847,9 +8797,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>142920</xdr:colOff>
+      <xdr:colOff>142200</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>256680</xdr:rowOff>
+      <xdr:rowOff>255960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8863,7 +8813,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="4513320"/>
-          <a:ext cx="1095840" cy="209160"/>
+          <a:ext cx="1095120" cy="208440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8884,9 +8834,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>16200</xdr:colOff>
+      <xdr:colOff>15480</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>257760</xdr:rowOff>
+      <xdr:rowOff>257040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8900,7 +8850,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="4828680"/>
-          <a:ext cx="1402920" cy="209160"/>
+          <a:ext cx="1402200" cy="208440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8921,9 +8871,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>340200</xdr:colOff>
+      <xdr:colOff>339480</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>257760</xdr:rowOff>
+      <xdr:rowOff>257040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8937,7 +8887,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="5142960"/>
-          <a:ext cx="1726920" cy="209160"/>
+          <a:ext cx="1726200" cy="208440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8958,9 +8908,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>213480</xdr:colOff>
+      <xdr:colOff>212760</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>270720</xdr:rowOff>
+      <xdr:rowOff>270000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8974,7 +8924,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="5457240"/>
-          <a:ext cx="2034000" cy="222120"/>
+          <a:ext cx="2033280" cy="221400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8995,9 +8945,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>156600</xdr:colOff>
+      <xdr:colOff>155880</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>257760</xdr:rowOff>
+      <xdr:rowOff>257040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9011,7 +8961,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="5771520"/>
-          <a:ext cx="2378880" cy="209160"/>
+          <a:ext cx="2378160" cy="208440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9032,9 +8982,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>96840</xdr:colOff>
+      <xdr:colOff>96120</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>256680</xdr:rowOff>
+      <xdr:rowOff>255960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9048,7 +8998,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="6085080"/>
-          <a:ext cx="2692080" cy="209160"/>
+          <a:ext cx="2691360" cy="208440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9448,9 +9398,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>313200</xdr:colOff>
+      <xdr:colOff>312480</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>74160</xdr:rowOff>
+      <xdr:rowOff>73440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9460,7 +9410,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1994400" y="149040"/>
-          <a:ext cx="6995160" cy="10058400"/>
+          <a:ext cx="6994440" cy="10057680"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -9545,10 +9495,10 @@
       <xdr:rowOff>128160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>1080</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>322920</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>75240</xdr:rowOff>
+      <xdr:rowOff>74520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9558,7 +9508,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1987560" y="10344960"/>
-          <a:ext cx="7012440" cy="262080"/>
+          <a:ext cx="7011720" cy="261360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9612,9 +9562,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>429480</xdr:colOff>
+      <xdr:colOff>428760</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>52560</xdr:rowOff>
+      <xdr:rowOff>51840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9624,7 +9574,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5525280" y="4883760"/>
-          <a:ext cx="791280" cy="263160"/>
+          <a:ext cx="790560" cy="262440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9676,9 +9626,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>428400</xdr:colOff>
+      <xdr:colOff>427680</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>192240</xdr:rowOff>
+      <xdr:rowOff>191520</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9688,7 +9638,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5524200" y="5023440"/>
-          <a:ext cx="791280" cy="263160"/>
+          <a:ext cx="790560" cy="262440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9742,7 +9692,7 @@
   <dimension ref="A1:AK262"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
+      <selection pane="topLeft" activeCell="Q10" activeCellId="0" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10139,7 +10089,7 @@
       <c r="H10" s="14"/>
       <c r="I10" s="16" t="str">
         <f aca="false">A6</f>
-        <v>#function[solita.etp.service.energiatodistus-pdf/fn--75418]</v>
+        <v>#function[solita.etp.service.energiatodistus-pdf/fn--49527]</v>
       </c>
       <c r="J10" s="16"/>
       <c r="K10" s="16"/>
@@ -11587,7 +11537,7 @@
     <row r="48" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C48" s="79" t="str">
         <f aca="false">A22</f>
-        <v>#function[solita.etp.service.energiatodistus-pdf/fn--75435]</v>
+        <v>#function[solita.etp.service.energiatodistus-pdf/fn--49544]</v>
       </c>
       <c r="D48" s="79"/>
       <c r="E48" s="79"/>
@@ -11599,7 +11549,7 @@
       <c r="K48" s="74"/>
       <c r="L48" s="80" t="str">
         <f aca="false">A23</f>
-        <v>#function[solita.etp.service.energiatodistus-pdf/fn--75438]</v>
+        <v>#function[solita.etp.service.energiatodistus-pdf/fn--49547]</v>
       </c>
       <c r="M48" s="80"/>
       <c r="N48" s="80"/>
@@ -19556,7 +19506,7 @@
   </sheetPr>
   <dimension ref="A1:AC82"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="M43" activeCellId="0" sqref="M43"/>
     </sheetView>
   </sheetViews>
@@ -19694,7 +19644,7 @@
       <c r="F5" s="14"/>
       <c r="G5" s="99" t="str">
         <f aca="false">A2</f>
-        <v>#function[solita.etp.service.energiatodistus-pdf/fn--64377]</v>
+        <v>#function[solita.etp.service.energiatodistus-pdf/fn--49551]</v>
       </c>
       <c r="H5" s="29"/>
       <c r="I5" s="14"/>
@@ -20576,15 +20526,15 @@
       <c r="F29" s="14"/>
       <c r="H29" s="132" t="str">
         <f aca="false">A39</f>
-        <v>#function[solita.etp.service.energiatodistus-pdf/fn--64379]</v>
+        <v>#function[solita.etp.service.energiatodistus-pdf/fn--49553]</v>
       </c>
       <c r="I29" s="133" t="str">
         <f aca="false">A40</f>
-        <v>#function[solita.etp.service.energiatodistus-pdf/fn--64381]</v>
+        <v>#function[solita.etp.service.energiatodistus-pdf/fn--49555]</v>
       </c>
       <c r="J29" s="134" t="str">
         <f aca="false">A41</f>
-        <v>#function[solita.etp.service.energiatodistus-pdf/fn--64384]</v>
+        <v>#function[solita.etp.service.energiatodistus-pdf/fn--49558]</v>
       </c>
       <c r="K29" s="130"/>
       <c r="M29" s="0"/>
@@ -20615,15 +20565,15 @@
       <c r="F30" s="14"/>
       <c r="H30" s="135" t="str">
         <f aca="false">A42</f>
-        <v>#function[solita.etp.service.energiatodistus-pdf/fn--64387]</v>
+        <v>#function[solita.etp.service.energiatodistus-pdf/fn--49561]</v>
       </c>
       <c r="I30" s="136" t="str">
         <f aca="false">A43</f>
-        <v>#function[solita.etp.service.energiatodistus-pdf/fn--64390]</v>
+        <v>#function[solita.etp.service.energiatodistus-pdf/fn--49564]</v>
       </c>
       <c r="J30" s="137" t="str">
         <f aca="false">A44</f>
-        <v>#function[solita.etp.service.energiatodistus-pdf/fn--64393]</v>
+        <v>#function[solita.etp.service.energiatodistus-pdf/fn--49567]</v>
       </c>
       <c r="K30" s="130"/>
       <c r="M30" s="0"/>
@@ -20654,7 +20604,7 @@
       <c r="F31" s="14"/>
       <c r="H31" s="138" t="str">
         <f aca="false">A45</f>
-        <v>#function[solita.etp.service.energiatodistus-pdf/fn--64396]</v>
+        <v>#function[solita.etp.service.energiatodistus-pdf/fn--49570]</v>
       </c>
       <c r="I31" s="139"/>
       <c r="J31" s="139"/>
@@ -22339,8 +22289,8 @@
   </sheetPr>
   <dimension ref="A1:N94"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O40" activeCellId="0" sqref="O40"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E53" activeCellId="0" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -23297,23 +23247,26 @@
       </c>
       <c r="E53" s="200" t="str">
         <f aca="false">A65</f>
-        <v>[:lahtotiedot :lammitys :label-sv]</v>
+        <v>[:lahtotiedot :lammitys :lammitysmuoto-label-sv]</v>
       </c>
       <c r="F53" s="200"/>
       <c r="G53" s="200"/>
       <c r="H53" s="200"/>
       <c r="I53" s="176"/>
     </row>
-    <row r="54" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="12.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="159" t="s">
         <v>97</v>
       </c>
       <c r="C54" s="173"/>
       <c r="D54" s="178"/>
-      <c r="E54" s="178"/>
-      <c r="F54" s="178"/>
-      <c r="G54" s="178"/>
-      <c r="H54" s="178"/>
+      <c r="E54" s="200" t="str">
+        <f aca="false">A67</f>
+        <v>[:lahtotiedot :lammitys :lammonjako-label-sv]</v>
+      </c>
+      <c r="F54" s="200"/>
+      <c r="G54" s="200"/>
+      <c r="H54" s="200"/>
       <c r="I54" s="176"/>
     </row>
     <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -23395,19 +23348,19 @@
         <v>269</v>
       </c>
       <c r="E59" s="205" t="str">
-        <f aca="false">A66</f>
+        <f aca="false">A68</f>
         <v>[:lahtotiedot :lammitys :tilat-ja-iv :tuoton-hyotysuhde]</v>
       </c>
       <c r="F59" s="205" t="str">
-        <f aca="false">A67</f>
+        <f aca="false">A69</f>
         <v>[:lahtotiedot :lammitys :tilat-ja-iv :jaon-hyotysuhde]</v>
       </c>
       <c r="G59" s="188" t="str">
-        <f aca="false">A68</f>
+        <f aca="false">A70</f>
         <v>[:lahtotiedot :lammitys :tilat-ja-iv :lampokerroin]</v>
       </c>
       <c r="H59" s="188" t="str">
-        <f aca="false">A69</f>
+        <f aca="false">A71</f>
         <v>[:lahtotiedot :lammitys :tilat-ja-iv :apulaitteet]</v>
       </c>
       <c r="I59" s="176"/>
@@ -23422,19 +23375,19 @@
         <v>271</v>
       </c>
       <c r="E60" s="205" t="str">
-        <f aca="false">A70</f>
+        <f aca="false">A72</f>
         <v>[:lahtotiedot :lammitys :lammin-kayttovesi :tuoton-hyotysuhde]</v>
       </c>
       <c r="F60" s="218" t="str">
-        <f aca="false">A71</f>
+        <f aca="false">A73</f>
         <v>[:lahtotiedot :lammitys :lammin-kayttovesi :jaon-hyotysuhde]</v>
       </c>
       <c r="G60" s="188" t="str">
-        <f aca="false">A72</f>
+        <f aca="false">A74</f>
         <v>[:lahtotiedot :lammitys :lammin-kayttovesi :lampokerroin]</v>
       </c>
       <c r="H60" s="188" t="str">
-        <f aca="false">A73</f>
+        <f aca="false">A75</f>
         <v>[:lahtotiedot :lammitys :lammin-kayttovesi :apulaitteet]</v>
       </c>
       <c r="I60" s="176"/>
@@ -23481,7 +23434,7 @@
     </row>
     <row r="64" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="159" t="s">
-        <v>277</v>
+        <v>89</v>
       </c>
       <c r="C64" s="173"/>
       <c r="D64" s="174"/>
@@ -23493,15 +23446,15 @@
     </row>
     <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="159" t="s">
-        <v>278</v>
+        <v>91</v>
       </c>
       <c r="C65" s="173"/>
       <c r="D65" s="171"/>
       <c r="E65" s="203" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F65" s="181" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G65" s="181"/>
       <c r="H65" s="178"/>
@@ -23509,15 +23462,15 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="159" t="s">
-        <v>281</v>
+        <v>92</v>
       </c>
       <c r="C66" s="173"/>
       <c r="D66" s="171"/>
       <c r="E66" s="184" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F66" s="183" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="G66" s="181"/>
       <c r="H66" s="178"/>
@@ -23525,7 +23478,7 @@
     </row>
     <row r="67" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="159" t="s">
-        <v>284</v>
+        <v>94</v>
       </c>
       <c r="C67" s="173"/>
       <c r="D67" s="171"/>
@@ -23537,18 +23490,18 @@
     </row>
     <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="159" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="C68" s="173"/>
       <c r="D68" s="174" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="E68" s="221" t="str">
-        <f aca="false">A74</f>
+        <f aca="false">A76</f>
         <v>[:lahtotiedot :lammitys :takka :maara]</v>
       </c>
       <c r="F68" s="221" t="str">
-        <f aca="false">A75</f>
+        <f aca="false">A77</f>
         <v>[:lahtotiedot :lammitys :takka :tuotto]</v>
       </c>
       <c r="G68" s="181"/>
@@ -23557,18 +23510,18 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="159" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C69" s="173"/>
       <c r="D69" s="174" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="E69" s="221" t="str">
-        <f aca="false">A76</f>
+        <f aca="false">A78</f>
         <v>[:lahtotiedot :lammitys :ilmalampopumppu :maara]</v>
       </c>
       <c r="F69" s="221" t="str">
-        <f aca="false">A77</f>
+        <f aca="false">A79</f>
         <v>[:lahtotiedot :lammitys :ilmalampopumppu :tuotto]</v>
       </c>
       <c r="G69" s="181"/>
@@ -23577,7 +23530,7 @@
     </row>
     <row r="70" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="159" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C70" s="173"/>
       <c r="D70" s="178"/>
@@ -23589,12 +23542,12 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="159" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B71" s="85"/>
       <c r="C71" s="167"/>
       <c r="D71" s="94" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="E71" s="168"/>
       <c r="F71" s="168"/>
@@ -23604,7 +23557,7 @@
     </row>
     <row r="72" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="159" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="C72" s="173"/>
       <c r="D72" s="178"/>
@@ -23616,12 +23569,12 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="159" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C73" s="173"/>
       <c r="D73" s="171"/>
       <c r="E73" s="222" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="F73" s="223"/>
       <c r="G73" s="223"/>
@@ -23630,7 +23583,7 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="159" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C74" s="173"/>
       <c r="D74" s="171"/>
@@ -23644,7 +23597,7 @@
     </row>
     <row r="75" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="159" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C75" s="173"/>
       <c r="D75" s="171"/>
@@ -23656,14 +23609,14 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="159" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C76" s="173"/>
       <c r="D76" s="174" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="E76" s="188" t="str">
-        <f aca="false">A78</f>
+        <f aca="false">A80</f>
         <v>[:lahtotiedot :jaahdytysjarjestelma :jaahdytyskauden-painotettu-kylmakerroin]</v>
       </c>
       <c r="F76" s="219"/>
@@ -23674,7 +23627,7 @@
     </row>
     <row r="77" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="159" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="C77" s="173"/>
       <c r="D77" s="178"/>
@@ -23686,12 +23639,12 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="159" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B78" s="85"/>
       <c r="C78" s="167"/>
       <c r="D78" s="94" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="E78" s="168"/>
       <c r="F78" s="168"/>
@@ -23701,7 +23654,7 @@
     </row>
     <row r="79" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="159" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C79" s="173"/>
       <c r="D79" s="178"/>
@@ -23713,15 +23666,15 @@
     </row>
     <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="159" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C80" s="173"/>
       <c r="D80" s="178"/>
       <c r="E80" s="181" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F80" s="225" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="G80" s="178"/>
       <c r="H80" s="178"/>
@@ -23729,12 +23682,12 @@
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="159" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C81" s="173"/>
       <c r="D81" s="171"/>
       <c r="E81" s="183" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="F81" s="184" t="s">
         <v>108</v>
@@ -23746,7 +23699,7 @@
     </row>
     <row r="82" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="159" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C82" s="173"/>
       <c r="D82" s="171"/>
@@ -23758,18 +23711,18 @@
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="159" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C83" s="173"/>
       <c r="D83" s="174" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="E83" s="221" t="str">
-        <f aca="false">A79</f>
+        <f aca="false">A81</f>
         <v>[:lahtotiedot :lkvn-kaytto :ominaiskulutus]</v>
       </c>
       <c r="F83" s="221" t="str">
-        <f aca="false">A80</f>
+        <f aca="false">A82</f>
         <v>[:lahtotiedot :lkvn-kaytto :lammitysenergian-nettotarve]</v>
       </c>
       <c r="G83" s="178"/>
@@ -23778,7 +23731,7 @@
     </row>
     <row r="84" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="159" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="C84" s="173"/>
       <c r="D84" s="178"/>
@@ -23790,12 +23743,12 @@
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="159" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B85" s="85"/>
       <c r="C85" s="167"/>
       <c r="D85" s="94" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="E85" s="168"/>
       <c r="F85" s="168"/>
@@ -23805,7 +23758,7 @@
     </row>
     <row r="86" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="159" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C86" s="173"/>
       <c r="D86" s="178"/>
@@ -23817,27 +23770,27 @@
     </row>
     <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="159" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C87" s="173"/>
       <c r="D87" s="171"/>
       <c r="E87" s="203" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F87" s="181" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="G87" s="181" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="H87" s="203" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="I87" s="176"/>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="159" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="C88" s="173"/>
       <c r="D88" s="171"/>
@@ -23845,19 +23798,19 @@
         <v>109</v>
       </c>
       <c r="F88" s="183" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="G88" s="183" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="H88" s="184" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="I88" s="176"/>
     </row>
     <row r="89" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="159" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C89" s="173"/>
       <c r="D89" s="171"/>
@@ -23869,77 +23822,80 @@
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="159" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="C90" s="173"/>
       <c r="D90" s="226"/>
       <c r="E90" s="205" t="str">
-        <f aca="false">A81</f>
-        <v>#function[solita.etp.service.energiatodistus-pdf/fn--61257]</v>
+        <f aca="false">A83</f>
+        <v>#function[solita.etp.service.energiatodistus-pdf/fn--49573]</v>
       </c>
       <c r="F90" s="188" t="str">
-        <f aca="false">A82</f>
-        <v>#function[solita.etp.service.energiatodistus-pdf/fn--61259]</v>
+        <f aca="false">A84</f>
+        <v>#function[solita.etp.service.energiatodistus-pdf/fn--49575]</v>
       </c>
       <c r="G90" s="188" t="str">
-        <f aca="false">A83</f>
-        <v>#function[solita.etp.service.energiatodistus-pdf/fn--61261]</v>
+        <f aca="false">A85</f>
+        <v>#function[solita.etp.service.energiatodistus-pdf/fn--49577]</v>
       </c>
       <c r="H90" s="188" t="str">
-        <f aca="false">A84</f>
-        <v>#function[solita.etp.service.energiatodistus-pdf/fn--61263]</v>
+        <f aca="false">A86</f>
+        <v>#function[solita.etp.service.energiatodistus-pdf/fn--49579]</v>
       </c>
       <c r="I90" s="176"/>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="159" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="C91" s="173"/>
       <c r="D91" s="226"/>
       <c r="E91" s="205" t="str">
-        <f aca="false">A85</f>
-        <v>#function[solita.etp.service.energiatodistus-pdf/fn--61265]</v>
+        <f aca="false">A87</f>
+        <v>#function[solita.etp.service.energiatodistus-pdf/fn--49581]</v>
       </c>
       <c r="F91" s="188" t="str">
-        <f aca="false">A86</f>
-        <v>#function[solita.etp.service.energiatodistus-pdf/fn--61267]</v>
+        <f aca="false">A88</f>
+        <v>#function[solita.etp.service.energiatodistus-pdf/fn--49583]</v>
       </c>
       <c r="G91" s="188" t="str">
-        <f aca="false">A87</f>
-        <v>#function[solita.etp.service.energiatodistus-pdf/fn--61269]</v>
+        <f aca="false">A89</f>
+        <v>#function[solita.etp.service.energiatodistus-pdf/fn--49585]</v>
       </c>
       <c r="H91" s="188" t="str">
-        <f aca="false">A88</f>
-        <v>#function[solita.etp.service.energiatodistus-pdf/fn--61271]</v>
+        <f aca="false">A90</f>
+        <v>#function[solita.etp.service.energiatodistus-pdf/fn--49587]</v>
       </c>
       <c r="I91" s="176"/>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="159" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C92" s="173"/>
       <c r="D92" s="226"/>
       <c r="E92" s="205" t="str">
-        <f aca="false">A89</f>
-        <v>#function[solita.etp.service.energiatodistus-pdf/fn--61273]</v>
+        <f aca="false">A91</f>
+        <v>#function[solita.etp.service.energiatodistus-pdf/fn--49589]</v>
       </c>
       <c r="F92" s="188" t="str">
-        <f aca="false">A90</f>
-        <v>#function[solita.etp.service.energiatodistus-pdf/fn--61275]</v>
+        <f aca="false">A92</f>
+        <v>#function[solita.etp.service.energiatodistus-pdf/fn--49591]</v>
       </c>
       <c r="G92" s="188" t="str">
-        <f aca="false">A91</f>
-        <v>#function[solita.etp.service.energiatodistus-pdf/fn--61277]</v>
+        <f aca="false">A93</f>
+        <v>#function[solita.etp.service.energiatodistus-pdf/fn--49593]</v>
       </c>
       <c r="H92" s="188" t="str">
-        <f aca="false">A92</f>
-        <v>#function[solita.etp.service.energiatodistus-pdf/fn--61279]</v>
+        <f aca="false">A94</f>
+        <v>#function[solita.etp.service.energiatodistus-pdf/fn--49595]</v>
       </c>
       <c r="I92" s="176"/>
     </row>
     <row r="93" customFormat="false" ht="5.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A93" s="159" t="s">
+        <v>320</v>
+      </c>
       <c r="C93" s="227"/>
       <c r="D93" s="228"/>
       <c r="E93" s="228"/>
@@ -23948,14 +23904,19 @@
       <c r="H93" s="228"/>
       <c r="I93" s="229"/>
     </row>
-    <row r="94" customFormat="false" ht="5.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="94" customFormat="false" ht="5.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A94" s="159" t="s">
+        <v>321</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="D2:H2"/>
     <mergeCell ref="E5:H6"/>
     <mergeCell ref="F10:F11"/>
     <mergeCell ref="E39:H39"/>
     <mergeCell ref="E53:H53"/>
+    <mergeCell ref="E54:H54"/>
   </mergeCells>
   <conditionalFormatting sqref="C3:I4 C2:D2 C8:I9 C13:C21 I13:I21 C22:I22 C94:I95 I5:I7 E10 C5:D7 C10:D11 F7 C12:I12 H10:I11 C102:I1048576 C96:G101 I96:I101 I2:IG2 E41:H41 F42:G42">
     <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="61">
@@ -24007,7 +23968,7 @@
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C24:I24 C25:C35 C55:C64 E64:I64 I55:I63 C71:I72 C73:C76 H73:I76 E74:E75 C77:I79 C84:I86 C81:C83 C87:C92 I87:I92 C93:I93 I25:I35 C41:C47 I41:I47 G46:H47 C36:I36 C50:I50 C80:D80 G80:I83 C54:I54 C53 I53 C40:I40 F87:H87 G88:H89 E87:E89 C23 E23:I23 C37 E37:I37 C52:I52 C51 E51:I51">
+  <conditionalFormatting sqref="C24:I24 C25:C35 C55:C64 E64:I64 I55:I63 C71:I72 C73:C76 H73:I76 E74:E75 C77:I79 C84:I86 C81:C83 C87:C92 I87:I92 C93:I93 I25:I35 C41:C47 I41:I47 G46:H47 C36:I36 C50:I50 C80:D80 G80:I83 F54:I54 C53 I53 C40:I40 F87:H87 G88:H89 E87:E89 C23 E23:I23 C37 E37:I37 C52:I52 C51 E51:I51 C54:D54">
     <cfRule type="cellIs" priority="12" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="71">
       <formula>"*"</formula>
     </cfRule>
@@ -24247,473 +24208,443 @@
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="E80 E69">
+    <cfRule type="cellIs" priority="60" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="119">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F80 F69">
+    <cfRule type="cellIs" priority="61" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="120">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E53:E54">
+    <cfRule type="cellIs" priority="62" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="121">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D53">
+    <cfRule type="cellIs" priority="63" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="122">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C38:I38 C39 I39">
+    <cfRule type="cellIs" priority="64" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="123">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39">
+    <cfRule type="cellIs" priority="65" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="124">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28 D39">
+    <cfRule type="cellIs" priority="66" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="125">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28">
+    <cfRule type="cellIs" priority="67" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="126">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29:E35">
+    <cfRule type="cellIs" priority="68" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="127">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29:E35">
+    <cfRule type="cellIs" priority="69" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="128">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F28">
+    <cfRule type="cellIs" priority="70" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="129">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F28">
+    <cfRule type="cellIs" priority="71" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="130">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F29:F35">
+    <cfRule type="cellIs" priority="72" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="131">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F29:F35">
+    <cfRule type="cellIs" priority="73" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="132">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G28">
+    <cfRule type="cellIs" priority="74" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="133">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G28">
+    <cfRule type="cellIs" priority="75" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="134">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G29:G35">
+    <cfRule type="cellIs" priority="76" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="135">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G29:G35">
+    <cfRule type="cellIs" priority="77" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="136">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E45:F45 E46:E47">
+    <cfRule type="cellIs" priority="78" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="137">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E45:F45 E46:E47">
+    <cfRule type="cellIs" priority="79" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="138">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F46">
+    <cfRule type="cellIs" priority="80" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="139">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F46">
+    <cfRule type="cellIs" priority="81" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="140">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F47">
+    <cfRule type="cellIs" priority="82" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="141">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F47">
+    <cfRule type="cellIs" priority="83" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="142">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G45">
+    <cfRule type="cellIs" priority="84" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="143">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G45">
+    <cfRule type="cellIs" priority="85" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="144">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H45">
+    <cfRule type="cellIs" priority="86" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="145">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H45">
+    <cfRule type="cellIs" priority="87" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="146">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11 G90:G92">
+    <cfRule type="cellIs" priority="88" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="147">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11 G90:G92">
+    <cfRule type="cellIs" priority="89" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="148">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G21 H90:H92">
+    <cfRule type="cellIs" priority="90" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="149">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G21 H90:H92">
+    <cfRule type="cellIs" priority="91" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="150">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K42">
+    <cfRule type="cellIs" priority="92" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="151">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H16">
+    <cfRule type="cellIs" priority="93" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="152">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G16:G20">
+    <cfRule type="cellIs" priority="94" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="153">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16">
+    <cfRule type="cellIs" priority="95" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="154">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16">
+    <cfRule type="cellIs" priority="96" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="155">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17">
+    <cfRule type="cellIs" priority="97" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="156">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17">
+    <cfRule type="cellIs" priority="98" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="157">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E18">
+    <cfRule type="cellIs" priority="99" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="158">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E18">
+    <cfRule type="cellIs" priority="100" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="159">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E19">
+    <cfRule type="cellIs" priority="101" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="160">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E19">
+    <cfRule type="cellIs" priority="102" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="161">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E20">
+    <cfRule type="cellIs" priority="103" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="162">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E20">
+    <cfRule type="cellIs" priority="104" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="163">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20">
+    <cfRule type="cellIs" priority="105" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="164">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20">
+    <cfRule type="cellIs" priority="106" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="165">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F19">
+    <cfRule type="cellIs" priority="107" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="166">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F19">
+    <cfRule type="cellIs" priority="108" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="167">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F18">
+    <cfRule type="cellIs" priority="109" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="168">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F18">
+    <cfRule type="cellIs" priority="110" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="169">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F16">
+    <cfRule type="cellIs" priority="111" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="170">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F16">
+    <cfRule type="cellIs" priority="112" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="171">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F17">
+    <cfRule type="cellIs" priority="113" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="172">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F17">
+    <cfRule type="cellIs" priority="114" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="173">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G49">
+    <cfRule type="cellIs" priority="115" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="174">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16:D21">
+    <cfRule type="cellIs" priority="116" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="47">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D23 D37 D45:D47 D51">
+    <cfRule type="cellIs" priority="117" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="59">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G25">
+    <cfRule type="cellIs" priority="118" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="52">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D28:D35">
+    <cfRule type="cellIs" priority="119" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="55">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D49">
+    <cfRule type="cellIs" priority="120" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="175">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E90:E92">
+    <cfRule type="cellIs" priority="121" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="176">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E90:E92">
+    <cfRule type="cellIs" priority="122" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="177">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F90:F92">
+    <cfRule type="cellIs" priority="123" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="178">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F90:F92">
+    <cfRule type="cellIs" priority="124" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="179">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E83">
+    <cfRule type="cellIs" priority="125" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="180">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E83">
+    <cfRule type="cellIs" priority="126" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="181">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F83">
+    <cfRule type="cellIs" priority="127" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="182">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F83">
+    <cfRule type="cellIs" priority="128" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="183">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E76">
+    <cfRule type="cellIs" priority="129" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="184">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E76">
+    <cfRule type="cellIs" priority="130" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="185">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E68">
+    <cfRule type="cellIs" priority="131" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="186">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E68">
+    <cfRule type="cellIs" priority="132" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="187">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F68">
+    <cfRule type="cellIs" priority="133" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="188">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F68">
+    <cfRule type="cellIs" priority="134" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="189">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="F60">
-    <cfRule type="cellIs" priority="60" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="119">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E69">
-    <cfRule type="cellIs" priority="61" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="120">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F69">
-    <cfRule type="cellIs" priority="62" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="121">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E80">
-    <cfRule type="cellIs" priority="63" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="122">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F80">
-    <cfRule type="cellIs" priority="64" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="123">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E53">
-    <cfRule type="cellIs" priority="65" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="124">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D53">
-    <cfRule type="cellIs" priority="66" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="125">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C38:I38 C39 I39">
-    <cfRule type="cellIs" priority="67" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="126">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" priority="68" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="127">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E28 D39">
-    <cfRule type="cellIs" priority="69" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="128">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" priority="70" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="129">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E29:E35">
-    <cfRule type="cellIs" priority="71" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="130">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E29:E35">
-    <cfRule type="cellIs" priority="72" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="131">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F28">
-    <cfRule type="cellIs" priority="73" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="132">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F28">
-    <cfRule type="cellIs" priority="74" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="133">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F29:F35">
-    <cfRule type="cellIs" priority="75" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="134">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F29:F35">
-    <cfRule type="cellIs" priority="76" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="135">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G28">
-    <cfRule type="cellIs" priority="77" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="136">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G28">
-    <cfRule type="cellIs" priority="78" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="137">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G29:G35">
-    <cfRule type="cellIs" priority="79" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="138">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G29:G35">
-    <cfRule type="cellIs" priority="80" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="139">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E45:F45 E46:E47">
-    <cfRule type="cellIs" priority="81" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="140">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E45:F45 E46:E47">
-    <cfRule type="cellIs" priority="82" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="141">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F46">
-    <cfRule type="cellIs" priority="83" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="142">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F46">
-    <cfRule type="cellIs" priority="84" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="143">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F47">
-    <cfRule type="cellIs" priority="85" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="144">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F47">
-    <cfRule type="cellIs" priority="86" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="145">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G45">
-    <cfRule type="cellIs" priority="87" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="146">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G45">
-    <cfRule type="cellIs" priority="88" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="147">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H45">
-    <cfRule type="cellIs" priority="89" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="148">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H45">
-    <cfRule type="cellIs" priority="90" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="149">
+    <cfRule type="cellIs" priority="135" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="190">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E59">
-    <cfRule type="cellIs" priority="91" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="150">
+    <cfRule type="cellIs" priority="136" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="191">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E59">
-    <cfRule type="cellIs" priority="92" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="151">
+    <cfRule type="cellIs" priority="137" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="192">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E60">
-    <cfRule type="cellIs" priority="93" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="56">
+    <cfRule type="cellIs" priority="138" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="193">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E60">
-    <cfRule type="cellIs" priority="94" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="152">
+    <cfRule type="cellIs" priority="139" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="194">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F59">
-    <cfRule type="cellIs" priority="95" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="153">
+    <cfRule type="cellIs" priority="140" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="195">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F59">
-    <cfRule type="cellIs" priority="96" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="154">
+    <cfRule type="cellIs" priority="141" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="196">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G59">
-    <cfRule type="cellIs" priority="97" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="155">
+    <cfRule type="cellIs" priority="142" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="197">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G59">
-    <cfRule type="cellIs" priority="98" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="156">
+    <cfRule type="cellIs" priority="143" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="198">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G60">
-    <cfRule type="cellIs" priority="99" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="157">
+    <cfRule type="cellIs" priority="144" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="199">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G60">
-    <cfRule type="cellIs" priority="100" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="158">
+    <cfRule type="cellIs" priority="145" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="200">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H59:H60">
-    <cfRule type="cellIs" priority="101" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="159">
+    <cfRule type="cellIs" priority="146" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="201">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H59:H60">
-    <cfRule type="cellIs" priority="102" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="160">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E68">
-    <cfRule type="cellIs" priority="103" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="161">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E68">
-    <cfRule type="cellIs" priority="104" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="162">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F68">
-    <cfRule type="cellIs" priority="105" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="163">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F68">
-    <cfRule type="cellIs" priority="106" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="164">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E76">
-    <cfRule type="cellIs" priority="107" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="165">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E76">
-    <cfRule type="cellIs" priority="108" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="166">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" priority="109" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="167">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E83">
-    <cfRule type="cellIs" priority="110" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="168">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F83">
-    <cfRule type="cellIs" priority="111" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="169">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F83">
-    <cfRule type="cellIs" priority="112" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="170">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E90:E92">
-    <cfRule type="cellIs" priority="113" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="171">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E90:E92">
-    <cfRule type="cellIs" priority="114" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="172">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F90:F92">
-    <cfRule type="cellIs" priority="115" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="173">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F90:F92">
-    <cfRule type="cellIs" priority="116" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="174">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G90:G92">
-    <cfRule type="cellIs" priority="117" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="175">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G90:G92">
-    <cfRule type="cellIs" priority="118" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="176">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H90:H92">
-    <cfRule type="cellIs" priority="119" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="177">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H90:H92">
-    <cfRule type="cellIs" priority="120" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="178">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E11">
-    <cfRule type="cellIs" priority="121" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="179">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E11">
-    <cfRule type="cellIs" priority="122" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="180">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G21">
-    <cfRule type="cellIs" priority="123" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="181">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G21">
-    <cfRule type="cellIs" priority="124" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="182">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K42">
-    <cfRule type="cellIs" priority="125" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="183">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H16">
-    <cfRule type="cellIs" priority="126" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="184">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G16:G20">
-    <cfRule type="cellIs" priority="127" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="185">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E16">
-    <cfRule type="cellIs" priority="128" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="186">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E16">
-    <cfRule type="cellIs" priority="129" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="187">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E17">
-    <cfRule type="cellIs" priority="130" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="188">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E17">
-    <cfRule type="cellIs" priority="131" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="189">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E18">
-    <cfRule type="cellIs" priority="132" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="190">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E18">
-    <cfRule type="cellIs" priority="133" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="191">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E19">
-    <cfRule type="cellIs" priority="134" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="192">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E19">
-    <cfRule type="cellIs" priority="135" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="193">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E20">
-    <cfRule type="cellIs" priority="136" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="194">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E20">
-    <cfRule type="cellIs" priority="137" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="195">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F20">
-    <cfRule type="cellIs" priority="138" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="196">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F20">
-    <cfRule type="cellIs" priority="139" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="197">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F19">
-    <cfRule type="cellIs" priority="140" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="198">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F19">
-    <cfRule type="cellIs" priority="141" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="199">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F18">
-    <cfRule type="cellIs" priority="142" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="200">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F18">
-    <cfRule type="cellIs" priority="143" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="201">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F16">
-    <cfRule type="cellIs" priority="144" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="202">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F16">
-    <cfRule type="cellIs" priority="145" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="203">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F17">
-    <cfRule type="cellIs" priority="146" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="204">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F17">
-    <cfRule type="cellIs" priority="147" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="205">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G49">
-    <cfRule type="cellIs" priority="148" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="206">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D16:D21">
-    <cfRule type="cellIs" priority="149" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="47">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D23 D37 D45:D47 D51">
-    <cfRule type="cellIs" priority="150" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="59">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G25">
-    <cfRule type="cellIs" priority="151" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="52">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D28:D35">
-    <cfRule type="cellIs" priority="152" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="55">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D49">
-    <cfRule type="cellIs" priority="153" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="207">
+    <cfRule type="cellIs" priority="147" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="202">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -24768,7 +24699,7 @@
       </c>
       <c r="C2" s="232"/>
       <c r="D2" s="164" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E2" s="233"/>
       <c r="F2" s="164"/>
@@ -24878,11 +24809,11 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="159" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C9" s="173"/>
       <c r="D9" s="241" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E9" s="28" t="str">
         <f aca="false">A5</f>
@@ -24909,7 +24840,7 @@
       </c>
       <c r="C10" s="173"/>
       <c r="D10" s="245" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E10" s="246" t="str">
         <f aca="false">A6</f>
@@ -24958,7 +24889,7 @@
       </c>
       <c r="C12" s="167"/>
       <c r="D12" s="94" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E12" s="168"/>
       <c r="F12" s="168"/>
@@ -24978,7 +24909,7 @@
     </row>
     <row r="13" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="159" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C13" s="173"/>
       <c r="D13" s="178"/>
@@ -25007,13 +24938,13 @@
         <v>100</v>
       </c>
       <c r="E14" s="181" t="s">
+        <v>328</v>
+      </c>
+      <c r="F14" s="181" t="s">
+        <v>329</v>
+      </c>
+      <c r="G14" s="203" t="s">
         <v>330</v>
-      </c>
-      <c r="F14" s="181" t="s">
-        <v>331</v>
-      </c>
-      <c r="G14" s="203" t="s">
-        <v>332</v>
       </c>
       <c r="H14" s="203"/>
       <c r="I14" s="181"/>
@@ -25035,13 +24966,13 @@
       <c r="C15" s="173"/>
       <c r="D15" s="172"/>
       <c r="E15" s="181" t="s">
+        <v>331</v>
+      </c>
+      <c r="F15" s="181" t="s">
+        <v>332</v>
+      </c>
+      <c r="G15" s="203" t="s">
         <v>333</v>
-      </c>
-      <c r="F15" s="181" t="s">
-        <v>334</v>
-      </c>
-      <c r="G15" s="203" t="s">
-        <v>335</v>
       </c>
       <c r="H15" s="203"/>
       <c r="I15" s="183"/>
@@ -25069,7 +25000,7 @@
         <v>109</v>
       </c>
       <c r="G16" s="250" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="H16" s="251" t="s">
         <v>110</v>
@@ -25088,7 +25019,7 @@
     </row>
     <row r="17" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="159" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C17" s="173"/>
       <c r="D17" s="171"/>
@@ -25218,7 +25149,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="159" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C21" s="173"/>
       <c r="D21" s="252" t="s">
@@ -25258,7 +25189,7 @@
       </c>
       <c r="C22" s="173"/>
       <c r="D22" s="256" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E22" s="221" t="str">
         <f aca="false">A23</f>
@@ -25364,7 +25295,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="159" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C25" s="173"/>
       <c r="D25" s="257" t="str">
@@ -25405,7 +25336,7 @@
       </c>
       <c r="C26" s="173"/>
       <c r="D26" s="258" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E26" s="259" t="str">
         <f aca="false">A42</f>
@@ -25418,7 +25349,7 @@
       </c>
       <c r="H26" s="260" t="str">
         <f aca="false">A44</f>
-        <v>[:tulokset :kaytettavat-energiamuodot :nettoala-kertoimella-summa]</v>
+        <v>[:tulokset :e-luku]</v>
       </c>
       <c r="I26" s="181"/>
       <c r="J26" s="237"/>
@@ -25460,7 +25391,7 @@
       </c>
       <c r="C28" s="167"/>
       <c r="D28" s="94" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E28" s="168"/>
       <c r="F28" s="168"/>
@@ -25503,7 +25434,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="159" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C30" s="173"/>
       <c r="D30" s="171"/>
@@ -25559,7 +25490,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="159" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C32" s="173"/>
       <c r="D32" s="261" t="str">
@@ -25590,7 +25521,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="159" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C33" s="173"/>
       <c r="D33" s="261" t="str">
@@ -25621,7 +25552,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="159" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C34" s="173"/>
       <c r="D34" s="261" t="str">
@@ -25652,7 +25583,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="159" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C35" s="173"/>
       <c r="D35" s="261" t="str">
@@ -25683,7 +25614,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="159" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="C36" s="173"/>
       <c r="D36" s="261" t="str">
@@ -25714,7 +25645,7 @@
     </row>
     <row r="37" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="159" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C37" s="173"/>
       <c r="D37" s="178"/>
@@ -25736,11 +25667,11 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="159" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C38" s="167"/>
       <c r="D38" s="94" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E38" s="168"/>
       <c r="F38" s="168"/>
@@ -25760,7 +25691,7 @@
     </row>
     <row r="39" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="159" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C39" s="173"/>
       <c r="D39" s="178"/>
@@ -25782,19 +25713,19 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="159" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C40" s="173"/>
       <c r="D40" s="171"/>
       <c r="E40" s="171"/>
       <c r="F40" s="203" t="s">
+        <v>352</v>
+      </c>
+      <c r="G40" s="181" t="s">
+        <v>353</v>
+      </c>
+      <c r="H40" s="181" t="s">
         <v>354</v>
-      </c>
-      <c r="G40" s="181" t="s">
-        <v>355</v>
-      </c>
-      <c r="H40" s="181" t="s">
-        <v>356</v>
       </c>
       <c r="I40" s="181"/>
       <c r="J40" s="237"/>
@@ -25810,7 +25741,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="159" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C41" s="173"/>
       <c r="D41" s="171"/>
@@ -25838,7 +25769,7 @@
     </row>
     <row r="42" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="159" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C42" s="173"/>
       <c r="D42" s="171"/>
@@ -25860,7 +25791,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="159" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C43" s="173"/>
       <c r="D43" s="174" t="s">
@@ -25884,11 +25815,11 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="159" t="s">
-        <v>360</v>
+        <v>23</v>
       </c>
       <c r="C44" s="173"/>
       <c r="D44" s="174" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E44" s="174"/>
       <c r="F44" s="253" t="str">
@@ -25916,11 +25847,11 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="159" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C45" s="173"/>
       <c r="D45" s="174" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="E45" s="174"/>
       <c r="F45" s="188" t="str">
@@ -25948,11 +25879,11 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="159" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C46" s="173"/>
       <c r="D46" s="174" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="E46" s="174"/>
       <c r="F46" s="188" t="str">
@@ -25980,11 +25911,11 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="159" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C47" s="173"/>
       <c r="D47" s="174" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="E47" s="174"/>
       <c r="F47" s="188" t="str">
@@ -26011,11 +25942,11 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="159" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C48" s="173"/>
       <c r="D48" s="174" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="E48" s="174"/>
       <c r="F48" s="188" t="str">
@@ -26044,11 +25975,11 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="159" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="C49" s="173"/>
       <c r="D49" s="174" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="E49" s="174"/>
       <c r="F49" s="188" t="str">
@@ -26075,11 +26006,11 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="159" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C50" s="173"/>
       <c r="D50" s="258" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E50" s="258"/>
       <c r="F50" s="266" t="str">
@@ -26108,11 +26039,11 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="159" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C51" s="173"/>
       <c r="D51" s="267" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="E51" s="258"/>
       <c r="F51" s="224"/>
@@ -26132,7 +26063,7 @@
     </row>
     <row r="52" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="159" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C52" s="173"/>
       <c r="D52" s="178"/>
@@ -26154,11 +26085,11 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="159" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="C53" s="167"/>
       <c r="D53" s="94" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="E53" s="168"/>
       <c r="F53" s="168"/>
@@ -26169,7 +26100,7 @@
     </row>
     <row r="54" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="159" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="C54" s="173"/>
       <c r="D54" s="178"/>
@@ -26182,7 +26113,7 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="159" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C55" s="173"/>
       <c r="D55" s="171"/>
@@ -26198,7 +26129,7 @@
     </row>
     <row r="56" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="159" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C56" s="173"/>
       <c r="D56" s="171"/>
@@ -26210,11 +26141,11 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="159" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C57" s="173"/>
       <c r="D57" s="174" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E57" s="174"/>
       <c r="F57" s="221" t="str">
@@ -26231,11 +26162,11 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="159" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C58" s="173"/>
       <c r="D58" s="174" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="E58" s="174"/>
       <c r="F58" s="221" t="str">
@@ -26252,7 +26183,7 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="159" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C59" s="173"/>
       <c r="D59" s="174" t="s">
@@ -26273,11 +26204,11 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="159" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C60" s="173"/>
       <c r="D60" s="174" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E60" s="174"/>
       <c r="F60" s="221" t="str">
@@ -26294,7 +26225,7 @@
     </row>
     <row r="61" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="159" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C61" s="173"/>
       <c r="D61" s="174"/>
@@ -26307,11 +26238,11 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="159" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="C62" s="173"/>
       <c r="D62" s="220" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="E62" s="220"/>
       <c r="F62" s="220"/>
@@ -26322,11 +26253,11 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="159" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="C63" s="173"/>
       <c r="D63" s="220" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="E63" s="220"/>
       <c r="F63" s="220"/>
@@ -26337,7 +26268,7 @@
     </row>
     <row r="64" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="159" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C64" s="173"/>
       <c r="D64" s="174"/>
@@ -26350,11 +26281,11 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="159" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="C65" s="167"/>
       <c r="D65" s="94" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="E65" s="168"/>
       <c r="F65" s="168"/>
@@ -26365,7 +26296,7 @@
     </row>
     <row r="66" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="159" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C66" s="173"/>
       <c r="D66" s="178"/>
@@ -26378,7 +26309,7 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="159" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C67" s="173"/>
       <c r="D67" s="171"/>
@@ -26394,7 +26325,7 @@
     </row>
     <row r="68" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="159" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C68" s="173"/>
       <c r="D68" s="171"/>
@@ -26406,11 +26337,11 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="159" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C69" s="173"/>
       <c r="D69" s="196" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="E69" s="196"/>
       <c r="F69" s="221" t="str">
@@ -26427,11 +26358,11 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="159" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C70" s="173"/>
       <c r="D70" s="196" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="E70" s="196"/>
       <c r="F70" s="221" t="str">
@@ -26448,11 +26379,11 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="159" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C71" s="173"/>
       <c r="D71" s="174" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="E71" s="174"/>
       <c r="F71" s="221" t="str">
@@ -26469,11 +26400,11 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="159" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C72" s="173"/>
       <c r="D72" s="174" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="E72" s="174"/>
       <c r="F72" s="221" t="str">
@@ -26490,11 +26421,11 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="159" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="C73" s="173"/>
       <c r="D73" s="174" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="E73" s="174"/>
       <c r="F73" s="221" t="str">
@@ -26511,7 +26442,7 @@
     </row>
     <row r="74" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="159" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C74" s="173"/>
       <c r="D74" s="174"/>
@@ -26524,11 +26455,11 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="159" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C75" s="167"/>
       <c r="D75" s="94" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="E75" s="168"/>
       <c r="F75" s="168"/>
@@ -26539,7 +26470,7 @@
     </row>
     <row r="76" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="159" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="C76" s="173"/>
       <c r="D76" s="178"/>
@@ -26552,11 +26483,11 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="159" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C77" s="173"/>
       <c r="D77" s="174" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="E77" s="174"/>
       <c r="F77" s="268" t="str">
@@ -26570,7 +26501,7 @@
     </row>
     <row r="78" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="159" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="C78" s="227"/>
       <c r="D78" s="228"/>
@@ -26583,177 +26514,177 @@
     </row>
     <row r="79" customFormat="false" ht="5.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="159" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="159" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="159" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="159" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="159" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="159" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="159" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="159" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="159" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="159" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="159" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="159" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="159" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="159" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="159" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="159" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="159" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="159" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="159" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="159" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="159" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="159" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="159" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="159" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="159" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="159" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="159" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="159" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="159" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="159" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="159" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="159" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="159" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="159" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="159" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
     </row>
   </sheetData>
@@ -26794,485 +26725,485 @@
     <mergeCell ref="F77:H77"/>
   </mergeCells>
   <conditionalFormatting sqref="C2:D2 C11:H13 C14:C26 C27:H29 C38:H39 C52:H54 E64:H64 C75:H76 C77 F2:H2 C40:C51 C55:C64 C67:C74 C79:I1048576 C30:C37 H30:H31 C78:H78 J2 E9 C5:C10 G9:G10 C3:H4 D37:H37">
-    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="208">
+    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="203">
       <formula>"Täytä lähtötietoihin!"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:E5 I4:I7 F8 D8 D10 I9:I10">
-    <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="209">
+    <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="204">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="cellIs" priority="4" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="210">
+    <cfRule type="cellIs" priority="4" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="205">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16:H16 E14:G15 G17:H17">
-    <cfRule type="cellIs" priority="5" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="211">
+    <cfRule type="cellIs" priority="5" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="206">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F40:H40 F42:H42">
-    <cfRule type="cellIs" priority="6" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="212">
+    <cfRule type="cellIs" priority="6" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="207">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F50:H51">
-    <cfRule type="cellIs" priority="7" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="213">
+    <cfRule type="cellIs" priority="7" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="208">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H50:H51">
-    <cfRule type="cellIs" priority="8" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="214">
+    <cfRule type="cellIs" priority="8" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="209">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F50:F51 F50:H50">
-    <cfRule type="cellIs" priority="9" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="215">
+    <cfRule type="cellIs" priority="9" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="210">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G50:G51">
-    <cfRule type="cellIs" priority="10" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="216">
+    <cfRule type="cellIs" priority="10" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="211">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D64">
-    <cfRule type="cellIs" priority="11" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="217">
+    <cfRule type="cellIs" priority="11" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="212">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F31:G31 F30">
-    <cfRule type="cellIs" priority="12" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="218">
+    <cfRule type="cellIs" priority="12" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="213">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H63">
-    <cfRule type="cellIs" priority="13" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="219">
+    <cfRule type="cellIs" priority="13" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="214">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9:F10">
-    <cfRule type="cellIs" priority="14" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="220">
+    <cfRule type="cellIs" priority="14" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="215">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E10">
-    <cfRule type="cellIs" priority="15" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="221">
+    <cfRule type="cellIs" priority="15" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="216">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D25">
-    <cfRule type="expression" priority="16" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="222">
+    <cfRule type="expression" priority="16" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="217">
       <formula>LEFT(D25,1)="*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26">
-    <cfRule type="cellIs" priority="17" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="223">
+    <cfRule type="cellIs" priority="17" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="218">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30 F41:H41 G55 G67">
-    <cfRule type="cellIs" priority="18" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="224">
+    <cfRule type="cellIs" priority="18" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="219">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D50:D51">
-    <cfRule type="cellIs" priority="19" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="225">
+    <cfRule type="cellIs" priority="19" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="220">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43:D49">
-    <cfRule type="cellIs" priority="20" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="226">
+    <cfRule type="cellIs" priority="20" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="221">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G50:G51">
-    <cfRule type="cellIs" priority="21" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="227">
+    <cfRule type="cellIs" priority="21" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="222">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H50:H51">
-    <cfRule type="cellIs" priority="22" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="228">
+    <cfRule type="cellIs" priority="22" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="223">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H50:H51">
-    <cfRule type="cellIs" priority="23" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="229">
+    <cfRule type="cellIs" priority="23" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="224">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G43">
-    <cfRule type="cellIs" priority="24" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="230">
+    <cfRule type="cellIs" priority="24" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="225">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H43">
-    <cfRule type="cellIs" priority="25" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="231">
+    <cfRule type="cellIs" priority="25" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="226">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H61:H62">
-    <cfRule type="cellIs" priority="26" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="232">
+    <cfRule type="cellIs" priority="26" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="227">
       <formula>"Täytä lähtötietoihin!"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F56 G61">
-    <cfRule type="cellIs" priority="27" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="233">
+    <cfRule type="cellIs" priority="27" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="228">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F61">
-    <cfRule type="cellIs" priority="28" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="234">
+    <cfRule type="cellIs" priority="28" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="229">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G56 F55">
-    <cfRule type="cellIs" priority="29" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="235">
+    <cfRule type="cellIs" priority="29" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="230">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F61">
-    <cfRule type="cellIs" priority="30" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="236">
+    <cfRule type="cellIs" priority="30" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="231">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G68">
-    <cfRule type="cellIs" priority="31" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="237">
+    <cfRule type="cellIs" priority="31" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="232">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D57:D61">
-    <cfRule type="cellIs" priority="32" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="238">
+    <cfRule type="cellIs" priority="32" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="233">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D62:D63">
-    <cfRule type="cellIs" priority="33" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="239">
+    <cfRule type="cellIs" priority="33" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="234">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C65:H66 E74:H74">
-    <cfRule type="cellIs" priority="34" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="240">
+    <cfRule type="cellIs" priority="34" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="235">
       <formula>"Täytä lähtötietoihin!"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D74">
-    <cfRule type="cellIs" priority="35" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="241">
+    <cfRule type="cellIs" priority="35" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="236">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F68">
-    <cfRule type="cellIs" priority="36" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="242">
+    <cfRule type="cellIs" priority="36" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="237">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D70:D71 D73">
-    <cfRule type="cellIs" priority="37" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="243">
+    <cfRule type="cellIs" priority="37" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="238">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F77">
-    <cfRule type="cellIs" priority="38" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="244">
+    <cfRule type="cellIs" priority="38" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="239">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F77">
-    <cfRule type="cellIs" priority="39" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="245">
+    <cfRule type="cellIs" priority="39" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="240">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D77">
-    <cfRule type="cellIs" priority="40" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="246">
+    <cfRule type="cellIs" priority="40" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="241">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule type="cellIs" priority="41" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="247">
+    <cfRule type="cellIs" priority="41" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="242">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17">
-    <cfRule type="cellIs" priority="42" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="248">
+    <cfRule type="cellIs" priority="42" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="243">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="cellIs" priority="43" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="249">
+    <cfRule type="cellIs" priority="43" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="244">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F26">
-    <cfRule type="cellIs" priority="44" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="250">
+    <cfRule type="cellIs" priority="44" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="245">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3 J8 J11 J13 J15 J17 J19 J21 J25 J27 J29 J31 J33 J35 J37 J39 J41 J43 J45 J47 J49 J51 J53 J55 J57 J59 J61 J63 J65 J67 J69 J71:J72 J74 J76 J78">
-    <cfRule type="cellIs" priority="45" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="251">
+    <cfRule type="cellIs" priority="45" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="246">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4:J7 J9:J10 J12 J14 J16 J18 J20 J22:J24 J26 J28 J30 J32 J34 J36 J38 J40 J42 J44 J46 J48 J50 J52 J54 J56 J58 J60 J62 J64 J66 J68 J70 J73 J75 J77">
-    <cfRule type="cellIs" priority="46" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="252">
+    <cfRule type="cellIs" priority="46" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="247">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12:I14 I16:I18 I20:I24 I26:I28 I30:I32 I34:I36 I38:I40 I42:I44 I46:I48 I50:I52 I54:I56 I58:I60 I62:I64 I66:I68 I70:I73 I75:I77">
-    <cfRule type="cellIs" priority="47" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="253">
+    <cfRule type="cellIs" priority="47" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="248">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I3 I8 I11 I15 I19 I25 I29 I33 I37 I41 I45 I49 I53 I57 I61 I65 I69 I74 I78">
-    <cfRule type="cellIs" priority="48" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="254">
+    <cfRule type="cellIs" priority="48" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="249">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I2">
-    <cfRule type="cellIs" priority="49" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="255">
+    <cfRule type="cellIs" priority="49" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="250">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32:H36">
-    <cfRule type="cellIs" priority="50" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="256">
+    <cfRule type="cellIs" priority="50" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="251">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32:H36">
-    <cfRule type="cellIs" priority="51" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="257">
+    <cfRule type="cellIs" priority="51" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="252">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H67:H68">
-    <cfRule type="cellIs" priority="52" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="258">
+    <cfRule type="cellIs" priority="52" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="253">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H69:H73">
-    <cfRule type="cellIs" priority="53" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="259">
+    <cfRule type="cellIs" priority="53" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="254">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H56 H58 H60">
-    <cfRule type="cellIs" priority="54" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="260">
+    <cfRule type="cellIs" priority="54" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="255">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H55 H57 H59">
-    <cfRule type="cellIs" priority="55" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="261">
+    <cfRule type="cellIs" priority="55" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="256">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18:F25 H20">
-    <cfRule type="cellIs" priority="56" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="262">
+    <cfRule type="cellIs" priority="56" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="257">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32:G36">
-    <cfRule type="cellIs" priority="57" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="263">
+    <cfRule type="cellIs" priority="57" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="258">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8">
-    <cfRule type="cellIs" priority="58" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="264">
+    <cfRule type="cellIs" priority="58" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="259">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5 E8">
-    <cfRule type="cellIs" priority="59" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="265">
+    <cfRule type="cellIs" priority="59" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="260">
       <formula>"Täytä etusivulle!"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D72">
-    <cfRule type="cellIs" priority="60" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="266">
+    <cfRule type="cellIs" priority="60" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="261">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26">
-    <cfRule type="cellIs" priority="61" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="267">
+    <cfRule type="cellIs" priority="61" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="262">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="cellIs" priority="62" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="268">
+    <cfRule type="cellIs" priority="62" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="263">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="cellIs" priority="63" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="269">
+    <cfRule type="cellIs" priority="63" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="264">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21:G25 G18:G19">
-    <cfRule type="cellIs" priority="64" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="270">
+    <cfRule type="cellIs" priority="64" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="265">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21:H25 H18:H19">
-    <cfRule type="cellIs" priority="65" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="271">
+    <cfRule type="cellIs" priority="65" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="266">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G50:H50">
-    <cfRule type="cellIs" priority="66" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="272">
+    <cfRule type="cellIs" priority="66" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="267">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G57:G60">
-    <cfRule type="cellIs" priority="67" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="273">
+    <cfRule type="cellIs" priority="67" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="268">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G69:G73">
-    <cfRule type="cellIs" priority="68" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="274">
+    <cfRule type="cellIs" priority="68" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="269">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18">
-    <cfRule type="cellIs" priority="69" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="275">
+    <cfRule type="cellIs" priority="69" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="270">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19:E25 G20">
-    <cfRule type="cellIs" priority="70" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="276">
+    <cfRule type="cellIs" priority="70" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="271">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="cellIs" priority="71" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="277">
+    <cfRule type="cellIs" priority="71" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="272">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N22:O24">
-    <cfRule type="cellIs" priority="72" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="278">
+    <cfRule type="cellIs" priority="72" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="273">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F67">
-    <cfRule type="cellIs" priority="73" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="279">
+    <cfRule type="cellIs" priority="73" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="274">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F69">
-    <cfRule type="cellIs" priority="74" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="280">
+    <cfRule type="cellIs" priority="74" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="275">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F70:F73">
-    <cfRule type="cellIs" priority="75" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="281">
+    <cfRule type="cellIs" priority="75" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="276">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F57">
-    <cfRule type="cellIs" priority="76" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="282">
+    <cfRule type="cellIs" priority="76" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="277">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F58:F60">
-    <cfRule type="cellIs" priority="77" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="283">
+    <cfRule type="cellIs" priority="77" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="278">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F45:F49">
-    <cfRule type="cellIs" priority="78" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="284">
+    <cfRule type="cellIs" priority="78" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="279">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G44:G46">
-    <cfRule type="cellIs" priority="79" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="285">
+    <cfRule type="cellIs" priority="79" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="280">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G48">
-    <cfRule type="cellIs" priority="80" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="286">
+    <cfRule type="cellIs" priority="80" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="281">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H48">
-    <cfRule type="cellIs" priority="81" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="287">
+    <cfRule type="cellIs" priority="81" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="282">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F36">
-    <cfRule type="cellIs" priority="82" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="288">
+    <cfRule type="cellIs" priority="82" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="283">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35">
-    <cfRule type="cellIs" priority="83" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="289">
+    <cfRule type="cellIs" priority="83" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="284">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34">
-    <cfRule type="cellIs" priority="84" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="290">
+    <cfRule type="cellIs" priority="84" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="285">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33">
-    <cfRule type="cellIs" priority="85" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="291">
+    <cfRule type="cellIs" priority="85" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="286">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="cellIs" priority="86" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="292">
+    <cfRule type="cellIs" priority="86" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="287">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22:D24">
-    <cfRule type="expression" priority="87" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="146">
+    <cfRule type="expression" priority="87" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="143">
       <formula>LEFT(D22,1)="*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20:D21">
-    <cfRule type="expression" priority="88" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="180">
+    <cfRule type="expression" priority="88" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="148">
       <formula>LEFT(D20,1)="*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44">
-    <cfRule type="cellIs" priority="89" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="293">
+    <cfRule type="cellIs" priority="89" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="288">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H44">
-    <cfRule type="cellIs" priority="90" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="157">
+    <cfRule type="cellIs" priority="90" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="195">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G47:H47 G49:H49">
-    <cfRule type="cellIs" priority="91" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="158">
+    <cfRule type="cellIs" priority="91" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="196">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H45:H46">
-    <cfRule type="cellIs" priority="92" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="162">
+    <cfRule type="cellIs" priority="92" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="200">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:D36">
-    <cfRule type="cellIs" priority="93" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="183">
+    <cfRule type="cellIs" priority="93" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="151">
       <formula>"tyhjä"</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="94" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="184">
+    <cfRule type="cellIs" priority="94" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="152">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:D36">
-    <cfRule type="cellIs" priority="95" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="185">
+    <cfRule type="cellIs" priority="95" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="153">
       <formula>"- Valitse -"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18:D19">
-    <cfRule type="expression" priority="96" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="183">
+    <cfRule type="expression" priority="96" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="151">
       <formula>LEFT(D18,1)="*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D69:D70">
-    <cfRule type="cellIs" priority="97" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="179">
+    <cfRule type="cellIs" priority="97" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="147">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16">
-    <cfRule type="cellIs" priority="98" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="294">
+    <cfRule type="cellIs" priority="98" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="289">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -27324,11 +27255,11 @@
     </row>
     <row r="2" s="270" customFormat="true" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="269" t="s">
-        <v>447</v>
+        <v>164</v>
       </c>
       <c r="C2" s="271"/>
       <c r="D2" s="272" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="E2" s="272"/>
       <c r="F2" s="273"/>
@@ -27340,11 +27271,11 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="90" t="s">
-        <v>449</v>
+        <v>164</v>
       </c>
       <c r="C3" s="97"/>
       <c r="D3" s="23" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="E3" s="275"/>
       <c r="F3" s="14"/>
@@ -27356,7 +27287,7 @@
     </row>
     <row r="4" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="90" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="C4" s="97"/>
       <c r="D4" s="14"/>
@@ -27370,11 +27301,11 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="90" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="C5" s="93"/>
       <c r="D5" s="94" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="E5" s="94"/>
       <c r="F5" s="95"/>
@@ -27386,7 +27317,7 @@
     </row>
     <row r="6" customFormat="false" ht="3.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="90" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="C6" s="97"/>
       <c r="D6" s="14"/>
@@ -27400,7 +27331,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="90" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="C7" s="97"/>
       <c r="D7" s="61" t="s">
@@ -27408,10 +27339,10 @@
       </c>
       <c r="E7" s="99" t="str">
         <f aca="false">A3</f>
-        <v>#function[solita.etp.service.energiatodistus-pdf/fn--61283]</v>
+        <v>[:lahtotiedot :lammitetty-nettoala]</v>
       </c>
       <c r="F7" s="276" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="G7" s="277"/>
       <c r="J7" s="14"/>
@@ -27420,7 +27351,7 @@
     </row>
     <row r="8" customFormat="false" ht="3.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="90" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="C8" s="97"/>
       <c r="D8" s="14"/>
@@ -27433,7 +27364,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="90" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="C9" s="97"/>
       <c r="D9" s="14"/>
@@ -27447,11 +27378,11 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="90" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="C10" s="97"/>
       <c r="D10" s="61" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="E10" s="14"/>
       <c r="F10" s="278"/>
@@ -27467,7 +27398,7 @@
     </row>
     <row r="11" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="90" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="C11" s="97"/>
       <c r="D11" s="14"/>
@@ -27481,11 +27412,11 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="90" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="C12" s="97"/>
       <c r="D12" s="287" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="E12" s="287"/>
       <c r="F12" s="288"/>
@@ -27504,11 +27435,11 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="90" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="C13" s="97"/>
       <c r="D13" s="287" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="E13" s="287"/>
       <c r="F13" s="288"/>
@@ -27527,11 +27458,11 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="90" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="C14" s="97"/>
       <c r="D14" s="279" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="E14" s="287"/>
       <c r="F14" s="288"/>
@@ -27550,11 +27481,11 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="90" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="C15" s="97"/>
       <c r="D15" s="279" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="E15" s="287"/>
       <c r="F15" s="288"/>
@@ -27573,11 +27504,11 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="90" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="C16" s="97"/>
       <c r="D16" s="287" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E16" s="287"/>
       <c r="F16" s="287"/>
@@ -27596,7 +27527,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="90" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="C17" s="97"/>
       <c r="D17" s="294" t="str">
@@ -27620,7 +27551,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="90" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="C18" s="97"/>
       <c r="D18" s="294" t="str">
@@ -27644,7 +27575,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="90" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="C19" s="97"/>
       <c r="D19" s="294" t="str">
@@ -27668,7 +27599,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="90" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="C20" s="97"/>
       <c r="D20" s="294" t="str">
@@ -27692,7 +27623,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="90" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="C21" s="97"/>
       <c r="D21" s="294" t="str">
@@ -27716,7 +27647,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="90" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="C22" s="97"/>
       <c r="D22" s="295"/>
@@ -27734,7 +27665,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="90" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="C23" s="97"/>
       <c r="D23" s="299"/>
@@ -27749,21 +27680,21 @@
     </row>
     <row r="24" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="90" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="C24" s="97"/>
       <c r="D24" s="302" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="E24" s="302"/>
       <c r="F24" s="303" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="G24" s="304" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="H24" s="303" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="I24" s="304" t="s">
         <v>107</v>
@@ -27776,7 +27707,7 @@
     </row>
     <row r="25" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="90" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="C25" s="97"/>
       <c r="D25" s="61"/>
@@ -27791,11 +27722,11 @@
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="90" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="C26" s="97"/>
       <c r="D26" s="287" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="E26" s="287"/>
       <c r="F26" s="291" t="str">
@@ -27803,7 +27734,7 @@
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :kevyt-polttooljy]</v>
       </c>
       <c r="G26" s="308" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="H26" s="281" t="n">
         <v>10</v>
@@ -27821,11 +27752,11 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="90" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="C27" s="97"/>
       <c r="D27" s="287" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="E27" s="287"/>
       <c r="F27" s="291" t="str">
@@ -27833,7 +27764,7 @@
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :pilkkeet-havu-sekapuu]</v>
       </c>
       <c r="G27" s="308" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="H27" s="281" t="n">
         <v>1300</v>
@@ -27851,11 +27782,11 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="90" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="C28" s="97"/>
       <c r="D28" s="287" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="E28" s="287"/>
       <c r="F28" s="291" t="str">
@@ -27863,7 +27794,7 @@
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :pilkkeet-koivu]</v>
       </c>
       <c r="G28" s="308" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="H28" s="281" t="n">
         <v>1700</v>
@@ -27881,11 +27812,11 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="90" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="C29" s="97"/>
       <c r="D29" s="287" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="E29" s="287"/>
       <c r="F29" s="291" t="str">
@@ -27893,7 +27824,7 @@
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :puupelletit]</v>
       </c>
       <c r="G29" s="308" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="H29" s="281" t="n">
         <v>4.7</v>
@@ -27911,7 +27842,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="90" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="C30" s="97"/>
       <c r="D30" s="312" t="str">
@@ -27944,7 +27875,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="90" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="C31" s="97"/>
       <c r="D31" s="312" t="str">
@@ -27977,7 +27908,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="90" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="C32" s="97"/>
       <c r="D32" s="315"/>
@@ -27998,7 +27929,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="90" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="C33" s="97"/>
       <c r="D33" s="315"/>
@@ -28019,7 +27950,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="90" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="C34" s="97"/>
       <c r="D34" s="315"/>
@@ -28040,7 +27971,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="90" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="C35" s="97"/>
       <c r="D35" s="315"/>
@@ -28061,7 +27992,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="90" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C36" s="97"/>
       <c r="D36" s="315"/>
@@ -28082,7 +28013,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="90" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="C37" s="97"/>
       <c r="D37" s="315"/>
@@ -28103,7 +28034,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="90" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="C38" s="97"/>
       <c r="D38" s="315"/>
@@ -28124,7 +28055,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="90" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="C39" s="97"/>
       <c r="D39" s="315"/>
@@ -28145,7 +28076,7 @@
     </row>
     <row r="40" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="90" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="C40" s="97"/>
       <c r="D40" s="299"/>
@@ -28160,11 +28091,11 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="90" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="C41" s="97"/>
       <c r="D41" s="317" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="E41" s="299"/>
       <c r="F41" s="288"/>
@@ -28177,7 +28108,7 @@
     </row>
     <row r="42" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="90" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="C42" s="97"/>
       <c r="D42" s="318"/>
@@ -28192,7 +28123,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="90" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="C43" s="97"/>
       <c r="D43" s="299"/>
@@ -28207,11 +28138,11 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="90" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="C44" s="97"/>
       <c r="D44" s="61" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="E44" s="299"/>
       <c r="F44" s="288"/>
@@ -28224,7 +28155,7 @@
     </row>
     <row r="45" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="90" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="C45" s="97"/>
       <c r="D45" s="61"/>
@@ -28239,7 +28170,7 @@
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="90" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="C46" s="97"/>
       <c r="D46" s="61"/>
@@ -28258,11 +28189,11 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="90" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="C47" s="97"/>
       <c r="D47" s="23" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="E47" s="23"/>
       <c r="F47" s="323"/>
@@ -28281,11 +28212,11 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="90" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="C48" s="97"/>
       <c r="D48" s="23" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="E48" s="23"/>
       <c r="F48" s="323"/>
@@ -28304,11 +28235,11 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="90" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="C49" s="97"/>
       <c r="D49" s="23" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="E49" s="23"/>
       <c r="F49" s="323"/>
@@ -28327,11 +28258,11 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="90" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="C50" s="97"/>
       <c r="D50" s="23" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E50" s="23"/>
       <c r="F50" s="323"/>
@@ -28350,11 +28281,11 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="90" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="C51" s="97"/>
       <c r="D51" s="61" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E51" s="61"/>
       <c r="F51" s="14"/>
@@ -28372,7 +28303,7 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="90" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="C52" s="97"/>
       <c r="D52" s="61"/>
@@ -28386,11 +28317,11 @@
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="90" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="C53" s="97"/>
       <c r="D53" s="143" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="E53" s="143"/>
       <c r="F53" s="143"/>
@@ -28402,7 +28333,7 @@
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="90" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="C54" s="97"/>
       <c r="D54" s="143"/>
@@ -28416,7 +28347,7 @@
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="90" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="C55" s="97"/>
       <c r="D55" s="143"/>
@@ -28430,7 +28361,7 @@
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="90" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="C56" s="97"/>
       <c r="D56" s="143"/>
@@ -28444,7 +28375,7 @@
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="90" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="C57" s="97"/>
       <c r="D57" s="143"/>
@@ -28458,7 +28389,7 @@
     </row>
     <row r="58" customFormat="false" ht="3.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="90" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="C58" s="144"/>
       <c r="D58" s="145"/>
@@ -28473,47 +28404,47 @@
     </row>
     <row r="59" customFormat="false" ht="4.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="90" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="90" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="90" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="90" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="90" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="90" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="90" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="90" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="90" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
     </row>
   </sheetData>
@@ -28537,657 +28468,657 @@
     <mergeCell ref="D53:J57"/>
   </mergeCells>
   <conditionalFormatting sqref="L51:IV52 L12:X27 Z12:IV27 R58:IV59 L58:Q58 Z47:IV50 L47:X50 K5:K9 D10 I10 C60:IV65516 C2:K4 C59:K59 C5:J6 C9:J9 F11:I11 C51:F52 G12 L2:IV6 L35:IV46 C35:C46 F40:F46 H40:H46 C47:E50 C8:E8 G8:J8 L8:IV11 L7:N7 P7:IV7 I26:J45">
-    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="295">
+    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="290">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7 J7">
-    <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="296">
+    <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="291">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G51:H51">
-    <cfRule type="cellIs" priority="4" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="297">
+    <cfRule type="cellIs" priority="4" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="292">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G52:J52">
-    <cfRule type="cellIs" priority="5" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="298">
+    <cfRule type="cellIs" priority="5" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="293">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J10:J11">
-    <cfRule type="cellIs" priority="6" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="299">
+    <cfRule type="cellIs" priority="6" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="294">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C53:E56 C57 K53:IV57">
-    <cfRule type="cellIs" priority="7" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="300">
+    <cfRule type="cellIs" priority="7" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="295">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10:C27">
-    <cfRule type="cellIs" priority="8" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="301">
+    <cfRule type="cellIs" priority="8" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="296">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27:H27">
-    <cfRule type="cellIs" priority="9" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="302">
+    <cfRule type="cellIs" priority="9" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="297">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C58:J58">
-    <cfRule type="cellIs" priority="10" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="303">
+    <cfRule type="cellIs" priority="10" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="298">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L59">
-    <cfRule type="cellIs" priority="11" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="304">
+    <cfRule type="cellIs" priority="11" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="299">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M59:Q59">
-    <cfRule type="cellIs" priority="12" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="305">
+    <cfRule type="cellIs" priority="12" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="300">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y12:Y27 Y47:Y50">
-    <cfRule type="cellIs" priority="13" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="306">
+    <cfRule type="cellIs" priority="13" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="301">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:E28 D35:E43 G35:G46">
-    <cfRule type="expression" priority="14" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="307">
+    <cfRule type="expression" priority="14" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="302">
       <formula>LEFT(D28,1)="*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:E27">
-    <cfRule type="expression" priority="15" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="308">
+    <cfRule type="expression" priority="15" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="303">
       <formula>LEFT(D27,1)="*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L28:X30 Z28:IV30">
-    <cfRule type="cellIs" priority="16" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="309">
+    <cfRule type="cellIs" priority="16" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="304">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28:C30">
-    <cfRule type="cellIs" priority="17" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="310">
+    <cfRule type="cellIs" priority="17" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="305">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29:H29 H28">
-    <cfRule type="cellIs" priority="18" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="311">
+    <cfRule type="cellIs" priority="18" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="306">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y28:Y30">
-    <cfRule type="cellIs" priority="19" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="312">
+    <cfRule type="cellIs" priority="19" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="307">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:E28">
-    <cfRule type="expression" priority="20" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="313">
+    <cfRule type="expression" priority="20" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="308">
       <formula>LEFT(D28,1)="*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29:E31 E44:E46">
-    <cfRule type="expression" priority="21" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="314">
+    <cfRule type="expression" priority="21" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="309">
       <formula>LEFT(D29,1)="*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" priority="22" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="315">
+    <cfRule type="cellIs" priority="22" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="310">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="cellIs" priority="23" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="316">
+    <cfRule type="cellIs" priority="23" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="311">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O7">
-    <cfRule type="cellIs" priority="24" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="317">
+    <cfRule type="cellIs" priority="24" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="312">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="cellIs" priority="25" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="318">
+    <cfRule type="cellIs" priority="25" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="313">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:E12">
-    <cfRule type="cellIs" priority="26" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="319">
+    <cfRule type="cellIs" priority="26" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="314">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13">
-    <cfRule type="cellIs" priority="27" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="320">
+    <cfRule type="cellIs" priority="27" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="315">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13:E13">
-    <cfRule type="cellIs" priority="28" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="321">
+    <cfRule type="cellIs" priority="28" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="316">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26:E26">
-    <cfRule type="cellIs" priority="29" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="322">
+    <cfRule type="cellIs" priority="29" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="317">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14:E15">
-    <cfRule type="cellIs" priority="30" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="323">
+    <cfRule type="cellIs" priority="30" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="318">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26:H26">
-    <cfRule type="cellIs" priority="31" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="324">
+    <cfRule type="cellIs" priority="31" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="319">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:D15">
-    <cfRule type="cellIs" priority="32" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="325">
+    <cfRule type="cellIs" priority="32" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="320">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14:G15">
-    <cfRule type="cellIs" priority="33" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="326">
+    <cfRule type="cellIs" priority="33" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="321">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14:G15">
-    <cfRule type="cellIs" priority="34" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="327">
+    <cfRule type="cellIs" priority="34" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="322">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:E15">
-    <cfRule type="cellIs" priority="35" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="328">
+    <cfRule type="cellIs" priority="35" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="323">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26:H26">
-    <cfRule type="cellIs" priority="36" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="329">
+    <cfRule type="cellIs" priority="36" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="324">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26:E26">
-    <cfRule type="cellIs" priority="37" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="330">
+    <cfRule type="cellIs" priority="37" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="325">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="cellIs" priority="38" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="331">
+    <cfRule type="cellIs" priority="38" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="326">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27">
-    <cfRule type="cellIs" priority="39" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="332">
+    <cfRule type="cellIs" priority="39" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="327">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28">
-    <cfRule type="cellIs" priority="40" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="333">
+    <cfRule type="cellIs" priority="40" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="328">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:E28">
-    <cfRule type="cellIs" priority="41" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="334">
+    <cfRule type="cellIs" priority="41" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="329">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27">
-    <cfRule type="cellIs" priority="42" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="335">
+    <cfRule type="cellIs" priority="42" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="330">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27">
-    <cfRule type="cellIs" priority="43" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="336">
+    <cfRule type="cellIs" priority="43" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="331">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28">
-    <cfRule type="cellIs" priority="44" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="337">
+    <cfRule type="cellIs" priority="44" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="332">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29:E29">
-    <cfRule type="expression" priority="45" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="338">
+    <cfRule type="expression" priority="45" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="333">
       <formula>LEFT(D29,1)="*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="cellIs" priority="46" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="339">
+    <cfRule type="cellIs" priority="46" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="334">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="cellIs" priority="47" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="340">
+    <cfRule type="cellIs" priority="47" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="335">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27:H27">
-    <cfRule type="cellIs" priority="48" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="341">
+    <cfRule type="cellIs" priority="48" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="336">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:E27">
-    <cfRule type="cellIs" priority="49" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="342">
+    <cfRule type="cellIs" priority="49" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="337">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26">
-    <cfRule type="cellIs" priority="50" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="343">
+    <cfRule type="cellIs" priority="50" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="338">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26">
-    <cfRule type="cellIs" priority="51" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="344">
+    <cfRule type="cellIs" priority="51" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="339">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G26:H26">
-    <cfRule type="cellIs" priority="52" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="345">
+    <cfRule type="cellIs" priority="52" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="340">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26:E26">
-    <cfRule type="cellIs" priority="53" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="346">
+    <cfRule type="cellIs" priority="53" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="341">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G27:H27">
-    <cfRule type="cellIs" priority="54" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="347">
+    <cfRule type="cellIs" priority="54" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="342">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:E27">
-    <cfRule type="cellIs" priority="55" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="348">
+    <cfRule type="cellIs" priority="55" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="343">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28">
-    <cfRule type="cellIs" priority="56" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="349">
+    <cfRule type="cellIs" priority="56" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="344">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" priority="57" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="350">
+    <cfRule type="cellIs" priority="57" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="345">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29:H29">
-    <cfRule type="cellIs" priority="58" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="351">
+    <cfRule type="cellIs" priority="58" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="346">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29:E29">
-    <cfRule type="cellIs" priority="59" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="352">
+    <cfRule type="cellIs" priority="59" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="347">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28">
-    <cfRule type="cellIs" priority="60" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="353">
+    <cfRule type="cellIs" priority="60" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="348">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30:G31">
-    <cfRule type="expression" priority="61" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="354">
+    <cfRule type="expression" priority="61" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="349">
       <formula>LEFT(G30,1)="*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28">
-    <cfRule type="cellIs" priority="62" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="355">
+    <cfRule type="cellIs" priority="62" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="350">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28">
-    <cfRule type="cellIs" priority="63" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="356">
+    <cfRule type="cellIs" priority="63" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="351">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28">
-    <cfRule type="cellIs" priority="64" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="357">
+    <cfRule type="cellIs" priority="64" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="352">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28">
-    <cfRule type="cellIs" priority="65" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="358">
+    <cfRule type="cellIs" priority="65" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="353">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z31:IV34 L31:X34">
-    <cfRule type="cellIs" priority="66" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="359">
+    <cfRule type="cellIs" priority="66" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="354">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31:C34">
-    <cfRule type="cellIs" priority="67" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="360">
+    <cfRule type="cellIs" priority="67" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="355">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y31:Y34">
-    <cfRule type="cellIs" priority="68" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="361">
+    <cfRule type="cellIs" priority="68" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="356">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32:E34">
-    <cfRule type="expression" priority="69" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="362">
+    <cfRule type="expression" priority="69" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="357">
       <formula>LEFT(D32,1)="*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32:G34">
-    <cfRule type="expression" priority="70" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="363">
+    <cfRule type="expression" priority="70" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="358">
       <formula>LEFT(G32,1)="*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12">
-    <cfRule type="cellIs" priority="71" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="364">
+    <cfRule type="cellIs" priority="71" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="359">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J12">
-    <cfRule type="cellIs" priority="72" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="365">
+    <cfRule type="cellIs" priority="72" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="360">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J51">
-    <cfRule type="cellIs" priority="73" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="366">
+    <cfRule type="cellIs" priority="73" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="361">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J51">
-    <cfRule type="cellIs" priority="74" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="367">
+    <cfRule type="cellIs" priority="74" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="362">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J13:J15">
-    <cfRule type="cellIs" priority="75" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="368">
+    <cfRule type="cellIs" priority="75" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="363">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J13:J15">
-    <cfRule type="cellIs" priority="76" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="369">
+    <cfRule type="cellIs" priority="76" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="364">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I27">
-    <cfRule type="cellIs" priority="77" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="370">
+    <cfRule type="cellIs" priority="77" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="365">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I28:I29">
-    <cfRule type="cellIs" priority="78" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="371">
+    <cfRule type="cellIs" priority="78" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="366">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I26:I39">
-    <cfRule type="cellIs" priority="79" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="372">
+    <cfRule type="cellIs" priority="79" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="367">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I26:I39">
-    <cfRule type="cellIs" priority="80" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="373">
+    <cfRule type="cellIs" priority="80" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="368">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I27">
-    <cfRule type="cellIs" priority="81" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="374">
+    <cfRule type="cellIs" priority="81" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="369">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I28">
-    <cfRule type="cellIs" priority="82" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="375">
+    <cfRule type="cellIs" priority="82" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="370">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I28">
-    <cfRule type="cellIs" priority="83" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="376">
+    <cfRule type="cellIs" priority="83" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="371">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I26:I39">
-    <cfRule type="cellIs" priority="84" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="377">
+    <cfRule type="cellIs" priority="84" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="372">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I27">
-    <cfRule type="cellIs" priority="85" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="378">
+    <cfRule type="cellIs" priority="85" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="373">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I26:I39">
-    <cfRule type="cellIs" priority="86" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="379">
+    <cfRule type="cellIs" priority="86" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="374">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I27">
-    <cfRule type="cellIs" priority="87" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="380">
+    <cfRule type="cellIs" priority="87" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="375">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I28">
-    <cfRule type="cellIs" priority="88" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="381">
+    <cfRule type="cellIs" priority="88" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="376">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I29">
-    <cfRule type="cellIs" priority="89" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="382">
+    <cfRule type="cellIs" priority="89" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="377">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J47">
-    <cfRule type="cellIs" priority="90" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="383">
+    <cfRule type="cellIs" priority="90" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="378">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J47">
-    <cfRule type="cellIs" priority="91" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="384">
+    <cfRule type="cellIs" priority="91" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="379">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12:G15">
-    <cfRule type="cellIs" priority="92" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="385">
+    <cfRule type="cellIs" priority="92" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="380">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12:G15">
-    <cfRule type="cellIs" priority="93" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="386">
+    <cfRule type="cellIs" priority="93" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="381">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12:G15">
-    <cfRule type="cellIs" priority="94" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="387">
+    <cfRule type="cellIs" priority="94" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="382">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12:G15">
-    <cfRule type="cellIs" priority="95" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="388">
+    <cfRule type="cellIs" priority="95" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="383">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F47:F48">
-    <cfRule type="cellIs" priority="96" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="389">
+    <cfRule type="cellIs" priority="96" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="384">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I51">
-    <cfRule type="cellIs" priority="97" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="390">
+    <cfRule type="cellIs" priority="97" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="385">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F12">
-    <cfRule type="cellIs" priority="98" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="391">
+    <cfRule type="cellIs" priority="98" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="386">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13:F15">
-    <cfRule type="cellIs" priority="99" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="392">
+    <cfRule type="cellIs" priority="99" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="387">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12:H15">
-    <cfRule type="cellIs" priority="100" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="393">
+    <cfRule type="cellIs" priority="100" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="388">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I47 I49:I50">
-    <cfRule type="cellIs" priority="101" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="394">
+    <cfRule type="cellIs" priority="101" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="389">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D23:E23 D17:D22">
-    <cfRule type="expression" priority="102" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="395">
+    <cfRule type="expression" priority="102" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="390">
       <formula>LEFT(D17,1)="*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G23">
-    <cfRule type="expression" priority="103" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="396">
+    <cfRule type="expression" priority="103" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="391">
       <formula>LEFT(G23,1)="*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16:J23">
-    <cfRule type="cellIs" priority="104" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="397">
+    <cfRule type="cellIs" priority="104" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="392">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J16:J23">
-    <cfRule type="cellIs" priority="105" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="398">
+    <cfRule type="cellIs" priority="105" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="393">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23">
-    <cfRule type="cellIs" priority="106" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="399">
+    <cfRule type="cellIs" priority="106" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="394">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23">
-    <cfRule type="cellIs" priority="107" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="400">
+    <cfRule type="cellIs" priority="107" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="395">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23">
-    <cfRule type="cellIs" priority="108" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="401">
+    <cfRule type="cellIs" priority="108" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="396">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23">
-    <cfRule type="cellIs" priority="109" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="402">
+    <cfRule type="cellIs" priority="109" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="397">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23">
-    <cfRule type="cellIs" priority="110" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="403">
+    <cfRule type="cellIs" priority="110" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="398">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23">
-    <cfRule type="cellIs" priority="111" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="404">
+    <cfRule type="cellIs" priority="111" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="399">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23">
-    <cfRule type="cellIs" priority="112" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="405">
+    <cfRule type="cellIs" priority="112" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="400">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23">
-    <cfRule type="cellIs" priority="113" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="406">
+    <cfRule type="cellIs" priority="113" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="401">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23">
-    <cfRule type="cellIs" priority="114" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="407">
+    <cfRule type="cellIs" priority="114" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="402">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I23">
-    <cfRule type="cellIs" priority="115" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="408">
+    <cfRule type="cellIs" priority="115" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="403">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F23">
-    <cfRule type="cellIs" priority="116" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="409">
+    <cfRule type="cellIs" priority="116" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="404">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="cellIs" priority="117" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="410">
+    <cfRule type="cellIs" priority="117" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="405">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24:E25">
-    <cfRule type="cellIs" priority="118" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="411">
+    <cfRule type="cellIs" priority="118" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="406">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F24:F25">
-    <cfRule type="cellIs" priority="119" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="412">
+    <cfRule type="cellIs" priority="119" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="407">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24:H25">
-    <cfRule type="cellIs" priority="120" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="413">
+    <cfRule type="cellIs" priority="120" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="408">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12:I22">
-    <cfRule type="cellIs" priority="121" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="414">
+    <cfRule type="cellIs" priority="121" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="409">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I24:I25">
-    <cfRule type="cellIs" priority="122" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="415">
+    <cfRule type="cellIs" priority="122" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="410">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J24:J25">
-    <cfRule type="cellIs" priority="123" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="416">
+    <cfRule type="cellIs" priority="123" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="411">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44:D46">
-    <cfRule type="cellIs" priority="124" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="417">
+    <cfRule type="cellIs" priority="124" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="412">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I46">
-    <cfRule type="cellIs" priority="125" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="418">
+    <cfRule type="cellIs" priority="125" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="413">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16:H16">
-    <cfRule type="cellIs" priority="126" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="419">
+    <cfRule type="cellIs" priority="126" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="414">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I48">
-    <cfRule type="cellIs" priority="127" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="420">
+    <cfRule type="cellIs" priority="127" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="415">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F26:F39">
-    <cfRule type="cellIs" priority="128" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="421">
+    <cfRule type="cellIs" priority="128" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="416">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30:H39">
-    <cfRule type="cellIs" priority="129" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="422">
+    <cfRule type="cellIs" priority="129" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="417">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J48:J50">
-    <cfRule type="cellIs" priority="130" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="423">
+    <cfRule type="cellIs" priority="130" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="418">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J48:J50">
-    <cfRule type="cellIs" priority="131" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="424">
+    <cfRule type="cellIs" priority="131" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="419">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J46">
-    <cfRule type="cellIs" priority="132" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="425">
+    <cfRule type="cellIs" priority="132" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="420">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -29230,10 +29161,10 @@
     </row>
     <row r="2" s="329" customFormat="true" ht="55.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="328" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="C2" s="330" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="D2" s="330"/>
       <c r="E2" s="330"/>
@@ -29242,7 +29173,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="151" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="C3" s="331" t="s">
         <v>155</v>
@@ -29254,7 +29185,7 @@
     </row>
     <row r="4" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="327" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="C4" s="144"/>
       <c r="D4" s="5"/>
@@ -29264,10 +29195,10 @@
     </row>
     <row r="5" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="327" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="C5" s="332" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="D5" s="94"/>
       <c r="E5" s="168"/>
@@ -29276,7 +29207,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="327" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="C6" s="333" t="str">
         <f aca="false">A3</f>
@@ -29289,7 +29220,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="327" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="C7" s="333"/>
       <c r="D7" s="333"/>
@@ -29299,7 +29230,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="327" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="C8" s="333"/>
       <c r="D8" s="333"/>
@@ -29309,7 +29240,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="327" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="C9" s="333"/>
       <c r="D9" s="333"/>
@@ -29319,7 +29250,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="327" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="C10" s="333"/>
       <c r="D10" s="333"/>
@@ -29329,7 +29260,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="327" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="C11" s="333"/>
       <c r="D11" s="333"/>
@@ -29339,7 +29270,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="327" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="C12" s="333"/>
       <c r="D12" s="333"/>
@@ -29349,7 +29280,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="327" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="C13" s="333"/>
       <c r="D13" s="333"/>
@@ -29359,7 +29290,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="327" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="C14" s="333"/>
       <c r="D14" s="333"/>
@@ -29369,7 +29300,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="327" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="C15" s="333"/>
       <c r="D15" s="333"/>
@@ -29379,10 +29310,10 @@
     </row>
     <row r="16" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="151" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="C16" s="334" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="D16" s="334"/>
       <c r="E16" s="334"/>
@@ -29391,7 +29322,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="151" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="C17" s="335" t="n">
         <v>1</v>
@@ -29406,7 +29337,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="151" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="C18" s="335" t="n">
         <v>2</v>
@@ -29421,7 +29352,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="151" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="C19" s="335" t="n">
         <v>3</v>
@@ -29436,25 +29367,25 @@
     </row>
     <row r="20" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="151" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="C20" s="337"/>
       <c r="D20" s="338" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="E20" s="338" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="F20" s="338" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="G20" s="339" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="151" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="C21" s="337"/>
       <c r="D21" s="108" t="s">
@@ -29467,12 +29398,12 @@
         <v>107</v>
       </c>
       <c r="G21" s="108" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="151" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="C22" s="335" t="n">
         <v>1</v>
@@ -29496,7 +29427,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="151" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="C23" s="335" t="n">
         <v>2</v>
@@ -29520,7 +29451,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="151" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="C24" s="335" t="n">
         <v>3</v>
@@ -29544,10 +29475,10 @@
     </row>
     <row r="25" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="151" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="C25" s="341" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="D25" s="94"/>
       <c r="E25" s="168"/>
@@ -29556,7 +29487,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="151" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="C26" s="333" t="str">
         <f aca="false">A23</f>
@@ -29569,7 +29500,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="151" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="C27" s="333"/>
       <c r="D27" s="333"/>
@@ -29579,7 +29510,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="151" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="C28" s="333"/>
       <c r="D28" s="333"/>
@@ -29589,7 +29520,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="151" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="C29" s="333"/>
       <c r="D29" s="333"/>
@@ -29599,7 +29530,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="151" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="C30" s="333"/>
       <c r="D30" s="333"/>
@@ -29609,7 +29540,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="151" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="C31" s="333"/>
       <c r="D31" s="333"/>
@@ -29619,7 +29550,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="151" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="C32" s="333"/>
       <c r="D32" s="333"/>
@@ -29629,7 +29560,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="151" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="C33" s="333"/>
       <c r="D33" s="333"/>
@@ -29639,7 +29570,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="151" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="C34" s="333"/>
       <c r="D34" s="333"/>
@@ -29649,7 +29580,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="151" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="C35" s="333"/>
       <c r="D35" s="333"/>
@@ -29659,10 +29590,10 @@
     </row>
     <row r="36" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="151" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="C36" s="334" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="D36" s="334"/>
       <c r="E36" s="334"/>
@@ -29671,7 +29602,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="151" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="C37" s="335" t="n">
         <v>1</v>
@@ -29686,7 +29617,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="151" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="C38" s="335" t="n">
         <v>2</v>
@@ -29701,7 +29632,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="151" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="C39" s="335" t="n">
         <v>3</v>
@@ -29716,25 +29647,25 @@
     </row>
     <row r="40" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="151" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="C40" s="337"/>
       <c r="D40" s="338" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="E40" s="338" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="F40" s="338" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="G40" s="339" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="151" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="C41" s="337"/>
       <c r="D41" s="108" t="s">
@@ -29747,12 +29678,12 @@
         <v>107</v>
       </c>
       <c r="G41" s="108" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="151" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="C42" s="335" t="n">
         <v>1</v>
@@ -29776,7 +29707,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="151" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="C43" s="335" t="n">
         <v>2</v>
@@ -29800,7 +29731,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="151" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="C44" s="335" t="n">
         <v>3</v>
@@ -29824,10 +29755,10 @@
     </row>
     <row r="45" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="151" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="C45" s="341" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="D45" s="343"/>
       <c r="E45" s="30"/>
@@ -29836,7 +29767,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="151" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="C46" s="333" t="str">
         <f aca="false">A43</f>
@@ -29849,7 +29780,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="151" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="C47" s="333"/>
       <c r="D47" s="333"/>
@@ -29859,7 +29790,7 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="151" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="C48" s="333"/>
       <c r="D48" s="333"/>
@@ -29869,7 +29800,7 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="151" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="C49" s="333"/>
       <c r="D49" s="333"/>
@@ -29879,7 +29810,7 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="151" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="C50" s="333"/>
       <c r="D50" s="333"/>
@@ -29889,7 +29820,7 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="151" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="C51" s="333"/>
       <c r="D51" s="333"/>
@@ -29899,7 +29830,7 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="151" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="C52" s="333"/>
       <c r="D52" s="333"/>
@@ -29909,7 +29840,7 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="151" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="C53" s="333"/>
       <c r="D53" s="333"/>
@@ -29919,7 +29850,7 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="151" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="C54" s="333"/>
       <c r="D54" s="333"/>
@@ -29929,7 +29860,7 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="151" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="C55" s="333"/>
       <c r="D55" s="333"/>
@@ -29939,10 +29870,10 @@
     </row>
     <row r="56" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="151" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="C56" s="334" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="D56" s="334"/>
       <c r="E56" s="334"/>
@@ -29951,7 +29882,7 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="151" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="C57" s="335" t="n">
         <v>1</v>
@@ -29966,7 +29897,7 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="151" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="C58" s="335" t="n">
         <v>2</v>
@@ -29981,7 +29912,7 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="151" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="C59" s="335" t="n">
         <v>3</v>
@@ -29996,25 +29927,25 @@
     </row>
     <row r="60" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="151" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="C60" s="337"/>
       <c r="D60" s="338" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="E60" s="338" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="F60" s="338" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="G60" s="339" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="151" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="C61" s="337"/>
       <c r="D61" s="108" t="s">
@@ -30027,7 +29958,7 @@
         <v>107</v>
       </c>
       <c r="G61" s="108" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30121,117 +30052,117 @@
     <mergeCell ref="C60:C61"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:AMJ1 B16:B40 A65:AMJ1048576 C25:G35 C45:G55 H16:AMJ40 H2:AMJ3 B2:C3 H42:AMJ44 B42:C44 A4:AMJ15">
-    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="426">
+    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="421">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45:B60 H45:AMJ60 H62:AMJ64 B62:B64">
-    <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="427">
+    <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="422">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:D39 C36">
-    <cfRule type="cellIs" priority="4" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="428">
+    <cfRule type="cellIs" priority="4" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="423">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C40">
-    <cfRule type="cellIs" priority="5" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="429">
+    <cfRule type="cellIs" priority="5" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="424">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22:C24">
-    <cfRule type="cellIs" priority="6" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="430">
+    <cfRule type="cellIs" priority="6" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="425">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17:D19 C16">
-    <cfRule type="cellIs" priority="7" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="431">
+    <cfRule type="cellIs" priority="7" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="426">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C60">
-    <cfRule type="cellIs" priority="8" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="432">
+    <cfRule type="cellIs" priority="8" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="427">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C62:C64">
-    <cfRule type="cellIs" priority="9" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="433">
+    <cfRule type="cellIs" priority="9" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="428">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C57:D59 C56">
-    <cfRule type="cellIs" priority="10" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="434">
+    <cfRule type="cellIs" priority="10" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="429">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20">
-    <cfRule type="cellIs" priority="11" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="435">
+    <cfRule type="cellIs" priority="11" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="430">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D20 D40 D60">
-    <cfRule type="cellIs" priority="12" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="436">
+    <cfRule type="cellIs" priority="12" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="431">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20 E40 E60">
-    <cfRule type="cellIs" priority="13" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="437">
+    <cfRule type="cellIs" priority="13" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="432">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20 F40 F60">
-    <cfRule type="cellIs" priority="14" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="438">
+    <cfRule type="cellIs" priority="14" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="433">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:F21 D41:F41 D61:F61">
-    <cfRule type="cellIs" priority="15" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="439">
+    <cfRule type="cellIs" priority="15" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="434">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G21 G41 G61">
-    <cfRule type="cellIs" priority="16" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="440">
+    <cfRule type="cellIs" priority="16" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="435">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B41 H41:AMJ41">
-    <cfRule type="cellIs" priority="17" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="441">
+    <cfRule type="cellIs" priority="17" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="436">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B61 H61:AMJ61">
-    <cfRule type="cellIs" priority="18" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="442">
+    <cfRule type="cellIs" priority="18" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="437">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22:F24">
-    <cfRule type="cellIs" priority="19" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="443">
+    <cfRule type="cellIs" priority="19" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="438">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42:F44">
-    <cfRule type="cellIs" priority="20" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="444">
+    <cfRule type="cellIs" priority="20" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="439">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D62:E64 F62 F64">
-    <cfRule type="cellIs" priority="21" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="445">
+    <cfRule type="cellIs" priority="21" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="440">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G64 G62 F63">
-    <cfRule type="cellIs" priority="22" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="446">
+    <cfRule type="cellIs" priority="22" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="441">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G42:G44">
-    <cfRule type="cellIs" priority="23" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="447">
+    <cfRule type="cellIs" priority="23" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="442">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22:G24">
-    <cfRule type="cellIs" priority="24" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="448">
+    <cfRule type="cellIs" priority="24" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="443">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -30280,10 +30211,10 @@
     </row>
     <row r="2" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="327" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="C2" s="332" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="D2" s="94"/>
       <c r="E2" s="168"/>
@@ -30292,7 +30223,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="327" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="C3" s="333" t="str">
         <f aca="false">A3</f>
@@ -30305,7 +30236,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="327" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="C4" s="333"/>
       <c r="D4" s="333"/>
@@ -30315,7 +30246,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="327" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="C5" s="333"/>
       <c r="D5" s="333"/>
@@ -30325,7 +30256,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="327" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="C6" s="333"/>
       <c r="D6" s="333"/>
@@ -30335,7 +30266,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="327" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="C7" s="333"/>
       <c r="D7" s="333"/>
@@ -30345,7 +30276,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="327" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="C8" s="333"/>
       <c r="D8" s="333"/>
@@ -30355,7 +30286,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="327" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="C9" s="333"/>
       <c r="D9" s="333"/>
@@ -30365,7 +30296,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="327" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="C10" s="333"/>
       <c r="D10" s="333"/>
@@ -30375,7 +30306,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="327" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="C11" s="333"/>
       <c r="D11" s="333"/>
@@ -30385,7 +30316,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="327" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="C12" s="333"/>
       <c r="D12" s="333"/>
@@ -30395,10 +30326,10 @@
     </row>
     <row r="13" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="151" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="C13" s="334" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="D13" s="334"/>
       <c r="E13" s="334"/>
@@ -30407,7 +30338,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="151" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="C14" s="335" t="n">
         <v>1</v>
@@ -30422,7 +30353,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="151" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="C15" s="335" t="n">
         <v>2</v>
@@ -30437,7 +30368,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="151" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="C16" s="335" t="n">
         <v>3</v>
@@ -30452,25 +30383,25 @@
     </row>
     <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="151" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="C17" s="337"/>
       <c r="D17" s="338" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="E17" s="338" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="F17" s="338" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="G17" s="339" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="151" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="C18" s="337"/>
       <c r="D18" s="108" t="s">
@@ -30483,12 +30414,12 @@
         <v>107</v>
       </c>
       <c r="G18" s="108" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="151" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="C19" s="335" t="n">
         <v>1</v>
@@ -30512,7 +30443,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="151" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="C20" s="335" t="n">
         <v>2</v>
@@ -30536,7 +30467,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="151" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="C21" s="335" t="n">
         <v>3</v>
@@ -30560,10 +30491,10 @@
     </row>
     <row r="22" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="151" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="C22" s="341" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="D22" s="343"/>
       <c r="E22" s="30"/>
@@ -30572,7 +30503,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="151" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="C23" s="333" t="str">
         <f aca="false">A23</f>
@@ -30585,7 +30516,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="151" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="C24" s="333"/>
       <c r="D24" s="333"/>
@@ -30595,7 +30526,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="151" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="C25" s="333"/>
       <c r="D25" s="333"/>
@@ -30605,7 +30536,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="151" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="C26" s="333"/>
       <c r="D26" s="333"/>
@@ -30615,7 +30546,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="151" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="C27" s="333"/>
       <c r="D27" s="333"/>
@@ -30625,7 +30556,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="151" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="C28" s="333"/>
       <c r="D28" s="333"/>
@@ -30635,7 +30566,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="151" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="C29" s="333"/>
       <c r="D29" s="333"/>
@@ -30645,7 +30576,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="151" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="C30" s="333"/>
       <c r="D30" s="333"/>
@@ -30655,7 +30586,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="151" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="C31" s="333"/>
       <c r="D31" s="333"/>
@@ -30665,7 +30596,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="151" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="C32" s="333"/>
       <c r="D32" s="333"/>
@@ -30675,10 +30606,10 @@
     </row>
     <row r="33" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="151" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="C33" s="334" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="D33" s="334"/>
       <c r="E33" s="334"/>
@@ -30687,7 +30618,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="151" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="C34" s="335" t="n">
         <v>1</v>
@@ -30702,7 +30633,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="151" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="C35" s="335" t="n">
         <v>2</v>
@@ -30717,7 +30648,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="151" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="C36" s="335" t="n">
         <v>3</v>
@@ -30732,25 +30663,25 @@
     </row>
     <row r="37" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="151" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="C37" s="337"/>
       <c r="D37" s="338" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="E37" s="338" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="F37" s="338" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="G37" s="339" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="151" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="C38" s="337"/>
       <c r="D38" s="108" t="s">
@@ -30763,12 +30694,12 @@
         <v>107</v>
       </c>
       <c r="G38" s="108" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="151" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="C39" s="335" t="n">
         <v>1</v>
@@ -30792,7 +30723,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="151" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="C40" s="335" t="n">
         <v>2</v>
@@ -30816,7 +30747,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="151" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="C41" s="335" t="n">
         <v>3</v>
@@ -30840,10 +30771,10 @@
     </row>
     <row r="42" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="151" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="C42" s="341" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="D42" s="343"/>
       <c r="E42" s="346"/>
@@ -30852,7 +30783,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="151" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="C43" s="333" t="str">
         <f aca="false">A43</f>
@@ -30865,7 +30796,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="151" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="C44" s="333"/>
       <c r="D44" s="333"/>
@@ -30875,7 +30806,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="151" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="C45" s="333"/>
       <c r="D45" s="333"/>
@@ -30981,7 +30912,7 @@
     </row>
     <row r="58" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C58" s="332" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="D58" s="94"/>
       <c r="E58" s="168"/>
@@ -30999,7 +30930,7 @@
     <row r="60" customFormat="false" ht="11.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="151"/>
       <c r="C60" s="308" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="D60" s="308"/>
       <c r="E60" s="308"/>
@@ -31068,87 +30999,87 @@
     <mergeCell ref="C61:G65"/>
   </mergeCells>
   <conditionalFormatting sqref="B15:D16 B14:C16 H13:AMJ17 B13:B17 C45:C49 A65:AMJ1048576 A1:AMJ12 C42:G44 C57:G57 E59:AMJ59 B59:B63 H60:AMJ64 C61:C63 B39:B57 H39:AMJ57 B19:B37 H19:AMJ37 C22:G22 C19:F21 D14 A58:AMJ58">
-    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="449">
+    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="444">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C17">
-    <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="450">
+    <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="445">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B64:C64">
-    <cfRule type="cellIs" priority="4" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="451">
+    <cfRule type="cellIs" priority="4" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="446">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34:D36 C23:G32 C39:C41">
-    <cfRule type="cellIs" priority="5" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="452">
+    <cfRule type="cellIs" priority="5" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="447">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37">
-    <cfRule type="cellIs" priority="6" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="453">
+    <cfRule type="cellIs" priority="6" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="448">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C50:C56">
-    <cfRule type="cellIs" priority="7" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="454">
+    <cfRule type="cellIs" priority="7" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="449">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38 H38:AMJ38">
-    <cfRule type="cellIs" priority="8" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="455">
+    <cfRule type="cellIs" priority="8" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="450">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B18 H18:AMJ18">
-    <cfRule type="cellIs" priority="9" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="456">
+    <cfRule type="cellIs" priority="9" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="451">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39:F41">
-    <cfRule type="cellIs" priority="10" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="457">
+    <cfRule type="cellIs" priority="10" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="452">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G19:G21">
-    <cfRule type="cellIs" priority="11" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="458">
+    <cfRule type="cellIs" priority="11" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="453">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G39:G41">
-    <cfRule type="cellIs" priority="12" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="459">
+    <cfRule type="cellIs" priority="12" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="454">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D37 D17">
-    <cfRule type="cellIs" priority="13" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="436">
+    <cfRule type="cellIs" priority="13" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="431">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37 E17">
-    <cfRule type="cellIs" priority="14" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="437">
+    <cfRule type="cellIs" priority="14" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="432">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F37 F17">
-    <cfRule type="cellIs" priority="15" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="438">
+    <cfRule type="cellIs" priority="15" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="433">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38:F38 D18:F18">
-    <cfRule type="cellIs" priority="16" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="439">
+    <cfRule type="cellIs" priority="16" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="434">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G38 G18">
-    <cfRule type="cellIs" priority="17" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="440">
+    <cfRule type="cellIs" priority="17" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="435">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33 C13">
-    <cfRule type="cellIs" priority="18" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="428">
+    <cfRule type="cellIs" priority="18" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="423">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -31191,10 +31122,10 @@
     </row>
     <row r="2" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="151" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="C2" s="348" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="D2" s="348"/>
       <c r="E2" s="348"/>
@@ -31205,7 +31136,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="327" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="C3" s="333" t="str">
         <f aca="false">A3</f>
@@ -31220,7 +31151,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="327" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="C4" s="333"/>
       <c r="D4" s="333"/>
@@ -31232,7 +31163,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="327" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="C5" s="333"/>
       <c r="D5" s="333"/>
@@ -31244,7 +31175,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="327" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="C6" s="333"/>
       <c r="D6" s="333"/>
@@ -31256,7 +31187,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="327" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="C7" s="333"/>
       <c r="D7" s="333"/>
@@ -31268,7 +31199,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="327" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="C8" s="333"/>
       <c r="D8" s="333"/>
@@ -31280,7 +31211,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="327" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="C9" s="333"/>
       <c r="D9" s="333"/>
@@ -31292,7 +31223,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="327" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="C10" s="333"/>
       <c r="D10" s="333"/>
@@ -31304,7 +31235,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="327" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="C11" s="333"/>
       <c r="D11" s="333"/>
@@ -31316,7 +31247,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="327" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="C12" s="333"/>
       <c r="D12" s="333"/>
@@ -31328,7 +31259,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="327" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="C13" s="333"/>
       <c r="D13" s="333"/>
@@ -31340,7 +31271,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="327" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="C14" s="333"/>
       <c r="D14" s="333"/>
@@ -31352,7 +31283,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="327" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="C15" s="333"/>
       <c r="D15" s="333"/>
@@ -31364,7 +31295,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="327" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="C16" s="333"/>
       <c r="D16" s="333"/>
@@ -31376,7 +31307,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="327" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="C17" s="333"/>
       <c r="D17" s="333"/>
@@ -31388,7 +31319,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="327" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="C18" s="333"/>
       <c r="D18" s="333"/>
@@ -31400,7 +31331,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="327" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="C19" s="333"/>
       <c r="D19" s="333"/>
@@ -31412,7 +31343,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="327" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="C20" s="333"/>
       <c r="D20" s="333"/>
@@ -31424,7 +31355,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="327" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="C21" s="333"/>
       <c r="D21" s="333"/>
@@ -31436,7 +31367,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="327" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="C22" s="333"/>
       <c r="D22" s="333"/>
@@ -31448,7 +31379,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="327" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="C23" s="333"/>
       <c r="D23" s="333"/>
@@ -31460,7 +31391,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="327" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="C24" s="333"/>
       <c r="D24" s="333"/>
@@ -31472,7 +31403,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="327" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="C25" s="333"/>
       <c r="D25" s="333"/>
@@ -31484,7 +31415,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="327" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="C26" s="333"/>
       <c r="D26" s="333"/>
@@ -31496,7 +31427,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="327" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="C27" s="333"/>
       <c r="D27" s="333"/>
@@ -31508,7 +31439,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="327" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="C28" s="333"/>
       <c r="D28" s="333"/>
@@ -31520,7 +31451,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="327" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="C29" s="333"/>
       <c r="D29" s="333"/>
@@ -31532,7 +31463,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="327" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="C30" s="333"/>
       <c r="D30" s="333"/>
@@ -31544,7 +31475,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="327" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="C31" s="333"/>
       <c r="D31" s="333"/>
@@ -31556,7 +31487,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="327" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="C32" s="333"/>
       <c r="D32" s="333"/>
@@ -31568,7 +31499,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="327" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="C33" s="333"/>
       <c r="D33" s="333"/>
@@ -31580,7 +31511,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="327" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="C34" s="333"/>
       <c r="D34" s="333"/>
@@ -31592,7 +31523,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="327" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="C35" s="333"/>
       <c r="D35" s="333"/>
@@ -31604,7 +31535,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="327" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="C36" s="333"/>
       <c r="D36" s="333"/>
@@ -31616,7 +31547,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="327" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="C37" s="333"/>
       <c r="D37" s="333"/>
@@ -31628,7 +31559,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="327" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="C38" s="333"/>
       <c r="D38" s="333"/>
@@ -31640,7 +31571,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="327" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="C39" s="333"/>
       <c r="D39" s="333"/>
@@ -31652,7 +31583,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="327" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="C40" s="333"/>
       <c r="D40" s="333"/>
@@ -31664,7 +31595,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="327" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="C41" s="333"/>
       <c r="D41" s="333"/>
@@ -31676,7 +31607,7 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="327" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="C42" s="333"/>
       <c r="D42" s="333"/>
@@ -31688,7 +31619,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="327" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="C43" s="333"/>
       <c r="D43" s="333"/>
@@ -31700,7 +31631,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="327" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="C44" s="333"/>
       <c r="D44" s="333"/>
@@ -31712,7 +31643,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="327" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="C45" s="333"/>
       <c r="D45" s="333"/>
@@ -31724,7 +31655,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="327" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="C46" s="333"/>
       <c r="D46" s="333"/>
@@ -31736,7 +31667,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="327" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="C47" s="333"/>
       <c r="D47" s="333"/>
@@ -31748,7 +31679,7 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="327" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="C48" s="333"/>
       <c r="D48" s="333"/>
@@ -31760,7 +31691,7 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="327" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="C49" s="333"/>
       <c r="D49" s="333"/>
@@ -31772,7 +31703,7 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="327" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="C50" s="333"/>
       <c r="D50" s="333"/>
@@ -31784,7 +31715,7 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="327" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="C51" s="333"/>
       <c r="D51" s="333"/>
@@ -31796,7 +31727,7 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="327" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="C52" s="333"/>
       <c r="D52" s="333"/>
@@ -31808,7 +31739,7 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="327" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="C53" s="333"/>
       <c r="D53" s="333"/>
@@ -31820,7 +31751,7 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="327" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="C54" s="333"/>
       <c r="D54" s="333"/>
@@ -31832,7 +31763,7 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="327" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="C55" s="333"/>
       <c r="D55" s="333"/>
@@ -31844,7 +31775,7 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="327" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="C56" s="333"/>
       <c r="D56" s="333"/>
@@ -31856,7 +31787,7 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="327" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="C57" s="333"/>
       <c r="D57" s="333"/>
@@ -31868,7 +31799,7 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="327" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="C58" s="333"/>
       <c r="D58" s="333"/>
@@ -31880,7 +31811,7 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="327" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="C59" s="333"/>
       <c r="D59" s="333"/>
@@ -31892,7 +31823,7 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="327" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="C60" s="333"/>
       <c r="D60" s="333"/>
@@ -31904,7 +31835,7 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="327" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="C61" s="333"/>
       <c r="D61" s="333"/>
@@ -31916,7 +31847,7 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="327" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="C62" s="333"/>
       <c r="D62" s="333"/>
@@ -31928,7 +31859,7 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="327" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="C63" s="333"/>
       <c r="D63" s="333"/>
@@ -31940,7 +31871,7 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="327" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="C64" s="333"/>
       <c r="D64" s="333"/>
@@ -31952,7 +31883,7 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="327" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="C65" s="333"/>
       <c r="D65" s="333"/>
@@ -31964,7 +31895,7 @@
     </row>
     <row r="66" customFormat="false" ht="5.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="327" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="C66" s="144"/>
       <c r="D66" s="145"/>
@@ -31976,372 +31907,372 @@
     </row>
     <row r="67" customFormat="false" ht="4.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="327" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="327" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="327" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="327" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="327" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="327" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="327" t="s">
-        <v>730</v>
+        <v>725</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="327" t="s">
-        <v>731</v>
+        <v>726</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="327" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="327" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="327" t="s">
-        <v>734</v>
+        <v>729</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="327" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="327" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="327" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="327" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="327" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="327" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="327" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="327" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="327" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="327" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="327" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="327" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="327" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="327" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="327" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="327" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="327" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="327" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="327" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="327" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="327" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="327" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="327" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="327" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="327" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="327" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="327" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="327" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="327" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="327" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="327" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="327" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="327" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="327" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="327" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="327" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="327" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="327" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="327" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="327" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="327" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="327" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="327" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="327" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="327" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="327" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="327" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="327" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="327" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="327" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="327" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="327" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="327" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="327" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="327" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="327" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="327" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="327" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="327" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="327" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="327" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="327" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="327" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
     </row>
   </sheetData>
@@ -32350,7 +32281,7 @@
     <mergeCell ref="C3:I65"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:AMJ1 J2:AMJ2 B2:C2 A3:AMJ1048576">
-    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="460">
+    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="455">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/etp-backend/src/main/resources/energiatodistus-2013-sv.xlsx
+++ b/etp-backend/src/main/resources/energiatodistus-2013-sv.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="793">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="792">
   <si>
     <t xml:space="preserve">[:id]</t>
   </si>
@@ -1375,9 +1375,6 @@
   </si>
   <si>
     <t xml:space="preserve">st.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kWh</t>
   </si>
   <si>
     <t xml:space="preserve">[:lahtotiedot :lammitys :tilat-ja-iv :tuoton-hyotysuhde]</t>
@@ -8760,9 +8757,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>242280</xdr:colOff>
+      <xdr:colOff>241920</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>255960</xdr:rowOff>
+      <xdr:rowOff>255600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8776,7 +8773,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="4199040"/>
-          <a:ext cx="752040" cy="208440"/>
+          <a:ext cx="751680" cy="208080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8797,9 +8794,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>142200</xdr:colOff>
+      <xdr:colOff>141840</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>255960</xdr:rowOff>
+      <xdr:rowOff>255600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8813,7 +8810,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="4513320"/>
-          <a:ext cx="1095120" cy="208440"/>
+          <a:ext cx="1094760" cy="208080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8834,9 +8831,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>15480</xdr:colOff>
+      <xdr:colOff>15120</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>257040</xdr:rowOff>
+      <xdr:rowOff>256680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8850,7 +8847,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="4828680"/>
-          <a:ext cx="1402200" cy="208440"/>
+          <a:ext cx="1401840" cy="208080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8871,9 +8868,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>339480</xdr:colOff>
+      <xdr:colOff>339120</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>257040</xdr:rowOff>
+      <xdr:rowOff>256680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8887,7 +8884,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="5142960"/>
-          <a:ext cx="1726200" cy="208440"/>
+          <a:ext cx="1725840" cy="208080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8908,9 +8905,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>212760</xdr:colOff>
+      <xdr:colOff>212400</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>270000</xdr:rowOff>
+      <xdr:rowOff>269640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8924,7 +8921,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="5457240"/>
-          <a:ext cx="2033280" cy="221400"/>
+          <a:ext cx="2032920" cy="221040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8945,9 +8942,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>155880</xdr:colOff>
+      <xdr:colOff>155520</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>257040</xdr:rowOff>
+      <xdr:rowOff>256680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8961,7 +8958,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="5771520"/>
-          <a:ext cx="2378160" cy="208440"/>
+          <a:ext cx="2377800" cy="208080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8982,9 +8979,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>96120</xdr:colOff>
+      <xdr:colOff>95760</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>255960</xdr:rowOff>
+      <xdr:rowOff>255600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8998,7 +8995,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="6085080"/>
-          <a:ext cx="2691360" cy="208440"/>
+          <a:ext cx="2691000" cy="208080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9398,9 +9395,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>312480</xdr:colOff>
+      <xdr:colOff>312120</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>73440</xdr:rowOff>
+      <xdr:rowOff>73080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9410,7 +9407,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1994400" y="149040"/>
-          <a:ext cx="6994440" cy="10057680"/>
+          <a:ext cx="6994080" cy="10057320"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -9496,9 +9493,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>322920</xdr:colOff>
+      <xdr:colOff>322560</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>74520</xdr:rowOff>
+      <xdr:rowOff>74160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9508,7 +9505,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1987560" y="10344960"/>
-          <a:ext cx="7011720" cy="261360"/>
+          <a:ext cx="7011360" cy="261000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9562,9 +9559,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>428760</xdr:colOff>
+      <xdr:colOff>428400</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>51840</xdr:rowOff>
+      <xdr:rowOff>51480</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9574,7 +9571,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5525280" y="4883760"/>
-          <a:ext cx="790560" cy="262440"/>
+          <a:ext cx="790200" cy="262080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9626,9 +9623,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>427680</xdr:colOff>
+      <xdr:colOff>427320</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>191520</xdr:rowOff>
+      <xdr:rowOff>191160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9638,7 +9635,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5524200" y="5023440"/>
-          <a:ext cx="790560" cy="262440"/>
+          <a:ext cx="790200" cy="262080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -22289,8 +22286,8 @@
   </sheetPr>
   <dimension ref="A1:N94"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E53" activeCellId="0" sqref="E53"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D75" activeCellId="0" sqref="D75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -23470,7 +23467,7 @@
         <v>279</v>
       </c>
       <c r="F66" s="183" t="s">
-        <v>280</v>
+        <v>107</v>
       </c>
       <c r="G66" s="181"/>
       <c r="H66" s="178"/>
@@ -23490,11 +23487,11 @@
     </row>
     <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="159" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C68" s="173"/>
       <c r="D68" s="174" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E68" s="221" t="str">
         <f aca="false">A76</f>
@@ -23510,11 +23507,11 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="159" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C69" s="173"/>
       <c r="D69" s="174" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E69" s="221" t="str">
         <f aca="false">A78</f>
@@ -23530,7 +23527,7 @@
     </row>
     <row r="70" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="159" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C70" s="173"/>
       <c r="D70" s="178"/>
@@ -23542,12 +23539,12 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="159" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B71" s="85"/>
       <c r="C71" s="167"/>
       <c r="D71" s="94" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E71" s="168"/>
       <c r="F71" s="168"/>
@@ -23557,7 +23554,7 @@
     </row>
     <row r="72" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="159" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C72" s="173"/>
       <c r="D72" s="178"/>
@@ -23569,12 +23566,12 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="159" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C73" s="173"/>
       <c r="D73" s="171"/>
       <c r="E73" s="222" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F73" s="223"/>
       <c r="G73" s="223"/>
@@ -23583,7 +23580,7 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="159" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C74" s="173"/>
       <c r="D74" s="171"/>
@@ -23597,7 +23594,7 @@
     </row>
     <row r="75" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="159" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C75" s="173"/>
       <c r="D75" s="171"/>
@@ -23609,11 +23606,11 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="159" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C76" s="173"/>
       <c r="D76" s="174" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E76" s="188" t="str">
         <f aca="false">A80</f>
@@ -23627,7 +23624,7 @@
     </row>
     <row r="77" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="159" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C77" s="173"/>
       <c r="D77" s="178"/>
@@ -23639,12 +23636,12 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="159" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B78" s="85"/>
       <c r="C78" s="167"/>
       <c r="D78" s="94" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E78" s="168"/>
       <c r="F78" s="168"/>
@@ -23654,7 +23651,7 @@
     </row>
     <row r="79" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="159" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C79" s="173"/>
       <c r="D79" s="178"/>
@@ -23666,15 +23663,15 @@
     </row>
     <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="159" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C80" s="173"/>
       <c r="D80" s="178"/>
       <c r="E80" s="181" t="s">
+        <v>298</v>
+      </c>
+      <c r="F80" s="225" t="s">
         <v>299</v>
-      </c>
-      <c r="F80" s="225" t="s">
-        <v>300</v>
       </c>
       <c r="G80" s="178"/>
       <c r="H80" s="178"/>
@@ -23682,12 +23679,12 @@
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="159" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C81" s="173"/>
       <c r="D81" s="171"/>
       <c r="E81" s="183" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F81" s="184" t="s">
         <v>108</v>
@@ -23699,7 +23696,7 @@
     </row>
     <row r="82" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="159" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C82" s="173"/>
       <c r="D82" s="171"/>
@@ -23711,11 +23708,11 @@
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="159" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C83" s="173"/>
       <c r="D83" s="174" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E83" s="221" t="str">
         <f aca="false">A81</f>
@@ -23731,7 +23728,7 @@
     </row>
     <row r="84" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="159" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C84" s="173"/>
       <c r="D84" s="178"/>
@@ -23743,12 +23740,12 @@
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="159" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B85" s="85"/>
       <c r="C85" s="167"/>
       <c r="D85" s="94" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E85" s="168"/>
       <c r="F85" s="168"/>
@@ -23758,7 +23755,7 @@
     </row>
     <row r="86" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="159" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C86" s="173"/>
       <c r="D86" s="178"/>
@@ -23770,27 +23767,27 @@
     </row>
     <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="159" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C87" s="173"/>
       <c r="D87" s="171"/>
       <c r="E87" s="203" t="s">
+        <v>309</v>
+      </c>
+      <c r="F87" s="181" t="s">
         <v>310</v>
       </c>
-      <c r="F87" s="181" t="s">
+      <c r="G87" s="181" t="s">
         <v>311</v>
       </c>
-      <c r="G87" s="181" t="s">
+      <c r="H87" s="203" t="s">
         <v>312</v>
-      </c>
-      <c r="H87" s="203" t="s">
-        <v>313</v>
       </c>
       <c r="I87" s="176"/>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="159" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C88" s="173"/>
       <c r="D88" s="171"/>
@@ -23798,19 +23795,19 @@
         <v>109</v>
       </c>
       <c r="F88" s="183" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G88" s="183" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H88" s="184" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I88" s="176"/>
     </row>
     <row r="89" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="159" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C89" s="173"/>
       <c r="D89" s="171"/>
@@ -23822,7 +23819,7 @@
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="159" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C90" s="173"/>
       <c r="D90" s="226"/>
@@ -23846,7 +23843,7 @@
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="159" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C91" s="173"/>
       <c r="D91" s="226"/>
@@ -23870,7 +23867,7 @@
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="159" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C92" s="173"/>
       <c r="D92" s="226"/>
@@ -23894,7 +23891,7 @@
     </row>
     <row r="93" customFormat="false" ht="5.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="159" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C93" s="227"/>
       <c r="D93" s="228"/>
@@ -23906,7 +23903,7 @@
     </row>
     <row r="94" customFormat="false" ht="5.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="159" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -24699,7 +24696,7 @@
       </c>
       <c r="C2" s="232"/>
       <c r="D2" s="164" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E2" s="233"/>
       <c r="F2" s="164"/>
@@ -24809,11 +24806,11 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="159" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C9" s="173"/>
       <c r="D9" s="241" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E9" s="28" t="str">
         <f aca="false">A5</f>
@@ -24840,7 +24837,7 @@
       </c>
       <c r="C10" s="173"/>
       <c r="D10" s="245" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E10" s="246" t="str">
         <f aca="false">A6</f>
@@ -24889,7 +24886,7 @@
       </c>
       <c r="C12" s="167"/>
       <c r="D12" s="94" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E12" s="168"/>
       <c r="F12" s="168"/>
@@ -24909,7 +24906,7 @@
     </row>
     <row r="13" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="159" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C13" s="173"/>
       <c r="D13" s="178"/>
@@ -24938,13 +24935,13 @@
         <v>100</v>
       </c>
       <c r="E14" s="181" t="s">
+        <v>327</v>
+      </c>
+      <c r="F14" s="181" t="s">
         <v>328</v>
       </c>
-      <c r="F14" s="181" t="s">
+      <c r="G14" s="203" t="s">
         <v>329</v>
-      </c>
-      <c r="G14" s="203" t="s">
-        <v>330</v>
       </c>
       <c r="H14" s="203"/>
       <c r="I14" s="181"/>
@@ -24966,13 +24963,13 @@
       <c r="C15" s="173"/>
       <c r="D15" s="172"/>
       <c r="E15" s="181" t="s">
+        <v>330</v>
+      </c>
+      <c r="F15" s="181" t="s">
         <v>331</v>
       </c>
-      <c r="F15" s="181" t="s">
+      <c r="G15" s="203" t="s">
         <v>332</v>
-      </c>
-      <c r="G15" s="203" t="s">
-        <v>333</v>
       </c>
       <c r="H15" s="203"/>
       <c r="I15" s="183"/>
@@ -25000,7 +24997,7 @@
         <v>109</v>
       </c>
       <c r="G16" s="250" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H16" s="251" t="s">
         <v>110</v>
@@ -25019,7 +25016,7 @@
     </row>
     <row r="17" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="159" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C17" s="173"/>
       <c r="D17" s="171"/>
@@ -25149,7 +25146,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="159" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C21" s="173"/>
       <c r="D21" s="252" t="s">
@@ -25189,7 +25186,7 @@
       </c>
       <c r="C22" s="173"/>
       <c r="D22" s="256" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E22" s="221" t="str">
         <f aca="false">A23</f>
@@ -25295,7 +25292,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="159" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C25" s="173"/>
       <c r="D25" s="257" t="str">
@@ -25336,7 +25333,7 @@
       </c>
       <c r="C26" s="173"/>
       <c r="D26" s="258" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E26" s="259" t="str">
         <f aca="false">A42</f>
@@ -25391,7 +25388,7 @@
       </c>
       <c r="C28" s="167"/>
       <c r="D28" s="94" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E28" s="168"/>
       <c r="F28" s="168"/>
@@ -25434,7 +25431,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="159" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C30" s="173"/>
       <c r="D30" s="171"/>
@@ -25490,7 +25487,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="159" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C32" s="173"/>
       <c r="D32" s="261" t="str">
@@ -25521,7 +25518,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="159" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C33" s="173"/>
       <c r="D33" s="261" t="str">
@@ -25552,7 +25549,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="159" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C34" s="173"/>
       <c r="D34" s="261" t="str">
@@ -25583,7 +25580,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="159" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C35" s="173"/>
       <c r="D35" s="261" t="str">
@@ -25614,7 +25611,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="159" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C36" s="173"/>
       <c r="D36" s="261" t="str">
@@ -25645,7 +25642,7 @@
     </row>
     <row r="37" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="159" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C37" s="173"/>
       <c r="D37" s="178"/>
@@ -25667,11 +25664,11 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="159" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C38" s="167"/>
       <c r="D38" s="94" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E38" s="168"/>
       <c r="F38" s="168"/>
@@ -25691,7 +25688,7 @@
     </row>
     <row r="39" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="159" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C39" s="173"/>
       <c r="D39" s="178"/>
@@ -25713,19 +25710,19 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="159" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C40" s="173"/>
       <c r="D40" s="171"/>
       <c r="E40" s="171"/>
       <c r="F40" s="203" t="s">
+        <v>351</v>
+      </c>
+      <c r="G40" s="181" t="s">
         <v>352</v>
       </c>
-      <c r="G40" s="181" t="s">
+      <c r="H40" s="181" t="s">
         <v>353</v>
-      </c>
-      <c r="H40" s="181" t="s">
-        <v>354</v>
       </c>
       <c r="I40" s="181"/>
       <c r="J40" s="237"/>
@@ -25741,7 +25738,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="159" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C41" s="173"/>
       <c r="D41" s="171"/>
@@ -25769,7 +25766,7 @@
     </row>
     <row r="42" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="159" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C42" s="173"/>
       <c r="D42" s="171"/>
@@ -25791,7 +25788,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="159" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C43" s="173"/>
       <c r="D43" s="174" t="s">
@@ -25819,7 +25816,7 @@
       </c>
       <c r="C44" s="173"/>
       <c r="D44" s="174" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E44" s="174"/>
       <c r="F44" s="253" t="str">
@@ -25847,11 +25844,11 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="159" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C45" s="173"/>
       <c r="D45" s="174" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E45" s="174"/>
       <c r="F45" s="188" t="str">
@@ -25879,11 +25876,11 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="159" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C46" s="173"/>
       <c r="D46" s="174" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E46" s="174"/>
       <c r="F46" s="188" t="str">
@@ -25911,11 +25908,11 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="159" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C47" s="173"/>
       <c r="D47" s="174" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E47" s="174"/>
       <c r="F47" s="188" t="str">
@@ -25942,11 +25939,11 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="159" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C48" s="173"/>
       <c r="D48" s="174" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E48" s="174"/>
       <c r="F48" s="188" t="str">
@@ -25975,11 +25972,11 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="159" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C49" s="173"/>
       <c r="D49" s="174" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E49" s="174"/>
       <c r="F49" s="188" t="str">
@@ -26006,11 +26003,11 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="159" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C50" s="173"/>
       <c r="D50" s="258" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E50" s="258"/>
       <c r="F50" s="266" t="str">
@@ -26039,11 +26036,11 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="159" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C51" s="173"/>
       <c r="D51" s="267" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E51" s="258"/>
       <c r="F51" s="224"/>
@@ -26063,7 +26060,7 @@
     </row>
     <row r="52" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="159" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C52" s="173"/>
       <c r="D52" s="178"/>
@@ -26085,11 +26082,11 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="159" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C53" s="167"/>
       <c r="D53" s="94" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E53" s="168"/>
       <c r="F53" s="168"/>
@@ -26100,7 +26097,7 @@
     </row>
     <row r="54" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="159" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C54" s="173"/>
       <c r="D54" s="178"/>
@@ -26113,7 +26110,7 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="159" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C55" s="173"/>
       <c r="D55" s="171"/>
@@ -26129,7 +26126,7 @@
     </row>
     <row r="56" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="159" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C56" s="173"/>
       <c r="D56" s="171"/>
@@ -26141,11 +26138,11 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="159" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C57" s="173"/>
       <c r="D57" s="174" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E57" s="174"/>
       <c r="F57" s="221" t="str">
@@ -26162,11 +26159,11 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="159" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C58" s="173"/>
       <c r="D58" s="174" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E58" s="174"/>
       <c r="F58" s="221" t="str">
@@ -26183,7 +26180,7 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="159" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C59" s="173"/>
       <c r="D59" s="174" t="s">
@@ -26204,11 +26201,11 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="159" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C60" s="173"/>
       <c r="D60" s="174" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E60" s="174"/>
       <c r="F60" s="221" t="str">
@@ -26225,7 +26222,7 @@
     </row>
     <row r="61" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="159" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C61" s="173"/>
       <c r="D61" s="174"/>
@@ -26238,11 +26235,11 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="159" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C62" s="173"/>
       <c r="D62" s="220" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E62" s="220"/>
       <c r="F62" s="220"/>
@@ -26253,11 +26250,11 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="159" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C63" s="173"/>
       <c r="D63" s="220" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E63" s="220"/>
       <c r="F63" s="220"/>
@@ -26268,7 +26265,7 @@
     </row>
     <row r="64" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="159" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C64" s="173"/>
       <c r="D64" s="174"/>
@@ -26281,11 +26278,11 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="159" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C65" s="167"/>
       <c r="D65" s="94" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E65" s="168"/>
       <c r="F65" s="168"/>
@@ -26296,7 +26293,7 @@
     </row>
     <row r="66" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="159" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C66" s="173"/>
       <c r="D66" s="178"/>
@@ -26309,7 +26306,7 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="159" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C67" s="173"/>
       <c r="D67" s="171"/>
@@ -26325,7 +26322,7 @@
     </row>
     <row r="68" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="159" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C68" s="173"/>
       <c r="D68" s="171"/>
@@ -26337,11 +26334,11 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="159" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C69" s="173"/>
       <c r="D69" s="196" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E69" s="196"/>
       <c r="F69" s="221" t="str">
@@ -26358,11 +26355,11 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="159" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C70" s="173"/>
       <c r="D70" s="196" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E70" s="196"/>
       <c r="F70" s="221" t="str">
@@ -26379,11 +26376,11 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="159" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C71" s="173"/>
       <c r="D71" s="174" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E71" s="174"/>
       <c r="F71" s="221" t="str">
@@ -26400,11 +26397,11 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="159" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C72" s="173"/>
       <c r="D72" s="174" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E72" s="174"/>
       <c r="F72" s="221" t="str">
@@ -26421,11 +26418,11 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="159" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C73" s="173"/>
       <c r="D73" s="174" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E73" s="174"/>
       <c r="F73" s="221" t="str">
@@ -26442,7 +26439,7 @@
     </row>
     <row r="74" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="159" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C74" s="173"/>
       <c r="D74" s="174"/>
@@ -26455,11 +26452,11 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="159" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C75" s="167"/>
       <c r="D75" s="94" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E75" s="168"/>
       <c r="F75" s="168"/>
@@ -26470,7 +26467,7 @@
     </row>
     <row r="76" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="159" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C76" s="173"/>
       <c r="D76" s="178"/>
@@ -26483,11 +26480,11 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="159" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C77" s="173"/>
       <c r="D77" s="174" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E77" s="174"/>
       <c r="F77" s="268" t="str">
@@ -26501,7 +26498,7 @@
     </row>
     <row r="78" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="159" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C78" s="227"/>
       <c r="D78" s="228"/>
@@ -26514,177 +26511,177 @@
     </row>
     <row r="79" customFormat="false" ht="5.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="159" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="159" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="159" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="159" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="159" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="159" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="159" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="159" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="159" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="159" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="159" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="159" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="159" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="159" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="159" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="159" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="159" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="159" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="159" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="159" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="159" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="159" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="159" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="159" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="159" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="159" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="159" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="159" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="159" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="159" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="159" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="159" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="159" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="159" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="159" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
   </sheetData>
@@ -27259,7 +27256,7 @@
       </c>
       <c r="C2" s="271"/>
       <c r="D2" s="272" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E2" s="272"/>
       <c r="F2" s="273"/>
@@ -27275,7 +27272,7 @@
       </c>
       <c r="C3" s="97"/>
       <c r="D3" s="23" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E3" s="275"/>
       <c r="F3" s="14"/>
@@ -27287,7 +27284,7 @@
     </row>
     <row r="4" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="90" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C4" s="97"/>
       <c r="D4" s="14"/>
@@ -27301,11 +27298,11 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="90" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C5" s="93"/>
       <c r="D5" s="94" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E5" s="94"/>
       <c r="F5" s="95"/>
@@ -27317,7 +27314,7 @@
     </row>
     <row r="6" customFormat="false" ht="3.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="90" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C6" s="97"/>
       <c r="D6" s="14"/>
@@ -27331,7 +27328,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="90" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C7" s="97"/>
       <c r="D7" s="61" t="s">
@@ -27342,7 +27339,7 @@
         <v>[:lahtotiedot :lammitetty-nettoala]</v>
       </c>
       <c r="F7" s="276" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G7" s="277"/>
       <c r="J7" s="14"/>
@@ -27351,7 +27348,7 @@
     </row>
     <row r="8" customFormat="false" ht="3.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="90" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C8" s="97"/>
       <c r="D8" s="14"/>
@@ -27364,7 +27361,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="90" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C9" s="97"/>
       <c r="D9" s="14"/>
@@ -27378,11 +27375,11 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="90" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C10" s="97"/>
       <c r="D10" s="61" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E10" s="14"/>
       <c r="F10" s="278"/>
@@ -27398,7 +27395,7 @@
     </row>
     <row r="11" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="90" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C11" s="97"/>
       <c r="D11" s="14"/>
@@ -27412,11 +27409,11 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="90" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C12" s="97"/>
       <c r="D12" s="287" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E12" s="287"/>
       <c r="F12" s="288"/>
@@ -27435,11 +27432,11 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="90" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C13" s="97"/>
       <c r="D13" s="287" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E13" s="287"/>
       <c r="F13" s="288"/>
@@ -27458,11 +27455,11 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="90" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C14" s="97"/>
       <c r="D14" s="279" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E14" s="287"/>
       <c r="F14" s="288"/>
@@ -27481,11 +27478,11 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="90" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C15" s="97"/>
       <c r="D15" s="279" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E15" s="287"/>
       <c r="F15" s="288"/>
@@ -27504,11 +27501,11 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="90" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C16" s="97"/>
       <c r="D16" s="287" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E16" s="287"/>
       <c r="F16" s="287"/>
@@ -27527,7 +27524,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="90" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C17" s="97"/>
       <c r="D17" s="294" t="str">
@@ -27551,7 +27548,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="90" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C18" s="97"/>
       <c r="D18" s="294" t="str">
@@ -27575,7 +27572,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="90" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C19" s="97"/>
       <c r="D19" s="294" t="str">
@@ -27599,7 +27596,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="90" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C20" s="97"/>
       <c r="D20" s="294" t="str">
@@ -27623,7 +27620,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="90" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C21" s="97"/>
       <c r="D21" s="294" t="str">
@@ -27647,7 +27644,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="90" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C22" s="97"/>
       <c r="D22" s="295"/>
@@ -27665,7 +27662,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="90" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C23" s="97"/>
       <c r="D23" s="299"/>
@@ -27680,21 +27677,21 @@
     </row>
     <row r="24" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="90" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C24" s="97"/>
       <c r="D24" s="302" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E24" s="302"/>
       <c r="F24" s="303" t="s">
+        <v>474</v>
+      </c>
+      <c r="G24" s="304" t="s">
         <v>475</v>
       </c>
-      <c r="G24" s="304" t="s">
+      <c r="H24" s="303" t="s">
         <v>476</v>
-      </c>
-      <c r="H24" s="303" t="s">
-        <v>477</v>
       </c>
       <c r="I24" s="304" t="s">
         <v>107</v>
@@ -27707,7 +27704,7 @@
     </row>
     <row r="25" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="90" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C25" s="97"/>
       <c r="D25" s="61"/>
@@ -27722,11 +27719,11 @@
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="90" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C26" s="97"/>
       <c r="D26" s="287" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E26" s="287"/>
       <c r="F26" s="291" t="str">
@@ -27734,7 +27731,7 @@
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :kevyt-polttooljy]</v>
       </c>
       <c r="G26" s="308" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H26" s="281" t="n">
         <v>10</v>
@@ -27752,11 +27749,11 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="90" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C27" s="97"/>
       <c r="D27" s="287" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E27" s="287"/>
       <c r="F27" s="291" t="str">
@@ -27764,7 +27761,7 @@
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :pilkkeet-havu-sekapuu]</v>
       </c>
       <c r="G27" s="308" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H27" s="281" t="n">
         <v>1300</v>
@@ -27782,11 +27779,11 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="90" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C28" s="97"/>
       <c r="D28" s="287" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E28" s="287"/>
       <c r="F28" s="291" t="str">
@@ -27794,7 +27791,7 @@
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :pilkkeet-koivu]</v>
       </c>
       <c r="G28" s="308" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H28" s="281" t="n">
         <v>1700</v>
@@ -27812,11 +27809,11 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="90" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C29" s="97"/>
       <c r="D29" s="287" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E29" s="287"/>
       <c r="F29" s="291" t="str">
@@ -27824,7 +27821,7 @@
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :puupelletit]</v>
       </c>
       <c r="G29" s="308" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H29" s="281" t="n">
         <v>4.7</v>
@@ -27842,7 +27839,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="90" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C30" s="97"/>
       <c r="D30" s="312" t="str">
@@ -27875,7 +27872,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="90" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C31" s="97"/>
       <c r="D31" s="312" t="str">
@@ -27908,7 +27905,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="90" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C32" s="97"/>
       <c r="D32" s="315"/>
@@ -27929,7 +27926,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="90" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C33" s="97"/>
       <c r="D33" s="315"/>
@@ -27950,7 +27947,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="90" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C34" s="97"/>
       <c r="D34" s="315"/>
@@ -27971,7 +27968,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="90" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C35" s="97"/>
       <c r="D35" s="315"/>
@@ -27992,7 +27989,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="90" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C36" s="97"/>
       <c r="D36" s="315"/>
@@ -28013,7 +28010,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="90" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C37" s="97"/>
       <c r="D37" s="315"/>
@@ -28034,7 +28031,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="90" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C38" s="97"/>
       <c r="D38" s="315"/>
@@ -28055,7 +28052,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="90" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C39" s="97"/>
       <c r="D39" s="315"/>
@@ -28076,7 +28073,7 @@
     </row>
     <row r="40" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="90" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C40" s="97"/>
       <c r="D40" s="299"/>
@@ -28091,11 +28088,11 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="90" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C41" s="97"/>
       <c r="D41" s="317" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E41" s="299"/>
       <c r="F41" s="288"/>
@@ -28108,7 +28105,7 @@
     </row>
     <row r="42" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="90" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C42" s="97"/>
       <c r="D42" s="318"/>
@@ -28123,7 +28120,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="90" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C43" s="97"/>
       <c r="D43" s="299"/>
@@ -28138,11 +28135,11 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="90" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C44" s="97"/>
       <c r="D44" s="61" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E44" s="299"/>
       <c r="F44" s="288"/>
@@ -28155,7 +28152,7 @@
     </row>
     <row r="45" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="90" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C45" s="97"/>
       <c r="D45" s="61"/>
@@ -28170,7 +28167,7 @@
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="90" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C46" s="97"/>
       <c r="D46" s="61"/>
@@ -28189,11 +28186,11 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="90" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C47" s="97"/>
       <c r="D47" s="23" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E47" s="23"/>
       <c r="F47" s="323"/>
@@ -28212,11 +28209,11 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="90" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C48" s="97"/>
       <c r="D48" s="23" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E48" s="23"/>
       <c r="F48" s="323"/>
@@ -28235,11 +28232,11 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="90" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C49" s="97"/>
       <c r="D49" s="23" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E49" s="23"/>
       <c r="F49" s="323"/>
@@ -28258,11 +28255,11 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="90" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C50" s="97"/>
       <c r="D50" s="23" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E50" s="23"/>
       <c r="F50" s="323"/>
@@ -28281,11 +28278,11 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="90" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C51" s="97"/>
       <c r="D51" s="61" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E51" s="61"/>
       <c r="F51" s="14"/>
@@ -28303,7 +28300,7 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="90" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C52" s="97"/>
       <c r="D52" s="61"/>
@@ -28317,11 +28314,11 @@
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="90" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C53" s="97"/>
       <c r="D53" s="143" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E53" s="143"/>
       <c r="F53" s="143"/>
@@ -28333,7 +28330,7 @@
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="90" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C54" s="97"/>
       <c r="D54" s="143"/>
@@ -28347,7 +28344,7 @@
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="90" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C55" s="97"/>
       <c r="D55" s="143"/>
@@ -28361,7 +28358,7 @@
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="90" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C56" s="97"/>
       <c r="D56" s="143"/>
@@ -28375,7 +28372,7 @@
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="90" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C57" s="97"/>
       <c r="D57" s="143"/>
@@ -28389,7 +28386,7 @@
     </row>
     <row r="58" customFormat="false" ht="3.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="90" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C58" s="144"/>
       <c r="D58" s="145"/>
@@ -28404,47 +28401,47 @@
     </row>
     <row r="59" customFormat="false" ht="4.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="90" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="90" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="90" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="90" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="90" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="90" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="90" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="90" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="90" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
   </sheetData>
@@ -29161,10 +29158,10 @@
     </row>
     <row r="2" s="329" customFormat="true" ht="55.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="328" t="s">
+        <v>533</v>
+      </c>
+      <c r="C2" s="330" t="s">
         <v>534</v>
-      </c>
-      <c r="C2" s="330" t="s">
-        <v>535</v>
       </c>
       <c r="D2" s="330"/>
       <c r="E2" s="330"/>
@@ -29173,7 +29170,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="151" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C3" s="331" t="s">
         <v>155</v>
@@ -29185,7 +29182,7 @@
     </row>
     <row r="4" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="327" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C4" s="144"/>
       <c r="D4" s="5"/>
@@ -29195,10 +29192,10 @@
     </row>
     <row r="5" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="327" t="s">
+        <v>537</v>
+      </c>
+      <c r="C5" s="332" t="s">
         <v>538</v>
-      </c>
-      <c r="C5" s="332" t="s">
-        <v>539</v>
       </c>
       <c r="D5" s="94"/>
       <c r="E5" s="168"/>
@@ -29207,7 +29204,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="327" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C6" s="333" t="str">
         <f aca="false">A3</f>
@@ -29220,7 +29217,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="327" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C7" s="333"/>
       <c r="D7" s="333"/>
@@ -29230,7 +29227,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="327" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C8" s="333"/>
       <c r="D8" s="333"/>
@@ -29240,7 +29237,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="327" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C9" s="333"/>
       <c r="D9" s="333"/>
@@ -29250,7 +29247,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="327" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C10" s="333"/>
       <c r="D10" s="333"/>
@@ -29260,7 +29257,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="327" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C11" s="333"/>
       <c r="D11" s="333"/>
@@ -29270,7 +29267,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="327" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C12" s="333"/>
       <c r="D12" s="333"/>
@@ -29280,7 +29277,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="327" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C13" s="333"/>
       <c r="D13" s="333"/>
@@ -29290,7 +29287,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="327" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C14" s="333"/>
       <c r="D14" s="333"/>
@@ -29300,7 +29297,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="327" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C15" s="333"/>
       <c r="D15" s="333"/>
@@ -29310,10 +29307,10 @@
     </row>
     <row r="16" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="151" t="s">
+        <v>549</v>
+      </c>
+      <c r="C16" s="334" t="s">
         <v>550</v>
-      </c>
-      <c r="C16" s="334" t="s">
-        <v>551</v>
       </c>
       <c r="D16" s="334"/>
       <c r="E16" s="334"/>
@@ -29322,7 +29319,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="151" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C17" s="335" t="n">
         <v>1</v>
@@ -29337,7 +29334,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="151" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C18" s="335" t="n">
         <v>2</v>
@@ -29352,7 +29349,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="151" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C19" s="335" t="n">
         <v>3</v>
@@ -29367,25 +29364,25 @@
     </row>
     <row r="20" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="151" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C20" s="337"/>
       <c r="D20" s="338" t="s">
+        <v>555</v>
+      </c>
+      <c r="E20" s="338" t="s">
         <v>556</v>
       </c>
-      <c r="E20" s="338" t="s">
+      <c r="F20" s="338" t="s">
         <v>557</v>
       </c>
-      <c r="F20" s="338" t="s">
+      <c r="G20" s="339" t="s">
         <v>558</v>
-      </c>
-      <c r="G20" s="339" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="151" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C21" s="337"/>
       <c r="D21" s="108" t="s">
@@ -29398,12 +29395,12 @@
         <v>107</v>
       </c>
       <c r="G21" s="108" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="151" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C22" s="335" t="n">
         <v>1</v>
@@ -29427,7 +29424,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="151" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C23" s="335" t="n">
         <v>2</v>
@@ -29451,7 +29448,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="151" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C24" s="335" t="n">
         <v>3</v>
@@ -29475,10 +29472,10 @@
     </row>
     <row r="25" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="151" t="s">
+        <v>564</v>
+      </c>
+      <c r="C25" s="341" t="s">
         <v>565</v>
-      </c>
-      <c r="C25" s="341" t="s">
-        <v>566</v>
       </c>
       <c r="D25" s="94"/>
       <c r="E25" s="168"/>
@@ -29487,7 +29484,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="151" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C26" s="333" t="str">
         <f aca="false">A23</f>
@@ -29500,7 +29497,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="151" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C27" s="333"/>
       <c r="D27" s="333"/>
@@ -29510,7 +29507,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="151" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C28" s="333"/>
       <c r="D28" s="333"/>
@@ -29520,7 +29517,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="151" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C29" s="333"/>
       <c r="D29" s="333"/>
@@ -29530,7 +29527,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="151" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C30" s="333"/>
       <c r="D30" s="333"/>
@@ -29540,7 +29537,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="151" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C31" s="333"/>
       <c r="D31" s="333"/>
@@ -29550,7 +29547,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="151" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C32" s="333"/>
       <c r="D32" s="333"/>
@@ -29560,7 +29557,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="151" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C33" s="333"/>
       <c r="D33" s="333"/>
@@ -29570,7 +29567,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="151" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C34" s="333"/>
       <c r="D34" s="333"/>
@@ -29580,7 +29577,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="151" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C35" s="333"/>
       <c r="D35" s="333"/>
@@ -29590,10 +29587,10 @@
     </row>
     <row r="36" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="151" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C36" s="334" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D36" s="334"/>
       <c r="E36" s="334"/>
@@ -29602,7 +29599,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="151" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C37" s="335" t="n">
         <v>1</v>
@@ -29617,7 +29614,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="151" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C38" s="335" t="n">
         <v>2</v>
@@ -29632,7 +29629,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="151" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C39" s="335" t="n">
         <v>3</v>
@@ -29647,25 +29644,25 @@
     </row>
     <row r="40" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="151" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C40" s="337"/>
       <c r="D40" s="338" t="s">
+        <v>555</v>
+      </c>
+      <c r="E40" s="338" t="s">
         <v>556</v>
       </c>
-      <c r="E40" s="338" t="s">
+      <c r="F40" s="338" t="s">
         <v>557</v>
       </c>
-      <c r="F40" s="338" t="s">
+      <c r="G40" s="339" t="s">
         <v>558</v>
-      </c>
-      <c r="G40" s="339" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="151" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C41" s="337"/>
       <c r="D41" s="108" t="s">
@@ -29678,12 +29675,12 @@
         <v>107</v>
       </c>
       <c r="G41" s="108" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="151" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C42" s="335" t="n">
         <v>1</v>
@@ -29707,7 +29704,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="151" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C43" s="335" t="n">
         <v>2</v>
@@ -29731,7 +29728,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="151" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C44" s="335" t="n">
         <v>3</v>
@@ -29755,10 +29752,10 @@
     </row>
     <row r="45" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="151" t="s">
+        <v>585</v>
+      </c>
+      <c r="C45" s="341" t="s">
         <v>586</v>
-      </c>
-      <c r="C45" s="341" t="s">
-        <v>587</v>
       </c>
       <c r="D45" s="343"/>
       <c r="E45" s="30"/>
@@ -29767,7 +29764,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="151" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C46" s="333" t="str">
         <f aca="false">A43</f>
@@ -29780,7 +29777,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="151" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C47" s="333"/>
       <c r="D47" s="333"/>
@@ -29790,7 +29787,7 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="151" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C48" s="333"/>
       <c r="D48" s="333"/>
@@ -29800,7 +29797,7 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="151" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C49" s="333"/>
       <c r="D49" s="333"/>
@@ -29810,7 +29807,7 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="151" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C50" s="333"/>
       <c r="D50" s="333"/>
@@ -29820,7 +29817,7 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="151" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C51" s="333"/>
       <c r="D51" s="333"/>
@@ -29830,7 +29827,7 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="151" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C52" s="333"/>
       <c r="D52" s="333"/>
@@ -29840,7 +29837,7 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="151" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C53" s="333"/>
       <c r="D53" s="333"/>
@@ -29850,7 +29847,7 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="151" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C54" s="333"/>
       <c r="D54" s="333"/>
@@ -29860,7 +29857,7 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="151" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C55" s="333"/>
       <c r="D55" s="333"/>
@@ -29870,10 +29867,10 @@
     </row>
     <row r="56" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="151" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C56" s="334" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D56" s="334"/>
       <c r="E56" s="334"/>
@@ -29882,7 +29879,7 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="151" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C57" s="335" t="n">
         <v>1</v>
@@ -29897,7 +29894,7 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="151" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C58" s="335" t="n">
         <v>2</v>
@@ -29912,7 +29909,7 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="151" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C59" s="335" t="n">
         <v>3</v>
@@ -29927,25 +29924,25 @@
     </row>
     <row r="60" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="151" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C60" s="337"/>
       <c r="D60" s="338" t="s">
+        <v>555</v>
+      </c>
+      <c r="E60" s="338" t="s">
         <v>556</v>
       </c>
-      <c r="E60" s="338" t="s">
+      <c r="F60" s="338" t="s">
         <v>557</v>
       </c>
-      <c r="F60" s="338" t="s">
+      <c r="G60" s="339" t="s">
         <v>558</v>
-      </c>
-      <c r="G60" s="339" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="151" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C61" s="337"/>
       <c r="D61" s="108" t="s">
@@ -29958,7 +29955,7 @@
         <v>107</v>
       </c>
       <c r="G61" s="108" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30211,10 +30208,10 @@
     </row>
     <row r="2" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="327" t="s">
+        <v>603</v>
+      </c>
+      <c r="C2" s="332" t="s">
         <v>604</v>
-      </c>
-      <c r="C2" s="332" t="s">
-        <v>605</v>
       </c>
       <c r="D2" s="94"/>
       <c r="E2" s="168"/>
@@ -30223,7 +30220,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="327" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C3" s="333" t="str">
         <f aca="false">A3</f>
@@ -30236,7 +30233,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="327" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C4" s="333"/>
       <c r="D4" s="333"/>
@@ -30246,7 +30243,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="327" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C5" s="333"/>
       <c r="D5" s="333"/>
@@ -30256,7 +30253,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="327" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C6" s="333"/>
       <c r="D6" s="333"/>
@@ -30266,7 +30263,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="327" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C7" s="333"/>
       <c r="D7" s="333"/>
@@ -30276,7 +30273,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="327" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C8" s="333"/>
       <c r="D8" s="333"/>
@@ -30286,7 +30283,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="327" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C9" s="333"/>
       <c r="D9" s="333"/>
@@ -30296,7 +30293,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="327" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C10" s="333"/>
       <c r="D10" s="333"/>
@@ -30306,7 +30303,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="327" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C11" s="333"/>
       <c r="D11" s="333"/>
@@ -30316,7 +30313,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="327" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="C12" s="333"/>
       <c r="D12" s="333"/>
@@ -30326,10 +30323,10 @@
     </row>
     <row r="13" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="151" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="C13" s="334" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D13" s="334"/>
       <c r="E13" s="334"/>
@@ -30338,7 +30335,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="151" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C14" s="335" t="n">
         <v>1</v>
@@ -30353,7 +30350,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="151" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C15" s="335" t="n">
         <v>2</v>
@@ -30368,7 +30365,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="151" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="C16" s="335" t="n">
         <v>3</v>
@@ -30383,25 +30380,25 @@
     </row>
     <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="151" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C17" s="337"/>
       <c r="D17" s="338" t="s">
+        <v>555</v>
+      </c>
+      <c r="E17" s="338" t="s">
         <v>556</v>
       </c>
-      <c r="E17" s="338" t="s">
+      <c r="F17" s="338" t="s">
         <v>557</v>
       </c>
-      <c r="F17" s="338" t="s">
+      <c r="G17" s="339" t="s">
         <v>558</v>
-      </c>
-      <c r="G17" s="339" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="151" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C18" s="337"/>
       <c r="D18" s="108" t="s">
@@ -30414,12 +30411,12 @@
         <v>107</v>
       </c>
       <c r="G18" s="108" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="151" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C19" s="335" t="n">
         <v>1</v>
@@ -30443,7 +30440,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="151" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C20" s="335" t="n">
         <v>2</v>
@@ -30467,7 +30464,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="151" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C21" s="335" t="n">
         <v>3</v>
@@ -30491,10 +30488,10 @@
     </row>
     <row r="22" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="151" t="s">
+        <v>624</v>
+      </c>
+      <c r="C22" s="341" t="s">
         <v>625</v>
-      </c>
-      <c r="C22" s="341" t="s">
-        <v>626</v>
       </c>
       <c r="D22" s="343"/>
       <c r="E22" s="30"/>
@@ -30503,7 +30500,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="151" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C23" s="333" t="str">
         <f aca="false">A23</f>
@@ -30516,7 +30513,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="151" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C24" s="333"/>
       <c r="D24" s="333"/>
@@ -30526,7 +30523,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="151" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C25" s="333"/>
       <c r="D25" s="333"/>
@@ -30536,7 +30533,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="151" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C26" s="333"/>
       <c r="D26" s="333"/>
@@ -30546,7 +30543,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="151" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C27" s="333"/>
       <c r="D27" s="333"/>
@@ -30556,7 +30553,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="151" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C28" s="333"/>
       <c r="D28" s="333"/>
@@ -30566,7 +30563,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="151" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C29" s="333"/>
       <c r="D29" s="333"/>
@@ -30576,7 +30573,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="151" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C30" s="333"/>
       <c r="D30" s="333"/>
@@ -30586,7 +30583,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="151" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C31" s="333"/>
       <c r="D31" s="333"/>
@@ -30596,7 +30593,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="151" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C32" s="333"/>
       <c r="D32" s="333"/>
@@ -30606,10 +30603,10 @@
     </row>
     <row r="33" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="151" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C33" s="334" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D33" s="334"/>
       <c r="E33" s="334"/>
@@ -30618,7 +30615,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="151" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C34" s="335" t="n">
         <v>1</v>
@@ -30633,7 +30630,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="151" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C35" s="335" t="n">
         <v>2</v>
@@ -30648,7 +30645,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="151" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C36" s="335" t="n">
         <v>3</v>
@@ -30663,25 +30660,25 @@
     </row>
     <row r="37" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="151" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C37" s="337"/>
       <c r="D37" s="338" t="s">
+        <v>555</v>
+      </c>
+      <c r="E37" s="338" t="s">
         <v>556</v>
       </c>
-      <c r="E37" s="338" t="s">
+      <c r="F37" s="338" t="s">
         <v>557</v>
       </c>
-      <c r="F37" s="338" t="s">
+      <c r="G37" s="339" t="s">
         <v>558</v>
-      </c>
-      <c r="G37" s="339" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="151" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C38" s="337"/>
       <c r="D38" s="108" t="s">
@@ -30694,12 +30691,12 @@
         <v>107</v>
       </c>
       <c r="G38" s="108" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="151" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C39" s="335" t="n">
         <v>1</v>
@@ -30723,7 +30720,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="151" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C40" s="335" t="n">
         <v>2</v>
@@ -30747,7 +30744,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="151" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C41" s="335" t="n">
         <v>3</v>
@@ -30771,10 +30768,10 @@
     </row>
     <row r="42" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="151" t="s">
+        <v>645</v>
+      </c>
+      <c r="C42" s="341" t="s">
         <v>646</v>
-      </c>
-      <c r="C42" s="341" t="s">
-        <v>647</v>
       </c>
       <c r="D42" s="343"/>
       <c r="E42" s="346"/>
@@ -30783,7 +30780,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="151" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C43" s="333" t="str">
         <f aca="false">A43</f>
@@ -30796,7 +30793,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="151" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C44" s="333"/>
       <c r="D44" s="333"/>
@@ -30806,7 +30803,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="151" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C45" s="333"/>
       <c r="D45" s="333"/>
@@ -30912,7 +30909,7 @@
     </row>
     <row r="58" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C58" s="332" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D58" s="94"/>
       <c r="E58" s="168"/>
@@ -30930,7 +30927,7 @@
     <row r="60" customFormat="false" ht="11.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="151"/>
       <c r="C60" s="308" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D60" s="308"/>
       <c r="E60" s="308"/>
@@ -31122,10 +31119,10 @@
     </row>
     <row r="2" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="151" t="s">
+        <v>652</v>
+      </c>
+      <c r="C2" s="348" t="s">
         <v>653</v>
-      </c>
-      <c r="C2" s="348" t="s">
-        <v>654</v>
       </c>
       <c r="D2" s="348"/>
       <c r="E2" s="348"/>
@@ -31136,7 +31133,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="327" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="C3" s="333" t="str">
         <f aca="false">A3</f>
@@ -31151,7 +31148,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="327" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C4" s="333"/>
       <c r="D4" s="333"/>
@@ -31163,7 +31160,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="327" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C5" s="333"/>
       <c r="D5" s="333"/>
@@ -31175,7 +31172,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="327" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="C6" s="333"/>
       <c r="D6" s="333"/>
@@ -31187,7 +31184,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="327" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C7" s="333"/>
       <c r="D7" s="333"/>
@@ -31199,7 +31196,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="327" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C8" s="333"/>
       <c r="D8" s="333"/>
@@ -31211,7 +31208,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="327" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C9" s="333"/>
       <c r="D9" s="333"/>
@@ -31223,7 +31220,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="327" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C10" s="333"/>
       <c r="D10" s="333"/>
@@ -31235,7 +31232,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="327" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C11" s="333"/>
       <c r="D11" s="333"/>
@@ -31247,7 +31244,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="327" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C12" s="333"/>
       <c r="D12" s="333"/>
@@ -31259,7 +31256,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="327" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C13" s="333"/>
       <c r="D13" s="333"/>
@@ -31271,7 +31268,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="327" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C14" s="333"/>
       <c r="D14" s="333"/>
@@ -31283,7 +31280,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="327" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C15" s="333"/>
       <c r="D15" s="333"/>
@@ -31295,7 +31292,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="327" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C16" s="333"/>
       <c r="D16" s="333"/>
@@ -31307,7 +31304,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="327" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C17" s="333"/>
       <c r="D17" s="333"/>
@@ -31319,7 +31316,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="327" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C18" s="333"/>
       <c r="D18" s="333"/>
@@ -31331,7 +31328,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="327" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C19" s="333"/>
       <c r="D19" s="333"/>
@@ -31343,7 +31340,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="327" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C20" s="333"/>
       <c r="D20" s="333"/>
@@ -31355,7 +31352,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="327" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C21" s="333"/>
       <c r="D21" s="333"/>
@@ -31367,7 +31364,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="327" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C22" s="333"/>
       <c r="D22" s="333"/>
@@ -31379,7 +31376,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="327" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C23" s="333"/>
       <c r="D23" s="333"/>
@@ -31391,7 +31388,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="327" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C24" s="333"/>
       <c r="D24" s="333"/>
@@ -31403,7 +31400,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="327" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C25" s="333"/>
       <c r="D25" s="333"/>
@@ -31415,7 +31412,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="327" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C26" s="333"/>
       <c r="D26" s="333"/>
@@ -31427,7 +31424,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="327" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C27" s="333"/>
       <c r="D27" s="333"/>
@@ -31439,7 +31436,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="327" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C28" s="333"/>
       <c r="D28" s="333"/>
@@ -31451,7 +31448,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="327" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C29" s="333"/>
       <c r="D29" s="333"/>
@@ -31463,7 +31460,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="327" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C30" s="333"/>
       <c r="D30" s="333"/>
@@ -31475,7 +31472,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="327" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C31" s="333"/>
       <c r="D31" s="333"/>
@@ -31487,7 +31484,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="327" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C32" s="333"/>
       <c r="D32" s="333"/>
@@ -31499,7 +31496,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="327" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C33" s="333"/>
       <c r="D33" s="333"/>
@@ -31511,7 +31508,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="327" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C34" s="333"/>
       <c r="D34" s="333"/>
@@ -31523,7 +31520,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="327" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C35" s="333"/>
       <c r="D35" s="333"/>
@@ -31535,7 +31532,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="327" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C36" s="333"/>
       <c r="D36" s="333"/>
@@ -31547,7 +31544,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="327" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C37" s="333"/>
       <c r="D37" s="333"/>
@@ -31559,7 +31556,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="327" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C38" s="333"/>
       <c r="D38" s="333"/>
@@ -31571,7 +31568,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="327" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C39" s="333"/>
       <c r="D39" s="333"/>
@@ -31583,7 +31580,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="327" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C40" s="333"/>
       <c r="D40" s="333"/>
@@ -31595,7 +31592,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="327" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C41" s="333"/>
       <c r="D41" s="333"/>
@@ -31607,7 +31604,7 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="327" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C42" s="333"/>
       <c r="D42" s="333"/>
@@ -31619,7 +31616,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="327" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C43" s="333"/>
       <c r="D43" s="333"/>
@@ -31631,7 +31628,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="327" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C44" s="333"/>
       <c r="D44" s="333"/>
@@ -31643,7 +31640,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="327" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C45" s="333"/>
       <c r="D45" s="333"/>
@@ -31655,7 +31652,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="327" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C46" s="333"/>
       <c r="D46" s="333"/>
@@ -31667,7 +31664,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="327" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C47" s="333"/>
       <c r="D47" s="333"/>
@@ -31679,7 +31676,7 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="327" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C48" s="333"/>
       <c r="D48" s="333"/>
@@ -31691,7 +31688,7 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="327" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C49" s="333"/>
       <c r="D49" s="333"/>
@@ -31703,7 +31700,7 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="327" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C50" s="333"/>
       <c r="D50" s="333"/>
@@ -31715,7 +31712,7 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="327" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C51" s="333"/>
       <c r="D51" s="333"/>
@@ -31727,7 +31724,7 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="327" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C52" s="333"/>
       <c r="D52" s="333"/>
@@ -31739,7 +31736,7 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="327" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C53" s="333"/>
       <c r="D53" s="333"/>
@@ -31751,7 +31748,7 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="327" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C54" s="333"/>
       <c r="D54" s="333"/>
@@ -31763,7 +31760,7 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="327" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C55" s="333"/>
       <c r="D55" s="333"/>
@@ -31775,7 +31772,7 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="327" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C56" s="333"/>
       <c r="D56" s="333"/>
@@ -31787,7 +31784,7 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="327" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C57" s="333"/>
       <c r="D57" s="333"/>
@@ -31799,7 +31796,7 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="327" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C58" s="333"/>
       <c r="D58" s="333"/>
@@ -31811,7 +31808,7 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="327" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C59" s="333"/>
       <c r="D59" s="333"/>
@@ -31823,7 +31820,7 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="327" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C60" s="333"/>
       <c r="D60" s="333"/>
@@ -31835,7 +31832,7 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="327" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C61" s="333"/>
       <c r="D61" s="333"/>
@@ -31847,7 +31844,7 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="327" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C62" s="333"/>
       <c r="D62" s="333"/>
@@ -31859,7 +31856,7 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="327" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C63" s="333"/>
       <c r="D63" s="333"/>
@@ -31871,7 +31868,7 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="327" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C64" s="333"/>
       <c r="D64" s="333"/>
@@ -31883,7 +31880,7 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="327" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C65" s="333"/>
       <c r="D65" s="333"/>
@@ -31895,7 +31892,7 @@
     </row>
     <row r="66" customFormat="false" ht="5.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="327" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C66" s="144"/>
       <c r="D66" s="145"/>
@@ -31907,372 +31904,372 @@
     </row>
     <row r="67" customFormat="false" ht="4.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="327" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="327" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="327" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="327" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="327" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="327" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="327" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="327" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="327" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="327" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="327" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="327" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="327" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="327" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="327" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="327" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="327" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="327" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="327" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="327" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="327" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="327" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="327" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="327" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="327" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="327" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="327" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="327" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="327" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="327" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="327" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="327" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="327" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="327" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="327" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="327" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="327" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="327" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="327" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="327" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="327" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="327" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="327" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="327" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="327" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="327" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="327" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="327" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="327" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="327" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="327" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="327" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="327" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="327" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="327" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="327" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="327" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="327" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="327" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="327" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="327" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="327" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="327" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="327" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="327" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="327" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="327" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="327" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="327" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="327" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="327" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="327" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="327" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="327" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
   </sheetData>

--- a/etp-backend/src/main/resources/energiatodistus-2013-sv.xlsx
+++ b/etp-backend/src/main/resources/energiatodistus-2013-sv.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="1) etusivu" sheetId="1" state="visible" r:id="rId2"/>
@@ -407,7 +407,7 @@
     <t xml:space="preserve">Energiforms-faktor</t>
   </si>
   <si>
-    <t xml:space="preserve">Energimängd viktad med energiformsfaktor</t>
+    <t xml:space="preserve">Energimängd viktad med energiformsfaktorn</t>
   </si>
   <si>
     <t xml:space="preserve">[:tulokset :kaytettavat-energiamuodot :kaukolampo-nettoala]</t>
@@ -8757,9 +8757,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>241920</xdr:colOff>
+      <xdr:colOff>241560</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>255600</xdr:rowOff>
+      <xdr:rowOff>255240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8773,12 +8773,12 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="4199040"/>
-          <a:ext cx="751680" cy="208080"/>
+          <a:ext cx="751320" cy="207720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="0">
           <a:noFill/>
         </a:ln>
       </xdr:spPr>
@@ -8794,9 +8794,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>141840</xdr:colOff>
+      <xdr:colOff>141480</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>255600</xdr:rowOff>
+      <xdr:rowOff>255240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8810,12 +8810,12 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="4513320"/>
-          <a:ext cx="1094760" cy="208080"/>
+          <a:ext cx="1094400" cy="207720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="0">
           <a:noFill/>
         </a:ln>
       </xdr:spPr>
@@ -8831,9 +8831,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>15120</xdr:colOff>
+      <xdr:colOff>14760</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>256680</xdr:rowOff>
+      <xdr:rowOff>256320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8847,12 +8847,12 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="4828680"/>
-          <a:ext cx="1401840" cy="208080"/>
+          <a:ext cx="1401480" cy="207720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="0">
           <a:noFill/>
         </a:ln>
       </xdr:spPr>
@@ -8868,9 +8868,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>339120</xdr:colOff>
+      <xdr:colOff>338760</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>256680</xdr:rowOff>
+      <xdr:rowOff>256320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8884,12 +8884,12 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="5142960"/>
-          <a:ext cx="1725840" cy="208080"/>
+          <a:ext cx="1725480" cy="207720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="0">
           <a:noFill/>
         </a:ln>
       </xdr:spPr>
@@ -8905,9 +8905,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>212400</xdr:colOff>
+      <xdr:colOff>212040</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>269640</xdr:rowOff>
+      <xdr:rowOff>269280</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8921,12 +8921,12 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="5457240"/>
-          <a:ext cx="2032920" cy="221040"/>
+          <a:ext cx="2032560" cy="220680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="0">
           <a:noFill/>
         </a:ln>
       </xdr:spPr>
@@ -8942,9 +8942,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>155520</xdr:colOff>
+      <xdr:colOff>155160</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>256680</xdr:rowOff>
+      <xdr:rowOff>256320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8958,12 +8958,12 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="5771520"/>
-          <a:ext cx="2377800" cy="208080"/>
+          <a:ext cx="2377440" cy="207720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="0">
           <a:noFill/>
         </a:ln>
       </xdr:spPr>
@@ -8979,9 +8979,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>95760</xdr:colOff>
+      <xdr:colOff>95400</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>255600</xdr:rowOff>
+      <xdr:rowOff>255240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8995,12 +8995,12 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="6085080"/>
-          <a:ext cx="2691000" cy="208080"/>
+          <a:ext cx="2690640" cy="207720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="0">
           <a:noFill/>
         </a:ln>
       </xdr:spPr>
@@ -9349,13 +9349,13 @@
       <xdr:col>11</xdr:col>
       <xdr:colOff>294120</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>60120</xdr:rowOff>
+      <xdr:rowOff>60480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>294120</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>52560</xdr:rowOff>
+      <xdr:rowOff>52920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9395,9 +9395,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>312120</xdr:colOff>
+      <xdr:colOff>311760</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>73080</xdr:rowOff>
+      <xdr:rowOff>72720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9407,7 +9407,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1994400" y="149040"/>
-          <a:ext cx="6994080" cy="10057320"/>
+          <a:ext cx="6993720" cy="10056960"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -9493,9 +9493,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>322560</xdr:colOff>
+      <xdr:colOff>322200</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>74160</xdr:rowOff>
+      <xdr:rowOff>73800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9505,7 +9505,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1987560" y="10344960"/>
-          <a:ext cx="7011360" cy="261000"/>
+          <a:ext cx="7011000" cy="260640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9524,7 +9524,7 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000">
+        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="t">
           <a:noAutofit/>
         </a:bodyPr>
         <a:p>
@@ -9542,7 +9542,7 @@
             </a:rPr>
             <a:t>Energicertifikatet grundar sig på lagen om energicertifikat för byggnader  (50/2013). </a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+          <a:endParaRPr b="0" lang="fi-FI" sz="1100" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -9559,9 +9559,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>428400</xdr:colOff>
+      <xdr:colOff>428040</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>51480</xdr:rowOff>
+      <xdr:rowOff>51120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9571,13 +9571,13 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5525280" y="4883760"/>
-          <a:ext cx="790200" cy="262080"/>
+          <a:ext cx="789840" cy="261720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="0">
           <a:noFill/>
         </a:ln>
       </xdr:spPr>
@@ -9606,7 +9606,7 @@
             </a:rPr>
             <a:t>Normnivån för</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="700" spc="-1" strike="noStrike">
+          <a:endParaRPr b="0" lang="fi-FI" sz="700" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -9623,9 +9623,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>427320</xdr:colOff>
+      <xdr:colOff>426960</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>191160</xdr:rowOff>
+      <xdr:rowOff>190800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9635,13 +9635,13 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5524200" y="5023440"/>
-          <a:ext cx="790200" cy="262080"/>
+          <a:ext cx="789840" cy="261720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="0">
           <a:noFill/>
         </a:ln>
       </xdr:spPr>
@@ -9670,7 +9670,7 @@
             </a:rPr>
             <a:t>nybyggnader 2012</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="700" spc="-1" strike="noStrike">
+          <a:endParaRPr b="0" lang="fi-FI" sz="700" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -19476,18 +19476,18 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B9:H11 J9:AMJ9 I10:AMJ11" type="none">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B9:H11 J9:AMJ9 I10:AMJ11" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A9:A11" type="none">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A9:A11" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
-  <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -19503,8 +19503,8 @@
   </sheetPr>
   <dimension ref="A1:AC82"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M43" activeCellId="0" sqref="M43"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J9" activeCellId="0" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -22270,8 +22270,8 @@
     </cfRule>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
-  <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -22286,7 +22286,7 @@
   </sheetPr>
   <dimension ref="A1:N94"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D75" activeCellId="0" sqref="D75"/>
     </sheetView>
   </sheetViews>
@@ -24646,14 +24646,14 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A49:E49 G49:AMJ49" type="none">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A49:E49 G49:AMJ49" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
-  <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -27205,14 +27205,14 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="H44:H47 G47 G49:H49" type="none">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="H44:H47 G47 G49:H49" type="none">
       <formula1>OR(ISNUMBER(#ref!),#ref!="*")</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
-  <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -29120,8 +29120,8 @@
     </cfRule>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
-  <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -30164,14 +30164,14 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A63:F64 H63:AMJ64 G64" type="none">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A63:F64 H63:AMJ64 G64" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
-  <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -31081,8 +31081,8 @@
     </cfRule>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
-  <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -32283,8 +32283,8 @@
     </cfRule>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
-  <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/etp-backend/src/main/resources/energiatodistus-2013-sv.xlsx
+++ b/etp-backend/src/main/resources/energiatodistus-2013-sv.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="1) etusivu" sheetId="1" state="visible" r:id="rId2"/>
@@ -1719,10 +1719,10 @@
     <t xml:space="preserve">[:tulokset :kaytettavat-energiamuodot :fossiilinen-polttoaine-kertoimella]</t>
   </si>
   <si>
+    <t xml:space="preserve">förnybara bränslen</t>
+  </si>
+  <si>
     <t xml:space="preserve">[:tulokset :kaytettavat-energiamuodot :kaukojaahdytys-kertoimella]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">förnybara bränslen</t>
   </si>
   <si>
     <t xml:space="preserve">[:tulokset :kaytettavat-energiamuodot :uusiutuva-polttoaine-kertoimella]</t>
@@ -5025,12 +5025,12 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
     <xf numFmtId="174" fontId="7" fillId="3" borderId="16" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="false" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -8757,9 +8757,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>241560</xdr:colOff>
+      <xdr:colOff>241200</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>255240</xdr:rowOff>
+      <xdr:rowOff>254880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8773,7 +8773,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="4199040"/>
-          <a:ext cx="751320" cy="207720"/>
+          <a:ext cx="750960" cy="207360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8794,9 +8794,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>141480</xdr:colOff>
+      <xdr:colOff>141120</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>255240</xdr:rowOff>
+      <xdr:rowOff>254880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8810,7 +8810,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="4513320"/>
-          <a:ext cx="1094400" cy="207720"/>
+          <a:ext cx="1094040" cy="207360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8831,9 +8831,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>14760</xdr:colOff>
+      <xdr:colOff>14400</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>256320</xdr:rowOff>
+      <xdr:rowOff>255960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8847,7 +8847,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="4828680"/>
-          <a:ext cx="1401480" cy="207720"/>
+          <a:ext cx="1401120" cy="207360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8868,9 +8868,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>338760</xdr:colOff>
+      <xdr:colOff>338400</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>256320</xdr:rowOff>
+      <xdr:rowOff>255960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8884,7 +8884,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="5142960"/>
-          <a:ext cx="1725480" cy="207720"/>
+          <a:ext cx="1725120" cy="207360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8905,9 +8905,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>212040</xdr:colOff>
+      <xdr:colOff>211680</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>269280</xdr:rowOff>
+      <xdr:rowOff>268920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8921,7 +8921,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="5457240"/>
-          <a:ext cx="2032560" cy="220680"/>
+          <a:ext cx="2032200" cy="220320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8942,9 +8942,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>155160</xdr:colOff>
+      <xdr:colOff>154800</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>256320</xdr:rowOff>
+      <xdr:rowOff>255960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8958,7 +8958,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="5771520"/>
-          <a:ext cx="2377440" cy="207720"/>
+          <a:ext cx="2377080" cy="207360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8979,9 +8979,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>95400</xdr:colOff>
+      <xdr:colOff>95040</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>255240</xdr:rowOff>
+      <xdr:rowOff>254880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8995,7 +8995,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="6085080"/>
-          <a:ext cx="2690640" cy="207720"/>
+          <a:ext cx="2690280" cy="207360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9364,7 +9364,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6181200" y="3605760"/>
+          <a:off x="6181200" y="3606120"/>
           <a:ext cx="0" cy="3053880"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -9395,9 +9395,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>311760</xdr:colOff>
+      <xdr:colOff>311400</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>72720</xdr:rowOff>
+      <xdr:rowOff>72360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9407,7 +9407,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1994400" y="149040"/>
-          <a:ext cx="6993720" cy="10056960"/>
+          <a:ext cx="6993360" cy="10056600"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -9493,9 +9493,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>322200</xdr:colOff>
+      <xdr:colOff>321840</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>73800</xdr:rowOff>
+      <xdr:rowOff>73440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9505,7 +9505,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1987560" y="10344960"/>
-          <a:ext cx="7011000" cy="260640"/>
+          <a:ext cx="7010640" cy="260280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9559,9 +9559,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>428040</xdr:colOff>
+      <xdr:colOff>427680</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>51120</xdr:rowOff>
+      <xdr:rowOff>50760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9571,7 +9571,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5525280" y="4883760"/>
-          <a:ext cx="789840" cy="261720"/>
+          <a:ext cx="789480" cy="261360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9623,9 +9623,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>426960</xdr:colOff>
+      <xdr:colOff>426600</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>190800</xdr:rowOff>
+      <xdr:rowOff>190440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9635,7 +9635,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5524200" y="5023440"/>
-          <a:ext cx="789840" cy="261720"/>
+          <a:ext cx="789480" cy="261360"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9688,8 +9688,8 @@
   </sheetPr>
   <dimension ref="A1:AK262"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q10" activeCellId="0" sqref="Q10"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -19503,8 +19503,8 @@
   </sheetPr>
   <dimension ref="A1:AC82"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J9" activeCellId="0" sqref="J9"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -22286,8 +22286,8 @@
   </sheetPr>
   <dimension ref="A1:N94"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D75" activeCellId="0" sqref="D75"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -24668,8 +24668,8 @@
   </sheetPr>
   <dimension ref="A1:T113"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D49" activeCellId="0" sqref="D49"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -25113,24 +25113,24 @@
         <v>133</v>
       </c>
       <c r="C20" s="173"/>
-      <c r="D20" s="252" t="s">
-        <v>119</v>
+      <c r="D20" s="255" t="s">
+        <v>335</v>
       </c>
       <c r="E20" s="221" t="str">
-        <f aca="false">A15</f>
-        <v>[:tulokset :kaytettavat-energiamuodot :fossiilinen-polttoaine]</v>
-      </c>
-      <c r="F20" s="253" t="str">
-        <f aca="false">A16</f>
-        <v>[:tulokset :kaytettavat-energiamuodot :fossiilinen-polttoaine-kerroin]</v>
-      </c>
-      <c r="G20" s="221" t="str">
-        <f aca="false">A17</f>
-        <v>[:tulokset :kaytettavat-energiamuodot :fossiilinen-polttoaine-kertoimella]</v>
-      </c>
-      <c r="H20" s="253" t="str">
-        <f aca="false">A18</f>
-        <v>[:tulokset :kaytettavat-energiamuodot :fossiilinen-polttoaine-nettoala-kertoimella]</v>
+        <f aca="false">A23</f>
+        <v>[:tulokset :kaytettavat-energiamuodot :uusiutuva-polttoaine]</v>
+      </c>
+      <c r="F20" s="256" t="str">
+        <f aca="false">A24</f>
+        <v>[:tulokset :kaytettavat-energiamuodot :uusiutuva-polttoaine-kerroin]</v>
+      </c>
+      <c r="G20" s="254" t="str">
+        <f aca="false">A25</f>
+        <v>[:tulokset :kaytettavat-energiamuodot :uusiutuva-polttoaine-kertoimella]</v>
+      </c>
+      <c r="H20" s="254" t="str">
+        <f aca="false">A26</f>
+        <v>[:tulokset :kaytettavat-energiamuodot :uusiutuva-polttoaine-nettoala-kertoimella]</v>
       </c>
       <c r="I20" s="181"/>
       <c r="J20" s="237"/>
@@ -25146,27 +25146,27 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="159" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C21" s="173"/>
       <c r="D21" s="252" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E21" s="221" t="str">
-        <f aca="false">A19</f>
-        <v>[:tulokset :kaytettavat-energiamuodot :kaukojaahdytys]</v>
-      </c>
-      <c r="F21" s="255" t="str">
-        <f aca="false">A20</f>
-        <v>[:tulokset :kaytettavat-energiamuodot :kaukojaahdytys-kerroin]</v>
-      </c>
-      <c r="G21" s="254" t="str">
-        <f aca="false">A21</f>
-        <v>[:tulokset :kaytettavat-energiamuodot :kaukojaahdytys-kertoimella]</v>
-      </c>
-      <c r="H21" s="254" t="str">
-        <f aca="false">A22</f>
-        <v>[:tulokset :kaytettavat-energiamuodot :kaukojaahdytys-nettoala-kertoimella]</v>
+        <f aca="false">A15</f>
+        <v>[:tulokset :kaytettavat-energiamuodot :fossiilinen-polttoaine]</v>
+      </c>
+      <c r="F21" s="253" t="str">
+        <f aca="false">A16</f>
+        <v>[:tulokset :kaytettavat-energiamuodot :fossiilinen-polttoaine-kerroin]</v>
+      </c>
+      <c r="G21" s="221" t="str">
+        <f aca="false">A17</f>
+        <v>[:tulokset :kaytettavat-energiamuodot :fossiilinen-polttoaine-kertoimella]</v>
+      </c>
+      <c r="H21" s="253" t="str">
+        <f aca="false">A18</f>
+        <v>[:tulokset :kaytettavat-energiamuodot :fossiilinen-polttoaine-nettoala-kertoimella]</v>
       </c>
       <c r="I21" s="181"/>
       <c r="J21" s="236"/>
@@ -25185,24 +25185,24 @@
         <v>135</v>
       </c>
       <c r="C22" s="173"/>
-      <c r="D22" s="256" t="s">
-        <v>336</v>
+      <c r="D22" s="252" t="s">
+        <v>121</v>
       </c>
       <c r="E22" s="221" t="str">
-        <f aca="false">A23</f>
-        <v>[:tulokset :kaytettavat-energiamuodot :uusiutuva-polttoaine]</v>
-      </c>
-      <c r="F22" s="255" t="str">
-        <f aca="false">A24</f>
-        <v>[:tulokset :kaytettavat-energiamuodot :uusiutuva-polttoaine-kerroin]</v>
+        <f aca="false">A19</f>
+        <v>[:tulokset :kaytettavat-energiamuodot :kaukojaahdytys]</v>
+      </c>
+      <c r="F22" s="256" t="str">
+        <f aca="false">A20</f>
+        <v>[:tulokset :kaytettavat-energiamuodot :kaukojaahdytys-kerroin]</v>
       </c>
       <c r="G22" s="254" t="str">
-        <f aca="false">A25</f>
-        <v>[:tulokset :kaytettavat-energiamuodot :uusiutuva-polttoaine-kertoimella]</v>
+        <f aca="false">A21</f>
+        <v>[:tulokset :kaytettavat-energiamuodot :kaukojaahdytys-kertoimella]</v>
       </c>
       <c r="H22" s="254" t="str">
-        <f aca="false">A26</f>
-        <v>[:tulokset :kaytettavat-energiamuodot :uusiutuva-polttoaine-nettoala-kertoimella]</v>
+        <f aca="false">A22</f>
+        <v>[:tulokset :kaytettavat-energiamuodot :kaukojaahdytys-nettoala-kertoimella]</v>
       </c>
       <c r="I22" s="181"/>
       <c r="J22" s="237"/>
@@ -25221,7 +25221,7 @@
         <v>118</v>
       </c>
       <c r="C23" s="173"/>
-      <c r="D23" s="256" t="str">
+      <c r="D23" s="255" t="str">
         <f aca="false">A27</f>
         <v>[:tulokset :kaytettavat-energiamuodot :muu 0 :nimi]</v>
       </c>
@@ -25229,7 +25229,7 @@
         <f aca="false">A28</f>
         <v>[:tulokset :kaytettavat-energiamuodot :muu 0 :ostoenergia]</v>
       </c>
-      <c r="F23" s="255" t="str">
+      <c r="F23" s="256" t="str">
         <f aca="false">A29</f>
         <v>[:tulokset :kaytettavat-energiamuodot :muu 0 :muotokerroin]</v>
       </c>
@@ -25258,7 +25258,7 @@
         <v>122</v>
       </c>
       <c r="C24" s="173"/>
-      <c r="D24" s="256" t="str">
+      <c r="D24" s="255" t="str">
         <f aca="false">A32</f>
         <v>[:tulokset :kaytettavat-energiamuodot :muu 1 :nimi]</v>
       </c>
@@ -25266,7 +25266,7 @@
         <f aca="false">A33</f>
         <v>[:tulokset :kaytettavat-energiamuodot :muu 1 :ostoenergia]</v>
       </c>
-      <c r="F24" s="255" t="str">
+      <c r="F24" s="256" t="str">
         <f aca="false">A34</f>
         <v>[:tulokset :kaytettavat-energiamuodot :muu 1 :muotokerroin]</v>
       </c>
@@ -25303,7 +25303,7 @@
         <f aca="false">A38</f>
         <v>[:tulokset :kaytettavat-energiamuodot :muu 2 :ostoenergia]</v>
       </c>
-      <c r="F25" s="255" t="str">
+      <c r="F25" s="256" t="str">
         <f aca="false">A39</f>
         <v>[:tulokset :kaytettavat-energiamuodot :muu 2 :muotokerroin]</v>
       </c>
@@ -26991,7 +26991,7 @@
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F18:F25 H20">
+  <conditionalFormatting sqref="F18:F25 H22">
     <cfRule type="cellIs" priority="56" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="257">
       <formula>"*"</formula>
     </cfRule>
@@ -27031,12 +27031,12 @@
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G21:G25 G18:G19">
+  <conditionalFormatting sqref="G22:G25 G18:G20">
     <cfRule type="cellIs" priority="64" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="265">
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H21:H25 H18:H19">
+  <conditionalFormatting sqref="H22:H25 H18:H20">
     <cfRule type="cellIs" priority="65" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="266">
       <formula>"*"</formula>
     </cfRule>
@@ -27061,7 +27061,7 @@
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E19:E25 G20">
+  <conditionalFormatting sqref="E19:E25 G22">
     <cfRule type="cellIs" priority="70" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="271">
       <formula>"*"</formula>
     </cfRule>
@@ -27146,62 +27146,62 @@
       <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D22:D24">
+  <conditionalFormatting sqref="D23:D24 D20">
     <cfRule type="expression" priority="87" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="143">
+      <formula>LEFT(D20,1)="*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F44">
+    <cfRule type="cellIs" priority="88" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="288">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H44">
+    <cfRule type="cellIs" priority="89" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="195">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G47:H47 G49:H49">
+    <cfRule type="cellIs" priority="90" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="196">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H45:H46">
+    <cfRule type="cellIs" priority="91" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="200">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31:D36">
+    <cfRule type="cellIs" priority="92" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="151">
+      <formula>"tyhjä"</formula>
+    </cfRule>
+    <cfRule type="cellIs" priority="93" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="152">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31:D36">
+    <cfRule type="cellIs" priority="94" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="153">
+      <formula>"- Valitse -"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D18:D19">
+    <cfRule type="expression" priority="95" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="151">
+      <formula>LEFT(D18,1)="*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D69:D70">
+    <cfRule type="cellIs" priority="96" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="147">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E16">
+    <cfRule type="cellIs" priority="97" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="289">
+      <formula>"*"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D21:D22">
+    <cfRule type="expression" priority="98" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="148">
       <formula>LEFT(D22,1)="*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D20:D21">
-    <cfRule type="expression" priority="88" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="148">
-      <formula>LEFT(D20,1)="*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F44">
-    <cfRule type="cellIs" priority="89" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="288">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H44">
-    <cfRule type="cellIs" priority="90" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="195">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G47:H47 G49:H49">
-    <cfRule type="cellIs" priority="91" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="196">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H45:H46">
-    <cfRule type="cellIs" priority="92" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="200">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D31:D36">
-    <cfRule type="cellIs" priority="93" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="151">
-      <formula>"tyhjä"</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="94" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="152">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D31:D36">
-    <cfRule type="cellIs" priority="95" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="153">
-      <formula>"- Valitse -"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D18:D19">
-    <cfRule type="expression" priority="96" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="151">
-      <formula>LEFT(D18,1)="*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D69:D70">
-    <cfRule type="cellIs" priority="97" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="147">
-      <formula>"*"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E16">
-    <cfRule type="cellIs" priority="98" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="289">
-      <formula>"*"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -27228,7 +27228,7 @@
   <dimension ref="A1:Y67"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A43" activeCellId="0" sqref="A43"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -29136,8 +29136,8 @@
   </sheetPr>
   <dimension ref="A1:G65"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C26" activeCellId="0" sqref="C26"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -30187,7 +30187,7 @@
   <dimension ref="A1:G66"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A77" activeCellId="0" sqref="A77"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -31098,7 +31098,7 @@
   <dimension ref="A1:I140"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/etp-backend/src/main/resources/energiatodistus-2013-sv.xlsx
+++ b/etp-backend/src/main/resources/energiatodistus-2013-sv.xlsx
@@ -2949,10 +2949,10 @@
     <t xml:space="preserve">[:lahtotiedot :lammitys :lammin-kayttovesi :lampopumppu-tuotto-osuus]</t>
   </si>
   <si>
-    <t xml:space="preserve">[:lahtotiedot :lammitys :tilat-ja-iv :lampohavio-lammittamaton-tila]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[:lahtotiedot :lammitys :lammin-kayttovesi :lampohavio-lammittamaton-tila]</t>
+    <t xml:space="preserve">[:lahtotiedot :lammitys :lampohavio-lammittamaton-tila]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UNUSED</t>
   </si>
   <si>
     <t xml:space="preserve">[:tulokset :kuukausierittely 0 :tuotto :aurinkosahko]</t>
@@ -8757,9 +8757,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>241200</xdr:colOff>
+      <xdr:colOff>240840</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>254880</xdr:rowOff>
+      <xdr:rowOff>254520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8773,7 +8773,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="4199040"/>
-          <a:ext cx="750960" cy="207360"/>
+          <a:ext cx="750600" cy="207000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8794,9 +8794,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>141120</xdr:colOff>
+      <xdr:colOff>140760</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>254880</xdr:rowOff>
+      <xdr:rowOff>254520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8810,7 +8810,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="4513320"/>
-          <a:ext cx="1094040" cy="207360"/>
+          <a:ext cx="1093680" cy="207000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8831,9 +8831,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>14400</xdr:colOff>
+      <xdr:colOff>14040</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>255960</xdr:rowOff>
+      <xdr:rowOff>255600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8847,7 +8847,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="4828680"/>
-          <a:ext cx="1401120" cy="207360"/>
+          <a:ext cx="1400760" cy="207000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8868,9 +8868,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>338400</xdr:colOff>
+      <xdr:colOff>338040</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>255960</xdr:rowOff>
+      <xdr:rowOff>255600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8884,7 +8884,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="5142960"/>
-          <a:ext cx="1725120" cy="207360"/>
+          <a:ext cx="1724760" cy="207000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8905,9 +8905,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>211680</xdr:colOff>
+      <xdr:colOff>211320</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>268920</xdr:rowOff>
+      <xdr:rowOff>268560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8921,7 +8921,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="5457240"/>
-          <a:ext cx="2032200" cy="220320"/>
+          <a:ext cx="2031840" cy="219960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8942,9 +8942,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>154800</xdr:colOff>
+      <xdr:colOff>154440</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>255960</xdr:rowOff>
+      <xdr:rowOff>255600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8958,7 +8958,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="5771520"/>
-          <a:ext cx="2377080" cy="207360"/>
+          <a:ext cx="2376720" cy="207000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8979,9 +8979,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>95040</xdr:colOff>
+      <xdr:colOff>94680</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>254880</xdr:rowOff>
+      <xdr:rowOff>254520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8995,7 +8995,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="6085080"/>
-          <a:ext cx="2690280" cy="207360"/>
+          <a:ext cx="2689920" cy="207000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9395,9 +9395,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>311400</xdr:colOff>
+      <xdr:colOff>311040</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>72360</xdr:rowOff>
+      <xdr:rowOff>72000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9407,7 +9407,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1994400" y="149040"/>
-          <a:ext cx="6993360" cy="10056600"/>
+          <a:ext cx="6993000" cy="10056240"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -9493,9 +9493,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>321840</xdr:colOff>
+      <xdr:colOff>321480</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>73440</xdr:rowOff>
+      <xdr:rowOff>73080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9505,7 +9505,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1987560" y="10344960"/>
-          <a:ext cx="7010640" cy="260280"/>
+          <a:ext cx="7010280" cy="259920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9559,9 +9559,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>427680</xdr:colOff>
+      <xdr:colOff>427320</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>50760</xdr:rowOff>
+      <xdr:rowOff>50400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9571,7 +9571,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5525280" y="4883760"/>
-          <a:ext cx="789480" cy="261360"/>
+          <a:ext cx="789120" cy="261000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9623,9 +9623,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>426600</xdr:colOff>
+      <xdr:colOff>426240</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>190440</xdr:rowOff>
+      <xdr:rowOff>190080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9635,7 +9635,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5524200" y="5023440"/>
-          <a:ext cx="789480" cy="261360"/>
+          <a:ext cx="789120" cy="261000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>

--- a/etp-backend/src/main/resources/energiatodistus-2013-sv.xlsx
+++ b/etp-backend/src/main/resources/energiatodistus-2013-sv.xlsx
@@ -45,20 +45,23 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="792">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="793">
   <si>
     <t xml:space="preserve">[:id]</t>
   </si>
   <si>
-    <t xml:space="preserve">[:perustiedot :nimi]</t>
+    <t xml:space="preserve">[:perustiedot :nimi-fi]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:perustiedot :nimi-sv]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ENERGICERTIFIKAT</t>
   </si>
   <si>
     <t xml:space="preserve">[:perustiedot :katuosoite-fi]</t>
   </si>
   <si>
-    <t xml:space="preserve">  ENERGICERTIFIKAT</t>
-  </si>
-  <si>
     <t xml:space="preserve">[:perustiedot :katuosoite-sv]</t>
   </si>
   <si>
@@ -68,12 +71,12 @@
     <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--49527]</t>
   </si>
   <si>
+    <t xml:space="preserve">Byggnadens namn och adress:</t>
+  </si>
+  <si>
     <t xml:space="preserve">[:perustiedot :rakennustunnus]</t>
   </si>
   <si>
-    <t xml:space="preserve">Byggnadens namn och adress:</t>
-  </si>
-  <si>
     <t xml:space="preserve">[:perustiedot :valmistumisvuosi]</t>
   </si>
   <si>
@@ -89,33 +92,33 @@
     <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--49531]</t>
   </si>
   <si>
+    <t xml:space="preserve">Byggnadsbeteckning:</t>
+  </si>
+  <si>
     <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--49533]</t>
   </si>
   <si>
-    <t xml:space="preserve">Byggnadsbeteckning:</t>
+    <t xml:space="preserve">Byggnaden färdigställd år:</t>
   </si>
   <si>
     <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--49535]</t>
   </si>
   <si>
-    <t xml:space="preserve">Byggnaden färdigställd år:</t>
-  </si>
-  <si>
     <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--49537]</t>
   </si>
   <si>
+    <t xml:space="preserve">Byggnadens användningskategori:</t>
+  </si>
+  <si>
     <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--49539]</t>
   </si>
   <si>
-    <t xml:space="preserve">Byggnadens användningskategori:</t>
+    <t xml:space="preserve">Certifikatnummer:</t>
   </si>
   <si>
     <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--49541]</t>
   </si>
   <si>
-    <t xml:space="preserve">Certifikatnummer:</t>
-  </si>
-  <si>
     <t xml:space="preserve">[:tulokset :e-luku]</t>
   </si>
   <si>
@@ -125,10 +128,10 @@
     <t xml:space="preserve">[:laatija-fullname]</t>
   </si>
   <si>
+    <t xml:space="preserve">               Energiprestandaklass</t>
+  </si>
+  <si>
     <t xml:space="preserve">[:perustiedot :yritys :nimi]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">               Energiprestandaklass</t>
   </si>
   <si>
     <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--49544]</t>
@@ -4057,10 +4060,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4075,6 +4074,10 @@
     </xf>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
@@ -8757,9 +8760,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>240840</xdr:colOff>
+      <xdr:colOff>240480</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>254520</xdr:rowOff>
+      <xdr:rowOff>254160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8773,7 +8776,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="4199040"/>
-          <a:ext cx="750600" cy="207000"/>
+          <a:ext cx="750240" cy="206640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8794,9 +8797,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>140760</xdr:colOff>
+      <xdr:colOff>140400</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>254520</xdr:rowOff>
+      <xdr:rowOff>254160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8810,7 +8813,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="4513320"/>
-          <a:ext cx="1093680" cy="207000"/>
+          <a:ext cx="1093320" cy="206640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8831,9 +8834,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>14040</xdr:colOff>
+      <xdr:colOff>13680</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>255600</xdr:rowOff>
+      <xdr:rowOff>255240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8847,7 +8850,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="4828680"/>
-          <a:ext cx="1400760" cy="207000"/>
+          <a:ext cx="1400400" cy="206640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8868,9 +8871,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>338040</xdr:colOff>
+      <xdr:colOff>337680</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>255600</xdr:rowOff>
+      <xdr:rowOff>255240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8884,7 +8887,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="5142960"/>
-          <a:ext cx="1724760" cy="207000"/>
+          <a:ext cx="1724400" cy="206640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8905,9 +8908,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>211320</xdr:colOff>
+      <xdr:colOff>210960</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>268560</xdr:rowOff>
+      <xdr:rowOff>268200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8921,7 +8924,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="5457240"/>
-          <a:ext cx="2031840" cy="219960"/>
+          <a:ext cx="2031480" cy="219600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8942,9 +8945,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>154440</xdr:colOff>
+      <xdr:colOff>154080</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>255600</xdr:rowOff>
+      <xdr:rowOff>255240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8958,7 +8961,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="5771520"/>
-          <a:ext cx="2376720" cy="207000"/>
+          <a:ext cx="2376360" cy="206640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8979,9 +8982,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>94680</xdr:colOff>
+      <xdr:colOff>94320</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>254520</xdr:rowOff>
+      <xdr:rowOff>254160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8995,7 +8998,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="6085080"/>
-          <a:ext cx="2689920" cy="207000"/>
+          <a:ext cx="2689560" cy="206640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9395,9 +9398,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>311040</xdr:colOff>
+      <xdr:colOff>310680</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>72000</xdr:rowOff>
+      <xdr:rowOff>71640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9407,7 +9410,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1994400" y="149040"/>
-          <a:ext cx="6993000" cy="10056240"/>
+          <a:ext cx="6992640" cy="10055880"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -9493,9 +9496,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>321480</xdr:colOff>
+      <xdr:colOff>321120</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>73080</xdr:rowOff>
+      <xdr:rowOff>72720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9505,7 +9508,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1987560" y="10344960"/>
-          <a:ext cx="7010280" cy="259920"/>
+          <a:ext cx="7009920" cy="259560"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9524,7 +9527,7 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="t">
+        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000">
           <a:noAutofit/>
         </a:bodyPr>
         <a:p>
@@ -9542,7 +9545,7 @@
             </a:rPr>
             <a:t>Energicertifikatet grundar sig på lagen om energicertifikat för byggnader  (50/2013). </a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="fi-FI" sz="1100" spc="-1" strike="noStrike">
+          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -9559,9 +9562,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>427320</xdr:colOff>
+      <xdr:colOff>426960</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>50400</xdr:rowOff>
+      <xdr:rowOff>50040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9571,7 +9574,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5525280" y="4883760"/>
-          <a:ext cx="789120" cy="261000"/>
+          <a:ext cx="788760" cy="260640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9606,7 +9609,7 @@
             </a:rPr>
             <a:t>Normnivån för</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="fi-FI" sz="700" spc="-1" strike="noStrike">
+          <a:endParaRPr b="0" lang="en-US" sz="700" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -9623,9 +9626,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>426240</xdr:colOff>
+      <xdr:colOff>425880</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>190080</xdr:rowOff>
+      <xdr:rowOff>189720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9635,7 +9638,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5524200" y="5023440"/>
-          <a:ext cx="789120" cy="261000"/>
+          <a:ext cx="788760" cy="260640"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9670,7 +9673,7 @@
             </a:rPr>
             <a:t>nybyggnader 2012</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="fi-FI" sz="700" spc="-1" strike="noStrike">
+          <a:endParaRPr b="0" lang="en-US" sz="700" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -9689,7 +9692,7 @@
   <dimension ref="A1:AK262"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9951,31 +9954,31 @@
       <c r="AJ6" s="7"/>
       <c r="AK6" s="7"/>
     </row>
-    <row r="7" s="17" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="13" t="s">
+    <row r="7" s="16" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="15" t="s">
+      <c r="B7" s="13"/>
+      <c r="C7" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="16" t="str">
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="15" t="str">
         <f aca="false">A2</f>
-        <v>[:perustiedot :nimi]</v>
-      </c>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="14"/>
+        <v>[:perustiedot :nimi-fi]</v>
+      </c>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+      <c r="Q7" s="13"/>
       <c r="R7" s="6"/>
       <c r="S7" s="0"/>
       <c r="T7" s="0"/>
@@ -9995,28 +9998,28 @@
       <c r="AJ7" s="7"/>
       <c r="AK7" s="7"/>
     </row>
-    <row r="8" s="17" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="13" t="s">
+    <row r="8" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="16" t="str">
-        <f aca="false">A4</f>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="15" t="str">
+        <f aca="false">A5</f>
         <v>[:perustiedot :katuosoite-sv]</v>
       </c>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="14"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+      <c r="Q8" s="13"/>
       <c r="R8" s="6"/>
       <c r="S8" s="0"/>
       <c r="T8" s="0"/>
@@ -10036,16 +10039,16 @@
       <c r="AJ8" s="7"/>
       <c r="AK8" s="7"/>
     </row>
-    <row r="9" s="17" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="13" t="s">
+    <row r="9" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
       <c r="I9" s="0"/>
       <c r="J9" s="18"/>
       <c r="K9" s="18"/>
@@ -10054,7 +10057,7 @@
       <c r="N9" s="18"/>
       <c r="O9" s="18"/>
       <c r="P9" s="18"/>
-      <c r="Q9" s="14"/>
+      <c r="Q9" s="13"/>
       <c r="R9" s="6"/>
       <c r="S9" s="0"/>
       <c r="T9" s="0"/>
@@ -10074,28 +10077,28 @@
       <c r="AJ9" s="7"/>
       <c r="AK9" s="7"/>
     </row>
-    <row r="10" s="17" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="13" t="s">
+    <row r="10" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="16" t="str">
-        <f aca="false">A6</f>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="15" t="str">
+        <f aca="false">A7</f>
         <v>#function[solita.etp.service.energiatodistus-pdf/fn--49527]</v>
       </c>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="14"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15"/>
+      <c r="P10" s="15"/>
+      <c r="Q10" s="13"/>
       <c r="R10" s="6"/>
       <c r="S10" s="0"/>
       <c r="T10" s="0"/>
@@ -10115,16 +10118,16 @@
       <c r="AJ10" s="7"/>
       <c r="AK10" s="7"/>
     </row>
-    <row r="11" s="17" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="13" t="s">
+    <row r="11" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
       <c r="I11" s="18"/>
       <c r="J11" s="18"/>
       <c r="K11" s="18"/>
@@ -10133,7 +10136,7 @@
       <c r="N11" s="18"/>
       <c r="O11" s="18"/>
       <c r="P11" s="18"/>
-      <c r="Q11" s="14"/>
+      <c r="Q11" s="13"/>
       <c r="R11" s="6"/>
       <c r="S11" s="0"/>
       <c r="T11" s="0"/>
@@ -10153,12 +10156,12 @@
       <c r="AJ11" s="7"/>
       <c r="AK11" s="7"/>
     </row>
-    <row r="12" s="17" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="13" t="s">
+    <row r="12" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
       <c r="D12" s="19"/>
       <c r="E12" s="19"/>
       <c r="F12" s="19"/>
@@ -10172,7 +10175,7 @@
       <c r="N12" s="19"/>
       <c r="O12" s="19"/>
       <c r="P12" s="19"/>
-      <c r="Q12" s="14"/>
+      <c r="Q12" s="13"/>
       <c r="R12" s="6"/>
       <c r="S12" s="0"/>
       <c r="T12" s="0"/>
@@ -10192,19 +10195,19 @@
       <c r="AJ12" s="7"/>
       <c r="AK12" s="7"/>
     </row>
-    <row r="13" s="17" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="13" t="s">
+    <row r="13" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="15" t="s">
+      <c r="B13" s="13"/>
+      <c r="C13" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
       <c r="I13" s="20" t="str">
-        <f aca="false">A7</f>
+        <f aca="false">A8</f>
         <v>[:perustiedot :rakennustunnus]</v>
       </c>
       <c r="J13" s="20"/>
@@ -10234,20 +10237,20 @@
       <c r="AK13" s="7"/>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="17" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="5"/>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
       <c r="I14" s="21" t="str">
-        <f aca="false">A8</f>
+        <f aca="false">A9</f>
         <v>[:perustiedot :valmistumisvuosi]</v>
       </c>
       <c r="J14" s="21"/>
@@ -10285,9 +10288,9 @@
       <c r="D15" s="23"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
       <c r="J15" s="24"/>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
@@ -10295,7 +10298,7 @@
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
-      <c r="Q15" s="14"/>
+      <c r="Q15" s="13"/>
       <c r="R15" s="6"/>
       <c r="S15" s="0"/>
       <c r="T15" s="0"/>
@@ -10326,10 +10329,10 @@
       <c r="D16" s="26"/>
       <c r="E16" s="26"/>
       <c r="F16" s="26"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
       <c r="I16" s="27" t="str">
-        <f aca="false">A10</f>
+        <f aca="false">A11</f>
         <v>[:perustiedot :alakayttotarkoitus-sv]</v>
       </c>
       <c r="J16" s="27"/>
@@ -10339,7 +10342,7 @@
       <c r="N16" s="27"/>
       <c r="O16" s="27"/>
       <c r="P16" s="27"/>
-      <c r="Q16" s="14"/>
+      <c r="Q16" s="13"/>
       <c r="R16" s="6"/>
       <c r="S16" s="0"/>
       <c r="T16" s="0"/>
@@ -10359,17 +10362,17 @@
       <c r="AJ16" s="7"/>
       <c r="AK16" s="7"/>
     </row>
-    <row r="17" s="17" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="13" t="s">
+    <row r="17" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="15" t="s">
+      <c r="B17" s="13"/>
+      <c r="C17" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
       <c r="I17" s="28" t="str">
         <f aca="false">A1</f>
         <v>[:id]</v>
@@ -10400,26 +10403,26 @@
       <c r="AJ17" s="7"/>
       <c r="AK17" s="7"/>
     </row>
-    <row r="18" s="17" customFormat="true" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="13" t="s">
+    <row r="18" s="16" customFormat="true" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="15"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="14"/>
       <c r="D18" s="26"/>
       <c r="E18" s="26"/>
       <c r="F18" s="26"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
       <c r="I18" s="29"/>
       <c r="J18" s="29"/>
       <c r="K18" s="29"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="14"/>
-      <c r="P18" s="14"/>
-      <c r="Q18" s="14"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13"/>
+      <c r="Q18" s="13"/>
       <c r="R18" s="6"/>
       <c r="S18" s="0"/>
       <c r="T18" s="0"/>
@@ -10440,11 +10443,11 @@
       <c r="AK18" s="7"/>
     </row>
     <row r="19" customFormat="false" ht="9.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
@@ -10458,7 +10461,7 @@
       <c r="N19" s="5"/>
       <c r="O19" s="5"/>
       <c r="P19" s="5"/>
-      <c r="Q19" s="14"/>
+      <c r="Q19" s="13"/>
       <c r="R19" s="6"/>
       <c r="S19" s="0"/>
       <c r="T19" s="0"/>
@@ -10637,7 +10640,9 @@
       <c r="AK23" s="7"/>
     </row>
     <row r="24" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3"/>
+      <c r="A24" s="3" t="s">
+        <v>30</v>
+      </c>
       <c r="B24" s="4"/>
       <c r="C24" s="30"/>
       <c r="D24" s="40"/>
@@ -10899,7 +10904,7 @@
       <c r="A31" s="3"/>
       <c r="B31" s="4"/>
       <c r="C31" s="30"/>
-      <c r="D31" s="14"/>
+      <c r="D31" s="13"/>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
@@ -10938,7 +10943,7 @@
       <c r="C32" s="50"/>
       <c r="D32" s="51"/>
       <c r="E32" s="52" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F32" s="52"/>
       <c r="G32" s="52"/>
@@ -10948,7 +10953,7 @@
       <c r="K32" s="52"/>
       <c r="L32" s="52"/>
       <c r="M32" s="53" t="str">
-        <f aca="false">A18</f>
+        <f aca="false">A19</f>
         <v>[:tulokset :e-luku]</v>
       </c>
       <c r="N32" s="53"/>
@@ -10988,7 +10993,7 @@
       <c r="K33" s="52"/>
       <c r="L33" s="52"/>
       <c r="M33" s="58" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N33" s="58"/>
       <c r="O33" s="58"/>
@@ -11124,7 +11129,7 @@
       <c r="A37" s="3"/>
       <c r="B37" s="4"/>
       <c r="C37" s="63" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D37" s="11"/>
       <c r="E37" s="11"/>
@@ -11134,7 +11139,7 @@
       <c r="I37" s="11"/>
       <c r="J37" s="11"/>
       <c r="L37" s="63" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M37" s="63"/>
       <c r="N37" s="63"/>
@@ -11172,11 +11177,11 @@
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
-      <c r="L38" s="15"/>
-      <c r="M38" s="15"/>
-      <c r="N38" s="15"/>
-      <c r="O38" s="15"/>
-      <c r="P38" s="15"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="14"/>
+      <c r="N38" s="14"/>
+      <c r="O38" s="14"/>
+      <c r="P38" s="14"/>
       <c r="Q38" s="65"/>
       <c r="R38" s="6"/>
       <c r="S38" s="0"/>
@@ -11201,7 +11206,7 @@
       <c r="A39" s="3"/>
       <c r="B39" s="4"/>
       <c r="C39" s="66" t="str">
-        <f aca="false">A20</f>
+        <f aca="false">A21</f>
         <v>[:laatija-fullname]</v>
       </c>
       <c r="D39" s="66"/>
@@ -11211,9 +11216,9 @@
       <c r="H39" s="66"/>
       <c r="I39" s="66"/>
       <c r="J39" s="66"/>
-      <c r="K39" s="14"/>
+      <c r="K39" s="13"/>
       <c r="L39" s="66" t="str">
-        <f aca="false">A21</f>
+        <f aca="false">A22</f>
         <v>[:perustiedot :yritys :nimi]</v>
       </c>
       <c r="M39" s="66"/>
@@ -11250,7 +11255,7 @@
       <c r="H40" s="67"/>
       <c r="I40" s="67"/>
       <c r="J40" s="67"/>
-      <c r="K40" s="14"/>
+      <c r="K40" s="13"/>
       <c r="L40" s="67"/>
       <c r="M40" s="67"/>
       <c r="N40" s="67"/>
@@ -11286,7 +11291,7 @@
       <c r="H41" s="67"/>
       <c r="I41" s="67"/>
       <c r="J41" s="67"/>
-      <c r="K41" s="14"/>
+      <c r="K41" s="13"/>
       <c r="L41" s="67"/>
       <c r="M41" s="67"/>
       <c r="N41" s="67"/>
@@ -11350,8 +11355,8 @@
     </row>
     <row r="43" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B43" s="4"/>
-      <c r="C43" s="15" t="s">
-        <v>34</v>
+      <c r="C43" s="14" t="s">
+        <v>35</v>
       </c>
       <c r="D43" s="69"/>
       <c r="E43" s="69"/>
@@ -11459,7 +11464,7 @@
     </row>
     <row r="46" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C46" s="73" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D46" s="74"/>
       <c r="E46" s="74"/>
@@ -11470,7 +11475,7 @@
       <c r="J46" s="74"/>
       <c r="K46" s="74"/>
       <c r="L46" s="75" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="M46" s="76"/>
       <c r="N46" s="76"/>
@@ -11533,7 +11538,7 @@
     </row>
     <row r="48" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C48" s="79" t="str">
-        <f aca="false">A22</f>
+        <f aca="false">A23</f>
         <v>#function[solita.etp.service.energiatodistus-pdf/fn--49544]</v>
       </c>
       <c r="D48" s="79"/>
@@ -11545,7 +11550,7 @@
       <c r="J48" s="79"/>
       <c r="K48" s="74"/>
       <c r="L48" s="80" t="str">
-        <f aca="false">A23</f>
+        <f aca="false">A24</f>
         <v>#function[solita.etp.service.energiatodistus-pdf/fn--49547]</v>
       </c>
       <c r="M48" s="80"/>
@@ -11985,7 +11990,7 @@
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="87"/>
       <c r="C61" s="89" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D61" s="85" t="n">
         <f aca="false">IF(ISTEXT('2) E-luokka'!$H$33),IF(C61='2) E-luokka'!$H$33,0,1),1)</f>
@@ -12026,7 +12031,7 @@
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="87"/>
       <c r="C62" s="89" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D62" s="85" t="n">
         <f aca="false">IF(ISTEXT('2) E-luokka'!$H$33),IF(C62='2) E-luokka'!$H$33,0,1),1)</f>
@@ -12067,7 +12072,7 @@
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="87"/>
       <c r="C63" s="89" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D63" s="85" t="n">
         <f aca="false">IF(ISTEXT('2) E-luokka'!$H$33),IF(C63='2) E-luokka'!$H$33,0,1),1)</f>
@@ -12108,7 +12113,7 @@
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="87"/>
       <c r="C64" s="89" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D64" s="85" t="n">
         <f aca="false">IF(ISTEXT('2) E-luokka'!$H$33),IF(C64='2) E-luokka'!$H$33,0,1),1)</f>
@@ -12149,7 +12154,7 @@
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="87"/>
       <c r="C65" s="89" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D65" s="85" t="n">
         <f aca="false">IF(ISTEXT('2) E-luokka'!$H$33),IF(C65='2) E-luokka'!$H$33,0,1),1)</f>
@@ -12190,7 +12195,7 @@
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="87"/>
       <c r="C66" s="89" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D66" s="85" t="n">
         <f aca="false">IF(ISTEXT('2) E-luokka'!$H$33),IF(C66='2) E-luokka'!$H$33,0,1),1)</f>
@@ -12231,7 +12236,7 @@
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="87"/>
       <c r="C67" s="89" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D67" s="85" t="n">
         <f aca="false">IF(ISTEXT('2) E-luokka'!$H$33),IF(C67='2) E-luokka'!$H$33,0,1),1)</f>
@@ -12344,7 +12349,7 @@
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="87"/>
       <c r="C70" s="88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D70" s="85"/>
       <c r="E70" s="85"/>
@@ -12496,7 +12501,7 @@
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="87"/>
       <c r="C74" s="88" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D74" s="85"/>
       <c r="E74" s="85"/>
@@ -12534,7 +12539,7 @@
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="87"/>
       <c r="C75" s="85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D75" s="85"/>
       <c r="E75" s="85"/>
@@ -12572,7 +12577,7 @@
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="87"/>
       <c r="C76" s="85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D76" s="87"/>
       <c r="E76" s="87"/>
@@ -12582,7 +12587,7 @@
       <c r="I76" s="87"/>
       <c r="J76" s="85"/>
       <c r="K76" s="87" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L76" s="85"/>
       <c r="M76" s="85"/>
@@ -12612,7 +12617,7 @@
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="87"/>
       <c r="C77" s="85" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D77" s="87"/>
       <c r="E77" s="87"/>
@@ -12622,7 +12627,7 @@
       <c r="I77" s="87"/>
       <c r="J77" s="85"/>
       <c r="K77" s="87" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L77" s="85"/>
       <c r="M77" s="85"/>
@@ -12652,7 +12657,7 @@
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B78" s="87"/>
       <c r="C78" s="85" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D78" s="87"/>
       <c r="E78" s="87"/>
@@ -12662,7 +12667,7 @@
       <c r="I78" s="87"/>
       <c r="J78" s="85"/>
       <c r="K78" s="87" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L78" s="85"/>
       <c r="M78" s="85"/>
@@ -12692,7 +12697,7 @@
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B79" s="87"/>
       <c r="C79" s="85" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D79" s="87"/>
       <c r="E79" s="87"/>
@@ -12702,7 +12707,7 @@
       <c r="I79" s="87"/>
       <c r="J79" s="85"/>
       <c r="K79" s="87" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L79" s="85"/>
       <c r="M79" s="85"/>
@@ -12732,7 +12737,7 @@
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B80" s="87"/>
       <c r="C80" s="85" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D80" s="87"/>
       <c r="E80" s="87"/>
@@ -12742,7 +12747,7 @@
       <c r="I80" s="87"/>
       <c r="J80" s="85"/>
       <c r="K80" s="87" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L80" s="85"/>
       <c r="M80" s="85"/>
@@ -12772,7 +12777,7 @@
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B81" s="87"/>
       <c r="C81" s="85" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D81" s="87"/>
       <c r="E81" s="87"/>
@@ -12782,7 +12787,7 @@
       <c r="I81" s="87"/>
       <c r="J81" s="85"/>
       <c r="K81" s="87" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L81" s="85"/>
       <c r="M81" s="85"/>
@@ -12812,7 +12817,7 @@
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="87"/>
       <c r="C82" s="85" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D82" s="87"/>
       <c r="E82" s="87"/>
@@ -12822,7 +12827,7 @@
       <c r="I82" s="87"/>
       <c r="J82" s="85"/>
       <c r="K82" s="87" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L82" s="85"/>
       <c r="M82" s="85"/>
@@ -12852,7 +12857,7 @@
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="87"/>
       <c r="C83" s="85" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D83" s="87"/>
       <c r="E83" s="87"/>
@@ -12862,7 +12867,7 @@
       <c r="I83" s="87"/>
       <c r="J83" s="85"/>
       <c r="K83" s="87" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="L83" s="85"/>
       <c r="M83" s="85"/>
@@ -12892,7 +12897,7 @@
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="87"/>
       <c r="C84" s="85" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D84" s="87"/>
       <c r="E84" s="87"/>
@@ -12902,7 +12907,7 @@
       <c r="I84" s="87"/>
       <c r="J84" s="85"/>
       <c r="K84" s="87" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L84" s="85"/>
       <c r="M84" s="85"/>
@@ -12932,7 +12937,7 @@
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="87"/>
       <c r="C85" s="85" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D85" s="87"/>
       <c r="E85" s="87"/>
@@ -12942,7 +12947,7 @@
       <c r="I85" s="87"/>
       <c r="J85" s="85"/>
       <c r="K85" s="87" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L85" s="85"/>
       <c r="M85" s="85"/>
@@ -12972,7 +12977,7 @@
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B86" s="87"/>
       <c r="C86" s="85" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D86" s="87"/>
       <c r="E86" s="87"/>
@@ -12982,7 +12987,7 @@
       <c r="I86" s="87"/>
       <c r="J86" s="85"/>
       <c r="K86" s="87" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L86" s="85"/>
       <c r="M86" s="85"/>
@@ -13012,7 +13017,7 @@
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B87" s="87"/>
       <c r="C87" s="85" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D87" s="87"/>
       <c r="E87" s="87"/>
@@ -13022,7 +13027,7 @@
       <c r="I87" s="87"/>
       <c r="J87" s="85"/>
       <c r="K87" s="87" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L87" s="85"/>
       <c r="M87" s="85"/>
@@ -13052,7 +13057,7 @@
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B88" s="87"/>
       <c r="C88" s="85" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D88" s="87"/>
       <c r="E88" s="87"/>
@@ -13062,7 +13067,7 @@
       <c r="I88" s="87"/>
       <c r="J88" s="85"/>
       <c r="K88" s="87" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L88" s="85"/>
       <c r="M88" s="85"/>
@@ -13092,7 +13097,7 @@
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B89" s="87"/>
       <c r="C89" s="85" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D89" s="87"/>
       <c r="E89" s="87"/>
@@ -13102,7 +13107,7 @@
       <c r="I89" s="87"/>
       <c r="J89" s="85"/>
       <c r="K89" s="87" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L89" s="85"/>
       <c r="M89" s="85"/>
@@ -13132,7 +13137,7 @@
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B90" s="87"/>
       <c r="C90" s="85" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D90" s="87"/>
       <c r="E90" s="87"/>
@@ -13142,7 +13147,7 @@
       <c r="I90" s="87"/>
       <c r="J90" s="85"/>
       <c r="K90" s="87" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L90" s="85"/>
       <c r="M90" s="85"/>
@@ -13172,7 +13177,7 @@
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B91" s="87"/>
       <c r="C91" s="85" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D91" s="87"/>
       <c r="E91" s="87"/>
@@ -13182,7 +13187,7 @@
       <c r="I91" s="87"/>
       <c r="J91" s="85"/>
       <c r="K91" s="87" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L91" s="85"/>
       <c r="M91" s="85"/>
@@ -13212,7 +13217,7 @@
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B92" s="87"/>
       <c r="C92" s="85" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D92" s="87"/>
       <c r="E92" s="87"/>
@@ -13222,7 +13227,7 @@
       <c r="I92" s="87"/>
       <c r="J92" s="85"/>
       <c r="K92" s="87" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L92" s="85"/>
       <c r="M92" s="85"/>
@@ -13252,7 +13257,7 @@
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B93" s="87"/>
       <c r="C93" s="85" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D93" s="87"/>
       <c r="E93" s="87"/>
@@ -13262,7 +13267,7 @@
       <c r="I93" s="87"/>
       <c r="J93" s="85"/>
       <c r="K93" s="87" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L93" s="85"/>
       <c r="M93" s="85"/>
@@ -13292,7 +13297,7 @@
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B94" s="87"/>
       <c r="C94" s="85" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D94" s="87"/>
       <c r="E94" s="87"/>
@@ -13302,7 +13307,7 @@
       <c r="I94" s="87"/>
       <c r="J94" s="85"/>
       <c r="K94" s="87" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L94" s="85"/>
       <c r="M94" s="85"/>
@@ -13332,7 +13337,7 @@
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B95" s="87"/>
       <c r="C95" s="85" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D95" s="87"/>
       <c r="E95" s="87"/>
@@ -13342,7 +13347,7 @@
       <c r="I95" s="87"/>
       <c r="J95" s="85"/>
       <c r="K95" s="87" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L95" s="85"/>
       <c r="M95" s="85"/>
@@ -13372,7 +13377,7 @@
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="87"/>
       <c r="C96" s="85" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D96" s="87"/>
       <c r="E96" s="87"/>
@@ -13382,7 +13387,7 @@
       <c r="I96" s="87"/>
       <c r="J96" s="85"/>
       <c r="K96" s="87" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L96" s="85"/>
       <c r="M96" s="85"/>
@@ -13412,7 +13417,7 @@
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B97" s="87"/>
       <c r="C97" s="85" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D97" s="87"/>
       <c r="E97" s="87"/>
@@ -13422,7 +13427,7 @@
       <c r="I97" s="87"/>
       <c r="J97" s="85"/>
       <c r="K97" s="87" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L97" s="85"/>
       <c r="M97" s="85"/>
@@ -13452,7 +13457,7 @@
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B98" s="87"/>
       <c r="C98" s="85" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D98" s="87"/>
       <c r="E98" s="87"/>
@@ -13462,7 +13467,7 @@
       <c r="I98" s="87"/>
       <c r="J98" s="85"/>
       <c r="K98" s="87" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L98" s="85"/>
       <c r="M98" s="85"/>
@@ -13492,7 +13497,7 @@
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B99" s="87"/>
       <c r="C99" s="85" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D99" s="87"/>
       <c r="E99" s="87"/>
@@ -13502,7 +13507,7 @@
       <c r="I99" s="87"/>
       <c r="J99" s="85"/>
       <c r="K99" s="87" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L99" s="85"/>
       <c r="M99" s="85"/>
@@ -13532,7 +13537,7 @@
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B100" s="87"/>
       <c r="C100" s="85" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D100" s="87"/>
       <c r="E100" s="87"/>
@@ -13542,7 +13547,7 @@
       <c r="I100" s="87"/>
       <c r="J100" s="85"/>
       <c r="K100" s="87" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L100" s="85"/>
       <c r="M100" s="85"/>
@@ -13572,7 +13577,7 @@
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B101" s="87"/>
       <c r="C101" s="85" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D101" s="87"/>
       <c r="E101" s="87"/>
@@ -13582,7 +13587,7 @@
       <c r="I101" s="87"/>
       <c r="J101" s="85"/>
       <c r="K101" s="87" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L101" s="85"/>
       <c r="M101" s="85"/>
@@ -13612,7 +13617,7 @@
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B102" s="87"/>
       <c r="C102" s="85" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D102" s="87"/>
       <c r="E102" s="87"/>
@@ -13622,7 +13627,7 @@
       <c r="I102" s="87"/>
       <c r="J102" s="85"/>
       <c r="K102" s="87" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L102" s="85"/>
       <c r="M102" s="85"/>
@@ -13652,7 +13657,7 @@
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B103" s="87"/>
       <c r="C103" s="85" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D103" s="87"/>
       <c r="E103" s="87"/>
@@ -13662,7 +13667,7 @@
       <c r="I103" s="87"/>
       <c r="J103" s="85"/>
       <c r="K103" s="87" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L103" s="85"/>
       <c r="M103" s="85"/>
@@ -13692,7 +13697,7 @@
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B104" s="87"/>
       <c r="C104" s="85" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D104" s="87"/>
       <c r="E104" s="87"/>
@@ -13702,7 +13707,7 @@
       <c r="I104" s="87"/>
       <c r="J104" s="85"/>
       <c r="K104" s="87" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L104" s="85"/>
       <c r="M104" s="85"/>
@@ -13732,7 +13737,7 @@
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B105" s="87"/>
       <c r="C105" s="85" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D105" s="87"/>
       <c r="E105" s="87"/>
@@ -13742,7 +13747,7 @@
       <c r="I105" s="87"/>
       <c r="J105" s="85"/>
       <c r="K105" s="87" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L105" s="85"/>
       <c r="M105" s="85"/>
@@ -13772,7 +13777,7 @@
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B106" s="87"/>
       <c r="C106" s="85" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D106" s="87"/>
       <c r="E106" s="87"/>
@@ -13782,7 +13787,7 @@
       <c r="I106" s="87"/>
       <c r="J106" s="85"/>
       <c r="K106" s="87" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L106" s="85"/>
       <c r="M106" s="85"/>
@@ -13812,7 +13817,7 @@
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B107" s="87"/>
       <c r="C107" s="85" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D107" s="87"/>
       <c r="E107" s="87"/>
@@ -13822,7 +13827,7 @@
       <c r="I107" s="87"/>
       <c r="J107" s="85"/>
       <c r="K107" s="87" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L107" s="85"/>
       <c r="M107" s="85"/>
@@ -13852,7 +13857,7 @@
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B108" s="87"/>
       <c r="C108" s="85" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D108" s="87"/>
       <c r="E108" s="87"/>
@@ -13862,7 +13867,7 @@
       <c r="I108" s="87"/>
       <c r="J108" s="85"/>
       <c r="K108" s="87" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L108" s="85"/>
       <c r="M108" s="85"/>
@@ -19480,13 +19485,13 @@
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A9:A11" type="none">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A10:A12" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
-  <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
@@ -19534,11 +19539,11 @@
     </row>
     <row r="2" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="90" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C2" s="91"/>
       <c r="D2" s="92" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E2" s="92"/>
       <c r="F2" s="92"/>
@@ -19567,11 +19572,11 @@
     </row>
     <row r="3" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="90" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C3" s="93"/>
       <c r="D3" s="94" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E3" s="94"/>
       <c r="F3" s="95"/>
@@ -19600,16 +19605,16 @@
     </row>
     <row r="4" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="90" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C4" s="97"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
       <c r="K4" s="98"/>
       <c r="M4" s="0"/>
       <c r="N4" s="0"/>
@@ -19631,21 +19636,21 @@
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="90" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C5" s="97"/>
       <c r="D5" s="61" t="s">
-        <v>93</v>
-      </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
+        <v>94</v>
+      </c>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
       <c r="G5" s="99" t="str">
         <f aca="false">A2</f>
         <v>#function[solita.etp.service.energiatodistus-pdf/fn--49551]</v>
       </c>
       <c r="H5" s="29"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
       <c r="K5" s="98"/>
       <c r="M5" s="0"/>
       <c r="N5" s="0"/>
@@ -19667,14 +19672,14 @@
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="90" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C6" s="97"/>
       <c r="D6" s="61" t="s">
-        <v>95</v>
-      </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
+        <v>96</v>
+      </c>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
       <c r="G6" s="100" t="str">
         <f aca="false">A4</f>
         <v>[:lahtotiedot :lammitys :lammitysmuoto-label-sv]</v>
@@ -19703,12 +19708,12 @@
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="90" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C7" s="97"/>
       <c r="D7" s="0"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
       <c r="G7" s="101" t="str">
         <f aca="false">A6</f>
         <v>[:lahtotiedot :lammitys :lammonjako-label-sv]</v>
@@ -19737,21 +19742,21 @@
     </row>
     <row r="8" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="90" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C8" s="97"/>
       <c r="D8" s="61" t="s">
-        <v>98</v>
-      </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14" t="str">
+        <v>99</v>
+      </c>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13" t="str">
         <f aca="false">A8</f>
         <v>[:lahtotiedot :ilmanvaihto :label-sv]</v>
       </c>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
       <c r="K8" s="98"/>
       <c r="M8" s="0"/>
       <c r="N8" s="0"/>
@@ -19773,23 +19778,23 @@
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="90" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C9" s="91"/>
       <c r="D9" s="102" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E9" s="102"/>
       <c r="F9" s="102"/>
       <c r="G9" s="103" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H9" s="103"/>
       <c r="I9" s="104" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J9" s="104" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="K9" s="104"/>
       <c r="M9" s="0"/>
@@ -19812,7 +19817,7 @@
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="90" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C10" s="97"/>
       <c r="D10" s="102"/>
@@ -19843,7 +19848,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="90" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C11" s="105"/>
       <c r="D11" s="102"/>
@@ -19874,23 +19879,23 @@
     </row>
     <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="90" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C12" s="106"/>
       <c r="D12" s="107"/>
       <c r="E12" s="107"/>
       <c r="F12" s="107"/>
       <c r="G12" s="108" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H12" s="109" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I12" s="110" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="J12" s="109" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="K12" s="109"/>
       <c r="M12" s="0"/>
@@ -19913,12 +19918,12 @@
     </row>
     <row r="13" customFormat="false" ht="3.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="90" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C13" s="97"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
       <c r="G13" s="111"/>
       <c r="H13" s="111"/>
       <c r="I13" s="111"/>
@@ -19944,14 +19949,14 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="90" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C14" s="97"/>
       <c r="D14" s="113" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E14" s="113"/>
-      <c r="F14" s="14"/>
+      <c r="F14" s="13"/>
       <c r="G14" s="114" t="str">
         <f aca="false">A9</f>
         <v>[:tulokset :kaytettavat-energiamuodot :kaukolampo]</v>
@@ -19989,14 +19994,14 @@
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="90" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C15" s="97"/>
       <c r="D15" s="113" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E15" s="113"/>
-      <c r="F15" s="14"/>
+      <c r="F15" s="13"/>
       <c r="G15" s="114" t="str">
         <f aca="false">A13</f>
         <v>[:tulokset :kaytettavat-energiamuodot :sahko]</v>
@@ -20034,14 +20039,14 @@
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="90" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C16" s="97"/>
       <c r="D16" s="113" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E16" s="113"/>
-      <c r="F16" s="14"/>
+      <c r="F16" s="13"/>
       <c r="G16" s="117" t="str">
         <f aca="false">A17</f>
         <v>[:tulokset :kaytettavat-energiamuodot :uusiutuva-polttoaine]</v>
@@ -20079,14 +20084,14 @@
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="90" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C17" s="97"/>
       <c r="D17" s="113" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E17" s="113"/>
-      <c r="F17" s="14"/>
+      <c r="F17" s="13"/>
       <c r="G17" s="114" t="str">
         <f aca="false">A21</f>
         <v>[:tulokset :kaytettavat-energiamuodot :fossiilinen-polttoaine]</v>
@@ -20124,14 +20129,14 @@
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="90" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C18" s="97"/>
       <c r="D18" s="113" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E18" s="113"/>
-      <c r="F18" s="14"/>
+      <c r="F18" s="13"/>
       <c r="G18" s="114" t="str">
         <f aca="false">A25</f>
         <v>[:tulokset :kaytettavat-energiamuodot :kaukojaahdytys]</v>
@@ -20169,7 +20174,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="90" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C19" s="97"/>
       <c r="D19" s="118" t="str">
@@ -20215,11 +20220,11 @@
     </row>
     <row r="20" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="90" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C20" s="97"/>
       <c r="D20" s="122" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E20" s="122"/>
       <c r="F20" s="0"/>
@@ -20248,7 +20253,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="90" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C21" s="97"/>
       <c r="D21" s="122"/>
@@ -20285,7 +20290,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="90" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C22" s="97"/>
       <c r="D22" s="122"/>
@@ -20316,11 +20321,11 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="90" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C23" s="106"/>
       <c r="D23" s="125" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E23" s="125"/>
       <c r="F23" s="107"/>
@@ -20353,16 +20358,16 @@
     </row>
     <row r="24" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="90" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C24" s="97"/>
       <c r="D24" s="129"/>
       <c r="E24" s="129"/>
-      <c r="F24" s="14"/>
+      <c r="F24" s="13"/>
       <c r="G24" s="38"/>
       <c r="H24" s="38"/>
       <c r="I24" s="38"/>
-      <c r="J24" s="14"/>
+      <c r="J24" s="13"/>
       <c r="K24" s="130"/>
       <c r="M24" s="0"/>
       <c r="N24" s="0"/>
@@ -20384,11 +20389,11 @@
     </row>
     <row r="25" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="90" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C25" s="93"/>
       <c r="D25" s="94" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E25" s="94"/>
       <c r="F25" s="95"/>
@@ -20417,16 +20422,16 @@
     </row>
     <row r="26" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="90" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C26" s="97"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
       <c r="K26" s="98"/>
       <c r="M26" s="0"/>
       <c r="N26" s="0"/>
@@ -20448,20 +20453,20 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="90" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C27" s="97"/>
       <c r="D27" s="61" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E27" s="61"/>
-      <c r="F27" s="14"/>
+      <c r="F27" s="13"/>
       <c r="H27" s="131" t="str">
         <f aca="false">A38</f>
         <v>[:tulokset :e-luokka-rajat :kayttotarkoitus :label-sv]</v>
       </c>
       <c r="I27" s="38"/>
-      <c r="J27" s="14"/>
+      <c r="J27" s="13"/>
       <c r="K27" s="130"/>
       <c r="M27" s="0"/>
       <c r="N27" s="0"/>
@@ -20483,15 +20488,15 @@
     </row>
     <row r="28" customFormat="false" ht="3.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="90" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C28" s="97"/>
       <c r="D28" s="61"/>
       <c r="E28" s="129"/>
-      <c r="F28" s="14"/>
+      <c r="F28" s="13"/>
       <c r="H28" s="38"/>
       <c r="I28" s="38"/>
-      <c r="J28" s="14"/>
+      <c r="J28" s="13"/>
       <c r="K28" s="130"/>
       <c r="M28" s="0"/>
       <c r="N28" s="0"/>
@@ -20513,14 +20518,14 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="90" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C29" s="97"/>
       <c r="D29" s="61" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E29" s="61"/>
-      <c r="F29" s="14"/>
+      <c r="F29" s="13"/>
       <c r="H29" s="132" t="str">
         <f aca="false">A39</f>
         <v>#function[solita.etp.service.energiatodistus-pdf/fn--49553]</v>
@@ -20554,12 +20559,12 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="90" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C30" s="97"/>
       <c r="D30" s="61"/>
       <c r="E30" s="61"/>
-      <c r="F30" s="14"/>
+      <c r="F30" s="13"/>
       <c r="H30" s="135" t="str">
         <f aca="false">A42</f>
         <v>#function[solita.etp.service.energiatodistus-pdf/fn--49561]</v>
@@ -20593,12 +20598,12 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="90" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C31" s="97"/>
       <c r="D31" s="61"/>
       <c r="E31" s="61"/>
-      <c r="F31" s="14"/>
+      <c r="F31" s="13"/>
       <c r="H31" s="138" t="str">
         <f aca="false">A45</f>
         <v>#function[solita.etp.service.energiatodistus-pdf/fn--49570]</v>
@@ -20626,12 +20631,12 @@
     </row>
     <row r="32" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="90" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C32" s="97"/>
       <c r="D32" s="61"/>
       <c r="E32" s="61"/>
-      <c r="F32" s="14"/>
+      <c r="F32" s="13"/>
       <c r="H32" s="140"/>
       <c r="I32" s="140"/>
       <c r="J32" s="140"/>
@@ -20656,14 +20661,14 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="90" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C33" s="97"/>
       <c r="D33" s="61" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E33" s="61"/>
-      <c r="F33" s="14"/>
+      <c r="F33" s="13"/>
       <c r="H33" s="141" t="str">
         <f aca="false">A46</f>
         <v>[:tulokset :e-luokka]</v>
@@ -20691,16 +20696,16 @@
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="90" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C34" s="97"/>
       <c r="D34" s="129"/>
       <c r="E34" s="129"/>
-      <c r="F34" s="14"/>
+      <c r="F34" s="13"/>
       <c r="G34" s="142"/>
       <c r="H34" s="142"/>
       <c r="I34" s="38"/>
-      <c r="J34" s="14"/>
+      <c r="J34" s="13"/>
       <c r="K34" s="130"/>
       <c r="M34" s="0"/>
       <c r="N34" s="0"/>
@@ -20722,11 +20727,11 @@
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="90" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C35" s="97"/>
       <c r="D35" s="143" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E35" s="143"/>
       <c r="F35" s="143"/>
@@ -20755,7 +20760,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="90" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C36" s="97"/>
       <c r="D36" s="143"/>
@@ -20786,7 +20791,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="90" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C37" s="97"/>
       <c r="D37" s="143"/>
@@ -20817,7 +20822,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="90" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C38" s="97"/>
       <c r="D38" s="143"/>
@@ -20848,7 +20853,7 @@
     </row>
     <row r="39" customFormat="false" ht="3.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="90" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C39" s="144"/>
       <c r="D39" s="145"/>
@@ -20880,7 +20885,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="90" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M40" s="0"/>
       <c r="N40" s="0"/>
@@ -20902,11 +20907,11 @@
     </row>
     <row r="41" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="90" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C41" s="148"/>
       <c r="D41" s="149" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E41" s="149"/>
       <c r="F41" s="149"/>
@@ -20935,11 +20940,11 @@
     </row>
     <row r="42" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="90" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C42" s="93"/>
       <c r="D42" s="94" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E42" s="94"/>
       <c r="F42" s="95"/>
@@ -20968,11 +20973,11 @@
     </row>
     <row r="43" s="4" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="151" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C43" s="152"/>
       <c r="D43" s="23" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
@@ -20999,16 +21004,16 @@
     </row>
     <row r="44" customFormat="false" ht="3.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="90" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C44" s="97"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-      <c r="F44" s="14"/>
-      <c r="G44" s="14"/>
-      <c r="H44" s="14"/>
-      <c r="I44" s="14"/>
-      <c r="J44" s="14"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="13"/>
+      <c r="J44" s="13"/>
       <c r="K44" s="154"/>
       <c r="M44" s="0"/>
       <c r="N44" s="0"/>
@@ -21030,7 +21035,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="90" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C45" s="97"/>
       <c r="D45" s="155" t="str">
@@ -21064,7 +21069,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="90" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C46" s="97"/>
       <c r="D46" s="155"/>
@@ -21095,7 +21100,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="90" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C47" s="97"/>
       <c r="D47" s="155"/>
@@ -21126,7 +21131,7 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="90" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C48" s="97"/>
       <c r="D48" s="155"/>
@@ -21774,7 +21779,7 @@
     <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C71" s="152"/>
       <c r="D71" s="143" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E71" s="143"/>
       <c r="F71" s="143"/>
@@ -22270,7 +22275,7 @@
     </cfRule>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
-  <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
@@ -22309,12 +22314,12 @@
     </row>
     <row r="2" s="166" customFormat="true" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="160"/>
       <c r="C2" s="163"/>
       <c r="D2" s="164" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E2" s="164"/>
       <c r="F2" s="164"/>
@@ -22324,12 +22329,12 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="159" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" s="85"/>
       <c r="C3" s="167"/>
       <c r="D3" s="94" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E3" s="168"/>
       <c r="F3" s="168"/>
@@ -22339,7 +22344,7 @@
     </row>
     <row r="4" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" s="170"/>
       <c r="D4" s="171"/>
@@ -22351,11 +22356,11 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="159" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C5" s="173"/>
       <c r="D5" s="174" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E5" s="175" t="str">
         <f aca="false">A3</f>
@@ -22368,7 +22373,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="159" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C6" s="173"/>
       <c r="D6" s="174"/>
@@ -22380,31 +22385,31 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="159" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C7" s="173"/>
       <c r="D7" s="174" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E7" s="28" t="str">
         <f aca="false">A4</f>
         <v>[:perustiedot :valmistumisvuosi]</v>
       </c>
       <c r="F7" s="174" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G7" s="177" t="str">
         <f aca="false">A5</f>
         <v>[:lahtotiedot :lammitetty-nettoala]</v>
       </c>
       <c r="H7" s="174" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="I7" s="176"/>
     </row>
     <row r="8" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="159" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C8" s="173"/>
       <c r="D8" s="178"/>
@@ -22416,12 +22421,12 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="159" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B9" s="85"/>
       <c r="C9" s="167"/>
       <c r="D9" s="94" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E9" s="168"/>
       <c r="F9" s="168"/>
@@ -22431,13 +22436,13 @@
     </row>
     <row r="10" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="159" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C10" s="173"/>
       <c r="D10" s="174"/>
       <c r="E10" s="179"/>
       <c r="F10" s="174" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G10" s="171"/>
       <c r="H10" s="178"/>
@@ -22445,11 +22450,11 @@
     </row>
     <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="159" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C11" s="173"/>
       <c r="D11" s="174" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E11" s="180" t="str">
         <f aca="false">A6</f>
@@ -22462,7 +22467,7 @@
     </row>
     <row r="12" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="159" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C12" s="173"/>
       <c r="D12" s="178"/>
@@ -22474,47 +22479,47 @@
     </row>
     <row r="13" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="159" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C13" s="173"/>
       <c r="D13" s="171"/>
       <c r="E13" s="181" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F13" s="181" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G13" s="181" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H13" s="182" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I13" s="176"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="159" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C14" s="173"/>
       <c r="D14" s="171"/>
       <c r="E14" s="183" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F14" s="183" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G14" s="183" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H14" s="184" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="I14" s="176"/>
     </row>
     <row r="15" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="159" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C15" s="173"/>
       <c r="D15" s="171"/>
@@ -22526,11 +22531,11 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="159" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C16" s="173"/>
       <c r="D16" s="187" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E16" s="188" t="str">
         <f aca="false">A7</f>
@@ -22552,11 +22557,11 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="159" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C17" s="173"/>
       <c r="D17" s="187" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E17" s="188" t="str">
         <f aca="false">A11</f>
@@ -22578,11 +22583,11 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="159" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C18" s="173"/>
       <c r="D18" s="187" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E18" s="188" t="str">
         <f aca="false">A15</f>
@@ -22604,11 +22609,11 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="159" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C19" s="173"/>
       <c r="D19" s="187" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E19" s="188" t="str">
         <f aca="false">A19</f>
@@ -22630,11 +22635,11 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="159" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C20" s="173"/>
       <c r="D20" s="187" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E20" s="188" t="str">
         <f aca="false">A23</f>
@@ -22656,17 +22661,17 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="159" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C21" s="173"/>
       <c r="D21" s="187" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E21" s="192" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F21" s="192" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G21" s="188" t="str">
         <f aca="false">A27</f>
@@ -22680,7 +22685,7 @@
     </row>
     <row r="22" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="159" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C22" s="173"/>
       <c r="D22" s="178"/>
@@ -22692,12 +22697,12 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="159" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B23" s="85"/>
       <c r="C23" s="167"/>
       <c r="D23" s="193" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E23" s="168"/>
       <c r="F23" s="168"/>
@@ -22707,7 +22712,7 @@
     </row>
     <row r="24" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="159" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C24" s="173"/>
       <c r="D24" s="178"/>
@@ -22719,18 +22724,18 @@
     </row>
     <row r="25" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="159" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C25" s="173"/>
       <c r="D25" s="171"/>
       <c r="E25" s="181" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F25" s="181" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G25" s="194" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H25" s="195"/>
       <c r="I25" s="176"/>
@@ -22738,25 +22743,25 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="159" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C26" s="173"/>
       <c r="D26" s="171"/>
       <c r="E26" s="183" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F26" s="183" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="G26" s="183" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H26" s="195"/>
       <c r="I26" s="176"/>
     </row>
     <row r="27" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="159" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C27" s="173"/>
       <c r="D27" s="171"/>
@@ -22768,11 +22773,11 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="159" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C28" s="173"/>
       <c r="D28" s="196" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E28" s="188" t="str">
         <f aca="false">A29</f>
@@ -22791,11 +22796,11 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="159" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C29" s="173"/>
       <c r="D29" s="196" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E29" s="188" t="str">
         <f aca="false">A32</f>
@@ -22814,11 +22819,11 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="159" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C30" s="173"/>
       <c r="D30" s="196" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E30" s="188" t="str">
         <f aca="false">A35</f>
@@ -22837,11 +22842,11 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="159" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C31" s="173"/>
       <c r="D31" s="196" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E31" s="188" t="str">
         <f aca="false">A38</f>
@@ -22860,11 +22865,11 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="159" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C32" s="173"/>
       <c r="D32" s="196" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E32" s="188" t="str">
         <f aca="false">A41</f>
@@ -22883,11 +22888,11 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="159" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C33" s="173"/>
       <c r="D33" s="196" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E33" s="188" t="str">
         <f aca="false">A44</f>
@@ -22906,11 +22911,11 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="159" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C34" s="173"/>
       <c r="D34" s="196" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E34" s="188" t="str">
         <f aca="false">A47</f>
@@ -22929,11 +22934,11 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="159" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C35" s="173"/>
       <c r="D35" s="196" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E35" s="188" t="str">
         <f aca="false">A50</f>
@@ -22952,26 +22957,26 @@
     </row>
     <row r="36" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="159" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C36" s="173"/>
       <c r="D36" s="178"/>
       <c r="E36" s="178"/>
       <c r="F36" s="178"/>
       <c r="G36" s="197" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H36" s="178"/>
       <c r="I36" s="176"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="159" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B37" s="85"/>
       <c r="C37" s="167"/>
       <c r="D37" s="198" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E37" s="168"/>
       <c r="F37" s="168"/>
@@ -22982,7 +22987,7 @@
     </row>
     <row r="38" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="159" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C38" s="173"/>
       <c r="D38" s="178"/>
@@ -22994,11 +22999,11 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="159" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C39" s="173"/>
       <c r="D39" s="196" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E39" s="200" t="str">
         <f aca="false">A54</f>
@@ -23012,7 +23017,7 @@
     </row>
     <row r="40" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="159" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C40" s="173"/>
       <c r="D40" s="178"/>
@@ -23024,39 +23029,39 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="159" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C41" s="173"/>
       <c r="D41" s="171"/>
       <c r="E41" s="201" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F41" s="202" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G41" s="202" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H41" s="202" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I41" s="176"/>
       <c r="K41" s="26"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="159" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C42" s="173"/>
       <c r="D42" s="171"/>
       <c r="E42" s="201" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F42" s="202" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G42" s="202" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H42" s="203"/>
       <c r="I42" s="176"/>
@@ -23064,27 +23069,27 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="159" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C43" s="173"/>
       <c r="D43" s="171"/>
       <c r="E43" s="183" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F43" s="183" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G43" s="183" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H43" s="204" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="I43" s="176"/>
     </row>
     <row r="44" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="159" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C44" s="173"/>
       <c r="D44" s="171"/>
@@ -23096,11 +23101,11 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="159" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C45" s="173"/>
       <c r="D45" s="187" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="E45" s="189" t="str">
         <f aca="false">A55</f>
@@ -23122,11 +23127,11 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="159" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C46" s="173"/>
       <c r="D46" s="187" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E46" s="189" t="str">
         <f aca="false">A59</f>
@@ -23137,20 +23142,20 @@
         <v>[:lahtotiedot :ilmanvaihto :erillispoistot :sfp]</v>
       </c>
       <c r="G46" s="192" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H46" s="206" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I46" s="176"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="159" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C47" s="173"/>
       <c r="D47" s="207" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E47" s="189" t="str">
         <f aca="false">A61</f>
@@ -23161,16 +23166,16 @@
         <v>[:lahtotiedot :ilmanvaihto :ivjarjestelma :sfp]</v>
       </c>
       <c r="G47" s="192" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H47" s="208" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I47" s="176"/>
     </row>
     <row r="48" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="159" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C48" s="173"/>
       <c r="D48" s="209"/>
@@ -23182,11 +23187,11 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="212" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C49" s="173"/>
       <c r="D49" s="174" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="F49" s="0"/>
       <c r="G49" s="213" t="str">
@@ -23197,7 +23202,7 @@
     </row>
     <row r="50" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="159" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C50" s="173"/>
       <c r="D50" s="174"/>
@@ -23209,12 +23214,12 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="159" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B51" s="85"/>
       <c r="C51" s="167"/>
       <c r="D51" s="198" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="E51" s="168"/>
       <c r="F51" s="168"/>
@@ -23224,7 +23229,7 @@
     </row>
     <row r="52" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="159" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C52" s="173"/>
       <c r="D52" s="178"/>
@@ -23236,11 +23241,11 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="159" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C53" s="173"/>
       <c r="D53" s="174" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E53" s="200" t="str">
         <f aca="false">A65</f>
@@ -23253,7 +23258,7 @@
     </row>
     <row r="54" customFormat="false" ht="12.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="159" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C54" s="173"/>
       <c r="D54" s="178"/>
@@ -23268,65 +23273,65 @@
     </row>
     <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="159" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C55" s="173"/>
       <c r="D55" s="216"/>
       <c r="E55" s="181" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F55" s="217" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G55" s="181" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H55" s="203" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="I55" s="176"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="159" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C56" s="173"/>
       <c r="D56" s="171"/>
       <c r="E56" s="181" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F56" s="217" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="G56" s="181"/>
       <c r="H56" s="203" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="I56" s="176"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="159" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C57" s="173"/>
       <c r="D57" s="171"/>
       <c r="E57" s="181" t="s">
+        <v>110</v>
+      </c>
+      <c r="F57" s="181" t="s">
+        <v>110</v>
+      </c>
+      <c r="G57" s="181" t="s">
+        <v>110</v>
+      </c>
+      <c r="H57" s="184" t="s">
         <v>109</v>
-      </c>
-      <c r="F57" s="181" t="s">
-        <v>109</v>
-      </c>
-      <c r="G57" s="181" t="s">
-        <v>109</v>
-      </c>
-      <c r="H57" s="184" t="s">
-        <v>108</v>
       </c>
       <c r="I57" s="176"/>
     </row>
     <row r="58" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="159" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C58" s="173"/>
       <c r="D58" s="171"/>
@@ -23338,11 +23343,11 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="159" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C59" s="173"/>
       <c r="D59" s="174" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E59" s="205" t="str">
         <f aca="false">A68</f>
@@ -23365,11 +23370,11 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="159" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C60" s="173"/>
       <c r="D60" s="174" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E60" s="205" t="str">
         <f aca="false">A72</f>
@@ -23391,7 +23396,7 @@
     </row>
     <row r="61" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="159" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C61" s="173"/>
       <c r="D61" s="174"/>
@@ -23403,11 +23408,11 @@
     </row>
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="159" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C62" s="173"/>
       <c r="D62" s="220" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E62" s="174"/>
       <c r="F62" s="174"/>
@@ -23417,11 +23422,11 @@
     </row>
     <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="159" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C63" s="173"/>
       <c r="D63" s="220" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E63" s="174"/>
       <c r="F63" s="174"/>
@@ -23431,7 +23436,7 @@
     </row>
     <row r="64" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="159" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C64" s="173"/>
       <c r="D64" s="174"/>
@@ -23443,15 +23448,15 @@
     </row>
     <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="159" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C65" s="173"/>
       <c r="D65" s="171"/>
       <c r="E65" s="203" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F65" s="181" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G65" s="181"/>
       <c r="H65" s="178"/>
@@ -23459,15 +23464,15 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="159" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C66" s="173"/>
       <c r="D66" s="171"/>
       <c r="E66" s="184" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F66" s="183" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G66" s="181"/>
       <c r="H66" s="178"/>
@@ -23475,7 +23480,7 @@
     </row>
     <row r="67" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="159" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C67" s="173"/>
       <c r="D67" s="171"/>
@@ -23487,11 +23492,11 @@
     </row>
     <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="159" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C68" s="173"/>
       <c r="D68" s="174" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E68" s="221" t="str">
         <f aca="false">A76</f>
@@ -23507,11 +23512,11 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="159" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C69" s="173"/>
       <c r="D69" s="174" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="E69" s="221" t="str">
         <f aca="false">A78</f>
@@ -23527,7 +23532,7 @@
     </row>
     <row r="70" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="159" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C70" s="173"/>
       <c r="D70" s="178"/>
@@ -23539,12 +23544,12 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="159" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B71" s="85"/>
       <c r="C71" s="167"/>
       <c r="D71" s="94" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E71" s="168"/>
       <c r="F71" s="168"/>
@@ -23554,7 +23559,7 @@
     </row>
     <row r="72" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="159" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C72" s="173"/>
       <c r="D72" s="178"/>
@@ -23566,12 +23571,12 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="159" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C73" s="173"/>
       <c r="D73" s="171"/>
       <c r="E73" s="222" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="F73" s="223"/>
       <c r="G73" s="223"/>
@@ -23580,12 +23585,12 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="159" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C74" s="173"/>
       <c r="D74" s="171"/>
       <c r="E74" s="184" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F74" s="224"/>
       <c r="G74" s="223"/>
@@ -23594,7 +23599,7 @@
     </row>
     <row r="75" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="159" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C75" s="173"/>
       <c r="D75" s="171"/>
@@ -23606,11 +23611,11 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="159" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C76" s="173"/>
       <c r="D76" s="174" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E76" s="188" t="str">
         <f aca="false">A80</f>
@@ -23624,7 +23629,7 @@
     </row>
     <row r="77" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="159" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C77" s="173"/>
       <c r="D77" s="178"/>
@@ -23636,12 +23641,12 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="159" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B78" s="85"/>
       <c r="C78" s="167"/>
       <c r="D78" s="94" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E78" s="168"/>
       <c r="F78" s="168"/>
@@ -23651,7 +23656,7 @@
     </row>
     <row r="79" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="159" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C79" s="173"/>
       <c r="D79" s="178"/>
@@ -23663,15 +23668,15 @@
     </row>
     <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="159" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C80" s="173"/>
       <c r="D80" s="178"/>
       <c r="E80" s="181" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="F80" s="225" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G80" s="178"/>
       <c r="H80" s="178"/>
@@ -23679,15 +23684,15 @@
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="159" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C81" s="173"/>
       <c r="D81" s="171"/>
       <c r="E81" s="183" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F81" s="184" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G81" s="178"/>
       <c r="H81" s="178"/>
@@ -23696,7 +23701,7 @@
     </row>
     <row r="82" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="159" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C82" s="173"/>
       <c r="D82" s="171"/>
@@ -23708,11 +23713,11 @@
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="159" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C83" s="173"/>
       <c r="D83" s="174" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E83" s="221" t="str">
         <f aca="false">A81</f>
@@ -23728,7 +23733,7 @@
     </row>
     <row r="84" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="159" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C84" s="173"/>
       <c r="D84" s="178"/>
@@ -23740,12 +23745,12 @@
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="159" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B85" s="85"/>
       <c r="C85" s="167"/>
       <c r="D85" s="94" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E85" s="168"/>
       <c r="F85" s="168"/>
@@ -23755,7 +23760,7 @@
     </row>
     <row r="86" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="159" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C86" s="173"/>
       <c r="D86" s="178"/>
@@ -23767,47 +23772,47 @@
     </row>
     <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="159" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C87" s="173"/>
       <c r="D87" s="171"/>
       <c r="E87" s="203" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F87" s="181" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="G87" s="181" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H87" s="203" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="I87" s="176"/>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="159" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C88" s="173"/>
       <c r="D88" s="171"/>
       <c r="E88" s="184" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F88" s="183" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G88" s="183" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H88" s="184" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="I88" s="176"/>
     </row>
     <row r="89" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="159" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C89" s="173"/>
       <c r="D89" s="171"/>
@@ -23819,7 +23824,7 @@
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="159" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C90" s="173"/>
       <c r="D90" s="226"/>
@@ -23843,7 +23848,7 @@
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="159" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C91" s="173"/>
       <c r="D91" s="226"/>
@@ -23867,7 +23872,7 @@
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="159" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C92" s="173"/>
       <c r="D92" s="226"/>
@@ -23891,7 +23896,7 @@
     </row>
     <row r="93" customFormat="false" ht="5.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="159" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C93" s="227"/>
       <c r="D93" s="228"/>
@@ -23903,7 +23908,7 @@
     </row>
     <row r="94" customFormat="false" ht="5.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="159" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -24652,7 +24657,7 @@
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
-  <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
@@ -24692,11 +24697,11 @@
     </row>
     <row r="2" s="231" customFormat="true" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="230" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="232"/>
       <c r="D2" s="164" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E2" s="233"/>
       <c r="F2" s="164"/>
@@ -24707,11 +24712,11 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="159" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" s="167"/>
       <c r="D3" s="94" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E3" s="168"/>
       <c r="F3" s="168"/>
@@ -24722,7 +24727,7 @@
     </row>
     <row r="4" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" s="170"/>
       <c r="D4" s="171"/>
@@ -24735,11 +24740,11 @@
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="159" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C5" s="173"/>
       <c r="D5" s="238" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E5" s="239" t="str">
         <f aca="false">A3</f>
@@ -24753,7 +24758,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="159" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" s="173"/>
       <c r="D6" s="238"/>
@@ -24766,7 +24771,7 @@
     </row>
     <row r="7" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="159" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C7" s="173"/>
       <c r="D7" s="238"/>
@@ -24779,11 +24784,11 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="159" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C8" s="173"/>
       <c r="D8" s="241" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E8" s="28" t="str">
         <f aca="false">A4</f>
@@ -24806,11 +24811,11 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="159" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C9" s="173"/>
       <c r="D9" s="241" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="E9" s="28" t="str">
         <f aca="false">A5</f>
@@ -24833,11 +24838,11 @@
     </row>
     <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="159" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C10" s="173"/>
       <c r="D10" s="245" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="E10" s="246" t="str">
         <f aca="false">A6</f>
@@ -24860,7 +24865,7 @@
     </row>
     <row r="11" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="159" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C11" s="173"/>
       <c r="D11" s="178"/>
@@ -24882,11 +24887,11 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="159" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C12" s="167"/>
       <c r="D12" s="94" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E12" s="168"/>
       <c r="F12" s="168"/>
@@ -24906,7 +24911,7 @@
     </row>
     <row r="13" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="159" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C13" s="173"/>
       <c r="D13" s="178"/>
@@ -24928,20 +24933,20 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="159" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C14" s="173"/>
       <c r="D14" s="247" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E14" s="181" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F14" s="181" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="G14" s="203" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H14" s="203"/>
       <c r="I14" s="181"/>
@@ -24958,18 +24963,18 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="159" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C15" s="173"/>
       <c r="D15" s="172"/>
       <c r="E15" s="181" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="F15" s="181" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G15" s="203" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H15" s="203"/>
       <c r="I15" s="183"/>
@@ -24986,21 +24991,21 @@
     </row>
     <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="159" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C16" s="248"/>
       <c r="D16" s="249"/>
       <c r="E16" s="250" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F16" s="250" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G16" s="250" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H16" s="251" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="I16" s="181"/>
       <c r="J16" s="237"/>
@@ -25016,7 +25021,7 @@
     </row>
     <row r="17" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="159" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C17" s="173"/>
       <c r="D17" s="171"/>
@@ -25038,11 +25043,11 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="159" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C18" s="173"/>
       <c r="D18" s="252" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E18" s="221" t="str">
         <f aca="false">A7</f>
@@ -25074,11 +25079,11 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="159" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C19" s="173"/>
       <c r="D19" s="252" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E19" s="221" t="str">
         <f aca="false">A11</f>
@@ -25110,11 +25115,11 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="159" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C20" s="173"/>
       <c r="D20" s="255" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E20" s="221" t="str">
         <f aca="false">A23</f>
@@ -25146,11 +25151,11 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="159" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C21" s="173"/>
       <c r="D21" s="252" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E21" s="221" t="str">
         <f aca="false">A15</f>
@@ -25182,11 +25187,11 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="159" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C22" s="173"/>
       <c r="D22" s="252" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E22" s="221" t="str">
         <f aca="false">A19</f>
@@ -25218,7 +25223,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="159" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C23" s="173"/>
       <c r="D23" s="255" t="str">
@@ -25255,7 +25260,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="159" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C24" s="173"/>
       <c r="D24" s="255" t="str">
@@ -25292,7 +25297,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="159" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C25" s="173"/>
       <c r="D25" s="257" t="str">
@@ -25329,11 +25334,11 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="159" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C26" s="173"/>
       <c r="D26" s="258" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E26" s="259" t="str">
         <f aca="false">A42</f>
@@ -25362,7 +25367,7 @@
     </row>
     <row r="27" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="159" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C27" s="173"/>
       <c r="D27" s="178"/>
@@ -25384,11 +25389,11 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="159" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C28" s="167"/>
       <c r="D28" s="94" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E28" s="168"/>
       <c r="F28" s="168"/>
@@ -25409,7 +25414,7 @@
     </row>
     <row r="29" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="159" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C29" s="173"/>
       <c r="D29" s="178"/>
@@ -25431,15 +25436,15 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="159" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C30" s="173"/>
       <c r="D30" s="171"/>
       <c r="F30" s="183" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G30" s="183" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H30" s="178"/>
       <c r="I30" s="181"/>
@@ -25456,7 +25461,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="159" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C31" s="173"/>
       <c r="D31" s="261" t="str">
@@ -25487,7 +25492,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="159" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C32" s="173"/>
       <c r="D32" s="261" t="str">
@@ -25518,7 +25523,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="159" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C33" s="173"/>
       <c r="D33" s="261" t="str">
@@ -25549,7 +25554,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="159" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C34" s="173"/>
       <c r="D34" s="261" t="str">
@@ -25580,7 +25585,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="159" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C35" s="173"/>
       <c r="D35" s="261" t="str">
@@ -25611,7 +25616,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="159" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C36" s="173"/>
       <c r="D36" s="261" t="str">
@@ -25642,7 +25647,7 @@
     </row>
     <row r="37" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="159" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C37" s="173"/>
       <c r="D37" s="178"/>
@@ -25664,11 +25669,11 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="159" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C38" s="167"/>
       <c r="D38" s="94" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E38" s="168"/>
       <c r="F38" s="168"/>
@@ -25688,7 +25693,7 @@
     </row>
     <row r="39" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="159" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C39" s="173"/>
       <c r="D39" s="178"/>
@@ -25710,19 +25715,19 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="159" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C40" s="173"/>
       <c r="D40" s="171"/>
       <c r="E40" s="171"/>
       <c r="F40" s="203" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="G40" s="181" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H40" s="181" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="I40" s="181"/>
       <c r="J40" s="237"/>
@@ -25738,19 +25743,19 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="159" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C41" s="173"/>
       <c r="D41" s="171"/>
       <c r="E41" s="171"/>
       <c r="F41" s="183" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G41" s="183" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H41" s="183" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I41" s="183"/>
       <c r="J41" s="236"/>
@@ -25766,7 +25771,7 @@
     </row>
     <row r="42" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="159" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C42" s="173"/>
       <c r="D42" s="171"/>
@@ -25788,11 +25793,11 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="159" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C43" s="173"/>
       <c r="D43" s="174" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E43" s="174"/>
       <c r="F43" s="0"/>
@@ -25812,11 +25817,11 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="159" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C44" s="173"/>
       <c r="D44" s="174" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="E44" s="174"/>
       <c r="F44" s="253" t="str">
@@ -25828,7 +25833,7 @@
         <v>[:tulokset :tekniset-jarjestelmat :tilojen-lammitys :lampo]</v>
       </c>
       <c r="H44" s="202" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I44" s="181"/>
       <c r="J44" s="237"/>
@@ -25844,11 +25849,11 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="159" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C45" s="173"/>
       <c r="D45" s="174" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="E45" s="174"/>
       <c r="F45" s="188" t="str">
@@ -25860,7 +25865,7 @@
         <v>[:tulokset :tekniset-jarjestelmat :tuloilman-lammitys :lampo]</v>
       </c>
       <c r="H45" s="202" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I45" s="183"/>
       <c r="J45" s="236"/>
@@ -25876,11 +25881,11 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="159" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C46" s="173"/>
       <c r="D46" s="174" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E46" s="174"/>
       <c r="F46" s="188" t="str">
@@ -25892,7 +25897,7 @@
         <v>[:tulokset :tekniset-jarjestelmat :kayttoveden-valmistus :lampo]</v>
       </c>
       <c r="H46" s="202" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I46" s="181"/>
       <c r="J46" s="237"/>
@@ -25908,11 +25913,11 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="159" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C47" s="173"/>
       <c r="D47" s="174" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="E47" s="174"/>
       <c r="F47" s="188" t="str">
@@ -25920,10 +25925,10 @@
         <v>[:tulokset :tekniset-jarjestelmat :iv-sahko]</v>
       </c>
       <c r="G47" s="202" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H47" s="202" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I47" s="181"/>
       <c r="J47" s="236"/>
@@ -25939,11 +25944,11 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="159" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C48" s="173"/>
       <c r="D48" s="174" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="E48" s="174"/>
       <c r="F48" s="188" t="str">
@@ -25972,11 +25977,11 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="159" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C49" s="173"/>
       <c r="D49" s="174" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E49" s="174"/>
       <c r="F49" s="188" t="str">
@@ -25984,10 +25989,10 @@
         <v>[:tulokset :tekniset-jarjestelmat :kuluttajalaitteet-ja-valaistus-sahko]</v>
       </c>
       <c r="G49" s="202" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H49" s="202" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="I49" s="183"/>
       <c r="J49" s="236"/>
@@ -26003,11 +26008,11 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="159" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C50" s="173"/>
       <c r="D50" s="258" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E50" s="258"/>
       <c r="F50" s="266" t="str">
@@ -26036,11 +26041,11 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="159" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C51" s="173"/>
       <c r="D51" s="267" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E51" s="258"/>
       <c r="F51" s="224"/>
@@ -26060,7 +26065,7 @@
     </row>
     <row r="52" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="159" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C52" s="173"/>
       <c r="D52" s="178"/>
@@ -26082,11 +26087,11 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="159" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C53" s="167"/>
       <c r="D53" s="94" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E53" s="168"/>
       <c r="F53" s="168"/>
@@ -26097,7 +26102,7 @@
     </row>
     <row r="54" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="159" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C54" s="173"/>
       <c r="D54" s="178"/>
@@ -26110,15 +26115,15 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="159" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C55" s="173"/>
       <c r="D55" s="171"/>
       <c r="F55" s="183" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G55" s="183" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H55" s="183"/>
       <c r="I55" s="181"/>
@@ -26126,7 +26131,7 @@
     </row>
     <row r="56" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="159" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C56" s="173"/>
       <c r="D56" s="171"/>
@@ -26138,11 +26143,11 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="159" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C57" s="173"/>
       <c r="D57" s="174" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="E57" s="174"/>
       <c r="F57" s="221" t="str">
@@ -26159,11 +26164,11 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="159" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C58" s="173"/>
       <c r="D58" s="174" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="E58" s="174"/>
       <c r="F58" s="221" t="str">
@@ -26180,11 +26185,11 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="159" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C59" s="173"/>
       <c r="D59" s="174" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E59" s="174"/>
       <c r="F59" s="221" t="str">
@@ -26201,11 +26206,11 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="159" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C60" s="173"/>
       <c r="D60" s="174" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="E60" s="174"/>
       <c r="F60" s="221" t="str">
@@ -26222,7 +26227,7 @@
     </row>
     <row r="61" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="159" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C61" s="173"/>
       <c r="D61" s="174"/>
@@ -26235,11 +26240,11 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="159" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C62" s="173"/>
       <c r="D62" s="220" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E62" s="220"/>
       <c r="F62" s="220"/>
@@ -26250,11 +26255,11 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="159" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C63" s="173"/>
       <c r="D63" s="220" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="E63" s="220"/>
       <c r="F63" s="220"/>
@@ -26265,7 +26270,7 @@
     </row>
     <row r="64" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="159" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C64" s="173"/>
       <c r="D64" s="174"/>
@@ -26278,11 +26283,11 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="159" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C65" s="167"/>
       <c r="D65" s="94" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="E65" s="168"/>
       <c r="F65" s="168"/>
@@ -26293,7 +26298,7 @@
     </row>
     <row r="66" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="159" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C66" s="173"/>
       <c r="D66" s="178"/>
@@ -26306,15 +26311,15 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="159" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C67" s="173"/>
       <c r="D67" s="171"/>
       <c r="F67" s="183" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G67" s="183" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H67" s="181"/>
       <c r="I67" s="181"/>
@@ -26322,7 +26327,7 @@
     </row>
     <row r="68" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="159" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C68" s="173"/>
       <c r="D68" s="171"/>
@@ -26334,11 +26339,11 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="159" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C69" s="173"/>
       <c r="D69" s="196" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="E69" s="196"/>
       <c r="F69" s="221" t="str">
@@ -26355,11 +26360,11 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="159" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C70" s="173"/>
       <c r="D70" s="196" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E70" s="196"/>
       <c r="F70" s="221" t="str">
@@ -26376,11 +26381,11 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="159" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C71" s="173"/>
       <c r="D71" s="174" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="E71" s="174"/>
       <c r="F71" s="221" t="str">
@@ -26397,11 +26402,11 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="159" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C72" s="173"/>
       <c r="D72" s="174" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E72" s="174"/>
       <c r="F72" s="221" t="str">
@@ -26418,11 +26423,11 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="159" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C73" s="173"/>
       <c r="D73" s="174" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="E73" s="174"/>
       <c r="F73" s="221" t="str">
@@ -26439,7 +26444,7 @@
     </row>
     <row r="74" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="159" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C74" s="173"/>
       <c r="D74" s="174"/>
@@ -26452,11 +26457,11 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="159" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C75" s="167"/>
       <c r="D75" s="94" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E75" s="168"/>
       <c r="F75" s="168"/>
@@ -26467,7 +26472,7 @@
     </row>
     <row r="76" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="159" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C76" s="173"/>
       <c r="D76" s="178"/>
@@ -26480,11 +26485,11 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="159" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C77" s="173"/>
       <c r="D77" s="174" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E77" s="174"/>
       <c r="F77" s="268" t="str">
@@ -26498,7 +26503,7 @@
     </row>
     <row r="78" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="159" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C78" s="227"/>
       <c r="D78" s="228"/>
@@ -26511,177 +26516,177 @@
     </row>
     <row r="79" customFormat="false" ht="5.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="159" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="159" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="159" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="159" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="159" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="159" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="159" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="159" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="159" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="159" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="159" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="159" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="159" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="159" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="159" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="159" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="159" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="159" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="159" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="159" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="159" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="159" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="159" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="159" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="159" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="159" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="159" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="159" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="159" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="159" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="159" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="159" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="159" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="159" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="159" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
   </sheetData>
@@ -27211,7 +27216,7 @@
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
-  <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
@@ -27252,11 +27257,11 @@
     </row>
     <row r="2" s="270" customFormat="true" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="269" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C2" s="271"/>
       <c r="D2" s="272" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E2" s="272"/>
       <c r="F2" s="273"/>
@@ -27268,41 +27273,41 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="90" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C3" s="97"/>
       <c r="D3" s="23" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="E3" s="275"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
       <c r="K3" s="98"/>
     </row>
     <row r="4" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="90" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C4" s="97"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
       <c r="K4" s="98"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="90" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C5" s="93"/>
       <c r="D5" s="94" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E5" s="94"/>
       <c r="F5" s="95"/>
@@ -27314,92 +27319,92 @@
     </row>
     <row r="6" customFormat="false" ht="3.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="90" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C6" s="97"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
       <c r="K6" s="98"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="90" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C7" s="97"/>
       <c r="D7" s="61" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E7" s="99" t="str">
         <f aca="false">A3</f>
         <v>[:lahtotiedot :lammitetty-nettoala]</v>
       </c>
       <c r="F7" s="276" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="G7" s="277"/>
-      <c r="J7" s="14"/>
+      <c r="J7" s="13"/>
       <c r="K7" s="98"/>
       <c r="O7" s="29"/>
     </row>
     <row r="8" customFormat="false" ht="3.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="90" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C8" s="97"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
       <c r="K8" s="98"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="90" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C9" s="97"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
       <c r="K9" s="98"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="90" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C10" s="97"/>
       <c r="D10" s="61" t="s">
-        <v>454</v>
-      </c>
-      <c r="E10" s="14"/>
+        <v>455</v>
+      </c>
+      <c r="E10" s="13"/>
       <c r="F10" s="278"/>
       <c r="G10" s="279"/>
       <c r="H10" s="280"/>
       <c r="I10" s="281" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J10" s="282" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K10" s="283"/>
     </row>
     <row r="11" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="90" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C11" s="97"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
       <c r="F11" s="284"/>
       <c r="G11" s="38"/>
       <c r="H11" s="112"/>
@@ -27409,11 +27414,11 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="90" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C12" s="97"/>
       <c r="D12" s="287" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="E12" s="287"/>
       <c r="F12" s="288"/>
@@ -27432,11 +27437,11 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="90" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C13" s="97"/>
       <c r="D13" s="287" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E13" s="287"/>
       <c r="F13" s="288"/>
@@ -27455,11 +27460,11 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="90" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C14" s="97"/>
       <c r="D14" s="279" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E14" s="287"/>
       <c r="F14" s="288"/>
@@ -27478,11 +27483,11 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="90" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C15" s="97"/>
       <c r="D15" s="279" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="E15" s="287"/>
       <c r="F15" s="288"/>
@@ -27501,11 +27506,11 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="90" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C16" s="97"/>
       <c r="D16" s="287" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E16" s="287"/>
       <c r="F16" s="287"/>
@@ -27524,7 +27529,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="90" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C17" s="97"/>
       <c r="D17" s="294" t="str">
@@ -27548,7 +27553,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="90" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C18" s="97"/>
       <c r="D18" s="294" t="str">
@@ -27572,7 +27577,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="90" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C19" s="97"/>
       <c r="D19" s="294" t="str">
@@ -27596,7 +27601,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="90" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C20" s="97"/>
       <c r="D20" s="294" t="str">
@@ -27620,7 +27625,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="90" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C21" s="97"/>
       <c r="D21" s="294" t="str">
@@ -27644,7 +27649,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="90" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C22" s="97"/>
       <c r="D22" s="295"/>
@@ -27662,7 +27667,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="90" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C23" s="97"/>
       <c r="D23" s="299"/>
@@ -27677,34 +27682,34 @@
     </row>
     <row r="24" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="90" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C24" s="97"/>
       <c r="D24" s="302" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="E24" s="302"/>
       <c r="F24" s="303" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="G24" s="304" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="H24" s="303" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="I24" s="304" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J24" s="305" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K24" s="306"/>
       <c r="Y24" s="23"/>
     </row>
     <row r="25" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="90" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C25" s="97"/>
       <c r="D25" s="61"/>
@@ -27719,11 +27724,11 @@
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="90" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C26" s="97"/>
       <c r="D26" s="287" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="E26" s="287"/>
       <c r="F26" s="291" t="str">
@@ -27731,7 +27736,7 @@
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :kevyt-polttooljy]</v>
       </c>
       <c r="G26" s="308" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H26" s="281" t="n">
         <v>10</v>
@@ -27749,11 +27754,11 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="90" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C27" s="97"/>
       <c r="D27" s="287" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="E27" s="287"/>
       <c r="F27" s="291" t="str">
@@ -27761,7 +27766,7 @@
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :pilkkeet-havu-sekapuu]</v>
       </c>
       <c r="G27" s="308" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H27" s="281" t="n">
         <v>1300</v>
@@ -27779,11 +27784,11 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="90" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C28" s="97"/>
       <c r="D28" s="287" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="E28" s="287"/>
       <c r="F28" s="291" t="str">
@@ -27791,7 +27796,7 @@
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :pilkkeet-koivu]</v>
       </c>
       <c r="G28" s="308" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H28" s="281" t="n">
         <v>1700</v>
@@ -27809,11 +27814,11 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="90" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C29" s="97"/>
       <c r="D29" s="287" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="E29" s="287"/>
       <c r="F29" s="291" t="str">
@@ -27821,7 +27826,7 @@
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :puupelletit]</v>
       </c>
       <c r="G29" s="308" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H29" s="281" t="n">
         <v>4.7</v>
@@ -27839,7 +27844,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="90" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C30" s="97"/>
       <c r="D30" s="312" t="str">
@@ -27872,7 +27877,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="90" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C31" s="97"/>
       <c r="D31" s="312" t="str">
@@ -27905,7 +27910,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="90" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C32" s="97"/>
       <c r="D32" s="315"/>
@@ -27926,7 +27931,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="90" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C33" s="97"/>
       <c r="D33" s="315"/>
@@ -27947,7 +27952,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="90" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C34" s="97"/>
       <c r="D34" s="315"/>
@@ -27968,7 +27973,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="90" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C35" s="97"/>
       <c r="D35" s="315"/>
@@ -27989,7 +27994,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="90" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C36" s="97"/>
       <c r="D36" s="315"/>
@@ -28010,7 +28015,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="90" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C37" s="97"/>
       <c r="D37" s="315"/>
@@ -28031,7 +28036,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="90" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C38" s="97"/>
       <c r="D38" s="315"/>
@@ -28052,7 +28057,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="90" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C39" s="97"/>
       <c r="D39" s="315"/>
@@ -28073,7 +28078,7 @@
     </row>
     <row r="40" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="90" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C40" s="97"/>
       <c r="D40" s="299"/>
@@ -28088,11 +28093,11 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="90" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C41" s="97"/>
       <c r="D41" s="317" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="E41" s="299"/>
       <c r="F41" s="288"/>
@@ -28105,7 +28110,7 @@
     </row>
     <row r="42" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="90" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C42" s="97"/>
       <c r="D42" s="318"/>
@@ -28120,7 +28125,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="90" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C43" s="97"/>
       <c r="D43" s="299"/>
@@ -28135,11 +28140,11 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="90" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C44" s="97"/>
       <c r="D44" s="61" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="E44" s="299"/>
       <c r="F44" s="288"/>
@@ -28152,7 +28157,7 @@
     </row>
     <row r="45" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="90" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C45" s="97"/>
       <c r="D45" s="61"/>
@@ -28167,7 +28172,7 @@
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="90" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C46" s="97"/>
       <c r="D46" s="61"/>
@@ -28176,21 +28181,21 @@
       <c r="G46" s="289"/>
       <c r="H46" s="288"/>
       <c r="I46" s="281" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="J46" s="282" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="K46" s="283"/>
       <c r="Y46" s="23"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="90" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C47" s="97"/>
       <c r="D47" s="23" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E47" s="23"/>
       <c r="F47" s="323"/>
@@ -28209,11 +28214,11 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="90" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C48" s="97"/>
       <c r="D48" s="23" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E48" s="23"/>
       <c r="F48" s="323"/>
@@ -28232,11 +28237,11 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="90" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C49" s="97"/>
       <c r="D49" s="23" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="E49" s="23"/>
       <c r="F49" s="323"/>
@@ -28255,11 +28260,11 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="90" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C50" s="97"/>
       <c r="D50" s="23" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="E50" s="23"/>
       <c r="F50" s="323"/>
@@ -28278,14 +28283,14 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="90" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C51" s="97"/>
       <c r="D51" s="61" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E51" s="61"/>
-      <c r="F51" s="14"/>
+      <c r="F51" s="13"/>
       <c r="G51" s="38"/>
       <c r="H51" s="38"/>
       <c r="I51" s="310" t="str">
@@ -28300,12 +28305,12 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="90" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C52" s="97"/>
       <c r="D52" s="61"/>
       <c r="E52" s="61"/>
-      <c r="F52" s="14"/>
+      <c r="F52" s="13"/>
       <c r="G52" s="38"/>
       <c r="H52" s="38"/>
       <c r="I52" s="38"/>
@@ -28314,11 +28319,11 @@
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="90" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C53" s="97"/>
       <c r="D53" s="143" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="E53" s="143"/>
       <c r="F53" s="143"/>
@@ -28330,7 +28335,7 @@
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="90" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C54" s="97"/>
       <c r="D54" s="143"/>
@@ -28344,7 +28349,7 @@
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="90" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C55" s="97"/>
       <c r="D55" s="143"/>
@@ -28358,7 +28363,7 @@
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="90" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C56" s="97"/>
       <c r="D56" s="143"/>
@@ -28372,7 +28377,7 @@
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="90" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C57" s="97"/>
       <c r="D57" s="143"/>
@@ -28386,7 +28391,7 @@
     </row>
     <row r="58" customFormat="false" ht="3.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="90" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C58" s="144"/>
       <c r="D58" s="145"/>
@@ -28401,47 +28406,47 @@
     </row>
     <row r="59" customFormat="false" ht="4.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="90" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="90" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="90" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="90" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="90" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="90" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="90" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="90" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="90" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
   </sheetData>
@@ -29120,7 +29125,7 @@
     </cfRule>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
-  <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
@@ -29158,10 +29163,10 @@
     </row>
     <row r="2" s="329" customFormat="true" ht="55.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="328" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C2" s="330" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="D2" s="330"/>
       <c r="E2" s="330"/>
@@ -29170,10 +29175,10 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="151" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C3" s="331" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D3" s="331"/>
       <c r="E3" s="331"/>
@@ -29182,7 +29187,7 @@
     </row>
     <row r="4" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="327" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C4" s="144"/>
       <c r="D4" s="5"/>
@@ -29192,10 +29197,10 @@
     </row>
     <row r="5" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="327" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C5" s="332" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D5" s="94"/>
       <c r="E5" s="168"/>
@@ -29204,7 +29209,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="327" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C6" s="333" t="str">
         <f aca="false">A3</f>
@@ -29217,7 +29222,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="327" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C7" s="333"/>
       <c r="D7" s="333"/>
@@ -29227,7 +29232,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="327" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C8" s="333"/>
       <c r="D8" s="333"/>
@@ -29237,7 +29242,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="327" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C9" s="333"/>
       <c r="D9" s="333"/>
@@ -29247,7 +29252,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="327" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C10" s="333"/>
       <c r="D10" s="333"/>
@@ -29257,7 +29262,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="327" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C11" s="333"/>
       <c r="D11" s="333"/>
@@ -29267,7 +29272,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="327" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C12" s="333"/>
       <c r="D12" s="333"/>
@@ -29277,7 +29282,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="327" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C13" s="333"/>
       <c r="D13" s="333"/>
@@ -29287,7 +29292,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="327" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C14" s="333"/>
       <c r="D14" s="333"/>
@@ -29297,7 +29302,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="327" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C15" s="333"/>
       <c r="D15" s="333"/>
@@ -29307,10 +29312,10 @@
     </row>
     <row r="16" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="151" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C16" s="334" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="D16" s="334"/>
       <c r="E16" s="334"/>
@@ -29319,7 +29324,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="151" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C17" s="335" t="n">
         <v>1</v>
@@ -29334,7 +29339,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="151" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C18" s="335" t="n">
         <v>2</v>
@@ -29349,7 +29354,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="151" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C19" s="335" t="n">
         <v>3</v>
@@ -29364,43 +29369,43 @@
     </row>
     <row r="20" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="151" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C20" s="337"/>
       <c r="D20" s="338" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="E20" s="338" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="F20" s="338" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="G20" s="339" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="151" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C21" s="337"/>
       <c r="D21" s="108" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E21" s="108" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F21" s="108" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G21" s="108" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="151" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C22" s="335" t="n">
         <v>1</v>
@@ -29424,7 +29429,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="151" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C23" s="335" t="n">
         <v>2</v>
@@ -29448,7 +29453,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="151" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C24" s="335" t="n">
         <v>3</v>
@@ -29472,10 +29477,10 @@
     </row>
     <row r="25" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="151" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C25" s="341" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D25" s="94"/>
       <c r="E25" s="168"/>
@@ -29484,7 +29489,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="151" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C26" s="333" t="str">
         <f aca="false">A23</f>
@@ -29497,7 +29502,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="151" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C27" s="333"/>
       <c r="D27" s="333"/>
@@ -29507,7 +29512,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="151" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C28" s="333"/>
       <c r="D28" s="333"/>
@@ -29517,7 +29522,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="151" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C29" s="333"/>
       <c r="D29" s="333"/>
@@ -29527,7 +29532,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="151" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C30" s="333"/>
       <c r="D30" s="333"/>
@@ -29537,7 +29542,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="151" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C31" s="333"/>
       <c r="D31" s="333"/>
@@ -29547,7 +29552,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="151" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C32" s="333"/>
       <c r="D32" s="333"/>
@@ -29557,7 +29562,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="151" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C33" s="333"/>
       <c r="D33" s="333"/>
@@ -29567,7 +29572,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="151" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C34" s="333"/>
       <c r="D34" s="333"/>
@@ -29577,7 +29582,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="151" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C35" s="333"/>
       <c r="D35" s="333"/>
@@ -29587,10 +29592,10 @@
     </row>
     <row r="36" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="151" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C36" s="334" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="D36" s="334"/>
       <c r="E36" s="334"/>
@@ -29599,7 +29604,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="151" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C37" s="335" t="n">
         <v>1</v>
@@ -29614,7 +29619,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="151" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C38" s="335" t="n">
         <v>2</v>
@@ -29629,7 +29634,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="151" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C39" s="335" t="n">
         <v>3</v>
@@ -29644,43 +29649,43 @@
     </row>
     <row r="40" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="151" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C40" s="337"/>
       <c r="D40" s="338" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="E40" s="338" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="F40" s="338" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="G40" s="339" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="151" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C41" s="337"/>
       <c r="D41" s="108" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E41" s="108" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F41" s="108" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G41" s="108" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="151" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C42" s="335" t="n">
         <v>1</v>
@@ -29704,7 +29709,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="151" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C43" s="335" t="n">
         <v>2</v>
@@ -29728,7 +29733,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="151" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C44" s="335" t="n">
         <v>3</v>
@@ -29752,10 +29757,10 @@
     </row>
     <row r="45" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="151" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C45" s="341" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D45" s="343"/>
       <c r="E45" s="30"/>
@@ -29764,7 +29769,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="151" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C46" s="333" t="str">
         <f aca="false">A43</f>
@@ -29777,7 +29782,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="151" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C47" s="333"/>
       <c r="D47" s="333"/>
@@ -29787,7 +29792,7 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="151" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C48" s="333"/>
       <c r="D48" s="333"/>
@@ -29797,7 +29802,7 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="151" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C49" s="333"/>
       <c r="D49" s="333"/>
@@ -29807,7 +29812,7 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="151" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C50" s="333"/>
       <c r="D50" s="333"/>
@@ -29817,7 +29822,7 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="151" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C51" s="333"/>
       <c r="D51" s="333"/>
@@ -29827,7 +29832,7 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="151" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C52" s="333"/>
       <c r="D52" s="333"/>
@@ -29837,7 +29842,7 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="151" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C53" s="333"/>
       <c r="D53" s="333"/>
@@ -29847,7 +29852,7 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="151" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C54" s="333"/>
       <c r="D54" s="333"/>
@@ -29857,7 +29862,7 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="151" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C55" s="333"/>
       <c r="D55" s="333"/>
@@ -29867,10 +29872,10 @@
     </row>
     <row r="56" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="151" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="C56" s="334" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="D56" s="334"/>
       <c r="E56" s="334"/>
@@ -29879,7 +29884,7 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="151" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C57" s="335" t="n">
         <v>1</v>
@@ -29894,7 +29899,7 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="151" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C58" s="335" t="n">
         <v>2</v>
@@ -29909,7 +29914,7 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="151" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C59" s="335" t="n">
         <v>3</v>
@@ -29924,38 +29929,38 @@
     </row>
     <row r="60" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="151" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C60" s="337"/>
       <c r="D60" s="338" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="E60" s="338" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="F60" s="338" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="G60" s="339" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="151" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C61" s="337"/>
       <c r="D61" s="108" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E61" s="108" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F61" s="108" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G61" s="108" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30170,7 +30175,7 @@
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
-  <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
@@ -30208,10 +30213,10 @@
     </row>
     <row r="2" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="327" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C2" s="332" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="D2" s="94"/>
       <c r="E2" s="168"/>
@@ -30220,7 +30225,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="327" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C3" s="333" t="str">
         <f aca="false">A3</f>
@@ -30233,7 +30238,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="327" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C4" s="333"/>
       <c r="D4" s="333"/>
@@ -30243,7 +30248,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="327" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C5" s="333"/>
       <c r="D5" s="333"/>
@@ -30253,7 +30258,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="327" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C6" s="333"/>
       <c r="D6" s="333"/>
@@ -30263,7 +30268,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="327" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C7" s="333"/>
       <c r="D7" s="333"/>
@@ -30273,7 +30278,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="327" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C8" s="333"/>
       <c r="D8" s="333"/>
@@ -30283,7 +30288,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="327" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C9" s="333"/>
       <c r="D9" s="333"/>
@@ -30293,7 +30298,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="327" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C10" s="333"/>
       <c r="D10" s="333"/>
@@ -30303,7 +30308,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="327" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C11" s="333"/>
       <c r="D11" s="333"/>
@@ -30313,7 +30318,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="327" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C12" s="333"/>
       <c r="D12" s="333"/>
@@ -30323,10 +30328,10 @@
     </row>
     <row r="13" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="151" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="C13" s="334" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="D13" s="334"/>
       <c r="E13" s="334"/>
@@ -30335,7 +30340,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="151" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C14" s="335" t="n">
         <v>1</v>
@@ -30350,7 +30355,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="151" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C15" s="335" t="n">
         <v>2</v>
@@ -30365,7 +30370,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="151" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C16" s="335" t="n">
         <v>3</v>
@@ -30380,43 +30385,43 @@
     </row>
     <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="151" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C17" s="337"/>
       <c r="D17" s="338" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="E17" s="338" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="F17" s="338" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="G17" s="339" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="151" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C18" s="337"/>
       <c r="D18" s="108" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E18" s="108" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F18" s="108" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G18" s="108" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="151" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C19" s="335" t="n">
         <v>1</v>
@@ -30440,7 +30445,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="151" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C20" s="335" t="n">
         <v>2</v>
@@ -30464,7 +30469,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="151" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C21" s="335" t="n">
         <v>3</v>
@@ -30488,10 +30493,10 @@
     </row>
     <row r="22" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="151" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="C22" s="341" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="D22" s="343"/>
       <c r="E22" s="30"/>
@@ -30500,7 +30505,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="151" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="C23" s="333" t="str">
         <f aca="false">A23</f>
@@ -30513,7 +30518,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="151" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C24" s="333"/>
       <c r="D24" s="333"/>
@@ -30523,7 +30528,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="151" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="C25" s="333"/>
       <c r="D25" s="333"/>
@@ -30533,7 +30538,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="151" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C26" s="333"/>
       <c r="D26" s="333"/>
@@ -30543,7 +30548,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="151" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C27" s="333"/>
       <c r="D27" s="333"/>
@@ -30553,7 +30558,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="151" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C28" s="333"/>
       <c r="D28" s="333"/>
@@ -30563,7 +30568,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="151" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C29" s="333"/>
       <c r="D29" s="333"/>
@@ -30573,7 +30578,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="151" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C30" s="333"/>
       <c r="D30" s="333"/>
@@ -30583,7 +30588,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="151" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C31" s="333"/>
       <c r="D31" s="333"/>
@@ -30593,7 +30598,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="151" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C32" s="333"/>
       <c r="D32" s="333"/>
@@ -30603,10 +30608,10 @@
     </row>
     <row r="33" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="151" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C33" s="334" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="D33" s="334"/>
       <c r="E33" s="334"/>
@@ -30615,7 +30620,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="151" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="C34" s="335" t="n">
         <v>1</v>
@@ -30630,7 +30635,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="151" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C35" s="335" t="n">
         <v>2</v>
@@ -30645,7 +30650,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="151" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="C36" s="335" t="n">
         <v>3</v>
@@ -30660,43 +30665,43 @@
     </row>
     <row r="37" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="151" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="C37" s="337"/>
       <c r="D37" s="338" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="E37" s="338" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="F37" s="338" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="G37" s="339" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="151" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C38" s="337"/>
       <c r="D38" s="108" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E38" s="108" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F38" s="108" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G38" s="108" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="151" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="C39" s="335" t="n">
         <v>1</v>
@@ -30720,7 +30725,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="151" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="C40" s="335" t="n">
         <v>2</v>
@@ -30744,7 +30749,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="151" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="C41" s="335" t="n">
         <v>3</v>
@@ -30768,10 +30773,10 @@
     </row>
     <row r="42" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="151" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="C42" s="341" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="D42" s="343"/>
       <c r="E42" s="346"/>
@@ -30780,7 +30785,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="151" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="C43" s="333" t="str">
         <f aca="false">A43</f>
@@ -30793,7 +30798,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="151" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C44" s="333"/>
       <c r="D44" s="333"/>
@@ -30803,7 +30808,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="151" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C45" s="333"/>
       <c r="D45" s="333"/>
@@ -30909,7 +30914,7 @@
     </row>
     <row r="58" customFormat="false" ht="15.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C58" s="332" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="D58" s="94"/>
       <c r="E58" s="168"/>
@@ -30919,7 +30924,7 @@
     <row r="59" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="151"/>
       <c r="C59" s="152"/>
-      <c r="D59" s="14"/>
+      <c r="D59" s="13"/>
       <c r="E59" s="5"/>
       <c r="F59" s="5"/>
       <c r="G59" s="156"/>
@@ -30927,7 +30932,7 @@
     <row r="60" customFormat="false" ht="11.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="151"/>
       <c r="C60" s="308" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="D60" s="308"/>
       <c r="E60" s="308"/>
@@ -31081,7 +31086,7 @@
     </cfRule>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
-  <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
@@ -31119,10 +31124,10 @@
     </row>
     <row r="2" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="151" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="C2" s="348" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="D2" s="348"/>
       <c r="E2" s="348"/>
@@ -31133,7 +31138,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="327" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="C3" s="333" t="str">
         <f aca="false">A3</f>
@@ -31148,7 +31153,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="327" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C4" s="333"/>
       <c r="D4" s="333"/>
@@ -31160,7 +31165,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="327" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="C5" s="333"/>
       <c r="D5" s="333"/>
@@ -31172,7 +31177,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="327" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C6" s="333"/>
       <c r="D6" s="333"/>
@@ -31184,7 +31189,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="327" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="C7" s="333"/>
       <c r="D7" s="333"/>
@@ -31196,7 +31201,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="327" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="C8" s="333"/>
       <c r="D8" s="333"/>
@@ -31208,7 +31213,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="327" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C9" s="333"/>
       <c r="D9" s="333"/>
@@ -31220,7 +31225,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="327" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="C10" s="333"/>
       <c r="D10" s="333"/>
@@ -31232,7 +31237,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="327" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C11" s="333"/>
       <c r="D11" s="333"/>
@@ -31244,7 +31249,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="327" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C12" s="333"/>
       <c r="D12" s="333"/>
@@ -31256,7 +31261,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="327" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C13" s="333"/>
       <c r="D13" s="333"/>
@@ -31268,7 +31273,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="327" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="C14" s="333"/>
       <c r="D14" s="333"/>
@@ -31280,7 +31285,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="327" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="C15" s="333"/>
       <c r="D15" s="333"/>
@@ -31292,7 +31297,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="327" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="C16" s="333"/>
       <c r="D16" s="333"/>
@@ -31304,7 +31309,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="327" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C17" s="333"/>
       <c r="D17" s="333"/>
@@ -31316,7 +31321,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="327" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="C18" s="333"/>
       <c r="D18" s="333"/>
@@ -31328,7 +31333,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="327" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="C19" s="333"/>
       <c r="D19" s="333"/>
@@ -31340,7 +31345,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="327" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C20" s="333"/>
       <c r="D20" s="333"/>
@@ -31352,7 +31357,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="327" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="C21" s="333"/>
       <c r="D21" s="333"/>
@@ -31364,7 +31369,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="327" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="C22" s="333"/>
       <c r="D22" s="333"/>
@@ -31376,7 +31381,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="327" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="C23" s="333"/>
       <c r="D23" s="333"/>
@@ -31388,7 +31393,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="327" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="C24" s="333"/>
       <c r="D24" s="333"/>
@@ -31400,7 +31405,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="327" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="C25" s="333"/>
       <c r="D25" s="333"/>
@@ -31412,7 +31417,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="327" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C26" s="333"/>
       <c r="D26" s="333"/>
@@ -31424,7 +31429,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="327" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C27" s="333"/>
       <c r="D27" s="333"/>
@@ -31436,7 +31441,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="327" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="C28" s="333"/>
       <c r="D28" s="333"/>
@@ -31448,7 +31453,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="327" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="C29" s="333"/>
       <c r="D29" s="333"/>
@@ -31460,7 +31465,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="327" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="C30" s="333"/>
       <c r="D30" s="333"/>
@@ -31472,7 +31477,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="327" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="C31" s="333"/>
       <c r="D31" s="333"/>
@@ -31484,7 +31489,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="327" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="C32" s="333"/>
       <c r="D32" s="333"/>
@@ -31496,7 +31501,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="327" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="C33" s="333"/>
       <c r="D33" s="333"/>
@@ -31508,7 +31513,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="327" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="C34" s="333"/>
       <c r="D34" s="333"/>
@@ -31520,7 +31525,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="327" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="C35" s="333"/>
       <c r="D35" s="333"/>
@@ -31532,7 +31537,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="327" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="C36" s="333"/>
       <c r="D36" s="333"/>
@@ -31544,7 +31549,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="327" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="C37" s="333"/>
       <c r="D37" s="333"/>
@@ -31556,7 +31561,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="327" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="C38" s="333"/>
       <c r="D38" s="333"/>
@@ -31568,7 +31573,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="327" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="C39" s="333"/>
       <c r="D39" s="333"/>
@@ -31580,7 +31585,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="327" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="C40" s="333"/>
       <c r="D40" s="333"/>
@@ -31592,7 +31597,7 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="327" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="C41" s="333"/>
       <c r="D41" s="333"/>
@@ -31604,7 +31609,7 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="327" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="C42" s="333"/>
       <c r="D42" s="333"/>
@@ -31616,7 +31621,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="327" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="C43" s="333"/>
       <c r="D43" s="333"/>
@@ -31628,7 +31633,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="327" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="C44" s="333"/>
       <c r="D44" s="333"/>
@@ -31640,7 +31645,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="327" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="C45" s="333"/>
       <c r="D45" s="333"/>
@@ -31652,7 +31657,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="327" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="C46" s="333"/>
       <c r="D46" s="333"/>
@@ -31664,7 +31669,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="327" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="C47" s="333"/>
       <c r="D47" s="333"/>
@@ -31676,7 +31681,7 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="327" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="C48" s="333"/>
       <c r="D48" s="333"/>
@@ -31688,7 +31693,7 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="327" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="C49" s="333"/>
       <c r="D49" s="333"/>
@@ -31700,7 +31705,7 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="327" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="C50" s="333"/>
       <c r="D50" s="333"/>
@@ -31712,7 +31717,7 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="327" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="C51" s="333"/>
       <c r="D51" s="333"/>
@@ -31724,7 +31729,7 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="327" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="C52" s="333"/>
       <c r="D52" s="333"/>
@@ -31736,7 +31741,7 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="327" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="C53" s="333"/>
       <c r="D53" s="333"/>
@@ -31748,7 +31753,7 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="327" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="C54" s="333"/>
       <c r="D54" s="333"/>
@@ -31760,7 +31765,7 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="327" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="C55" s="333"/>
       <c r="D55" s="333"/>
@@ -31772,7 +31777,7 @@
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="327" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="C56" s="333"/>
       <c r="D56" s="333"/>
@@ -31784,7 +31789,7 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="327" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="C57" s="333"/>
       <c r="D57" s="333"/>
@@ -31796,7 +31801,7 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="327" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C58" s="333"/>
       <c r="D58" s="333"/>
@@ -31808,7 +31813,7 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="327" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="C59" s="333"/>
       <c r="D59" s="333"/>
@@ -31820,7 +31825,7 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="327" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="C60" s="333"/>
       <c r="D60" s="333"/>
@@ -31832,7 +31837,7 @@
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="327" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="C61" s="333"/>
       <c r="D61" s="333"/>
@@ -31844,7 +31849,7 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="327" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C62" s="333"/>
       <c r="D62" s="333"/>
@@ -31856,7 +31861,7 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="327" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="C63" s="333"/>
       <c r="D63" s="333"/>
@@ -31868,7 +31873,7 @@
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="327" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="C64" s="333"/>
       <c r="D64" s="333"/>
@@ -31880,7 +31885,7 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="327" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="C65" s="333"/>
       <c r="D65" s="333"/>
@@ -31892,7 +31897,7 @@
     </row>
     <row r="66" customFormat="false" ht="5.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="327" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="C66" s="144"/>
       <c r="D66" s="145"/>
@@ -31904,372 +31909,372 @@
     </row>
     <row r="67" customFormat="false" ht="4.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="327" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="327" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="327" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="327" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="327" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="327" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="327" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="327" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="327" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="327" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="327" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="327" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="327" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="327" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="327" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="327" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="327" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="327" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="327" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="327" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="327" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="327" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="327" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="327" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="327" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="327" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="327" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="327" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="327" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="327" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="327" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="327" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="327" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="327" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="327" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="327" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="327" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="327" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="327" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="327" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="327" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="327" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="327" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="327" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="327" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="327" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="327" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="327" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="327" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="327" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="327" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="327" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="327" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="327" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="327" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="327" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="327" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="327" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="327" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="327" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="327" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="327" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="327" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="327" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="327" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="327" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="327" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="327" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="327" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
     </row>
     <row r="136" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="327" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="327" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
     </row>
     <row r="138" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="327" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="327" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
     </row>
     <row r="140" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="327" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
     </row>
   </sheetData>
@@ -32283,7 +32288,7 @@
     </cfRule>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
-  <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>

--- a/etp-backend/src/main/resources/energiatodistus-2013-sv.xlsx
+++ b/etp-backend/src/main/resources/energiatodistus-2013-sv.xlsx
@@ -45,23 +45,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="793">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="792">
   <si>
     <t xml:space="preserve">[:id]</t>
   </si>
   <si>
-    <t xml:space="preserve">[:perustiedot :nimi-fi]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[:perustiedot :nimi-sv]</t>
+    <t xml:space="preserve">[:perustiedot :nimi]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[:perustiedot :katuosoite-fi]</t>
   </si>
   <si>
     <t xml:space="preserve">  ENERGICERTIFIKAT</t>
   </si>
   <si>
-    <t xml:space="preserve">[:perustiedot :katuosoite-fi]</t>
-  </si>
-  <si>
     <t xml:space="preserve">[:perustiedot :katuosoite-sv]</t>
   </si>
   <si>
@@ -71,12 +68,12 @@
     <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--49527]</t>
   </si>
   <si>
+    <t xml:space="preserve">[:perustiedot :rakennustunnus]</t>
+  </si>
+  <si>
     <t xml:space="preserve">Byggnadens namn och adress:</t>
   </si>
   <si>
-    <t xml:space="preserve">[:perustiedot :rakennustunnus]</t>
-  </si>
-  <si>
     <t xml:space="preserve">[:perustiedot :valmistumisvuosi]</t>
   </si>
   <si>
@@ -92,33 +89,33 @@
     <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--49531]</t>
   </si>
   <si>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--49533]</t>
+  </si>
+  <si>
     <t xml:space="preserve">Byggnadsbeteckning:</t>
   </si>
   <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--49533]</t>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--49535]</t>
   </si>
   <si>
     <t xml:space="preserve">Byggnaden färdigställd år:</t>
   </si>
   <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--49535]</t>
-  </si>
-  <si>
     <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--49537]</t>
   </si>
   <si>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--49539]</t>
+  </si>
+  <si>
     <t xml:space="preserve">Byggnadens användningskategori:</t>
   </si>
   <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--49539]</t>
+    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--49541]</t>
   </si>
   <si>
     <t xml:space="preserve">Certifikatnummer:</t>
   </si>
   <si>
-    <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--49541]</t>
-  </si>
-  <si>
     <t xml:space="preserve">[:tulokset :e-luku]</t>
   </si>
   <si>
@@ -128,10 +125,10 @@
     <t xml:space="preserve">[:laatija-fullname]</t>
   </si>
   <si>
+    <t xml:space="preserve">[:perustiedot :yritys :nimi]</t>
+  </si>
+  <si>
     <t xml:space="preserve">               Energiprestandaklass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[:perustiedot :yritys :nimi]</t>
   </si>
   <si>
     <t xml:space="preserve">#function[solita.etp.service.energiatodistus-pdf/fn--49544]</t>
@@ -4060,6 +4057,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -4074,10 +4075,6 @@
     </xf>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
@@ -8760,9 +8757,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>240480</xdr:colOff>
+      <xdr:colOff>240840</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>254160</xdr:rowOff>
+      <xdr:rowOff>254520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8776,7 +8773,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="4199040"/>
-          <a:ext cx="750240" cy="206640"/>
+          <a:ext cx="750600" cy="207000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8797,9 +8794,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>140400</xdr:colOff>
+      <xdr:colOff>140760</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>254160</xdr:rowOff>
+      <xdr:rowOff>254520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8813,7 +8810,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="4513320"/>
-          <a:ext cx="1093320" cy="206640"/>
+          <a:ext cx="1093680" cy="207000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8834,9 +8831,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>13680</xdr:colOff>
+      <xdr:colOff>14040</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>255240</xdr:rowOff>
+      <xdr:rowOff>255600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8850,7 +8847,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="4828680"/>
-          <a:ext cx="1400400" cy="206640"/>
+          <a:ext cx="1400760" cy="207000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8871,9 +8868,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>337680</xdr:colOff>
+      <xdr:colOff>338040</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>255240</xdr:rowOff>
+      <xdr:rowOff>255600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8887,7 +8884,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="5142960"/>
-          <a:ext cx="1724400" cy="206640"/>
+          <a:ext cx="1724760" cy="207000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8908,9 +8905,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>210960</xdr:colOff>
+      <xdr:colOff>211320</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>268200</xdr:rowOff>
+      <xdr:rowOff>268560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8924,7 +8921,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="5457240"/>
-          <a:ext cx="2031480" cy="219600"/>
+          <a:ext cx="2031840" cy="219960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8945,9 +8942,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>154080</xdr:colOff>
+      <xdr:colOff>154440</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>255240</xdr:rowOff>
+      <xdr:rowOff>255600</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8961,7 +8958,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="5771520"/>
-          <a:ext cx="2376360" cy="206640"/>
+          <a:ext cx="2376720" cy="207000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8982,9 +8979,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>94320</xdr:colOff>
+      <xdr:colOff>94680</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>254160</xdr:rowOff>
+      <xdr:rowOff>254520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -8998,7 +8995,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3100680" y="6085080"/>
-          <a:ext cx="2689560" cy="206640"/>
+          <a:ext cx="2689920" cy="207000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9398,9 +9395,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>310680</xdr:colOff>
+      <xdr:colOff>311040</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>71640</xdr:rowOff>
+      <xdr:rowOff>72000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9410,7 +9407,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1994400" y="149040"/>
-          <a:ext cx="6992640" cy="10055880"/>
+          <a:ext cx="6993000" cy="10056240"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -9496,9 +9493,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>321120</xdr:colOff>
+      <xdr:colOff>321480</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>72720</xdr:rowOff>
+      <xdr:rowOff>73080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9508,7 +9505,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1987560" y="10344960"/>
-          <a:ext cx="7009920" cy="259560"/>
+          <a:ext cx="7010280" cy="259920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9527,7 +9524,7 @@
         <a:fontRef idx="minor"/>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000">
+        <a:bodyPr lIns="90000" rIns="90000" tIns="45000" bIns="45000" anchor="t">
           <a:noAutofit/>
         </a:bodyPr>
         <a:p>
@@ -9545,7 +9542,7 @@
             </a:rPr>
             <a:t>Energicertifikatet grundar sig på lagen om energicertifikat för byggnader  (50/2013). </a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="1100" spc="-1" strike="noStrike">
+          <a:endParaRPr b="0" lang="fi-FI" sz="1100" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -9562,9 +9559,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>426960</xdr:colOff>
+      <xdr:colOff>427320</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>50040</xdr:rowOff>
+      <xdr:rowOff>50400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9574,7 +9571,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5525280" y="4883760"/>
-          <a:ext cx="788760" cy="260640"/>
+          <a:ext cx="789120" cy="261000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9609,7 +9606,7 @@
             </a:rPr>
             <a:t>Normnivån för</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="700" spc="-1" strike="noStrike">
+          <a:endParaRPr b="0" lang="fi-FI" sz="700" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -9626,9 +9623,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>425880</xdr:colOff>
+      <xdr:colOff>426240</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>189720</xdr:rowOff>
+      <xdr:rowOff>190080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9638,7 +9635,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5524200" y="5023440"/>
-          <a:ext cx="788760" cy="260640"/>
+          <a:ext cx="789120" cy="261000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9673,7 +9670,7 @@
             </a:rPr>
             <a:t>nybyggnader 2012</a:t>
           </a:r>
-          <a:endParaRPr b="0" lang="en-US" sz="700" spc="-1" strike="noStrike">
+          <a:endParaRPr b="0" lang="fi-FI" sz="700" spc="-1" strike="noStrike">
             <a:latin typeface="Times New Roman"/>
           </a:endParaRPr>
         </a:p>
@@ -9692,7 +9689,7 @@
   <dimension ref="A1:AK262"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9954,31 +9951,31 @@
       <c r="AJ6" s="7"/>
       <c r="AK6" s="7"/>
     </row>
-    <row r="7" s="16" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
+    <row r="7" s="17" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="14" t="s">
+      <c r="B7" s="14"/>
+      <c r="C7" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="15" t="str">
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="16" t="str">
         <f aca="false">A2</f>
-        <v>[:perustiedot :nimi-fi]</v>
-      </c>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="13"/>
+        <v>[:perustiedot :nimi]</v>
+      </c>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="14"/>
       <c r="R7" s="6"/>
       <c r="S7" s="0"/>
       <c r="T7" s="0"/>
@@ -9998,28 +9995,28 @@
       <c r="AJ7" s="7"/>
       <c r="AK7" s="7"/>
     </row>
-    <row r="8" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="17" t="s">
+    <row r="8" s="17" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="15" t="str">
-        <f aca="false">A5</f>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="16" t="str">
+        <f aca="false">A4</f>
         <v>[:perustiedot :katuosoite-sv]</v>
       </c>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15"/>
-      <c r="O8" s="15"/>
-      <c r="P8" s="15"/>
-      <c r="Q8" s="13"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="14"/>
       <c r="R8" s="6"/>
       <c r="S8" s="0"/>
       <c r="T8" s="0"/>
@@ -10039,16 +10036,16 @@
       <c r="AJ8" s="7"/>
       <c r="AK8" s="7"/>
     </row>
-    <row r="9" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="17" t="s">
+    <row r="9" s="17" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
       <c r="I9" s="0"/>
       <c r="J9" s="18"/>
       <c r="K9" s="18"/>
@@ -10057,7 +10054,7 @@
       <c r="N9" s="18"/>
       <c r="O9" s="18"/>
       <c r="P9" s="18"/>
-      <c r="Q9" s="13"/>
+      <c r="Q9" s="14"/>
       <c r="R9" s="6"/>
       <c r="S9" s="0"/>
       <c r="T9" s="0"/>
@@ -10077,28 +10074,28 @@
       <c r="AJ9" s="7"/>
       <c r="AK9" s="7"/>
     </row>
-    <row r="10" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="17" t="s">
+    <row r="10" s="17" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="15" t="str">
-        <f aca="false">A7</f>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="16" t="str">
+        <f aca="false">A6</f>
         <v>#function[solita.etp.service.energiatodistus-pdf/fn--49527]</v>
       </c>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="13"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="14"/>
       <c r="R10" s="6"/>
       <c r="S10" s="0"/>
       <c r="T10" s="0"/>
@@ -10118,16 +10115,16 @@
       <c r="AJ10" s="7"/>
       <c r="AK10" s="7"/>
     </row>
-    <row r="11" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="17" t="s">
+    <row r="11" s="17" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
       <c r="I11" s="18"/>
       <c r="J11" s="18"/>
       <c r="K11" s="18"/>
@@ -10136,7 +10133,7 @@
       <c r="N11" s="18"/>
       <c r="O11" s="18"/>
       <c r="P11" s="18"/>
-      <c r="Q11" s="13"/>
+      <c r="Q11" s="14"/>
       <c r="R11" s="6"/>
       <c r="S11" s="0"/>
       <c r="T11" s="0"/>
@@ -10156,12 +10153,12 @@
       <c r="AJ11" s="7"/>
       <c r="AK11" s="7"/>
     </row>
-    <row r="12" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="17" t="s">
+    <row r="12" s="17" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
       <c r="D12" s="19"/>
       <c r="E12" s="19"/>
       <c r="F12" s="19"/>
@@ -10175,7 +10172,7 @@
       <c r="N12" s="19"/>
       <c r="O12" s="19"/>
       <c r="P12" s="19"/>
-      <c r="Q12" s="13"/>
+      <c r="Q12" s="14"/>
       <c r="R12" s="6"/>
       <c r="S12" s="0"/>
       <c r="T12" s="0"/>
@@ -10195,19 +10192,19 @@
       <c r="AJ12" s="7"/>
       <c r="AK12" s="7"/>
     </row>
-    <row r="13" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="17" t="s">
+    <row r="13" s="17" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="14" t="s">
+      <c r="B13" s="14"/>
+      <c r="C13" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
       <c r="I13" s="20" t="str">
-        <f aca="false">A8</f>
+        <f aca="false">A7</f>
         <v>[:perustiedot :rakennustunnus]</v>
       </c>
       <c r="J13" s="20"/>
@@ -10237,20 +10234,20 @@
       <c r="AK13" s="7"/>
     </row>
     <row r="14" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="5"/>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
       <c r="I14" s="21" t="str">
-        <f aca="false">A9</f>
+        <f aca="false">A8</f>
         <v>[:perustiedot :valmistumisvuosi]</v>
       </c>
       <c r="J14" s="21"/>
@@ -10288,9 +10285,9 @@
       <c r="D15" s="23"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
       <c r="J15" s="24"/>
       <c r="K15" s="5"/>
       <c r="L15" s="5"/>
@@ -10298,7 +10295,7 @@
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
-      <c r="Q15" s="13"/>
+      <c r="Q15" s="14"/>
       <c r="R15" s="6"/>
       <c r="S15" s="0"/>
       <c r="T15" s="0"/>
@@ -10329,10 +10326,10 @@
       <c r="D16" s="26"/>
       <c r="E16" s="26"/>
       <c r="F16" s="26"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
       <c r="I16" s="27" t="str">
-        <f aca="false">A11</f>
+        <f aca="false">A10</f>
         <v>[:perustiedot :alakayttotarkoitus-sv]</v>
       </c>
       <c r="J16" s="27"/>
@@ -10342,7 +10339,7 @@
       <c r="N16" s="27"/>
       <c r="O16" s="27"/>
       <c r="P16" s="27"/>
-      <c r="Q16" s="13"/>
+      <c r="Q16" s="14"/>
       <c r="R16" s="6"/>
       <c r="S16" s="0"/>
       <c r="T16" s="0"/>
@@ -10362,17 +10359,17 @@
       <c r="AJ16" s="7"/>
       <c r="AK16" s="7"/>
     </row>
-    <row r="17" s="16" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="s">
+    <row r="17" s="17" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="14" t="s">
+      <c r="B17" s="14"/>
+      <c r="C17" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
       <c r="I17" s="28" t="str">
         <f aca="false">A1</f>
         <v>[:id]</v>
@@ -10403,26 +10400,26 @@
       <c r="AJ17" s="7"/>
       <c r="AK17" s="7"/>
     </row>
-    <row r="18" s="16" customFormat="true" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="17" t="s">
+    <row r="18" s="17" customFormat="true" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="15"/>
       <c r="D18" s="26"/>
       <c r="E18" s="26"/>
       <c r="F18" s="26"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
       <c r="I18" s="29"/>
       <c r="J18" s="29"/>
       <c r="K18" s="29"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="13"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14"/>
       <c r="R18" s="6"/>
       <c r="S18" s="0"/>
       <c r="T18" s="0"/>
@@ -10443,11 +10440,11 @@
       <c r="AK18" s="7"/>
     </row>
     <row r="19" customFormat="false" ht="9.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
@@ -10461,7 +10458,7 @@
       <c r="N19" s="5"/>
       <c r="O19" s="5"/>
       <c r="P19" s="5"/>
-      <c r="Q19" s="13"/>
+      <c r="Q19" s="14"/>
       <c r="R19" s="6"/>
       <c r="S19" s="0"/>
       <c r="T19" s="0"/>
@@ -10640,9 +10637,7 @@
       <c r="AK23" s="7"/>
     </row>
     <row r="24" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3" t="s">
-        <v>30</v>
-      </c>
+      <c r="A24" s="3"/>
       <c r="B24" s="4"/>
       <c r="C24" s="30"/>
       <c r="D24" s="40"/>
@@ -10904,7 +10899,7 @@
       <c r="A31" s="3"/>
       <c r="B31" s="4"/>
       <c r="C31" s="30"/>
-      <c r="D31" s="13"/>
+      <c r="D31" s="14"/>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
@@ -10943,7 +10938,7 @@
       <c r="C32" s="50"/>
       <c r="D32" s="51"/>
       <c r="E32" s="52" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F32" s="52"/>
       <c r="G32" s="52"/>
@@ -10953,7 +10948,7 @@
       <c r="K32" s="52"/>
       <c r="L32" s="52"/>
       <c r="M32" s="53" t="str">
-        <f aca="false">A19</f>
+        <f aca="false">A18</f>
         <v>[:tulokset :e-luku]</v>
       </c>
       <c r="N32" s="53"/>
@@ -10993,7 +10988,7 @@
       <c r="K33" s="52"/>
       <c r="L33" s="52"/>
       <c r="M33" s="58" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N33" s="58"/>
       <c r="O33" s="58"/>
@@ -11129,7 +11124,7 @@
       <c r="A37" s="3"/>
       <c r="B37" s="4"/>
       <c r="C37" s="63" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D37" s="11"/>
       <c r="E37" s="11"/>
@@ -11139,7 +11134,7 @@
       <c r="I37" s="11"/>
       <c r="J37" s="11"/>
       <c r="L37" s="63" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M37" s="63"/>
       <c r="N37" s="63"/>
@@ -11177,11 +11172,11 @@
       <c r="I38" s="5"/>
       <c r="J38" s="5"/>
       <c r="K38" s="5"/>
-      <c r="L38" s="14"/>
-      <c r="M38" s="14"/>
-      <c r="N38" s="14"/>
-      <c r="O38" s="14"/>
-      <c r="P38" s="14"/>
+      <c r="L38" s="15"/>
+      <c r="M38" s="15"/>
+      <c r="N38" s="15"/>
+      <c r="O38" s="15"/>
+      <c r="P38" s="15"/>
       <c r="Q38" s="65"/>
       <c r="R38" s="6"/>
       <c r="S38" s="0"/>
@@ -11206,7 +11201,7 @@
       <c r="A39" s="3"/>
       <c r="B39" s="4"/>
       <c r="C39" s="66" t="str">
-        <f aca="false">A21</f>
+        <f aca="false">A20</f>
         <v>[:laatija-fullname]</v>
       </c>
       <c r="D39" s="66"/>
@@ -11216,9 +11211,9 @@
       <c r="H39" s="66"/>
       <c r="I39" s="66"/>
       <c r="J39" s="66"/>
-      <c r="K39" s="13"/>
+      <c r="K39" s="14"/>
       <c r="L39" s="66" t="str">
-        <f aca="false">A22</f>
+        <f aca="false">A21</f>
         <v>[:perustiedot :yritys :nimi]</v>
       </c>
       <c r="M39" s="66"/>
@@ -11255,7 +11250,7 @@
       <c r="H40" s="67"/>
       <c r="I40" s="67"/>
       <c r="J40" s="67"/>
-      <c r="K40" s="13"/>
+      <c r="K40" s="14"/>
       <c r="L40" s="67"/>
       <c r="M40" s="67"/>
       <c r="N40" s="67"/>
@@ -11291,7 +11286,7 @@
       <c r="H41" s="67"/>
       <c r="I41" s="67"/>
       <c r="J41" s="67"/>
-      <c r="K41" s="13"/>
+      <c r="K41" s="14"/>
       <c r="L41" s="67"/>
       <c r="M41" s="67"/>
       <c r="N41" s="67"/>
@@ -11355,8 +11350,8 @@
     </row>
     <row r="43" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B43" s="4"/>
-      <c r="C43" s="14" t="s">
-        <v>35</v>
+      <c r="C43" s="15" t="s">
+        <v>34</v>
       </c>
       <c r="D43" s="69"/>
       <c r="E43" s="69"/>
@@ -11464,7 +11459,7 @@
     </row>
     <row r="46" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C46" s="73" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D46" s="74"/>
       <c r="E46" s="74"/>
@@ -11475,7 +11470,7 @@
       <c r="J46" s="74"/>
       <c r="K46" s="74"/>
       <c r="L46" s="75" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M46" s="76"/>
       <c r="N46" s="76"/>
@@ -11538,7 +11533,7 @@
     </row>
     <row r="48" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C48" s="79" t="str">
-        <f aca="false">A23</f>
+        <f aca="false">A22</f>
         <v>#function[solita.etp.service.energiatodistus-pdf/fn--49544]</v>
       </c>
       <c r="D48" s="79"/>
@@ -11550,7 +11545,7 @@
       <c r="J48" s="79"/>
       <c r="K48" s="74"/>
       <c r="L48" s="80" t="str">
-        <f aca="false">A24</f>
+        <f aca="false">A23</f>
         <v>#function[solita.etp.service.energiatodistus-pdf/fn--49547]</v>
       </c>
       <c r="M48" s="80"/>
@@ -11990,7 +11985,7 @@
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="87"/>
       <c r="C61" s="89" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D61" s="85" t="n">
         <f aca="false">IF(ISTEXT('2) E-luokka'!$H$33),IF(C61='2) E-luokka'!$H$33,0,1),1)</f>
@@ -12031,7 +12026,7 @@
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="87"/>
       <c r="C62" s="89" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D62" s="85" t="n">
         <f aca="false">IF(ISTEXT('2) E-luokka'!$H$33),IF(C62='2) E-luokka'!$H$33,0,1),1)</f>
@@ -12072,7 +12067,7 @@
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="87"/>
       <c r="C63" s="89" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D63" s="85" t="n">
         <f aca="false">IF(ISTEXT('2) E-luokka'!$H$33),IF(C63='2) E-luokka'!$H$33,0,1),1)</f>
@@ -12113,7 +12108,7 @@
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="87"/>
       <c r="C64" s="89" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D64" s="85" t="n">
         <f aca="false">IF(ISTEXT('2) E-luokka'!$H$33),IF(C64='2) E-luokka'!$H$33,0,1),1)</f>
@@ -12154,7 +12149,7 @@
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="87"/>
       <c r="C65" s="89" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D65" s="85" t="n">
         <f aca="false">IF(ISTEXT('2) E-luokka'!$H$33),IF(C65='2) E-luokka'!$H$33,0,1),1)</f>
@@ -12195,7 +12190,7 @@
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="87"/>
       <c r="C66" s="89" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D66" s="85" t="n">
         <f aca="false">IF(ISTEXT('2) E-luokka'!$H$33),IF(C66='2) E-luokka'!$H$33,0,1),1)</f>
@@ -12236,7 +12231,7 @@
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="87"/>
       <c r="C67" s="89" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D67" s="85" t="n">
         <f aca="false">IF(ISTEXT('2) E-luokka'!$H$33),IF(C67='2) E-luokka'!$H$33,0,1),1)</f>
@@ -12349,7 +12344,7 @@
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="87"/>
       <c r="C70" s="88" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D70" s="85"/>
       <c r="E70" s="85"/>
@@ -12501,7 +12496,7 @@
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="87"/>
       <c r="C74" s="88" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D74" s="85"/>
       <c r="E74" s="85"/>
@@ -12539,7 +12534,7 @@
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="87"/>
       <c r="C75" s="85" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D75" s="85"/>
       <c r="E75" s="85"/>
@@ -12577,7 +12572,7 @@
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="87"/>
       <c r="C76" s="85" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D76" s="87"/>
       <c r="E76" s="87"/>
@@ -12587,7 +12582,7 @@
       <c r="I76" s="87"/>
       <c r="J76" s="85"/>
       <c r="K76" s="87" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L76" s="85"/>
       <c r="M76" s="85"/>
@@ -12617,7 +12612,7 @@
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="87"/>
       <c r="C77" s="85" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D77" s="87"/>
       <c r="E77" s="87"/>
@@ -12627,7 +12622,7 @@
       <c r="I77" s="87"/>
       <c r="J77" s="85"/>
       <c r="K77" s="87" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L77" s="85"/>
       <c r="M77" s="85"/>
@@ -12657,7 +12652,7 @@
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B78" s="87"/>
       <c r="C78" s="85" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D78" s="87"/>
       <c r="E78" s="87"/>
@@ -12667,7 +12662,7 @@
       <c r="I78" s="87"/>
       <c r="J78" s="85"/>
       <c r="K78" s="87" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L78" s="85"/>
       <c r="M78" s="85"/>
@@ -12697,7 +12692,7 @@
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B79" s="87"/>
       <c r="C79" s="85" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D79" s="87"/>
       <c r="E79" s="87"/>
@@ -12707,7 +12702,7 @@
       <c r="I79" s="87"/>
       <c r="J79" s="85"/>
       <c r="K79" s="87" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L79" s="85"/>
       <c r="M79" s="85"/>
@@ -12737,7 +12732,7 @@
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B80" s="87"/>
       <c r="C80" s="85" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D80" s="87"/>
       <c r="E80" s="87"/>
@@ -12747,7 +12742,7 @@
       <c r="I80" s="87"/>
       <c r="J80" s="85"/>
       <c r="K80" s="87" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L80" s="85"/>
       <c r="M80" s="85"/>
@@ -12777,7 +12772,7 @@
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B81" s="87"/>
       <c r="C81" s="85" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D81" s="87"/>
       <c r="E81" s="87"/>
@@ -12787,7 +12782,7 @@
       <c r="I81" s="87"/>
       <c r="J81" s="85"/>
       <c r="K81" s="87" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L81" s="85"/>
       <c r="M81" s="85"/>
@@ -12817,7 +12812,7 @@
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="87"/>
       <c r="C82" s="85" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D82" s="87"/>
       <c r="E82" s="87"/>
@@ -12827,7 +12822,7 @@
       <c r="I82" s="87"/>
       <c r="J82" s="85"/>
       <c r="K82" s="87" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L82" s="85"/>
       <c r="M82" s="85"/>
@@ -12857,7 +12852,7 @@
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="87"/>
       <c r="C83" s="85" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D83" s="87"/>
       <c r="E83" s="87"/>
@@ -12867,7 +12862,7 @@
       <c r="I83" s="87"/>
       <c r="J83" s="85"/>
       <c r="K83" s="87" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L83" s="85"/>
       <c r="M83" s="85"/>
@@ -12897,7 +12892,7 @@
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="87"/>
       <c r="C84" s="85" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D84" s="87"/>
       <c r="E84" s="87"/>
@@ -12907,7 +12902,7 @@
       <c r="I84" s="87"/>
       <c r="J84" s="85"/>
       <c r="K84" s="87" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L84" s="85"/>
       <c r="M84" s="85"/>
@@ -12937,7 +12932,7 @@
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="87"/>
       <c r="C85" s="85" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D85" s="87"/>
       <c r="E85" s="87"/>
@@ -12947,7 +12942,7 @@
       <c r="I85" s="87"/>
       <c r="J85" s="85"/>
       <c r="K85" s="87" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L85" s="85"/>
       <c r="M85" s="85"/>
@@ -12977,7 +12972,7 @@
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B86" s="87"/>
       <c r="C86" s="85" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D86" s="87"/>
       <c r="E86" s="87"/>
@@ -12987,7 +12982,7 @@
       <c r="I86" s="87"/>
       <c r="J86" s="85"/>
       <c r="K86" s="87" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L86" s="85"/>
       <c r="M86" s="85"/>
@@ -13017,7 +13012,7 @@
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B87" s="87"/>
       <c r="C87" s="85" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D87" s="87"/>
       <c r="E87" s="87"/>
@@ -13027,7 +13022,7 @@
       <c r="I87" s="87"/>
       <c r="J87" s="85"/>
       <c r="K87" s="87" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L87" s="85"/>
       <c r="M87" s="85"/>
@@ -13057,7 +13052,7 @@
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B88" s="87"/>
       <c r="C88" s="85" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D88" s="87"/>
       <c r="E88" s="87"/>
@@ -13067,7 +13062,7 @@
       <c r="I88" s="87"/>
       <c r="J88" s="85"/>
       <c r="K88" s="87" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L88" s="85"/>
       <c r="M88" s="85"/>
@@ -13097,7 +13092,7 @@
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B89" s="87"/>
       <c r="C89" s="85" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D89" s="87"/>
       <c r="E89" s="87"/>
@@ -13107,7 +13102,7 @@
       <c r="I89" s="87"/>
       <c r="J89" s="85"/>
       <c r="K89" s="87" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L89" s="85"/>
       <c r="M89" s="85"/>
@@ -13137,7 +13132,7 @@
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B90" s="87"/>
       <c r="C90" s="85" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D90" s="87"/>
       <c r="E90" s="87"/>
@@ -13147,7 +13142,7 @@
       <c r="I90" s="87"/>
       <c r="J90" s="85"/>
       <c r="K90" s="87" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L90" s="85"/>
       <c r="M90" s="85"/>
@@ -13177,7 +13172,7 @@
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B91" s="87"/>
       <c r="C91" s="85" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D91" s="87"/>
       <c r="E91" s="87"/>
@@ -13187,7 +13182,7 @@
       <c r="I91" s="87"/>
       <c r="J91" s="85"/>
       <c r="K91" s="87" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L91" s="85"/>
       <c r="M91" s="85"/>
@@ -13217,7 +13212,7 @@
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B92" s="87"/>
       <c r="C92" s="85" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D92" s="87"/>
       <c r="E92" s="87"/>
@@ -13227,7 +13222,7 @@
       <c r="I92" s="87"/>
       <c r="J92" s="85"/>
       <c r="K92" s="87" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L92" s="85"/>
       <c r="M92" s="85"/>
@@ -13257,7 +13252,7 @@
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B93" s="87"/>
       <c r="C93" s="85" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D93" s="87"/>
       <c r="E93" s="87"/>
@@ -13267,7 +13262,7 @@
       <c r="I93" s="87"/>
       <c r="J93" s="85"/>
       <c r="K93" s="87" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L93" s="85"/>
       <c r="M93" s="85"/>
@@ -13297,7 +13292,7 @@
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B94" s="87"/>
       <c r="C94" s="85" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D94" s="87"/>
       <c r="E94" s="87"/>
@@ -13307,7 +13302,7 @@
       <c r="I94" s="87"/>
       <c r="J94" s="85"/>
       <c r="K94" s="87" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L94" s="85"/>
       <c r="M94" s="85"/>
@@ -13337,7 +13332,7 @@
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B95" s="87"/>
       <c r="C95" s="85" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D95" s="87"/>
       <c r="E95" s="87"/>
@@ -13347,7 +13342,7 @@
       <c r="I95" s="87"/>
       <c r="J95" s="85"/>
       <c r="K95" s="87" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L95" s="85"/>
       <c r="M95" s="85"/>
@@ -13377,7 +13372,7 @@
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="87"/>
       <c r="C96" s="85" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D96" s="87"/>
       <c r="E96" s="87"/>
@@ -13387,7 +13382,7 @@
       <c r="I96" s="87"/>
       <c r="J96" s="85"/>
       <c r="K96" s="87" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L96" s="85"/>
       <c r="M96" s="85"/>
@@ -13417,7 +13412,7 @@
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B97" s="87"/>
       <c r="C97" s="85" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D97" s="87"/>
       <c r="E97" s="87"/>
@@ -13427,7 +13422,7 @@
       <c r="I97" s="87"/>
       <c r="J97" s="85"/>
       <c r="K97" s="87" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L97" s="85"/>
       <c r="M97" s="85"/>
@@ -13457,7 +13452,7 @@
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B98" s="87"/>
       <c r="C98" s="85" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D98" s="87"/>
       <c r="E98" s="87"/>
@@ -13467,7 +13462,7 @@
       <c r="I98" s="87"/>
       <c r="J98" s="85"/>
       <c r="K98" s="87" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L98" s="85"/>
       <c r="M98" s="85"/>
@@ -13497,7 +13492,7 @@
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B99" s="87"/>
       <c r="C99" s="85" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D99" s="87"/>
       <c r="E99" s="87"/>
@@ -13507,7 +13502,7 @@
       <c r="I99" s="87"/>
       <c r="J99" s="85"/>
       <c r="K99" s="87" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L99" s="85"/>
       <c r="M99" s="85"/>
@@ -13537,7 +13532,7 @@
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B100" s="87"/>
       <c r="C100" s="85" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D100" s="87"/>
       <c r="E100" s="87"/>
@@ -13547,7 +13542,7 @@
       <c r="I100" s="87"/>
       <c r="J100" s="85"/>
       <c r="K100" s="87" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L100" s="85"/>
       <c r="M100" s="85"/>
@@ -13577,7 +13572,7 @@
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B101" s="87"/>
       <c r="C101" s="85" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D101" s="87"/>
       <c r="E101" s="87"/>
@@ -13587,7 +13582,7 @@
       <c r="I101" s="87"/>
       <c r="J101" s="85"/>
       <c r="K101" s="87" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L101" s="85"/>
       <c r="M101" s="85"/>
@@ -13617,7 +13612,7 @@
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B102" s="87"/>
       <c r="C102" s="85" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D102" s="87"/>
       <c r="E102" s="87"/>
@@ -13627,7 +13622,7 @@
       <c r="I102" s="87"/>
       <c r="J102" s="85"/>
       <c r="K102" s="87" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L102" s="85"/>
       <c r="M102" s="85"/>
@@ -13657,7 +13652,7 @@
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B103" s="87"/>
       <c r="C103" s="85" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D103" s="87"/>
       <c r="E103" s="87"/>
@@ -13667,7 +13662,7 @@
       <c r="I103" s="87"/>
       <c r="J103" s="85"/>
       <c r="K103" s="87" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L103" s="85"/>
       <c r="M103" s="85"/>
@@ -13697,7 +13692,7 @@
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B104" s="87"/>
       <c r="C104" s="85" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D104" s="87"/>
       <c r="E104" s="87"/>
@@ -13707,7 +13702,7 @@
       <c r="I104" s="87"/>
       <c r="J104" s="85"/>
       <c r="K104" s="87" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L104" s="85"/>
       <c r="M104" s="85"/>
@@ -13737,7 +13732,7 @@
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B105" s="87"/>
       <c r="C105" s="85" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D105" s="87"/>
       <c r="E105" s="87"/>
@@ -13747,7 +13742,7 @@
       <c r="I105" s="87"/>
       <c r="J105" s="85"/>
       <c r="K105" s="87" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L105" s="85"/>
       <c r="M105" s="85"/>
@@ -13777,7 +13772,7 @@
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B106" s="87"/>
       <c r="C106" s="85" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D106" s="87"/>
       <c r="E106" s="87"/>
@@ -13787,7 +13782,7 @@
       <c r="I106" s="87"/>
       <c r="J106" s="85"/>
       <c r="K106" s="87" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L106" s="85"/>
       <c r="M106" s="85"/>
@@ -13817,7 +13812,7 @@
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B107" s="87"/>
       <c r="C107" s="85" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D107" s="87"/>
       <c r="E107" s="87"/>
@@ -13827,7 +13822,7 @@
       <c r="I107" s="87"/>
       <c r="J107" s="85"/>
       <c r="K107" s="87" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L107" s="85"/>
       <c r="M107" s="85"/>
@@ -13857,7 +13852,7 @@
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B108" s="87"/>
       <c r="C108" s="85" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D108" s="87"/>
       <c r="E108" s="87"/>
@@ -13867,7 +13862,7 @@
       <c r="I108" s="87"/>
       <c r="J108" s="85"/>
       <c r="K108" s="87" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="L108" s="85"/>
       <c r="M108" s="85"/>
@@ -19485,13 +19480,13 @@
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A10:A12" type="none">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="A9:A11" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
-  <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
@@ -19539,11 +19534,11 @@
     </row>
     <row r="2" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="90" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C2" s="91"/>
       <c r="D2" s="92" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E2" s="92"/>
       <c r="F2" s="92"/>
@@ -19572,11 +19567,11 @@
     </row>
     <row r="3" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="90" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C3" s="93"/>
       <c r="D3" s="94" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E3" s="94"/>
       <c r="F3" s="95"/>
@@ -19605,16 +19600,16 @@
     </row>
     <row r="4" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="90" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C4" s="97"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
       <c r="K4" s="98"/>
       <c r="M4" s="0"/>
       <c r="N4" s="0"/>
@@ -19636,21 +19631,21 @@
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="90" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C5" s="97"/>
       <c r="D5" s="61" t="s">
-        <v>94</v>
-      </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
+        <v>93</v>
+      </c>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
       <c r="G5" s="99" t="str">
         <f aca="false">A2</f>
         <v>#function[solita.etp.service.energiatodistus-pdf/fn--49551]</v>
       </c>
       <c r="H5" s="29"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
       <c r="K5" s="98"/>
       <c r="M5" s="0"/>
       <c r="N5" s="0"/>
@@ -19672,14 +19667,14 @@
     </row>
     <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="90" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C6" s="97"/>
       <c r="D6" s="61" t="s">
-        <v>96</v>
-      </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
+        <v>95</v>
+      </c>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
       <c r="G6" s="100" t="str">
         <f aca="false">A4</f>
         <v>[:lahtotiedot :lammitys :lammitysmuoto-label-sv]</v>
@@ -19708,12 +19703,12 @@
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="90" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C7" s="97"/>
       <c r="D7" s="0"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
       <c r="G7" s="101" t="str">
         <f aca="false">A6</f>
         <v>[:lahtotiedot :lammitys :lammonjako-label-sv]</v>
@@ -19742,21 +19737,21 @@
     </row>
     <row r="8" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="90" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C8" s="97"/>
       <c r="D8" s="61" t="s">
-        <v>99</v>
-      </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13" t="str">
+        <v>98</v>
+      </c>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14" t="str">
         <f aca="false">A8</f>
         <v>[:lahtotiedot :ilmanvaihto :label-sv]</v>
       </c>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
       <c r="K8" s="98"/>
       <c r="M8" s="0"/>
       <c r="N8" s="0"/>
@@ -19778,23 +19773,23 @@
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="90" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C9" s="91"/>
       <c r="D9" s="102" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E9" s="102"/>
       <c r="F9" s="102"/>
       <c r="G9" s="103" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H9" s="103"/>
       <c r="I9" s="104" t="s">
+        <v>102</v>
+      </c>
+      <c r="J9" s="104" t="s">
         <v>103</v>
-      </c>
-      <c r="J9" s="104" t="s">
-        <v>104</v>
       </c>
       <c r="K9" s="104"/>
       <c r="M9" s="0"/>
@@ -19817,7 +19812,7 @@
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="90" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C10" s="97"/>
       <c r="D10" s="102"/>
@@ -19848,7 +19843,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="90" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C11" s="105"/>
       <c r="D11" s="102"/>
@@ -19879,23 +19874,23 @@
     </row>
     <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="90" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C12" s="106"/>
       <c r="D12" s="107"/>
       <c r="E12" s="107"/>
       <c r="F12" s="107"/>
       <c r="G12" s="108" t="s">
+        <v>107</v>
+      </c>
+      <c r="H12" s="109" t="s">
         <v>108</v>
       </c>
-      <c r="H12" s="109" t="s">
+      <c r="I12" s="110" t="s">
         <v>109</v>
       </c>
-      <c r="I12" s="110" t="s">
+      <c r="J12" s="109" t="s">
         <v>110</v>
-      </c>
-      <c r="J12" s="109" t="s">
-        <v>111</v>
       </c>
       <c r="K12" s="109"/>
       <c r="M12" s="0"/>
@@ -19918,12 +19913,12 @@
     </row>
     <row r="13" customFormat="false" ht="3.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="90" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C13" s="97"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
       <c r="G13" s="111"/>
       <c r="H13" s="111"/>
       <c r="I13" s="111"/>
@@ -19949,14 +19944,14 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="90" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C14" s="97"/>
       <c r="D14" s="113" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E14" s="113"/>
-      <c r="F14" s="13"/>
+      <c r="F14" s="14"/>
       <c r="G14" s="114" t="str">
         <f aca="false">A9</f>
         <v>[:tulokset :kaytettavat-energiamuodot :kaukolampo]</v>
@@ -19994,14 +19989,14 @@
     </row>
     <row r="15" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="90" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C15" s="97"/>
       <c r="D15" s="113" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E15" s="113"/>
-      <c r="F15" s="13"/>
+      <c r="F15" s="14"/>
       <c r="G15" s="114" t="str">
         <f aca="false">A13</f>
         <v>[:tulokset :kaytettavat-energiamuodot :sahko]</v>
@@ -20039,14 +20034,14 @@
     </row>
     <row r="16" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="90" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C16" s="97"/>
       <c r="D16" s="113" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E16" s="113"/>
-      <c r="F16" s="13"/>
+      <c r="F16" s="14"/>
       <c r="G16" s="117" t="str">
         <f aca="false">A17</f>
         <v>[:tulokset :kaytettavat-energiamuodot :uusiutuva-polttoaine]</v>
@@ -20084,14 +20079,14 @@
     </row>
     <row r="17" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="90" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C17" s="97"/>
       <c r="D17" s="113" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E17" s="113"/>
-      <c r="F17" s="13"/>
+      <c r="F17" s="14"/>
       <c r="G17" s="114" t="str">
         <f aca="false">A21</f>
         <v>[:tulokset :kaytettavat-energiamuodot :fossiilinen-polttoaine]</v>
@@ -20129,14 +20124,14 @@
     </row>
     <row r="18" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="90" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C18" s="97"/>
       <c r="D18" s="113" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E18" s="113"/>
-      <c r="F18" s="13"/>
+      <c r="F18" s="14"/>
       <c r="G18" s="114" t="str">
         <f aca="false">A25</f>
         <v>[:tulokset :kaytettavat-energiamuodot :kaukojaahdytys]</v>
@@ -20174,7 +20169,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="90" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C19" s="97"/>
       <c r="D19" s="118" t="str">
@@ -20220,11 +20215,11 @@
     </row>
     <row r="20" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="90" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C20" s="97"/>
       <c r="D20" s="122" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E20" s="122"/>
       <c r="F20" s="0"/>
@@ -20253,7 +20248,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="90" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C21" s="97"/>
       <c r="D21" s="122"/>
@@ -20290,7 +20285,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="90" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C22" s="97"/>
       <c r="D22" s="122"/>
@@ -20321,11 +20316,11 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="90" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C23" s="106"/>
       <c r="D23" s="125" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E23" s="125"/>
       <c r="F23" s="107"/>
@@ -20358,16 +20353,16 @@
     </row>
     <row r="24" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="90" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C24" s="97"/>
       <c r="D24" s="129"/>
       <c r="E24" s="129"/>
-      <c r="F24" s="13"/>
+      <c r="F24" s="14"/>
       <c r="G24" s="38"/>
       <c r="H24" s="38"/>
       <c r="I24" s="38"/>
-      <c r="J24" s="13"/>
+      <c r="J24" s="14"/>
       <c r="K24" s="130"/>
       <c r="M24" s="0"/>
       <c r="N24" s="0"/>
@@ -20389,11 +20384,11 @@
     </row>
     <row r="25" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="90" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C25" s="93"/>
       <c r="D25" s="94" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E25" s="94"/>
       <c r="F25" s="95"/>
@@ -20422,16 +20417,16 @@
     </row>
     <row r="26" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="90" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C26" s="97"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="14"/>
+      <c r="J26" s="14"/>
       <c r="K26" s="98"/>
       <c r="M26" s="0"/>
       <c r="N26" s="0"/>
@@ -20453,20 +20448,20 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="90" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C27" s="97"/>
       <c r="D27" s="61" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E27" s="61"/>
-      <c r="F27" s="13"/>
+      <c r="F27" s="14"/>
       <c r="H27" s="131" t="str">
         <f aca="false">A38</f>
         <v>[:tulokset :e-luokka-rajat :kayttotarkoitus :label-sv]</v>
       </c>
       <c r="I27" s="38"/>
-      <c r="J27" s="13"/>
+      <c r="J27" s="14"/>
       <c r="K27" s="130"/>
       <c r="M27" s="0"/>
       <c r="N27" s="0"/>
@@ -20488,15 +20483,15 @@
     </row>
     <row r="28" customFormat="false" ht="3.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="90" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C28" s="97"/>
       <c r="D28" s="61"/>
       <c r="E28" s="129"/>
-      <c r="F28" s="13"/>
+      <c r="F28" s="14"/>
       <c r="H28" s="38"/>
       <c r="I28" s="38"/>
-      <c r="J28" s="13"/>
+      <c r="J28" s="14"/>
       <c r="K28" s="130"/>
       <c r="M28" s="0"/>
       <c r="N28" s="0"/>
@@ -20518,14 +20513,14 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="90" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C29" s="97"/>
       <c r="D29" s="61" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E29" s="61"/>
-      <c r="F29" s="13"/>
+      <c r="F29" s="14"/>
       <c r="H29" s="132" t="str">
         <f aca="false">A39</f>
         <v>#function[solita.etp.service.energiatodistus-pdf/fn--49553]</v>
@@ -20559,12 +20554,12 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="90" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C30" s="97"/>
       <c r="D30" s="61"/>
       <c r="E30" s="61"/>
-      <c r="F30" s="13"/>
+      <c r="F30" s="14"/>
       <c r="H30" s="135" t="str">
         <f aca="false">A42</f>
         <v>#function[solita.etp.service.energiatodistus-pdf/fn--49561]</v>
@@ -20598,12 +20593,12 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="90" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C31" s="97"/>
       <c r="D31" s="61"/>
       <c r="E31" s="61"/>
-      <c r="F31" s="13"/>
+      <c r="F31" s="14"/>
       <c r="H31" s="138" t="str">
         <f aca="false">A45</f>
         <v>#function[solita.etp.service.energiatodistus-pdf/fn--49570]</v>
@@ -20631,12 +20626,12 @@
     </row>
     <row r="32" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="90" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C32" s="97"/>
       <c r="D32" s="61"/>
       <c r="E32" s="61"/>
-      <c r="F32" s="13"/>
+      <c r="F32" s="14"/>
       <c r="H32" s="140"/>
       <c r="I32" s="140"/>
       <c r="J32" s="140"/>
@@ -20661,14 +20656,14 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="90" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C33" s="97"/>
       <c r="D33" s="61" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E33" s="61"/>
-      <c r="F33" s="13"/>
+      <c r="F33" s="14"/>
       <c r="H33" s="141" t="str">
         <f aca="false">A46</f>
         <v>[:tulokset :e-luokka]</v>
@@ -20696,16 +20691,16 @@
     </row>
     <row r="34" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="90" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C34" s="97"/>
       <c r="D34" s="129"/>
       <c r="E34" s="129"/>
-      <c r="F34" s="13"/>
+      <c r="F34" s="14"/>
       <c r="G34" s="142"/>
       <c r="H34" s="142"/>
       <c r="I34" s="38"/>
-      <c r="J34" s="13"/>
+      <c r="J34" s="14"/>
       <c r="K34" s="130"/>
       <c r="M34" s="0"/>
       <c r="N34" s="0"/>
@@ -20727,11 +20722,11 @@
     </row>
     <row r="35" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="90" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C35" s="97"/>
       <c r="D35" s="143" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E35" s="143"/>
       <c r="F35" s="143"/>
@@ -20760,7 +20755,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="90" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C36" s="97"/>
       <c r="D36" s="143"/>
@@ -20791,7 +20786,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="90" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C37" s="97"/>
       <c r="D37" s="143"/>
@@ -20822,7 +20817,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="90" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C38" s="97"/>
       <c r="D38" s="143"/>
@@ -20853,7 +20848,7 @@
     </row>
     <row r="39" customFormat="false" ht="3.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="90" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C39" s="144"/>
       <c r="D39" s="145"/>
@@ -20885,7 +20880,7 @@
     </row>
     <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="90" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="M40" s="0"/>
       <c r="N40" s="0"/>
@@ -20907,11 +20902,11 @@
     </row>
     <row r="41" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="90" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C41" s="148"/>
       <c r="D41" s="149" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E41" s="149"/>
       <c r="F41" s="149"/>
@@ -20940,11 +20935,11 @@
     </row>
     <row r="42" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="90" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C42" s="93"/>
       <c r="D42" s="94" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E42" s="94"/>
       <c r="F42" s="95"/>
@@ -20973,11 +20968,11 @@
     </row>
     <row r="43" s="4" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="151" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C43" s="152"/>
       <c r="D43" s="23" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
@@ -21004,16 +20999,16 @@
     </row>
     <row r="44" customFormat="false" ht="3.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="90" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C44" s="97"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13"/>
-      <c r="F44" s="13"/>
-      <c r="G44" s="13"/>
-      <c r="H44" s="13"/>
-      <c r="I44" s="13"/>
-      <c r="J44" s="13"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="14"/>
+      <c r="J44" s="14"/>
       <c r="K44" s="154"/>
       <c r="M44" s="0"/>
       <c r="N44" s="0"/>
@@ -21035,7 +21030,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="90" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C45" s="97"/>
       <c r="D45" s="155" t="str">
@@ -21069,7 +21064,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="90" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C46" s="97"/>
       <c r="D46" s="155"/>
@@ -21100,7 +21095,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="90" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C47" s="97"/>
       <c r="D47" s="155"/>
@@ -21131,7 +21126,7 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="90" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C48" s="97"/>
       <c r="D48" s="155"/>
@@ -21779,7 +21774,7 @@
     <row r="71" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C71" s="152"/>
       <c r="D71" s="143" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E71" s="143"/>
       <c r="F71" s="143"/>
@@ -22275,7 +22270,7 @@
     </cfRule>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
-  <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
@@ -22314,12 +22309,12 @@
     </row>
     <row r="2" s="166" customFormat="true" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="162" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="160"/>
       <c r="C2" s="163"/>
       <c r="D2" s="164" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E2" s="164"/>
       <c r="F2" s="164"/>
@@ -22329,12 +22324,12 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="159" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="85"/>
       <c r="C3" s="167"/>
       <c r="D3" s="94" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E3" s="168"/>
       <c r="F3" s="168"/>
@@ -22344,7 +22339,7 @@
     </row>
     <row r="4" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="159" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="170"/>
       <c r="D4" s="171"/>
@@ -22356,11 +22351,11 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="159" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C5" s="173"/>
       <c r="D5" s="174" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E5" s="175" t="str">
         <f aca="false">A3</f>
@@ -22373,7 +22368,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="159" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C6" s="173"/>
       <c r="D6" s="174"/>
@@ -22385,31 +22380,31 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="159" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C7" s="173"/>
       <c r="D7" s="174" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E7" s="28" t="str">
         <f aca="false">A4</f>
         <v>[:perustiedot :valmistumisvuosi]</v>
       </c>
       <c r="F7" s="174" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G7" s="177" t="str">
         <f aca="false">A5</f>
         <v>[:lahtotiedot :lammitetty-nettoala]</v>
       </c>
       <c r="H7" s="174" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I7" s="176"/>
     </row>
     <row r="8" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="159" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C8" s="173"/>
       <c r="D8" s="178"/>
@@ -22421,12 +22416,12 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="159" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B9" s="85"/>
       <c r="C9" s="167"/>
       <c r="D9" s="94" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E9" s="168"/>
       <c r="F9" s="168"/>
@@ -22436,13 +22431,13 @@
     </row>
     <row r="10" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="159" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C10" s="173"/>
       <c r="D10" s="174"/>
       <c r="E10" s="179"/>
       <c r="F10" s="174" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G10" s="171"/>
       <c r="H10" s="178"/>
@@ -22450,11 +22445,11 @@
     </row>
     <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="159" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C11" s="173"/>
       <c r="D11" s="174" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E11" s="180" t="str">
         <f aca="false">A6</f>
@@ -22467,7 +22462,7 @@
     </row>
     <row r="12" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="159" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C12" s="173"/>
       <c r="D12" s="178"/>
@@ -22479,47 +22474,47 @@
     </row>
     <row r="13" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="159" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C13" s="173"/>
       <c r="D13" s="171"/>
       <c r="E13" s="181" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F13" s="181" t="s">
+        <v>179</v>
+      </c>
+      <c r="G13" s="181" t="s">
         <v>180</v>
       </c>
-      <c r="G13" s="181" t="s">
+      <c r="H13" s="182" t="s">
         <v>181</v>
-      </c>
-      <c r="H13" s="182" t="s">
-        <v>182</v>
       </c>
       <c r="I13" s="176"/>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="159" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C14" s="173"/>
       <c r="D14" s="171"/>
       <c r="E14" s="183" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F14" s="183" t="s">
+        <v>183</v>
+      </c>
+      <c r="G14" s="183" t="s">
         <v>184</v>
       </c>
-      <c r="G14" s="183" t="s">
+      <c r="H14" s="184" t="s">
         <v>185</v>
-      </c>
-      <c r="H14" s="184" t="s">
-        <v>186</v>
       </c>
       <c r="I14" s="176"/>
     </row>
     <row r="15" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="159" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C15" s="173"/>
       <c r="D15" s="171"/>
@@ -22531,11 +22526,11 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="159" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C16" s="173"/>
       <c r="D16" s="187" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E16" s="188" t="str">
         <f aca="false">A7</f>
@@ -22557,11 +22552,11 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="159" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C17" s="173"/>
       <c r="D17" s="187" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E17" s="188" t="str">
         <f aca="false">A11</f>
@@ -22583,11 +22578,11 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="159" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C18" s="173"/>
       <c r="D18" s="187" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E18" s="188" t="str">
         <f aca="false">A15</f>
@@ -22609,11 +22604,11 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="159" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C19" s="173"/>
       <c r="D19" s="187" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E19" s="188" t="str">
         <f aca="false">A19</f>
@@ -22635,11 +22630,11 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="159" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C20" s="173"/>
       <c r="D20" s="187" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E20" s="188" t="str">
         <f aca="false">A23</f>
@@ -22661,17 +22656,17 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="159" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C21" s="173"/>
       <c r="D21" s="187" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E21" s="192" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F21" s="192" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G21" s="188" t="str">
         <f aca="false">A27</f>
@@ -22685,7 +22680,7 @@
     </row>
     <row r="22" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="159" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C22" s="173"/>
       <c r="D22" s="178"/>
@@ -22697,12 +22692,12 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="159" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B23" s="85"/>
       <c r="C23" s="167"/>
       <c r="D23" s="193" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E23" s="168"/>
       <c r="F23" s="168"/>
@@ -22712,7 +22707,7 @@
     </row>
     <row r="24" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="159" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C24" s="173"/>
       <c r="D24" s="178"/>
@@ -22724,18 +22719,18 @@
     </row>
     <row r="25" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="159" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C25" s="173"/>
       <c r="D25" s="171"/>
       <c r="E25" s="181" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F25" s="181" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G25" s="194" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H25" s="195"/>
       <c r="I25" s="176"/>
@@ -22743,25 +22738,25 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="159" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C26" s="173"/>
       <c r="D26" s="171"/>
       <c r="E26" s="183" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F26" s="183" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G26" s="183" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H26" s="195"/>
       <c r="I26" s="176"/>
     </row>
     <row r="27" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="159" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C27" s="173"/>
       <c r="D27" s="171"/>
@@ -22773,11 +22768,11 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="159" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C28" s="173"/>
       <c r="D28" s="196" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E28" s="188" t="str">
         <f aca="false">A29</f>
@@ -22796,11 +22791,11 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="159" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C29" s="173"/>
       <c r="D29" s="196" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E29" s="188" t="str">
         <f aca="false">A32</f>
@@ -22819,11 +22814,11 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="159" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C30" s="173"/>
       <c r="D30" s="196" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E30" s="188" t="str">
         <f aca="false">A35</f>
@@ -22842,11 +22837,11 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="159" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C31" s="173"/>
       <c r="D31" s="196" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E31" s="188" t="str">
         <f aca="false">A38</f>
@@ -22865,11 +22860,11 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="159" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C32" s="173"/>
       <c r="D32" s="196" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E32" s="188" t="str">
         <f aca="false">A41</f>
@@ -22888,11 +22883,11 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="159" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C33" s="173"/>
       <c r="D33" s="196" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E33" s="188" t="str">
         <f aca="false">A44</f>
@@ -22911,11 +22906,11 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="159" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C34" s="173"/>
       <c r="D34" s="196" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E34" s="188" t="str">
         <f aca="false">A47</f>
@@ -22934,11 +22929,11 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="159" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C35" s="173"/>
       <c r="D35" s="196" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E35" s="188" t="str">
         <f aca="false">A50</f>
@@ -22957,26 +22952,26 @@
     </row>
     <row r="36" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="159" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C36" s="173"/>
       <c r="D36" s="178"/>
       <c r="E36" s="178"/>
       <c r="F36" s="178"/>
       <c r="G36" s="197" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H36" s="178"/>
       <c r="I36" s="176"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="159" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B37" s="85"/>
       <c r="C37" s="167"/>
       <c r="D37" s="198" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E37" s="168"/>
       <c r="F37" s="168"/>
@@ -22987,7 +22982,7 @@
     </row>
     <row r="38" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="159" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C38" s="173"/>
       <c r="D38" s="178"/>
@@ -22999,11 +22994,11 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="159" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C39" s="173"/>
       <c r="D39" s="196" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E39" s="200" t="str">
         <f aca="false">A54</f>
@@ -23017,7 +23012,7 @@
     </row>
     <row r="40" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="159" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C40" s="173"/>
       <c r="D40" s="178"/>
@@ -23029,39 +23024,39 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="159" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C41" s="173"/>
       <c r="D41" s="171"/>
       <c r="E41" s="201" t="s">
+        <v>232</v>
+      </c>
+      <c r="F41" s="202" t="s">
         <v>233</v>
       </c>
-      <c r="F41" s="202" t="s">
+      <c r="G41" s="202" t="s">
         <v>234</v>
       </c>
-      <c r="G41" s="202" t="s">
+      <c r="H41" s="202" t="s">
         <v>235</v>
-      </c>
-      <c r="H41" s="202" t="s">
-        <v>236</v>
       </c>
       <c r="I41" s="176"/>
       <c r="K41" s="26"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="159" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C42" s="173"/>
       <c r="D42" s="171"/>
       <c r="E42" s="201" t="s">
+        <v>237</v>
+      </c>
+      <c r="F42" s="202" t="s">
         <v>238</v>
       </c>
-      <c r="F42" s="202" t="s">
+      <c r="G42" s="202" t="s">
         <v>239</v>
-      </c>
-      <c r="G42" s="202" t="s">
-        <v>240</v>
       </c>
       <c r="H42" s="203"/>
       <c r="I42" s="176"/>
@@ -23069,27 +23064,27 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="159" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C43" s="173"/>
       <c r="D43" s="171"/>
       <c r="E43" s="183" t="s">
+        <v>241</v>
+      </c>
+      <c r="F43" s="183" t="s">
         <v>242</v>
       </c>
-      <c r="F43" s="183" t="s">
+      <c r="G43" s="183" t="s">
+        <v>109</v>
+      </c>
+      <c r="H43" s="204" t="s">
         <v>243</v>
-      </c>
-      <c r="G43" s="183" t="s">
-        <v>110</v>
-      </c>
-      <c r="H43" s="204" t="s">
-        <v>244</v>
       </c>
       <c r="I43" s="176"/>
     </row>
     <row r="44" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="159" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C44" s="173"/>
       <c r="D44" s="171"/>
@@ -23101,11 +23096,11 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="159" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C45" s="173"/>
       <c r="D45" s="187" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E45" s="189" t="str">
         <f aca="false">A55</f>
@@ -23127,11 +23122,11 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="159" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C46" s="173"/>
       <c r="D46" s="187" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E46" s="189" t="str">
         <f aca="false">A59</f>
@@ -23142,20 +23137,20 @@
         <v>[:lahtotiedot :ilmanvaihto :erillispoistot :sfp]</v>
       </c>
       <c r="G46" s="192" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H46" s="206" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I46" s="176"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="159" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C47" s="173"/>
       <c r="D47" s="207" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E47" s="189" t="str">
         <f aca="false">A61</f>
@@ -23166,16 +23161,16 @@
         <v>[:lahtotiedot :ilmanvaihto :ivjarjestelma :sfp]</v>
       </c>
       <c r="G47" s="192" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H47" s="208" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I47" s="176"/>
     </row>
     <row r="48" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="159" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C48" s="173"/>
       <c r="D48" s="209"/>
@@ -23187,11 +23182,11 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="212" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C49" s="173"/>
       <c r="D49" s="174" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F49" s="0"/>
       <c r="G49" s="213" t="str">
@@ -23202,7 +23197,7 @@
     </row>
     <row r="50" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="159" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C50" s="173"/>
       <c r="D50" s="174"/>
@@ -23214,12 +23209,12 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="159" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B51" s="85"/>
       <c r="C51" s="167"/>
       <c r="D51" s="198" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E51" s="168"/>
       <c r="F51" s="168"/>
@@ -23229,7 +23224,7 @@
     </row>
     <row r="52" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="159" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C52" s="173"/>
       <c r="D52" s="178"/>
@@ -23241,11 +23236,11 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="159" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C53" s="173"/>
       <c r="D53" s="174" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E53" s="200" t="str">
         <f aca="false">A65</f>
@@ -23258,7 +23253,7 @@
     </row>
     <row r="54" customFormat="false" ht="12.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="159" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C54" s="173"/>
       <c r="D54" s="178"/>
@@ -23273,65 +23268,65 @@
     </row>
     <row r="55" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="159" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C55" s="173"/>
       <c r="D55" s="216"/>
       <c r="E55" s="181" t="s">
+        <v>259</v>
+      </c>
+      <c r="F55" s="217" t="s">
+        <v>259</v>
+      </c>
+      <c r="G55" s="181" t="s">
         <v>260</v>
       </c>
-      <c r="F55" s="217" t="s">
-        <v>260</v>
-      </c>
-      <c r="G55" s="181" t="s">
+      <c r="H55" s="203" t="s">
         <v>261</v>
-      </c>
-      <c r="H55" s="203" t="s">
-        <v>262</v>
       </c>
       <c r="I55" s="176"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="159" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C56" s="173"/>
       <c r="D56" s="171"/>
       <c r="E56" s="181" t="s">
+        <v>263</v>
+      </c>
+      <c r="F56" s="217" t="s">
         <v>264</v>
-      </c>
-      <c r="F56" s="217" t="s">
-        <v>265</v>
       </c>
       <c r="G56" s="181"/>
       <c r="H56" s="203" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I56" s="176"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="159" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C57" s="173"/>
       <c r="D57" s="171"/>
       <c r="E57" s="181" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F57" s="181" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G57" s="181" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H57" s="184" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I57" s="176"/>
     </row>
     <row r="58" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="159" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C58" s="173"/>
       <c r="D58" s="171"/>
@@ -23343,11 +23338,11 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="159" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C59" s="173"/>
       <c r="D59" s="174" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E59" s="205" t="str">
         <f aca="false">A68</f>
@@ -23370,11 +23365,11 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="159" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C60" s="173"/>
       <c r="D60" s="174" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E60" s="205" t="str">
         <f aca="false">A72</f>
@@ -23396,7 +23391,7 @@
     </row>
     <row r="61" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="159" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C61" s="173"/>
       <c r="D61" s="174"/>
@@ -23408,11 +23403,11 @@
     </row>
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="159" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C62" s="173"/>
       <c r="D62" s="220" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E62" s="174"/>
       <c r="F62" s="174"/>
@@ -23422,11 +23417,11 @@
     </row>
     <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="159" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C63" s="173"/>
       <c r="D63" s="220" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E63" s="174"/>
       <c r="F63" s="174"/>
@@ -23436,7 +23431,7 @@
     </row>
     <row r="64" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="159" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C64" s="173"/>
       <c r="D64" s="174"/>
@@ -23448,15 +23443,15 @@
     </row>
     <row r="65" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="159" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C65" s="173"/>
       <c r="D65" s="171"/>
       <c r="E65" s="203" t="s">
+        <v>277</v>
+      </c>
+      <c r="F65" s="181" t="s">
         <v>278</v>
-      </c>
-      <c r="F65" s="181" t="s">
-        <v>279</v>
       </c>
       <c r="G65" s="181"/>
       <c r="H65" s="178"/>
@@ -23464,15 +23459,15 @@
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="159" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C66" s="173"/>
       <c r="D66" s="171"/>
       <c r="E66" s="184" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F66" s="183" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G66" s="181"/>
       <c r="H66" s="178"/>
@@ -23480,7 +23475,7 @@
     </row>
     <row r="67" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="159" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C67" s="173"/>
       <c r="D67" s="171"/>
@@ -23492,11 +23487,11 @@
     </row>
     <row r="68" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="159" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C68" s="173"/>
       <c r="D68" s="174" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E68" s="221" t="str">
         <f aca="false">A76</f>
@@ -23512,11 +23507,11 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="159" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C69" s="173"/>
       <c r="D69" s="174" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E69" s="221" t="str">
         <f aca="false">A78</f>
@@ -23532,7 +23527,7 @@
     </row>
     <row r="70" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="159" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C70" s="173"/>
       <c r="D70" s="178"/>
@@ -23544,12 +23539,12 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="159" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B71" s="85"/>
       <c r="C71" s="167"/>
       <c r="D71" s="94" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E71" s="168"/>
       <c r="F71" s="168"/>
@@ -23559,7 +23554,7 @@
     </row>
     <row r="72" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="159" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C72" s="173"/>
       <c r="D72" s="178"/>
@@ -23571,12 +23566,12 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="159" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C73" s="173"/>
       <c r="D73" s="171"/>
       <c r="E73" s="222" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="F73" s="223"/>
       <c r="G73" s="223"/>
@@ -23585,12 +23580,12 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="159" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C74" s="173"/>
       <c r="D74" s="171"/>
       <c r="E74" s="184" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F74" s="224"/>
       <c r="G74" s="223"/>
@@ -23599,7 +23594,7 @@
     </row>
     <row r="75" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A75" s="159" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C75" s="173"/>
       <c r="D75" s="171"/>
@@ -23611,11 +23606,11 @@
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="159" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C76" s="173"/>
       <c r="D76" s="174" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E76" s="188" t="str">
         <f aca="false">A80</f>
@@ -23629,7 +23624,7 @@
     </row>
     <row r="77" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="159" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C77" s="173"/>
       <c r="D77" s="178"/>
@@ -23641,12 +23636,12 @@
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="159" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B78" s="85"/>
       <c r="C78" s="167"/>
       <c r="D78" s="94" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E78" s="168"/>
       <c r="F78" s="168"/>
@@ -23656,7 +23651,7 @@
     </row>
     <row r="79" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="159" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C79" s="173"/>
       <c r="D79" s="178"/>
@@ -23668,15 +23663,15 @@
     </row>
     <row r="80" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="159" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C80" s="173"/>
       <c r="D80" s="178"/>
       <c r="E80" s="181" t="s">
+        <v>298</v>
+      </c>
+      <c r="F80" s="225" t="s">
         <v>299</v>
-      </c>
-      <c r="F80" s="225" t="s">
-        <v>300</v>
       </c>
       <c r="G80" s="178"/>
       <c r="H80" s="178"/>
@@ -23684,15 +23679,15 @@
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="159" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C81" s="173"/>
       <c r="D81" s="171"/>
       <c r="E81" s="183" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F81" s="184" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G81" s="178"/>
       <c r="H81" s="178"/>
@@ -23701,7 +23696,7 @@
     </row>
     <row r="82" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="159" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C82" s="173"/>
       <c r="D82" s="171"/>
@@ -23713,11 +23708,11 @@
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="159" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C83" s="173"/>
       <c r="D83" s="174" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E83" s="221" t="str">
         <f aca="false">A81</f>
@@ -23733,7 +23728,7 @@
     </row>
     <row r="84" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="159" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C84" s="173"/>
       <c r="D84" s="178"/>
@@ -23745,12 +23740,12 @@
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="159" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B85" s="85"/>
       <c r="C85" s="167"/>
       <c r="D85" s="94" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E85" s="168"/>
       <c r="F85" s="168"/>
@@ -23760,7 +23755,7 @@
     </row>
     <row r="86" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="159" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C86" s="173"/>
       <c r="D86" s="178"/>
@@ -23772,47 +23767,47 @@
     </row>
     <row r="87" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A87" s="159" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C87" s="173"/>
       <c r="D87" s="171"/>
       <c r="E87" s="203" t="s">
+        <v>309</v>
+      </c>
+      <c r="F87" s="181" t="s">
         <v>310</v>
       </c>
-      <c r="F87" s="181" t="s">
+      <c r="G87" s="181" t="s">
         <v>311</v>
       </c>
-      <c r="G87" s="181" t="s">
+      <c r="H87" s="203" t="s">
         <v>312</v>
-      </c>
-      <c r="H87" s="203" t="s">
-        <v>313</v>
       </c>
       <c r="I87" s="176"/>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="159" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C88" s="173"/>
       <c r="D88" s="171"/>
       <c r="E88" s="184" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F88" s="183" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G88" s="183" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H88" s="184" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I88" s="176"/>
     </row>
     <row r="89" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="159" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C89" s="173"/>
       <c r="D89" s="171"/>
@@ -23824,7 +23819,7 @@
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="159" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C90" s="173"/>
       <c r="D90" s="226"/>
@@ -23848,7 +23843,7 @@
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="159" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C91" s="173"/>
       <c r="D91" s="226"/>
@@ -23872,7 +23867,7 @@
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="159" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C92" s="173"/>
       <c r="D92" s="226"/>
@@ -23896,7 +23891,7 @@
     </row>
     <row r="93" customFormat="false" ht="5.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="159" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C93" s="227"/>
       <c r="D93" s="228"/>
@@ -23908,7 +23903,7 @@
     </row>
     <row r="94" customFormat="false" ht="5.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="159" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -24657,7 +24652,7 @@
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
-  <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
@@ -24697,11 +24692,11 @@
     </row>
     <row r="2" s="231" customFormat="true" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="230" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" s="232"/>
       <c r="D2" s="164" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E2" s="233"/>
       <c r="F2" s="164"/>
@@ -24712,11 +24707,11 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="159" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="167"/>
       <c r="D3" s="94" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E3" s="168"/>
       <c r="F3" s="168"/>
@@ -24727,7 +24722,7 @@
     </row>
     <row r="4" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="159" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="170"/>
       <c r="D4" s="171"/>
@@ -24740,11 +24735,11 @@
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="159" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C5" s="173"/>
       <c r="D5" s="238" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E5" s="239" t="str">
         <f aca="false">A3</f>
@@ -24758,7 +24753,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="159" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" s="173"/>
       <c r="D6" s="238"/>
@@ -24771,7 +24766,7 @@
     </row>
     <row r="7" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="159" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C7" s="173"/>
       <c r="D7" s="238"/>
@@ -24784,11 +24779,11 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="159" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C8" s="173"/>
       <c r="D8" s="241" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E8" s="28" t="str">
         <f aca="false">A4</f>
@@ -24811,11 +24806,11 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="159" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C9" s="173"/>
       <c r="D9" s="241" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E9" s="28" t="str">
         <f aca="false">A5</f>
@@ -24838,11 +24833,11 @@
     </row>
     <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="159" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C10" s="173"/>
       <c r="D10" s="245" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E10" s="246" t="str">
         <f aca="false">A6</f>
@@ -24865,7 +24860,7 @@
     </row>
     <row r="11" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="159" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C11" s="173"/>
       <c r="D11" s="178"/>
@@ -24887,11 +24882,11 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="159" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C12" s="167"/>
       <c r="D12" s="94" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E12" s="168"/>
       <c r="F12" s="168"/>
@@ -24911,7 +24906,7 @@
     </row>
     <row r="13" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="159" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C13" s="173"/>
       <c r="D13" s="178"/>
@@ -24933,20 +24928,20 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="159" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C14" s="173"/>
       <c r="D14" s="247" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E14" s="181" t="s">
+        <v>327</v>
+      </c>
+      <c r="F14" s="181" t="s">
         <v>328</v>
       </c>
-      <c r="F14" s="181" t="s">
+      <c r="G14" s="203" t="s">
         <v>329</v>
-      </c>
-      <c r="G14" s="203" t="s">
-        <v>330</v>
       </c>
       <c r="H14" s="203"/>
       <c r="I14" s="181"/>
@@ -24963,18 +24958,18 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="159" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C15" s="173"/>
       <c r="D15" s="172"/>
       <c r="E15" s="181" t="s">
+        <v>330</v>
+      </c>
+      <c r="F15" s="181" t="s">
         <v>331</v>
       </c>
-      <c r="F15" s="181" t="s">
+      <c r="G15" s="203" t="s">
         <v>332</v>
-      </c>
-      <c r="G15" s="203" t="s">
-        <v>333</v>
       </c>
       <c r="H15" s="203"/>
       <c r="I15" s="183"/>
@@ -24991,21 +24986,21 @@
     </row>
     <row r="16" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="159" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C16" s="248"/>
       <c r="D16" s="249"/>
       <c r="E16" s="250" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F16" s="250" t="s">
+        <v>109</v>
+      </c>
+      <c r="G16" s="250" t="s">
+        <v>333</v>
+      </c>
+      <c r="H16" s="251" t="s">
         <v>110</v>
-      </c>
-      <c r="G16" s="250" t="s">
-        <v>334</v>
-      </c>
-      <c r="H16" s="251" t="s">
-        <v>111</v>
       </c>
       <c r="I16" s="181"/>
       <c r="J16" s="237"/>
@@ -25021,7 +25016,7 @@
     </row>
     <row r="17" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="159" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C17" s="173"/>
       <c r="D17" s="171"/>
@@ -25043,11 +25038,11 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="159" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C18" s="173"/>
       <c r="D18" s="252" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E18" s="221" t="str">
         <f aca="false">A7</f>
@@ -25079,11 +25074,11 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="159" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C19" s="173"/>
       <c r="D19" s="252" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E19" s="221" t="str">
         <f aca="false">A11</f>
@@ -25115,11 +25110,11 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="159" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C20" s="173"/>
       <c r="D20" s="255" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E20" s="221" t="str">
         <f aca="false">A23</f>
@@ -25151,11 +25146,11 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="159" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C21" s="173"/>
       <c r="D21" s="252" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E21" s="221" t="str">
         <f aca="false">A15</f>
@@ -25187,11 +25182,11 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="159" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C22" s="173"/>
       <c r="D22" s="252" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E22" s="221" t="str">
         <f aca="false">A19</f>
@@ -25223,7 +25218,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="159" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C23" s="173"/>
       <c r="D23" s="255" t="str">
@@ -25260,7 +25255,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="159" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C24" s="173"/>
       <c r="D24" s="255" t="str">
@@ -25297,7 +25292,7 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="159" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C25" s="173"/>
       <c r="D25" s="257" t="str">
@@ -25334,11 +25329,11 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="159" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C26" s="173"/>
       <c r="D26" s="258" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E26" s="259" t="str">
         <f aca="false">A42</f>
@@ -25367,7 +25362,7 @@
     </row>
     <row r="27" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="159" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C27" s="173"/>
       <c r="D27" s="178"/>
@@ -25389,11 +25384,11 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="159" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C28" s="167"/>
       <c r="D28" s="94" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E28" s="168"/>
       <c r="F28" s="168"/>
@@ -25414,7 +25409,7 @@
     </row>
     <row r="29" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="159" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C29" s="173"/>
       <c r="D29" s="178"/>
@@ -25436,15 +25431,15 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="159" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C30" s="173"/>
       <c r="D30" s="171"/>
       <c r="F30" s="183" t="s">
+        <v>107</v>
+      </c>
+      <c r="G30" s="183" t="s">
         <v>108</v>
-      </c>
-      <c r="G30" s="183" t="s">
-        <v>109</v>
       </c>
       <c r="H30" s="178"/>
       <c r="I30" s="181"/>
@@ -25461,7 +25456,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="159" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C31" s="173"/>
       <c r="D31" s="261" t="str">
@@ -25492,7 +25487,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="159" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C32" s="173"/>
       <c r="D32" s="261" t="str">
@@ -25523,7 +25518,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="159" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C33" s="173"/>
       <c r="D33" s="261" t="str">
@@ -25554,7 +25549,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="159" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C34" s="173"/>
       <c r="D34" s="261" t="str">
@@ -25585,7 +25580,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="159" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C35" s="173"/>
       <c r="D35" s="261" t="str">
@@ -25616,7 +25611,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="159" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C36" s="173"/>
       <c r="D36" s="261" t="str">
@@ -25647,7 +25642,7 @@
     </row>
     <row r="37" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="159" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C37" s="173"/>
       <c r="D37" s="178"/>
@@ -25669,11 +25664,11 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="159" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C38" s="167"/>
       <c r="D38" s="94" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E38" s="168"/>
       <c r="F38" s="168"/>
@@ -25693,7 +25688,7 @@
     </row>
     <row r="39" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A39" s="159" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C39" s="173"/>
       <c r="D39" s="178"/>
@@ -25715,19 +25710,19 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="159" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C40" s="173"/>
       <c r="D40" s="171"/>
       <c r="E40" s="171"/>
       <c r="F40" s="203" t="s">
+        <v>351</v>
+      </c>
+      <c r="G40" s="181" t="s">
         <v>352</v>
       </c>
-      <c r="G40" s="181" t="s">
+      <c r="H40" s="181" t="s">
         <v>353</v>
-      </c>
-      <c r="H40" s="181" t="s">
-        <v>354</v>
       </c>
       <c r="I40" s="181"/>
       <c r="J40" s="237"/>
@@ -25743,19 +25738,19 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="159" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C41" s="173"/>
       <c r="D41" s="171"/>
       <c r="E41" s="171"/>
       <c r="F41" s="183" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G41" s="183" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H41" s="183" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I41" s="183"/>
       <c r="J41" s="236"/>
@@ -25771,7 +25766,7 @@
     </row>
     <row r="42" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="159" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C42" s="173"/>
       <c r="D42" s="171"/>
@@ -25793,11 +25788,11 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="159" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C43" s="173"/>
       <c r="D43" s="174" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E43" s="174"/>
       <c r="F43" s="0"/>
@@ -25817,11 +25812,11 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="159" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C44" s="173"/>
       <c r="D44" s="174" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E44" s="174"/>
       <c r="F44" s="253" t="str">
@@ -25833,7 +25828,7 @@
         <v>[:tulokset :tekniset-jarjestelmat :tilojen-lammitys :lampo]</v>
       </c>
       <c r="H44" s="202" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I44" s="181"/>
       <c r="J44" s="237"/>
@@ -25849,11 +25844,11 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="159" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C45" s="173"/>
       <c r="D45" s="174" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E45" s="174"/>
       <c r="F45" s="188" t="str">
@@ -25865,7 +25860,7 @@
         <v>[:tulokset :tekniset-jarjestelmat :tuloilman-lammitys :lampo]</v>
       </c>
       <c r="H45" s="202" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I45" s="183"/>
       <c r="J45" s="236"/>
@@ -25881,11 +25876,11 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="159" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C46" s="173"/>
       <c r="D46" s="174" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E46" s="174"/>
       <c r="F46" s="188" t="str">
@@ -25897,7 +25892,7 @@
         <v>[:tulokset :tekniset-jarjestelmat :kayttoveden-valmistus :lampo]</v>
       </c>
       <c r="H46" s="202" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I46" s="181"/>
       <c r="J46" s="237"/>
@@ -25913,11 +25908,11 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="159" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C47" s="173"/>
       <c r="D47" s="174" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E47" s="174"/>
       <c r="F47" s="188" t="str">
@@ -25925,10 +25920,10 @@
         <v>[:tulokset :tekniset-jarjestelmat :iv-sahko]</v>
       </c>
       <c r="G47" s="202" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H47" s="202" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I47" s="181"/>
       <c r="J47" s="236"/>
@@ -25944,11 +25939,11 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="159" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C48" s="173"/>
       <c r="D48" s="174" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E48" s="174"/>
       <c r="F48" s="188" t="str">
@@ -25977,11 +25972,11 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="159" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C49" s="173"/>
       <c r="D49" s="174" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E49" s="174"/>
       <c r="F49" s="188" t="str">
@@ -25989,10 +25984,10 @@
         <v>[:tulokset :tekniset-jarjestelmat :kuluttajalaitteet-ja-valaistus-sahko]</v>
       </c>
       <c r="G49" s="202" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H49" s="202" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I49" s="183"/>
       <c r="J49" s="236"/>
@@ -26008,11 +26003,11 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="159" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C50" s="173"/>
       <c r="D50" s="258" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E50" s="258"/>
       <c r="F50" s="266" t="str">
@@ -26041,11 +26036,11 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="159" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C51" s="173"/>
       <c r="D51" s="267" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E51" s="258"/>
       <c r="F51" s="224"/>
@@ -26065,7 +26060,7 @@
     </row>
     <row r="52" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="159" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C52" s="173"/>
       <c r="D52" s="178"/>
@@ -26087,11 +26082,11 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="159" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C53" s="167"/>
       <c r="D53" s="94" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E53" s="168"/>
       <c r="F53" s="168"/>
@@ -26102,7 +26097,7 @@
     </row>
     <row r="54" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="159" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C54" s="173"/>
       <c r="D54" s="178"/>
@@ -26115,15 +26110,15 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="159" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C55" s="173"/>
       <c r="D55" s="171"/>
       <c r="F55" s="183" t="s">
+        <v>107</v>
+      </c>
+      <c r="G55" s="183" t="s">
         <v>108</v>
-      </c>
-      <c r="G55" s="183" t="s">
-        <v>109</v>
       </c>
       <c r="H55" s="183"/>
       <c r="I55" s="181"/>
@@ -26131,7 +26126,7 @@
     </row>
     <row r="56" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="159" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C56" s="173"/>
       <c r="D56" s="171"/>
@@ -26143,11 +26138,11 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="159" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C57" s="173"/>
       <c r="D57" s="174" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E57" s="174"/>
       <c r="F57" s="221" t="str">
@@ -26164,11 +26159,11 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="159" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C58" s="173"/>
       <c r="D58" s="174" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E58" s="174"/>
       <c r="F58" s="221" t="str">
@@ -26185,11 +26180,11 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="159" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C59" s="173"/>
       <c r="D59" s="174" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E59" s="174"/>
       <c r="F59" s="221" t="str">
@@ -26206,11 +26201,11 @@
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="159" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C60" s="173"/>
       <c r="D60" s="174" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E60" s="174"/>
       <c r="F60" s="221" t="str">
@@ -26227,7 +26222,7 @@
     </row>
     <row r="61" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="159" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C61" s="173"/>
       <c r="D61" s="174"/>
@@ -26240,11 +26235,11 @@
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="159" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C62" s="173"/>
       <c r="D62" s="220" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E62" s="220"/>
       <c r="F62" s="220"/>
@@ -26255,11 +26250,11 @@
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="159" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C63" s="173"/>
       <c r="D63" s="220" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E63" s="220"/>
       <c r="F63" s="220"/>
@@ -26270,7 +26265,7 @@
     </row>
     <row r="64" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="159" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C64" s="173"/>
       <c r="D64" s="174"/>
@@ -26283,11 +26278,11 @@
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="159" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C65" s="167"/>
       <c r="D65" s="94" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E65" s="168"/>
       <c r="F65" s="168"/>
@@ -26298,7 +26293,7 @@
     </row>
     <row r="66" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="159" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C66" s="173"/>
       <c r="D66" s="178"/>
@@ -26311,15 +26306,15 @@
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="159" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C67" s="173"/>
       <c r="D67" s="171"/>
       <c r="F67" s="183" t="s">
+        <v>107</v>
+      </c>
+      <c r="G67" s="183" t="s">
         <v>108</v>
-      </c>
-      <c r="G67" s="183" t="s">
-        <v>109</v>
       </c>
       <c r="H67" s="181"/>
       <c r="I67" s="181"/>
@@ -26327,7 +26322,7 @@
     </row>
     <row r="68" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="159" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C68" s="173"/>
       <c r="D68" s="171"/>
@@ -26339,11 +26334,11 @@
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="159" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C69" s="173"/>
       <c r="D69" s="196" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E69" s="196"/>
       <c r="F69" s="221" t="str">
@@ -26360,11 +26355,11 @@
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="159" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C70" s="173"/>
       <c r="D70" s="196" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E70" s="196"/>
       <c r="F70" s="221" t="str">
@@ -26381,11 +26376,11 @@
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="159" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C71" s="173"/>
       <c r="D71" s="174" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E71" s="174"/>
       <c r="F71" s="221" t="str">
@@ -26402,11 +26397,11 @@
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="159" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C72" s="173"/>
       <c r="D72" s="174" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E72" s="174"/>
       <c r="F72" s="221" t="str">
@@ -26423,11 +26418,11 @@
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="159" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C73" s="173"/>
       <c r="D73" s="174" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E73" s="174"/>
       <c r="F73" s="221" t="str">
@@ -26444,7 +26439,7 @@
     </row>
     <row r="74" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="159" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C74" s="173"/>
       <c r="D74" s="174"/>
@@ -26457,11 +26452,11 @@
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="159" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C75" s="167"/>
       <c r="D75" s="94" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E75" s="168"/>
       <c r="F75" s="168"/>
@@ -26472,7 +26467,7 @@
     </row>
     <row r="76" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="159" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C76" s="173"/>
       <c r="D76" s="178"/>
@@ -26485,11 +26480,11 @@
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="159" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C77" s="173"/>
       <c r="D77" s="174" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E77" s="174"/>
       <c r="F77" s="268" t="str">
@@ -26503,7 +26498,7 @@
     </row>
     <row r="78" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="159" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C78" s="227"/>
       <c r="D78" s="228"/>
@@ -26516,177 +26511,177 @@
     </row>
     <row r="79" customFormat="false" ht="5.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="159" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="159" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="159" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="159" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="159" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="159" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="159" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="159" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="159" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="159" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="159" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="159" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="159" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="159" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="159" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="159" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="159" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="159" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="159" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="159" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="159" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="159" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="159" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="159" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="159" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="159" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="159" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="159" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="159" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="159" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="159" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="159" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="159" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="159" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="159" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
   </sheetData>
@@ -27216,7 +27211,7 @@
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
-  <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
@@ -27257,11 +27252,11 @@
     </row>
     <row r="2" s="270" customFormat="true" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="269" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C2" s="271"/>
       <c r="D2" s="272" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E2" s="272"/>
       <c r="F2" s="273"/>
@@ -27273,41 +27268,41 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="90" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C3" s="97"/>
       <c r="D3" s="23" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E3" s="275"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
       <c r="K3" s="98"/>
     </row>
     <row r="4" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="90" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C4" s="97"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
       <c r="K4" s="98"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="90" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C5" s="93"/>
       <c r="D5" s="94" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E5" s="94"/>
       <c r="F5" s="95"/>
@@ -27319,92 +27314,92 @@
     </row>
     <row r="6" customFormat="false" ht="3.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="90" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C6" s="97"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
       <c r="K6" s="98"/>
     </row>
     <row r="7" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="90" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C7" s="97"/>
       <c r="D7" s="61" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E7" s="99" t="str">
         <f aca="false">A3</f>
         <v>[:lahtotiedot :lammitetty-nettoala]</v>
       </c>
       <c r="F7" s="276" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G7" s="277"/>
-      <c r="J7" s="13"/>
+      <c r="J7" s="14"/>
       <c r="K7" s="98"/>
       <c r="O7" s="29"/>
     </row>
     <row r="8" customFormat="false" ht="3.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="90" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C8" s="97"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
       <c r="K8" s="98"/>
     </row>
     <row r="9" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="90" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C9" s="97"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
       <c r="K9" s="98"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="90" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C10" s="97"/>
       <c r="D10" s="61" t="s">
-        <v>455</v>
-      </c>
-      <c r="E10" s="13"/>
+        <v>454</v>
+      </c>
+      <c r="E10" s="14"/>
       <c r="F10" s="278"/>
       <c r="G10" s="279"/>
       <c r="H10" s="280"/>
       <c r="I10" s="281" t="s">
+        <v>107</v>
+      </c>
+      <c r="J10" s="282" t="s">
         <v>108</v>
-      </c>
-      <c r="J10" s="282" t="s">
-        <v>109</v>
       </c>
       <c r="K10" s="283"/>
     </row>
     <row r="11" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="90" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C11" s="97"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
       <c r="F11" s="284"/>
       <c r="G11" s="38"/>
       <c r="H11" s="112"/>
@@ -27414,11 +27409,11 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="90" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C12" s="97"/>
       <c r="D12" s="287" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E12" s="287"/>
       <c r="F12" s="288"/>
@@ -27437,11 +27432,11 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="90" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C13" s="97"/>
       <c r="D13" s="287" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E13" s="287"/>
       <c r="F13" s="288"/>
@@ -27460,11 +27455,11 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="90" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C14" s="97"/>
       <c r="D14" s="279" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E14" s="287"/>
       <c r="F14" s="288"/>
@@ -27483,11 +27478,11 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="90" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C15" s="97"/>
       <c r="D15" s="279" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E15" s="287"/>
       <c r="F15" s="288"/>
@@ -27506,11 +27501,11 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="90" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C16" s="97"/>
       <c r="D16" s="287" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E16" s="287"/>
       <c r="F16" s="287"/>
@@ -27529,7 +27524,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="90" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C17" s="97"/>
       <c r="D17" s="294" t="str">
@@ -27553,7 +27548,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="90" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C18" s="97"/>
       <c r="D18" s="294" t="str">
@@ -27577,7 +27572,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="90" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C19" s="97"/>
       <c r="D19" s="294" t="str">
@@ -27601,7 +27596,7 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="90" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C20" s="97"/>
       <c r="D20" s="294" t="str">
@@ -27625,7 +27620,7 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="90" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C21" s="97"/>
       <c r="D21" s="294" t="str">
@@ -27649,7 +27644,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="90" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C22" s="97"/>
       <c r="D22" s="295"/>
@@ -27667,7 +27662,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="90" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C23" s="97"/>
       <c r="D23" s="299"/>
@@ -27682,34 +27677,34 @@
     </row>
     <row r="24" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="90" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C24" s="97"/>
       <c r="D24" s="302" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E24" s="302"/>
       <c r="F24" s="303" t="s">
+        <v>474</v>
+      </c>
+      <c r="G24" s="304" t="s">
         <v>475</v>
       </c>
-      <c r="G24" s="304" t="s">
+      <c r="H24" s="303" t="s">
         <v>476</v>
       </c>
-      <c r="H24" s="303" t="s">
-        <v>477</v>
-      </c>
       <c r="I24" s="304" t="s">
+        <v>107</v>
+      </c>
+      <c r="J24" s="305" t="s">
         <v>108</v>
-      </c>
-      <c r="J24" s="305" t="s">
-        <v>109</v>
       </c>
       <c r="K24" s="306"/>
       <c r="Y24" s="23"/>
     </row>
     <row r="25" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="90" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C25" s="97"/>
       <c r="D25" s="61"/>
@@ -27724,11 +27719,11 @@
     </row>
     <row r="26" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="90" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C26" s="97"/>
       <c r="D26" s="287" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E26" s="287"/>
       <c r="F26" s="291" t="str">
@@ -27736,7 +27731,7 @@
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :kevyt-polttooljy]</v>
       </c>
       <c r="G26" s="308" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="H26" s="281" t="n">
         <v>10</v>
@@ -27754,11 +27749,11 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="90" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C27" s="97"/>
       <c r="D27" s="287" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E27" s="287"/>
       <c r="F27" s="291" t="str">
@@ -27766,7 +27761,7 @@
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :pilkkeet-havu-sekapuu]</v>
       </c>
       <c r="G27" s="308" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H27" s="281" t="n">
         <v>1300</v>
@@ -27784,11 +27779,11 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="90" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C28" s="97"/>
       <c r="D28" s="287" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E28" s="287"/>
       <c r="F28" s="291" t="str">
@@ -27796,7 +27791,7 @@
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :pilkkeet-koivu]</v>
       </c>
       <c r="G28" s="308" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H28" s="281" t="n">
         <v>1700</v>
@@ -27814,11 +27809,11 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="90" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C29" s="97"/>
       <c r="D29" s="287" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E29" s="287"/>
       <c r="F29" s="291" t="str">
@@ -27826,7 +27821,7 @@
         <v>[:toteutunut-ostoenergiankulutus :ostetut-polttoaineet :puupelletit]</v>
       </c>
       <c r="G29" s="308" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="H29" s="281" t="n">
         <v>4.7</v>
@@ -27844,7 +27839,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="90" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C30" s="97"/>
       <c r="D30" s="312" t="str">
@@ -27877,7 +27872,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="90" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C31" s="97"/>
       <c r="D31" s="312" t="str">
@@ -27910,7 +27905,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="90" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C32" s="97"/>
       <c r="D32" s="315"/>
@@ -27931,7 +27926,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="90" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C33" s="97"/>
       <c r="D33" s="315"/>
@@ -27952,7 +27947,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="90" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C34" s="97"/>
       <c r="D34" s="315"/>
@@ -27973,7 +27968,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="90" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C35" s="97"/>
       <c r="D35" s="315"/>
@@ -27994,7 +27989,7 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="90" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C36" s="97"/>
       <c r="D36" s="315"/>
@@ -28015,7 +28010,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="90" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C37" s="97"/>
       <c r="D37" s="315"/>
@@ -28036,7 +28031,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="90" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C38" s="97"/>
       <c r="D38" s="315"/>
@@ -28057,7 +28052,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="90" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C39" s="97"/>
       <c r="D39" s="315"/>
@@ -28078,7 +28073,7 @@
     </row>
     <row r="40" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="90" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C40" s="97"/>
       <c r="D40" s="299"/>
@@ -28093,11 +28088,11 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="90" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C41" s="97"/>
       <c r="D41" s="317" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E41" s="299"/>
       <c r="F41" s="288"/>
@@ -28110,7 +28105,7 @@
     </row>
     <row r="42" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="90" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C42" s="97"/>
       <c r="D42" s="318"/>
@@ -28125,7 +28120,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="90" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C43" s="97"/>
       <c r="D43" s="299"/>
@@ -28140,11 +28135,11 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="90" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C44" s="97"/>
       <c r="D44" s="61" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E44" s="299"/>
       <c r="F44" s="288"/>
@@ -28157,7 +28152,7 @@
     </row>
     <row r="45" customFormat="false" ht="6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="90" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C45" s="97"/>
       <c r="D45" s="61"/>
@@ -28172,7 +28167,7 @@
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A46" s="90" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C46" s="97"/>
       <c r="D46" s="61"/>
@@ -28181,21 +28176,21 @@
       <c r="G46" s="289"/>
       <c r="H46" s="288"/>
       <c r="I46" s="281" t="s">
+        <v>107</v>
+      </c>
+      <c r="J46" s="282" t="s">
         <v>108</v>
-      </c>
-      <c r="J46" s="282" t="s">
-        <v>109</v>
       </c>
       <c r="K46" s="283"/>
       <c r="Y46" s="23"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="90" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C47" s="97"/>
       <c r="D47" s="23" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E47" s="23"/>
       <c r="F47" s="323"/>
@@ -28214,11 +28209,11 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="90" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C48" s="97"/>
       <c r="D48" s="23" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E48" s="23"/>
       <c r="F48" s="323"/>
@@ -28237,11 +28232,11 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="90" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C49" s="97"/>
       <c r="D49" s="23" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E49" s="23"/>
       <c r="F49" s="323"/>
@@ -28260,11 +28255,11 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="90" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C50" s="97"/>
       <c r="D50" s="23" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E50" s="23"/>
       <c r="F50" s="323"/>
@@ -28283,14 +28278,14 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="90" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C51" s="97"/>
       <c r="D51" s="61" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E51" s="61"/>
-      <c r="F51" s="13"/>
+      <c r="F51" s="14"/>
       <c r="G51" s="38"/>
       <c r="H51" s="38"/>
       <c r="I51" s="310" t="str">
@@ -28305,12 +28300,12 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="90" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C52" s="97"/>
       <c r="D52" s="61"/>
       <c r="E52" s="61"/>
-      <c r="F52" s="13"/>
+      <c r="F52" s="14"/>
       <c r="G52" s="38"/>
       <c r="H52" s="38"/>
       <c r="I52" s="38"/>
@@ -28319,11 +28314,11 @@
     </row>
     <row r="53" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="90" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C53" s="97"/>
       <c r="D53" s="143" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E53" s="143"/>
       <c r="F53" s="143"/>
@@ -28335,7 +28330,7 @@
     </row>
     <row r="54" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="90" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C54" s="97"/>
       <c r="D54" s="143"/>
@@ -28349,7 +28344,7 @@
     </row>
     <row r="55" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="90" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C55" s="97"/>
       <c r="D55" s="143"/>
@@ -28363,7 +28358,7 @@
     </row>
     <row r="56" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="90" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C56" s="97"/>
       <c r="D56" s="143"/>
@@ -28377,7 +28372,7 @@
     </row>
     <row r="57" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="90" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C57" s="97"/>
       <c r="D57" s="143"/>
@@ -28391,7 +28386,7 @@
     </row>
     <row r="58" customFormat="false" ht="3.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="90" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C58" s="144"/>
       <c r="D58" s="145"/>
@@ -28406,47 +28401,47 @@
     </row>
     <row r="59" customFormat="false" ht="4.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="90" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="90" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="90" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="90" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="90" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="90" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="90" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="90" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="90" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
   </sheetData>
@@ -29125,7 +29120,7 @@
     </cfRule>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
-  <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
@@ -29163,10 +29158,10 @@
     </row>
     <row r="2" s="329" customFormat="true" ht="55.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="328" t="s">
+        <v>533</v>
+      </c>
+      <c r="C2" s="330" t="s">
         <v>534</v>
-      </c>
-      <c r="C2" s="330" t="s">
-        <v>535</v>
       </c>
       <c r="D2" s="330"/>
       <c r="E2" s="330"/>
@@ -29175,10 +29170,10 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="151" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C3" s="331" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D3" s="331"/>
       <c r="E3" s="331"/>
@@ -29187,7 +29182,7 @@
     </row>
     <row r="4" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="327" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C4" s="144"/>
       <c r="D4" s="5"/>
@@ -29197,10 +29192,10 @@
     </row>
     <row r="5" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="327" t="s">
+        <v>537</v>
+      </c>
+      <c r="C5" s="332" t="s">
         <v>538</v>
-      </c>
-      <c r="C5" s="332" t="s">
-        <v>539</v>
       </c>
       <c r="D5" s="94"/>
       <c r="E5" s="168"/>
@@ -29209,7 +29204,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="327" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C6" s="333" t="str">
         <f aca="false">A3</f>
@@ -29222,7 +29217,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="327" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C7" s="333"/>
       <c r="D7" s="333"/>
@@ -29232,7 +29227,7 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="327" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C8" s="333"/>
       <c r="D8" s="333"/>
@@ -29242,7 +29237,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="327" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C9" s="333"/>
       <c r="D9" s="333"/>
@@ -29252,7 +29247,7 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="327" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C10" s="333"/>
       <c r="D10" s="333"/>
@@ -29262,7 +29257,7 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="327" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C11" s="333"/>
       <c r="D11" s="333"/>
@@ -29272,7 +29267,7 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="327" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C12" s="333"/>
       <c r="D12" s="333"/>
@@ -29282,7 +29277,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="327" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C13" s="333"/>
       <c r="D13" s="333"/>
@@ -29292,7 +29287,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="327" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C14" s="333"/>
       <c r="D14" s="333"/>
@@ -29302,7 +29297,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="327" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C15" s="333"/>
       <c r="D15" s="333"/>
@@ -29312,10 +29307,10 @@
     </row>
     <row r="16" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="151" t="s">
+        <v>549</v>
+      </c>
+      <c r="C16" s="334" t="s">
         <v>550</v>
-      </c>
-      <c r="C16" s="334" t="s">
-        <v>551</v>
       </c>
       <c r="D16" s="334"/>
       <c r="E16" s="334"/>
@@ -29324,7 +29319,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="151" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C17" s="335" t="n">
         <v>1</v>
@@ -29339,7 +29334,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="151" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C18" s="335" t="n">
         <v>2</v>
@@ -29354,7 +29349,7 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="151" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C19" s="335" t="n">
         <v>3</v>
@@ -29369,43 +29364,43 @@
     </row>
     <row r="20" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="151" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C20" s="337"/>
       <c r="D20" s="338" t="s">
+        <v>555</v>
+      </c>
+      <c r="E20" s="338" t="s">
         <v>556</v>
       </c>
-      <c r="E20" s="338" t="s">
+      <c r="F20" s="338" t="s">
         <v>557</v>
       </c>
-      <c r="F20" s="338" t="s">
+      <c r="G20" s="339" t="s">
         <v>558</v>
-      </c>
-      <c r="G20" s="339" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="151" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C21" s="337"/>
       <c r="D21" s="108" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E21" s="108" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F21" s="108" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G21" s="108" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="151" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C22" s="335" t="n">
         <v>1</v>
@@ -29429,7 +29424,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="151" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C23" s="335" t="n">
         <v>2</v>
@@ -29453,7 +29448,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="151" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C24" s="335" t="n">
         <v>3</v>
@@ -29477,10 +29472,10 @@
     </row>
     <row r="25" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="151" t="s">
+        <v>564</v>
+      </c>
+      <c r="C25" s="341" t="s">
         <v>565</v>
-      </c>
-      <c r="C25" s="341" t="s">
-        <v>566</v>
       </c>
       <c r="D25" s="94"/>
       <c r="E25" s="168"/>
@@ -29489,7 +29484,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="151" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C26" s="333" t="str">
         <f aca="false">A23</f>
@@ -29502,7 +29497,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="151" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C27" s="333"/>
       <c r="D27" s="333"/>
@@ -29512,7 +29507,7 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="151" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C28" s="333"/>
       <c r="D28" s="333"/>
@@ -29522,7 +29517,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="151" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C29" s="333"/>
       <c r="D29" s="333"/>
@@ -29532,7 +29527,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="151" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C30" s="333"/>
       <c r="D30" s="333"/>
@@ -29542,7 +29537,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="151" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C31" s="333"/>
       <c r="D31" s="333"/>
@@ -29552,7 +29547,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="151" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C32" s="333"/>
       <c r="D32" s="333"/>
@@ -29562,7 +29557,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="151" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C33" s="333"/>
       <c r="D33" s="333"/>
@@ -29572,7 +29567,7 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="151" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C34" s="333"/>
       <c r="D34" s="333"/>
@@ -29582,7 +29577,7 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="151" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C35" s="333"/>
       <c r="D35" s="333"/>
@@ -29592,10 +29587,10 @@
     </row>
     <row r="36" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="151" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C36" s="334" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D36" s="334"/>
       <c r="E36" s="334"/>
@@ -29604,7 +29599,7 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="151" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C37" s="335" t="n">
         <v>1</v>
@@ -29619,7 +29614,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="151" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C38" s="335" t="n">
         <v>2</v>
@@ -29634,7 +29629,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="151" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C39" s="335" t="n">
         <v>3</v>
@@ -29649,43 +29644,43 @@
     </row>
     <row r="40" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="151" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C40" s="337"/>
       <c r="D40" s="338" t="s">
+        <v>555</v>
+      </c>
+      <c r="E40" s="338" t="s">
         <v>556</v>
       </c>
-      <c r="E40" s="338" t="s">
+      <c r="F40" s="338" t="s">
         <v>557</v>
       </c>
-      <c r="F40" s="338" t="s">
+      <c r="G40" s="339" t="s">
         <v>558</v>
-      </c>
-      <c r="G40" s="339" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="151" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C41" s="337"/>
       <c r="D41" s="108" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E41" s="108" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F41" s="108" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G41" s="108" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="151" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C42" s="335" t="n">
         <v>1</v>
@@ -29709,7 +29704,7 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="151" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C43" s="335" t="n">
         <v>2</v>
@@ -29733,7 +29728,7 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="151" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C44" s="335" t="n">
         <v>3</v>
@@ -29757,10 +29752,10 @@
     </row>
     <row r="45" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="151" t="s">
+        <v>585</v>
+      </c>
+      <c r="C45" s="341" t="s">
         <v>586</v>
-      </c>
-      <c r="C45" s="341" t="s">
-        <v>587</v>
       </c>
       <c r="D45" s="343"/>
       <c r="E45" s="30"/>
@@ -29769,7 +29764,7 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="151" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C46" s="333" t="str">
         <f aca="false">A43</f>
@@ -29782,7 +29777,7 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="151" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C47" s="333"/>
       <c r="D47" s="333"/>
@@ -29792,7 +29787,7 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="151" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C48" s="333"/>
       <c r="D48" s="333"/>
@@ -29802,7 +29797,7 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="151" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C49" s="333"/>
       <c r="D49" s="333"/>
@@ -29812,7 +29807,7 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="151" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C50" s="333"/>
       <c r="D50" s="333"/>
@@ -29822,7 +29817,7 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="151" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C51" s="333"/>
       <c r="D51" s="333"/>
@@ -29832,7 +29827,7 @@
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="151" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C52" s="333"/>
       <c r="D52" s="333"/>
@@ -29842,7 +29837,7 @@
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="151" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C53" s="333"/>
       <c r="D53" s="333"/>
@@ -29852,7 +29847,7 @@
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="151" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C54" s="333"/>
       <c r="D54" s="333"/>
@@ -29862,7 +29857,7 @@
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="151" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C55" s="333"/>
       <c r="D55" s="333"/>
@@ -29872,10 +29867,10 @@
     </row>
     <row r="56" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A56" s="151" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C56" s="334" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D56" s="334"/>
       <c r="E56" s="334"/>
@@ -29884,7 +29879,7 @@
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="151" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C57" s="335" t="n">
         <v>1</v>
@@ -29899,7 +29894,7 @@
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="151" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C58" s="335" t="n">
         <v>2</v>
@@ -29914,7 +29909,7 @@
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="151" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C59" s="335" t="n">
         <v>3</v>
@@ -29929,38 +29924,38 @@
     </row>
     <row r="60" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="151" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C60" s="337"/>
       <c r="D60" s="338" t="s">
+        <v>555</v>
+      </c>
+      <c r="E60" s="338" t="s">
         <v>556</v>
       </c>
-      <c r="E60" s="338" t="s">
+      <c r="F60" s="338" t="s">
         <v>557</v>
       </c>
-      <c r="F60" s="338" t="s">
+      <c r="G60" s="339" t="s">
         <v>558</v>
-      </c>
-      <c r="G60" s="339" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="151" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C61" s="337"/>
       <c r="D61" s="108" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E61" s="108" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F61" s="108" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G61" s="108" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -30175,7 +30170,7 @@
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="true" verticalCentered="false"/>
-  <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageMargins left="0.708333333333333" right="0.708333333333333" top="0.7875" bottom="0.7875" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
@@ -30213,10 +30208,10 @@
     </row>
     <row r="2" customFormat="false" ht="21.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="327" t="s">
+        <v>603</v>
+      </c>
+      <c r="C2" s="332" t="s">
         <v>604</v>
-      </c>
-      <c r="C2" s="332" t="s">
-        <v>605</v>
       </c>
       <c r="D2" s="94"/>
       <c r="E2" s="168"/>
@@ -30225,7 +30220,7 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="327" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="C3" s="333" t="str">
         <f aca="false">A3</f>
@@ -30238,7 +30233,7 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="327" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C4" s="333"/>
       <c r="D4" s="333"/>
@@ -30248,7 +30243,7 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="327" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C5" s="333"/>
       <c r="D5" s="333"/>
@@ -30258,7 +30253,7 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight